--- a/Plan/스테이지_1_맵_기획.xlsx
+++ b/Plan/스테이지_1_맵_기획.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COCONUT\Documents\BadGuys_2022\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFFD25C-3104-44D8-8FC7-5F62D0740CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8722D22E-2DBD-4170-833A-3EE1818524FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E94DDF52-5676-4757-AD64-D7689B00AF4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E94DDF52-5676-4757-AD64-D7689B00AF4B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main Stage" sheetId="1" r:id="rId1"/>
+    <sheet name="R_Stage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>현관</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,6 +97,165 @@
   <si>
     <t>메인 
 그림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 ( 배경 막는 용도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이젤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠핑용 의자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 관련 대사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고 ( 조건 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이 그림이 아마 환자의 추억에 관련된 것 같아. '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 아마 처음으로 나룻터에 여행을 와봤을거야. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 노을지는 해를 보며 저 해가 잡고 싶다고 했었어. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진입 시 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 그림을 그리려고 했었지 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼즐 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림에 처음 접촉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이 그림이 아마 중요한 열쇠 같은데? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아마 증상의 단서가 될 수 있을 것 같네. '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐
+트
+입
+구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔레트 획득 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이 안에 색깔을 채워 넣을 수 있을 것 같아 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나룻터 나무 ( 팔레트와 상호작용 가능 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해 ( 팔레트와 상호작용 가능 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배 ( 위에 있어야 노가 있고, 상호작용하면 끝까지 감, 다시 상호작용하면 다시 옴 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐트 ( 팔레트와 상호작용 가능 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나룻터 나무 색깔 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 나룻터를 그려넣으면 좋겠는데? "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태양 색깔 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 노을 지는 해는 정말 예쁜 것 같아 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐트 색깔 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 색깔도 필요하겠지? "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>색깔 모두 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 캔버스에 채워넣으면 될 것 같아 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>( 의자에 팔레트가 올려져 있음 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스폰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +319,64 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +451,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,7 +686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -441,99 +717,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -544,16 +733,196 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -872,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086DB6AF-1EE8-4860-8BED-5FE1DAD876C6}">
   <dimension ref="B1:AI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AI13" sqref="AI13"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -918,18 +1287,18 @@
     </row>
     <row r="3" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="5"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -956,16 +1325,16 @@
     </row>
     <row r="4" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
       <c r="M4" s="5"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -978,12 +1347,12 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="27" t="s">
+      <c r="Y4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="29"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="3"/>
@@ -994,16 +1363,16 @@
     </row>
     <row r="5" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
       <c r="M5" s="5"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1012,16 +1381,16 @@
       <c r="R5" s="1"/>
       <c r="S5" s="5"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="27" t="s">
+      <c r="U5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="36"/>
+      <c r="V5" s="43"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="32"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="39"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="3"/>
@@ -1032,16 +1401,16 @@
     </row>
     <row r="6" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
       <c r="M6" s="5"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1050,14 +1419,14 @@
       <c r="R6" s="1"/>
       <c r="S6" s="5"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="38"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="45"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="35"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="42"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="3"/>
@@ -1068,16 +1437,16 @@
     </row>
     <row r="7" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
       <c r="M7" s="5"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1104,16 +1473,16 @@
     </row>
     <row r="8" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
       <c r="M8" s="5"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1126,12 +1495,12 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="21" t="s">
+      <c r="Y8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="23"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="30"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="3"/>
@@ -1142,16 +1511,16 @@
     </row>
     <row r="9" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
       <c r="M9" s="5"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1164,10 +1533,10 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="26"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="33"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="3"/>
@@ -1178,16 +1547,16 @@
     </row>
     <row r="10" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
       <c r="M10" s="5"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1207,7 +1576,7 @@
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="3"/>
-      <c r="AH10" s="16"/>
+      <c r="AH10" s="10"/>
       <c r="AI10" t="s">
         <v>8</v>
       </c>
@@ -1243,26 +1612,26 @@
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="3"/>
-      <c r="AH11" s="20"/>
+      <c r="AH11" s="11"/>
       <c r="AI11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1279,7 +1648,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
-      <c r="AD12" s="20"/>
+      <c r="AD12" s="11"/>
       <c r="AE12" s="3"/>
       <c r="AH12" s="4"/>
       <c r="AI12" t="s">
@@ -1288,17 +1657,17 @@
     </row>
     <row r="13" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1315,22 +1684,22 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
-      <c r="AD13" s="20"/>
+      <c r="AD13" s="11"/>
       <c r="AE13" s="3"/>
     </row>
     <row r="14" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1347,22 +1716,22 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
-      <c r="AD14" s="20"/>
+      <c r="AD14" s="11"/>
       <c r="AE14" s="3"/>
     </row>
     <row r="15" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1379,22 +1748,22 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
-      <c r="AD15" s="20"/>
+      <c r="AD15" s="11"/>
       <c r="AE15" s="3"/>
     </row>
     <row r="16" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1416,17 +1785,17 @@
     </row>
     <row r="17" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1434,31 +1803,31 @@
       <c r="R17" s="1"/>
       <c r="S17" s="5"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
       <c r="AC17" s="7"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="3"/>
     </row>
     <row r="18" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1480,7 +1849,7 @@
     </row>
     <row r="19" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1"/>
@@ -1502,21 +1871,21 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="39" t="s">
+      <c r="W19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="39"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="39"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
-      <c r="C20" s="45"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1536,19 +1905,19 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="46"/>
       <c r="AE20" s="3"/>
     </row>
     <row r="21" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
-      <c r="C21" s="45"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1568,31 +1937,31 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="39"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
       <c r="AE21" s="3"/>
     </row>
     <row r="22" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
-      <c r="C22" s="45"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1602,29 +1971,29 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="46"/>
       <c r="AE22" s="3"/>
     </row>
     <row r="23" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
-      <c r="C23" s="45"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="12"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="24"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1634,29 +2003,29 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="46"/>
       <c r="AE23" s="3"/>
     </row>
     <row r="24" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
-      <c r="C24" s="45"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="12"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="24"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -1666,29 +2035,29 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="46"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="46"/>
       <c r="AE24" s="3"/>
     </row>
     <row r="25" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
-      <c r="C25" s="45"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="12"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="24"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -1698,29 +2067,29 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
       <c r="AE25" s="3"/>
     </row>
     <row r="26" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
-      <c r="C26" s="45"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="12"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="24"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -1730,29 +2099,29 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="39"/>
-      <c r="AC26" s="39"/>
-      <c r="AD26" s="39"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="46"/>
       <c r="AE26" s="3"/>
     </row>
     <row r="27" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
-      <c r="C27" s="45"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="12"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="24"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -1762,29 +2131,29 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="46"/>
       <c r="AE27" s="3"/>
     </row>
     <row r="28" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="45"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="12"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="24"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -1794,29 +2163,29 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="39"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="46"/>
       <c r="AE28" s="3"/>
     </row>
     <row r="29" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="45"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="15"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="27"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1826,19 +2195,19 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="39"/>
-      <c r="AB29" s="39"/>
-      <c r="AC29" s="39"/>
-      <c r="AD29" s="39"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="46"/>
+      <c r="AB29" s="46"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="46"/>
       <c r="AE29" s="3"/>
     </row>
     <row r="30" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="46"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1858,14 +2227,14 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="39"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="46"/>
       <c r="AE30" s="3"/>
     </row>
     <row r="31" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1874,13 +2243,13 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="42" t="s">
+      <c r="G31" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="44"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="15"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -1922,4 +2291,1303 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1FA2A1-5030-4DF8-9AA0-DBF61064659B}">
+  <dimension ref="B1:AO116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AW18" sqref="AW18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="39" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+    </row>
+    <row r="3" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="48"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="48"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="48"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="48"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="48"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="76"/>
+      <c r="AL5" s="48"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="48"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="48"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="48"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="76"/>
+      <c r="AL7" s="48"/>
+      <c r="AN7" s="76"/>
+      <c r="AO7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="48"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="76"/>
+      <c r="AL8" s="48"/>
+      <c r="AN8" s="62"/>
+      <c r="AO8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="48"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="48"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="48"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="54"/>
+      <c r="AH10" s="54"/>
+      <c r="AI10" s="54"/>
+      <c r="AJ10" s="54"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="48"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="48"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="54"/>
+      <c r="AH11" s="54"/>
+      <c r="AI11" s="54"/>
+      <c r="AJ11" s="54"/>
+      <c r="AK11" s="76"/>
+      <c r="AL11" s="48"/>
+      <c r="AN11" s="59"/>
+      <c r="AO11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="48"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="54"/>
+      <c r="AH12" s="54"/>
+      <c r="AI12" s="54"/>
+      <c r="AJ12" s="54"/>
+      <c r="AK12" s="76"/>
+      <c r="AL12" s="48"/>
+      <c r="AN12" s="75"/>
+      <c r="AO12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="48"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="60"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="54"/>
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="48"/>
+    </row>
+    <row r="14" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="48"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="54"/>
+      <c r="AI14" s="54"/>
+      <c r="AJ14" s="54"/>
+      <c r="AK14" s="76"/>
+      <c r="AL14" s="48"/>
+    </row>
+    <row r="15" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="48"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="53"/>
+      <c r="AC15" s="53"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="54"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="76"/>
+      <c r="AL15" s="48"/>
+    </row>
+    <row r="16" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="48"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="53"/>
+      <c r="AG16" s="54"/>
+      <c r="AH16" s="54"/>
+      <c r="AI16" s="54"/>
+      <c r="AJ16" s="54"/>
+      <c r="AK16" s="76"/>
+      <c r="AL16" s="48"/>
+    </row>
+    <row r="17" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="48"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="48"/>
+    </row>
+    <row r="18" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="48"/>
+    </row>
+    <row r="19" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+    </row>
+    <row r="21" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="V21" s="67"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
+    </row>
+    <row r="22" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="67"/>
+      <c r="E22" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22" s="67"/>
+      <c r="W22" s="67"/>
+      <c r="X22" s="67"/>
+    </row>
+    <row r="23" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="67"/>
+      <c r="E23" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+    </row>
+    <row r="24" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+    </row>
+    <row r="25" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+    </row>
+    <row r="26" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="67"/>
+      <c r="E26" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+    </row>
+    <row r="27" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="67"/>
+      <c r="E27" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
+    </row>
+    <row r="28" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="V28" s="67"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="67"/>
+    </row>
+    <row r="29" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+    </row>
+    <row r="30" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="V30" s="67"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="67"/>
+    </row>
+    <row r="31" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="67"/>
+      <c r="E31" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="V31" s="67"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="67"/>
+    </row>
+    <row r="32" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="V32" s="67"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="67"/>
+    </row>
+    <row r="33" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="69"/>
+      <c r="X33" s="69"/>
+    </row>
+    <row r="34" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F4:H6"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:T29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="E27:T27"/>
+    <mergeCell ref="E28:T28"/>
+    <mergeCell ref="E30:T30"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="E21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="E22:T22"/>
+    <mergeCell ref="E23:T23"/>
+    <mergeCell ref="E24:T24"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B20:X20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:T26"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Plan/스테이지_1_맵_기획.xlsx
+++ b/Plan/스테이지_1_맵_기획.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COCONUT\Documents\BadGuys_2022\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8722D22E-2DBD-4170-833A-3EE1818524FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FDB377-2896-4310-9116-50D0560DE9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E94DDF52-5676-4757-AD64-D7689B00AF4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E94DDF52-5676-4757-AD64-D7689B00AF4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Stage" sheetId="1" r:id="rId1"/>
     <sheet name="R_Stage" sheetId="2" r:id="rId2"/>
+    <sheet name="G_Stage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
   <si>
     <t>현관</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -256,6 +257,138 @@
   </si>
   <si>
     <t>스폰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바리게이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에메랄드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 ( 통과 불가 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 유형 그림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 유형 그림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번 유형 그림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번 유형 그림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 여자친구와 함께 미술관에 가곤 했었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; 겨울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; 가을</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; 여름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; 봄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 이 그림도 환자의 증상에 연관이 있겠군. '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 아마 이 번호 따라서 색깔이 변하는거 같은데? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 그림 접촉 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리어 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 에메랄드는 변하지 않는 행복을 상징한다고 했었나 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 중학생 때 이런 퍼즐을 풀면서 시간을 보냈었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 그림 접촉 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 또 다른 퍼즐인가? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 그림을 처음 배울 때엔 이런 것도 했었지 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세번째 그림 접촉 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 이 그림들, 하나로 합칠수 있겠는데 ? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 언젠가는 나도 이런 작품을 만들고 싶어. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 응, 꼭 할 수 있을거야. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세번째 그림 클리어 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네번째 그림 접촉 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 이 그림들 되게 비현실적인데, 말할거 같아 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 우선 모든 전원이 돌아온 것 같아 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네번째 그림 클리어 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각을 모두 모았을 때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 아마 이 조각들은 보석 보관함을 여는데 쓸 수 있을 거야 '</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +509,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,6 +644,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,6 +880,81 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -831,98 +1063,41 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1242,7 +1417,7 @@
   <dimension ref="B1:AI35"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1287,18 +1462,18 @@
     </row>
     <row r="3" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
       <c r="M3" s="5"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -1325,16 +1500,16 @@
     </row>
     <row r="4" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
       <c r="M4" s="5"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1347,12 +1522,12 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="34" t="s">
+      <c r="Y4" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="36"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="61"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="3"/>
@@ -1363,16 +1538,16 @@
     </row>
     <row r="5" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
       <c r="M5" s="5"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1381,16 +1556,16 @@
       <c r="R5" s="1"/>
       <c r="S5" s="5"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="34" t="s">
+      <c r="U5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="43"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="39"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="64"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="3"/>
@@ -1401,16 +1576,16 @@
     </row>
     <row r="6" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
       <c r="M6" s="5"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1419,14 +1594,14 @@
       <c r="R6" s="1"/>
       <c r="S6" s="5"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="45"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="70"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="42"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="67"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="3"/>
@@ -1437,16 +1612,16 @@
     </row>
     <row r="7" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
       <c r="M7" s="5"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1473,16 +1648,16 @@
     </row>
     <row r="8" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="5"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1495,12 +1670,12 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="28" t="s">
+      <c r="Y8" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="30"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="55"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="3"/>
@@ -1511,16 +1686,16 @@
     </row>
     <row r="9" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
       <c r="M9" s="5"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1533,10 +1708,10 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="33"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="58"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="3"/>
@@ -1547,16 +1722,16 @@
     </row>
     <row r="10" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
       <c r="M10" s="5"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1619,19 +1794,19 @@
     </row>
     <row r="12" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1657,17 +1832,17 @@
     </row>
     <row r="13" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1689,17 +1864,17 @@
     </row>
     <row r="14" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1721,17 +1896,17 @@
     </row>
     <row r="15" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1753,17 +1928,17 @@
     </row>
     <row r="16" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1785,17 +1960,17 @@
     </row>
     <row r="17" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1817,17 +1992,17 @@
     </row>
     <row r="18" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1849,7 +2024,7 @@
     </row>
     <row r="19" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1"/>
@@ -1871,21 +2046,21 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="46" t="s">
+      <c r="W19" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="46"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="71"/>
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
-      <c r="C20" s="17"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1905,19 +2080,19 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
       <c r="AE20" s="3"/>
     </row>
     <row r="21" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
-      <c r="C21" s="17"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1937,31 +2112,31 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
       <c r="AE21" s="3"/>
     </row>
     <row r="22" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
-      <c r="C22" s="17"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="21"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="46"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1971,29 +2146,29 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="46"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="71"/>
       <c r="AE22" s="3"/>
     </row>
     <row r="23" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
-      <c r="C23" s="17"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="24"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="49"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2003,29 +2178,29 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="46"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="71"/>
       <c r="AE23" s="3"/>
     </row>
     <row r="24" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="24"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="49"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2035,29 +2210,29 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="46"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="46"/>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="46"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="71"/>
       <c r="AE24" s="3"/>
     </row>
     <row r="25" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
-      <c r="C25" s="17"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="24"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="49"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2067,29 +2242,29 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="46"/>
-      <c r="AA25" s="46"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="46"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="71"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="71"/>
       <c r="AE25" s="3"/>
     </row>
     <row r="26" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
-      <c r="C26" s="17"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="24"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="49"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2099,29 +2274,29 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="46"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
+      <c r="AC26" s="71"/>
+      <c r="AD26" s="71"/>
       <c r="AE26" s="3"/>
     </row>
     <row r="27" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
-      <c r="C27" s="17"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="24"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="49"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2131,29 +2306,29 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="46"/>
-      <c r="AB27" s="46"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="46"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="71"/>
       <c r="AE27" s="3"/>
     </row>
     <row r="28" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="17"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="24"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="49"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2163,29 +2338,29 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="46"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="46"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="71"/>
+      <c r="AD28" s="71"/>
       <c r="AE28" s="3"/>
     </row>
     <row r="29" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="17"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="27"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="52"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -2195,19 +2370,19 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="46"/>
-      <c r="AB29" s="46"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="46"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="71"/>
       <c r="AE29" s="3"/>
     </row>
     <row r="30" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="18"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2227,14 +2402,14 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="46"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="71"/>
       <c r="AE30" s="3"/>
     </row>
     <row r="31" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2243,13 +2418,13 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="15"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="40"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -2297,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1FA2A1-5030-4DF8-9AA0-DBF61064659B}">
   <dimension ref="B1:AO116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AW18" sqref="AW18"/>
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2308,1159 +2483,1159 @@
   <sheetData>
     <row r="1" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
     </row>
     <row r="3" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="48"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="48"/>
-      <c r="AN3" s="58"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="12"/>
+      <c r="AN3" s="22"/>
       <c r="AO3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="78" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="48"/>
-      <c r="AN4" s="51"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="12"/>
+      <c r="AN4" s="15"/>
       <c r="AO4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="48"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="54"/>
-      <c r="AK5" s="76"/>
-      <c r="AL5" s="48"/>
-      <c r="AN5" s="59"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="12"/>
+      <c r="AN5" s="23"/>
       <c r="AO5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="53"/>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="54"/>
-      <c r="AI6" s="54"/>
-      <c r="AJ6" s="54"/>
-      <c r="AK6" s="76"/>
-      <c r="AL6" s="48"/>
-      <c r="AN6" s="54"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="12"/>
+      <c r="AN6" s="18"/>
       <c r="AO6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="54"/>
-      <c r="AI7" s="54"/>
-      <c r="AJ7" s="54"/>
-      <c r="AK7" s="76"/>
-      <c r="AL7" s="48"/>
-      <c r="AN7" s="76"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="12"/>
+      <c r="AN7" s="35"/>
       <c r="AO7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="48"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="53"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="76"/>
-      <c r="AL8" s="48"/>
-      <c r="AN8" s="62"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="12"/>
+      <c r="AN8" s="26"/>
       <c r="AO8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="48"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="76"/>
-      <c r="AL9" s="48"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="12"/>
       <c r="AN9" s="7"/>
       <c r="AO9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="48"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="54"/>
-      <c r="AI10" s="54"/>
-      <c r="AJ10" s="54"/>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="48"/>
-      <c r="AN10" s="65"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="12"/>
+      <c r="AN10" s="29"/>
       <c r="AO10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="48"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="54"/>
-      <c r="AJ11" s="54"/>
-      <c r="AK11" s="76"/>
-      <c r="AL11" s="48"/>
-      <c r="AN11" s="59"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="12"/>
+      <c r="AN11" s="23"/>
       <c r="AO11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="48"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="53"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="54"/>
-      <c r="AI12" s="54"/>
-      <c r="AJ12" s="54"/>
-      <c r="AK12" s="76"/>
-      <c r="AL12" s="48"/>
-      <c r="AN12" s="75"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="12"/>
+      <c r="AN12" s="34"/>
       <c r="AO12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="48"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="73" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="60"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="58"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="22"/>
       <c r="N13" s="10"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="53"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="54"/>
-      <c r="AJ13" s="54"/>
-      <c r="AK13" s="76"/>
-      <c r="AL13" s="48"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="12"/>
     </row>
     <row r="14" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="48"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="58"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="22"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="53"/>
-      <c r="AE14" s="53"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="54"/>
-      <c r="AI14" s="54"/>
-      <c r="AJ14" s="54"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="48"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="12"/>
     </row>
     <row r="15" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="48"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="58"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="22"/>
       <c r="N15" s="10"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="53"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="53"/>
-      <c r="AF15" s="53"/>
-      <c r="AG15" s="54"/>
-      <c r="AH15" s="54"/>
-      <c r="AI15" s="54"/>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="76"/>
-      <c r="AL15" s="48"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="12"/>
     </row>
     <row r="16" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="48"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="53"/>
-      <c r="AE16" s="53"/>
-      <c r="AF16" s="53"/>
-      <c r="AG16" s="54"/>
-      <c r="AH16" s="54"/>
-      <c r="AI16" s="54"/>
-      <c r="AJ16" s="54"/>
-      <c r="AK16" s="76"/>
-      <c r="AL16" s="48"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="12"/>
     </row>
     <row r="17" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="48"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="54"/>
-      <c r="AK17" s="54"/>
-      <c r="AL17" s="48"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="12"/>
     </row>
     <row r="18" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="48"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
     </row>
     <row r="19" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
     </row>
     <row r="21" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67" t="s">
+      <c r="D21" s="73"/>
+      <c r="E21" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67" t="s">
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="V21" s="67"/>
-      <c r="W21" s="67"/>
-      <c r="X21" s="67"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="73"/>
     </row>
     <row r="22" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="70" t="s">
+      <c r="D22" s="73"/>
+      <c r="E22" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67" t="s">
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="V22" s="67"/>
-      <c r="W22" s="67"/>
-      <c r="X22" s="67"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
     </row>
     <row r="23" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="70" t="s">
+      <c r="D23" s="73"/>
+      <c r="E23" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67" t="s">
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="V23" s="67"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="67"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
     </row>
     <row r="24" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67" t="s">
+      <c r="D24" s="73"/>
+      <c r="E24" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67" t="s">
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="73"/>
     </row>
     <row r="25" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67" t="s">
+      <c r="D25" s="73"/>
+      <c r="E25" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67" t="s">
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
-      <c r="X25" s="67"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
     </row>
     <row r="26" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="70" t="s">
+      <c r="D26" s="73"/>
+      <c r="E26" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="70"/>
-      <c r="U26" s="67" t="s">
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
-      <c r="X26" s="67"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
     </row>
     <row r="27" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="70" t="s">
+      <c r="D27" s="73"/>
+      <c r="E27" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67" t="s">
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
-      <c r="X27" s="67"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
     </row>
     <row r="28" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>6</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67" t="s">
+      <c r="D28" s="73"/>
+      <c r="E28" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67" t="s">
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="V28" s="67"/>
-      <c r="W28" s="67"/>
-      <c r="X28" s="67"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="73"/>
     </row>
     <row r="29" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>7</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67" t="s">
+      <c r="D29" s="73"/>
+      <c r="E29" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="67" t="s">
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="V29" s="67"/>
-      <c r="W29" s="67"/>
-      <c r="X29" s="67"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="73"/>
     </row>
     <row r="30" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>8</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67" t="s">
+      <c r="D30" s="73"/>
+      <c r="E30" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="67" t="s">
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="V30" s="67"/>
-      <c r="W30" s="67"/>
-      <c r="X30" s="67"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="73"/>
     </row>
     <row r="31" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>9</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="70" t="s">
+      <c r="D31" s="73"/>
+      <c r="E31" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="67" t="s">
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="V31" s="67"/>
-      <c r="W31" s="67"/>
-      <c r="X31" s="67"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="73"/>
     </row>
     <row r="32" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>10</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67" t="s">
+      <c r="D32" s="73"/>
+      <c r="E32" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="67"/>
-      <c r="U32" s="67" t="s">
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="67"/>
-      <c r="W32" s="67"/>
-      <c r="X32" s="67"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
     </row>
     <row r="33" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="69"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
     </row>
     <row r="34" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3547,33 +3722,6 @@
     <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F4:H6"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:T29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="E27:T27"/>
-    <mergeCell ref="E28:T28"/>
-    <mergeCell ref="E30:T30"/>
-    <mergeCell ref="E31:T31"/>
-    <mergeCell ref="E21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="E22:T22"/>
-    <mergeCell ref="E23:T23"/>
     <mergeCell ref="E24:T24"/>
     <mergeCell ref="E32:T32"/>
     <mergeCell ref="C30:D30"/>
@@ -3586,8 +3734,1670 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:T26"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:T29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="E28:T28"/>
+    <mergeCell ref="E30:T30"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F4:H6"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="E27:T27"/>
+    <mergeCell ref="E21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="E22:T22"/>
+    <mergeCell ref="E23:T23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20244086-B834-4773-9DA4-9ED63CBAE8C7}">
+  <dimension ref="B1:BB119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL23" sqref="AK23:AL23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="396" width="4.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+    </row>
+    <row r="2" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+    </row>
+    <row r="3" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="3"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="3"/>
+    </row>
+    <row r="4" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T4" s="3"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="3"/>
+    </row>
+    <row r="5" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S5" s="82"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="82"/>
+    </row>
+    <row r="6" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S6" s="82"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="82"/>
+    </row>
+    <row r="7" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S7" s="82"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="82"/>
+    </row>
+    <row r="8" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T8" s="3"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="3"/>
+    </row>
+    <row r="9" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T9" s="3"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="3"/>
+    </row>
+    <row r="10" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T10" s="3"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="3"/>
+      <c r="AX10" s="80"/>
+      <c r="AY10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T11" s="3"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="3"/>
+      <c r="AX11" s="26"/>
+      <c r="AY11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T12" s="3"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="3"/>
+      <c r="AX12" s="79"/>
+      <c r="AY12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T13" s="3"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="3"/>
+      <c r="AX13" s="81"/>
+      <c r="AY13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB13" s="84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T14" s="3"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="3"/>
+      <c r="AX14" s="26"/>
+      <c r="AY14" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB14" s="84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T15" s="3"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="3"/>
+      <c r="AX15" s="83"/>
+      <c r="AY15" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB15" s="84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T16" s="3"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="3"/>
+      <c r="AX16" s="34"/>
+      <c r="AY16" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB16" s="84" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T17" s="3"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="3"/>
+    </row>
+    <row r="18" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+    </row>
+    <row r="19" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R19" s="3"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="3"/>
+      <c r="AK20" s="73"/>
+      <c r="AL20" s="73"/>
+      <c r="AM20" s="73"/>
+      <c r="AN20" s="73"/>
+    </row>
+    <row r="21" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+    </row>
+    <row r="22" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="23"/>
+      <c r="AP22" s="23"/>
+      <c r="AQ22" s="23"/>
+      <c r="AR22" s="23"/>
+      <c r="AS22" s="23"/>
+      <c r="AT22" s="3"/>
+    </row>
+    <row r="23" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="80"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="23"/>
+      <c r="AM23" s="23"/>
+      <c r="AN23" s="23"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="23"/>
+      <c r="AQ23" s="23"/>
+      <c r="AR23" s="23"/>
+      <c r="AS23" s="23"/>
+      <c r="AT23" s="3"/>
+    </row>
+    <row r="24" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="3"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="23"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="23"/>
+      <c r="AL24" s="23"/>
+      <c r="AM24" s="23"/>
+      <c r="AN24" s="23"/>
+      <c r="AO24" s="23"/>
+      <c r="AP24" s="23"/>
+      <c r="AQ24" s="23"/>
+      <c r="AR24" s="23"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="82"/>
+    </row>
+    <row r="25" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="3"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="80"/>
+      <c r="AB25" s="79"/>
+      <c r="AC25" s="79"/>
+      <c r="AD25" s="79"/>
+      <c r="AE25" s="79"/>
+      <c r="AF25" s="79"/>
+      <c r="AG25" s="79"/>
+      <c r="AH25" s="79"/>
+      <c r="AI25" s="79"/>
+      <c r="AJ25" s="79"/>
+      <c r="AK25" s="79"/>
+      <c r="AL25" s="79"/>
+      <c r="AM25" s="79"/>
+      <c r="AN25" s="79"/>
+      <c r="AO25" s="79"/>
+      <c r="AP25" s="23"/>
+      <c r="AQ25" s="23"/>
+      <c r="AR25" s="23"/>
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="82"/>
+    </row>
+    <row r="26" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="79"/>
+      <c r="AC26" s="79"/>
+      <c r="AD26" s="79"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="79"/>
+      <c r="AG26" s="79"/>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="79"/>
+      <c r="AJ26" s="79"/>
+      <c r="AK26" s="79"/>
+      <c r="AL26" s="79"/>
+      <c r="AM26" s="79"/>
+      <c r="AN26" s="79"/>
+      <c r="AO26" s="79"/>
+      <c r="AP26" s="23"/>
+      <c r="AQ26" s="23"/>
+      <c r="AR26" s="23"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="82"/>
+    </row>
+    <row r="27" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="80"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="23"/>
+      <c r="AL27" s="23"/>
+      <c r="AM27" s="23"/>
+      <c r="AN27" s="23"/>
+      <c r="AO27" s="23"/>
+      <c r="AP27" s="23"/>
+      <c r="AQ27" s="23"/>
+      <c r="AR27" s="23"/>
+      <c r="AS27" s="26"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="82"/>
+    </row>
+    <row r="28" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="23"/>
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="23"/>
+      <c r="AQ28" s="23"/>
+      <c r="AR28" s="23"/>
+      <c r="AS28" s="23"/>
+      <c r="AT28" s="3"/>
+    </row>
+    <row r="29" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="3"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
+      <c r="Z29" s="80"/>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="26"/>
+      <c r="AN29" s="26"/>
+      <c r="AO29" s="23"/>
+      <c r="AP29" s="23"/>
+      <c r="AQ29" s="23"/>
+      <c r="AR29" s="23"/>
+      <c r="AS29" s="23"/>
+      <c r="AT29" s="3"/>
+    </row>
+    <row r="30" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+    </row>
+    <row r="31" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q31" s="3"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="3"/>
+      <c r="AK31" s="73"/>
+      <c r="AL31" s="73"/>
+      <c r="AM31" s="73"/>
+      <c r="AN31" s="73"/>
+    </row>
+    <row r="32" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R32" s="3"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="3"/>
+    </row>
+    <row r="33" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="79"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+    </row>
+    <row r="34" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T34" s="3"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="79"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="3"/>
+    </row>
+    <row r="35" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T35" s="3"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="79"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="3"/>
+    </row>
+    <row r="36" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T36" s="3"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="79"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="3"/>
+    </row>
+    <row r="37" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T37" s="3"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="3"/>
+    </row>
+    <row r="38" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T38" s="3"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="3"/>
+    </row>
+    <row r="39" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T39" s="3"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="83"/>
+      <c r="W39" s="83"/>
+      <c r="X39" s="83"/>
+      <c r="Y39" s="83"/>
+      <c r="Z39" s="83"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T40" s="3"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T41" s="3"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="83"/>
+      <c r="W41" s="83"/>
+      <c r="X41" s="83"/>
+      <c r="Y41" s="83"/>
+      <c r="Z41" s="83"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="3"/>
+    </row>
+    <row r="42" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T42" s="3"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="3"/>
+    </row>
+    <row r="43" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T43" s="3"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="83"/>
+      <c r="W43" s="83"/>
+      <c r="X43" s="83"/>
+      <c r="Y43" s="83"/>
+      <c r="Z43" s="83"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="3"/>
+    </row>
+    <row r="44" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T44" s="3"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="3"/>
+    </row>
+    <row r="45" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T45" s="3"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="83"/>
+      <c r="W45" s="83"/>
+      <c r="X45" s="83"/>
+      <c r="Y45" s="83"/>
+      <c r="Z45" s="83"/>
+      <c r="AA45" s="23"/>
+      <c r="AB45" s="3"/>
+    </row>
+    <row r="46" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T46" s="3"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="23"/>
+      <c r="W46" s="23"/>
+      <c r="X46" s="23"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="23"/>
+      <c r="AA46" s="23"/>
+      <c r="AB46" s="3"/>
+    </row>
+    <row r="47" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T47" s="3"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="83"/>
+      <c r="W47" s="83"/>
+      <c r="X47" s="83"/>
+      <c r="Y47" s="83"/>
+      <c r="Z47" s="83"/>
+      <c r="AA47" s="23"/>
+      <c r="AB47" s="3"/>
+    </row>
+    <row r="48" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T48" s="3"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="23"/>
+      <c r="Z48" s="23"/>
+      <c r="AA48" s="23"/>
+      <c r="AB48" s="3"/>
+    </row>
+    <row r="49" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+    </row>
+    <row r="50" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="78"/>
+      <c r="N53" s="78"/>
+      <c r="O53" s="78"/>
+      <c r="P53" s="78"/>
+      <c r="Q53" s="78"/>
+      <c r="R53" s="78"/>
+      <c r="S53" s="78"/>
+      <c r="T53" s="78"/>
+      <c r="U53" s="78"/>
+      <c r="V53" s="78"/>
+      <c r="W53" s="78"/>
+      <c r="X53" s="78"/>
+      <c r="Y53" s="78"/>
+      <c r="Z53" s="78"/>
+      <c r="AA53" s="78"/>
+      <c r="AB53" s="78"/>
+    </row>
+    <row r="54" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="73"/>
+      <c r="U54" s="73"/>
+      <c r="V54" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="W54" s="73"/>
+      <c r="X54" s="73"/>
+      <c r="Y54" s="73"/>
+      <c r="Z54" s="73"/>
+      <c r="AA54" s="73"/>
+      <c r="AB54" s="73"/>
+    </row>
+    <row r="55" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="73"/>
+      <c r="F55" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="73"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="73"/>
+      <c r="S55" s="73"/>
+      <c r="T55" s="73"/>
+      <c r="U55" s="73"/>
+      <c r="V55" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="W55" s="73"/>
+      <c r="X55" s="73"/>
+      <c r="Y55" s="73"/>
+      <c r="Z55" s="73"/>
+      <c r="AA55" s="73"/>
+      <c r="AB55" s="73"/>
+    </row>
+    <row r="56" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73"/>
+      <c r="T56" s="73"/>
+      <c r="U56" s="73"/>
+      <c r="V56" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="W56" s="73"/>
+      <c r="X56" s="73"/>
+      <c r="Y56" s="73"/>
+      <c r="Z56" s="73"/>
+      <c r="AA56" s="73"/>
+      <c r="AB56" s="73"/>
+    </row>
+    <row r="57" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="73"/>
+      <c r="F57" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
+      <c r="M57" s="73"/>
+      <c r="N57" s="73"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="73"/>
+      <c r="R57" s="73"/>
+      <c r="S57" s="73"/>
+      <c r="T57" s="73"/>
+      <c r="U57" s="73"/>
+      <c r="V57" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="W57" s="73"/>
+      <c r="X57" s="73"/>
+      <c r="Y57" s="73"/>
+      <c r="Z57" s="73"/>
+      <c r="AA57" s="73"/>
+      <c r="AB57" s="73"/>
+    </row>
+    <row r="58" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="73"/>
+      <c r="T58" s="73"/>
+      <c r="U58" s="73"/>
+      <c r="V58" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="W58" s="73"/>
+      <c r="X58" s="73"/>
+      <c r="Y58" s="73"/>
+      <c r="Z58" s="73"/>
+      <c r="AA58" s="73"/>
+      <c r="AB58" s="73"/>
+    </row>
+    <row r="59" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="73"/>
+      <c r="F59" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="73"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="73"/>
+      <c r="T59" s="73"/>
+      <c r="U59" s="73"/>
+      <c r="V59" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="W59" s="73"/>
+      <c r="X59" s="73"/>
+      <c r="Y59" s="73"/>
+      <c r="Z59" s="73"/>
+      <c r="AA59" s="73"/>
+      <c r="AB59" s="73"/>
+    </row>
+    <row r="60" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="73"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="73"/>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="73"/>
+      <c r="S60" s="73"/>
+      <c r="T60" s="73"/>
+      <c r="U60" s="73"/>
+      <c r="V60" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="W60" s="73"/>
+      <c r="X60" s="73"/>
+      <c r="Y60" s="73"/>
+      <c r="Z60" s="73"/>
+      <c r="AA60" s="73"/>
+      <c r="AB60" s="73"/>
+    </row>
+    <row r="61" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="73"/>
+      <c r="F61" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="73"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="73"/>
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="73"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="73"/>
+      <c r="U61" s="73"/>
+      <c r="V61" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="W61" s="73"/>
+      <c r="X61" s="73"/>
+      <c r="Y61" s="73"/>
+      <c r="Z61" s="73"/>
+      <c r="AA61" s="73"/>
+      <c r="AB61" s="73"/>
+    </row>
+    <row r="62" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+      <c r="Q62" s="73"/>
+      <c r="R62" s="73"/>
+      <c r="S62" s="73"/>
+      <c r="T62" s="73"/>
+      <c r="U62" s="73"/>
+      <c r="V62" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="W62" s="73"/>
+      <c r="X62" s="73"/>
+      <c r="Y62" s="73"/>
+      <c r="Z62" s="73"/>
+      <c r="AA62" s="73"/>
+      <c r="AB62" s="73"/>
+    </row>
+    <row r="63" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="G63" s="73"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="73"/>
+      <c r="L63" s="73"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="73"/>
+      <c r="O63" s="73"/>
+      <c r="P63" s="73"/>
+      <c r="Q63" s="73"/>
+      <c r="R63" s="73"/>
+      <c r="S63" s="73"/>
+      <c r="T63" s="73"/>
+      <c r="U63" s="73"/>
+      <c r="V63" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="W63" s="73"/>
+      <c r="X63" s="73"/>
+      <c r="Y63" s="73"/>
+      <c r="Z63" s="73"/>
+      <c r="AA63" s="73"/>
+      <c r="AB63" s="73"/>
+    </row>
+    <row r="64" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="73"/>
+      <c r="F64" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="73"/>
+      <c r="K64" s="73"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="73"/>
+      <c r="O64" s="73"/>
+      <c r="P64" s="73"/>
+      <c r="Q64" s="73"/>
+      <c r="R64" s="73"/>
+      <c r="S64" s="73"/>
+      <c r="T64" s="73"/>
+      <c r="U64" s="73"/>
+      <c r="V64" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="W64" s="73"/>
+      <c r="X64" s="73"/>
+      <c r="Y64" s="73"/>
+      <c r="Z64" s="73"/>
+      <c r="AA64" s="73"/>
+      <c r="AB64" s="73"/>
+    </row>
+    <row r="65" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="73"/>
+      <c r="F65" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="73"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="73"/>
+      <c r="N65" s="73"/>
+      <c r="O65" s="73"/>
+      <c r="P65" s="73"/>
+      <c r="Q65" s="73"/>
+      <c r="R65" s="73"/>
+      <c r="S65" s="73"/>
+      <c r="T65" s="73"/>
+      <c r="U65" s="73"/>
+      <c r="V65" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="W65" s="73"/>
+      <c r="X65" s="73"/>
+      <c r="Y65" s="73"/>
+      <c r="Z65" s="73"/>
+      <c r="AA65" s="73"/>
+      <c r="AB65" s="73"/>
+    </row>
+    <row r="66" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>11</v>
+      </c>
+      <c r="D66" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="73"/>
+      <c r="F66" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="73"/>
+      <c r="L66" s="73"/>
+      <c r="M66" s="73"/>
+      <c r="N66" s="73"/>
+      <c r="O66" s="73"/>
+      <c r="P66" s="73"/>
+      <c r="Q66" s="73"/>
+      <c r="R66" s="73"/>
+      <c r="S66" s="73"/>
+      <c r="T66" s="73"/>
+      <c r="U66" s="73"/>
+      <c r="V66" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="W66" s="73"/>
+      <c r="X66" s="73"/>
+      <c r="Y66" s="73"/>
+      <c r="Z66" s="73"/>
+      <c r="AA66" s="73"/>
+      <c r="AB66" s="73"/>
+    </row>
+    <row r="67" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="D67" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="73"/>
+      <c r="F67" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="73"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="73"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="73"/>
+      <c r="N67" s="73"/>
+      <c r="O67" s="73"/>
+      <c r="P67" s="73"/>
+      <c r="Q67" s="73"/>
+      <c r="R67" s="73"/>
+      <c r="S67" s="73"/>
+      <c r="T67" s="73"/>
+      <c r="U67" s="73"/>
+      <c r="V67" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="W67" s="73"/>
+      <c r="X67" s="73"/>
+      <c r="Y67" s="73"/>
+      <c r="Z67" s="73"/>
+      <c r="AA67" s="73"/>
+      <c r="AB67" s="73"/>
+    </row>
+    <row r="68" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:U66"/>
+    <mergeCell ref="V66:AB66"/>
+    <mergeCell ref="V67:AB67"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:U64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:U65"/>
+    <mergeCell ref="V64:AB64"/>
+    <mergeCell ref="V65:AB65"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:U62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:U63"/>
+    <mergeCell ref="V62:AB62"/>
+    <mergeCell ref="V63:AB63"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:U61"/>
+    <mergeCell ref="V60:AB60"/>
+    <mergeCell ref="V61:AB61"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F60:U60"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:U59"/>
+    <mergeCell ref="F58:U58"/>
+    <mergeCell ref="V58:AB58"/>
+    <mergeCell ref="V59:AB59"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:U56"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:U67"/>
+    <mergeCell ref="F57:U57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="V56:AB56"/>
+    <mergeCell ref="V57:AB57"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:U54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:U55"/>
+    <mergeCell ref="V54:AB54"/>
+    <mergeCell ref="C53:AB53"/>
+    <mergeCell ref="V55:AB55"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="AK20:AN20"/>
+    <mergeCell ref="AK31:AN31"/>
+    <mergeCell ref="AU24:AU27"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Plan/스테이지_1_맵_기획.xlsx
+++ b/Plan/스테이지_1_맵_기획.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COCONUT\Documents\BadGuys_2022\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FDB377-2896-4310-9116-50D0560DE9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1113DCAF-C660-4E3B-AD51-8021A47DA57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E94DDF52-5676-4757-AD64-D7689B00AF4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E94DDF52-5676-4757-AD64-D7689B00AF4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Stage" sheetId="1" r:id="rId1"/>
     <sheet name="R_Stage" sheetId="2" r:id="rId2"/>
     <sheet name="G_Stage" sheetId="3" r:id="rId3"/>
+    <sheet name="B_Stage" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="161">
   <si>
     <t>현관</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -372,10 +373,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>' 이 그림들 되게 비현실적인데, 말할거 같아 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>' 우선 모든 전원이 돌아온 것 같아 '</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -389,6 +386,302 @@
   </si>
   <si>
     <t>' 아마 이 조각들은 보석 보관함을 여는데 쓸 수 있을 거야 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 이 그림들 되게 비현실적인데, 말이라도 걸거 같아 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸어다닐 수 있는 공간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 공간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 공간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번 공간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번 공간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번 공간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 공간 ( 시작점 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통나무 ( 나비가 처음 스폰될 예정 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안내판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번 공간 ( 마지막 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정자 예시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캔버스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 아마 환자의 기억중에서 가장 중요한 부분일 지 몰라. '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 공원에 여자친구와 자주 오고는 했었어. 지금은 혼자지만 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 헤어지고 나서도 가끔 들렸었지 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 베고나선 그루터기는 왜 놔둔걸까. 가끔 궁금했었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 그루터기도 혼자 남겨진거겠지 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무와 상호작용 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무와 상호작용 후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 이 나비 되게 강조된 것 처럼 보여 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 나비를 좀 따라가보면 좋을 것 같은데 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 벤치에 자주 앉아 있고는 했어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 사실 그냥 숲속에서 시간을 보내고 싶었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 필드 진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 영감을 얻겠다고 공원에 들어오고는 했었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 벤치가 특이하게 생겼네? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 벤치의 배치가 기억의 조각일지도 몰라 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘 다 떨어트렸을 때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘 다 붙였을 때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이젠 붙어있을 필요가 없지. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이렇게 붙여서 쓰곤 했었지. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세번째 필드 진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 조각이 뭔가 이상한데? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 마치 깨진거 같아. '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 공원에 만나자고 하면 여기에서 날 기다리곤 했었지 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 드디어 다 맞췄다! '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각을 다 맞췄을 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 지금은 내가 이 자리에 혼자 서있네 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이런 조형물은 왜 만든 걸까 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 공원엔 어린애도 오지 않는데. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 이거 키즈카페 같은데에 있는거 아닌가? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네번째 필드 진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 빛나는 순서대로 밟으면 되는걸까? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안내판과 상호작용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 간단하네. '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발판을 순서대로 밟았을 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 이 순서가 아니었나? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 뭐 그래도 가끔 순서대로 밟아보긴 했어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 순서대로 밟으면 기분이 좋아졌거든 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 내가 밟으면 뒤따라서 밟았었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이젠 뒤따라서 오는 사람은 없네 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패 했을 때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 이번 건 왜 이리 길어진거야 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 필드 진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 어느 날, 파란색 나비가 정자 난간에 앉아있었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 저 파란색 나비를 보곤 그려야겠다고 생각했지 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 혼자가 아니라서 그런지 그릴 시간이 별로 없었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이제는 그릴 시간이 충분하네 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 아마 이 그림만 완성하면 끝일 것 같아 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이젤 확인 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림이 전부 완성 되면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 정말 예쁜 나비였어. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이젠 다른 곳으로 가버렸지만. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 아마 헤어진게 문제이려나? '</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +689,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,8 +801,56 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,6 +1009,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +1208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,6 +1320,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1066,6 +1446,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,29 +1461,158 @@
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1115,6 +1630,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>10393</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>20782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>242456</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>16134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="LTP-613C) 전통 육각정자 설계 제작 시공 - 서산 해미면 애향공원 : (주)라은엘앤씨">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61CC6A7A-D9D7-4F9E-9869-4B9B4430929E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="31529484" y="6878782"/>
+          <a:ext cx="3349336" cy="3112625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1417,7 +1998,7 @@
   <dimension ref="B1:AI35"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AG22" sqref="AG22"/>
+      <selection activeCell="AE67" sqref="AE67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1462,18 +2043,18 @@
     </row>
     <row r="3" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
       <c r="M3" s="5"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -1500,16 +2081,16 @@
     </row>
     <row r="4" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="5"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1522,12 +2103,12 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="59" t="s">
+      <c r="Y4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="61"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="66"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="3"/>
@@ -1538,16 +2119,16 @@
     </row>
     <row r="5" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="5"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1556,16 +2137,16 @@
       <c r="R5" s="1"/>
       <c r="S5" s="5"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="59" t="s">
+      <c r="U5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="68"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="64"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="69"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="3"/>
@@ -1576,16 +2157,16 @@
     </row>
     <row r="6" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
       <c r="M6" s="5"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1594,14 +2175,14 @@
       <c r="R6" s="1"/>
       <c r="S6" s="5"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="70"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="75"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="67"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="72"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="3"/>
@@ -1612,16 +2193,16 @@
     </row>
     <row r="7" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
       <c r="M7" s="5"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1648,16 +2229,16 @@
     </row>
     <row r="8" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
       <c r="M8" s="5"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1670,12 +2251,12 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="53" t="s">
+      <c r="Y8" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="55"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="60"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="3"/>
@@ -1686,16 +2267,16 @@
     </row>
     <row r="9" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
       <c r="M9" s="5"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1708,10 +2289,10 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="58"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="63"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="3"/>
@@ -1722,16 +2303,16 @@
     </row>
     <row r="10" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
       <c r="M10" s="5"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1794,19 +2375,19 @@
     </row>
     <row r="12" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1832,17 +2413,17 @@
     </row>
     <row r="13" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1864,17 +2445,17 @@
     </row>
     <row r="14" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1896,17 +2477,17 @@
     </row>
     <row r="15" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1928,17 +2509,17 @@
     </row>
     <row r="16" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1960,17 +2541,17 @@
     </row>
     <row r="17" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1992,17 +2573,17 @@
     </row>
     <row r="18" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2024,7 +2605,7 @@
     </row>
     <row r="19" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="46" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1"/>
@@ -2046,21 +2627,21 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="71" t="s">
+      <c r="W19" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="71"/>
-      <c r="AC19" s="71"/>
-      <c r="AD19" s="71"/>
+      <c r="X19" s="76"/>
+      <c r="Y19" s="76"/>
+      <c r="Z19" s="76"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="76"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="76"/>
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
-      <c r="C20" s="42"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2080,19 +2661,19 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="76"/>
       <c r="AE20" s="3"/>
     </row>
     <row r="21" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
-      <c r="C21" s="42"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2112,31 +2693,31 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="71"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="76"/>
       <c r="AE21" s="3"/>
     </row>
     <row r="22" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
-      <c r="C22" s="42"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="46"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="51"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2146,29 +2727,29 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="71"/>
+      <c r="W22" s="76"/>
+      <c r="X22" s="76"/>
+      <c r="Y22" s="76"/>
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="76"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="76"/>
       <c r="AE22" s="3"/>
     </row>
     <row r="23" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
-      <c r="C23" s="42"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="49"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="54"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2178,29 +2759,29 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="71"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="76"/>
       <c r="AE23" s="3"/>
     </row>
     <row r="24" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
-      <c r="C24" s="42"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="49"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="54"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2210,29 +2791,29 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="71"/>
-      <c r="AC24" s="71"/>
-      <c r="AD24" s="71"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="76"/>
+      <c r="Y24" s="76"/>
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="76"/>
+      <c r="AB24" s="76"/>
+      <c r="AC24" s="76"/>
+      <c r="AD24" s="76"/>
       <c r="AE24" s="3"/>
     </row>
     <row r="25" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
-      <c r="C25" s="42"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="49"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="54"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2242,29 +2823,29 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="71"/>
-      <c r="AC25" s="71"/>
-      <c r="AD25" s="71"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="76"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="76"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="76"/>
+      <c r="AD25" s="76"/>
       <c r="AE25" s="3"/>
     </row>
     <row r="26" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
-      <c r="C26" s="42"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="49"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="54"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2274,29 +2855,29 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="71"/>
-      <c r="AC26" s="71"/>
-      <c r="AD26" s="71"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="76"/>
+      <c r="Y26" s="76"/>
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="76"/>
+      <c r="AB26" s="76"/>
+      <c r="AC26" s="76"/>
+      <c r="AD26" s="76"/>
       <c r="AE26" s="3"/>
     </row>
     <row r="27" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
-      <c r="C27" s="42"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="49"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="54"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2306,29 +2887,29 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="71"/>
-      <c r="AC27" s="71"/>
-      <c r="AD27" s="71"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="76"/>
+      <c r="Y27" s="76"/>
+      <c r="Z27" s="76"/>
+      <c r="AA27" s="76"/>
+      <c r="AB27" s="76"/>
+      <c r="AC27" s="76"/>
+      <c r="AD27" s="76"/>
       <c r="AE27" s="3"/>
     </row>
     <row r="28" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="42"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="49"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="54"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2338,29 +2919,29 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="71"/>
-      <c r="AA28" s="71"/>
-      <c r="AB28" s="71"/>
-      <c r="AC28" s="71"/>
-      <c r="AD28" s="71"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="76"/>
+      <c r="AB28" s="76"/>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="76"/>
       <c r="AE28" s="3"/>
     </row>
     <row r="29" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="42"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="52"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="57"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -2370,19 +2951,19 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="71"/>
-      <c r="AC29" s="71"/>
-      <c r="AD29" s="71"/>
+      <c r="W29" s="76"/>
+      <c r="X29" s="76"/>
+      <c r="Y29" s="76"/>
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="76"/>
+      <c r="AB29" s="76"/>
+      <c r="AC29" s="76"/>
+      <c r="AD29" s="76"/>
       <c r="AE29" s="3"/>
     </row>
     <row r="30" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="43"/>
+      <c r="C30" s="48"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2402,14 +2983,14 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="71"/>
-      <c r="AD30" s="71"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="76"/>
+      <c r="Y30" s="76"/>
+      <c r="Z30" s="76"/>
+      <c r="AA30" s="76"/>
+      <c r="AB30" s="76"/>
+      <c r="AC30" s="76"/>
+      <c r="AD30" s="76"/>
       <c r="AE30" s="3"/>
     </row>
     <row r="31" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2418,13 +2999,13 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="38" t="s">
+      <c r="G31" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="40"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="45"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -2472,8 +3053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1FA2A1-5030-4DF8-9AA0-DBF61064659B}">
   <dimension ref="B1:AO116"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:X21"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE67" sqref="AE67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2569,11 +3150,11 @@
       <c r="C4" s="27"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="22"/>
@@ -2614,9 +3195,9 @@
       <c r="C5" s="27"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="22"/>
@@ -2657,9 +3238,9 @@
       <c r="C6" s="27"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="22"/>
@@ -2962,7 +3543,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="75" t="s">
+      <c r="J13" s="82" t="s">
         <v>37</v>
       </c>
       <c r="K13" s="24"/>
@@ -3003,7 +3584,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="76"/>
+      <c r="J14" s="83"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
       <c r="M14" s="22"/>
@@ -3042,7 +3623,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="76"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="24"/>
       <c r="L15" s="33"/>
       <c r="M15" s="22"/>
@@ -3191,427 +3772,427 @@
     </row>
     <row r="19" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
     </row>
     <row r="21" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73" t="s">
+      <c r="D21" s="78"/>
+      <c r="E21" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73" t="s">
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
     </row>
     <row r="22" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="77" t="s">
+      <c r="D22" s="78"/>
+      <c r="E22" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73" t="s">
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="73"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
     </row>
     <row r="23" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="77" t="s">
+      <c r="D23" s="78"/>
+      <c r="E23" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73" t="s">
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
     </row>
     <row r="24" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73" t="s">
+      <c r="D24" s="78"/>
+      <c r="E24" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73" t="s">
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="V24" s="73"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="73"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
     </row>
     <row r="25" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73" t="s">
+      <c r="D25" s="78"/>
+      <c r="E25" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73" t="s">
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="73"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
     </row>
     <row r="26" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="77" t="s">
+      <c r="D26" s="78"/>
+      <c r="E26" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="73" t="s">
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="73"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="73"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
     </row>
     <row r="27" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="77" t="s">
+      <c r="D27" s="78"/>
+      <c r="E27" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73" t="s">
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
     </row>
     <row r="28" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>6</v>
       </c>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73" t="s">
+      <c r="D28" s="78"/>
+      <c r="E28" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="73" t="s">
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="73"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
     </row>
     <row r="29" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>7</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73" t="s">
+      <c r="D29" s="78"/>
+      <c r="E29" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73" t="s">
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
     </row>
     <row r="30" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>8</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73" t="s">
+      <c r="D30" s="78"/>
+      <c r="E30" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="73" t="s">
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="V30" s="73"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="73"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
     </row>
     <row r="31" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>9</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="77" t="s">
+      <c r="D31" s="78"/>
+      <c r="E31" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="73" t="s">
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="V31" s="73"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="73"/>
+      <c r="V31" s="78"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="78"/>
     </row>
     <row r="32" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>10</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73" t="s">
+      <c r="D32" s="78"/>
+      <c r="E32" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73" t="s">
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
+      <c r="V32" s="78"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="78"/>
     </row>
     <row r="33" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="31"/>
@@ -3722,6 +4303,29 @@
     <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="E23:T23"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F4:H6"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="E27:T27"/>
+    <mergeCell ref="E21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="E22:T22"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="E28:T28"/>
+    <mergeCell ref="E30:T30"/>
     <mergeCell ref="E24:T24"/>
     <mergeCell ref="E32:T32"/>
     <mergeCell ref="C30:D30"/>
@@ -3738,29 +4342,6 @@
     <mergeCell ref="U32:X32"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:T29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="E28:T28"/>
-    <mergeCell ref="E30:T30"/>
-    <mergeCell ref="E31:T31"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F4:H6"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="E27:T27"/>
-    <mergeCell ref="E21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="E22:T22"/>
-    <mergeCell ref="E23:T23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3771,8 +4352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20244086-B834-4773-9DA4-9ED63CBAE8C7}">
   <dimension ref="B1:BB119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL23" sqref="AK23:AL23"/>
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3781,9 +4362,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
     </row>
     <row r="2" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T2" s="3"/>
@@ -3800,9 +4381,9 @@
       <c r="T3" s="3"/>
       <c r="U3" s="23"/>
       <c r="V3" s="23"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="23"/>
       <c r="AA3" s="23"/>
       <c r="AB3" s="3"/>
@@ -3819,50 +4400,50 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S5" s="82"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="81"/>
+      <c r="U5" s="39"/>
       <c r="V5" s="23"/>
       <c r="W5" s="23"/>
       <c r="X5" s="23"/>
       <c r="Y5" s="23"/>
       <c r="Z5" s="23"/>
-      <c r="AA5" s="81"/>
+      <c r="AA5" s="39"/>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="82"/>
+      <c r="AC5" s="84"/>
     </row>
     <row r="6" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S6" s="82"/>
+      <c r="S6" s="84"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="81"/>
+      <c r="U6" s="39"/>
       <c r="V6" s="23"/>
       <c r="W6" s="23"/>
       <c r="X6" s="23"/>
       <c r="Y6" s="23"/>
       <c r="Z6" s="23"/>
-      <c r="AA6" s="81"/>
+      <c r="AA6" s="39"/>
       <c r="AB6" s="3"/>
-      <c r="AC6" s="82"/>
+      <c r="AC6" s="84"/>
     </row>
     <row r="7" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S7" s="82"/>
+      <c r="S7" s="84"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="81"/>
+      <c r="U7" s="39"/>
       <c r="V7" s="23"/>
       <c r="W7" s="23"/>
-      <c r="X7" s="79"/>
+      <c r="X7" s="37"/>
       <c r="Y7" s="23"/>
       <c r="Z7" s="23"/>
-      <c r="AA7" s="81"/>
+      <c r="AA7" s="39"/>
       <c r="AB7" s="3"/>
-      <c r="AC7" s="82"/>
+      <c r="AC7" s="84"/>
     </row>
     <row r="8" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T8" s="3"/>
       <c r="U8" s="23"/>
       <c r="V8" s="23"/>
       <c r="W8" s="23"/>
-      <c r="X8" s="79"/>
+      <c r="X8" s="37"/>
       <c r="Y8" s="23"/>
       <c r="Z8" s="23"/>
       <c r="AA8" s="23"/>
@@ -3873,7 +4454,7 @@
       <c r="U9" s="23"/>
       <c r="V9" s="23"/>
       <c r="W9" s="23"/>
-      <c r="X9" s="79"/>
+      <c r="X9" s="37"/>
       <c r="Y9" s="23"/>
       <c r="Z9" s="23"/>
       <c r="AA9" s="23"/>
@@ -3884,12 +4465,12 @@
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
-      <c r="X10" s="79"/>
+      <c r="X10" s="37"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
       <c r="AA10" s="23"/>
       <c r="AB10" s="3"/>
-      <c r="AX10" s="80"/>
+      <c r="AX10" s="38"/>
       <c r="AY10" t="s">
         <v>55</v>
       </c>
@@ -3899,7 +4480,7 @@
       <c r="U11" s="23"/>
       <c r="V11" s="23"/>
       <c r="W11" s="23"/>
-      <c r="X11" s="79"/>
+      <c r="X11" s="37"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="23"/>
       <c r="AA11" s="23"/>
@@ -3914,12 +4495,12 @@
       <c r="U12" s="23"/>
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
-      <c r="X12" s="79"/>
+      <c r="X12" s="37"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
       <c r="AA12" s="23"/>
       <c r="AB12" s="3"/>
-      <c r="AX12" s="79"/>
+      <c r="AX12" s="37"/>
       <c r="AY12" t="s">
         <v>57</v>
       </c>
@@ -3929,16 +4510,16 @@
       <c r="U13" s="23"/>
       <c r="V13" s="23"/>
       <c r="W13" s="23"/>
-      <c r="X13" s="79"/>
+      <c r="X13" s="37"/>
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
       <c r="AA13" s="23"/>
       <c r="AB13" s="3"/>
-      <c r="AX13" s="81"/>
+      <c r="AX13" s="39"/>
       <c r="AY13" t="s">
         <v>58</v>
       </c>
-      <c r="BB13" s="84" t="s">
+      <c r="BB13" s="41" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3947,7 +4528,7 @@
       <c r="U14" s="23"/>
       <c r="V14" s="23"/>
       <c r="W14" s="23"/>
-      <c r="X14" s="79"/>
+      <c r="X14" s="37"/>
       <c r="Y14" s="23"/>
       <c r="Z14" s="23"/>
       <c r="AA14" s="23"/>
@@ -3956,7 +4537,7 @@
       <c r="AY14" t="s">
         <v>59</v>
       </c>
-      <c r="BB14" s="84" t="s">
+      <c r="BB14" s="41" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3965,16 +4546,16 @@
       <c r="U15" s="23"/>
       <c r="V15" s="23"/>
       <c r="W15" s="23"/>
-      <c r="X15" s="79"/>
+      <c r="X15" s="37"/>
       <c r="Y15" s="23"/>
       <c r="Z15" s="23"/>
       <c r="AA15" s="23"/>
       <c r="AB15" s="3"/>
-      <c r="AX15" s="83"/>
+      <c r="AX15" s="40"/>
       <c r="AY15" t="s">
         <v>60</v>
       </c>
-      <c r="BB15" s="84" t="s">
+      <c r="BB15" s="41" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3983,7 +4564,7 @@
       <c r="U16" s="23"/>
       <c r="V16" s="23"/>
       <c r="W16" s="23"/>
-      <c r="X16" s="79"/>
+      <c r="X16" s="37"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="23"/>
       <c r="AA16" s="23"/>
@@ -3992,7 +4573,7 @@
       <c r="AY16" t="s">
         <v>61</v>
       </c>
-      <c r="BB16" s="84" t="s">
+      <c r="BB16" s="41" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4001,7 +4582,7 @@
       <c r="U17" s="23"/>
       <c r="V17" s="23"/>
       <c r="W17" s="23"/>
-      <c r="X17" s="79"/>
+      <c r="X17" s="37"/>
       <c r="Y17" s="23"/>
       <c r="Z17" s="23"/>
       <c r="AA17" s="23"/>
@@ -4013,7 +4594,7 @@
       <c r="U18" s="23"/>
       <c r="V18" s="23"/>
       <c r="W18" s="23"/>
-      <c r="X18" s="79"/>
+      <c r="X18" s="37"/>
       <c r="Y18" s="23"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="23"/>
@@ -4027,7 +4608,7 @@
       <c r="U19" s="23"/>
       <c r="V19" s="23"/>
       <c r="W19" s="23"/>
-      <c r="X19" s="79"/>
+      <c r="X19" s="37"/>
       <c r="Y19" s="23"/>
       <c r="Z19" s="23"/>
       <c r="AA19" s="23"/>
@@ -4038,12 +4619,12 @@
     <row r="20" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q20" s="3"/>
       <c r="R20" s="23"/>
-      <c r="S20" s="79"/>
+      <c r="S20" s="37"/>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
       <c r="V20" s="23"/>
       <c r="W20" s="23"/>
-      <c r="X20" s="79"/>
+      <c r="X20" s="37"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
       <c r="AA20" s="23"/>
@@ -4051,10 +4632,10 @@
       <c r="AC20" s="23"/>
       <c r="AD20" s="23"/>
       <c r="AE20" s="3"/>
-      <c r="AK20" s="73"/>
-      <c r="AL20" s="73"/>
-      <c r="AM20" s="73"/>
-      <c r="AN20" s="73"/>
+      <c r="AK20" s="78"/>
+      <c r="AL20" s="78"/>
+      <c r="AM20" s="78"/>
+      <c r="AN20" s="78"/>
     </row>
     <row r="21" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
@@ -4075,11 +4656,11 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="23"/>
       <c r="S21" s="23"/>
-      <c r="T21" s="79"/>
+      <c r="T21" s="37"/>
       <c r="U21" s="23"/>
       <c r="V21" s="23"/>
       <c r="W21" s="23"/>
-      <c r="X21" s="79"/>
+      <c r="X21" s="37"/>
       <c r="Y21" s="23"/>
       <c r="Z21" s="23"/>
       <c r="AA21" s="23"/>
@@ -4123,13 +4704,13 @@
       <c r="R22" s="23"/>
       <c r="S22" s="23"/>
       <c r="T22" s="23"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="80"/>
-      <c r="AA22" s="80"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
       <c r="AB22" s="23"/>
       <c r="AC22" s="23"/>
       <c r="AD22" s="23"/>
@@ -4170,13 +4751,13 @@
       <c r="R23" s="23"/>
       <c r="S23" s="23"/>
       <c r="T23" s="23"/>
-      <c r="U23" s="80"/>
+      <c r="U23" s="38"/>
       <c r="V23" s="26"/>
       <c r="W23" s="26"/>
       <c r="X23" s="26"/>
       <c r="Y23" s="26"/>
       <c r="Z23" s="26"/>
-      <c r="AA23" s="80"/>
+      <c r="AA23" s="38"/>
       <c r="AB23" s="23"/>
       <c r="AC23" s="23"/>
       <c r="AD23" s="23"/>
@@ -4217,13 +4798,13 @@
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
       <c r="T24" s="23"/>
-      <c r="U24" s="80"/>
+      <c r="U24" s="38"/>
       <c r="V24" s="26"/>
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="26"/>
       <c r="Z24" s="26"/>
-      <c r="AA24" s="80"/>
+      <c r="AA24" s="38"/>
       <c r="AB24" s="23"/>
       <c r="AC24" s="23"/>
       <c r="AD24" s="23"/>
@@ -4243,7 +4824,7 @@
       <c r="AR24" s="23"/>
       <c r="AS24" s="26"/>
       <c r="AT24" s="3"/>
-      <c r="AU24" s="82"/>
+      <c r="AU24" s="84"/>
     </row>
     <row r="25" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
@@ -4251,47 +4832,47 @@
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="80"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="38"/>
       <c r="V25" s="26"/>
       <c r="W25" s="26"/>
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
       <c r="Z25" s="26"/>
-      <c r="AA25" s="80"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="79"/>
-      <c r="AD25" s="79"/>
-      <c r="AE25" s="79"/>
-      <c r="AF25" s="79"/>
-      <c r="AG25" s="79"/>
-      <c r="AH25" s="79"/>
-      <c r="AI25" s="79"/>
-      <c r="AJ25" s="79"/>
-      <c r="AK25" s="79"/>
-      <c r="AL25" s="79"/>
-      <c r="AM25" s="79"/>
-      <c r="AN25" s="79"/>
-      <c r="AO25" s="79"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="37"/>
+      <c r="AM25" s="37"/>
+      <c r="AN25" s="37"/>
+      <c r="AO25" s="37"/>
       <c r="AP25" s="23"/>
       <c r="AQ25" s="23"/>
       <c r="AR25" s="23"/>
       <c r="AS25" s="26"/>
       <c r="AT25" s="3"/>
-      <c r="AU25" s="82"/>
+      <c r="AU25" s="84"/>
     </row>
     <row r="26" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
@@ -4299,47 +4880,47 @@
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="80"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="38"/>
       <c r="V26" s="26"/>
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
       <c r="Z26" s="26"/>
-      <c r="AA26" s="80"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="79"/>
-      <c r="AE26" s="79"/>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="79"/>
-      <c r="AH26" s="79"/>
-      <c r="AI26" s="79"/>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="79"/>
-      <c r="AL26" s="79"/>
-      <c r="AM26" s="79"/>
-      <c r="AN26" s="79"/>
-      <c r="AO26" s="79"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="37"/>
+      <c r="AN26" s="37"/>
+      <c r="AO26" s="37"/>
       <c r="AP26" s="23"/>
       <c r="AQ26" s="23"/>
       <c r="AR26" s="23"/>
       <c r="AS26" s="26"/>
       <c r="AT26" s="3"/>
-      <c r="AU26" s="82"/>
+      <c r="AU26" s="84"/>
     </row>
     <row r="27" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
@@ -4361,13 +4942,13 @@
       <c r="R27" s="23"/>
       <c r="S27" s="23"/>
       <c r="T27" s="23"/>
-      <c r="U27" s="80"/>
+      <c r="U27" s="38"/>
       <c r="V27" s="26"/>
       <c r="W27" s="26"/>
       <c r="X27" s="26"/>
       <c r="Y27" s="26"/>
       <c r="Z27" s="26"/>
-      <c r="AA27" s="80"/>
+      <c r="AA27" s="38"/>
       <c r="AB27" s="23"/>
       <c r="AC27" s="23"/>
       <c r="AD27" s="23"/>
@@ -4387,7 +4968,7 @@
       <c r="AR27" s="23"/>
       <c r="AS27" s="26"/>
       <c r="AT27" s="3"/>
-      <c r="AU27" s="82"/>
+      <c r="AU27" s="84"/>
     </row>
     <row r="28" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
@@ -4409,13 +4990,13 @@
       <c r="R28" s="23"/>
       <c r="S28" s="23"/>
       <c r="T28" s="23"/>
-      <c r="U28" s="80"/>
+      <c r="U28" s="38"/>
       <c r="V28" s="26"/>
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
       <c r="Y28" s="26"/>
       <c r="Z28" s="26"/>
-      <c r="AA28" s="80"/>
+      <c r="AA28" s="38"/>
       <c r="AB28" s="23"/>
       <c r="AC28" s="23"/>
       <c r="AD28" s="23"/>
@@ -4456,13 +5037,13 @@
       <c r="R29" s="23"/>
       <c r="S29" s="23"/>
       <c r="T29" s="23"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
-      <c r="Y29" s="80"/>
-      <c r="Z29" s="80"/>
-      <c r="AA29" s="80"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
       <c r="AB29" s="23"/>
       <c r="AC29" s="23"/>
       <c r="AD29" s="23"/>
@@ -4506,7 +5087,7 @@
       <c r="U30" s="23"/>
       <c r="V30" s="23"/>
       <c r="W30" s="23"/>
-      <c r="X30" s="79"/>
+      <c r="X30" s="37"/>
       <c r="Y30" s="23"/>
       <c r="Z30" s="23"/>
       <c r="AA30" s="23"/>
@@ -4538,7 +5119,7 @@
       <c r="U31" s="23"/>
       <c r="V31" s="23"/>
       <c r="W31" s="23"/>
-      <c r="X31" s="79"/>
+      <c r="X31" s="37"/>
       <c r="Y31" s="23"/>
       <c r="Z31" s="23"/>
       <c r="AA31" s="23"/>
@@ -4546,10 +5127,10 @@
       <c r="AC31" s="23"/>
       <c r="AD31" s="23"/>
       <c r="AE31" s="3"/>
-      <c r="AK31" s="73"/>
-      <c r="AL31" s="73"/>
-      <c r="AM31" s="73"/>
-      <c r="AN31" s="73"/>
+      <c r="AK31" s="78"/>
+      <c r="AL31" s="78"/>
+      <c r="AM31" s="78"/>
+      <c r="AN31" s="78"/>
     </row>
     <row r="32" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R32" s="3"/>
@@ -4558,7 +5139,7 @@
       <c r="U32" s="23"/>
       <c r="V32" s="23"/>
       <c r="W32" s="23"/>
-      <c r="X32" s="79"/>
+      <c r="X32" s="37"/>
       <c r="Y32" s="23"/>
       <c r="Z32" s="23"/>
       <c r="AA32" s="23"/>
@@ -4572,7 +5153,7 @@
       <c r="U33" s="23"/>
       <c r="V33" s="23"/>
       <c r="W33" s="23"/>
-      <c r="X33" s="79"/>
+      <c r="X33" s="37"/>
       <c r="Y33" s="23"/>
       <c r="Z33" s="23"/>
       <c r="AA33" s="23"/>
@@ -4584,7 +5165,7 @@
       <c r="U34" s="23"/>
       <c r="V34" s="23"/>
       <c r="W34" s="23"/>
-      <c r="X34" s="79"/>
+      <c r="X34" s="37"/>
       <c r="Y34" s="23"/>
       <c r="Z34" s="23"/>
       <c r="AA34" s="23"/>
@@ -4595,7 +5176,7 @@
       <c r="U35" s="23"/>
       <c r="V35" s="23"/>
       <c r="W35" s="23"/>
-      <c r="X35" s="79"/>
+      <c r="X35" s="37"/>
       <c r="Y35" s="23"/>
       <c r="Z35" s="23"/>
       <c r="AA35" s="23"/>
@@ -4606,7 +5187,7 @@
       <c r="U36" s="23"/>
       <c r="V36" s="23"/>
       <c r="W36" s="23"/>
-      <c r="X36" s="79"/>
+      <c r="X36" s="37"/>
       <c r="Y36" s="23"/>
       <c r="Z36" s="23"/>
       <c r="AA36" s="23"/>
@@ -4637,11 +5218,11 @@
     <row r="39" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T39" s="3"/>
       <c r="U39" s="23"/>
-      <c r="V39" s="83"/>
-      <c r="W39" s="83"/>
-      <c r="X39" s="83"/>
-      <c r="Y39" s="83"/>
-      <c r="Z39" s="83"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
       <c r="AA39" s="23"/>
       <c r="AB39" s="3"/>
     </row>
@@ -4659,11 +5240,11 @@
     <row r="41" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T41" s="3"/>
       <c r="U41" s="23"/>
-      <c r="V41" s="83"/>
-      <c r="W41" s="83"/>
-      <c r="X41" s="83"/>
-      <c r="Y41" s="83"/>
-      <c r="Z41" s="83"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="40"/>
       <c r="AA41" s="23"/>
       <c r="AB41" s="3"/>
     </row>
@@ -4681,11 +5262,11 @@
     <row r="43" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T43" s="3"/>
       <c r="U43" s="23"/>
-      <c r="V43" s="83"/>
-      <c r="W43" s="83"/>
-      <c r="X43" s="83"/>
-      <c r="Y43" s="83"/>
-      <c r="Z43" s="83"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="40"/>
       <c r="AA43" s="23"/>
       <c r="AB43" s="3"/>
     </row>
@@ -4703,11 +5284,11 @@
     <row r="45" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T45" s="3"/>
       <c r="U45" s="23"/>
-      <c r="V45" s="83"/>
-      <c r="W45" s="83"/>
-      <c r="X45" s="83"/>
-      <c r="Y45" s="83"/>
-      <c r="Z45" s="83"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
       <c r="AA45" s="23"/>
       <c r="AB45" s="3"/>
     </row>
@@ -4725,11 +5306,11 @@
     <row r="47" spans="19:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T47" s="3"/>
       <c r="U47" s="23"/>
-      <c r="V47" s="83"/>
-      <c r="W47" s="83"/>
-      <c r="X47" s="83"/>
-      <c r="Y47" s="83"/>
-      <c r="Z47" s="83"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
       <c r="AA47" s="23"/>
       <c r="AB47" s="3"/>
     </row>
@@ -4759,538 +5340,538 @@
     <row r="51" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="78" t="s">
+      <c r="C53" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="78"/>
-      <c r="N53" s="78"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="78"/>
-      <c r="Q53" s="78"/>
-      <c r="R53" s="78"/>
-      <c r="S53" s="78"/>
-      <c r="T53" s="78"/>
-      <c r="U53" s="78"/>
-      <c r="V53" s="78"/>
-      <c r="W53" s="78"/>
-      <c r="X53" s="78"/>
-      <c r="Y53" s="78"/>
-      <c r="Z53" s="78"/>
-      <c r="AA53" s="78"/>
-      <c r="AB53" s="78"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="79"/>
+      <c r="M53" s="79"/>
+      <c r="N53" s="79"/>
+      <c r="O53" s="79"/>
+      <c r="P53" s="79"/>
+      <c r="Q53" s="79"/>
+      <c r="R53" s="79"/>
+      <c r="S53" s="79"/>
+      <c r="T53" s="79"/>
+      <c r="U53" s="79"/>
+      <c r="V53" s="79"/>
+      <c r="W53" s="79"/>
+      <c r="X53" s="79"/>
+      <c r="Y53" s="79"/>
+      <c r="Z53" s="79"/>
+      <c r="AA53" s="79"/>
+      <c r="AB53" s="79"/>
     </row>
     <row r="54" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="73" t="s">
+      <c r="D54" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73" t="s">
+      <c r="E54" s="78"/>
+      <c r="F54" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="73"/>
-      <c r="L54" s="73"/>
-      <c r="M54" s="73"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
-      <c r="R54" s="73"/>
-      <c r="S54" s="73"/>
-      <c r="T54" s="73"/>
-      <c r="U54" s="73"/>
-      <c r="V54" s="73" t="s">
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="78"/>
+      <c r="M54" s="78"/>
+      <c r="N54" s="78"/>
+      <c r="O54" s="78"/>
+      <c r="P54" s="78"/>
+      <c r="Q54" s="78"/>
+      <c r="R54" s="78"/>
+      <c r="S54" s="78"/>
+      <c r="T54" s="78"/>
+      <c r="U54" s="78"/>
+      <c r="V54" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="W54" s="73"/>
-      <c r="X54" s="73"/>
-      <c r="Y54" s="73"/>
-      <c r="Z54" s="73"/>
-      <c r="AA54" s="73"/>
-      <c r="AB54" s="73"/>
+      <c r="W54" s="78"/>
+      <c r="X54" s="78"/>
+      <c r="Y54" s="78"/>
+      <c r="Z54" s="78"/>
+      <c r="AA54" s="78"/>
+      <c r="AB54" s="78"/>
     </row>
     <row r="55" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" s="73" t="s">
+      <c r="D55" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="73"/>
-      <c r="F55" s="77" t="s">
+      <c r="E55" s="78"/>
+      <c r="F55" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="G55" s="73"/>
-      <c r="H55" s="73"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
-      <c r="K55" s="73"/>
-      <c r="L55" s="73"/>
-      <c r="M55" s="73"/>
-      <c r="N55" s="73"/>
-      <c r="O55" s="73"/>
-      <c r="P55" s="73"/>
-      <c r="Q55" s="73"/>
-      <c r="R55" s="73"/>
-      <c r="S55" s="73"/>
-      <c r="T55" s="73"/>
-      <c r="U55" s="73"/>
-      <c r="V55" s="73" t="s">
+      <c r="G55" s="78"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
+      <c r="K55" s="78"/>
+      <c r="L55" s="78"/>
+      <c r="M55" s="78"/>
+      <c r="N55" s="78"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="78"/>
+      <c r="Q55" s="78"/>
+      <c r="R55" s="78"/>
+      <c r="S55" s="78"/>
+      <c r="T55" s="78"/>
+      <c r="U55" s="78"/>
+      <c r="V55" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="W55" s="73"/>
-      <c r="X55" s="73"/>
-      <c r="Y55" s="73"/>
-      <c r="Z55" s="73"/>
-      <c r="AA55" s="73"/>
-      <c r="AB55" s="73"/>
+      <c r="W55" s="78"/>
+      <c r="X55" s="78"/>
+      <c r="Y55" s="78"/>
+      <c r="Z55" s="78"/>
+      <c r="AA55" s="78"/>
+      <c r="AB55" s="78"/>
     </row>
     <row r="56" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="73" t="s">
+      <c r="D56" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73" t="s">
+      <c r="E56" s="78"/>
+      <c r="F56" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="G56" s="73"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
-      <c r="M56" s="73"/>
-      <c r="N56" s="73"/>
-      <c r="O56" s="73"/>
-      <c r="P56" s="73"/>
-      <c r="Q56" s="73"/>
-      <c r="R56" s="73"/>
-      <c r="S56" s="73"/>
-      <c r="T56" s="73"/>
-      <c r="U56" s="73"/>
-      <c r="V56" s="73" t="s">
+      <c r="G56" s="78"/>
+      <c r="H56" s="78"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="78"/>
+      <c r="K56" s="78"/>
+      <c r="L56" s="78"/>
+      <c r="M56" s="78"/>
+      <c r="N56" s="78"/>
+      <c r="O56" s="78"/>
+      <c r="P56" s="78"/>
+      <c r="Q56" s="78"/>
+      <c r="R56" s="78"/>
+      <c r="S56" s="78"/>
+      <c r="T56" s="78"/>
+      <c r="U56" s="78"/>
+      <c r="V56" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="W56" s="73"/>
-      <c r="X56" s="73"/>
-      <c r="Y56" s="73"/>
-      <c r="Z56" s="73"/>
-      <c r="AA56" s="73"/>
-      <c r="AB56" s="73"/>
+      <c r="W56" s="78"/>
+      <c r="X56" s="78"/>
+      <c r="Y56" s="78"/>
+      <c r="Z56" s="78"/>
+      <c r="AA56" s="78"/>
+      <c r="AB56" s="78"/>
     </row>
     <row r="57" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57" s="73" t="s">
+      <c r="D57" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="73"/>
-      <c r="F57" s="77" t="s">
+      <c r="E57" s="78"/>
+      <c r="F57" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="73"/>
-      <c r="M57" s="73"/>
-      <c r="N57" s="73"/>
-      <c r="O57" s="73"/>
-      <c r="P57" s="73"/>
-      <c r="Q57" s="73"/>
-      <c r="R57" s="73"/>
-      <c r="S57" s="73"/>
-      <c r="T57" s="73"/>
-      <c r="U57" s="73"/>
-      <c r="V57" s="73" t="s">
+      <c r="G57" s="78"/>
+      <c r="H57" s="78"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="78"/>
+      <c r="M57" s="78"/>
+      <c r="N57" s="78"/>
+      <c r="O57" s="78"/>
+      <c r="P57" s="78"/>
+      <c r="Q57" s="78"/>
+      <c r="R57" s="78"/>
+      <c r="S57" s="78"/>
+      <c r="T57" s="78"/>
+      <c r="U57" s="78"/>
+      <c r="V57" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="W57" s="73"/>
-      <c r="X57" s="73"/>
-      <c r="Y57" s="73"/>
-      <c r="Z57" s="73"/>
-      <c r="AA57" s="73"/>
-      <c r="AB57" s="73"/>
+      <c r="W57" s="78"/>
+      <c r="X57" s="78"/>
+      <c r="Y57" s="78"/>
+      <c r="Z57" s="78"/>
+      <c r="AA57" s="78"/>
+      <c r="AB57" s="78"/>
     </row>
     <row r="58" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>3</v>
       </c>
-      <c r="D58" s="73" t="s">
+      <c r="D58" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73" t="s">
+      <c r="E58" s="78"/>
+      <c r="F58" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="73"/>
-      <c r="L58" s="73"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="73"/>
-      <c r="O58" s="73"/>
-      <c r="P58" s="73"/>
-      <c r="Q58" s="73"/>
-      <c r="R58" s="73"/>
-      <c r="S58" s="73"/>
-      <c r="T58" s="73"/>
-      <c r="U58" s="73"/>
-      <c r="V58" s="73" t="s">
+      <c r="G58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="78"/>
+      <c r="K58" s="78"/>
+      <c r="L58" s="78"/>
+      <c r="M58" s="78"/>
+      <c r="N58" s="78"/>
+      <c r="O58" s="78"/>
+      <c r="P58" s="78"/>
+      <c r="Q58" s="78"/>
+      <c r="R58" s="78"/>
+      <c r="S58" s="78"/>
+      <c r="T58" s="78"/>
+      <c r="U58" s="78"/>
+      <c r="V58" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="W58" s="73"/>
-      <c r="X58" s="73"/>
-      <c r="Y58" s="73"/>
-      <c r="Z58" s="73"/>
-      <c r="AA58" s="73"/>
-      <c r="AB58" s="73"/>
+      <c r="W58" s="78"/>
+      <c r="X58" s="78"/>
+      <c r="Y58" s="78"/>
+      <c r="Z58" s="78"/>
+      <c r="AA58" s="78"/>
+      <c r="AB58" s="78"/>
     </row>
     <row r="59" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>4</v>
       </c>
-      <c r="D59" s="73" t="s">
+      <c r="D59" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="73"/>
-      <c r="F59" s="77" t="s">
+      <c r="E59" s="78"/>
+      <c r="F59" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="73"/>
-      <c r="L59" s="73"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="73"/>
-      <c r="O59" s="73"/>
-      <c r="P59" s="73"/>
-      <c r="Q59" s="73"/>
-      <c r="R59" s="73"/>
-      <c r="S59" s="73"/>
-      <c r="T59" s="73"/>
-      <c r="U59" s="73"/>
-      <c r="V59" s="73" t="s">
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="78"/>
+      <c r="M59" s="78"/>
+      <c r="N59" s="78"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="78"/>
+      <c r="R59" s="78"/>
+      <c r="S59" s="78"/>
+      <c r="T59" s="78"/>
+      <c r="U59" s="78"/>
+      <c r="V59" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="W59" s="73"/>
-      <c r="X59" s="73"/>
-      <c r="Y59" s="73"/>
-      <c r="Z59" s="73"/>
-      <c r="AA59" s="73"/>
-      <c r="AB59" s="73"/>
+      <c r="W59" s="78"/>
+      <c r="X59" s="78"/>
+      <c r="Y59" s="78"/>
+      <c r="Z59" s="78"/>
+      <c r="AA59" s="78"/>
+      <c r="AB59" s="78"/>
     </row>
     <row r="60" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>5</v>
       </c>
-      <c r="D60" s="73" t="s">
+      <c r="D60" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73" t="s">
+      <c r="E60" s="78"/>
+      <c r="F60" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="73"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="73"/>
-      <c r="O60" s="73"/>
-      <c r="P60" s="73"/>
-      <c r="Q60" s="73"/>
-      <c r="R60" s="73"/>
-      <c r="S60" s="73"/>
-      <c r="T60" s="73"/>
-      <c r="U60" s="73"/>
-      <c r="V60" s="73" t="s">
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="78"/>
+      <c r="M60" s="78"/>
+      <c r="N60" s="78"/>
+      <c r="O60" s="78"/>
+      <c r="P60" s="78"/>
+      <c r="Q60" s="78"/>
+      <c r="R60" s="78"/>
+      <c r="S60" s="78"/>
+      <c r="T60" s="78"/>
+      <c r="U60" s="78"/>
+      <c r="V60" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="W60" s="73"/>
-      <c r="X60" s="73"/>
-      <c r="Y60" s="73"/>
-      <c r="Z60" s="73"/>
-      <c r="AA60" s="73"/>
-      <c r="AB60" s="73"/>
+      <c r="W60" s="78"/>
+      <c r="X60" s="78"/>
+      <c r="Y60" s="78"/>
+      <c r="Z60" s="78"/>
+      <c r="AA60" s="78"/>
+      <c r="AB60" s="78"/>
     </row>
     <row r="61" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>6</v>
       </c>
-      <c r="D61" s="73" t="s">
+      <c r="D61" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="73"/>
-      <c r="F61" s="77" t="s">
+      <c r="E61" s="78"/>
+      <c r="F61" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="G61" s="73"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="73"/>
-      <c r="L61" s="73"/>
-      <c r="M61" s="73"/>
-      <c r="N61" s="73"/>
-      <c r="O61" s="73"/>
-      <c r="P61" s="73"/>
-      <c r="Q61" s="73"/>
-      <c r="R61" s="73"/>
-      <c r="S61" s="73"/>
-      <c r="T61" s="73"/>
-      <c r="U61" s="73"/>
-      <c r="V61" s="73" t="s">
+      <c r="G61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="78"/>
+      <c r="K61" s="78"/>
+      <c r="L61" s="78"/>
+      <c r="M61" s="78"/>
+      <c r="N61" s="78"/>
+      <c r="O61" s="78"/>
+      <c r="P61" s="78"/>
+      <c r="Q61" s="78"/>
+      <c r="R61" s="78"/>
+      <c r="S61" s="78"/>
+      <c r="T61" s="78"/>
+      <c r="U61" s="78"/>
+      <c r="V61" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="W61" s="73"/>
-      <c r="X61" s="73"/>
-      <c r="Y61" s="73"/>
-      <c r="Z61" s="73"/>
-      <c r="AA61" s="73"/>
-      <c r="AB61" s="73"/>
+      <c r="W61" s="78"/>
+      <c r="X61" s="78"/>
+      <c r="Y61" s="78"/>
+      <c r="Z61" s="78"/>
+      <c r="AA61" s="78"/>
+      <c r="AB61" s="78"/>
     </row>
     <row r="62" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>7</v>
       </c>
-      <c r="D62" s="73" t="s">
+      <c r="D62" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73" t="s">
+      <c r="E62" s="78"/>
+      <c r="F62" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="73"/>
-      <c r="J62" s="73"/>
-      <c r="K62" s="73"/>
-      <c r="L62" s="73"/>
-      <c r="M62" s="73"/>
-      <c r="N62" s="73"/>
-      <c r="O62" s="73"/>
-      <c r="P62" s="73"/>
-      <c r="Q62" s="73"/>
-      <c r="R62" s="73"/>
-      <c r="S62" s="73"/>
-      <c r="T62" s="73"/>
-      <c r="U62" s="73"/>
-      <c r="V62" s="73" t="s">
+      <c r="G62" s="78"/>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="78"/>
+      <c r="L62" s="78"/>
+      <c r="M62" s="78"/>
+      <c r="N62" s="78"/>
+      <c r="O62" s="78"/>
+      <c r="P62" s="78"/>
+      <c r="Q62" s="78"/>
+      <c r="R62" s="78"/>
+      <c r="S62" s="78"/>
+      <c r="T62" s="78"/>
+      <c r="U62" s="78"/>
+      <c r="V62" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="W62" s="73"/>
-      <c r="X62" s="73"/>
-      <c r="Y62" s="73"/>
-      <c r="Z62" s="73"/>
-      <c r="AA62" s="73"/>
-      <c r="AB62" s="73"/>
+      <c r="W62" s="78"/>
+      <c r="X62" s="78"/>
+      <c r="Y62" s="78"/>
+      <c r="Z62" s="78"/>
+      <c r="AA62" s="78"/>
+      <c r="AB62" s="78"/>
     </row>
     <row r="63" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>8</v>
       </c>
-      <c r="D63" s="73" t="s">
+      <c r="D63" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73" t="s">
+      <c r="E63" s="78"/>
+      <c r="F63" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="73"/>
-      <c r="K63" s="73"/>
-      <c r="L63" s="73"/>
-      <c r="M63" s="73"/>
-      <c r="N63" s="73"/>
-      <c r="O63" s="73"/>
-      <c r="P63" s="73"/>
-      <c r="Q63" s="73"/>
-      <c r="R63" s="73"/>
-      <c r="S63" s="73"/>
-      <c r="T63" s="73"/>
-      <c r="U63" s="73"/>
-      <c r="V63" s="73" t="s">
+      <c r="G63" s="78"/>
+      <c r="H63" s="78"/>
+      <c r="I63" s="78"/>
+      <c r="J63" s="78"/>
+      <c r="K63" s="78"/>
+      <c r="L63" s="78"/>
+      <c r="M63" s="78"/>
+      <c r="N63" s="78"/>
+      <c r="O63" s="78"/>
+      <c r="P63" s="78"/>
+      <c r="Q63" s="78"/>
+      <c r="R63" s="78"/>
+      <c r="S63" s="78"/>
+      <c r="T63" s="78"/>
+      <c r="U63" s="78"/>
+      <c r="V63" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="W63" s="73"/>
-      <c r="X63" s="73"/>
-      <c r="Y63" s="73"/>
-      <c r="Z63" s="73"/>
-      <c r="AA63" s="73"/>
-      <c r="AB63" s="73"/>
+      <c r="W63" s="78"/>
+      <c r="X63" s="78"/>
+      <c r="Y63" s="78"/>
+      <c r="Z63" s="78"/>
+      <c r="AA63" s="78"/>
+      <c r="AB63" s="78"/>
     </row>
     <row r="64" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>9</v>
       </c>
-      <c r="D64" s="73" t="s">
+      <c r="D64" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="73"/>
-      <c r="F64" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="73"/>
-      <c r="K64" s="73"/>
-      <c r="L64" s="73"/>
-      <c r="M64" s="73"/>
-      <c r="N64" s="73"/>
-      <c r="O64" s="73"/>
-      <c r="P64" s="73"/>
-      <c r="Q64" s="73"/>
-      <c r="R64" s="73"/>
-      <c r="S64" s="73"/>
-      <c r="T64" s="73"/>
-      <c r="U64" s="73"/>
-      <c r="V64" s="73" t="s">
+      <c r="E64" s="78"/>
+      <c r="F64" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" s="78"/>
+      <c r="H64" s="78"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="78"/>
+      <c r="K64" s="78"/>
+      <c r="L64" s="78"/>
+      <c r="M64" s="78"/>
+      <c r="N64" s="78"/>
+      <c r="O64" s="78"/>
+      <c r="P64" s="78"/>
+      <c r="Q64" s="78"/>
+      <c r="R64" s="78"/>
+      <c r="S64" s="78"/>
+      <c r="T64" s="78"/>
+      <c r="U64" s="78"/>
+      <c r="V64" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="W64" s="73"/>
-      <c r="X64" s="73"/>
-      <c r="Y64" s="73"/>
-      <c r="Z64" s="73"/>
-      <c r="AA64" s="73"/>
-      <c r="AB64" s="73"/>
+      <c r="W64" s="78"/>
+      <c r="X64" s="78"/>
+      <c r="Y64" s="78"/>
+      <c r="Z64" s="78"/>
+      <c r="AA64" s="78"/>
+      <c r="AB64" s="78"/>
     </row>
     <row r="65" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>10</v>
       </c>
-      <c r="D65" s="73" t="s">
+      <c r="D65" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="73"/>
-      <c r="F65" s="77" t="s">
+      <c r="E65" s="78"/>
+      <c r="F65" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G65" s="78"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="78"/>
+      <c r="M65" s="78"/>
+      <c r="N65" s="78"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="78"/>
+      <c r="Q65" s="78"/>
+      <c r="R65" s="78"/>
+      <c r="S65" s="78"/>
+      <c r="T65" s="78"/>
+      <c r="U65" s="78"/>
+      <c r="V65" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="73"/>
-      <c r="L65" s="73"/>
-      <c r="M65" s="73"/>
-      <c r="N65" s="73"/>
-      <c r="O65" s="73"/>
-      <c r="P65" s="73"/>
-      <c r="Q65" s="73"/>
-      <c r="R65" s="73"/>
-      <c r="S65" s="73"/>
-      <c r="T65" s="73"/>
-      <c r="U65" s="73"/>
-      <c r="V65" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="W65" s="73"/>
-      <c r="X65" s="73"/>
-      <c r="Y65" s="73"/>
-      <c r="Z65" s="73"/>
-      <c r="AA65" s="73"/>
-      <c r="AB65" s="73"/>
+      <c r="W65" s="78"/>
+      <c r="X65" s="78"/>
+      <c r="Y65" s="78"/>
+      <c r="Z65" s="78"/>
+      <c r="AA65" s="78"/>
+      <c r="AB65" s="78"/>
     </row>
     <row r="66" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>11</v>
       </c>
-      <c r="D66" s="73" t="s">
+      <c r="D66" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="73"/>
-      <c r="F66" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="73"/>
-      <c r="J66" s="73"/>
-      <c r="K66" s="73"/>
-      <c r="L66" s="73"/>
-      <c r="M66" s="73"/>
-      <c r="N66" s="73"/>
-      <c r="O66" s="73"/>
-      <c r="P66" s="73"/>
-      <c r="Q66" s="73"/>
-      <c r="R66" s="73"/>
-      <c r="S66" s="73"/>
-      <c r="T66" s="73"/>
-      <c r="U66" s="73"/>
-      <c r="V66" s="73" t="s">
+      <c r="E66" s="78"/>
+      <c r="F66" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="W66" s="73"/>
-      <c r="X66" s="73"/>
-      <c r="Y66" s="73"/>
-      <c r="Z66" s="73"/>
-      <c r="AA66" s="73"/>
-      <c r="AB66" s="73"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="78"/>
+      <c r="L66" s="78"/>
+      <c r="M66" s="78"/>
+      <c r="N66" s="78"/>
+      <c r="O66" s="78"/>
+      <c r="P66" s="78"/>
+      <c r="Q66" s="78"/>
+      <c r="R66" s="78"/>
+      <c r="S66" s="78"/>
+      <c r="T66" s="78"/>
+      <c r="U66" s="78"/>
+      <c r="V66" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="W66" s="78"/>
+      <c r="X66" s="78"/>
+      <c r="Y66" s="78"/>
+      <c r="Z66" s="78"/>
+      <c r="AA66" s="78"/>
+      <c r="AB66" s="78"/>
     </row>
     <row r="67" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>12</v>
       </c>
-      <c r="D67" s="73" t="s">
+      <c r="D67" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="73"/>
-      <c r="F67" s="73" t="s">
+      <c r="E67" s="78"/>
+      <c r="F67" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="G67" s="73"/>
-      <c r="H67" s="73"/>
-      <c r="I67" s="73"/>
-      <c r="J67" s="73"/>
-      <c r="K67" s="73"/>
-      <c r="L67" s="73"/>
-      <c r="M67" s="73"/>
-      <c r="N67" s="73"/>
-      <c r="O67" s="73"/>
-      <c r="P67" s="73"/>
-      <c r="Q67" s="73"/>
-      <c r="R67" s="73"/>
-      <c r="S67" s="73"/>
-      <c r="T67" s="73"/>
-      <c r="U67" s="73"/>
-      <c r="V67" s="73" t="s">
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="78"/>
+      <c r="M67" s="78"/>
+      <c r="N67" s="78"/>
+      <c r="O67" s="78"/>
+      <c r="P67" s="78"/>
+      <c r="Q67" s="78"/>
+      <c r="R67" s="78"/>
+      <c r="S67" s="78"/>
+      <c r="T67" s="78"/>
+      <c r="U67" s="78"/>
+      <c r="V67" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="W67" s="73"/>
-      <c r="X67" s="73"/>
-      <c r="Y67" s="73"/>
-      <c r="Z67" s="73"/>
-      <c r="AA67" s="73"/>
-      <c r="AB67" s="73"/>
+      <c r="W67" s="78"/>
+      <c r="X67" s="78"/>
+      <c r="Y67" s="78"/>
+      <c r="Z67" s="78"/>
+      <c r="AA67" s="78"/>
+      <c r="AB67" s="78"/>
     </row>
     <row r="68" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5346,6 +5927,45 @@
     <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="AK20:AN20"/>
+    <mergeCell ref="AK31:AN31"/>
+    <mergeCell ref="AU24:AU27"/>
+    <mergeCell ref="C53:AB53"/>
+    <mergeCell ref="V55:AB55"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:U54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:U55"/>
+    <mergeCell ref="V54:AB54"/>
+    <mergeCell ref="V58:AB58"/>
+    <mergeCell ref="V59:AB59"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:U56"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:U67"/>
+    <mergeCell ref="F57:U57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="V56:AB56"/>
+    <mergeCell ref="V57:AB57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F60:U60"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:U59"/>
+    <mergeCell ref="F58:U58"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:U61"/>
+    <mergeCell ref="V60:AB60"/>
+    <mergeCell ref="V61:AB61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:U62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:U63"/>
+    <mergeCell ref="V62:AB62"/>
+    <mergeCell ref="V63:AB63"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="F66:U66"/>
     <mergeCell ref="V66:AB66"/>
@@ -5356,48 +5976,4555 @@
     <mergeCell ref="F65:U65"/>
     <mergeCell ref="V64:AB64"/>
     <mergeCell ref="V65:AB65"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:U62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:U63"/>
-    <mergeCell ref="V62:AB62"/>
-    <mergeCell ref="V63:AB63"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:U61"/>
-    <mergeCell ref="V60:AB60"/>
-    <mergeCell ref="V61:AB61"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F60:U60"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:U59"/>
-    <mergeCell ref="F58:U58"/>
-    <mergeCell ref="V58:AB58"/>
-    <mergeCell ref="V59:AB59"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:U56"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:U67"/>
-    <mergeCell ref="F57:U57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="V56:AB56"/>
-    <mergeCell ref="V57:AB57"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:U54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:U55"/>
-    <mergeCell ref="V54:AB54"/>
-    <mergeCell ref="C53:AB53"/>
-    <mergeCell ref="V55:AB55"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="AK20:AN20"/>
-    <mergeCell ref="AK31:AN31"/>
-    <mergeCell ref="AU24:AU27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A92AD0-1BC0-4913-9BC6-398FBCDD6F41}">
+  <dimension ref="D4:CW77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="BB45" sqref="BB45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="270" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+      <c r="AU4" s="26"/>
+      <c r="AV4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="26"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="26"/>
+      <c r="AU6" s="90"/>
+      <c r="AV6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI7" s="86"/>
+      <c r="AJ7" s="86"/>
+      <c r="AK7" s="86"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="86"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="26"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="86"/>
+      <c r="AI8" s="86"/>
+      <c r="AJ8" s="86"/>
+      <c r="AK8" s="86"/>
+      <c r="AL8" s="86"/>
+      <c r="AM8" s="86"/>
+      <c r="AN8" s="86"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="26"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AU9" s="127"/>
+      <c r="AV9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="86"/>
+      <c r="AK10" s="86"/>
+      <c r="AL10" s="86"/>
+      <c r="AM10" s="86"/>
+      <c r="AN10" s="86"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+    </row>
+    <row r="11" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="86"/>
+      <c r="AJ11" s="86"/>
+      <c r="AK11" s="86"/>
+      <c r="AL11" s="86"/>
+      <c r="AM11" s="86"/>
+      <c r="AN11" s="86"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="26"/>
+    </row>
+    <row r="12" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="86"/>
+      <c r="AI12" s="86"/>
+      <c r="AJ12" s="86"/>
+      <c r="AK12" s="86"/>
+      <c r="AL12" s="86"/>
+      <c r="AM12" s="86"/>
+      <c r="AN12" s="86"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="26"/>
+      <c r="AU12" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV12" s="78"/>
+      <c r="AW12" s="78"/>
+      <c r="AX12" s="78"/>
+      <c r="AY12" s="78"/>
+      <c r="AZ12" s="78"/>
+      <c r="BA12" s="78"/>
+      <c r="BB12" s="78"/>
+      <c r="BC12" s="78"/>
+      <c r="BD12" s="78"/>
+      <c r="BE12" s="78"/>
+      <c r="BF12" s="78"/>
+      <c r="BG12" s="78"/>
+      <c r="BH12" s="78"/>
+      <c r="BJ12" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK12" s="78"/>
+      <c r="BL12" s="78"/>
+      <c r="BM12" s="78"/>
+      <c r="BN12" s="78"/>
+      <c r="BO12" s="78"/>
+      <c r="BP12" s="78"/>
+      <c r="BQ12" s="78"/>
+      <c r="BR12" s="78"/>
+      <c r="BS12" s="78"/>
+      <c r="BT12" s="78"/>
+      <c r="BU12" s="78"/>
+      <c r="BV12" s="78"/>
+      <c r="BW12" s="78"/>
+    </row>
+    <row r="13" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="86"/>
+      <c r="AJ13" s="86"/>
+      <c r="AK13" s="86"/>
+      <c r="AL13" s="86"/>
+      <c r="AM13" s="86"/>
+      <c r="AN13" s="86"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="26"/>
+      <c r="AU13" s="26"/>
+      <c r="AV13" s="26"/>
+      <c r="AW13" s="26"/>
+      <c r="AX13" s="26"/>
+      <c r="AY13" s="26"/>
+      <c r="AZ13" s="26"/>
+      <c r="BA13" s="26"/>
+      <c r="BB13" s="26"/>
+      <c r="BC13" s="26"/>
+      <c r="BD13" s="26"/>
+      <c r="BE13" s="26"/>
+      <c r="BF13" s="26"/>
+      <c r="BG13" s="26"/>
+      <c r="BH13" s="26"/>
+      <c r="BJ13" s="26"/>
+      <c r="BK13" s="26"/>
+      <c r="BL13" s="26"/>
+      <c r="BM13" s="26"/>
+      <c r="BN13" s="26"/>
+      <c r="BO13" s="26"/>
+      <c r="BP13" s="26"/>
+      <c r="BQ13" s="26"/>
+      <c r="BR13" s="26"/>
+      <c r="BS13" s="26"/>
+      <c r="BT13" s="26"/>
+      <c r="BU13" s="26"/>
+      <c r="BV13" s="26"/>
+      <c r="BW13" s="26"/>
+    </row>
+    <row r="14" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="23"/>
+      <c r="AL14" s="23"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="26"/>
+      <c r="AU14" s="26"/>
+      <c r="AV14" s="23"/>
+      <c r="AW14" s="23"/>
+      <c r="AX14" s="23"/>
+      <c r="AY14" s="23"/>
+      <c r="AZ14" s="23"/>
+      <c r="BA14" s="23"/>
+      <c r="BB14" s="23"/>
+      <c r="BC14" s="23"/>
+      <c r="BD14" s="23"/>
+      <c r="BE14" s="23"/>
+      <c r="BF14" s="23"/>
+      <c r="BG14" s="23"/>
+      <c r="BH14" s="26"/>
+      <c r="BJ14" s="26"/>
+      <c r="BK14" s="23"/>
+      <c r="BL14" s="23"/>
+      <c r="BM14" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN14" s="101"/>
+      <c r="BO14" s="101"/>
+      <c r="BP14" s="101"/>
+      <c r="BQ14" s="101"/>
+      <c r="BR14" s="101"/>
+      <c r="BS14" s="101"/>
+      <c r="BT14" s="102"/>
+      <c r="BU14" s="23"/>
+      <c r="BV14" s="23"/>
+      <c r="BW14" s="26"/>
+    </row>
+    <row r="15" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="23"/>
+      <c r="AK15" s="23"/>
+      <c r="AL15" s="23"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="26"/>
+      <c r="AU15" s="26"/>
+      <c r="AV15" s="23"/>
+      <c r="AW15" s="23"/>
+      <c r="AX15" s="23"/>
+      <c r="AY15" s="23"/>
+      <c r="AZ15" s="23"/>
+      <c r="BA15" s="23"/>
+      <c r="BB15" s="23"/>
+      <c r="BC15" s="23"/>
+      <c r="BD15" s="23"/>
+      <c r="BE15" s="23"/>
+      <c r="BF15" s="23"/>
+      <c r="BG15" s="23"/>
+      <c r="BH15" s="26"/>
+      <c r="BJ15" s="26"/>
+      <c r="BK15" s="23"/>
+      <c r="BL15" s="23"/>
+      <c r="BM15" s="103"/>
+      <c r="BN15" s="104"/>
+      <c r="BO15" s="104"/>
+      <c r="BP15" s="104"/>
+      <c r="BQ15" s="104"/>
+      <c r="BR15" s="104"/>
+      <c r="BS15" s="104"/>
+      <c r="BT15" s="105"/>
+      <c r="BU15" s="23"/>
+      <c r="BV15" s="23"/>
+      <c r="BW15" s="26"/>
+    </row>
+    <row r="16" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="23"/>
+      <c r="AL16" s="23"/>
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="26"/>
+      <c r="AU16" s="26"/>
+      <c r="AV16" s="23"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="23"/>
+      <c r="AZ16" s="23"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="23"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BH16" s="26"/>
+      <c r="BJ16" s="26"/>
+      <c r="BK16" s="23"/>
+      <c r="BL16" s="23"/>
+      <c r="BM16" s="23"/>
+      <c r="BN16" s="23"/>
+      <c r="BO16" s="23"/>
+      <c r="BP16" s="23"/>
+      <c r="BQ16" s="23"/>
+      <c r="BR16" s="23"/>
+      <c r="BS16" s="23"/>
+      <c r="BT16" s="23"/>
+      <c r="BU16" s="23"/>
+      <c r="BV16" s="23"/>
+      <c r="BW16" s="26"/>
+    </row>
+    <row r="17" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="23"/>
+      <c r="AL17" s="23"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="26"/>
+      <c r="AU17" s="26"/>
+      <c r="AV17" s="23"/>
+      <c r="AW17" s="23"/>
+      <c r="AX17" s="23"/>
+      <c r="AY17" s="23"/>
+      <c r="AZ17" s="23"/>
+      <c r="BA17" s="23"/>
+      <c r="BB17" s="23"/>
+      <c r="BC17" s="23"/>
+      <c r="BD17" s="23"/>
+      <c r="BE17" s="23"/>
+      <c r="BF17" s="23"/>
+      <c r="BG17" s="23"/>
+      <c r="BH17" s="26"/>
+      <c r="BJ17" s="26"/>
+      <c r="BK17" s="23"/>
+      <c r="BL17" s="23"/>
+      <c r="BM17" s="23"/>
+      <c r="BN17" s="23"/>
+      <c r="BO17" s="23"/>
+      <c r="BP17" s="23"/>
+      <c r="BQ17" s="23"/>
+      <c r="BR17" s="23"/>
+      <c r="BS17" s="23"/>
+      <c r="BT17" s="23"/>
+      <c r="BU17" s="23"/>
+      <c r="BV17" s="23"/>
+      <c r="BW17" s="26"/>
+    </row>
+    <row r="18" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="23"/>
+      <c r="AL18" s="23"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="26"/>
+      <c r="AO18" s="26"/>
+      <c r="AP18" s="26"/>
+      <c r="AQ18" s="26"/>
+      <c r="AU18" s="90"/>
+      <c r="AV18" s="23"/>
+      <c r="AW18" s="23"/>
+      <c r="AX18" s="23"/>
+      <c r="AY18" s="23"/>
+      <c r="AZ18" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA18" s="92"/>
+      <c r="BB18" s="92"/>
+      <c r="BC18" s="93"/>
+      <c r="BD18" s="23"/>
+      <c r="BE18" s="23"/>
+      <c r="BF18" s="23"/>
+      <c r="BG18" s="23"/>
+      <c r="BH18" s="23"/>
+      <c r="BJ18" s="23"/>
+      <c r="BK18" s="23"/>
+      <c r="BL18" s="23"/>
+      <c r="BM18" s="23"/>
+      <c r="BN18" s="23"/>
+      <c r="BO18" s="23"/>
+      <c r="BP18" s="23"/>
+      <c r="BQ18" s="23"/>
+      <c r="BR18" s="23"/>
+      <c r="BS18" s="23"/>
+      <c r="BT18" s="23"/>
+      <c r="BU18" s="23"/>
+      <c r="BV18" s="23"/>
+      <c r="BW18" s="23"/>
+    </row>
+    <row r="19" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="23"/>
+      <c r="AL19" s="23"/>
+      <c r="AM19" s="26"/>
+      <c r="AN19" s="26"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="26"/>
+      <c r="AQ19" s="26"/>
+      <c r="AU19" s="90"/>
+      <c r="AV19" s="23"/>
+      <c r="AW19" s="23"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="AZ19" s="94"/>
+      <c r="BA19" s="95"/>
+      <c r="BB19" s="95"/>
+      <c r="BC19" s="96"/>
+      <c r="BD19" s="23"/>
+      <c r="BE19" s="23"/>
+      <c r="BF19" s="23"/>
+      <c r="BG19" s="23"/>
+      <c r="BH19" s="23"/>
+      <c r="BJ19" s="23"/>
+      <c r="BK19" s="23"/>
+      <c r="BL19" s="23"/>
+      <c r="BM19" s="23"/>
+      <c r="BN19" s="23"/>
+      <c r="BO19" s="23"/>
+      <c r="BP19" s="23"/>
+      <c r="BQ19" s="23"/>
+      <c r="BR19" s="23"/>
+      <c r="BS19" s="23"/>
+      <c r="BT19" s="23"/>
+      <c r="BU19" s="23"/>
+      <c r="BV19" s="23"/>
+      <c r="BW19" s="23"/>
+    </row>
+    <row r="20" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="23"/>
+      <c r="AL20" s="23"/>
+      <c r="AM20" s="26"/>
+      <c r="AN20" s="26"/>
+      <c r="AO20" s="26"/>
+      <c r="AP20" s="26"/>
+      <c r="AQ20" s="26"/>
+      <c r="AU20" s="90"/>
+      <c r="AV20" s="23"/>
+      <c r="AW20" s="23"/>
+      <c r="AX20" s="23"/>
+      <c r="AY20" s="23"/>
+      <c r="AZ20" s="94"/>
+      <c r="BA20" s="95"/>
+      <c r="BB20" s="95"/>
+      <c r="BC20" s="96"/>
+      <c r="BD20" s="23"/>
+      <c r="BE20" s="23"/>
+      <c r="BF20" s="23"/>
+      <c r="BG20" s="23"/>
+      <c r="BH20" s="23"/>
+      <c r="BJ20" s="23"/>
+      <c r="BK20" s="23"/>
+      <c r="BL20" s="23"/>
+      <c r="BM20" s="23"/>
+      <c r="BN20" s="23"/>
+      <c r="BO20" s="23"/>
+      <c r="BP20" s="23"/>
+      <c r="BQ20" s="23"/>
+      <c r="BR20" s="23"/>
+      <c r="BS20" s="23"/>
+      <c r="BT20" s="23"/>
+      <c r="BU20" s="23"/>
+      <c r="BV20" s="23"/>
+      <c r="BW20" s="23"/>
+      <c r="BY20" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="BZ20" s="78"/>
+      <c r="CA20" s="78"/>
+      <c r="CB20" s="78"/>
+      <c r="CC20" s="78"/>
+      <c r="CD20" s="78"/>
+      <c r="CE20" s="78"/>
+      <c r="CF20" s="78"/>
+      <c r="CG20" s="78"/>
+      <c r="CH20" s="78"/>
+      <c r="CI20" s="78"/>
+      <c r="CJ20" s="78"/>
+      <c r="CK20" s="78"/>
+      <c r="CL20" s="78"/>
+    </row>
+    <row r="21" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="23"/>
+      <c r="AM21" s="26"/>
+      <c r="AN21" s="26"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="26"/>
+      <c r="AU21" s="90"/>
+      <c r="AV21" s="23"/>
+      <c r="AW21" s="23"/>
+      <c r="AX21" s="23"/>
+      <c r="AY21" s="23"/>
+      <c r="AZ21" s="97"/>
+      <c r="BA21" s="98"/>
+      <c r="BB21" s="98"/>
+      <c r="BC21" s="99"/>
+      <c r="BD21" s="23"/>
+      <c r="BE21" s="23"/>
+      <c r="BF21" s="23"/>
+      <c r="BG21" s="23"/>
+      <c r="BH21" s="23"/>
+      <c r="BJ21" s="23"/>
+      <c r="BK21" s="23"/>
+      <c r="BL21" s="23"/>
+      <c r="BM21" s="23"/>
+      <c r="BN21" s="23"/>
+      <c r="BO21" s="23"/>
+      <c r="BP21" s="23"/>
+      <c r="BQ21" s="23"/>
+      <c r="BR21" s="23"/>
+      <c r="BS21" s="23"/>
+      <c r="BT21" s="23"/>
+      <c r="BU21" s="23"/>
+      <c r="BV21" s="23"/>
+      <c r="BW21" s="23"/>
+      <c r="BY21" s="26"/>
+      <c r="BZ21" s="26"/>
+      <c r="CA21" s="26"/>
+      <c r="CB21" s="26"/>
+      <c r="CC21" s="26"/>
+      <c r="CD21" s="26"/>
+      <c r="CE21" s="26"/>
+      <c r="CF21" s="26"/>
+      <c r="CG21" s="26"/>
+      <c r="CH21" s="26"/>
+      <c r="CI21" s="26"/>
+      <c r="CJ21" s="26"/>
+      <c r="CK21" s="26"/>
+      <c r="CL21" s="26"/>
+    </row>
+    <row r="22" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="23"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="23"/>
+      <c r="AW22" s="23"/>
+      <c r="AX22" s="23"/>
+      <c r="AY22" s="23"/>
+      <c r="AZ22" s="23"/>
+      <c r="BA22" s="23"/>
+      <c r="BB22" s="23"/>
+      <c r="BC22" s="23"/>
+      <c r="BD22" s="23"/>
+      <c r="BE22" s="23"/>
+      <c r="BF22" s="23"/>
+      <c r="BG22" s="23"/>
+      <c r="BH22" s="26"/>
+      <c r="BJ22" s="26"/>
+      <c r="BK22" s="23"/>
+      <c r="BL22" s="23"/>
+      <c r="BM22" s="23"/>
+      <c r="BN22" s="23"/>
+      <c r="BO22" s="23"/>
+      <c r="BP22" s="23"/>
+      <c r="BQ22" s="23"/>
+      <c r="BR22" s="23"/>
+      <c r="BS22" s="23"/>
+      <c r="BT22" s="23"/>
+      <c r="BU22" s="23"/>
+      <c r="BV22" s="23"/>
+      <c r="BW22" s="26"/>
+      <c r="BY22" s="26"/>
+      <c r="BZ22" s="23"/>
+      <c r="CA22" s="23"/>
+      <c r="CB22" s="23"/>
+      <c r="CC22" s="23"/>
+      <c r="CD22" s="23"/>
+      <c r="CE22" s="23"/>
+      <c r="CF22" s="23"/>
+      <c r="CG22" s="23"/>
+      <c r="CH22" s="23"/>
+      <c r="CI22" s="23"/>
+      <c r="CJ22" s="23"/>
+      <c r="CK22" s="23"/>
+      <c r="CL22" s="26"/>
+      <c r="CN22" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO22" s="78"/>
+      <c r="CP22" s="78"/>
+      <c r="CQ22" s="78"/>
+      <c r="CR22" s="78"/>
+      <c r="CS22" s="78"/>
+      <c r="CT22" s="78"/>
+      <c r="CU22" s="78"/>
+      <c r="CV22" s="78"/>
+      <c r="CW22" s="78"/>
+    </row>
+    <row r="23" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="23"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
+      <c r="AU23" s="26"/>
+      <c r="AV23" s="23"/>
+      <c r="AW23" s="23"/>
+      <c r="AX23" s="23"/>
+      <c r="AY23" s="23"/>
+      <c r="AZ23" s="23"/>
+      <c r="BA23" s="23"/>
+      <c r="BB23" s="23"/>
+      <c r="BC23" s="23"/>
+      <c r="BD23" s="23"/>
+      <c r="BE23" s="23"/>
+      <c r="BF23" s="23"/>
+      <c r="BG23" s="23"/>
+      <c r="BH23" s="26"/>
+      <c r="BJ23" s="26"/>
+      <c r="BK23" s="23"/>
+      <c r="BL23" s="23"/>
+      <c r="BM23" s="23"/>
+      <c r="BN23" s="23"/>
+      <c r="BO23" s="23"/>
+      <c r="BP23" s="23"/>
+      <c r="BQ23" s="23"/>
+      <c r="BR23" s="23"/>
+      <c r="BS23" s="23"/>
+      <c r="BT23" s="23"/>
+      <c r="BU23" s="23"/>
+      <c r="BV23" s="23"/>
+      <c r="BW23" s="26"/>
+      <c r="BY23" s="26"/>
+      <c r="BZ23" s="23"/>
+      <c r="CA23" s="119"/>
+      <c r="CB23" s="120"/>
+      <c r="CC23" s="120"/>
+      <c r="CD23" s="132" t="s">
+        <v>106</v>
+      </c>
+      <c r="CE23" s="133"/>
+      <c r="CF23" s="133"/>
+      <c r="CG23" s="134"/>
+      <c r="CH23" s="120"/>
+      <c r="CI23" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="CJ23" s="128"/>
+      <c r="CK23" s="23"/>
+      <c r="CL23" s="26"/>
+    </row>
+    <row r="24" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="89"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="23"/>
+      <c r="AL24" s="23"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="23"/>
+      <c r="AW24" s="23"/>
+      <c r="AX24" s="23"/>
+      <c r="AY24" s="23"/>
+      <c r="AZ24" s="23"/>
+      <c r="BA24" s="23"/>
+      <c r="BB24" s="23"/>
+      <c r="BC24" s="23"/>
+      <c r="BD24" s="23"/>
+      <c r="BE24" s="23"/>
+      <c r="BF24" s="23"/>
+      <c r="BG24" s="23"/>
+      <c r="BH24" s="26"/>
+      <c r="BJ24" s="26"/>
+      <c r="BK24" s="23"/>
+      <c r="BL24" s="23"/>
+      <c r="BM24" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN24" s="101"/>
+      <c r="BO24" s="101"/>
+      <c r="BP24" s="101"/>
+      <c r="BQ24" s="101"/>
+      <c r="BR24" s="101"/>
+      <c r="BS24" s="101"/>
+      <c r="BT24" s="102"/>
+      <c r="BU24" s="23"/>
+      <c r="BV24" s="23"/>
+      <c r="BW24" s="26"/>
+      <c r="BY24" s="26"/>
+      <c r="BZ24" s="23"/>
+      <c r="CA24" s="121"/>
+      <c r="CB24" s="122"/>
+      <c r="CC24" s="122"/>
+      <c r="CD24" s="122"/>
+      <c r="CE24" s="122"/>
+      <c r="CF24" s="122"/>
+      <c r="CG24" s="122"/>
+      <c r="CH24" s="122"/>
+      <c r="CI24" s="130"/>
+      <c r="CJ24" s="131"/>
+      <c r="CK24" s="23"/>
+      <c r="CL24" s="26"/>
+    </row>
+    <row r="25" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="23"/>
+      <c r="AL25" s="23"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
+      <c r="AU25" s="26"/>
+      <c r="AV25" s="23"/>
+      <c r="AW25" s="23"/>
+      <c r="AX25" s="23"/>
+      <c r="AY25" s="23"/>
+      <c r="AZ25" s="23"/>
+      <c r="BA25" s="23"/>
+      <c r="BB25" s="23"/>
+      <c r="BC25" s="23"/>
+      <c r="BD25" s="23"/>
+      <c r="BE25" s="23"/>
+      <c r="BF25" s="23"/>
+      <c r="BG25" s="23"/>
+      <c r="BH25" s="26"/>
+      <c r="BJ25" s="26"/>
+      <c r="BK25" s="23"/>
+      <c r="BL25" s="23"/>
+      <c r="BM25" s="103"/>
+      <c r="BN25" s="104"/>
+      <c r="BO25" s="104"/>
+      <c r="BP25" s="104"/>
+      <c r="BQ25" s="104"/>
+      <c r="BR25" s="104"/>
+      <c r="BS25" s="104"/>
+      <c r="BT25" s="105"/>
+      <c r="BU25" s="23"/>
+      <c r="BV25" s="23"/>
+      <c r="BW25" s="26"/>
+      <c r="BY25" s="26"/>
+      <c r="BZ25" s="23"/>
+      <c r="CA25" s="121"/>
+      <c r="CB25" s="122"/>
+      <c r="CC25" s="122"/>
+      <c r="CD25" s="122"/>
+      <c r="CE25" s="122"/>
+      <c r="CF25" s="122"/>
+      <c r="CG25" s="122"/>
+      <c r="CH25" s="122"/>
+      <c r="CI25" s="122"/>
+      <c r="CJ25" s="123"/>
+      <c r="CK25" s="23"/>
+      <c r="CL25" s="26"/>
+    </row>
+    <row r="26" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="23"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="26"/>
+      <c r="AU26" s="26"/>
+      <c r="AV26" s="26"/>
+      <c r="AW26" s="26"/>
+      <c r="AX26" s="26"/>
+      <c r="AY26" s="26"/>
+      <c r="AZ26" s="26"/>
+      <c r="BA26" s="26"/>
+      <c r="BB26" s="26"/>
+      <c r="BC26" s="26"/>
+      <c r="BD26" s="26"/>
+      <c r="BE26" s="26"/>
+      <c r="BF26" s="26"/>
+      <c r="BG26" s="26"/>
+      <c r="BH26" s="26"/>
+      <c r="BJ26" s="26"/>
+      <c r="BK26" s="26"/>
+      <c r="BL26" s="26"/>
+      <c r="BM26" s="26"/>
+      <c r="BN26" s="26"/>
+      <c r="BO26" s="26"/>
+      <c r="BP26" s="26"/>
+      <c r="BQ26" s="26"/>
+      <c r="BR26" s="26"/>
+      <c r="BS26" s="26"/>
+      <c r="BT26" s="26"/>
+      <c r="BU26" s="26"/>
+      <c r="BV26" s="26"/>
+      <c r="BW26" s="26"/>
+      <c r="BY26" s="23"/>
+      <c r="BZ26" s="23"/>
+      <c r="CA26" s="121"/>
+      <c r="CB26" s="122"/>
+      <c r="CC26" s="122"/>
+      <c r="CD26" s="122"/>
+      <c r="CE26" s="122"/>
+      <c r="CF26" s="122"/>
+      <c r="CG26" s="122"/>
+      <c r="CH26" s="122"/>
+      <c r="CI26" s="122"/>
+      <c r="CJ26" s="123"/>
+      <c r="CK26" s="23"/>
+      <c r="CL26" s="26"/>
+    </row>
+    <row r="27" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="42"/>
+      <c r="AK27" s="42"/>
+      <c r="AL27" s="42"/>
+      <c r="AM27" s="42"/>
+      <c r="AN27" s="42"/>
+      <c r="AO27" s="26"/>
+      <c r="AP27" s="26"/>
+      <c r="AQ27" s="26"/>
+      <c r="BY27" s="23"/>
+      <c r="BZ27" s="23"/>
+      <c r="CA27" s="121"/>
+      <c r="CB27" s="122"/>
+      <c r="CC27" s="122"/>
+      <c r="CD27" s="122"/>
+      <c r="CE27" s="122"/>
+      <c r="CF27" s="122"/>
+      <c r="CG27" s="122"/>
+      <c r="CH27" s="122"/>
+      <c r="CI27" s="122"/>
+      <c r="CJ27" s="123"/>
+      <c r="CK27" s="23"/>
+      <c r="CL27" s="26"/>
+    </row>
+    <row r="28" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="42"/>
+      <c r="AK28" s="42"/>
+      <c r="AL28" s="42"/>
+      <c r="AM28" s="42"/>
+      <c r="AN28" s="42"/>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="26"/>
+      <c r="AQ28" s="26"/>
+      <c r="AU28" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV28" s="78"/>
+      <c r="AW28" s="78"/>
+      <c r="AX28" s="78"/>
+      <c r="AY28" s="78"/>
+      <c r="AZ28" s="78"/>
+      <c r="BA28" s="78"/>
+      <c r="BB28" s="78"/>
+      <c r="BC28" s="78"/>
+      <c r="BD28" s="78"/>
+      <c r="BE28" s="78"/>
+      <c r="BF28" s="78"/>
+      <c r="BG28" s="78"/>
+      <c r="BH28" s="78"/>
+      <c r="BJ28" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK28" s="78"/>
+      <c r="BL28" s="78"/>
+      <c r="BM28" s="78"/>
+      <c r="BN28" s="78"/>
+      <c r="BO28" s="78"/>
+      <c r="BP28" s="78"/>
+      <c r="BQ28" s="78"/>
+      <c r="BR28" s="78"/>
+      <c r="BS28" s="78"/>
+      <c r="BT28" s="78"/>
+      <c r="BU28" s="78"/>
+      <c r="BV28" s="78"/>
+      <c r="BW28" s="78"/>
+      <c r="BY28" s="23"/>
+      <c r="BZ28" s="23"/>
+      <c r="CA28" s="121"/>
+      <c r="CB28" s="122"/>
+      <c r="CC28" s="122"/>
+      <c r="CD28" s="122"/>
+      <c r="CE28" s="122"/>
+      <c r="CF28" s="122"/>
+      <c r="CG28" s="122"/>
+      <c r="CH28" s="122"/>
+      <c r="CI28" s="122"/>
+      <c r="CJ28" s="123"/>
+      <c r="CK28" s="23"/>
+      <c r="CL28" s="26"/>
+    </row>
+    <row r="29" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="42"/>
+      <c r="AJ29" s="42"/>
+      <c r="AK29" s="42"/>
+      <c r="AL29" s="42"/>
+      <c r="AM29" s="42"/>
+      <c r="AN29" s="42"/>
+      <c r="AO29" s="26"/>
+      <c r="AP29" s="26"/>
+      <c r="AQ29" s="26"/>
+      <c r="AU29" s="26"/>
+      <c r="AV29" s="26"/>
+      <c r="AW29" s="26"/>
+      <c r="AX29" s="26"/>
+      <c r="AY29" s="26"/>
+      <c r="AZ29" s="26"/>
+      <c r="BA29" s="26"/>
+      <c r="BB29" s="26"/>
+      <c r="BC29" s="26"/>
+      <c r="BD29" s="26"/>
+      <c r="BE29" s="26"/>
+      <c r="BF29" s="26"/>
+      <c r="BG29" s="26"/>
+      <c r="BH29" s="26"/>
+      <c r="BJ29" s="26"/>
+      <c r="BK29" s="26"/>
+      <c r="BL29" s="26"/>
+      <c r="BM29" s="26"/>
+      <c r="BN29" s="26"/>
+      <c r="BO29" s="26"/>
+      <c r="BP29" s="26"/>
+      <c r="BQ29" s="26"/>
+      <c r="BR29" s="26"/>
+      <c r="BS29" s="26"/>
+      <c r="BT29" s="26"/>
+      <c r="BU29" s="26"/>
+      <c r="BV29" s="26"/>
+      <c r="BW29" s="26"/>
+      <c r="BY29" s="23"/>
+      <c r="BZ29" s="23"/>
+      <c r="CA29" s="121"/>
+      <c r="CB29" s="122"/>
+      <c r="CC29" s="122"/>
+      <c r="CD29" s="122"/>
+      <c r="CE29" s="122"/>
+      <c r="CF29" s="122"/>
+      <c r="CG29" s="122"/>
+      <c r="CH29" s="122"/>
+      <c r="CI29" s="122"/>
+      <c r="CJ29" s="123"/>
+      <c r="CK29" s="23"/>
+      <c r="CL29" s="26"/>
+    </row>
+    <row r="30" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="42"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="42"/>
+      <c r="AL30" s="42"/>
+      <c r="AM30" s="42"/>
+      <c r="AN30" s="42"/>
+      <c r="AO30" s="26"/>
+      <c r="AP30" s="26"/>
+      <c r="AQ30" s="26"/>
+      <c r="AU30" s="26"/>
+      <c r="AV30" s="23"/>
+      <c r="AW30" s="23"/>
+      <c r="AX30" s="23"/>
+      <c r="AY30" s="23"/>
+      <c r="AZ30" s="23"/>
+      <c r="BA30" s="23"/>
+      <c r="BB30" s="23"/>
+      <c r="BC30" s="23"/>
+      <c r="BD30" s="23"/>
+      <c r="BE30" s="23"/>
+      <c r="BF30" s="23"/>
+      <c r="BG30" s="23"/>
+      <c r="BH30" s="26"/>
+      <c r="BJ30" s="26"/>
+      <c r="BK30" s="23"/>
+      <c r="BL30" s="23"/>
+      <c r="BM30" s="23"/>
+      <c r="BN30" s="23"/>
+      <c r="BO30" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="BP30" s="116"/>
+      <c r="BQ30" s="116"/>
+      <c r="BR30" s="117"/>
+      <c r="BS30" s="23"/>
+      <c r="BT30" s="23"/>
+      <c r="BU30" s="23"/>
+      <c r="BV30" s="23"/>
+      <c r="BW30" s="26"/>
+      <c r="BY30" s="26"/>
+      <c r="BZ30" s="23"/>
+      <c r="CA30" s="121"/>
+      <c r="CB30" s="122"/>
+      <c r="CC30" s="122"/>
+      <c r="CD30" s="122"/>
+      <c r="CE30" s="122"/>
+      <c r="CF30" s="122"/>
+      <c r="CG30" s="122"/>
+      <c r="CH30" s="122"/>
+      <c r="CI30" s="122"/>
+      <c r="CJ30" s="123"/>
+      <c r="CK30" s="23"/>
+      <c r="CL30" s="26"/>
+      <c r="CQ30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23"/>
+      <c r="AG31" s="23"/>
+      <c r="AH31" s="42"/>
+      <c r="AI31" s="42"/>
+      <c r="AJ31" s="42"/>
+      <c r="AK31" s="42"/>
+      <c r="AL31" s="42"/>
+      <c r="AM31" s="42"/>
+      <c r="AN31" s="42"/>
+      <c r="AO31" s="26"/>
+      <c r="AP31" s="26"/>
+      <c r="AQ31" s="26"/>
+      <c r="AU31" s="26"/>
+      <c r="AV31" s="23"/>
+      <c r="AW31" s="23"/>
+      <c r="AX31" s="23"/>
+      <c r="AY31" s="23"/>
+      <c r="AZ31" s="23"/>
+      <c r="BA31" s="23"/>
+      <c r="BB31" s="23"/>
+      <c r="BC31" s="23"/>
+      <c r="BD31" s="23"/>
+      <c r="BE31" s="23"/>
+      <c r="BF31" s="23"/>
+      <c r="BG31" s="23"/>
+      <c r="BH31" s="26"/>
+      <c r="BJ31" s="26"/>
+      <c r="BK31" s="23"/>
+      <c r="BL31" s="23"/>
+      <c r="BM31" s="23"/>
+      <c r="BN31" s="23"/>
+      <c r="BO31" s="23"/>
+      <c r="BP31" s="23"/>
+      <c r="BQ31" s="23"/>
+      <c r="BR31" s="23"/>
+      <c r="BS31" s="23"/>
+      <c r="BT31" s="23"/>
+      <c r="BU31" s="23"/>
+      <c r="BV31" s="23"/>
+      <c r="BW31" s="26"/>
+      <c r="BY31" s="26"/>
+      <c r="BZ31" s="23"/>
+      <c r="CA31" s="121"/>
+      <c r="CB31" s="122"/>
+      <c r="CC31" s="122"/>
+      <c r="CD31" s="122"/>
+      <c r="CE31" s="122"/>
+      <c r="CF31" s="122"/>
+      <c r="CG31" s="122"/>
+      <c r="CH31" s="122"/>
+      <c r="CI31" s="122"/>
+      <c r="CJ31" s="123"/>
+      <c r="CK31" s="23"/>
+      <c r="CL31" s="26"/>
+    </row>
+    <row r="32" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="42"/>
+      <c r="AI32" s="42"/>
+      <c r="AJ32" s="42"/>
+      <c r="AK32" s="42"/>
+      <c r="AL32" s="42"/>
+      <c r="AM32" s="42"/>
+      <c r="AN32" s="42"/>
+      <c r="AO32" s="26"/>
+      <c r="AP32" s="26"/>
+      <c r="AQ32" s="26"/>
+      <c r="AU32" s="26"/>
+      <c r="AV32" s="23"/>
+      <c r="AW32" s="23"/>
+      <c r="AX32" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY32" s="107"/>
+      <c r="AZ32" s="107"/>
+      <c r="BA32" s="107"/>
+      <c r="BB32" s="107"/>
+      <c r="BC32" s="107"/>
+      <c r="BD32" s="107"/>
+      <c r="BE32" s="108"/>
+      <c r="BF32" s="23"/>
+      <c r="BG32" s="23"/>
+      <c r="BH32" s="26"/>
+      <c r="BJ32" s="26"/>
+      <c r="BK32" s="23"/>
+      <c r="BL32" s="23"/>
+      <c r="BM32" s="118"/>
+      <c r="BN32" s="118"/>
+      <c r="BO32" s="23"/>
+      <c r="BP32" s="23"/>
+      <c r="BQ32" s="23"/>
+      <c r="BR32" s="23"/>
+      <c r="BS32" s="23"/>
+      <c r="BT32" s="23"/>
+      <c r="BU32" s="23"/>
+      <c r="BV32" s="23"/>
+      <c r="BW32" s="26"/>
+      <c r="BY32" s="26"/>
+      <c r="BZ32" s="23"/>
+      <c r="CA32" s="124"/>
+      <c r="CB32" s="125"/>
+      <c r="CC32" s="125"/>
+      <c r="CD32" s="125"/>
+      <c r="CE32" s="125"/>
+      <c r="CF32" s="125"/>
+      <c r="CG32" s="125"/>
+      <c r="CH32" s="125"/>
+      <c r="CI32" s="125"/>
+      <c r="CJ32" s="126"/>
+      <c r="CK32" s="23"/>
+      <c r="CL32" s="26"/>
+    </row>
+    <row r="33" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="42"/>
+      <c r="AI33" s="42"/>
+      <c r="AJ33" s="42"/>
+      <c r="AK33" s="42"/>
+      <c r="AL33" s="42"/>
+      <c r="AM33" s="42"/>
+      <c r="AN33" s="42"/>
+      <c r="AO33" s="26"/>
+      <c r="AP33" s="26"/>
+      <c r="AQ33" s="26"/>
+      <c r="AU33" s="26"/>
+      <c r="AV33" s="23"/>
+      <c r="AW33" s="23"/>
+      <c r="AX33" s="109"/>
+      <c r="AY33" s="110"/>
+      <c r="AZ33" s="110"/>
+      <c r="BA33" s="110"/>
+      <c r="BB33" s="110"/>
+      <c r="BC33" s="110"/>
+      <c r="BD33" s="110"/>
+      <c r="BE33" s="111"/>
+      <c r="BF33" s="23"/>
+      <c r="BG33" s="23"/>
+      <c r="BH33" s="26"/>
+      <c r="BJ33" s="26"/>
+      <c r="BK33" s="23"/>
+      <c r="BL33" s="23"/>
+      <c r="BM33" s="118"/>
+      <c r="BN33" s="118"/>
+      <c r="BO33" s="23"/>
+      <c r="BP33" s="118"/>
+      <c r="BQ33" s="118"/>
+      <c r="BR33" s="23"/>
+      <c r="BS33" s="23"/>
+      <c r="BT33" s="23"/>
+      <c r="BU33" s="23"/>
+      <c r="BV33" s="23"/>
+      <c r="BW33" s="26"/>
+      <c r="BY33" s="26"/>
+      <c r="BZ33" s="23"/>
+      <c r="CA33" s="23"/>
+      <c r="CB33" s="23"/>
+      <c r="CC33" s="23"/>
+      <c r="CD33" s="23"/>
+      <c r="CE33" s="23"/>
+      <c r="CF33" s="23"/>
+      <c r="CG33" s="23"/>
+      <c r="CH33" s="23"/>
+      <c r="CI33" s="23"/>
+      <c r="CJ33" s="23"/>
+      <c r="CK33" s="23"/>
+      <c r="CL33" s="26"/>
+    </row>
+    <row r="34" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="26"/>
+      <c r="AL34" s="26"/>
+      <c r="AM34" s="26"/>
+      <c r="AN34" s="26"/>
+      <c r="AO34" s="26"/>
+      <c r="AP34" s="26"/>
+      <c r="AQ34" s="26"/>
+      <c r="AU34" s="23"/>
+      <c r="AV34" s="23"/>
+      <c r="AW34" s="23"/>
+      <c r="AX34" s="109"/>
+      <c r="AY34" s="110"/>
+      <c r="AZ34" s="110"/>
+      <c r="BA34" s="110"/>
+      <c r="BB34" s="110"/>
+      <c r="BC34" s="110"/>
+      <c r="BD34" s="110"/>
+      <c r="BE34" s="111"/>
+      <c r="BF34" s="23"/>
+      <c r="BG34" s="23"/>
+      <c r="BH34" s="23"/>
+      <c r="BJ34" s="23"/>
+      <c r="BK34" s="23"/>
+      <c r="BL34" s="23"/>
+      <c r="BM34" s="23"/>
+      <c r="BN34" s="23"/>
+      <c r="BO34" s="23"/>
+      <c r="BP34" s="118"/>
+      <c r="BQ34" s="118"/>
+      <c r="BR34" s="23"/>
+      <c r="BS34" s="118"/>
+      <c r="BT34" s="118"/>
+      <c r="BU34" s="23"/>
+      <c r="BV34" s="23"/>
+      <c r="BW34" s="23"/>
+      <c r="BY34" s="26"/>
+      <c r="BZ34" s="26"/>
+      <c r="CA34" s="26"/>
+      <c r="CB34" s="26"/>
+      <c r="CC34" s="26"/>
+      <c r="CD34" s="26"/>
+      <c r="CE34" s="26"/>
+      <c r="CF34" s="26"/>
+      <c r="CG34" s="26"/>
+      <c r="CH34" s="26"/>
+      <c r="CI34" s="26"/>
+      <c r="CJ34" s="26"/>
+      <c r="CK34" s="26"/>
+      <c r="CL34" s="26"/>
+    </row>
+    <row r="35" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="26"/>
+      <c r="AM35" s="26"/>
+      <c r="AN35" s="26"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="26"/>
+      <c r="AU35" s="23"/>
+      <c r="AV35" s="23"/>
+      <c r="AW35" s="23"/>
+      <c r="AX35" s="109"/>
+      <c r="AY35" s="110"/>
+      <c r="AZ35" s="110"/>
+      <c r="BA35" s="110"/>
+      <c r="BB35" s="110"/>
+      <c r="BC35" s="110"/>
+      <c r="BD35" s="110"/>
+      <c r="BE35" s="111"/>
+      <c r="BF35" s="23"/>
+      <c r="BG35" s="23"/>
+      <c r="BH35" s="23"/>
+      <c r="BJ35" s="23"/>
+      <c r="BK35" s="23"/>
+      <c r="BL35" s="23"/>
+      <c r="BM35" s="23"/>
+      <c r="BN35" s="23"/>
+      <c r="BO35" s="23"/>
+      <c r="BP35" s="23"/>
+      <c r="BQ35" s="23"/>
+      <c r="BR35" s="23"/>
+      <c r="BS35" s="118"/>
+      <c r="BT35" s="118"/>
+      <c r="BU35" s="23"/>
+      <c r="BV35" s="23"/>
+      <c r="BW35" s="23"/>
+    </row>
+    <row r="36" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="26"/>
+      <c r="AM36" s="26"/>
+      <c r="AN36" s="26"/>
+      <c r="AO36" s="26"/>
+      <c r="AP36" s="26"/>
+      <c r="AQ36" s="26"/>
+      <c r="AU36" s="23"/>
+      <c r="AV36" s="23"/>
+      <c r="AW36" s="23"/>
+      <c r="AX36" s="109"/>
+      <c r="AY36" s="110"/>
+      <c r="AZ36" s="110"/>
+      <c r="BA36" s="110"/>
+      <c r="BB36" s="110"/>
+      <c r="BC36" s="110"/>
+      <c r="BD36" s="110"/>
+      <c r="BE36" s="111"/>
+      <c r="BF36" s="23"/>
+      <c r="BG36" s="23"/>
+      <c r="BH36" s="23"/>
+      <c r="BJ36" s="23"/>
+      <c r="BK36" s="23"/>
+      <c r="BL36" s="23"/>
+      <c r="BM36" s="23"/>
+      <c r="BN36" s="118"/>
+      <c r="BO36" s="118"/>
+      <c r="BP36" s="23"/>
+      <c r="BQ36" s="23"/>
+      <c r="BR36" s="23"/>
+      <c r="BS36" s="23"/>
+      <c r="BT36" s="23"/>
+      <c r="BU36" s="23"/>
+      <c r="BV36" s="23"/>
+      <c r="BW36" s="23"/>
+    </row>
+    <row r="37" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AU37" s="23"/>
+      <c r="AV37" s="23"/>
+      <c r="AW37" s="23"/>
+      <c r="AX37" s="109"/>
+      <c r="AY37" s="110"/>
+      <c r="AZ37" s="110"/>
+      <c r="BA37" s="110"/>
+      <c r="BB37" s="110"/>
+      <c r="BC37" s="110"/>
+      <c r="BD37" s="110"/>
+      <c r="BE37" s="111"/>
+      <c r="BF37" s="23"/>
+      <c r="BG37" s="23"/>
+      <c r="BH37" s="23"/>
+      <c r="BJ37" s="23"/>
+      <c r="BK37" s="23"/>
+      <c r="BL37" s="23"/>
+      <c r="BM37" s="23"/>
+      <c r="BN37" s="118"/>
+      <c r="BO37" s="118"/>
+      <c r="BP37" s="23"/>
+      <c r="BQ37" s="23"/>
+      <c r="BR37" s="23"/>
+      <c r="BS37" s="23"/>
+      <c r="BT37" s="23"/>
+      <c r="BU37" s="23"/>
+      <c r="BV37" s="23"/>
+      <c r="BW37" s="23"/>
+    </row>
+    <row r="38" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
+      <c r="W38" s="79"/>
+      <c r="X38" s="79"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="79"/>
+      <c r="AA38" s="79"/>
+      <c r="AB38" s="79"/>
+      <c r="AC38" s="79"/>
+      <c r="AD38" s="79"/>
+      <c r="AE38" s="79"/>
+      <c r="AF38" s="79"/>
+      <c r="AG38" s="79"/>
+      <c r="AH38" s="79"/>
+      <c r="AI38" s="79"/>
+      <c r="AJ38" s="79"/>
+      <c r="AK38" s="79"/>
+      <c r="AL38" s="79"/>
+      <c r="AM38" s="79"/>
+      <c r="AN38" s="79"/>
+      <c r="AU38" s="26"/>
+      <c r="AV38" s="23"/>
+      <c r="AW38" s="23"/>
+      <c r="AX38" s="109"/>
+      <c r="AY38" s="110"/>
+      <c r="AZ38" s="110"/>
+      <c r="BA38" s="110"/>
+      <c r="BB38" s="110"/>
+      <c r="BC38" s="110"/>
+      <c r="BD38" s="110"/>
+      <c r="BE38" s="111"/>
+      <c r="BF38" s="23"/>
+      <c r="BG38" s="23"/>
+      <c r="BH38" s="26"/>
+      <c r="BJ38" s="26"/>
+      <c r="BK38" s="23"/>
+      <c r="BL38" s="23"/>
+      <c r="BM38" s="23"/>
+      <c r="BN38" s="23"/>
+      <c r="BO38" s="23"/>
+      <c r="BP38" s="23"/>
+      <c r="BQ38" s="118"/>
+      <c r="BR38" s="118"/>
+      <c r="BS38" s="23"/>
+      <c r="BT38" s="23"/>
+      <c r="BU38" s="23"/>
+      <c r="BV38" s="23"/>
+      <c r="BW38" s="26"/>
+    </row>
+    <row r="39" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="78"/>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="78"/>
+      <c r="S39" s="78"/>
+      <c r="T39" s="78"/>
+      <c r="U39" s="78"/>
+      <c r="V39" s="78"/>
+      <c r="W39" s="78"/>
+      <c r="X39" s="78"/>
+      <c r="Y39" s="78"/>
+      <c r="Z39" s="78"/>
+      <c r="AA39" s="78"/>
+      <c r="AB39" s="78"/>
+      <c r="AC39" s="78"/>
+      <c r="AD39" s="78"/>
+      <c r="AE39" s="78"/>
+      <c r="AF39" s="78"/>
+      <c r="AG39" s="78"/>
+      <c r="AH39" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI39" s="78"/>
+      <c r="AJ39" s="78"/>
+      <c r="AK39" s="78"/>
+      <c r="AL39" s="78"/>
+      <c r="AM39" s="78"/>
+      <c r="AN39" s="78"/>
+      <c r="AO39" s="31"/>
+      <c r="AP39" s="31"/>
+      <c r="AQ39" s="31"/>
+      <c r="AU39" s="26"/>
+      <c r="AV39" s="23"/>
+      <c r="AW39" s="23"/>
+      <c r="AX39" s="112"/>
+      <c r="AY39" s="113"/>
+      <c r="AZ39" s="113"/>
+      <c r="BA39" s="113"/>
+      <c r="BB39" s="113"/>
+      <c r="BC39" s="113"/>
+      <c r="BD39" s="113"/>
+      <c r="BE39" s="114"/>
+      <c r="BF39" s="23"/>
+      <c r="BG39" s="23"/>
+      <c r="BH39" s="26"/>
+      <c r="BJ39" s="26"/>
+      <c r="BK39" s="23"/>
+      <c r="BL39" s="23"/>
+      <c r="BM39" s="23"/>
+      <c r="BN39" s="23"/>
+      <c r="BO39" s="23"/>
+      <c r="BP39" s="23"/>
+      <c r="BQ39" s="118"/>
+      <c r="BR39" s="118"/>
+      <c r="BS39" s="23"/>
+      <c r="BT39" s="23"/>
+      <c r="BU39" s="23"/>
+      <c r="BV39" s="23"/>
+      <c r="BW39" s="26"/>
+    </row>
+    <row r="40" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="78"/>
+      <c r="G40" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="78"/>
+      <c r="T40" s="78"/>
+      <c r="U40" s="78"/>
+      <c r="V40" s="78"/>
+      <c r="W40" s="78"/>
+      <c r="X40" s="78"/>
+      <c r="Y40" s="78"/>
+      <c r="Z40" s="78"/>
+      <c r="AA40" s="78"/>
+      <c r="AB40" s="78"/>
+      <c r="AC40" s="78"/>
+      <c r="AD40" s="78"/>
+      <c r="AE40" s="78"/>
+      <c r="AF40" s="78"/>
+      <c r="AG40" s="78"/>
+      <c r="AH40" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI40" s="78"/>
+      <c r="AJ40" s="78"/>
+      <c r="AK40" s="78"/>
+      <c r="AL40" s="78"/>
+      <c r="AM40" s="78"/>
+      <c r="AN40" s="78"/>
+      <c r="AU40" s="26"/>
+      <c r="AV40" s="23"/>
+      <c r="AW40" s="23"/>
+      <c r="AX40" s="23"/>
+      <c r="AY40" s="23"/>
+      <c r="AZ40" s="23"/>
+      <c r="BA40" s="23"/>
+      <c r="BB40" s="23"/>
+      <c r="BC40" s="23"/>
+      <c r="BD40" s="23"/>
+      <c r="BE40" s="23"/>
+      <c r="BF40" s="23"/>
+      <c r="BG40" s="23"/>
+      <c r="BH40" s="26"/>
+      <c r="BJ40" s="26"/>
+      <c r="BK40" s="23"/>
+      <c r="BL40" s="23"/>
+      <c r="BM40" s="23"/>
+      <c r="BN40" s="23"/>
+      <c r="BO40" s="23"/>
+      <c r="BP40" s="23"/>
+      <c r="BQ40" s="23"/>
+      <c r="BR40" s="23"/>
+      <c r="BS40" s="23"/>
+      <c r="BT40" s="23"/>
+      <c r="BU40" s="23"/>
+      <c r="BV40" s="23"/>
+      <c r="BW40" s="26"/>
+    </row>
+    <row r="41" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="78"/>
+      <c r="S41" s="78"/>
+      <c r="T41" s="78"/>
+      <c r="U41" s="78"/>
+      <c r="V41" s="78"/>
+      <c r="W41" s="78"/>
+      <c r="X41" s="78"/>
+      <c r="Y41" s="78"/>
+      <c r="Z41" s="78"/>
+      <c r="AA41" s="78"/>
+      <c r="AB41" s="78"/>
+      <c r="AC41" s="78"/>
+      <c r="AD41" s="78"/>
+      <c r="AE41" s="78"/>
+      <c r="AF41" s="78"/>
+      <c r="AG41" s="78"/>
+      <c r="AH41" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI41" s="78"/>
+      <c r="AJ41" s="78"/>
+      <c r="AK41" s="78"/>
+      <c r="AL41" s="78"/>
+      <c r="AM41" s="78"/>
+      <c r="AN41" s="78"/>
+      <c r="AU41" s="26"/>
+      <c r="AV41" s="23"/>
+      <c r="AW41" s="23"/>
+      <c r="AX41" s="23"/>
+      <c r="AY41" s="23"/>
+      <c r="AZ41" s="23"/>
+      <c r="BA41" s="23"/>
+      <c r="BB41" s="23"/>
+      <c r="BC41" s="23"/>
+      <c r="BD41" s="23"/>
+      <c r="BE41" s="23"/>
+      <c r="BF41" s="23"/>
+      <c r="BG41" s="23"/>
+      <c r="BH41" s="26"/>
+      <c r="BJ41" s="26"/>
+      <c r="BK41" s="23"/>
+      <c r="BL41" s="23"/>
+      <c r="BM41" s="23"/>
+      <c r="BN41" s="23"/>
+      <c r="BO41" s="23"/>
+      <c r="BP41" s="23"/>
+      <c r="BQ41" s="23"/>
+      <c r="BR41" s="23"/>
+      <c r="BS41" s="23"/>
+      <c r="BT41" s="23"/>
+      <c r="BU41" s="23"/>
+      <c r="BV41" s="23"/>
+      <c r="BW41" s="26"/>
+    </row>
+    <row r="42" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="78"/>
+      <c r="T42" s="78"/>
+      <c r="U42" s="78"/>
+      <c r="V42" s="78"/>
+      <c r="W42" s="78"/>
+      <c r="X42" s="78"/>
+      <c r="Y42" s="78"/>
+      <c r="Z42" s="78"/>
+      <c r="AA42" s="78"/>
+      <c r="AB42" s="78"/>
+      <c r="AC42" s="78"/>
+      <c r="AD42" s="78"/>
+      <c r="AE42" s="78"/>
+      <c r="AF42" s="78"/>
+      <c r="AG42" s="78"/>
+      <c r="AH42" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI42" s="78"/>
+      <c r="AJ42" s="78"/>
+      <c r="AK42" s="78"/>
+      <c r="AL42" s="78"/>
+      <c r="AM42" s="78"/>
+      <c r="AN42" s="78"/>
+      <c r="AU42" s="26"/>
+      <c r="AV42" s="26"/>
+      <c r="AW42" s="26"/>
+      <c r="AX42" s="26"/>
+      <c r="AY42" s="26"/>
+      <c r="AZ42" s="26"/>
+      <c r="BA42" s="26"/>
+      <c r="BB42" s="26"/>
+      <c r="BC42" s="26"/>
+      <c r="BD42" s="26"/>
+      <c r="BE42" s="26"/>
+      <c r="BF42" s="26"/>
+      <c r="BG42" s="26"/>
+      <c r="BH42" s="26"/>
+      <c r="BJ42" s="26"/>
+      <c r="BK42" s="26"/>
+      <c r="BL42" s="26"/>
+      <c r="BM42" s="26"/>
+      <c r="BN42" s="26"/>
+      <c r="BO42" s="26"/>
+      <c r="BP42" s="26"/>
+      <c r="BQ42" s="26"/>
+      <c r="BR42" s="26"/>
+      <c r="BS42" s="26"/>
+      <c r="BT42" s="26"/>
+      <c r="BU42" s="26"/>
+      <c r="BV42" s="26"/>
+      <c r="BW42" s="26"/>
+    </row>
+    <row r="43" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="78"/>
+      <c r="R43" s="78"/>
+      <c r="S43" s="78"/>
+      <c r="T43" s="78"/>
+      <c r="U43" s="78"/>
+      <c r="V43" s="78"/>
+      <c r="W43" s="78"/>
+      <c r="X43" s="78"/>
+      <c r="Y43" s="78"/>
+      <c r="Z43" s="78"/>
+      <c r="AA43" s="78"/>
+      <c r="AB43" s="78"/>
+      <c r="AC43" s="78"/>
+      <c r="AD43" s="78"/>
+      <c r="AE43" s="78"/>
+      <c r="AF43" s="78"/>
+      <c r="AG43" s="78"/>
+      <c r="AH43" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI43" s="78"/>
+      <c r="AJ43" s="78"/>
+      <c r="AK43" s="78"/>
+      <c r="AL43" s="78"/>
+      <c r="AM43" s="78"/>
+      <c r="AN43" s="78"/>
+    </row>
+    <row r="44" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="78"/>
+      <c r="S44" s="78"/>
+      <c r="T44" s="78"/>
+      <c r="U44" s="78"/>
+      <c r="V44" s="78"/>
+      <c r="W44" s="78"/>
+      <c r="X44" s="78"/>
+      <c r="Y44" s="78"/>
+      <c r="Z44" s="78"/>
+      <c r="AA44" s="78"/>
+      <c r="AB44" s="78"/>
+      <c r="AC44" s="78"/>
+      <c r="AD44" s="78"/>
+      <c r="AE44" s="78"/>
+      <c r="AF44" s="78"/>
+      <c r="AG44" s="78"/>
+      <c r="AH44" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI44" s="78"/>
+      <c r="AJ44" s="78"/>
+      <c r="AK44" s="78"/>
+      <c r="AL44" s="78"/>
+      <c r="AM44" s="78"/>
+      <c r="AN44" s="78"/>
+    </row>
+    <row r="45" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="78"/>
+      <c r="G45" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="78"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="78"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="78"/>
+      <c r="P45" s="78"/>
+      <c r="Q45" s="78"/>
+      <c r="R45" s="78"/>
+      <c r="S45" s="78"/>
+      <c r="T45" s="78"/>
+      <c r="U45" s="78"/>
+      <c r="V45" s="78"/>
+      <c r="W45" s="78"/>
+      <c r="X45" s="78"/>
+      <c r="Y45" s="78"/>
+      <c r="Z45" s="78"/>
+      <c r="AA45" s="78"/>
+      <c r="AB45" s="78"/>
+      <c r="AC45" s="78"/>
+      <c r="AD45" s="78"/>
+      <c r="AE45" s="78"/>
+      <c r="AF45" s="78"/>
+      <c r="AG45" s="78"/>
+      <c r="AH45" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI45" s="78"/>
+      <c r="AJ45" s="78"/>
+      <c r="AK45" s="78"/>
+      <c r="AL45" s="78"/>
+      <c r="AM45" s="78"/>
+      <c r="AN45" s="78"/>
+    </row>
+    <row r="46" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="78"/>
+      <c r="G46" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="78"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="78"/>
+      <c r="N46" s="78"/>
+      <c r="O46" s="78"/>
+      <c r="P46" s="78"/>
+      <c r="Q46" s="78"/>
+      <c r="R46" s="78"/>
+      <c r="S46" s="78"/>
+      <c r="T46" s="78"/>
+      <c r="U46" s="78"/>
+      <c r="V46" s="78"/>
+      <c r="W46" s="78"/>
+      <c r="X46" s="78"/>
+      <c r="Y46" s="78"/>
+      <c r="Z46" s="78"/>
+      <c r="AA46" s="78"/>
+      <c r="AB46" s="78"/>
+      <c r="AC46" s="78"/>
+      <c r="AD46" s="78"/>
+      <c r="AE46" s="78"/>
+      <c r="AF46" s="78"/>
+      <c r="AG46" s="78"/>
+      <c r="AH46" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI46" s="78"/>
+      <c r="AJ46" s="78"/>
+      <c r="AK46" s="78"/>
+      <c r="AL46" s="78"/>
+      <c r="AM46" s="78"/>
+      <c r="AN46" s="78"/>
+    </row>
+    <row r="47" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="78"/>
+      <c r="N47" s="78"/>
+      <c r="O47" s="78"/>
+      <c r="P47" s="78"/>
+      <c r="Q47" s="78"/>
+      <c r="R47" s="78"/>
+      <c r="S47" s="78"/>
+      <c r="T47" s="78"/>
+      <c r="U47" s="78"/>
+      <c r="V47" s="78"/>
+      <c r="W47" s="78"/>
+      <c r="X47" s="78"/>
+      <c r="Y47" s="78"/>
+      <c r="Z47" s="78"/>
+      <c r="AA47" s="78"/>
+      <c r="AB47" s="78"/>
+      <c r="AC47" s="78"/>
+      <c r="AD47" s="78"/>
+      <c r="AE47" s="78"/>
+      <c r="AF47" s="78"/>
+      <c r="AG47" s="78"/>
+      <c r="AH47" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI47" s="78"/>
+      <c r="AJ47" s="78"/>
+      <c r="AK47" s="78"/>
+      <c r="AL47" s="78"/>
+      <c r="AM47" s="78"/>
+      <c r="AN47" s="78"/>
+    </row>
+    <row r="48" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="78"/>
+      <c r="O48" s="78"/>
+      <c r="P48" s="78"/>
+      <c r="Q48" s="78"/>
+      <c r="R48" s="78"/>
+      <c r="S48" s="78"/>
+      <c r="T48" s="78"/>
+      <c r="U48" s="78"/>
+      <c r="V48" s="78"/>
+      <c r="W48" s="78"/>
+      <c r="X48" s="78"/>
+      <c r="Y48" s="78"/>
+      <c r="Z48" s="78"/>
+      <c r="AA48" s="78"/>
+      <c r="AB48" s="78"/>
+      <c r="AC48" s="78"/>
+      <c r="AD48" s="78"/>
+      <c r="AE48" s="78"/>
+      <c r="AF48" s="78"/>
+      <c r="AG48" s="78"/>
+      <c r="AH48" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI48" s="78"/>
+      <c r="AJ48" s="78"/>
+      <c r="AK48" s="78"/>
+      <c r="AL48" s="78"/>
+      <c r="AM48" s="78"/>
+      <c r="AN48" s="78"/>
+    </row>
+    <row r="49" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="78"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="78"/>
+      <c r="N49" s="78"/>
+      <c r="O49" s="78"/>
+      <c r="P49" s="78"/>
+      <c r="Q49" s="78"/>
+      <c r="R49" s="78"/>
+      <c r="S49" s="78"/>
+      <c r="T49" s="78"/>
+      <c r="U49" s="78"/>
+      <c r="V49" s="78"/>
+      <c r="W49" s="78"/>
+      <c r="X49" s="78"/>
+      <c r="Y49" s="78"/>
+      <c r="Z49" s="78"/>
+      <c r="AA49" s="78"/>
+      <c r="AB49" s="78"/>
+      <c r="AC49" s="78"/>
+      <c r="AD49" s="78"/>
+      <c r="AE49" s="78"/>
+      <c r="AF49" s="78"/>
+      <c r="AG49" s="78"/>
+      <c r="AH49" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI49" s="78"/>
+      <c r="AJ49" s="78"/>
+      <c r="AK49" s="78"/>
+      <c r="AL49" s="78"/>
+      <c r="AM49" s="78"/>
+      <c r="AN49" s="78"/>
+    </row>
+    <row r="50" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>11</v>
+      </c>
+      <c r="E50" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="78"/>
+      <c r="G50" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
+      <c r="N50" s="78"/>
+      <c r="O50" s="78"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="78"/>
+      <c r="R50" s="78"/>
+      <c r="S50" s="78"/>
+      <c r="T50" s="78"/>
+      <c r="U50" s="78"/>
+      <c r="V50" s="78"/>
+      <c r="W50" s="78"/>
+      <c r="X50" s="78"/>
+      <c r="Y50" s="78"/>
+      <c r="Z50" s="78"/>
+      <c r="AA50" s="78"/>
+      <c r="AB50" s="78"/>
+      <c r="AC50" s="78"/>
+      <c r="AD50" s="78"/>
+      <c r="AE50" s="78"/>
+      <c r="AF50" s="78"/>
+      <c r="AG50" s="78"/>
+      <c r="AH50" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI50" s="78"/>
+      <c r="AJ50" s="78"/>
+      <c r="AK50" s="78"/>
+      <c r="AL50" s="78"/>
+      <c r="AM50" s="78"/>
+      <c r="AN50" s="78"/>
+    </row>
+    <row r="51" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>12</v>
+      </c>
+      <c r="E51" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="78"/>
+      <c r="G51" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="78"/>
+      <c r="N51" s="78"/>
+      <c r="O51" s="78"/>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="78"/>
+      <c r="R51" s="78"/>
+      <c r="S51" s="78"/>
+      <c r="T51" s="78"/>
+      <c r="U51" s="78"/>
+      <c r="V51" s="78"/>
+      <c r="W51" s="78"/>
+      <c r="X51" s="78"/>
+      <c r="Y51" s="78"/>
+      <c r="Z51" s="78"/>
+      <c r="AA51" s="78"/>
+      <c r="AB51" s="78"/>
+      <c r="AC51" s="78"/>
+      <c r="AD51" s="78"/>
+      <c r="AE51" s="78"/>
+      <c r="AF51" s="78"/>
+      <c r="AG51" s="78"/>
+      <c r="AH51" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI51" s="78"/>
+      <c r="AJ51" s="78"/>
+      <c r="AK51" s="78"/>
+      <c r="AL51" s="78"/>
+      <c r="AM51" s="78"/>
+      <c r="AN51" s="78"/>
+    </row>
+    <row r="52" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>13</v>
+      </c>
+      <c r="E52" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="78"/>
+      <c r="M52" s="78"/>
+      <c r="N52" s="78"/>
+      <c r="O52" s="78"/>
+      <c r="P52" s="78"/>
+      <c r="Q52" s="78"/>
+      <c r="R52" s="78"/>
+      <c r="S52" s="78"/>
+      <c r="T52" s="78"/>
+      <c r="U52" s="78"/>
+      <c r="V52" s="78"/>
+      <c r="W52" s="78"/>
+      <c r="X52" s="78"/>
+      <c r="Y52" s="78"/>
+      <c r="Z52" s="78"/>
+      <c r="AA52" s="78"/>
+      <c r="AB52" s="78"/>
+      <c r="AC52" s="78"/>
+      <c r="AD52" s="78"/>
+      <c r="AE52" s="78"/>
+      <c r="AF52" s="78"/>
+      <c r="AG52" s="78"/>
+      <c r="AH52" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI52" s="78"/>
+      <c r="AJ52" s="78"/>
+      <c r="AK52" s="78"/>
+      <c r="AL52" s="78"/>
+      <c r="AM52" s="78"/>
+      <c r="AN52" s="78"/>
+    </row>
+    <row r="53" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>14</v>
+      </c>
+      <c r="E53" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="78"/>
+      <c r="N53" s="78"/>
+      <c r="O53" s="78"/>
+      <c r="P53" s="78"/>
+      <c r="Q53" s="78"/>
+      <c r="R53" s="78"/>
+      <c r="S53" s="78"/>
+      <c r="T53" s="78"/>
+      <c r="U53" s="78"/>
+      <c r="V53" s="78"/>
+      <c r="W53" s="78"/>
+      <c r="X53" s="78"/>
+      <c r="Y53" s="78"/>
+      <c r="Z53" s="78"/>
+      <c r="AA53" s="78"/>
+      <c r="AB53" s="78"/>
+      <c r="AC53" s="78"/>
+      <c r="AD53" s="78"/>
+      <c r="AE53" s="78"/>
+      <c r="AF53" s="78"/>
+      <c r="AG53" s="78"/>
+      <c r="AH53" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI53" s="78"/>
+      <c r="AJ53" s="78"/>
+      <c r="AK53" s="78"/>
+      <c r="AL53" s="78"/>
+      <c r="AM53" s="78"/>
+      <c r="AN53" s="78"/>
+    </row>
+    <row r="54" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>15</v>
+      </c>
+      <c r="E54" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="78"/>
+      <c r="G54" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="H54" s="78"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="78"/>
+      <c r="M54" s="78"/>
+      <c r="N54" s="78"/>
+      <c r="O54" s="78"/>
+      <c r="P54" s="78"/>
+      <c r="Q54" s="78"/>
+      <c r="R54" s="78"/>
+      <c r="S54" s="78"/>
+      <c r="T54" s="78"/>
+      <c r="U54" s="78"/>
+      <c r="V54" s="78"/>
+      <c r="W54" s="78"/>
+      <c r="X54" s="78"/>
+      <c r="Y54" s="78"/>
+      <c r="Z54" s="78"/>
+      <c r="AA54" s="78"/>
+      <c r="AB54" s="78"/>
+      <c r="AC54" s="78"/>
+      <c r="AD54" s="78"/>
+      <c r="AE54" s="78"/>
+      <c r="AF54" s="78"/>
+      <c r="AG54" s="78"/>
+      <c r="AH54" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI54" s="78"/>
+      <c r="AJ54" s="78"/>
+      <c r="AK54" s="78"/>
+      <c r="AL54" s="78"/>
+      <c r="AM54" s="78"/>
+      <c r="AN54" s="78"/>
+    </row>
+    <row r="55" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>16</v>
+      </c>
+      <c r="E55" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="78"/>
+      <c r="G55" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
+      <c r="K55" s="78"/>
+      <c r="L55" s="78"/>
+      <c r="M55" s="78"/>
+      <c r="N55" s="78"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="78"/>
+      <c r="Q55" s="78"/>
+      <c r="R55" s="78"/>
+      <c r="S55" s="78"/>
+      <c r="T55" s="78"/>
+      <c r="U55" s="78"/>
+      <c r="V55" s="78"/>
+      <c r="W55" s="78"/>
+      <c r="X55" s="78"/>
+      <c r="Y55" s="78"/>
+      <c r="Z55" s="78"/>
+      <c r="AA55" s="78"/>
+      <c r="AB55" s="78"/>
+      <c r="AC55" s="78"/>
+      <c r="AD55" s="78"/>
+      <c r="AE55" s="78"/>
+      <c r="AF55" s="78"/>
+      <c r="AG55" s="78"/>
+      <c r="AH55" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI55" s="78"/>
+      <c r="AJ55" s="78"/>
+      <c r="AK55" s="78"/>
+      <c r="AL55" s="78"/>
+      <c r="AM55" s="78"/>
+      <c r="AN55" s="78"/>
+    </row>
+    <row r="56" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>17</v>
+      </c>
+      <c r="E56" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="78"/>
+      <c r="G56" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="H56" s="78"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="78"/>
+      <c r="K56" s="78"/>
+      <c r="L56" s="78"/>
+      <c r="M56" s="78"/>
+      <c r="N56" s="78"/>
+      <c r="O56" s="78"/>
+      <c r="P56" s="78"/>
+      <c r="Q56" s="78"/>
+      <c r="R56" s="78"/>
+      <c r="S56" s="78"/>
+      <c r="T56" s="78"/>
+      <c r="U56" s="78"/>
+      <c r="V56" s="78"/>
+      <c r="W56" s="78"/>
+      <c r="X56" s="78"/>
+      <c r="Y56" s="78"/>
+      <c r="Z56" s="78"/>
+      <c r="AA56" s="78"/>
+      <c r="AB56" s="78"/>
+      <c r="AC56" s="78"/>
+      <c r="AD56" s="78"/>
+      <c r="AE56" s="78"/>
+      <c r="AF56" s="78"/>
+      <c r="AG56" s="78"/>
+      <c r="AH56" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI56" s="78"/>
+      <c r="AJ56" s="78"/>
+      <c r="AK56" s="78"/>
+      <c r="AL56" s="78"/>
+      <c r="AM56" s="78"/>
+      <c r="AN56" s="78"/>
+    </row>
+    <row r="57" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>18</v>
+      </c>
+      <c r="E57" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="78"/>
+      <c r="G57" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="H57" s="78"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="78"/>
+      <c r="M57" s="78"/>
+      <c r="N57" s="78"/>
+      <c r="O57" s="78"/>
+      <c r="P57" s="78"/>
+      <c r="Q57" s="78"/>
+      <c r="R57" s="78"/>
+      <c r="S57" s="78"/>
+      <c r="T57" s="78"/>
+      <c r="U57" s="78"/>
+      <c r="V57" s="78"/>
+      <c r="W57" s="78"/>
+      <c r="X57" s="78"/>
+      <c r="Y57" s="78"/>
+      <c r="Z57" s="78"/>
+      <c r="AA57" s="78"/>
+      <c r="AB57" s="78"/>
+      <c r="AC57" s="78"/>
+      <c r="AD57" s="78"/>
+      <c r="AE57" s="78"/>
+      <c r="AF57" s="78"/>
+      <c r="AG57" s="78"/>
+      <c r="AH57" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI57" s="78"/>
+      <c r="AJ57" s="78"/>
+      <c r="AK57" s="78"/>
+      <c r="AL57" s="78"/>
+      <c r="AM57" s="78"/>
+      <c r="AN57" s="78"/>
+    </row>
+    <row r="58" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>19</v>
+      </c>
+      <c r="E58" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="H58" s="78"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="78"/>
+      <c r="K58" s="78"/>
+      <c r="L58" s="78"/>
+      <c r="M58" s="78"/>
+      <c r="N58" s="78"/>
+      <c r="O58" s="78"/>
+      <c r="P58" s="78"/>
+      <c r="Q58" s="78"/>
+      <c r="R58" s="78"/>
+      <c r="S58" s="78"/>
+      <c r="T58" s="78"/>
+      <c r="U58" s="78"/>
+      <c r="V58" s="78"/>
+      <c r="W58" s="78"/>
+      <c r="X58" s="78"/>
+      <c r="Y58" s="78"/>
+      <c r="Z58" s="78"/>
+      <c r="AA58" s="78"/>
+      <c r="AB58" s="78"/>
+      <c r="AC58" s="78"/>
+      <c r="AD58" s="78"/>
+      <c r="AE58" s="78"/>
+      <c r="AF58" s="78"/>
+      <c r="AG58" s="78"/>
+      <c r="AH58" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI58" s="78"/>
+      <c r="AJ58" s="78"/>
+      <c r="AK58" s="78"/>
+      <c r="AL58" s="78"/>
+      <c r="AM58" s="78"/>
+      <c r="AN58" s="78"/>
+    </row>
+    <row r="59" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>20</v>
+      </c>
+      <c r="E59" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78" t="s">
+        <v>135</v>
+      </c>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="78"/>
+      <c r="M59" s="78"/>
+      <c r="N59" s="78"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="78"/>
+      <c r="R59" s="78"/>
+      <c r="S59" s="78"/>
+      <c r="T59" s="78"/>
+      <c r="U59" s="78"/>
+      <c r="V59" s="78"/>
+      <c r="W59" s="78"/>
+      <c r="X59" s="78"/>
+      <c r="Y59" s="78"/>
+      <c r="Z59" s="78"/>
+      <c r="AA59" s="78"/>
+      <c r="AB59" s="78"/>
+      <c r="AC59" s="78"/>
+      <c r="AD59" s="78"/>
+      <c r="AE59" s="78"/>
+      <c r="AF59" s="78"/>
+      <c r="AG59" s="78"/>
+      <c r="AH59" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI59" s="78"/>
+      <c r="AJ59" s="78"/>
+      <c r="AK59" s="78"/>
+      <c r="AL59" s="78"/>
+      <c r="AM59" s="78"/>
+      <c r="AN59" s="78"/>
+    </row>
+    <row r="60" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>21</v>
+      </c>
+      <c r="E60" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="78"/>
+      <c r="M60" s="78"/>
+      <c r="N60" s="78"/>
+      <c r="O60" s="78"/>
+      <c r="P60" s="78"/>
+      <c r="Q60" s="78"/>
+      <c r="R60" s="78"/>
+      <c r="S60" s="78"/>
+      <c r="T60" s="78"/>
+      <c r="U60" s="78"/>
+      <c r="V60" s="78"/>
+      <c r="W60" s="78"/>
+      <c r="X60" s="78"/>
+      <c r="Y60" s="78"/>
+      <c r="Z60" s="78"/>
+      <c r="AA60" s="78"/>
+      <c r="AB60" s="78"/>
+      <c r="AC60" s="78"/>
+      <c r="AD60" s="78"/>
+      <c r="AE60" s="78"/>
+      <c r="AF60" s="78"/>
+      <c r="AG60" s="78"/>
+      <c r="AH60" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI60" s="78"/>
+      <c r="AJ60" s="78"/>
+      <c r="AK60" s="78"/>
+      <c r="AL60" s="78"/>
+      <c r="AM60" s="78"/>
+      <c r="AN60" s="78"/>
+    </row>
+    <row r="61" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>22</v>
+      </c>
+      <c r="E61" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="78"/>
+      <c r="G61" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="H61" s="78"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="78"/>
+      <c r="K61" s="78"/>
+      <c r="L61" s="78"/>
+      <c r="M61" s="78"/>
+      <c r="N61" s="78"/>
+      <c r="O61" s="78"/>
+      <c r="P61" s="78"/>
+      <c r="Q61" s="78"/>
+      <c r="R61" s="78"/>
+      <c r="S61" s="78"/>
+      <c r="T61" s="78"/>
+      <c r="U61" s="78"/>
+      <c r="V61" s="78"/>
+      <c r="W61" s="78"/>
+      <c r="X61" s="78"/>
+      <c r="Y61" s="78"/>
+      <c r="Z61" s="78"/>
+      <c r="AA61" s="78"/>
+      <c r="AB61" s="78"/>
+      <c r="AC61" s="78"/>
+      <c r="AD61" s="78"/>
+      <c r="AE61" s="78"/>
+      <c r="AF61" s="78"/>
+      <c r="AG61" s="78"/>
+      <c r="AH61" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI61" s="78"/>
+      <c r="AJ61" s="78"/>
+      <c r="AK61" s="78"/>
+      <c r="AL61" s="78"/>
+      <c r="AM61" s="78"/>
+      <c r="AN61" s="78"/>
+    </row>
+    <row r="62" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>23</v>
+      </c>
+      <c r="E62" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="78"/>
+      <c r="G62" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="H62" s="78"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="78"/>
+      <c r="L62" s="78"/>
+      <c r="M62" s="78"/>
+      <c r="N62" s="78"/>
+      <c r="O62" s="78"/>
+      <c r="P62" s="78"/>
+      <c r="Q62" s="78"/>
+      <c r="R62" s="78"/>
+      <c r="S62" s="78"/>
+      <c r="T62" s="78"/>
+      <c r="U62" s="78"/>
+      <c r="V62" s="78"/>
+      <c r="W62" s="78"/>
+      <c r="X62" s="78"/>
+      <c r="Y62" s="78"/>
+      <c r="Z62" s="78"/>
+      <c r="AA62" s="78"/>
+      <c r="AB62" s="78"/>
+      <c r="AC62" s="78"/>
+      <c r="AD62" s="78"/>
+      <c r="AE62" s="78"/>
+      <c r="AF62" s="78"/>
+      <c r="AG62" s="78"/>
+      <c r="AH62" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI62" s="78"/>
+      <c r="AJ62" s="78"/>
+      <c r="AK62" s="78"/>
+      <c r="AL62" s="78"/>
+      <c r="AM62" s="78"/>
+      <c r="AN62" s="78"/>
+    </row>
+    <row r="63" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>24</v>
+      </c>
+      <c r="E63" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="78"/>
+      <c r="G63" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="H63" s="78"/>
+      <c r="I63" s="78"/>
+      <c r="J63" s="78"/>
+      <c r="K63" s="78"/>
+      <c r="L63" s="78"/>
+      <c r="M63" s="78"/>
+      <c r="N63" s="78"/>
+      <c r="O63" s="78"/>
+      <c r="P63" s="78"/>
+      <c r="Q63" s="78"/>
+      <c r="R63" s="78"/>
+      <c r="S63" s="78"/>
+      <c r="T63" s="78"/>
+      <c r="U63" s="78"/>
+      <c r="V63" s="78"/>
+      <c r="W63" s="78"/>
+      <c r="X63" s="78"/>
+      <c r="Y63" s="78"/>
+      <c r="Z63" s="78"/>
+      <c r="AA63" s="78"/>
+      <c r="AB63" s="78"/>
+      <c r="AC63" s="78"/>
+      <c r="AD63" s="78"/>
+      <c r="AE63" s="78"/>
+      <c r="AF63" s="78"/>
+      <c r="AG63" s="78"/>
+      <c r="AH63" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI63" s="78"/>
+      <c r="AJ63" s="78"/>
+      <c r="AK63" s="78"/>
+      <c r="AL63" s="78"/>
+      <c r="AM63" s="78"/>
+      <c r="AN63" s="78"/>
+    </row>
+    <row r="64" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>25</v>
+      </c>
+      <c r="E64" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="78"/>
+      <c r="G64" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="H64" s="78"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="78"/>
+      <c r="K64" s="78"/>
+      <c r="L64" s="78"/>
+      <c r="M64" s="78"/>
+      <c r="N64" s="78"/>
+      <c r="O64" s="78"/>
+      <c r="P64" s="78"/>
+      <c r="Q64" s="78"/>
+      <c r="R64" s="78"/>
+      <c r="S64" s="78"/>
+      <c r="T64" s="78"/>
+      <c r="U64" s="78"/>
+      <c r="V64" s="78"/>
+      <c r="W64" s="78"/>
+      <c r="X64" s="78"/>
+      <c r="Y64" s="78"/>
+      <c r="Z64" s="78"/>
+      <c r="AA64" s="78"/>
+      <c r="AB64" s="78"/>
+      <c r="AC64" s="78"/>
+      <c r="AD64" s="78"/>
+      <c r="AE64" s="78"/>
+      <c r="AF64" s="78"/>
+      <c r="AG64" s="78"/>
+      <c r="AH64" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI64" s="78"/>
+      <c r="AJ64" s="78"/>
+      <c r="AK64" s="78"/>
+      <c r="AL64" s="78"/>
+      <c r="AM64" s="78"/>
+      <c r="AN64" s="78"/>
+    </row>
+    <row r="65" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>26</v>
+      </c>
+      <c r="E65" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="78"/>
+      <c r="G65" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="H65" s="78"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="78"/>
+      <c r="M65" s="78"/>
+      <c r="N65" s="78"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="78"/>
+      <c r="Q65" s="78"/>
+      <c r="R65" s="78"/>
+      <c r="S65" s="78"/>
+      <c r="T65" s="78"/>
+      <c r="U65" s="78"/>
+      <c r="V65" s="78"/>
+      <c r="W65" s="78"/>
+      <c r="X65" s="78"/>
+      <c r="Y65" s="78"/>
+      <c r="Z65" s="78"/>
+      <c r="AA65" s="78"/>
+      <c r="AB65" s="78"/>
+      <c r="AC65" s="78"/>
+      <c r="AD65" s="78"/>
+      <c r="AE65" s="78"/>
+      <c r="AF65" s="78"/>
+      <c r="AG65" s="78"/>
+      <c r="AH65" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI65" s="78"/>
+      <c r="AJ65" s="78"/>
+      <c r="AK65" s="78"/>
+      <c r="AL65" s="78"/>
+      <c r="AM65" s="78"/>
+      <c r="AN65" s="78"/>
+    </row>
+    <row r="66" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>27</v>
+      </c>
+      <c r="E66" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="78"/>
+      <c r="G66" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="H66" s="78"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="78"/>
+      <c r="L66" s="78"/>
+      <c r="M66" s="78"/>
+      <c r="N66" s="78"/>
+      <c r="O66" s="78"/>
+      <c r="P66" s="78"/>
+      <c r="Q66" s="78"/>
+      <c r="R66" s="78"/>
+      <c r="S66" s="78"/>
+      <c r="T66" s="78"/>
+      <c r="U66" s="78"/>
+      <c r="V66" s="78"/>
+      <c r="W66" s="78"/>
+      <c r="X66" s="78"/>
+      <c r="Y66" s="78"/>
+      <c r="Z66" s="78"/>
+      <c r="AA66" s="78"/>
+      <c r="AB66" s="78"/>
+      <c r="AC66" s="78"/>
+      <c r="AD66" s="78"/>
+      <c r="AE66" s="78"/>
+      <c r="AF66" s="78"/>
+      <c r="AG66" s="78"/>
+      <c r="AH66" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI66" s="78"/>
+      <c r="AJ66" s="78"/>
+      <c r="AK66" s="78"/>
+      <c r="AL66" s="78"/>
+      <c r="AM66" s="78"/>
+      <c r="AN66" s="78"/>
+    </row>
+    <row r="67" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>28</v>
+      </c>
+      <c r="E67" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78" t="s">
+        <v>146</v>
+      </c>
+      <c r="H67" s="78"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="78"/>
+      <c r="M67" s="78"/>
+      <c r="N67" s="78"/>
+      <c r="O67" s="78"/>
+      <c r="P67" s="78"/>
+      <c r="Q67" s="78"/>
+      <c r="R67" s="78"/>
+      <c r="S67" s="78"/>
+      <c r="T67" s="78"/>
+      <c r="U67" s="78"/>
+      <c r="V67" s="78"/>
+      <c r="W67" s="78"/>
+      <c r="X67" s="78"/>
+      <c r="Y67" s="78"/>
+      <c r="Z67" s="78"/>
+      <c r="AA67" s="78"/>
+      <c r="AB67" s="78"/>
+      <c r="AC67" s="78"/>
+      <c r="AD67" s="78"/>
+      <c r="AE67" s="78"/>
+      <c r="AF67" s="78"/>
+      <c r="AG67" s="78"/>
+      <c r="AH67" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI67" s="78"/>
+      <c r="AJ67" s="78"/>
+      <c r="AK67" s="78"/>
+      <c r="AL67" s="78"/>
+      <c r="AM67" s="78"/>
+      <c r="AN67" s="78"/>
+    </row>
+    <row r="68" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>29</v>
+      </c>
+      <c r="E68" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="78"/>
+      <c r="G68" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="H68" s="78"/>
+      <c r="I68" s="78"/>
+      <c r="J68" s="78"/>
+      <c r="K68" s="78"/>
+      <c r="L68" s="78"/>
+      <c r="M68" s="78"/>
+      <c r="N68" s="78"/>
+      <c r="O68" s="78"/>
+      <c r="P68" s="78"/>
+      <c r="Q68" s="78"/>
+      <c r="R68" s="78"/>
+      <c r="S68" s="78"/>
+      <c r="T68" s="78"/>
+      <c r="U68" s="78"/>
+      <c r="V68" s="78"/>
+      <c r="W68" s="78"/>
+      <c r="X68" s="78"/>
+      <c r="Y68" s="78"/>
+      <c r="Z68" s="78"/>
+      <c r="AA68" s="78"/>
+      <c r="AB68" s="78"/>
+      <c r="AC68" s="78"/>
+      <c r="AD68" s="78"/>
+      <c r="AE68" s="78"/>
+      <c r="AF68" s="78"/>
+      <c r="AG68" s="78"/>
+      <c r="AH68" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI68" s="78"/>
+      <c r="AJ68" s="78"/>
+      <c r="AK68" s="78"/>
+      <c r="AL68" s="78"/>
+      <c r="AM68" s="78"/>
+      <c r="AN68" s="78"/>
+    </row>
+    <row r="69" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>30</v>
+      </c>
+      <c r="E69" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="78"/>
+      <c r="G69" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="H69" s="78"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="78"/>
+      <c r="L69" s="78"/>
+      <c r="M69" s="78"/>
+      <c r="N69" s="78"/>
+      <c r="O69" s="78"/>
+      <c r="P69" s="78"/>
+      <c r="Q69" s="78"/>
+      <c r="R69" s="78"/>
+      <c r="S69" s="78"/>
+      <c r="T69" s="78"/>
+      <c r="U69" s="78"/>
+      <c r="V69" s="78"/>
+      <c r="W69" s="78"/>
+      <c r="X69" s="78"/>
+      <c r="Y69" s="78"/>
+      <c r="Z69" s="78"/>
+      <c r="AA69" s="78"/>
+      <c r="AB69" s="78"/>
+      <c r="AC69" s="78"/>
+      <c r="AD69" s="78"/>
+      <c r="AE69" s="78"/>
+      <c r="AF69" s="78"/>
+      <c r="AG69" s="78"/>
+      <c r="AH69" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI69" s="78"/>
+      <c r="AJ69" s="78"/>
+      <c r="AK69" s="78"/>
+      <c r="AL69" s="78"/>
+      <c r="AM69" s="78"/>
+      <c r="AN69" s="78"/>
+    </row>
+    <row r="70" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>31</v>
+      </c>
+      <c r="E70" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" s="78"/>
+      <c r="G70" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="H70" s="78"/>
+      <c r="I70" s="78"/>
+      <c r="J70" s="78"/>
+      <c r="K70" s="78"/>
+      <c r="L70" s="78"/>
+      <c r="M70" s="78"/>
+      <c r="N70" s="78"/>
+      <c r="O70" s="78"/>
+      <c r="P70" s="78"/>
+      <c r="Q70" s="78"/>
+      <c r="R70" s="78"/>
+      <c r="S70" s="78"/>
+      <c r="T70" s="78"/>
+      <c r="U70" s="78"/>
+      <c r="V70" s="78"/>
+      <c r="W70" s="78"/>
+      <c r="X70" s="78"/>
+      <c r="Y70" s="78"/>
+      <c r="Z70" s="78"/>
+      <c r="AA70" s="78"/>
+      <c r="AB70" s="78"/>
+      <c r="AC70" s="78"/>
+      <c r="AD70" s="78"/>
+      <c r="AE70" s="78"/>
+      <c r="AF70" s="78"/>
+      <c r="AG70" s="78"/>
+      <c r="AH70" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI70" s="78"/>
+      <c r="AJ70" s="78"/>
+      <c r="AK70" s="78"/>
+      <c r="AL70" s="78"/>
+      <c r="AM70" s="78"/>
+      <c r="AN70" s="78"/>
+    </row>
+    <row r="71" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>32</v>
+      </c>
+      <c r="E71" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="78"/>
+      <c r="G71" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="H71" s="78"/>
+      <c r="I71" s="78"/>
+      <c r="J71" s="78"/>
+      <c r="K71" s="78"/>
+      <c r="L71" s="78"/>
+      <c r="M71" s="78"/>
+      <c r="N71" s="78"/>
+      <c r="O71" s="78"/>
+      <c r="P71" s="78"/>
+      <c r="Q71" s="78"/>
+      <c r="R71" s="78"/>
+      <c r="S71" s="78"/>
+      <c r="T71" s="78"/>
+      <c r="U71" s="78"/>
+      <c r="V71" s="78"/>
+      <c r="W71" s="78"/>
+      <c r="X71" s="78"/>
+      <c r="Y71" s="78"/>
+      <c r="Z71" s="78"/>
+      <c r="AA71" s="78"/>
+      <c r="AB71" s="78"/>
+      <c r="AC71" s="78"/>
+      <c r="AD71" s="78"/>
+      <c r="AE71" s="78"/>
+      <c r="AF71" s="78"/>
+      <c r="AG71" s="78"/>
+      <c r="AH71" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI71" s="78"/>
+      <c r="AJ71" s="78"/>
+      <c r="AK71" s="78"/>
+      <c r="AL71" s="78"/>
+      <c r="AM71" s="78"/>
+      <c r="AN71" s="78"/>
+    </row>
+    <row r="72" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>33</v>
+      </c>
+      <c r="E72" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="78"/>
+      <c r="G72" s="78" t="s">
+        <v>153</v>
+      </c>
+      <c r="H72" s="78"/>
+      <c r="I72" s="78"/>
+      <c r="J72" s="78"/>
+      <c r="K72" s="78"/>
+      <c r="L72" s="78"/>
+      <c r="M72" s="78"/>
+      <c r="N72" s="78"/>
+      <c r="O72" s="78"/>
+      <c r="P72" s="78"/>
+      <c r="Q72" s="78"/>
+      <c r="R72" s="78"/>
+      <c r="S72" s="78"/>
+      <c r="T72" s="78"/>
+      <c r="U72" s="78"/>
+      <c r="V72" s="78"/>
+      <c r="W72" s="78"/>
+      <c r="X72" s="78"/>
+      <c r="Y72" s="78"/>
+      <c r="Z72" s="78"/>
+      <c r="AA72" s="78"/>
+      <c r="AB72" s="78"/>
+      <c r="AC72" s="78"/>
+      <c r="AD72" s="78"/>
+      <c r="AE72" s="78"/>
+      <c r="AF72" s="78"/>
+      <c r="AG72" s="78"/>
+      <c r="AH72" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI72" s="78"/>
+      <c r="AJ72" s="78"/>
+      <c r="AK72" s="78"/>
+      <c r="AL72" s="78"/>
+      <c r="AM72" s="78"/>
+      <c r="AN72" s="78"/>
+    </row>
+    <row r="73" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>34</v>
+      </c>
+      <c r="E73" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="78"/>
+      <c r="G73" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="H73" s="78"/>
+      <c r="I73" s="78"/>
+      <c r="J73" s="78"/>
+      <c r="K73" s="78"/>
+      <c r="L73" s="78"/>
+      <c r="M73" s="78"/>
+      <c r="N73" s="78"/>
+      <c r="O73" s="78"/>
+      <c r="P73" s="78"/>
+      <c r="Q73" s="78"/>
+      <c r="R73" s="78"/>
+      <c r="S73" s="78"/>
+      <c r="T73" s="78"/>
+      <c r="U73" s="78"/>
+      <c r="V73" s="78"/>
+      <c r="W73" s="78"/>
+      <c r="X73" s="78"/>
+      <c r="Y73" s="78"/>
+      <c r="Z73" s="78"/>
+      <c r="AA73" s="78"/>
+      <c r="AB73" s="78"/>
+      <c r="AC73" s="78"/>
+      <c r="AD73" s="78"/>
+      <c r="AE73" s="78"/>
+      <c r="AF73" s="78"/>
+      <c r="AG73" s="78"/>
+      <c r="AH73" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI73" s="78"/>
+      <c r="AJ73" s="78"/>
+      <c r="AK73" s="78"/>
+      <c r="AL73" s="78"/>
+      <c r="AM73" s="78"/>
+      <c r="AN73" s="78"/>
+    </row>
+    <row r="74" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>35</v>
+      </c>
+      <c r="E74" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" s="78"/>
+      <c r="G74" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="H74" s="78"/>
+      <c r="I74" s="78"/>
+      <c r="J74" s="78"/>
+      <c r="K74" s="78"/>
+      <c r="L74" s="78"/>
+      <c r="M74" s="78"/>
+      <c r="N74" s="78"/>
+      <c r="O74" s="78"/>
+      <c r="P74" s="78"/>
+      <c r="Q74" s="78"/>
+      <c r="R74" s="78"/>
+      <c r="S74" s="78"/>
+      <c r="T74" s="78"/>
+      <c r="U74" s="78"/>
+      <c r="V74" s="78"/>
+      <c r="W74" s="78"/>
+      <c r="X74" s="78"/>
+      <c r="Y74" s="78"/>
+      <c r="Z74" s="78"/>
+      <c r="AA74" s="78"/>
+      <c r="AB74" s="78"/>
+      <c r="AC74" s="78"/>
+      <c r="AD74" s="78"/>
+      <c r="AE74" s="78"/>
+      <c r="AF74" s="78"/>
+      <c r="AG74" s="78"/>
+      <c r="AH74" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI74" s="78"/>
+      <c r="AJ74" s="78"/>
+      <c r="AK74" s="78"/>
+      <c r="AL74" s="78"/>
+      <c r="AM74" s="78"/>
+      <c r="AN74" s="78"/>
+    </row>
+    <row r="75" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>35</v>
+      </c>
+      <c r="E75" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="78"/>
+      <c r="G75" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="H75" s="78"/>
+      <c r="I75" s="78"/>
+      <c r="J75" s="78"/>
+      <c r="K75" s="78"/>
+      <c r="L75" s="78"/>
+      <c r="M75" s="78"/>
+      <c r="N75" s="78"/>
+      <c r="O75" s="78"/>
+      <c r="P75" s="78"/>
+      <c r="Q75" s="78"/>
+      <c r="R75" s="78"/>
+      <c r="S75" s="78"/>
+      <c r="T75" s="78"/>
+      <c r="U75" s="78"/>
+      <c r="V75" s="78"/>
+      <c r="W75" s="78"/>
+      <c r="X75" s="78"/>
+      <c r="Y75" s="78"/>
+      <c r="Z75" s="78"/>
+      <c r="AA75" s="78"/>
+      <c r="AB75" s="78"/>
+      <c r="AC75" s="78"/>
+      <c r="AD75" s="78"/>
+      <c r="AE75" s="78"/>
+      <c r="AF75" s="78"/>
+      <c r="AG75" s="78"/>
+      <c r="AH75" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI75" s="78"/>
+      <c r="AJ75" s="78"/>
+      <c r="AK75" s="78"/>
+      <c r="AL75" s="78"/>
+      <c r="AM75" s="78"/>
+      <c r="AN75" s="78"/>
+    </row>
+    <row r="76" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>36</v>
+      </c>
+      <c r="E76" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="78"/>
+      <c r="G76" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="H76" s="78"/>
+      <c r="I76" s="78"/>
+      <c r="J76" s="78"/>
+      <c r="K76" s="78"/>
+      <c r="L76" s="78"/>
+      <c r="M76" s="78"/>
+      <c r="N76" s="78"/>
+      <c r="O76" s="78"/>
+      <c r="P76" s="78"/>
+      <c r="Q76" s="78"/>
+      <c r="R76" s="78"/>
+      <c r="S76" s="78"/>
+      <c r="T76" s="78"/>
+      <c r="U76" s="78"/>
+      <c r="V76" s="78"/>
+      <c r="W76" s="78"/>
+      <c r="X76" s="78"/>
+      <c r="Y76" s="78"/>
+      <c r="Z76" s="78"/>
+      <c r="AA76" s="78"/>
+      <c r="AB76" s="78"/>
+      <c r="AC76" s="78"/>
+      <c r="AD76" s="78"/>
+      <c r="AE76" s="78"/>
+      <c r="AF76" s="78"/>
+      <c r="AG76" s="78"/>
+      <c r="AH76" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI76" s="78"/>
+      <c r="AJ76" s="78"/>
+      <c r="AK76" s="78"/>
+      <c r="AL76" s="78"/>
+      <c r="AM76" s="78"/>
+      <c r="AN76" s="78"/>
+    </row>
+    <row r="77" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>37</v>
+      </c>
+      <c r="E77" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" s="78"/>
+      <c r="G77" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="H77" s="78"/>
+      <c r="I77" s="78"/>
+      <c r="J77" s="78"/>
+      <c r="K77" s="78"/>
+      <c r="L77" s="78"/>
+      <c r="M77" s="78"/>
+      <c r="N77" s="78"/>
+      <c r="O77" s="78"/>
+      <c r="P77" s="78"/>
+      <c r="Q77" s="78"/>
+      <c r="R77" s="78"/>
+      <c r="S77" s="78"/>
+      <c r="T77" s="78"/>
+      <c r="U77" s="78"/>
+      <c r="V77" s="78"/>
+      <c r="W77" s="78"/>
+      <c r="X77" s="78"/>
+      <c r="Y77" s="78"/>
+      <c r="Z77" s="78"/>
+      <c r="AA77" s="78"/>
+      <c r="AB77" s="78"/>
+      <c r="AC77" s="78"/>
+      <c r="AD77" s="78"/>
+      <c r="AE77" s="78"/>
+      <c r="AF77" s="78"/>
+      <c r="AG77" s="78"/>
+      <c r="AH77" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI77" s="78"/>
+      <c r="AJ77" s="78"/>
+      <c r="AK77" s="78"/>
+      <c r="AL77" s="78"/>
+      <c r="AM77" s="78"/>
+      <c r="AN77" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="136">
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:AG77"/>
+    <mergeCell ref="AH77:AN77"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:AG75"/>
+    <mergeCell ref="AH75:AN75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:AG76"/>
+    <mergeCell ref="AH76:AN76"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:AG73"/>
+    <mergeCell ref="AH73:AN73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:AG74"/>
+    <mergeCell ref="AH74:AN74"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:AG71"/>
+    <mergeCell ref="AH71:AN71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:AG72"/>
+    <mergeCell ref="AH72:AN72"/>
+    <mergeCell ref="D38:AN38"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="AH66:AN66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="AH67:AN67"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:AG70"/>
+    <mergeCell ref="AH70:AN70"/>
+    <mergeCell ref="AH68:AN68"/>
+    <mergeCell ref="AH69:AN69"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:AG46"/>
+    <mergeCell ref="AH46:AN46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:AG47"/>
+    <mergeCell ref="AH47:AN47"/>
+    <mergeCell ref="AH62:AN62"/>
+    <mergeCell ref="AH64:AN64"/>
+    <mergeCell ref="AH63:AN63"/>
+    <mergeCell ref="AH65:AN65"/>
+    <mergeCell ref="AH56:AN56"/>
+    <mergeCell ref="AH57:AN57"/>
+    <mergeCell ref="AH58:AN58"/>
+    <mergeCell ref="AH59:AN59"/>
+    <mergeCell ref="AH60:AN60"/>
+    <mergeCell ref="AH61:AN61"/>
+    <mergeCell ref="AH51:AN51"/>
+    <mergeCell ref="AH52:AN52"/>
+    <mergeCell ref="AH53:AN53"/>
+    <mergeCell ref="AH54:AN54"/>
+    <mergeCell ref="AH55:AN55"/>
+    <mergeCell ref="AH44:AN44"/>
+    <mergeCell ref="AH45:AN45"/>
+    <mergeCell ref="AH50:AN50"/>
+    <mergeCell ref="AH48:AN48"/>
+    <mergeCell ref="AH49:AN49"/>
+    <mergeCell ref="G63:AG63"/>
+    <mergeCell ref="G65:AG65"/>
+    <mergeCell ref="G66:AG66"/>
+    <mergeCell ref="G67:AG67"/>
+    <mergeCell ref="G68:AG68"/>
+    <mergeCell ref="G69:AG69"/>
+    <mergeCell ref="G58:AG58"/>
+    <mergeCell ref="G59:AG59"/>
+    <mergeCell ref="G60:AG60"/>
+    <mergeCell ref="G61:AG61"/>
+    <mergeCell ref="G62:AG62"/>
+    <mergeCell ref="G64:AG64"/>
+    <mergeCell ref="G52:AG52"/>
+    <mergeCell ref="G53:AG53"/>
+    <mergeCell ref="G54:AG54"/>
+    <mergeCell ref="G55:AG55"/>
+    <mergeCell ref="G56:AG56"/>
+    <mergeCell ref="G57:AG57"/>
+    <mergeCell ref="G50:AG50"/>
+    <mergeCell ref="G51:AG51"/>
+    <mergeCell ref="G48:AG48"/>
+    <mergeCell ref="G49:AG49"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G39:AG39"/>
+    <mergeCell ref="AH39:AN39"/>
+    <mergeCell ref="G40:AG40"/>
+    <mergeCell ref="G41:AG41"/>
+    <mergeCell ref="G42:AG42"/>
+    <mergeCell ref="G43:AG43"/>
+    <mergeCell ref="G44:AG44"/>
+    <mergeCell ref="G45:AG45"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="AH40:AN40"/>
+    <mergeCell ref="AH41:AN41"/>
+    <mergeCell ref="AH42:AN42"/>
+    <mergeCell ref="AH43:AN43"/>
+    <mergeCell ref="BM24:BT25"/>
+    <mergeCell ref="AX32:BE39"/>
+    <mergeCell ref="BO30:BR30"/>
+    <mergeCell ref="CN22:CW22"/>
+    <mergeCell ref="CI23:CJ24"/>
+    <mergeCell ref="CD23:CG23"/>
+    <mergeCell ref="BY20:CL20"/>
+    <mergeCell ref="BJ12:BW12"/>
+    <mergeCell ref="AU28:BH28"/>
+    <mergeCell ref="BJ28:BW28"/>
+    <mergeCell ref="BM14:BT15"/>
+    <mergeCell ref="G7:M13"/>
+    <mergeCell ref="AH7:AN13"/>
+    <mergeCell ref="AH27:AN33"/>
+    <mergeCell ref="G27:M33"/>
+    <mergeCell ref="S16:AB25"/>
+    <mergeCell ref="AU12:BH12"/>
+    <mergeCell ref="AZ18:BC21"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Plan/스테이지_1_맵_기획.xlsx
+++ b/Plan/스테이지_1_맵_기획.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COCONUT\Documents\BadGuys_2022\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1113DCAF-C660-4E3B-AD51-8021A47DA57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFAE6DD-49E8-4447-BC0E-A99E31714CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E94DDF52-5676-4757-AD64-D7689B00AF4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E94DDF52-5676-4757-AD64-D7689B00AF4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Stage" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="174">
   <si>
     <t>현관</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -682,6 +682,57 @@
   </si>
   <si>
     <t>' 아마 헤어진게 문제이려나? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 그림 접촉시</t>
+  </si>
+  <si>
+    <t>' 이 그림은 중요할거 같아. '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 환자가 살던 집인가? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 옛날에 살던 집이네. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 색깔이 사라지면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 색깔이 사라지면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 색깔이 빠진 것 같은데? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 아까 그림이 좀 바뀌었겠네 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 그림은.. 중요했었던 그림인 것 같은데.. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지를 나가면서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1335,6 +1386,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1443,27 +1527,102 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1479,9 +1638,6 @@
     <xf numFmtId="0" fontId="17" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1507,111 +1663,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1995,10 +2046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086DB6AF-1EE8-4860-8BED-5FE1DAD876C6}">
-  <dimension ref="B1:AI35"/>
+  <dimension ref="B1:AI42"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE67" sqref="AE67"/>
+      <selection activeCell="AI27" sqref="AI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2043,18 +2094,18 @@
     </row>
     <row r="3" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
       <c r="M3" s="5"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -2081,16 +2132,16 @@
     </row>
     <row r="4" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="5"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -2103,12 +2154,12 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="64" t="s">
+      <c r="Y4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="66"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="77"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="3"/>
@@ -2119,16 +2170,16 @@
     </row>
     <row r="5" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
       <c r="M5" s="5"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -2137,16 +2188,16 @@
       <c r="R5" s="1"/>
       <c r="S5" s="5"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="64" t="s">
+      <c r="U5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="73"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="69"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="80"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="3"/>
@@ -2157,16 +2208,16 @@
     </row>
     <row r="6" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
       <c r="M6" s="5"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -2175,14 +2226,14 @@
       <c r="R6" s="1"/>
       <c r="S6" s="5"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="75"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="86"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="72"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="83"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="3"/>
@@ -2193,16 +2244,16 @@
     </row>
     <row r="7" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
       <c r="M7" s="5"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -2229,16 +2280,16 @@
     </row>
     <row r="8" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
       <c r="M8" s="5"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -2251,12 +2302,12 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="58" t="s">
+      <c r="Y8" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="60"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="71"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="3"/>
@@ -2267,16 +2318,16 @@
     </row>
     <row r="9" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
       <c r="M9" s="5"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2289,10 +2340,10 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="63"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="74"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="3"/>
@@ -2303,16 +2354,16 @@
     </row>
     <row r="10" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
       <c r="M10" s="5"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -2375,19 +2426,19 @@
     </row>
     <row r="12" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2413,17 +2464,17 @@
     </row>
     <row r="13" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2445,17 +2496,17 @@
     </row>
     <row r="14" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2477,17 +2528,17 @@
     </row>
     <row r="15" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2509,17 +2560,17 @@
     </row>
     <row r="16" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2541,17 +2592,17 @@
     </row>
     <row r="17" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2573,17 +2624,17 @@
     </row>
     <row r="18" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2605,7 +2656,7 @@
     </row>
     <row r="19" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="57" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1"/>
@@ -2627,21 +2678,21 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="76" t="s">
+      <c r="W19" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="X19" s="76"/>
-      <c r="Y19" s="76"/>
-      <c r="Z19" s="76"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="76"/>
-      <c r="AD19" s="76"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="87"/>
+      <c r="AD19" s="87"/>
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
-      <c r="C20" s="47"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2661,19 +2712,19 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="76"/>
-      <c r="AD20" s="76"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="87"/>
+      <c r="AC20" s="87"/>
+      <c r="AD20" s="87"/>
       <c r="AE20" s="3"/>
     </row>
     <row r="21" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
-      <c r="C21" s="47"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2693,31 +2744,31 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="76"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="76"/>
-      <c r="AC21" s="76"/>
-      <c r="AD21" s="76"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="87"/>
+      <c r="AC21" s="87"/>
+      <c r="AD21" s="87"/>
       <c r="AE21" s="3"/>
     </row>
     <row r="22" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
-      <c r="C22" s="47"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="51"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="62"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2727,29 +2778,29 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="76"/>
-      <c r="X22" s="76"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="76"/>
-      <c r="AB22" s="76"/>
-      <c r="AC22" s="76"/>
-      <c r="AD22" s="76"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="87"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="87"/>
+      <c r="AC22" s="87"/>
+      <c r="AD22" s="87"/>
       <c r="AE22" s="3"/>
     </row>
     <row r="23" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
-      <c r="C23" s="47"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="54"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="65"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2759,29 +2810,29 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="76"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="76"/>
-      <c r="Z23" s="76"/>
-      <c r="AA23" s="76"/>
-      <c r="AB23" s="76"/>
-      <c r="AC23" s="76"/>
-      <c r="AD23" s="76"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="87"/>
+      <c r="AA23" s="87"/>
+      <c r="AB23" s="87"/>
+      <c r="AC23" s="87"/>
+      <c r="AD23" s="87"/>
       <c r="AE23" s="3"/>
     </row>
     <row r="24" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
-      <c r="C24" s="47"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="54"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="65"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2791,29 +2842,29 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="76"/>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="76"/>
-      <c r="Z24" s="76"/>
-      <c r="AA24" s="76"/>
-      <c r="AB24" s="76"/>
-      <c r="AC24" s="76"/>
-      <c r="AD24" s="76"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="87"/>
+      <c r="AA24" s="87"/>
+      <c r="AB24" s="87"/>
+      <c r="AC24" s="87"/>
+      <c r="AD24" s="87"/>
       <c r="AE24" s="3"/>
     </row>
     <row r="25" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
-      <c r="C25" s="47"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="54"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="65"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2823,29 +2874,29 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="76"/>
-      <c r="X25" s="76"/>
-      <c r="Y25" s="76"/>
-      <c r="Z25" s="76"/>
-      <c r="AA25" s="76"/>
-      <c r="AB25" s="76"/>
-      <c r="AC25" s="76"/>
-      <c r="AD25" s="76"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="87"/>
+      <c r="AA25" s="87"/>
+      <c r="AB25" s="87"/>
+      <c r="AC25" s="87"/>
+      <c r="AD25" s="87"/>
       <c r="AE25" s="3"/>
     </row>
     <row r="26" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
-      <c r="C26" s="47"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="54"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="65"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2855,29 +2906,29 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="76"/>
-      <c r="Y26" s="76"/>
-      <c r="Z26" s="76"/>
-      <c r="AA26" s="76"/>
-      <c r="AB26" s="76"/>
-      <c r="AC26" s="76"/>
-      <c r="AD26" s="76"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="87"/>
+      <c r="AC26" s="87"/>
+      <c r="AD26" s="87"/>
       <c r="AE26" s="3"/>
     </row>
     <row r="27" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
-      <c r="C27" s="47"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="54"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="65"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2887,29 +2938,29 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="76"/>
-      <c r="X27" s="76"/>
-      <c r="Y27" s="76"/>
-      <c r="Z27" s="76"/>
-      <c r="AA27" s="76"/>
-      <c r="AB27" s="76"/>
-      <c r="AC27" s="76"/>
-      <c r="AD27" s="76"/>
+      <c r="W27" s="87"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="87"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="87"/>
+      <c r="AB27" s="87"/>
+      <c r="AC27" s="87"/>
+      <c r="AD27" s="87"/>
       <c r="AE27" s="3"/>
     </row>
     <row r="28" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="47"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="54"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="65"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2919,29 +2970,29 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="76"/>
-      <c r="X28" s="76"/>
-      <c r="Y28" s="76"/>
-      <c r="Z28" s="76"/>
-      <c r="AA28" s="76"/>
-      <c r="AB28" s="76"/>
-      <c r="AC28" s="76"/>
-      <c r="AD28" s="76"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="87"/>
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="87"/>
+      <c r="AA28" s="87"/>
+      <c r="AB28" s="87"/>
+      <c r="AC28" s="87"/>
+      <c r="AD28" s="87"/>
       <c r="AE28" s="3"/>
     </row>
     <row r="29" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="47"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="57"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="68"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -2951,19 +3002,19 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="76"/>
-      <c r="X29" s="76"/>
-      <c r="Y29" s="76"/>
-      <c r="Z29" s="76"/>
-      <c r="AA29" s="76"/>
-      <c r="AB29" s="76"/>
-      <c r="AC29" s="76"/>
-      <c r="AD29" s="76"/>
+      <c r="W29" s="87"/>
+      <c r="X29" s="87"/>
+      <c r="Y29" s="87"/>
+      <c r="Z29" s="87"/>
+      <c r="AA29" s="87"/>
+      <c r="AB29" s="87"/>
+      <c r="AC29" s="87"/>
+      <c r="AD29" s="87"/>
       <c r="AE29" s="3"/>
     </row>
     <row r="30" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="48"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2983,14 +3034,14 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="76"/>
-      <c r="X30" s="76"/>
-      <c r="Y30" s="76"/>
-      <c r="Z30" s="76"/>
-      <c r="AA30" s="76"/>
-      <c r="AB30" s="76"/>
-      <c r="AC30" s="76"/>
-      <c r="AD30" s="76"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="87"/>
+      <c r="Y30" s="87"/>
+      <c r="Z30" s="87"/>
+      <c r="AA30" s="87"/>
+      <c r="AB30" s="87"/>
+      <c r="AC30" s="87"/>
+      <c r="AD30" s="87"/>
       <c r="AE30" s="3"/>
     </row>
     <row r="31" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2999,13 +3050,13 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="43" t="s">
+      <c r="G31" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="45"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="56"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -3028,11 +3079,338 @@
       <c r="AE31" s="3"/>
     </row>
     <row r="32" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+    </row>
+    <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="90"/>
+      <c r="P34" s="90"/>
+      <c r="Q34" s="90"/>
+      <c r="R34" s="90"/>
+      <c r="S34" s="90"/>
+      <c r="T34" s="90"/>
+      <c r="U34" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="V34" s="90"/>
+      <c r="W34" s="90"/>
+      <c r="X34" s="90"/>
+    </row>
+    <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="90"/>
+      <c r="E35" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="90"/>
+      <c r="Q35" s="90"/>
+      <c r="R35" s="90"/>
+      <c r="S35" s="90"/>
+      <c r="T35" s="90"/>
+      <c r="U35" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="V35" s="90"/>
+      <c r="W35" s="90"/>
+      <c r="X35" s="90"/>
+    </row>
+    <row r="36" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="90" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="90"/>
+      <c r="E36" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="90"/>
+      <c r="O36" s="90"/>
+      <c r="P36" s="90"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="90"/>
+      <c r="T36" s="90"/>
+      <c r="U36" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="V36" s="90"/>
+      <c r="W36" s="90"/>
+      <c r="X36" s="90"/>
+    </row>
+    <row r="37" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="90"/>
+      <c r="E37" s="89" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="90"/>
+      <c r="T37" s="90"/>
+      <c r="U37" s="90" t="s">
+        <v>163</v>
+      </c>
+      <c r="V37" s="90"/>
+      <c r="W37" s="90"/>
+      <c r="X37" s="90"/>
+    </row>
+    <row r="38" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="90"/>
+      <c r="E38" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="90"/>
+      <c r="U38" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="V38" s="90"/>
+      <c r="W38" s="90"/>
+      <c r="X38" s="90"/>
+    </row>
+    <row r="39" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="90"/>
+      <c r="E39" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="V39" s="90"/>
+      <c r="W39" s="90"/>
+      <c r="X39" s="90"/>
+    </row>
+    <row r="40" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40" s="90" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="90"/>
+      <c r="Q40" s="90"/>
+      <c r="R40" s="90"/>
+      <c r="S40" s="90"/>
+      <c r="T40" s="90"/>
+      <c r="U40" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="V40" s="90"/>
+      <c r="W40" s="90"/>
+      <c r="X40" s="90"/>
+    </row>
+    <row r="41" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+    </row>
+    <row r="42" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="31">
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="E37:T37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:T40"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:T38"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:T39"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:T36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="B33:X33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:T34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:T35"/>
+    <mergeCell ref="U35:X35"/>
     <mergeCell ref="C3:L10"/>
     <mergeCell ref="G31:K31"/>
     <mergeCell ref="C19:C30"/>
@@ -3053,8 +3431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1FA2A1-5030-4DF8-9AA0-DBF61064659B}">
   <dimension ref="B1:AO116"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE67" sqref="AE67"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3150,11 +3528,11 @@
       <c r="C4" s="27"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
       <c r="K4" s="22"/>
@@ -3195,9 +3573,9 @@
       <c r="C5" s="27"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="22"/>
@@ -3238,9 +3616,9 @@
       <c r="C6" s="27"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="22"/>
@@ -3543,7 +3921,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="82" t="s">
+      <c r="J13" s="92" t="s">
         <v>37</v>
       </c>
       <c r="K13" s="24"/>
@@ -3584,7 +3962,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="83"/>
+      <c r="J14" s="93"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
       <c r="M14" s="22"/>
@@ -3623,7 +4001,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="83"/>
+      <c r="J15" s="93"/>
       <c r="K15" s="24"/>
       <c r="L15" s="33"/>
       <c r="M15" s="22"/>
@@ -3772,427 +4150,427 @@
     </row>
     <row r="19" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
     </row>
     <row r="21" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78" t="s">
+      <c r="D21" s="90"/>
+      <c r="E21" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78" t="s">
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
     </row>
     <row r="22" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="80" t="s">
+      <c r="D22" s="90"/>
+      <c r="E22" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78" t="s">
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
     </row>
     <row r="23" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="80" t="s">
+      <c r="D23" s="90"/>
+      <c r="E23" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="78" t="s">
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="V23" s="78"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
     </row>
     <row r="24" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78" t="s">
+      <c r="D24" s="90"/>
+      <c r="E24" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="78" t="s">
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="V24" s="78"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="90"/>
     </row>
     <row r="25" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78" t="s">
+      <c r="D25" s="90"/>
+      <c r="E25" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="78"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="78" t="s">
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="90"/>
     </row>
     <row r="26" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="80" t="s">
+      <c r="D26" s="90"/>
+      <c r="E26" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="78" t="s">
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="78"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
+      <c r="V26" s="90"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="90"/>
     </row>
     <row r="27" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="80" t="s">
+      <c r="D27" s="90"/>
+      <c r="E27" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78" t="s">
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="90"/>
     </row>
     <row r="28" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>6</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78" t="s">
+      <c r="D28" s="90"/>
+      <c r="E28" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78" t="s">
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="90"/>
     </row>
     <row r="29" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>7</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78" t="s">
+      <c r="D29" s="90"/>
+      <c r="E29" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78" t="s">
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="90"/>
+      <c r="X29" s="90"/>
     </row>
     <row r="30" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>8</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78" t="s">
+      <c r="D30" s="90"/>
+      <c r="E30" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78" t="s">
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="V30" s="78"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
+      <c r="V30" s="90"/>
+      <c r="W30" s="90"/>
+      <c r="X30" s="90"/>
     </row>
     <row r="31" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>9</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="78"/>
-      <c r="E31" s="80" t="s">
+      <c r="D31" s="90"/>
+      <c r="E31" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="78" t="s">
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="V31" s="78"/>
-      <c r="W31" s="78"/>
-      <c r="X31" s="78"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
     </row>
     <row r="32" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>10</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78" t="s">
+      <c r="D32" s="90"/>
+      <c r="E32" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="78"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="78" t="s">
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
+      <c r="V32" s="90"/>
+      <c r="W32" s="90"/>
+      <c r="X32" s="90"/>
     </row>
     <row r="33" spans="3:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="31"/>
@@ -4303,6 +4681,29 @@
     <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B20:X20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:T26"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:T29"/>
+    <mergeCell ref="E22:T22"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="E28:T28"/>
+    <mergeCell ref="E30:T30"/>
+    <mergeCell ref="E24:T24"/>
     <mergeCell ref="E23:T23"/>
     <mergeCell ref="E31:T31"/>
     <mergeCell ref="U26:X26"/>
@@ -4319,29 +4720,6 @@
     <mergeCell ref="E27:T27"/>
     <mergeCell ref="E21:T21"/>
     <mergeCell ref="U21:X21"/>
-    <mergeCell ref="E22:T22"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="E28:T28"/>
-    <mergeCell ref="E30:T30"/>
-    <mergeCell ref="E24:T24"/>
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B20:X20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:T26"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:T29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4352,7 +4730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20244086-B834-4773-9DA4-9ED63CBAE8C7}">
   <dimension ref="B1:BB119"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
@@ -4362,9 +4740,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
     </row>
     <row r="2" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T2" s="3"/>
@@ -4400,7 +4778,7 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S5" s="84"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="3"/>
       <c r="U5" s="39"/>
       <c r="V5" s="23"/>
@@ -4410,10 +4788,10 @@
       <c r="Z5" s="23"/>
       <c r="AA5" s="39"/>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="84"/>
+      <c r="AC5" s="95"/>
     </row>
     <row r="6" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S6" s="84"/>
+      <c r="S6" s="95"/>
       <c r="T6" s="3"/>
       <c r="U6" s="39"/>
       <c r="V6" s="23"/>
@@ -4423,10 +4801,10 @@
       <c r="Z6" s="23"/>
       <c r="AA6" s="39"/>
       <c r="AB6" s="3"/>
-      <c r="AC6" s="84"/>
+      <c r="AC6" s="95"/>
     </row>
     <row r="7" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S7" s="84"/>
+      <c r="S7" s="95"/>
       <c r="T7" s="3"/>
       <c r="U7" s="39"/>
       <c r="V7" s="23"/>
@@ -4436,7 +4814,7 @@
       <c r="Z7" s="23"/>
       <c r="AA7" s="39"/>
       <c r="AB7" s="3"/>
-      <c r="AC7" s="84"/>
+      <c r="AC7" s="95"/>
     </row>
     <row r="8" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T8" s="3"/>
@@ -4632,10 +5010,10 @@
       <c r="AC20" s="23"/>
       <c r="AD20" s="23"/>
       <c r="AE20" s="3"/>
-      <c r="AK20" s="78"/>
-      <c r="AL20" s="78"/>
-      <c r="AM20" s="78"/>
-      <c r="AN20" s="78"/>
+      <c r="AK20" s="90"/>
+      <c r="AL20" s="90"/>
+      <c r="AM20" s="90"/>
+      <c r="AN20" s="90"/>
     </row>
     <row r="21" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
@@ -4824,7 +5202,7 @@
       <c r="AR24" s="23"/>
       <c r="AS24" s="26"/>
       <c r="AT24" s="3"/>
-      <c r="AU24" s="84"/>
+      <c r="AU24" s="95"/>
     </row>
     <row r="25" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
@@ -4872,7 +5250,7 @@
       <c r="AR25" s="23"/>
       <c r="AS25" s="26"/>
       <c r="AT25" s="3"/>
-      <c r="AU25" s="84"/>
+      <c r="AU25" s="95"/>
     </row>
     <row r="26" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
@@ -4920,7 +5298,7 @@
       <c r="AR26" s="23"/>
       <c r="AS26" s="26"/>
       <c r="AT26" s="3"/>
-      <c r="AU26" s="84"/>
+      <c r="AU26" s="95"/>
     </row>
     <row r="27" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
@@ -4968,7 +5346,7 @@
       <c r="AR27" s="23"/>
       <c r="AS27" s="26"/>
       <c r="AT27" s="3"/>
-      <c r="AU27" s="84"/>
+      <c r="AU27" s="95"/>
     </row>
     <row r="28" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
@@ -5127,10 +5505,10 @@
       <c r="AC31" s="23"/>
       <c r="AD31" s="23"/>
       <c r="AE31" s="3"/>
-      <c r="AK31" s="78"/>
-      <c r="AL31" s="78"/>
-      <c r="AM31" s="78"/>
-      <c r="AN31" s="78"/>
+      <c r="AK31" s="90"/>
+      <c r="AL31" s="90"/>
+      <c r="AM31" s="90"/>
+      <c r="AN31" s="90"/>
     </row>
     <row r="32" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R32" s="3"/>
@@ -5340,538 +5718,538 @@
     <row r="51" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="79" t="s">
+      <c r="C53" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="79"/>
-      <c r="N53" s="79"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="79"/>
-      <c r="Q53" s="79"/>
-      <c r="R53" s="79"/>
-      <c r="S53" s="79"/>
-      <c r="T53" s="79"/>
-      <c r="U53" s="79"/>
-      <c r="V53" s="79"/>
-      <c r="W53" s="79"/>
-      <c r="X53" s="79"/>
-      <c r="Y53" s="79"/>
-      <c r="Z53" s="79"/>
-      <c r="AA53" s="79"/>
-      <c r="AB53" s="79"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="94"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
+      <c r="K53" s="94"/>
+      <c r="L53" s="94"/>
+      <c r="M53" s="94"/>
+      <c r="N53" s="94"/>
+      <c r="O53" s="94"/>
+      <c r="P53" s="94"/>
+      <c r="Q53" s="94"/>
+      <c r="R53" s="94"/>
+      <c r="S53" s="94"/>
+      <c r="T53" s="94"/>
+      <c r="U53" s="94"/>
+      <c r="V53" s="94"/>
+      <c r="W53" s="94"/>
+      <c r="X53" s="94"/>
+      <c r="Y53" s="94"/>
+      <c r="Z53" s="94"/>
+      <c r="AA53" s="94"/>
+      <c r="AB53" s="94"/>
     </row>
     <row r="54" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="78" t="s">
+      <c r="D54" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78" t="s">
+      <c r="E54" s="90"/>
+      <c r="F54" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="78"/>
-      <c r="M54" s="78"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="78"/>
-      <c r="Q54" s="78"/>
-      <c r="R54" s="78"/>
-      <c r="S54" s="78"/>
-      <c r="T54" s="78"/>
-      <c r="U54" s="78"/>
-      <c r="V54" s="78" t="s">
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="90"/>
+      <c r="N54" s="90"/>
+      <c r="O54" s="90"/>
+      <c r="P54" s="90"/>
+      <c r="Q54" s="90"/>
+      <c r="R54" s="90"/>
+      <c r="S54" s="90"/>
+      <c r="T54" s="90"/>
+      <c r="U54" s="90"/>
+      <c r="V54" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="W54" s="78"/>
-      <c r="X54" s="78"/>
-      <c r="Y54" s="78"/>
-      <c r="Z54" s="78"/>
-      <c r="AA54" s="78"/>
-      <c r="AB54" s="78"/>
+      <c r="W54" s="90"/>
+      <c r="X54" s="90"/>
+      <c r="Y54" s="90"/>
+      <c r="Z54" s="90"/>
+      <c r="AA54" s="90"/>
+      <c r="AB54" s="90"/>
     </row>
     <row r="55" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" s="78" t="s">
+      <c r="D55" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="78"/>
-      <c r="F55" s="80" t="s">
+      <c r="E55" s="90"/>
+      <c r="F55" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="78"/>
-      <c r="M55" s="78"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="78"/>
-      <c r="Q55" s="78"/>
-      <c r="R55" s="78"/>
-      <c r="S55" s="78"/>
-      <c r="T55" s="78"/>
-      <c r="U55" s="78"/>
-      <c r="V55" s="78" t="s">
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="90"/>
+      <c r="L55" s="90"/>
+      <c r="M55" s="90"/>
+      <c r="N55" s="90"/>
+      <c r="O55" s="90"/>
+      <c r="P55" s="90"/>
+      <c r="Q55" s="90"/>
+      <c r="R55" s="90"/>
+      <c r="S55" s="90"/>
+      <c r="T55" s="90"/>
+      <c r="U55" s="90"/>
+      <c r="V55" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="W55" s="78"/>
-      <c r="X55" s="78"/>
-      <c r="Y55" s="78"/>
-      <c r="Z55" s="78"/>
-      <c r="AA55" s="78"/>
-      <c r="AB55" s="78"/>
+      <c r="W55" s="90"/>
+      <c r="X55" s="90"/>
+      <c r="Y55" s="90"/>
+      <c r="Z55" s="90"/>
+      <c r="AA55" s="90"/>
+      <c r="AB55" s="90"/>
     </row>
     <row r="56" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="78" t="s">
+      <c r="D56" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78" t="s">
+      <c r="E56" s="90"/>
+      <c r="F56" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="78"/>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="78"/>
-      <c r="Q56" s="78"/>
-      <c r="R56" s="78"/>
-      <c r="S56" s="78"/>
-      <c r="T56" s="78"/>
-      <c r="U56" s="78"/>
-      <c r="V56" s="78" t="s">
+      <c r="G56" s="90"/>
+      <c r="H56" s="90"/>
+      <c r="I56" s="90"/>
+      <c r="J56" s="90"/>
+      <c r="K56" s="90"/>
+      <c r="L56" s="90"/>
+      <c r="M56" s="90"/>
+      <c r="N56" s="90"/>
+      <c r="O56" s="90"/>
+      <c r="P56" s="90"/>
+      <c r="Q56" s="90"/>
+      <c r="R56" s="90"/>
+      <c r="S56" s="90"/>
+      <c r="T56" s="90"/>
+      <c r="U56" s="90"/>
+      <c r="V56" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="W56" s="78"/>
-      <c r="X56" s="78"/>
-      <c r="Y56" s="78"/>
-      <c r="Z56" s="78"/>
-      <c r="AA56" s="78"/>
-      <c r="AB56" s="78"/>
+      <c r="W56" s="90"/>
+      <c r="X56" s="90"/>
+      <c r="Y56" s="90"/>
+      <c r="Z56" s="90"/>
+      <c r="AA56" s="90"/>
+      <c r="AB56" s="90"/>
     </row>
     <row r="57" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57" s="78" t="s">
+      <c r="D57" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="78"/>
-      <c r="F57" s="80" t="s">
+      <c r="E57" s="90"/>
+      <c r="F57" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="78"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="78"/>
-      <c r="R57" s="78"/>
-      <c r="S57" s="78"/>
-      <c r="T57" s="78"/>
-      <c r="U57" s="78"/>
-      <c r="V57" s="78" t="s">
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="90"/>
+      <c r="N57" s="90"/>
+      <c r="O57" s="90"/>
+      <c r="P57" s="90"/>
+      <c r="Q57" s="90"/>
+      <c r="R57" s="90"/>
+      <c r="S57" s="90"/>
+      <c r="T57" s="90"/>
+      <c r="U57" s="90"/>
+      <c r="V57" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="W57" s="78"/>
-      <c r="X57" s="78"/>
-      <c r="Y57" s="78"/>
-      <c r="Z57" s="78"/>
-      <c r="AA57" s="78"/>
-      <c r="AB57" s="78"/>
+      <c r="W57" s="90"/>
+      <c r="X57" s="90"/>
+      <c r="Y57" s="90"/>
+      <c r="Z57" s="90"/>
+      <c r="AA57" s="90"/>
+      <c r="AB57" s="90"/>
     </row>
     <row r="58" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>3</v>
       </c>
-      <c r="D58" s="78" t="s">
+      <c r="D58" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78" t="s">
+      <c r="E58" s="90"/>
+      <c r="F58" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="78"/>
-      <c r="N58" s="78"/>
-      <c r="O58" s="78"/>
-      <c r="P58" s="78"/>
-      <c r="Q58" s="78"/>
-      <c r="R58" s="78"/>
-      <c r="S58" s="78"/>
-      <c r="T58" s="78"/>
-      <c r="U58" s="78"/>
-      <c r="V58" s="78" t="s">
+      <c r="G58" s="90"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="90"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="90"/>
+      <c r="N58" s="90"/>
+      <c r="O58" s="90"/>
+      <c r="P58" s="90"/>
+      <c r="Q58" s="90"/>
+      <c r="R58" s="90"/>
+      <c r="S58" s="90"/>
+      <c r="T58" s="90"/>
+      <c r="U58" s="90"/>
+      <c r="V58" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="W58" s="78"/>
-      <c r="X58" s="78"/>
-      <c r="Y58" s="78"/>
-      <c r="Z58" s="78"/>
-      <c r="AA58" s="78"/>
-      <c r="AB58" s="78"/>
+      <c r="W58" s="90"/>
+      <c r="X58" s="90"/>
+      <c r="Y58" s="90"/>
+      <c r="Z58" s="90"/>
+      <c r="AA58" s="90"/>
+      <c r="AB58" s="90"/>
     </row>
     <row r="59" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>4</v>
       </c>
-      <c r="D59" s="78" t="s">
+      <c r="D59" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="78"/>
-      <c r="F59" s="80" t="s">
+      <c r="E59" s="90"/>
+      <c r="F59" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="78"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="78"/>
-      <c r="R59" s="78"/>
-      <c r="S59" s="78"/>
-      <c r="T59" s="78"/>
-      <c r="U59" s="78"/>
-      <c r="V59" s="78" t="s">
+      <c r="G59" s="90"/>
+      <c r="H59" s="90"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="90"/>
+      <c r="K59" s="90"/>
+      <c r="L59" s="90"/>
+      <c r="M59" s="90"/>
+      <c r="N59" s="90"/>
+      <c r="O59" s="90"/>
+      <c r="P59" s="90"/>
+      <c r="Q59" s="90"/>
+      <c r="R59" s="90"/>
+      <c r="S59" s="90"/>
+      <c r="T59" s="90"/>
+      <c r="U59" s="90"/>
+      <c r="V59" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="W59" s="78"/>
-      <c r="X59" s="78"/>
-      <c r="Y59" s="78"/>
-      <c r="Z59" s="78"/>
-      <c r="AA59" s="78"/>
-      <c r="AB59" s="78"/>
+      <c r="W59" s="90"/>
+      <c r="X59" s="90"/>
+      <c r="Y59" s="90"/>
+      <c r="Z59" s="90"/>
+      <c r="AA59" s="90"/>
+      <c r="AB59" s="90"/>
     </row>
     <row r="60" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>5</v>
       </c>
-      <c r="D60" s="78" t="s">
+      <c r="D60" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78" t="s">
+      <c r="E60" s="90"/>
+      <c r="F60" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="78"/>
-      <c r="O60" s="78"/>
-      <c r="P60" s="78"/>
-      <c r="Q60" s="78"/>
-      <c r="R60" s="78"/>
-      <c r="S60" s="78"/>
-      <c r="T60" s="78"/>
-      <c r="U60" s="78"/>
-      <c r="V60" s="78" t="s">
+      <c r="G60" s="90"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="90"/>
+      <c r="K60" s="90"/>
+      <c r="L60" s="90"/>
+      <c r="M60" s="90"/>
+      <c r="N60" s="90"/>
+      <c r="O60" s="90"/>
+      <c r="P60" s="90"/>
+      <c r="Q60" s="90"/>
+      <c r="R60" s="90"/>
+      <c r="S60" s="90"/>
+      <c r="T60" s="90"/>
+      <c r="U60" s="90"/>
+      <c r="V60" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="W60" s="78"/>
-      <c r="X60" s="78"/>
-      <c r="Y60" s="78"/>
-      <c r="Z60" s="78"/>
-      <c r="AA60" s="78"/>
-      <c r="AB60" s="78"/>
+      <c r="W60" s="90"/>
+      <c r="X60" s="90"/>
+      <c r="Y60" s="90"/>
+      <c r="Z60" s="90"/>
+      <c r="AA60" s="90"/>
+      <c r="AB60" s="90"/>
     </row>
     <row r="61" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>6</v>
       </c>
-      <c r="D61" s="78" t="s">
+      <c r="D61" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="78"/>
-      <c r="F61" s="80" t="s">
+      <c r="E61" s="90"/>
+      <c r="F61" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-      <c r="M61" s="78"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78"/>
-      <c r="Q61" s="78"/>
-      <c r="R61" s="78"/>
-      <c r="S61" s="78"/>
-      <c r="T61" s="78"/>
-      <c r="U61" s="78"/>
-      <c r="V61" s="78" t="s">
+      <c r="G61" s="90"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="90"/>
+      <c r="M61" s="90"/>
+      <c r="N61" s="90"/>
+      <c r="O61" s="90"/>
+      <c r="P61" s="90"/>
+      <c r="Q61" s="90"/>
+      <c r="R61" s="90"/>
+      <c r="S61" s="90"/>
+      <c r="T61" s="90"/>
+      <c r="U61" s="90"/>
+      <c r="V61" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="W61" s="78"/>
-      <c r="X61" s="78"/>
-      <c r="Y61" s="78"/>
-      <c r="Z61" s="78"/>
-      <c r="AA61" s="78"/>
-      <c r="AB61" s="78"/>
+      <c r="W61" s="90"/>
+      <c r="X61" s="90"/>
+      <c r="Y61" s="90"/>
+      <c r="Z61" s="90"/>
+      <c r="AA61" s="90"/>
+      <c r="AB61" s="90"/>
     </row>
     <row r="62" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>7</v>
       </c>
-      <c r="D62" s="78" t="s">
+      <c r="D62" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78" t="s">
+      <c r="E62" s="90"/>
+      <c r="F62" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="G62" s="78"/>
-      <c r="H62" s="78"/>
-      <c r="I62" s="78"/>
-      <c r="J62" s="78"/>
-      <c r="K62" s="78"/>
-      <c r="L62" s="78"/>
-      <c r="M62" s="78"/>
-      <c r="N62" s="78"/>
-      <c r="O62" s="78"/>
-      <c r="P62" s="78"/>
-      <c r="Q62" s="78"/>
-      <c r="R62" s="78"/>
-      <c r="S62" s="78"/>
-      <c r="T62" s="78"/>
-      <c r="U62" s="78"/>
-      <c r="V62" s="78" t="s">
+      <c r="G62" s="90"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="90"/>
+      <c r="L62" s="90"/>
+      <c r="M62" s="90"/>
+      <c r="N62" s="90"/>
+      <c r="O62" s="90"/>
+      <c r="P62" s="90"/>
+      <c r="Q62" s="90"/>
+      <c r="R62" s="90"/>
+      <c r="S62" s="90"/>
+      <c r="T62" s="90"/>
+      <c r="U62" s="90"/>
+      <c r="V62" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="W62" s="78"/>
-      <c r="X62" s="78"/>
-      <c r="Y62" s="78"/>
-      <c r="Z62" s="78"/>
-      <c r="AA62" s="78"/>
-      <c r="AB62" s="78"/>
+      <c r="W62" s="90"/>
+      <c r="X62" s="90"/>
+      <c r="Y62" s="90"/>
+      <c r="Z62" s="90"/>
+      <c r="AA62" s="90"/>
+      <c r="AB62" s="90"/>
     </row>
     <row r="63" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>8</v>
       </c>
-      <c r="D63" s="78" t="s">
+      <c r="D63" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="E63" s="78"/>
-      <c r="F63" s="78" t="s">
+      <c r="E63" s="90"/>
+      <c r="F63" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="G63" s="78"/>
-      <c r="H63" s="78"/>
-      <c r="I63" s="78"/>
-      <c r="J63" s="78"/>
-      <c r="K63" s="78"/>
-      <c r="L63" s="78"/>
-      <c r="M63" s="78"/>
-      <c r="N63" s="78"/>
-      <c r="O63" s="78"/>
-      <c r="P63" s="78"/>
-      <c r="Q63" s="78"/>
-      <c r="R63" s="78"/>
-      <c r="S63" s="78"/>
-      <c r="T63" s="78"/>
-      <c r="U63" s="78"/>
-      <c r="V63" s="78" t="s">
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="90"/>
+      <c r="M63" s="90"/>
+      <c r="N63" s="90"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="90"/>
+      <c r="Q63" s="90"/>
+      <c r="R63" s="90"/>
+      <c r="S63" s="90"/>
+      <c r="T63" s="90"/>
+      <c r="U63" s="90"/>
+      <c r="V63" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="W63" s="78"/>
-      <c r="X63" s="78"/>
-      <c r="Y63" s="78"/>
-      <c r="Z63" s="78"/>
-      <c r="AA63" s="78"/>
-      <c r="AB63" s="78"/>
+      <c r="W63" s="90"/>
+      <c r="X63" s="90"/>
+      <c r="Y63" s="90"/>
+      <c r="Z63" s="90"/>
+      <c r="AA63" s="90"/>
+      <c r="AB63" s="90"/>
     </row>
     <row r="64" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>9</v>
       </c>
-      <c r="D64" s="78" t="s">
+      <c r="D64" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="78"/>
-      <c r="F64" s="80" t="s">
+      <c r="E64" s="90"/>
+      <c r="F64" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="G64" s="78"/>
-      <c r="H64" s="78"/>
-      <c r="I64" s="78"/>
-      <c r="J64" s="78"/>
-      <c r="K64" s="78"/>
-      <c r="L64" s="78"/>
-      <c r="M64" s="78"/>
-      <c r="N64" s="78"/>
-      <c r="O64" s="78"/>
-      <c r="P64" s="78"/>
-      <c r="Q64" s="78"/>
-      <c r="R64" s="78"/>
-      <c r="S64" s="78"/>
-      <c r="T64" s="78"/>
-      <c r="U64" s="78"/>
-      <c r="V64" s="78" t="s">
+      <c r="G64" s="90"/>
+      <c r="H64" s="90"/>
+      <c r="I64" s="90"/>
+      <c r="J64" s="90"/>
+      <c r="K64" s="90"/>
+      <c r="L64" s="90"/>
+      <c r="M64" s="90"/>
+      <c r="N64" s="90"/>
+      <c r="O64" s="90"/>
+      <c r="P64" s="90"/>
+      <c r="Q64" s="90"/>
+      <c r="R64" s="90"/>
+      <c r="S64" s="90"/>
+      <c r="T64" s="90"/>
+      <c r="U64" s="90"/>
+      <c r="V64" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="W64" s="78"/>
-      <c r="X64" s="78"/>
-      <c r="Y64" s="78"/>
-      <c r="Z64" s="78"/>
-      <c r="AA64" s="78"/>
-      <c r="AB64" s="78"/>
+      <c r="W64" s="90"/>
+      <c r="X64" s="90"/>
+      <c r="Y64" s="90"/>
+      <c r="Z64" s="90"/>
+      <c r="AA64" s="90"/>
+      <c r="AB64" s="90"/>
     </row>
     <row r="65" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>10</v>
       </c>
-      <c r="D65" s="78" t="s">
+      <c r="D65" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="78"/>
-      <c r="F65" s="80" t="s">
+      <c r="E65" s="90"/>
+      <c r="F65" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="G65" s="78"/>
-      <c r="H65" s="78"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
-      <c r="K65" s="78"/>
-      <c r="L65" s="78"/>
-      <c r="M65" s="78"/>
-      <c r="N65" s="78"/>
-      <c r="O65" s="78"/>
-      <c r="P65" s="78"/>
-      <c r="Q65" s="78"/>
-      <c r="R65" s="78"/>
-      <c r="S65" s="78"/>
-      <c r="T65" s="78"/>
-      <c r="U65" s="78"/>
-      <c r="V65" s="78" t="s">
+      <c r="G65" s="90"/>
+      <c r="H65" s="90"/>
+      <c r="I65" s="90"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="90"/>
+      <c r="L65" s="90"/>
+      <c r="M65" s="90"/>
+      <c r="N65" s="90"/>
+      <c r="O65" s="90"/>
+      <c r="P65" s="90"/>
+      <c r="Q65" s="90"/>
+      <c r="R65" s="90"/>
+      <c r="S65" s="90"/>
+      <c r="T65" s="90"/>
+      <c r="U65" s="90"/>
+      <c r="V65" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="W65" s="78"/>
-      <c r="X65" s="78"/>
-      <c r="Y65" s="78"/>
-      <c r="Z65" s="78"/>
-      <c r="AA65" s="78"/>
-      <c r="AB65" s="78"/>
+      <c r="W65" s="90"/>
+      <c r="X65" s="90"/>
+      <c r="Y65" s="90"/>
+      <c r="Z65" s="90"/>
+      <c r="AA65" s="90"/>
+      <c r="AB65" s="90"/>
     </row>
     <row r="66" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>11</v>
       </c>
-      <c r="D66" s="78" t="s">
+      <c r="D66" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="78"/>
-      <c r="F66" s="80" t="s">
+      <c r="E66" s="90"/>
+      <c r="F66" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="G66" s="78"/>
-      <c r="H66" s="78"/>
-      <c r="I66" s="78"/>
-      <c r="J66" s="78"/>
-      <c r="K66" s="78"/>
-      <c r="L66" s="78"/>
-      <c r="M66" s="78"/>
-      <c r="N66" s="78"/>
-      <c r="O66" s="78"/>
-      <c r="P66" s="78"/>
-      <c r="Q66" s="78"/>
-      <c r="R66" s="78"/>
-      <c r="S66" s="78"/>
-      <c r="T66" s="78"/>
-      <c r="U66" s="78"/>
-      <c r="V66" s="78" t="s">
+      <c r="G66" s="90"/>
+      <c r="H66" s="90"/>
+      <c r="I66" s="90"/>
+      <c r="J66" s="90"/>
+      <c r="K66" s="90"/>
+      <c r="L66" s="90"/>
+      <c r="M66" s="90"/>
+      <c r="N66" s="90"/>
+      <c r="O66" s="90"/>
+      <c r="P66" s="90"/>
+      <c r="Q66" s="90"/>
+      <c r="R66" s="90"/>
+      <c r="S66" s="90"/>
+      <c r="T66" s="90"/>
+      <c r="U66" s="90"/>
+      <c r="V66" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="W66" s="78"/>
-      <c r="X66" s="78"/>
-      <c r="Y66" s="78"/>
-      <c r="Z66" s="78"/>
-      <c r="AA66" s="78"/>
-      <c r="AB66" s="78"/>
+      <c r="W66" s="90"/>
+      <c r="X66" s="90"/>
+      <c r="Y66" s="90"/>
+      <c r="Z66" s="90"/>
+      <c r="AA66" s="90"/>
+      <c r="AB66" s="90"/>
     </row>
     <row r="67" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>12</v>
       </c>
-      <c r="D67" s="78" t="s">
+      <c r="D67" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78" t="s">
+      <c r="E67" s="90"/>
+      <c r="F67" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="G67" s="78"/>
-      <c r="H67" s="78"/>
-      <c r="I67" s="78"/>
-      <c r="J67" s="78"/>
-      <c r="K67" s="78"/>
-      <c r="L67" s="78"/>
-      <c r="M67" s="78"/>
-      <c r="N67" s="78"/>
-      <c r="O67" s="78"/>
-      <c r="P67" s="78"/>
-      <c r="Q67" s="78"/>
-      <c r="R67" s="78"/>
-      <c r="S67" s="78"/>
-      <c r="T67" s="78"/>
-      <c r="U67" s="78"/>
-      <c r="V67" s="78" t="s">
+      <c r="G67" s="90"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="90"/>
+      <c r="K67" s="90"/>
+      <c r="L67" s="90"/>
+      <c r="M67" s="90"/>
+      <c r="N67" s="90"/>
+      <c r="O67" s="90"/>
+      <c r="P67" s="90"/>
+      <c r="Q67" s="90"/>
+      <c r="R67" s="90"/>
+      <c r="S67" s="90"/>
+      <c r="T67" s="90"/>
+      <c r="U67" s="90"/>
+      <c r="V67" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="W67" s="78"/>
-      <c r="X67" s="78"/>
-      <c r="Y67" s="78"/>
-      <c r="Z67" s="78"/>
-      <c r="AA67" s="78"/>
-      <c r="AB67" s="78"/>
+      <c r="W67" s="90"/>
+      <c r="X67" s="90"/>
+      <c r="Y67" s="90"/>
+      <c r="Z67" s="90"/>
+      <c r="AA67" s="90"/>
+      <c r="AB67" s="90"/>
     </row>
     <row r="68" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5927,19 +6305,26 @@
     <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AK20:AN20"/>
-    <mergeCell ref="AK31:AN31"/>
-    <mergeCell ref="AU24:AU27"/>
-    <mergeCell ref="C53:AB53"/>
-    <mergeCell ref="V55:AB55"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:U54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:U55"/>
-    <mergeCell ref="V54:AB54"/>
+    <mergeCell ref="V67:AB67"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:U64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:U65"/>
+    <mergeCell ref="V64:AB64"/>
+    <mergeCell ref="V65:AB65"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:U63"/>
+    <mergeCell ref="V62:AB62"/>
+    <mergeCell ref="V63:AB63"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:U66"/>
+    <mergeCell ref="V66:AB66"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:U61"/>
+    <mergeCell ref="V60:AB60"/>
+    <mergeCell ref="V61:AB61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:U62"/>
     <mergeCell ref="V58:AB58"/>
     <mergeCell ref="V59:AB59"/>
     <mergeCell ref="D56:E56"/>
@@ -5956,26 +6341,19 @@
     <mergeCell ref="F59:U59"/>
     <mergeCell ref="F58:U58"/>
     <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:U61"/>
-    <mergeCell ref="V60:AB60"/>
-    <mergeCell ref="V61:AB61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:U62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:U63"/>
-    <mergeCell ref="V62:AB62"/>
-    <mergeCell ref="V63:AB63"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:U66"/>
-    <mergeCell ref="V66:AB66"/>
-    <mergeCell ref="V67:AB67"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:U64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:U65"/>
-    <mergeCell ref="V64:AB64"/>
-    <mergeCell ref="V65:AB65"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:U54"/>
+    <mergeCell ref="V54:AB54"/>
+    <mergeCell ref="AK20:AN20"/>
+    <mergeCell ref="AK31:AN31"/>
+    <mergeCell ref="AU24:AU27"/>
+    <mergeCell ref="C53:AB53"/>
+    <mergeCell ref="V55:AB55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:U55"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5987,7 +6365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A92AD0-1BC0-4913-9BC6-398FBCDD6F41}">
   <dimension ref="D4:CW77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="BB45" sqref="BB45"/>
     </sheetView>
   </sheetViews>
@@ -6129,7 +6507,7 @@
       <c r="AO6" s="26"/>
       <c r="AP6" s="26"/>
       <c r="AQ6" s="26"/>
-      <c r="AU6" s="90"/>
+      <c r="AU6" s="42"/>
       <c r="AV6" t="s">
         <v>54</v>
       </c>
@@ -6138,15 +6516,15 @@
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
       <c r="P7" s="26"/>
@@ -6167,15 +6545,15 @@
       <c r="AE7" s="26"/>
       <c r="AF7" s="26"/>
       <c r="AG7" s="26"/>
-      <c r="AH7" s="86" t="s">
+      <c r="AH7" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="AI7" s="86"/>
-      <c r="AJ7" s="86"/>
-      <c r="AK7" s="86"/>
-      <c r="AL7" s="86"/>
-      <c r="AM7" s="86"/>
-      <c r="AN7" s="86"/>
+      <c r="AI7" s="122"/>
+      <c r="AJ7" s="122"/>
+      <c r="AK7" s="122"/>
+      <c r="AL7" s="122"/>
+      <c r="AM7" s="122"/>
+      <c r="AN7" s="122"/>
       <c r="AO7" s="26"/>
       <c r="AP7" s="26"/>
       <c r="AQ7" s="26"/>
@@ -6188,13 +6566,13 @@
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
@@ -6215,13 +6593,13 @@
       <c r="AE8" s="26"/>
       <c r="AF8" s="26"/>
       <c r="AG8" s="26"/>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="86"/>
-      <c r="AM8" s="86"/>
-      <c r="AN8" s="86"/>
+      <c r="AH8" s="122"/>
+      <c r="AI8" s="122"/>
+      <c r="AJ8" s="122"/>
+      <c r="AK8" s="122"/>
+      <c r="AL8" s="122"/>
+      <c r="AM8" s="122"/>
+      <c r="AN8" s="122"/>
       <c r="AO8" s="26"/>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
@@ -6234,13 +6612,13 @@
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" s="23"/>
@@ -6261,17 +6639,17 @@
       <c r="AE9" s="23"/>
       <c r="AF9" s="23"/>
       <c r="AG9" s="23"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="86"/>
-      <c r="AK9" s="86"/>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="86"/>
+      <c r="AH9" s="122"/>
+      <c r="AI9" s="122"/>
+      <c r="AJ9" s="122"/>
+      <c r="AK9" s="122"/>
+      <c r="AL9" s="122"/>
+      <c r="AM9" s="122"/>
+      <c r="AN9" s="122"/>
       <c r="AO9" s="26"/>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26"/>
-      <c r="AU9" s="127"/>
+      <c r="AU9" s="52"/>
       <c r="AV9" t="s">
         <v>102</v>
       </c>
@@ -6280,13 +6658,13 @@
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
       <c r="P10" s="23"/>
@@ -6307,13 +6685,13 @@
       <c r="AE10" s="23"/>
       <c r="AF10" s="23"/>
       <c r="AG10" s="23"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="86"/>
-      <c r="AJ10" s="86"/>
-      <c r="AK10" s="86"/>
-      <c r="AL10" s="86"/>
-      <c r="AM10" s="86"/>
-      <c r="AN10" s="86"/>
+      <c r="AH10" s="122"/>
+      <c r="AI10" s="122"/>
+      <c r="AJ10" s="122"/>
+      <c r="AK10" s="122"/>
+      <c r="AL10" s="122"/>
+      <c r="AM10" s="122"/>
+      <c r="AN10" s="122"/>
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
       <c r="AQ10" s="26"/>
@@ -6322,13 +6700,13 @@
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" s="23"/>
@@ -6349,13 +6727,13 @@
       <c r="AE11" s="23"/>
       <c r="AF11" s="23"/>
       <c r="AG11" s="23"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="86"/>
-      <c r="AJ11" s="86"/>
-      <c r="AK11" s="86"/>
-      <c r="AL11" s="86"/>
-      <c r="AM11" s="86"/>
-      <c r="AN11" s="86"/>
+      <c r="AH11" s="122"/>
+      <c r="AI11" s="122"/>
+      <c r="AJ11" s="122"/>
+      <c r="AK11" s="122"/>
+      <c r="AL11" s="122"/>
+      <c r="AM11" s="122"/>
+      <c r="AN11" s="122"/>
       <c r="AO11" s="26"/>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="26"/>
@@ -6364,13 +6742,13 @@
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="26"/>
@@ -6391,60 +6769,60 @@
       <c r="AE12" s="26"/>
       <c r="AF12" s="26"/>
       <c r="AG12" s="26"/>
-      <c r="AH12" s="86"/>
-      <c r="AI12" s="86"/>
-      <c r="AJ12" s="86"/>
-      <c r="AK12" s="86"/>
-      <c r="AL12" s="86"/>
-      <c r="AM12" s="86"/>
-      <c r="AN12" s="86"/>
+      <c r="AH12" s="122"/>
+      <c r="AI12" s="122"/>
+      <c r="AJ12" s="122"/>
+      <c r="AK12" s="122"/>
+      <c r="AL12" s="122"/>
+      <c r="AM12" s="122"/>
+      <c r="AN12" s="122"/>
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AU12" s="78" t="s">
+      <c r="AU12" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="AV12" s="78"/>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="78"/>
-      <c r="AZ12" s="78"/>
-      <c r="BA12" s="78"/>
-      <c r="BB12" s="78"/>
-      <c r="BC12" s="78"/>
-      <c r="BD12" s="78"/>
-      <c r="BE12" s="78"/>
-      <c r="BF12" s="78"/>
-      <c r="BG12" s="78"/>
-      <c r="BH12" s="78"/>
-      <c r="BJ12" s="78" t="s">
+      <c r="AV12" s="90"/>
+      <c r="AW12" s="90"/>
+      <c r="AX12" s="90"/>
+      <c r="AY12" s="90"/>
+      <c r="AZ12" s="90"/>
+      <c r="BA12" s="90"/>
+      <c r="BB12" s="90"/>
+      <c r="BC12" s="90"/>
+      <c r="BD12" s="90"/>
+      <c r="BE12" s="90"/>
+      <c r="BF12" s="90"/>
+      <c r="BG12" s="90"/>
+      <c r="BH12" s="90"/>
+      <c r="BJ12" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="BK12" s="78"/>
-      <c r="BL12" s="78"/>
-      <c r="BM12" s="78"/>
-      <c r="BN12" s="78"/>
-      <c r="BO12" s="78"/>
-      <c r="BP12" s="78"/>
-      <c r="BQ12" s="78"/>
-      <c r="BR12" s="78"/>
-      <c r="BS12" s="78"/>
-      <c r="BT12" s="78"/>
-      <c r="BU12" s="78"/>
-      <c r="BV12" s="78"/>
-      <c r="BW12" s="78"/>
+      <c r="BK12" s="90"/>
+      <c r="BL12" s="90"/>
+      <c r="BM12" s="90"/>
+      <c r="BN12" s="90"/>
+      <c r="BO12" s="90"/>
+      <c r="BP12" s="90"/>
+      <c r="BQ12" s="90"/>
+      <c r="BR12" s="90"/>
+      <c r="BS12" s="90"/>
+      <c r="BT12" s="90"/>
+      <c r="BU12" s="90"/>
+      <c r="BV12" s="90"/>
+      <c r="BW12" s="90"/>
     </row>
     <row r="13" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
       <c r="P13" s="26"/>
@@ -6465,13 +6843,13 @@
       <c r="AE13" s="26"/>
       <c r="AF13" s="26"/>
       <c r="AG13" s="26"/>
-      <c r="AH13" s="86"/>
-      <c r="AI13" s="86"/>
-      <c r="AJ13" s="86"/>
-      <c r="AK13" s="86"/>
-      <c r="AL13" s="86"/>
-      <c r="AM13" s="86"/>
-      <c r="AN13" s="86"/>
+      <c r="AH13" s="122"/>
+      <c r="AI13" s="122"/>
+      <c r="AJ13" s="122"/>
+      <c r="AK13" s="122"/>
+      <c r="AL13" s="122"/>
+      <c r="AM13" s="122"/>
+      <c r="AN13" s="122"/>
       <c r="AO13" s="26"/>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="26"/>
@@ -6562,16 +6940,16 @@
       <c r="BJ14" s="26"/>
       <c r="BK14" s="23"/>
       <c r="BL14" s="23"/>
-      <c r="BM14" s="100" t="s">
+      <c r="BM14" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="BN14" s="101"/>
-      <c r="BO14" s="101"/>
-      <c r="BP14" s="101"/>
-      <c r="BQ14" s="101"/>
-      <c r="BR14" s="101"/>
-      <c r="BS14" s="101"/>
-      <c r="BT14" s="102"/>
+      <c r="BN14" s="97"/>
+      <c r="BO14" s="97"/>
+      <c r="BP14" s="97"/>
+      <c r="BQ14" s="97"/>
+      <c r="BR14" s="97"/>
+      <c r="BS14" s="97"/>
+      <c r="BT14" s="98"/>
       <c r="BU14" s="23"/>
       <c r="BV14" s="23"/>
       <c r="BW14" s="26"/>
@@ -6634,14 +7012,14 @@
       <c r="BJ15" s="26"/>
       <c r="BK15" s="23"/>
       <c r="BL15" s="23"/>
-      <c r="BM15" s="103"/>
-      <c r="BN15" s="104"/>
-      <c r="BO15" s="104"/>
-      <c r="BP15" s="104"/>
-      <c r="BQ15" s="104"/>
-      <c r="BR15" s="104"/>
-      <c r="BS15" s="104"/>
-      <c r="BT15" s="105"/>
+      <c r="BM15" s="99"/>
+      <c r="BN15" s="100"/>
+      <c r="BO15" s="100"/>
+      <c r="BP15" s="100"/>
+      <c r="BQ15" s="100"/>
+      <c r="BR15" s="100"/>
+      <c r="BS15" s="100"/>
+      <c r="BT15" s="101"/>
       <c r="BU15" s="23"/>
       <c r="BV15" s="23"/>
       <c r="BW15" s="26"/>
@@ -6662,18 +7040,18 @@
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
       <c r="R16" s="26"/>
-      <c r="S16" s="89" t="s">
+      <c r="S16" s="125" t="s">
         <v>94</v>
       </c>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="89"/>
-      <c r="AB16" s="89"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="125"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="125"/>
+      <c r="AB16" s="125"/>
       <c r="AC16" s="26"/>
       <c r="AD16" s="26"/>
       <c r="AE16" s="26"/>
@@ -6734,16 +7112,16 @@
       <c r="P17" s="26"/>
       <c r="Q17" s="26"/>
       <c r="R17" s="26"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="89"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="125"/>
+      <c r="Y17" s="125"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="125"/>
+      <c r="AB17" s="125"/>
       <c r="AC17" s="26"/>
       <c r="AD17" s="26"/>
       <c r="AE17" s="26"/>
@@ -6804,16 +7182,16 @@
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
       <c r="R18" s="26"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="125"/>
+      <c r="AA18" s="125"/>
+      <c r="AB18" s="125"/>
       <c r="AC18" s="26"/>
       <c r="AD18" s="26"/>
       <c r="AE18" s="26"/>
@@ -6829,17 +7207,17 @@
       <c r="AO18" s="26"/>
       <c r="AP18" s="26"/>
       <c r="AQ18" s="26"/>
-      <c r="AU18" s="90"/>
+      <c r="AU18" s="42"/>
       <c r="AV18" s="23"/>
       <c r="AW18" s="23"/>
       <c r="AX18" s="23"/>
       <c r="AY18" s="23"/>
-      <c r="AZ18" s="91" t="s">
+      <c r="AZ18" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="BA18" s="92"/>
-      <c r="BB18" s="92"/>
-      <c r="BC18" s="93"/>
+      <c r="BA18" s="127"/>
+      <c r="BB18" s="127"/>
+      <c r="BC18" s="128"/>
       <c r="BD18" s="23"/>
       <c r="BE18" s="23"/>
       <c r="BF18" s="23"/>
@@ -6876,16 +7254,16 @@
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="26"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="125"/>
+      <c r="X19" s="125"/>
+      <c r="Y19" s="125"/>
+      <c r="Z19" s="125"/>
+      <c r="AA19" s="125"/>
+      <c r="AB19" s="125"/>
       <c r="AC19" s="26"/>
       <c r="AD19" s="26"/>
       <c r="AE19" s="26"/>
@@ -6901,15 +7279,15 @@
       <c r="AO19" s="26"/>
       <c r="AP19" s="26"/>
       <c r="AQ19" s="26"/>
-      <c r="AU19" s="90"/>
+      <c r="AU19" s="42"/>
       <c r="AV19" s="23"/>
       <c r="AW19" s="23"/>
       <c r="AX19" s="23"/>
       <c r="AY19" s="23"/>
-      <c r="AZ19" s="94"/>
-      <c r="BA19" s="95"/>
-      <c r="BB19" s="95"/>
-      <c r="BC19" s="96"/>
+      <c r="AZ19" s="129"/>
+      <c r="BA19" s="130"/>
+      <c r="BB19" s="130"/>
+      <c r="BC19" s="131"/>
       <c r="BD19" s="23"/>
       <c r="BE19" s="23"/>
       <c r="BF19" s="23"/>
@@ -6946,16 +7324,16 @@
       <c r="P20" s="23"/>
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
+      <c r="W20" s="125"/>
+      <c r="X20" s="125"/>
+      <c r="Y20" s="125"/>
+      <c r="Z20" s="125"/>
+      <c r="AA20" s="125"/>
+      <c r="AB20" s="125"/>
       <c r="AC20" s="26"/>
       <c r="AD20" s="26"/>
       <c r="AE20" s="26"/>
@@ -6971,15 +7349,15 @@
       <c r="AO20" s="26"/>
       <c r="AP20" s="26"/>
       <c r="AQ20" s="26"/>
-      <c r="AU20" s="90"/>
+      <c r="AU20" s="42"/>
       <c r="AV20" s="23"/>
       <c r="AW20" s="23"/>
       <c r="AX20" s="23"/>
       <c r="AY20" s="23"/>
-      <c r="AZ20" s="94"/>
-      <c r="BA20" s="95"/>
-      <c r="BB20" s="95"/>
-      <c r="BC20" s="96"/>
+      <c r="AZ20" s="129"/>
+      <c r="BA20" s="130"/>
+      <c r="BB20" s="130"/>
+      <c r="BC20" s="131"/>
       <c r="BD20" s="23"/>
       <c r="BE20" s="23"/>
       <c r="BF20" s="23"/>
@@ -6999,22 +7377,22 @@
       <c r="BU20" s="23"/>
       <c r="BV20" s="23"/>
       <c r="BW20" s="23"/>
-      <c r="BY20" s="78" t="s">
+      <c r="BY20" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="BZ20" s="78"/>
-      <c r="CA20" s="78"/>
-      <c r="CB20" s="78"/>
-      <c r="CC20" s="78"/>
-      <c r="CD20" s="78"/>
-      <c r="CE20" s="78"/>
-      <c r="CF20" s="78"/>
-      <c r="CG20" s="78"/>
-      <c r="CH20" s="78"/>
-      <c r="CI20" s="78"/>
-      <c r="CJ20" s="78"/>
-      <c r="CK20" s="78"/>
-      <c r="CL20" s="78"/>
+      <c r="BZ20" s="90"/>
+      <c r="CA20" s="90"/>
+      <c r="CB20" s="90"/>
+      <c r="CC20" s="90"/>
+      <c r="CD20" s="90"/>
+      <c r="CE20" s="90"/>
+      <c r="CF20" s="90"/>
+      <c r="CG20" s="90"/>
+      <c r="CH20" s="90"/>
+      <c r="CI20" s="90"/>
+      <c r="CJ20" s="90"/>
+      <c r="CK20" s="90"/>
+      <c r="CL20" s="90"/>
     </row>
     <row r="21" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="26"/>
@@ -7032,16 +7410,16 @@
       <c r="P21" s="23"/>
       <c r="Q21" s="23"/>
       <c r="R21" s="23"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="125"/>
+      <c r="U21" s="125"/>
+      <c r="V21" s="125"/>
+      <c r="W21" s="125"/>
+      <c r="X21" s="125"/>
+      <c r="Y21" s="125"/>
+      <c r="Z21" s="125"/>
+      <c r="AA21" s="125"/>
+      <c r="AB21" s="125"/>
       <c r="AC21" s="26"/>
       <c r="AD21" s="26"/>
       <c r="AE21" s="26"/>
@@ -7057,15 +7435,15 @@
       <c r="AO21" s="26"/>
       <c r="AP21" s="26"/>
       <c r="AQ21" s="26"/>
-      <c r="AU21" s="90"/>
+      <c r="AU21" s="42"/>
       <c r="AV21" s="23"/>
       <c r="AW21" s="23"/>
       <c r="AX21" s="23"/>
       <c r="AY21" s="23"/>
-      <c r="AZ21" s="97"/>
-      <c r="BA21" s="98"/>
-      <c r="BB21" s="98"/>
-      <c r="BC21" s="99"/>
+      <c r="AZ21" s="132"/>
+      <c r="BA21" s="133"/>
+      <c r="BB21" s="133"/>
+      <c r="BC21" s="134"/>
       <c r="BD21" s="23"/>
       <c r="BE21" s="23"/>
       <c r="BF21" s="23"/>
@@ -7116,16 +7494,16 @@
       <c r="P22" s="23"/>
       <c r="Q22" s="23"/>
       <c r="R22" s="23"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="89"/>
+      <c r="S22" s="125"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="125"/>
+      <c r="V22" s="125"/>
+      <c r="W22" s="125"/>
+      <c r="X22" s="125"/>
+      <c r="Y22" s="125"/>
+      <c r="Z22" s="125"/>
+      <c r="AA22" s="125"/>
+      <c r="AB22" s="125"/>
       <c r="AC22" s="26"/>
       <c r="AD22" s="26"/>
       <c r="AE22" s="26"/>
@@ -7183,18 +7561,18 @@
       <c r="CJ22" s="23"/>
       <c r="CK22" s="23"/>
       <c r="CL22" s="26"/>
-      <c r="CN22" s="78" t="s">
+      <c r="CN22" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="CO22" s="78"/>
-      <c r="CP22" s="78"/>
-      <c r="CQ22" s="78"/>
-      <c r="CR22" s="78"/>
-      <c r="CS22" s="78"/>
-      <c r="CT22" s="78"/>
-      <c r="CU22" s="78"/>
-      <c r="CV22" s="78"/>
-      <c r="CW22" s="78"/>
+      <c r="CO22" s="90"/>
+      <c r="CP22" s="90"/>
+      <c r="CQ22" s="90"/>
+      <c r="CR22" s="90"/>
+      <c r="CS22" s="90"/>
+      <c r="CT22" s="90"/>
+      <c r="CU22" s="90"/>
+      <c r="CV22" s="90"/>
+      <c r="CW22" s="90"/>
     </row>
     <row r="23" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="26"/>
@@ -7212,16 +7590,16 @@
       <c r="P23" s="23"/>
       <c r="Q23" s="26"/>
       <c r="R23" s="26"/>
-      <c r="S23" s="89"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="89"/>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="89"/>
-      <c r="AB23" s="89"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="125"/>
+      <c r="V23" s="125"/>
+      <c r="W23" s="125"/>
+      <c r="X23" s="125"/>
+      <c r="Y23" s="125"/>
+      <c r="Z23" s="125"/>
+      <c r="AA23" s="125"/>
+      <c r="AB23" s="125"/>
       <c r="AC23" s="26"/>
       <c r="AD23" s="26"/>
       <c r="AE23" s="26"/>
@@ -7267,20 +7645,20 @@
       <c r="BW23" s="26"/>
       <c r="BY23" s="26"/>
       <c r="BZ23" s="23"/>
-      <c r="CA23" s="119"/>
-      <c r="CB23" s="120"/>
-      <c r="CC23" s="120"/>
-      <c r="CD23" s="132" t="s">
+      <c r="CA23" s="44"/>
+      <c r="CB23" s="45"/>
+      <c r="CC23" s="45"/>
+      <c r="CD23" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="CE23" s="133"/>
-      <c r="CF23" s="133"/>
-      <c r="CG23" s="134"/>
-      <c r="CH23" s="120"/>
-      <c r="CI23" s="129" t="s">
+      <c r="CE23" s="119"/>
+      <c r="CF23" s="119"/>
+      <c r="CG23" s="120"/>
+      <c r="CH23" s="45"/>
+      <c r="CI23" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="CJ23" s="128"/>
+      <c r="CJ23" s="115"/>
       <c r="CK23" s="23"/>
       <c r="CL23" s="26"/>
     </row>
@@ -7300,16 +7678,16 @@
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
       <c r="R24" s="26"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+      <c r="U24" s="125"/>
+      <c r="V24" s="125"/>
+      <c r="W24" s="125"/>
+      <c r="X24" s="125"/>
+      <c r="Y24" s="125"/>
+      <c r="Z24" s="125"/>
+      <c r="AA24" s="125"/>
+      <c r="AB24" s="125"/>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
       <c r="AE24" s="26"/>
@@ -7342,31 +7720,31 @@
       <c r="BJ24" s="26"/>
       <c r="BK24" s="23"/>
       <c r="BL24" s="23"/>
-      <c r="BM24" s="100" t="s">
+      <c r="BM24" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="BN24" s="101"/>
-      <c r="BO24" s="101"/>
-      <c r="BP24" s="101"/>
-      <c r="BQ24" s="101"/>
-      <c r="BR24" s="101"/>
-      <c r="BS24" s="101"/>
-      <c r="BT24" s="102"/>
+      <c r="BN24" s="97"/>
+      <c r="BO24" s="97"/>
+      <c r="BP24" s="97"/>
+      <c r="BQ24" s="97"/>
+      <c r="BR24" s="97"/>
+      <c r="BS24" s="97"/>
+      <c r="BT24" s="98"/>
       <c r="BU24" s="23"/>
       <c r="BV24" s="23"/>
       <c r="BW24" s="26"/>
       <c r="BY24" s="26"/>
       <c r="BZ24" s="23"/>
-      <c r="CA24" s="121"/>
-      <c r="CB24" s="122"/>
-      <c r="CC24" s="122"/>
-      <c r="CD24" s="122"/>
-      <c r="CE24" s="122"/>
-      <c r="CF24" s="122"/>
-      <c r="CG24" s="122"/>
-      <c r="CH24" s="122"/>
-      <c r="CI24" s="130"/>
-      <c r="CJ24" s="131"/>
+      <c r="CA24" s="46"/>
+      <c r="CB24" s="47"/>
+      <c r="CC24" s="47"/>
+      <c r="CD24" s="47"/>
+      <c r="CE24" s="47"/>
+      <c r="CF24" s="47"/>
+      <c r="CG24" s="47"/>
+      <c r="CH24" s="47"/>
+      <c r="CI24" s="116"/>
+      <c r="CJ24" s="117"/>
       <c r="CK24" s="23"/>
       <c r="CL24" s="26"/>
     </row>
@@ -7386,16 +7764,16 @@
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
       <c r="R25" s="26"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="89"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="125"/>
+      <c r="U25" s="125"/>
+      <c r="V25" s="125"/>
+      <c r="W25" s="125"/>
+      <c r="X25" s="125"/>
+      <c r="Y25" s="125"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="125"/>
+      <c r="AB25" s="125"/>
       <c r="AC25" s="26"/>
       <c r="AD25" s="26"/>
       <c r="AE25" s="26"/>
@@ -7428,29 +7806,29 @@
       <c r="BJ25" s="26"/>
       <c r="BK25" s="23"/>
       <c r="BL25" s="23"/>
-      <c r="BM25" s="103"/>
-      <c r="BN25" s="104"/>
-      <c r="BO25" s="104"/>
-      <c r="BP25" s="104"/>
-      <c r="BQ25" s="104"/>
-      <c r="BR25" s="104"/>
-      <c r="BS25" s="104"/>
-      <c r="BT25" s="105"/>
+      <c r="BM25" s="99"/>
+      <c r="BN25" s="100"/>
+      <c r="BO25" s="100"/>
+      <c r="BP25" s="100"/>
+      <c r="BQ25" s="100"/>
+      <c r="BR25" s="100"/>
+      <c r="BS25" s="100"/>
+      <c r="BT25" s="101"/>
       <c r="BU25" s="23"/>
       <c r="BV25" s="23"/>
       <c r="BW25" s="26"/>
       <c r="BY25" s="26"/>
       <c r="BZ25" s="23"/>
-      <c r="CA25" s="121"/>
-      <c r="CB25" s="122"/>
-      <c r="CC25" s="122"/>
-      <c r="CD25" s="122"/>
-      <c r="CE25" s="122"/>
-      <c r="CF25" s="122"/>
-      <c r="CG25" s="122"/>
-      <c r="CH25" s="122"/>
-      <c r="CI25" s="122"/>
-      <c r="CJ25" s="123"/>
+      <c r="CA25" s="46"/>
+      <c r="CB25" s="47"/>
+      <c r="CC25" s="47"/>
+      <c r="CD25" s="47"/>
+      <c r="CE25" s="47"/>
+      <c r="CF25" s="47"/>
+      <c r="CG25" s="47"/>
+      <c r="CH25" s="47"/>
+      <c r="CI25" s="47"/>
+      <c r="CJ25" s="48"/>
       <c r="CK25" s="23"/>
       <c r="CL25" s="26"/>
     </row>
@@ -7525,16 +7903,16 @@
       <c r="BW26" s="26"/>
       <c r="BY26" s="23"/>
       <c r="BZ26" s="23"/>
-      <c r="CA26" s="121"/>
-      <c r="CB26" s="122"/>
-      <c r="CC26" s="122"/>
-      <c r="CD26" s="122"/>
-      <c r="CE26" s="122"/>
-      <c r="CF26" s="122"/>
-      <c r="CG26" s="122"/>
-      <c r="CH26" s="122"/>
-      <c r="CI26" s="122"/>
-      <c r="CJ26" s="123"/>
+      <c r="CA26" s="46"/>
+      <c r="CB26" s="47"/>
+      <c r="CC26" s="47"/>
+      <c r="CD26" s="47"/>
+      <c r="CE26" s="47"/>
+      <c r="CF26" s="47"/>
+      <c r="CG26" s="47"/>
+      <c r="CH26" s="47"/>
+      <c r="CI26" s="47"/>
+      <c r="CJ26" s="48"/>
       <c r="CK26" s="23"/>
       <c r="CL26" s="26"/>
     </row>
@@ -7542,15 +7920,15 @@
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="88" t="s">
+      <c r="G27" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="124"/>
       <c r="N27" s="26"/>
       <c r="O27" s="26"/>
       <c r="P27" s="26"/>
@@ -7571,30 +7949,30 @@
       <c r="AE27" s="26"/>
       <c r="AF27" s="26"/>
       <c r="AG27" s="26"/>
-      <c r="AH27" s="87" t="s">
+      <c r="AH27" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="AI27" s="42"/>
-      <c r="AJ27" s="42"/>
-      <c r="AK27" s="42"/>
-      <c r="AL27" s="42"/>
-      <c r="AM27" s="42"/>
-      <c r="AN27" s="42"/>
+      <c r="AI27" s="53"/>
+      <c r="AJ27" s="53"/>
+      <c r="AK27" s="53"/>
+      <c r="AL27" s="53"/>
+      <c r="AM27" s="53"/>
+      <c r="AN27" s="53"/>
       <c r="AO27" s="26"/>
       <c r="AP27" s="26"/>
       <c r="AQ27" s="26"/>
       <c r="BY27" s="23"/>
       <c r="BZ27" s="23"/>
-      <c r="CA27" s="121"/>
-      <c r="CB27" s="122"/>
-      <c r="CC27" s="122"/>
-      <c r="CD27" s="122"/>
-      <c r="CE27" s="122"/>
-      <c r="CF27" s="122"/>
-      <c r="CG27" s="122"/>
-      <c r="CH27" s="122"/>
-      <c r="CI27" s="122"/>
-      <c r="CJ27" s="123"/>
+      <c r="CA27" s="46"/>
+      <c r="CB27" s="47"/>
+      <c r="CC27" s="47"/>
+      <c r="CD27" s="47"/>
+      <c r="CE27" s="47"/>
+      <c r="CF27" s="47"/>
+      <c r="CG27" s="47"/>
+      <c r="CH27" s="47"/>
+      <c r="CI27" s="47"/>
+      <c r="CJ27" s="48"/>
       <c r="CK27" s="23"/>
       <c r="CL27" s="26"/>
     </row>
@@ -7602,13 +7980,13 @@
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="124"/>
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
       <c r="P28" s="26"/>
@@ -7629,60 +8007,60 @@
       <c r="AE28" s="26"/>
       <c r="AF28" s="26"/>
       <c r="AG28" s="26"/>
-      <c r="AH28" s="42"/>
-      <c r="AI28" s="42"/>
-      <c r="AJ28" s="42"/>
-      <c r="AK28" s="42"/>
-      <c r="AL28" s="42"/>
-      <c r="AM28" s="42"/>
-      <c r="AN28" s="42"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="53"/>
+      <c r="AJ28" s="53"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="53"/>
+      <c r="AM28" s="53"/>
+      <c r="AN28" s="53"/>
       <c r="AO28" s="26"/>
       <c r="AP28" s="26"/>
       <c r="AQ28" s="26"/>
-      <c r="AU28" s="78" t="s">
+      <c r="AU28" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="AV28" s="78"/>
-      <c r="AW28" s="78"/>
-      <c r="AX28" s="78"/>
-      <c r="AY28" s="78"/>
-      <c r="AZ28" s="78"/>
-      <c r="BA28" s="78"/>
-      <c r="BB28" s="78"/>
-      <c r="BC28" s="78"/>
-      <c r="BD28" s="78"/>
-      <c r="BE28" s="78"/>
-      <c r="BF28" s="78"/>
-      <c r="BG28" s="78"/>
-      <c r="BH28" s="78"/>
-      <c r="BJ28" s="78" t="s">
+      <c r="AV28" s="90"/>
+      <c r="AW28" s="90"/>
+      <c r="AX28" s="90"/>
+      <c r="AY28" s="90"/>
+      <c r="AZ28" s="90"/>
+      <c r="BA28" s="90"/>
+      <c r="BB28" s="90"/>
+      <c r="BC28" s="90"/>
+      <c r="BD28" s="90"/>
+      <c r="BE28" s="90"/>
+      <c r="BF28" s="90"/>
+      <c r="BG28" s="90"/>
+      <c r="BH28" s="90"/>
+      <c r="BJ28" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="BK28" s="78"/>
-      <c r="BL28" s="78"/>
-      <c r="BM28" s="78"/>
-      <c r="BN28" s="78"/>
-      <c r="BO28" s="78"/>
-      <c r="BP28" s="78"/>
-      <c r="BQ28" s="78"/>
-      <c r="BR28" s="78"/>
-      <c r="BS28" s="78"/>
-      <c r="BT28" s="78"/>
-      <c r="BU28" s="78"/>
-      <c r="BV28" s="78"/>
-      <c r="BW28" s="78"/>
+      <c r="BK28" s="90"/>
+      <c r="BL28" s="90"/>
+      <c r="BM28" s="90"/>
+      <c r="BN28" s="90"/>
+      <c r="BO28" s="90"/>
+      <c r="BP28" s="90"/>
+      <c r="BQ28" s="90"/>
+      <c r="BR28" s="90"/>
+      <c r="BS28" s="90"/>
+      <c r="BT28" s="90"/>
+      <c r="BU28" s="90"/>
+      <c r="BV28" s="90"/>
+      <c r="BW28" s="90"/>
       <c r="BY28" s="23"/>
       <c r="BZ28" s="23"/>
-      <c r="CA28" s="121"/>
-      <c r="CB28" s="122"/>
-      <c r="CC28" s="122"/>
-      <c r="CD28" s="122"/>
-      <c r="CE28" s="122"/>
-      <c r="CF28" s="122"/>
-      <c r="CG28" s="122"/>
-      <c r="CH28" s="122"/>
-      <c r="CI28" s="122"/>
-      <c r="CJ28" s="123"/>
+      <c r="CA28" s="46"/>
+      <c r="CB28" s="47"/>
+      <c r="CC28" s="47"/>
+      <c r="CD28" s="47"/>
+      <c r="CE28" s="47"/>
+      <c r="CF28" s="47"/>
+      <c r="CG28" s="47"/>
+      <c r="CH28" s="47"/>
+      <c r="CI28" s="47"/>
+      <c r="CJ28" s="48"/>
       <c r="CK28" s="23"/>
       <c r="CL28" s="26"/>
     </row>
@@ -7690,13 +8068,13 @@
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="124"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
       <c r="P29" s="23"/>
@@ -7717,13 +8095,13 @@
       <c r="AE29" s="23"/>
       <c r="AF29" s="23"/>
       <c r="AG29" s="23"/>
-      <c r="AH29" s="42"/>
-      <c r="AI29" s="42"/>
-      <c r="AJ29" s="42"/>
-      <c r="AK29" s="42"/>
-      <c r="AL29" s="42"/>
-      <c r="AM29" s="42"/>
-      <c r="AN29" s="42"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="53"/>
+      <c r="AJ29" s="53"/>
+      <c r="AK29" s="53"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="53"/>
+      <c r="AN29" s="53"/>
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
@@ -7757,16 +8135,16 @@
       <c r="BW29" s="26"/>
       <c r="BY29" s="23"/>
       <c r="BZ29" s="23"/>
-      <c r="CA29" s="121"/>
-      <c r="CB29" s="122"/>
-      <c r="CC29" s="122"/>
-      <c r="CD29" s="122"/>
-      <c r="CE29" s="122"/>
-      <c r="CF29" s="122"/>
-      <c r="CG29" s="122"/>
-      <c r="CH29" s="122"/>
-      <c r="CI29" s="122"/>
-      <c r="CJ29" s="123"/>
+      <c r="CA29" s="46"/>
+      <c r="CB29" s="47"/>
+      <c r="CC29" s="47"/>
+      <c r="CD29" s="47"/>
+      <c r="CE29" s="47"/>
+      <c r="CF29" s="47"/>
+      <c r="CG29" s="47"/>
+      <c r="CH29" s="47"/>
+      <c r="CI29" s="47"/>
+      <c r="CJ29" s="48"/>
       <c r="CK29" s="23"/>
       <c r="CL29" s="26"/>
     </row>
@@ -7774,13 +8152,13 @@
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="124"/>
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
       <c r="P30" s="23"/>
@@ -7801,13 +8179,13 @@
       <c r="AE30" s="23"/>
       <c r="AF30" s="23"/>
       <c r="AG30" s="23"/>
-      <c r="AH30" s="42"/>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="42"/>
-      <c r="AL30" s="42"/>
-      <c r="AM30" s="42"/>
-      <c r="AN30" s="42"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="53"/>
+      <c r="AJ30" s="53"/>
+      <c r="AK30" s="53"/>
+      <c r="AL30" s="53"/>
+      <c r="AM30" s="53"/>
+      <c r="AN30" s="53"/>
       <c r="AO30" s="26"/>
       <c r="AP30" s="26"/>
       <c r="AQ30" s="26"/>
@@ -7830,12 +8208,12 @@
       <c r="BL30" s="23"/>
       <c r="BM30" s="23"/>
       <c r="BN30" s="23"/>
-      <c r="BO30" s="115" t="s">
+      <c r="BO30" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="BP30" s="116"/>
-      <c r="BQ30" s="116"/>
-      <c r="BR30" s="117"/>
+      <c r="BP30" s="112"/>
+      <c r="BQ30" s="112"/>
+      <c r="BR30" s="113"/>
       <c r="BS30" s="23"/>
       <c r="BT30" s="23"/>
       <c r="BU30" s="23"/>
@@ -7843,16 +8221,16 @@
       <c r="BW30" s="26"/>
       <c r="BY30" s="26"/>
       <c r="BZ30" s="23"/>
-      <c r="CA30" s="121"/>
-      <c r="CB30" s="122"/>
-      <c r="CC30" s="122"/>
-      <c r="CD30" s="122"/>
-      <c r="CE30" s="122"/>
-      <c r="CF30" s="122"/>
-      <c r="CG30" s="122"/>
-      <c r="CH30" s="122"/>
-      <c r="CI30" s="122"/>
-      <c r="CJ30" s="123"/>
+      <c r="CA30" s="46"/>
+      <c r="CB30" s="47"/>
+      <c r="CC30" s="47"/>
+      <c r="CD30" s="47"/>
+      <c r="CE30" s="47"/>
+      <c r="CF30" s="47"/>
+      <c r="CG30" s="47"/>
+      <c r="CH30" s="47"/>
+      <c r="CI30" s="47"/>
+      <c r="CJ30" s="48"/>
       <c r="CK30" s="23"/>
       <c r="CL30" s="26"/>
       <c r="CQ30" t="s">
@@ -7863,13 +8241,13 @@
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="88"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="124"/>
+      <c r="M31" s="124"/>
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
       <c r="P31" s="23"/>
@@ -7890,13 +8268,13 @@
       <c r="AE31" s="23"/>
       <c r="AF31" s="23"/>
       <c r="AG31" s="23"/>
-      <c r="AH31" s="42"/>
-      <c r="AI31" s="42"/>
-      <c r="AJ31" s="42"/>
-      <c r="AK31" s="42"/>
-      <c r="AL31" s="42"/>
-      <c r="AM31" s="42"/>
-      <c r="AN31" s="42"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="53"/>
       <c r="AO31" s="26"/>
       <c r="AP31" s="26"/>
       <c r="AQ31" s="26"/>
@@ -7930,16 +8308,16 @@
       <c r="BW31" s="26"/>
       <c r="BY31" s="26"/>
       <c r="BZ31" s="23"/>
-      <c r="CA31" s="121"/>
-      <c r="CB31" s="122"/>
-      <c r="CC31" s="122"/>
-      <c r="CD31" s="122"/>
-      <c r="CE31" s="122"/>
-      <c r="CF31" s="122"/>
-      <c r="CG31" s="122"/>
-      <c r="CH31" s="122"/>
-      <c r="CI31" s="122"/>
-      <c r="CJ31" s="123"/>
+      <c r="CA31" s="46"/>
+      <c r="CB31" s="47"/>
+      <c r="CC31" s="47"/>
+      <c r="CD31" s="47"/>
+      <c r="CE31" s="47"/>
+      <c r="CF31" s="47"/>
+      <c r="CG31" s="47"/>
+      <c r="CH31" s="47"/>
+      <c r="CI31" s="47"/>
+      <c r="CJ31" s="48"/>
       <c r="CK31" s="23"/>
       <c r="CL31" s="26"/>
     </row>
@@ -7947,13 +8325,13 @@
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="124"/>
+      <c r="M32" s="124"/>
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
       <c r="P32" s="26"/>
@@ -7974,37 +8352,37 @@
       <c r="AE32" s="26"/>
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
-      <c r="AH32" s="42"/>
-      <c r="AI32" s="42"/>
-      <c r="AJ32" s="42"/>
-      <c r="AK32" s="42"/>
-      <c r="AL32" s="42"/>
-      <c r="AM32" s="42"/>
-      <c r="AN32" s="42"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="53"/>
+      <c r="AJ32" s="53"/>
+      <c r="AK32" s="53"/>
+      <c r="AL32" s="53"/>
+      <c r="AM32" s="53"/>
+      <c r="AN32" s="53"/>
       <c r="AO32" s="26"/>
       <c r="AP32" s="26"/>
       <c r="AQ32" s="26"/>
       <c r="AU32" s="26"/>
       <c r="AV32" s="23"/>
       <c r="AW32" s="23"/>
-      <c r="AX32" s="106" t="s">
+      <c r="AX32" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="AY32" s="107"/>
-      <c r="AZ32" s="107"/>
-      <c r="BA32" s="107"/>
-      <c r="BB32" s="107"/>
-      <c r="BC32" s="107"/>
-      <c r="BD32" s="107"/>
-      <c r="BE32" s="108"/>
+      <c r="AY32" s="103"/>
+      <c r="AZ32" s="103"/>
+      <c r="BA32" s="103"/>
+      <c r="BB32" s="103"/>
+      <c r="BC32" s="103"/>
+      <c r="BD32" s="103"/>
+      <c r="BE32" s="104"/>
       <c r="BF32" s="23"/>
       <c r="BG32" s="23"/>
       <c r="BH32" s="26"/>
       <c r="BJ32" s="26"/>
       <c r="BK32" s="23"/>
       <c r="BL32" s="23"/>
-      <c r="BM32" s="118"/>
-      <c r="BN32" s="118"/>
+      <c r="BM32" s="43"/>
+      <c r="BN32" s="43"/>
       <c r="BO32" s="23"/>
       <c r="BP32" s="23"/>
       <c r="BQ32" s="23"/>
@@ -8016,16 +8394,16 @@
       <c r="BW32" s="26"/>
       <c r="BY32" s="26"/>
       <c r="BZ32" s="23"/>
-      <c r="CA32" s="124"/>
-      <c r="CB32" s="125"/>
-      <c r="CC32" s="125"/>
-      <c r="CD32" s="125"/>
-      <c r="CE32" s="125"/>
-      <c r="CF32" s="125"/>
-      <c r="CG32" s="125"/>
-      <c r="CH32" s="125"/>
-      <c r="CI32" s="125"/>
-      <c r="CJ32" s="126"/>
+      <c r="CA32" s="49"/>
+      <c r="CB32" s="50"/>
+      <c r="CC32" s="50"/>
+      <c r="CD32" s="50"/>
+      <c r="CE32" s="50"/>
+      <c r="CF32" s="50"/>
+      <c r="CG32" s="50"/>
+      <c r="CH32" s="50"/>
+      <c r="CI32" s="50"/>
+      <c r="CJ32" s="51"/>
       <c r="CK32" s="23"/>
       <c r="CL32" s="26"/>
     </row>
@@ -8033,13 +8411,13 @@
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
+      <c r="M33" s="124"/>
       <c r="N33" s="26"/>
       <c r="O33" s="26"/>
       <c r="P33" s="26"/>
@@ -8060,38 +8438,38 @@
       <c r="AE33" s="26"/>
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
-      <c r="AH33" s="42"/>
-      <c r="AI33" s="42"/>
-      <c r="AJ33" s="42"/>
-      <c r="AK33" s="42"/>
-      <c r="AL33" s="42"/>
-      <c r="AM33" s="42"/>
-      <c r="AN33" s="42"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="53"/>
+      <c r="AJ33" s="53"/>
+      <c r="AK33" s="53"/>
+      <c r="AL33" s="53"/>
+      <c r="AM33" s="53"/>
+      <c r="AN33" s="53"/>
       <c r="AO33" s="26"/>
       <c r="AP33" s="26"/>
       <c r="AQ33" s="26"/>
       <c r="AU33" s="26"/>
       <c r="AV33" s="23"/>
       <c r="AW33" s="23"/>
-      <c r="AX33" s="109"/>
-      <c r="AY33" s="110"/>
-      <c r="AZ33" s="110"/>
-      <c r="BA33" s="110"/>
-      <c r="BB33" s="110"/>
-      <c r="BC33" s="110"/>
-      <c r="BD33" s="110"/>
-      <c r="BE33" s="111"/>
+      <c r="AX33" s="105"/>
+      <c r="AY33" s="106"/>
+      <c r="AZ33" s="106"/>
+      <c r="BA33" s="106"/>
+      <c r="BB33" s="106"/>
+      <c r="BC33" s="106"/>
+      <c r="BD33" s="106"/>
+      <c r="BE33" s="107"/>
       <c r="BF33" s="23"/>
       <c r="BG33" s="23"/>
       <c r="BH33" s="26"/>
       <c r="BJ33" s="26"/>
       <c r="BK33" s="23"/>
       <c r="BL33" s="23"/>
-      <c r="BM33" s="118"/>
-      <c r="BN33" s="118"/>
+      <c r="BM33" s="43"/>
+      <c r="BN33" s="43"/>
       <c r="BO33" s="23"/>
-      <c r="BP33" s="118"/>
-      <c r="BQ33" s="118"/>
+      <c r="BP33" s="43"/>
+      <c r="BQ33" s="43"/>
       <c r="BR33" s="23"/>
       <c r="BS33" s="23"/>
       <c r="BT33" s="23"/>
@@ -8157,14 +8535,14 @@
       <c r="AU34" s="23"/>
       <c r="AV34" s="23"/>
       <c r="AW34" s="23"/>
-      <c r="AX34" s="109"/>
-      <c r="AY34" s="110"/>
-      <c r="AZ34" s="110"/>
-      <c r="BA34" s="110"/>
-      <c r="BB34" s="110"/>
-      <c r="BC34" s="110"/>
-      <c r="BD34" s="110"/>
-      <c r="BE34" s="111"/>
+      <c r="AX34" s="105"/>
+      <c r="AY34" s="106"/>
+      <c r="AZ34" s="106"/>
+      <c r="BA34" s="106"/>
+      <c r="BB34" s="106"/>
+      <c r="BC34" s="106"/>
+      <c r="BD34" s="106"/>
+      <c r="BE34" s="107"/>
       <c r="BF34" s="23"/>
       <c r="BG34" s="23"/>
       <c r="BH34" s="23"/>
@@ -8174,11 +8552,11 @@
       <c r="BM34" s="23"/>
       <c r="BN34" s="23"/>
       <c r="BO34" s="23"/>
-      <c r="BP34" s="118"/>
-      <c r="BQ34" s="118"/>
+      <c r="BP34" s="43"/>
+      <c r="BQ34" s="43"/>
       <c r="BR34" s="23"/>
-      <c r="BS34" s="118"/>
-      <c r="BT34" s="118"/>
+      <c r="BS34" s="43"/>
+      <c r="BT34" s="43"/>
       <c r="BU34" s="23"/>
       <c r="BV34" s="23"/>
       <c r="BW34" s="23"/>
@@ -8241,14 +8619,14 @@
       <c r="AU35" s="23"/>
       <c r="AV35" s="23"/>
       <c r="AW35" s="23"/>
-      <c r="AX35" s="109"/>
-      <c r="AY35" s="110"/>
-      <c r="AZ35" s="110"/>
-      <c r="BA35" s="110"/>
-      <c r="BB35" s="110"/>
-      <c r="BC35" s="110"/>
-      <c r="BD35" s="110"/>
-      <c r="BE35" s="111"/>
+      <c r="AX35" s="105"/>
+      <c r="AY35" s="106"/>
+      <c r="AZ35" s="106"/>
+      <c r="BA35" s="106"/>
+      <c r="BB35" s="106"/>
+      <c r="BC35" s="106"/>
+      <c r="BD35" s="106"/>
+      <c r="BE35" s="107"/>
       <c r="BF35" s="23"/>
       <c r="BG35" s="23"/>
       <c r="BH35" s="23"/>
@@ -8261,8 +8639,8 @@
       <c r="BP35" s="23"/>
       <c r="BQ35" s="23"/>
       <c r="BR35" s="23"/>
-      <c r="BS35" s="118"/>
-      <c r="BT35" s="118"/>
+      <c r="BS35" s="43"/>
+      <c r="BT35" s="43"/>
       <c r="BU35" s="23"/>
       <c r="BV35" s="23"/>
       <c r="BW35" s="23"/>
@@ -8311,14 +8689,14 @@
       <c r="AU36" s="23"/>
       <c r="AV36" s="23"/>
       <c r="AW36" s="23"/>
-      <c r="AX36" s="109"/>
-      <c r="AY36" s="110"/>
-      <c r="AZ36" s="110"/>
-      <c r="BA36" s="110"/>
-      <c r="BB36" s="110"/>
-      <c r="BC36" s="110"/>
-      <c r="BD36" s="110"/>
-      <c r="BE36" s="111"/>
+      <c r="AX36" s="105"/>
+      <c r="AY36" s="106"/>
+      <c r="AZ36" s="106"/>
+      <c r="BA36" s="106"/>
+      <c r="BB36" s="106"/>
+      <c r="BC36" s="106"/>
+      <c r="BD36" s="106"/>
+      <c r="BE36" s="107"/>
       <c r="BF36" s="23"/>
       <c r="BG36" s="23"/>
       <c r="BH36" s="23"/>
@@ -8326,8 +8704,8 @@
       <c r="BK36" s="23"/>
       <c r="BL36" s="23"/>
       <c r="BM36" s="23"/>
-      <c r="BN36" s="118"/>
-      <c r="BO36" s="118"/>
+      <c r="BN36" s="43"/>
+      <c r="BO36" s="43"/>
       <c r="BP36" s="23"/>
       <c r="BQ36" s="23"/>
       <c r="BR36" s="23"/>
@@ -8341,14 +8719,14 @@
       <c r="AU37" s="23"/>
       <c r="AV37" s="23"/>
       <c r="AW37" s="23"/>
-      <c r="AX37" s="109"/>
-      <c r="AY37" s="110"/>
-      <c r="AZ37" s="110"/>
-      <c r="BA37" s="110"/>
-      <c r="BB37" s="110"/>
-      <c r="BC37" s="110"/>
-      <c r="BD37" s="110"/>
-      <c r="BE37" s="111"/>
+      <c r="AX37" s="105"/>
+      <c r="AY37" s="106"/>
+      <c r="AZ37" s="106"/>
+      <c r="BA37" s="106"/>
+      <c r="BB37" s="106"/>
+      <c r="BC37" s="106"/>
+      <c r="BD37" s="106"/>
+      <c r="BE37" s="107"/>
       <c r="BF37" s="23"/>
       <c r="BG37" s="23"/>
       <c r="BH37" s="23"/>
@@ -8356,8 +8734,8 @@
       <c r="BK37" s="23"/>
       <c r="BL37" s="23"/>
       <c r="BM37" s="23"/>
-      <c r="BN37" s="118"/>
-      <c r="BO37" s="118"/>
+      <c r="BN37" s="43"/>
+      <c r="BO37" s="43"/>
       <c r="BP37" s="23"/>
       <c r="BQ37" s="23"/>
       <c r="BR37" s="23"/>
@@ -8368,56 +8746,56 @@
       <c r="BW37" s="23"/>
     </row>
     <row r="38" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="79" t="s">
+      <c r="D38" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
-      <c r="W38" s="79"/>
-      <c r="X38" s="79"/>
-      <c r="Y38" s="79"/>
-      <c r="Z38" s="79"/>
-      <c r="AA38" s="79"/>
-      <c r="AB38" s="79"/>
-      <c r="AC38" s="79"/>
-      <c r="AD38" s="79"/>
-      <c r="AE38" s="79"/>
-      <c r="AF38" s="79"/>
-      <c r="AG38" s="79"/>
-      <c r="AH38" s="79"/>
-      <c r="AI38" s="79"/>
-      <c r="AJ38" s="79"/>
-      <c r="AK38" s="79"/>
-      <c r="AL38" s="79"/>
-      <c r="AM38" s="79"/>
-      <c r="AN38" s="79"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="94"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94"/>
+      <c r="S38" s="94"/>
+      <c r="T38" s="94"/>
+      <c r="U38" s="94"/>
+      <c r="V38" s="94"/>
+      <c r="W38" s="94"/>
+      <c r="X38" s="94"/>
+      <c r="Y38" s="94"/>
+      <c r="Z38" s="94"/>
+      <c r="AA38" s="94"/>
+      <c r="AB38" s="94"/>
+      <c r="AC38" s="94"/>
+      <c r="AD38" s="94"/>
+      <c r="AE38" s="94"/>
+      <c r="AF38" s="94"/>
+      <c r="AG38" s="94"/>
+      <c r="AH38" s="94"/>
+      <c r="AI38" s="94"/>
+      <c r="AJ38" s="94"/>
+      <c r="AK38" s="94"/>
+      <c r="AL38" s="94"/>
+      <c r="AM38" s="94"/>
+      <c r="AN38" s="94"/>
       <c r="AU38" s="26"/>
       <c r="AV38" s="23"/>
       <c r="AW38" s="23"/>
-      <c r="AX38" s="109"/>
-      <c r="AY38" s="110"/>
-      <c r="AZ38" s="110"/>
-      <c r="BA38" s="110"/>
-      <c r="BB38" s="110"/>
-      <c r="BC38" s="110"/>
-      <c r="BD38" s="110"/>
-      <c r="BE38" s="111"/>
+      <c r="AX38" s="105"/>
+      <c r="AY38" s="106"/>
+      <c r="AZ38" s="106"/>
+      <c r="BA38" s="106"/>
+      <c r="BB38" s="106"/>
+      <c r="BC38" s="106"/>
+      <c r="BD38" s="106"/>
+      <c r="BE38" s="107"/>
       <c r="BF38" s="23"/>
       <c r="BG38" s="23"/>
       <c r="BH38" s="26"/>
@@ -8428,8 +8806,8 @@
       <c r="BN38" s="23"/>
       <c r="BO38" s="23"/>
       <c r="BP38" s="23"/>
-      <c r="BQ38" s="118"/>
-      <c r="BR38" s="118"/>
+      <c r="BQ38" s="43"/>
+      <c r="BR38" s="43"/>
       <c r="BS38" s="23"/>
       <c r="BT38" s="23"/>
       <c r="BU38" s="23"/>
@@ -8440,62 +8818,62 @@
       <c r="D39" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="78" t="s">
+      <c r="E39" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78" t="s">
+      <c r="F39" s="90"/>
+      <c r="G39" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="78"/>
-      <c r="Q39" s="78"/>
-      <c r="R39" s="78"/>
-      <c r="S39" s="78"/>
-      <c r="T39" s="78"/>
-      <c r="U39" s="78"/>
-      <c r="V39" s="78"/>
-      <c r="W39" s="78"/>
-      <c r="X39" s="78"/>
-      <c r="Y39" s="78"/>
-      <c r="Z39" s="78"/>
-      <c r="AA39" s="78"/>
-      <c r="AB39" s="78"/>
-      <c r="AC39" s="78"/>
-      <c r="AD39" s="78"/>
-      <c r="AE39" s="78"/>
-      <c r="AF39" s="78"/>
-      <c r="AG39" s="78"/>
-      <c r="AH39" s="78" t="s">
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
+      <c r="T39" s="90"/>
+      <c r="U39" s="90"/>
+      <c r="V39" s="90"/>
+      <c r="W39" s="90"/>
+      <c r="X39" s="90"/>
+      <c r="Y39" s="90"/>
+      <c r="Z39" s="90"/>
+      <c r="AA39" s="90"/>
+      <c r="AB39" s="90"/>
+      <c r="AC39" s="90"/>
+      <c r="AD39" s="90"/>
+      <c r="AE39" s="90"/>
+      <c r="AF39" s="90"/>
+      <c r="AG39" s="90"/>
+      <c r="AH39" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="AI39" s="78"/>
-      <c r="AJ39" s="78"/>
-      <c r="AK39" s="78"/>
-      <c r="AL39" s="78"/>
-      <c r="AM39" s="78"/>
-      <c r="AN39" s="78"/>
+      <c r="AI39" s="90"/>
+      <c r="AJ39" s="90"/>
+      <c r="AK39" s="90"/>
+      <c r="AL39" s="90"/>
+      <c r="AM39" s="90"/>
+      <c r="AN39" s="90"/>
       <c r="AO39" s="31"/>
       <c r="AP39" s="31"/>
       <c r="AQ39" s="31"/>
       <c r="AU39" s="26"/>
       <c r="AV39" s="23"/>
       <c r="AW39" s="23"/>
-      <c r="AX39" s="112"/>
-      <c r="AY39" s="113"/>
-      <c r="AZ39" s="113"/>
-      <c r="BA39" s="113"/>
-      <c r="BB39" s="113"/>
-      <c r="BC39" s="113"/>
-      <c r="BD39" s="113"/>
-      <c r="BE39" s="114"/>
+      <c r="AX39" s="108"/>
+      <c r="AY39" s="109"/>
+      <c r="AZ39" s="109"/>
+      <c r="BA39" s="109"/>
+      <c r="BB39" s="109"/>
+      <c r="BC39" s="109"/>
+      <c r="BD39" s="109"/>
+      <c r="BE39" s="110"/>
       <c r="BF39" s="23"/>
       <c r="BG39" s="23"/>
       <c r="BH39" s="26"/>
@@ -8506,8 +8884,8 @@
       <c r="BN39" s="23"/>
       <c r="BO39" s="23"/>
       <c r="BP39" s="23"/>
-      <c r="BQ39" s="118"/>
-      <c r="BR39" s="118"/>
+      <c r="BQ39" s="43"/>
+      <c r="BR39" s="43"/>
       <c r="BS39" s="23"/>
       <c r="BT39" s="23"/>
       <c r="BU39" s="23"/>
@@ -8518,48 +8896,48 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="78" t="s">
+      <c r="E40" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="78"/>
-      <c r="G40" s="80" t="s">
+      <c r="F40" s="90"/>
+      <c r="G40" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
-      <c r="Q40" s="78"/>
-      <c r="R40" s="78"/>
-      <c r="S40" s="78"/>
-      <c r="T40" s="78"/>
-      <c r="U40" s="78"/>
-      <c r="V40" s="78"/>
-      <c r="W40" s="78"/>
-      <c r="X40" s="78"/>
-      <c r="Y40" s="78"/>
-      <c r="Z40" s="78"/>
-      <c r="AA40" s="78"/>
-      <c r="AB40" s="78"/>
-      <c r="AC40" s="78"/>
-      <c r="AD40" s="78"/>
-      <c r="AE40" s="78"/>
-      <c r="AF40" s="78"/>
-      <c r="AG40" s="78"/>
-      <c r="AH40" s="78" t="s">
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="90"/>
+      <c r="Q40" s="90"/>
+      <c r="R40" s="90"/>
+      <c r="S40" s="90"/>
+      <c r="T40" s="90"/>
+      <c r="U40" s="90"/>
+      <c r="V40" s="90"/>
+      <c r="W40" s="90"/>
+      <c r="X40" s="90"/>
+      <c r="Y40" s="90"/>
+      <c r="Z40" s="90"/>
+      <c r="AA40" s="90"/>
+      <c r="AB40" s="90"/>
+      <c r="AC40" s="90"/>
+      <c r="AD40" s="90"/>
+      <c r="AE40" s="90"/>
+      <c r="AF40" s="90"/>
+      <c r="AG40" s="90"/>
+      <c r="AH40" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="AI40" s="78"/>
-      <c r="AJ40" s="78"/>
-      <c r="AK40" s="78"/>
-      <c r="AL40" s="78"/>
-      <c r="AM40" s="78"/>
-      <c r="AN40" s="78"/>
+      <c r="AI40" s="90"/>
+      <c r="AJ40" s="90"/>
+      <c r="AK40" s="90"/>
+      <c r="AL40" s="90"/>
+      <c r="AM40" s="90"/>
+      <c r="AN40" s="90"/>
       <c r="AU40" s="26"/>
       <c r="AV40" s="23"/>
       <c r="AW40" s="23"/>
@@ -8593,48 +8971,48 @@
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="E41" s="78" t="s">
+      <c r="E41" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78" t="s">
+      <c r="F41" s="90"/>
+      <c r="G41" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
-      <c r="Q41" s="78"/>
-      <c r="R41" s="78"/>
-      <c r="S41" s="78"/>
-      <c r="T41" s="78"/>
-      <c r="U41" s="78"/>
-      <c r="V41" s="78"/>
-      <c r="W41" s="78"/>
-      <c r="X41" s="78"/>
-      <c r="Y41" s="78"/>
-      <c r="Z41" s="78"/>
-      <c r="AA41" s="78"/>
-      <c r="AB41" s="78"/>
-      <c r="AC41" s="78"/>
-      <c r="AD41" s="78"/>
-      <c r="AE41" s="78"/>
-      <c r="AF41" s="78"/>
-      <c r="AG41" s="78"/>
-      <c r="AH41" s="78" t="s">
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="90"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="90"/>
+      <c r="S41" s="90"/>
+      <c r="T41" s="90"/>
+      <c r="U41" s="90"/>
+      <c r="V41" s="90"/>
+      <c r="W41" s="90"/>
+      <c r="X41" s="90"/>
+      <c r="Y41" s="90"/>
+      <c r="Z41" s="90"/>
+      <c r="AA41" s="90"/>
+      <c r="AB41" s="90"/>
+      <c r="AC41" s="90"/>
+      <c r="AD41" s="90"/>
+      <c r="AE41" s="90"/>
+      <c r="AF41" s="90"/>
+      <c r="AG41" s="90"/>
+      <c r="AH41" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="AI41" s="78"/>
-      <c r="AJ41" s="78"/>
-      <c r="AK41" s="78"/>
-      <c r="AL41" s="78"/>
-      <c r="AM41" s="78"/>
-      <c r="AN41" s="78"/>
+      <c r="AI41" s="90"/>
+      <c r="AJ41" s="90"/>
+      <c r="AK41" s="90"/>
+      <c r="AL41" s="90"/>
+      <c r="AM41" s="90"/>
+      <c r="AN41" s="90"/>
       <c r="AU41" s="26"/>
       <c r="AV41" s="23"/>
       <c r="AW41" s="23"/>
@@ -8668,48 +9046,48 @@
       <c r="D42">
         <v>3</v>
       </c>
-      <c r="E42" s="78" t="s">
+      <c r="E42" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78" t="s">
+      <c r="F42" s="90"/>
+      <c r="G42" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
-      <c r="Q42" s="78"/>
-      <c r="R42" s="78"/>
-      <c r="S42" s="78"/>
-      <c r="T42" s="78"/>
-      <c r="U42" s="78"/>
-      <c r="V42" s="78"/>
-      <c r="W42" s="78"/>
-      <c r="X42" s="78"/>
-      <c r="Y42" s="78"/>
-      <c r="Z42" s="78"/>
-      <c r="AA42" s="78"/>
-      <c r="AB42" s="78"/>
-      <c r="AC42" s="78"/>
-      <c r="AD42" s="78"/>
-      <c r="AE42" s="78"/>
-      <c r="AF42" s="78"/>
-      <c r="AG42" s="78"/>
-      <c r="AH42" s="78" t="s">
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="90"/>
+      <c r="P42" s="90"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="90"/>
+      <c r="T42" s="90"/>
+      <c r="U42" s="90"/>
+      <c r="V42" s="90"/>
+      <c r="W42" s="90"/>
+      <c r="X42" s="90"/>
+      <c r="Y42" s="90"/>
+      <c r="Z42" s="90"/>
+      <c r="AA42" s="90"/>
+      <c r="AB42" s="90"/>
+      <c r="AC42" s="90"/>
+      <c r="AD42" s="90"/>
+      <c r="AE42" s="90"/>
+      <c r="AF42" s="90"/>
+      <c r="AG42" s="90"/>
+      <c r="AH42" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="AI42" s="78"/>
-      <c r="AJ42" s="78"/>
-      <c r="AK42" s="78"/>
-      <c r="AL42" s="78"/>
-      <c r="AM42" s="78"/>
-      <c r="AN42" s="78"/>
+      <c r="AI42" s="90"/>
+      <c r="AJ42" s="90"/>
+      <c r="AK42" s="90"/>
+      <c r="AL42" s="90"/>
+      <c r="AM42" s="90"/>
+      <c r="AN42" s="90"/>
       <c r="AU42" s="26"/>
       <c r="AV42" s="26"/>
       <c r="AW42" s="26"/>
@@ -8743,1670 +9121,1740 @@
       <c r="D43">
         <v>4</v>
       </c>
-      <c r="E43" s="78" t="s">
+      <c r="E43" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78" t="s">
+      <c r="F43" s="90"/>
+      <c r="G43" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
-      <c r="Q43" s="78"/>
-      <c r="R43" s="78"/>
-      <c r="S43" s="78"/>
-      <c r="T43" s="78"/>
-      <c r="U43" s="78"/>
-      <c r="V43" s="78"/>
-      <c r="W43" s="78"/>
-      <c r="X43" s="78"/>
-      <c r="Y43" s="78"/>
-      <c r="Z43" s="78"/>
-      <c r="AA43" s="78"/>
-      <c r="AB43" s="78"/>
-      <c r="AC43" s="78"/>
-      <c r="AD43" s="78"/>
-      <c r="AE43" s="78"/>
-      <c r="AF43" s="78"/>
-      <c r="AG43" s="78"/>
-      <c r="AH43" s="78" t="s">
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="90"/>
+      <c r="N43" s="90"/>
+      <c r="O43" s="90"/>
+      <c r="P43" s="90"/>
+      <c r="Q43" s="90"/>
+      <c r="R43" s="90"/>
+      <c r="S43" s="90"/>
+      <c r="T43" s="90"/>
+      <c r="U43" s="90"/>
+      <c r="V43" s="90"/>
+      <c r="W43" s="90"/>
+      <c r="X43" s="90"/>
+      <c r="Y43" s="90"/>
+      <c r="Z43" s="90"/>
+      <c r="AA43" s="90"/>
+      <c r="AB43" s="90"/>
+      <c r="AC43" s="90"/>
+      <c r="AD43" s="90"/>
+      <c r="AE43" s="90"/>
+      <c r="AF43" s="90"/>
+      <c r="AG43" s="90"/>
+      <c r="AH43" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="AI43" s="78"/>
-      <c r="AJ43" s="78"/>
-      <c r="AK43" s="78"/>
-      <c r="AL43" s="78"/>
-      <c r="AM43" s="78"/>
-      <c r="AN43" s="78"/>
+      <c r="AI43" s="90"/>
+      <c r="AJ43" s="90"/>
+      <c r="AK43" s="90"/>
+      <c r="AL43" s="90"/>
+      <c r="AM43" s="90"/>
+      <c r="AN43" s="90"/>
     </row>
     <row r="44" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D44">
         <v>5</v>
       </c>
-      <c r="E44" s="78" t="s">
+      <c r="E44" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78" t="s">
+      <c r="F44" s="90"/>
+      <c r="G44" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="78"/>
-      <c r="P44" s="78"/>
-      <c r="Q44" s="78"/>
-      <c r="R44" s="78"/>
-      <c r="S44" s="78"/>
-      <c r="T44" s="78"/>
-      <c r="U44" s="78"/>
-      <c r="V44" s="78"/>
-      <c r="W44" s="78"/>
-      <c r="X44" s="78"/>
-      <c r="Y44" s="78"/>
-      <c r="Z44" s="78"/>
-      <c r="AA44" s="78"/>
-      <c r="AB44" s="78"/>
-      <c r="AC44" s="78"/>
-      <c r="AD44" s="78"/>
-      <c r="AE44" s="78"/>
-      <c r="AF44" s="78"/>
-      <c r="AG44" s="78"/>
-      <c r="AH44" s="78" t="s">
+      <c r="H44" s="90"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="90"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="90"/>
+      <c r="O44" s="90"/>
+      <c r="P44" s="90"/>
+      <c r="Q44" s="90"/>
+      <c r="R44" s="90"/>
+      <c r="S44" s="90"/>
+      <c r="T44" s="90"/>
+      <c r="U44" s="90"/>
+      <c r="V44" s="90"/>
+      <c r="W44" s="90"/>
+      <c r="X44" s="90"/>
+      <c r="Y44" s="90"/>
+      <c r="Z44" s="90"/>
+      <c r="AA44" s="90"/>
+      <c r="AB44" s="90"/>
+      <c r="AC44" s="90"/>
+      <c r="AD44" s="90"/>
+      <c r="AE44" s="90"/>
+      <c r="AF44" s="90"/>
+      <c r="AG44" s="90"/>
+      <c r="AH44" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="AI44" s="78"/>
-      <c r="AJ44" s="78"/>
-      <c r="AK44" s="78"/>
-      <c r="AL44" s="78"/>
-      <c r="AM44" s="78"/>
-      <c r="AN44" s="78"/>
+      <c r="AI44" s="90"/>
+      <c r="AJ44" s="90"/>
+      <c r="AK44" s="90"/>
+      <c r="AL44" s="90"/>
+      <c r="AM44" s="90"/>
+      <c r="AN44" s="90"/>
     </row>
     <row r="45" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45">
         <v>6</v>
       </c>
-      <c r="E45" s="78" t="s">
+      <c r="E45" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="78"/>
-      <c r="G45" s="80" t="s">
+      <c r="F45" s="90"/>
+      <c r="G45" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="78"/>
-      <c r="P45" s="78"/>
-      <c r="Q45" s="78"/>
-      <c r="R45" s="78"/>
-      <c r="S45" s="78"/>
-      <c r="T45" s="78"/>
-      <c r="U45" s="78"/>
-      <c r="V45" s="78"/>
-      <c r="W45" s="78"/>
-      <c r="X45" s="78"/>
-      <c r="Y45" s="78"/>
-      <c r="Z45" s="78"/>
-      <c r="AA45" s="78"/>
-      <c r="AB45" s="78"/>
-      <c r="AC45" s="78"/>
-      <c r="AD45" s="78"/>
-      <c r="AE45" s="78"/>
-      <c r="AF45" s="78"/>
-      <c r="AG45" s="78"/>
-      <c r="AH45" s="78" t="s">
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="90"/>
+      <c r="N45" s="90"/>
+      <c r="O45" s="90"/>
+      <c r="P45" s="90"/>
+      <c r="Q45" s="90"/>
+      <c r="R45" s="90"/>
+      <c r="S45" s="90"/>
+      <c r="T45" s="90"/>
+      <c r="U45" s="90"/>
+      <c r="V45" s="90"/>
+      <c r="W45" s="90"/>
+      <c r="X45" s="90"/>
+      <c r="Y45" s="90"/>
+      <c r="Z45" s="90"/>
+      <c r="AA45" s="90"/>
+      <c r="AB45" s="90"/>
+      <c r="AC45" s="90"/>
+      <c r="AD45" s="90"/>
+      <c r="AE45" s="90"/>
+      <c r="AF45" s="90"/>
+      <c r="AG45" s="90"/>
+      <c r="AH45" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="AI45" s="78"/>
-      <c r="AJ45" s="78"/>
-      <c r="AK45" s="78"/>
-      <c r="AL45" s="78"/>
-      <c r="AM45" s="78"/>
-      <c r="AN45" s="78"/>
+      <c r="AI45" s="90"/>
+      <c r="AJ45" s="90"/>
+      <c r="AK45" s="90"/>
+      <c r="AL45" s="90"/>
+      <c r="AM45" s="90"/>
+      <c r="AN45" s="90"/>
     </row>
     <row r="46" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46">
         <v>7</v>
       </c>
-      <c r="E46" s="78" t="s">
+      <c r="E46" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="78"/>
-      <c r="G46" s="80" t="s">
+      <c r="F46" s="90"/>
+      <c r="G46" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="78"/>
-      <c r="P46" s="78"/>
-      <c r="Q46" s="78"/>
-      <c r="R46" s="78"/>
-      <c r="S46" s="78"/>
-      <c r="T46" s="78"/>
-      <c r="U46" s="78"/>
-      <c r="V46" s="78"/>
-      <c r="W46" s="78"/>
-      <c r="X46" s="78"/>
-      <c r="Y46" s="78"/>
-      <c r="Z46" s="78"/>
-      <c r="AA46" s="78"/>
-      <c r="AB46" s="78"/>
-      <c r="AC46" s="78"/>
-      <c r="AD46" s="78"/>
-      <c r="AE46" s="78"/>
-      <c r="AF46" s="78"/>
-      <c r="AG46" s="78"/>
-      <c r="AH46" s="78" t="s">
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="90"/>
+      <c r="P46" s="90"/>
+      <c r="Q46" s="90"/>
+      <c r="R46" s="90"/>
+      <c r="S46" s="90"/>
+      <c r="T46" s="90"/>
+      <c r="U46" s="90"/>
+      <c r="V46" s="90"/>
+      <c r="W46" s="90"/>
+      <c r="X46" s="90"/>
+      <c r="Y46" s="90"/>
+      <c r="Z46" s="90"/>
+      <c r="AA46" s="90"/>
+      <c r="AB46" s="90"/>
+      <c r="AC46" s="90"/>
+      <c r="AD46" s="90"/>
+      <c r="AE46" s="90"/>
+      <c r="AF46" s="90"/>
+      <c r="AG46" s="90"/>
+      <c r="AH46" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="AI46" s="78"/>
-      <c r="AJ46" s="78"/>
-      <c r="AK46" s="78"/>
-      <c r="AL46" s="78"/>
-      <c r="AM46" s="78"/>
-      <c r="AN46" s="78"/>
+      <c r="AI46" s="90"/>
+      <c r="AJ46" s="90"/>
+      <c r="AK46" s="90"/>
+      <c r="AL46" s="90"/>
+      <c r="AM46" s="90"/>
+      <c r="AN46" s="90"/>
     </row>
     <row r="47" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47">
         <v>8</v>
       </c>
-      <c r="E47" s="78" t="s">
+      <c r="E47" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78" t="s">
+      <c r="F47" s="90"/>
+      <c r="G47" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="78"/>
-      <c r="N47" s="78"/>
-      <c r="O47" s="78"/>
-      <c r="P47" s="78"/>
-      <c r="Q47" s="78"/>
-      <c r="R47" s="78"/>
-      <c r="S47" s="78"/>
-      <c r="T47" s="78"/>
-      <c r="U47" s="78"/>
-      <c r="V47" s="78"/>
-      <c r="W47" s="78"/>
-      <c r="X47" s="78"/>
-      <c r="Y47" s="78"/>
-      <c r="Z47" s="78"/>
-      <c r="AA47" s="78"/>
-      <c r="AB47" s="78"/>
-      <c r="AC47" s="78"/>
-      <c r="AD47" s="78"/>
-      <c r="AE47" s="78"/>
-      <c r="AF47" s="78"/>
-      <c r="AG47" s="78"/>
-      <c r="AH47" s="78" t="s">
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="90"/>
+      <c r="Q47" s="90"/>
+      <c r="R47" s="90"/>
+      <c r="S47" s="90"/>
+      <c r="T47" s="90"/>
+      <c r="U47" s="90"/>
+      <c r="V47" s="90"/>
+      <c r="W47" s="90"/>
+      <c r="X47" s="90"/>
+      <c r="Y47" s="90"/>
+      <c r="Z47" s="90"/>
+      <c r="AA47" s="90"/>
+      <c r="AB47" s="90"/>
+      <c r="AC47" s="90"/>
+      <c r="AD47" s="90"/>
+      <c r="AE47" s="90"/>
+      <c r="AF47" s="90"/>
+      <c r="AG47" s="90"/>
+      <c r="AH47" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="AI47" s="78"/>
-      <c r="AJ47" s="78"/>
-      <c r="AK47" s="78"/>
-      <c r="AL47" s="78"/>
-      <c r="AM47" s="78"/>
-      <c r="AN47" s="78"/>
+      <c r="AI47" s="90"/>
+      <c r="AJ47" s="90"/>
+      <c r="AK47" s="90"/>
+      <c r="AL47" s="90"/>
+      <c r="AM47" s="90"/>
+      <c r="AN47" s="90"/>
     </row>
     <row r="48" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48">
         <v>9</v>
       </c>
-      <c r="E48" s="78" t="s">
+      <c r="E48" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78" t="s">
+      <c r="F48" s="90"/>
+      <c r="G48" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="78"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="78"/>
-      <c r="O48" s="78"/>
-      <c r="P48" s="78"/>
-      <c r="Q48" s="78"/>
-      <c r="R48" s="78"/>
-      <c r="S48" s="78"/>
-      <c r="T48" s="78"/>
-      <c r="U48" s="78"/>
-      <c r="V48" s="78"/>
-      <c r="W48" s="78"/>
-      <c r="X48" s="78"/>
-      <c r="Y48" s="78"/>
-      <c r="Z48" s="78"/>
-      <c r="AA48" s="78"/>
-      <c r="AB48" s="78"/>
-      <c r="AC48" s="78"/>
-      <c r="AD48" s="78"/>
-      <c r="AE48" s="78"/>
-      <c r="AF48" s="78"/>
-      <c r="AG48" s="78"/>
-      <c r="AH48" s="78" t="s">
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="90"/>
+      <c r="O48" s="90"/>
+      <c r="P48" s="90"/>
+      <c r="Q48" s="90"/>
+      <c r="R48" s="90"/>
+      <c r="S48" s="90"/>
+      <c r="T48" s="90"/>
+      <c r="U48" s="90"/>
+      <c r="V48" s="90"/>
+      <c r="W48" s="90"/>
+      <c r="X48" s="90"/>
+      <c r="Y48" s="90"/>
+      <c r="Z48" s="90"/>
+      <c r="AA48" s="90"/>
+      <c r="AB48" s="90"/>
+      <c r="AC48" s="90"/>
+      <c r="AD48" s="90"/>
+      <c r="AE48" s="90"/>
+      <c r="AF48" s="90"/>
+      <c r="AG48" s="90"/>
+      <c r="AH48" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="AI48" s="78"/>
-      <c r="AJ48" s="78"/>
-      <c r="AK48" s="78"/>
-      <c r="AL48" s="78"/>
-      <c r="AM48" s="78"/>
-      <c r="AN48" s="78"/>
+      <c r="AI48" s="90"/>
+      <c r="AJ48" s="90"/>
+      <c r="AK48" s="90"/>
+      <c r="AL48" s="90"/>
+      <c r="AM48" s="90"/>
+      <c r="AN48" s="90"/>
     </row>
     <row r="49" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49">
         <v>10</v>
       </c>
-      <c r="E49" s="78" t="s">
+      <c r="E49" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78" t="s">
+      <c r="F49" s="90"/>
+      <c r="G49" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
-      <c r="Q49" s="78"/>
-      <c r="R49" s="78"/>
-      <c r="S49" s="78"/>
-      <c r="T49" s="78"/>
-      <c r="U49" s="78"/>
-      <c r="V49" s="78"/>
-      <c r="W49" s="78"/>
-      <c r="X49" s="78"/>
-      <c r="Y49" s="78"/>
-      <c r="Z49" s="78"/>
-      <c r="AA49" s="78"/>
-      <c r="AB49" s="78"/>
-      <c r="AC49" s="78"/>
-      <c r="AD49" s="78"/>
-      <c r="AE49" s="78"/>
-      <c r="AF49" s="78"/>
-      <c r="AG49" s="78"/>
-      <c r="AH49" s="78" t="s">
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="90"/>
+      <c r="N49" s="90"/>
+      <c r="O49" s="90"/>
+      <c r="P49" s="90"/>
+      <c r="Q49" s="90"/>
+      <c r="R49" s="90"/>
+      <c r="S49" s="90"/>
+      <c r="T49" s="90"/>
+      <c r="U49" s="90"/>
+      <c r="V49" s="90"/>
+      <c r="W49" s="90"/>
+      <c r="X49" s="90"/>
+      <c r="Y49" s="90"/>
+      <c r="Z49" s="90"/>
+      <c r="AA49" s="90"/>
+      <c r="AB49" s="90"/>
+      <c r="AC49" s="90"/>
+      <c r="AD49" s="90"/>
+      <c r="AE49" s="90"/>
+      <c r="AF49" s="90"/>
+      <c r="AG49" s="90"/>
+      <c r="AH49" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="AI49" s="78"/>
-      <c r="AJ49" s="78"/>
-      <c r="AK49" s="78"/>
-      <c r="AL49" s="78"/>
-      <c r="AM49" s="78"/>
-      <c r="AN49" s="78"/>
+      <c r="AI49" s="90"/>
+      <c r="AJ49" s="90"/>
+      <c r="AK49" s="90"/>
+      <c r="AL49" s="90"/>
+      <c r="AM49" s="90"/>
+      <c r="AN49" s="90"/>
     </row>
     <row r="50" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50">
         <v>11</v>
       </c>
-      <c r="E50" s="78" t="s">
+      <c r="E50" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="78"/>
-      <c r="G50" s="80" t="s">
+      <c r="F50" s="90"/>
+      <c r="G50" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="78"/>
-      <c r="Q50" s="78"/>
-      <c r="R50" s="78"/>
-      <c r="S50" s="78"/>
-      <c r="T50" s="78"/>
-      <c r="U50" s="78"/>
-      <c r="V50" s="78"/>
-      <c r="W50" s="78"/>
-      <c r="X50" s="78"/>
-      <c r="Y50" s="78"/>
-      <c r="Z50" s="78"/>
-      <c r="AA50" s="78"/>
-      <c r="AB50" s="78"/>
-      <c r="AC50" s="78"/>
-      <c r="AD50" s="78"/>
-      <c r="AE50" s="78"/>
-      <c r="AF50" s="78"/>
-      <c r="AG50" s="78"/>
-      <c r="AH50" s="78" t="s">
+      <c r="H50" s="90"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="90"/>
+      <c r="N50" s="90"/>
+      <c r="O50" s="90"/>
+      <c r="P50" s="90"/>
+      <c r="Q50" s="90"/>
+      <c r="R50" s="90"/>
+      <c r="S50" s="90"/>
+      <c r="T50" s="90"/>
+      <c r="U50" s="90"/>
+      <c r="V50" s="90"/>
+      <c r="W50" s="90"/>
+      <c r="X50" s="90"/>
+      <c r="Y50" s="90"/>
+      <c r="Z50" s="90"/>
+      <c r="AA50" s="90"/>
+      <c r="AB50" s="90"/>
+      <c r="AC50" s="90"/>
+      <c r="AD50" s="90"/>
+      <c r="AE50" s="90"/>
+      <c r="AF50" s="90"/>
+      <c r="AG50" s="90"/>
+      <c r="AH50" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="AI50" s="78"/>
-      <c r="AJ50" s="78"/>
-      <c r="AK50" s="78"/>
-      <c r="AL50" s="78"/>
-      <c r="AM50" s="78"/>
-      <c r="AN50" s="78"/>
+      <c r="AI50" s="90"/>
+      <c r="AJ50" s="90"/>
+      <c r="AK50" s="90"/>
+      <c r="AL50" s="90"/>
+      <c r="AM50" s="90"/>
+      <c r="AN50" s="90"/>
     </row>
     <row r="51" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51">
         <v>12</v>
       </c>
-      <c r="E51" s="78" t="s">
+      <c r="E51" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="78"/>
-      <c r="G51" s="80" t="s">
+      <c r="F51" s="90"/>
+      <c r="G51" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
-      <c r="Q51" s="78"/>
-      <c r="R51" s="78"/>
-      <c r="S51" s="78"/>
-      <c r="T51" s="78"/>
-      <c r="U51" s="78"/>
-      <c r="V51" s="78"/>
-      <c r="W51" s="78"/>
-      <c r="X51" s="78"/>
-      <c r="Y51" s="78"/>
-      <c r="Z51" s="78"/>
-      <c r="AA51" s="78"/>
-      <c r="AB51" s="78"/>
-      <c r="AC51" s="78"/>
-      <c r="AD51" s="78"/>
-      <c r="AE51" s="78"/>
-      <c r="AF51" s="78"/>
-      <c r="AG51" s="78"/>
-      <c r="AH51" s="78" t="s">
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="90"/>
+      <c r="N51" s="90"/>
+      <c r="O51" s="90"/>
+      <c r="P51" s="90"/>
+      <c r="Q51" s="90"/>
+      <c r="R51" s="90"/>
+      <c r="S51" s="90"/>
+      <c r="T51" s="90"/>
+      <c r="U51" s="90"/>
+      <c r="V51" s="90"/>
+      <c r="W51" s="90"/>
+      <c r="X51" s="90"/>
+      <c r="Y51" s="90"/>
+      <c r="Z51" s="90"/>
+      <c r="AA51" s="90"/>
+      <c r="AB51" s="90"/>
+      <c r="AC51" s="90"/>
+      <c r="AD51" s="90"/>
+      <c r="AE51" s="90"/>
+      <c r="AF51" s="90"/>
+      <c r="AG51" s="90"/>
+      <c r="AH51" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="AI51" s="78"/>
-      <c r="AJ51" s="78"/>
-      <c r="AK51" s="78"/>
-      <c r="AL51" s="78"/>
-      <c r="AM51" s="78"/>
-      <c r="AN51" s="78"/>
+      <c r="AI51" s="90"/>
+      <c r="AJ51" s="90"/>
+      <c r="AK51" s="90"/>
+      <c r="AL51" s="90"/>
+      <c r="AM51" s="90"/>
+      <c r="AN51" s="90"/>
     </row>
     <row r="52" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52">
         <v>13</v>
       </c>
-      <c r="E52" s="78" t="s">
+      <c r="E52" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78" t="s">
+      <c r="F52" s="90"/>
+      <c r="G52" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78"/>
-      <c r="M52" s="78"/>
-      <c r="N52" s="78"/>
-      <c r="O52" s="78"/>
-      <c r="P52" s="78"/>
-      <c r="Q52" s="78"/>
-      <c r="R52" s="78"/>
-      <c r="S52" s="78"/>
-      <c r="T52" s="78"/>
-      <c r="U52" s="78"/>
-      <c r="V52" s="78"/>
-      <c r="W52" s="78"/>
-      <c r="X52" s="78"/>
-      <c r="Y52" s="78"/>
-      <c r="Z52" s="78"/>
-      <c r="AA52" s="78"/>
-      <c r="AB52" s="78"/>
-      <c r="AC52" s="78"/>
-      <c r="AD52" s="78"/>
-      <c r="AE52" s="78"/>
-      <c r="AF52" s="78"/>
-      <c r="AG52" s="78"/>
-      <c r="AH52" s="78" t="s">
+      <c r="H52" s="90"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="90"/>
+      <c r="L52" s="90"/>
+      <c r="M52" s="90"/>
+      <c r="N52" s="90"/>
+      <c r="O52" s="90"/>
+      <c r="P52" s="90"/>
+      <c r="Q52" s="90"/>
+      <c r="R52" s="90"/>
+      <c r="S52" s="90"/>
+      <c r="T52" s="90"/>
+      <c r="U52" s="90"/>
+      <c r="V52" s="90"/>
+      <c r="W52" s="90"/>
+      <c r="X52" s="90"/>
+      <c r="Y52" s="90"/>
+      <c r="Z52" s="90"/>
+      <c r="AA52" s="90"/>
+      <c r="AB52" s="90"/>
+      <c r="AC52" s="90"/>
+      <c r="AD52" s="90"/>
+      <c r="AE52" s="90"/>
+      <c r="AF52" s="90"/>
+      <c r="AG52" s="90"/>
+      <c r="AH52" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="AI52" s="78"/>
-      <c r="AJ52" s="78"/>
-      <c r="AK52" s="78"/>
-      <c r="AL52" s="78"/>
-      <c r="AM52" s="78"/>
-      <c r="AN52" s="78"/>
+      <c r="AI52" s="90"/>
+      <c r="AJ52" s="90"/>
+      <c r="AK52" s="90"/>
+      <c r="AL52" s="90"/>
+      <c r="AM52" s="90"/>
+      <c r="AN52" s="90"/>
     </row>
     <row r="53" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53">
         <v>14</v>
       </c>
-      <c r="E53" s="78" t="s">
+      <c r="E53" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78" t="s">
+      <c r="F53" s="90"/>
+      <c r="G53" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="78"/>
-      <c r="N53" s="78"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="78"/>
-      <c r="Q53" s="78"/>
-      <c r="R53" s="78"/>
-      <c r="S53" s="78"/>
-      <c r="T53" s="78"/>
-      <c r="U53" s="78"/>
-      <c r="V53" s="78"/>
-      <c r="W53" s="78"/>
-      <c r="X53" s="78"/>
-      <c r="Y53" s="78"/>
-      <c r="Z53" s="78"/>
-      <c r="AA53" s="78"/>
-      <c r="AB53" s="78"/>
-      <c r="AC53" s="78"/>
-      <c r="AD53" s="78"/>
-      <c r="AE53" s="78"/>
-      <c r="AF53" s="78"/>
-      <c r="AG53" s="78"/>
-      <c r="AH53" s="78" t="s">
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="90"/>
+      <c r="N53" s="90"/>
+      <c r="O53" s="90"/>
+      <c r="P53" s="90"/>
+      <c r="Q53" s="90"/>
+      <c r="R53" s="90"/>
+      <c r="S53" s="90"/>
+      <c r="T53" s="90"/>
+      <c r="U53" s="90"/>
+      <c r="V53" s="90"/>
+      <c r="W53" s="90"/>
+      <c r="X53" s="90"/>
+      <c r="Y53" s="90"/>
+      <c r="Z53" s="90"/>
+      <c r="AA53" s="90"/>
+      <c r="AB53" s="90"/>
+      <c r="AC53" s="90"/>
+      <c r="AD53" s="90"/>
+      <c r="AE53" s="90"/>
+      <c r="AF53" s="90"/>
+      <c r="AG53" s="90"/>
+      <c r="AH53" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="AI53" s="78"/>
-      <c r="AJ53" s="78"/>
-      <c r="AK53" s="78"/>
-      <c r="AL53" s="78"/>
-      <c r="AM53" s="78"/>
-      <c r="AN53" s="78"/>
+      <c r="AI53" s="90"/>
+      <c r="AJ53" s="90"/>
+      <c r="AK53" s="90"/>
+      <c r="AL53" s="90"/>
+      <c r="AM53" s="90"/>
+      <c r="AN53" s="90"/>
     </row>
     <row r="54" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54">
         <v>15</v>
       </c>
-      <c r="E54" s="78" t="s">
+      <c r="E54" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78" t="s">
+      <c r="F54" s="90"/>
+      <c r="G54" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="78"/>
-      <c r="M54" s="78"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="78"/>
-      <c r="Q54" s="78"/>
-      <c r="R54" s="78"/>
-      <c r="S54" s="78"/>
-      <c r="T54" s="78"/>
-      <c r="U54" s="78"/>
-      <c r="V54" s="78"/>
-      <c r="W54" s="78"/>
-      <c r="X54" s="78"/>
-      <c r="Y54" s="78"/>
-      <c r="Z54" s="78"/>
-      <c r="AA54" s="78"/>
-      <c r="AB54" s="78"/>
-      <c r="AC54" s="78"/>
-      <c r="AD54" s="78"/>
-      <c r="AE54" s="78"/>
-      <c r="AF54" s="78"/>
-      <c r="AG54" s="78"/>
-      <c r="AH54" s="78" t="s">
+      <c r="H54" s="90"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="90"/>
+      <c r="L54" s="90"/>
+      <c r="M54" s="90"/>
+      <c r="N54" s="90"/>
+      <c r="O54" s="90"/>
+      <c r="P54" s="90"/>
+      <c r="Q54" s="90"/>
+      <c r="R54" s="90"/>
+      <c r="S54" s="90"/>
+      <c r="T54" s="90"/>
+      <c r="U54" s="90"/>
+      <c r="V54" s="90"/>
+      <c r="W54" s="90"/>
+      <c r="X54" s="90"/>
+      <c r="Y54" s="90"/>
+      <c r="Z54" s="90"/>
+      <c r="AA54" s="90"/>
+      <c r="AB54" s="90"/>
+      <c r="AC54" s="90"/>
+      <c r="AD54" s="90"/>
+      <c r="AE54" s="90"/>
+      <c r="AF54" s="90"/>
+      <c r="AG54" s="90"/>
+      <c r="AH54" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="AI54" s="78"/>
-      <c r="AJ54" s="78"/>
-      <c r="AK54" s="78"/>
-      <c r="AL54" s="78"/>
-      <c r="AM54" s="78"/>
-      <c r="AN54" s="78"/>
+      <c r="AI54" s="90"/>
+      <c r="AJ54" s="90"/>
+      <c r="AK54" s="90"/>
+      <c r="AL54" s="90"/>
+      <c r="AM54" s="90"/>
+      <c r="AN54" s="90"/>
     </row>
     <row r="55" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55">
         <v>16</v>
       </c>
-      <c r="E55" s="78" t="s">
+      <c r="E55" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="78"/>
-      <c r="G55" s="80" t="s">
+      <c r="F55" s="90"/>
+      <c r="G55" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="78"/>
-      <c r="M55" s="78"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="78"/>
-      <c r="Q55" s="78"/>
-      <c r="R55" s="78"/>
-      <c r="S55" s="78"/>
-      <c r="T55" s="78"/>
-      <c r="U55" s="78"/>
-      <c r="V55" s="78"/>
-      <c r="W55" s="78"/>
-      <c r="X55" s="78"/>
-      <c r="Y55" s="78"/>
-      <c r="Z55" s="78"/>
-      <c r="AA55" s="78"/>
-      <c r="AB55" s="78"/>
-      <c r="AC55" s="78"/>
-      <c r="AD55" s="78"/>
-      <c r="AE55" s="78"/>
-      <c r="AF55" s="78"/>
-      <c r="AG55" s="78"/>
-      <c r="AH55" s="78" t="s">
+      <c r="H55" s="90"/>
+      <c r="I55" s="90"/>
+      <c r="J55" s="90"/>
+      <c r="K55" s="90"/>
+      <c r="L55" s="90"/>
+      <c r="M55" s="90"/>
+      <c r="N55" s="90"/>
+      <c r="O55" s="90"/>
+      <c r="P55" s="90"/>
+      <c r="Q55" s="90"/>
+      <c r="R55" s="90"/>
+      <c r="S55" s="90"/>
+      <c r="T55" s="90"/>
+      <c r="U55" s="90"/>
+      <c r="V55" s="90"/>
+      <c r="W55" s="90"/>
+      <c r="X55" s="90"/>
+      <c r="Y55" s="90"/>
+      <c r="Z55" s="90"/>
+      <c r="AA55" s="90"/>
+      <c r="AB55" s="90"/>
+      <c r="AC55" s="90"/>
+      <c r="AD55" s="90"/>
+      <c r="AE55" s="90"/>
+      <c r="AF55" s="90"/>
+      <c r="AG55" s="90"/>
+      <c r="AH55" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="AI55" s="78"/>
-      <c r="AJ55" s="78"/>
-      <c r="AK55" s="78"/>
-      <c r="AL55" s="78"/>
-      <c r="AM55" s="78"/>
-      <c r="AN55" s="78"/>
+      <c r="AI55" s="90"/>
+      <c r="AJ55" s="90"/>
+      <c r="AK55" s="90"/>
+      <c r="AL55" s="90"/>
+      <c r="AM55" s="90"/>
+      <c r="AN55" s="90"/>
     </row>
     <row r="56" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D56">
         <v>17</v>
       </c>
-      <c r="E56" s="78" t="s">
+      <c r="E56" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="78"/>
-      <c r="G56" s="80" t="s">
+      <c r="F56" s="90"/>
+      <c r="G56" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="78"/>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="78"/>
-      <c r="Q56" s="78"/>
-      <c r="R56" s="78"/>
-      <c r="S56" s="78"/>
-      <c r="T56" s="78"/>
-      <c r="U56" s="78"/>
-      <c r="V56" s="78"/>
-      <c r="W56" s="78"/>
-      <c r="X56" s="78"/>
-      <c r="Y56" s="78"/>
-      <c r="Z56" s="78"/>
-      <c r="AA56" s="78"/>
-      <c r="AB56" s="78"/>
-      <c r="AC56" s="78"/>
-      <c r="AD56" s="78"/>
-      <c r="AE56" s="78"/>
-      <c r="AF56" s="78"/>
-      <c r="AG56" s="78"/>
-      <c r="AH56" s="78" t="s">
+      <c r="H56" s="90"/>
+      <c r="I56" s="90"/>
+      <c r="J56" s="90"/>
+      <c r="K56" s="90"/>
+      <c r="L56" s="90"/>
+      <c r="M56" s="90"/>
+      <c r="N56" s="90"/>
+      <c r="O56" s="90"/>
+      <c r="P56" s="90"/>
+      <c r="Q56" s="90"/>
+      <c r="R56" s="90"/>
+      <c r="S56" s="90"/>
+      <c r="T56" s="90"/>
+      <c r="U56" s="90"/>
+      <c r="V56" s="90"/>
+      <c r="W56" s="90"/>
+      <c r="X56" s="90"/>
+      <c r="Y56" s="90"/>
+      <c r="Z56" s="90"/>
+      <c r="AA56" s="90"/>
+      <c r="AB56" s="90"/>
+      <c r="AC56" s="90"/>
+      <c r="AD56" s="90"/>
+      <c r="AE56" s="90"/>
+      <c r="AF56" s="90"/>
+      <c r="AG56" s="90"/>
+      <c r="AH56" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="AI56" s="78"/>
-      <c r="AJ56" s="78"/>
-      <c r="AK56" s="78"/>
-      <c r="AL56" s="78"/>
-      <c r="AM56" s="78"/>
-      <c r="AN56" s="78"/>
+      <c r="AI56" s="90"/>
+      <c r="AJ56" s="90"/>
+      <c r="AK56" s="90"/>
+      <c r="AL56" s="90"/>
+      <c r="AM56" s="90"/>
+      <c r="AN56" s="90"/>
     </row>
     <row r="57" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57">
         <v>18</v>
       </c>
-      <c r="E57" s="78" t="s">
+      <c r="E57" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="78"/>
-      <c r="G57" s="80" t="s">
+      <c r="F57" s="90"/>
+      <c r="G57" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="78"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="78"/>
-      <c r="R57" s="78"/>
-      <c r="S57" s="78"/>
-      <c r="T57" s="78"/>
-      <c r="U57" s="78"/>
-      <c r="V57" s="78"/>
-      <c r="W57" s="78"/>
-      <c r="X57" s="78"/>
-      <c r="Y57" s="78"/>
-      <c r="Z57" s="78"/>
-      <c r="AA57" s="78"/>
-      <c r="AB57" s="78"/>
-      <c r="AC57" s="78"/>
-      <c r="AD57" s="78"/>
-      <c r="AE57" s="78"/>
-      <c r="AF57" s="78"/>
-      <c r="AG57" s="78"/>
-      <c r="AH57" s="78" t="s">
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="90"/>
+      <c r="N57" s="90"/>
+      <c r="O57" s="90"/>
+      <c r="P57" s="90"/>
+      <c r="Q57" s="90"/>
+      <c r="R57" s="90"/>
+      <c r="S57" s="90"/>
+      <c r="T57" s="90"/>
+      <c r="U57" s="90"/>
+      <c r="V57" s="90"/>
+      <c r="W57" s="90"/>
+      <c r="X57" s="90"/>
+      <c r="Y57" s="90"/>
+      <c r="Z57" s="90"/>
+      <c r="AA57" s="90"/>
+      <c r="AB57" s="90"/>
+      <c r="AC57" s="90"/>
+      <c r="AD57" s="90"/>
+      <c r="AE57" s="90"/>
+      <c r="AF57" s="90"/>
+      <c r="AG57" s="90"/>
+      <c r="AH57" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="AI57" s="78"/>
-      <c r="AJ57" s="78"/>
-      <c r="AK57" s="78"/>
-      <c r="AL57" s="78"/>
-      <c r="AM57" s="78"/>
-      <c r="AN57" s="78"/>
+      <c r="AI57" s="90"/>
+      <c r="AJ57" s="90"/>
+      <c r="AK57" s="90"/>
+      <c r="AL57" s="90"/>
+      <c r="AM57" s="90"/>
+      <c r="AN57" s="90"/>
     </row>
     <row r="58" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58">
         <v>19</v>
       </c>
-      <c r="E58" s="78" t="s">
+      <c r="E58" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78" t="s">
+      <c r="F58" s="90"/>
+      <c r="G58" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="78"/>
-      <c r="N58" s="78"/>
-      <c r="O58" s="78"/>
-      <c r="P58" s="78"/>
-      <c r="Q58" s="78"/>
-      <c r="R58" s="78"/>
-      <c r="S58" s="78"/>
-      <c r="T58" s="78"/>
-      <c r="U58" s="78"/>
-      <c r="V58" s="78"/>
-      <c r="W58" s="78"/>
-      <c r="X58" s="78"/>
-      <c r="Y58" s="78"/>
-      <c r="Z58" s="78"/>
-      <c r="AA58" s="78"/>
-      <c r="AB58" s="78"/>
-      <c r="AC58" s="78"/>
-      <c r="AD58" s="78"/>
-      <c r="AE58" s="78"/>
-      <c r="AF58" s="78"/>
-      <c r="AG58" s="78"/>
-      <c r="AH58" s="78" t="s">
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="90"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="90"/>
+      <c r="N58" s="90"/>
+      <c r="O58" s="90"/>
+      <c r="P58" s="90"/>
+      <c r="Q58" s="90"/>
+      <c r="R58" s="90"/>
+      <c r="S58" s="90"/>
+      <c r="T58" s="90"/>
+      <c r="U58" s="90"/>
+      <c r="V58" s="90"/>
+      <c r="W58" s="90"/>
+      <c r="X58" s="90"/>
+      <c r="Y58" s="90"/>
+      <c r="Z58" s="90"/>
+      <c r="AA58" s="90"/>
+      <c r="AB58" s="90"/>
+      <c r="AC58" s="90"/>
+      <c r="AD58" s="90"/>
+      <c r="AE58" s="90"/>
+      <c r="AF58" s="90"/>
+      <c r="AG58" s="90"/>
+      <c r="AH58" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="AI58" s="78"/>
-      <c r="AJ58" s="78"/>
-      <c r="AK58" s="78"/>
-      <c r="AL58" s="78"/>
-      <c r="AM58" s="78"/>
-      <c r="AN58" s="78"/>
+      <c r="AI58" s="90"/>
+      <c r="AJ58" s="90"/>
+      <c r="AK58" s="90"/>
+      <c r="AL58" s="90"/>
+      <c r="AM58" s="90"/>
+      <c r="AN58" s="90"/>
     </row>
     <row r="59" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D59">
         <v>20</v>
       </c>
-      <c r="E59" s="78" t="s">
+      <c r="E59" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78" t="s">
+      <c r="F59" s="90"/>
+      <c r="G59" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="78"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="78"/>
-      <c r="R59" s="78"/>
-      <c r="S59" s="78"/>
-      <c r="T59" s="78"/>
-      <c r="U59" s="78"/>
-      <c r="V59" s="78"/>
-      <c r="W59" s="78"/>
-      <c r="X59" s="78"/>
-      <c r="Y59" s="78"/>
-      <c r="Z59" s="78"/>
-      <c r="AA59" s="78"/>
-      <c r="AB59" s="78"/>
-      <c r="AC59" s="78"/>
-      <c r="AD59" s="78"/>
-      <c r="AE59" s="78"/>
-      <c r="AF59" s="78"/>
-      <c r="AG59" s="78"/>
-      <c r="AH59" s="78" t="s">
+      <c r="H59" s="90"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="90"/>
+      <c r="K59" s="90"/>
+      <c r="L59" s="90"/>
+      <c r="M59" s="90"/>
+      <c r="N59" s="90"/>
+      <c r="O59" s="90"/>
+      <c r="P59" s="90"/>
+      <c r="Q59" s="90"/>
+      <c r="R59" s="90"/>
+      <c r="S59" s="90"/>
+      <c r="T59" s="90"/>
+      <c r="U59" s="90"/>
+      <c r="V59" s="90"/>
+      <c r="W59" s="90"/>
+      <c r="X59" s="90"/>
+      <c r="Y59" s="90"/>
+      <c r="Z59" s="90"/>
+      <c r="AA59" s="90"/>
+      <c r="AB59" s="90"/>
+      <c r="AC59" s="90"/>
+      <c r="AD59" s="90"/>
+      <c r="AE59" s="90"/>
+      <c r="AF59" s="90"/>
+      <c r="AG59" s="90"/>
+      <c r="AH59" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="AI59" s="78"/>
-      <c r="AJ59" s="78"/>
-      <c r="AK59" s="78"/>
-      <c r="AL59" s="78"/>
-      <c r="AM59" s="78"/>
-      <c r="AN59" s="78"/>
+      <c r="AI59" s="90"/>
+      <c r="AJ59" s="90"/>
+      <c r="AK59" s="90"/>
+      <c r="AL59" s="90"/>
+      <c r="AM59" s="90"/>
+      <c r="AN59" s="90"/>
     </row>
     <row r="60" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D60">
         <v>21</v>
       </c>
-      <c r="E60" s="78" t="s">
+      <c r="E60" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78" t="s">
+      <c r="F60" s="90"/>
+      <c r="G60" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="78"/>
-      <c r="O60" s="78"/>
-      <c r="P60" s="78"/>
-      <c r="Q60" s="78"/>
-      <c r="R60" s="78"/>
-      <c r="S60" s="78"/>
-      <c r="T60" s="78"/>
-      <c r="U60" s="78"/>
-      <c r="V60" s="78"/>
-      <c r="W60" s="78"/>
-      <c r="X60" s="78"/>
-      <c r="Y60" s="78"/>
-      <c r="Z60" s="78"/>
-      <c r="AA60" s="78"/>
-      <c r="AB60" s="78"/>
-      <c r="AC60" s="78"/>
-      <c r="AD60" s="78"/>
-      <c r="AE60" s="78"/>
-      <c r="AF60" s="78"/>
-      <c r="AG60" s="78"/>
-      <c r="AH60" s="78" t="s">
+      <c r="H60" s="90"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="90"/>
+      <c r="K60" s="90"/>
+      <c r="L60" s="90"/>
+      <c r="M60" s="90"/>
+      <c r="N60" s="90"/>
+      <c r="O60" s="90"/>
+      <c r="P60" s="90"/>
+      <c r="Q60" s="90"/>
+      <c r="R60" s="90"/>
+      <c r="S60" s="90"/>
+      <c r="T60" s="90"/>
+      <c r="U60" s="90"/>
+      <c r="V60" s="90"/>
+      <c r="W60" s="90"/>
+      <c r="X60" s="90"/>
+      <c r="Y60" s="90"/>
+      <c r="Z60" s="90"/>
+      <c r="AA60" s="90"/>
+      <c r="AB60" s="90"/>
+      <c r="AC60" s="90"/>
+      <c r="AD60" s="90"/>
+      <c r="AE60" s="90"/>
+      <c r="AF60" s="90"/>
+      <c r="AG60" s="90"/>
+      <c r="AH60" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="AI60" s="78"/>
-      <c r="AJ60" s="78"/>
-      <c r="AK60" s="78"/>
-      <c r="AL60" s="78"/>
-      <c r="AM60" s="78"/>
-      <c r="AN60" s="78"/>
+      <c r="AI60" s="90"/>
+      <c r="AJ60" s="90"/>
+      <c r="AK60" s="90"/>
+      <c r="AL60" s="90"/>
+      <c r="AM60" s="90"/>
+      <c r="AN60" s="90"/>
     </row>
     <row r="61" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D61">
         <v>22</v>
       </c>
-      <c r="E61" s="78" t="s">
+      <c r="E61" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="78"/>
-      <c r="G61" s="80" t="s">
+      <c r="F61" s="90"/>
+      <c r="G61" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-      <c r="M61" s="78"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78"/>
-      <c r="Q61" s="78"/>
-      <c r="R61" s="78"/>
-      <c r="S61" s="78"/>
-      <c r="T61" s="78"/>
-      <c r="U61" s="78"/>
-      <c r="V61" s="78"/>
-      <c r="W61" s="78"/>
-      <c r="X61" s="78"/>
-      <c r="Y61" s="78"/>
-      <c r="Z61" s="78"/>
-      <c r="AA61" s="78"/>
-      <c r="AB61" s="78"/>
-      <c r="AC61" s="78"/>
-      <c r="AD61" s="78"/>
-      <c r="AE61" s="78"/>
-      <c r="AF61" s="78"/>
-      <c r="AG61" s="78"/>
-      <c r="AH61" s="78" t="s">
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="90"/>
+      <c r="M61" s="90"/>
+      <c r="N61" s="90"/>
+      <c r="O61" s="90"/>
+      <c r="P61" s="90"/>
+      <c r="Q61" s="90"/>
+      <c r="R61" s="90"/>
+      <c r="S61" s="90"/>
+      <c r="T61" s="90"/>
+      <c r="U61" s="90"/>
+      <c r="V61" s="90"/>
+      <c r="W61" s="90"/>
+      <c r="X61" s="90"/>
+      <c r="Y61" s="90"/>
+      <c r="Z61" s="90"/>
+      <c r="AA61" s="90"/>
+      <c r="AB61" s="90"/>
+      <c r="AC61" s="90"/>
+      <c r="AD61" s="90"/>
+      <c r="AE61" s="90"/>
+      <c r="AF61" s="90"/>
+      <c r="AG61" s="90"/>
+      <c r="AH61" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="AI61" s="78"/>
-      <c r="AJ61" s="78"/>
-      <c r="AK61" s="78"/>
-      <c r="AL61" s="78"/>
-      <c r="AM61" s="78"/>
-      <c r="AN61" s="78"/>
+      <c r="AI61" s="90"/>
+      <c r="AJ61" s="90"/>
+      <c r="AK61" s="90"/>
+      <c r="AL61" s="90"/>
+      <c r="AM61" s="90"/>
+      <c r="AN61" s="90"/>
     </row>
     <row r="62" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D62">
         <v>23</v>
       </c>
-      <c r="E62" s="78" t="s">
+      <c r="E62" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F62" s="78"/>
-      <c r="G62" s="80" t="s">
+      <c r="F62" s="90"/>
+      <c r="G62" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="H62" s="78"/>
-      <c r="I62" s="78"/>
-      <c r="J62" s="78"/>
-      <c r="K62" s="78"/>
-      <c r="L62" s="78"/>
-      <c r="M62" s="78"/>
-      <c r="N62" s="78"/>
-      <c r="O62" s="78"/>
-      <c r="P62" s="78"/>
-      <c r="Q62" s="78"/>
-      <c r="R62" s="78"/>
-      <c r="S62" s="78"/>
-      <c r="T62" s="78"/>
-      <c r="U62" s="78"/>
-      <c r="V62" s="78"/>
-      <c r="W62" s="78"/>
-      <c r="X62" s="78"/>
-      <c r="Y62" s="78"/>
-      <c r="Z62" s="78"/>
-      <c r="AA62" s="78"/>
-      <c r="AB62" s="78"/>
-      <c r="AC62" s="78"/>
-      <c r="AD62" s="78"/>
-      <c r="AE62" s="78"/>
-      <c r="AF62" s="78"/>
-      <c r="AG62" s="78"/>
-      <c r="AH62" s="78" t="s">
+      <c r="H62" s="90"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="90"/>
+      <c r="L62" s="90"/>
+      <c r="M62" s="90"/>
+      <c r="N62" s="90"/>
+      <c r="O62" s="90"/>
+      <c r="P62" s="90"/>
+      <c r="Q62" s="90"/>
+      <c r="R62" s="90"/>
+      <c r="S62" s="90"/>
+      <c r="T62" s="90"/>
+      <c r="U62" s="90"/>
+      <c r="V62" s="90"/>
+      <c r="W62" s="90"/>
+      <c r="X62" s="90"/>
+      <c r="Y62" s="90"/>
+      <c r="Z62" s="90"/>
+      <c r="AA62" s="90"/>
+      <c r="AB62" s="90"/>
+      <c r="AC62" s="90"/>
+      <c r="AD62" s="90"/>
+      <c r="AE62" s="90"/>
+      <c r="AF62" s="90"/>
+      <c r="AG62" s="90"/>
+      <c r="AH62" s="90" t="s">
         <v>140</v>
       </c>
-      <c r="AI62" s="78"/>
-      <c r="AJ62" s="78"/>
-      <c r="AK62" s="78"/>
-      <c r="AL62" s="78"/>
-      <c r="AM62" s="78"/>
-      <c r="AN62" s="78"/>
+      <c r="AI62" s="90"/>
+      <c r="AJ62" s="90"/>
+      <c r="AK62" s="90"/>
+      <c r="AL62" s="90"/>
+      <c r="AM62" s="90"/>
+      <c r="AN62" s="90"/>
     </row>
     <row r="63" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63">
         <v>24</v>
       </c>
-      <c r="E63" s="78" t="s">
+      <c r="E63" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="78"/>
-      <c r="G63" s="80" t="s">
+      <c r="F63" s="90"/>
+      <c r="G63" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="H63" s="78"/>
-      <c r="I63" s="78"/>
-      <c r="J63" s="78"/>
-      <c r="K63" s="78"/>
-      <c r="L63" s="78"/>
-      <c r="M63" s="78"/>
-      <c r="N63" s="78"/>
-      <c r="O63" s="78"/>
-      <c r="P63" s="78"/>
-      <c r="Q63" s="78"/>
-      <c r="R63" s="78"/>
-      <c r="S63" s="78"/>
-      <c r="T63" s="78"/>
-      <c r="U63" s="78"/>
-      <c r="V63" s="78"/>
-      <c r="W63" s="78"/>
-      <c r="X63" s="78"/>
-      <c r="Y63" s="78"/>
-      <c r="Z63" s="78"/>
-      <c r="AA63" s="78"/>
-      <c r="AB63" s="78"/>
-      <c r="AC63" s="78"/>
-      <c r="AD63" s="78"/>
-      <c r="AE63" s="78"/>
-      <c r="AF63" s="78"/>
-      <c r="AG63" s="78"/>
-      <c r="AH63" s="78" t="s">
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="90"/>
+      <c r="M63" s="90"/>
+      <c r="N63" s="90"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="90"/>
+      <c r="Q63" s="90"/>
+      <c r="R63" s="90"/>
+      <c r="S63" s="90"/>
+      <c r="T63" s="90"/>
+      <c r="U63" s="90"/>
+      <c r="V63" s="90"/>
+      <c r="W63" s="90"/>
+      <c r="X63" s="90"/>
+      <c r="Y63" s="90"/>
+      <c r="Z63" s="90"/>
+      <c r="AA63" s="90"/>
+      <c r="AB63" s="90"/>
+      <c r="AC63" s="90"/>
+      <c r="AD63" s="90"/>
+      <c r="AE63" s="90"/>
+      <c r="AF63" s="90"/>
+      <c r="AG63" s="90"/>
+      <c r="AH63" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="AI63" s="78"/>
-      <c r="AJ63" s="78"/>
-      <c r="AK63" s="78"/>
-      <c r="AL63" s="78"/>
-      <c r="AM63" s="78"/>
-      <c r="AN63" s="78"/>
+      <c r="AI63" s="90"/>
+      <c r="AJ63" s="90"/>
+      <c r="AK63" s="90"/>
+      <c r="AL63" s="90"/>
+      <c r="AM63" s="90"/>
+      <c r="AN63" s="90"/>
     </row>
     <row r="64" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D64">
         <v>25</v>
       </c>
-      <c r="E64" s="78" t="s">
+      <c r="E64" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F64" s="78"/>
-      <c r="G64" s="80" t="s">
+      <c r="F64" s="90"/>
+      <c r="G64" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="H64" s="78"/>
-      <c r="I64" s="78"/>
-      <c r="J64" s="78"/>
-      <c r="K64" s="78"/>
-      <c r="L64" s="78"/>
-      <c r="M64" s="78"/>
-      <c r="N64" s="78"/>
-      <c r="O64" s="78"/>
-      <c r="P64" s="78"/>
-      <c r="Q64" s="78"/>
-      <c r="R64" s="78"/>
-      <c r="S64" s="78"/>
-      <c r="T64" s="78"/>
-      <c r="U64" s="78"/>
-      <c r="V64" s="78"/>
-      <c r="W64" s="78"/>
-      <c r="X64" s="78"/>
-      <c r="Y64" s="78"/>
-      <c r="Z64" s="78"/>
-      <c r="AA64" s="78"/>
-      <c r="AB64" s="78"/>
-      <c r="AC64" s="78"/>
-      <c r="AD64" s="78"/>
-      <c r="AE64" s="78"/>
-      <c r="AF64" s="78"/>
-      <c r="AG64" s="78"/>
-      <c r="AH64" s="78" t="s">
+      <c r="H64" s="90"/>
+      <c r="I64" s="90"/>
+      <c r="J64" s="90"/>
+      <c r="K64" s="90"/>
+      <c r="L64" s="90"/>
+      <c r="M64" s="90"/>
+      <c r="N64" s="90"/>
+      <c r="O64" s="90"/>
+      <c r="P64" s="90"/>
+      <c r="Q64" s="90"/>
+      <c r="R64" s="90"/>
+      <c r="S64" s="90"/>
+      <c r="T64" s="90"/>
+      <c r="U64" s="90"/>
+      <c r="V64" s="90"/>
+      <c r="W64" s="90"/>
+      <c r="X64" s="90"/>
+      <c r="Y64" s="90"/>
+      <c r="Z64" s="90"/>
+      <c r="AA64" s="90"/>
+      <c r="AB64" s="90"/>
+      <c r="AC64" s="90"/>
+      <c r="AD64" s="90"/>
+      <c r="AE64" s="90"/>
+      <c r="AF64" s="90"/>
+      <c r="AG64" s="90"/>
+      <c r="AH64" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="AI64" s="78"/>
-      <c r="AJ64" s="78"/>
-      <c r="AK64" s="78"/>
-      <c r="AL64" s="78"/>
-      <c r="AM64" s="78"/>
-      <c r="AN64" s="78"/>
+      <c r="AI64" s="90"/>
+      <c r="AJ64" s="90"/>
+      <c r="AK64" s="90"/>
+      <c r="AL64" s="90"/>
+      <c r="AM64" s="90"/>
+      <c r="AN64" s="90"/>
     </row>
     <row r="65" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D65">
         <v>26</v>
       </c>
-      <c r="E65" s="78" t="s">
+      <c r="E65" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78" t="s">
+      <c r="F65" s="90"/>
+      <c r="G65" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="H65" s="78"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
-      <c r="K65" s="78"/>
-      <c r="L65" s="78"/>
-      <c r="M65" s="78"/>
-      <c r="N65" s="78"/>
-      <c r="O65" s="78"/>
-      <c r="P65" s="78"/>
-      <c r="Q65" s="78"/>
-      <c r="R65" s="78"/>
-      <c r="S65" s="78"/>
-      <c r="T65" s="78"/>
-      <c r="U65" s="78"/>
-      <c r="V65" s="78"/>
-      <c r="W65" s="78"/>
-      <c r="X65" s="78"/>
-      <c r="Y65" s="78"/>
-      <c r="Z65" s="78"/>
-      <c r="AA65" s="78"/>
-      <c r="AB65" s="78"/>
-      <c r="AC65" s="78"/>
-      <c r="AD65" s="78"/>
-      <c r="AE65" s="78"/>
-      <c r="AF65" s="78"/>
-      <c r="AG65" s="78"/>
-      <c r="AH65" s="78" t="s">
+      <c r="H65" s="90"/>
+      <c r="I65" s="90"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="90"/>
+      <c r="L65" s="90"/>
+      <c r="M65" s="90"/>
+      <c r="N65" s="90"/>
+      <c r="O65" s="90"/>
+      <c r="P65" s="90"/>
+      <c r="Q65" s="90"/>
+      <c r="R65" s="90"/>
+      <c r="S65" s="90"/>
+      <c r="T65" s="90"/>
+      <c r="U65" s="90"/>
+      <c r="V65" s="90"/>
+      <c r="W65" s="90"/>
+      <c r="X65" s="90"/>
+      <c r="Y65" s="90"/>
+      <c r="Z65" s="90"/>
+      <c r="AA65" s="90"/>
+      <c r="AB65" s="90"/>
+      <c r="AC65" s="90"/>
+      <c r="AD65" s="90"/>
+      <c r="AE65" s="90"/>
+      <c r="AF65" s="90"/>
+      <c r="AG65" s="90"/>
+      <c r="AH65" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="AI65" s="78"/>
-      <c r="AJ65" s="78"/>
-      <c r="AK65" s="78"/>
-      <c r="AL65" s="78"/>
-      <c r="AM65" s="78"/>
-      <c r="AN65" s="78"/>
+      <c r="AI65" s="90"/>
+      <c r="AJ65" s="90"/>
+      <c r="AK65" s="90"/>
+      <c r="AL65" s="90"/>
+      <c r="AM65" s="90"/>
+      <c r="AN65" s="90"/>
     </row>
     <row r="66" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D66">
         <v>27</v>
       </c>
-      <c r="E66" s="78" t="s">
+      <c r="E66" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F66" s="78"/>
-      <c r="G66" s="78" t="s">
+      <c r="F66" s="90"/>
+      <c r="G66" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="H66" s="78"/>
-      <c r="I66" s="78"/>
-      <c r="J66" s="78"/>
-      <c r="K66" s="78"/>
-      <c r="L66" s="78"/>
-      <c r="M66" s="78"/>
-      <c r="N66" s="78"/>
-      <c r="O66" s="78"/>
-      <c r="P66" s="78"/>
-      <c r="Q66" s="78"/>
-      <c r="R66" s="78"/>
-      <c r="S66" s="78"/>
-      <c r="T66" s="78"/>
-      <c r="U66" s="78"/>
-      <c r="V66" s="78"/>
-      <c r="W66" s="78"/>
-      <c r="X66" s="78"/>
-      <c r="Y66" s="78"/>
-      <c r="Z66" s="78"/>
-      <c r="AA66" s="78"/>
-      <c r="AB66" s="78"/>
-      <c r="AC66" s="78"/>
-      <c r="AD66" s="78"/>
-      <c r="AE66" s="78"/>
-      <c r="AF66" s="78"/>
-      <c r="AG66" s="78"/>
-      <c r="AH66" s="78" t="s">
+      <c r="H66" s="90"/>
+      <c r="I66" s="90"/>
+      <c r="J66" s="90"/>
+      <c r="K66" s="90"/>
+      <c r="L66" s="90"/>
+      <c r="M66" s="90"/>
+      <c r="N66" s="90"/>
+      <c r="O66" s="90"/>
+      <c r="P66" s="90"/>
+      <c r="Q66" s="90"/>
+      <c r="R66" s="90"/>
+      <c r="S66" s="90"/>
+      <c r="T66" s="90"/>
+      <c r="U66" s="90"/>
+      <c r="V66" s="90"/>
+      <c r="W66" s="90"/>
+      <c r="X66" s="90"/>
+      <c r="Y66" s="90"/>
+      <c r="Z66" s="90"/>
+      <c r="AA66" s="90"/>
+      <c r="AB66" s="90"/>
+      <c r="AC66" s="90"/>
+      <c r="AD66" s="90"/>
+      <c r="AE66" s="90"/>
+      <c r="AF66" s="90"/>
+      <c r="AG66" s="90"/>
+      <c r="AH66" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="AI66" s="78"/>
-      <c r="AJ66" s="78"/>
-      <c r="AK66" s="78"/>
-      <c r="AL66" s="78"/>
-      <c r="AM66" s="78"/>
-      <c r="AN66" s="78"/>
+      <c r="AI66" s="90"/>
+      <c r="AJ66" s="90"/>
+      <c r="AK66" s="90"/>
+      <c r="AL66" s="90"/>
+      <c r="AM66" s="90"/>
+      <c r="AN66" s="90"/>
     </row>
     <row r="67" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D67">
         <v>28</v>
       </c>
-      <c r="E67" s="78" t="s">
+      <c r="E67" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="78"/>
-      <c r="G67" s="78" t="s">
+      <c r="F67" s="90"/>
+      <c r="G67" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="H67" s="78"/>
-      <c r="I67" s="78"/>
-      <c r="J67" s="78"/>
-      <c r="K67" s="78"/>
-      <c r="L67" s="78"/>
-      <c r="M67" s="78"/>
-      <c r="N67" s="78"/>
-      <c r="O67" s="78"/>
-      <c r="P67" s="78"/>
-      <c r="Q67" s="78"/>
-      <c r="R67" s="78"/>
-      <c r="S67" s="78"/>
-      <c r="T67" s="78"/>
-      <c r="U67" s="78"/>
-      <c r="V67" s="78"/>
-      <c r="W67" s="78"/>
-      <c r="X67" s="78"/>
-      <c r="Y67" s="78"/>
-      <c r="Z67" s="78"/>
-      <c r="AA67" s="78"/>
-      <c r="AB67" s="78"/>
-      <c r="AC67" s="78"/>
-      <c r="AD67" s="78"/>
-      <c r="AE67" s="78"/>
-      <c r="AF67" s="78"/>
-      <c r="AG67" s="78"/>
-      <c r="AH67" s="78" t="s">
+      <c r="H67" s="90"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="90"/>
+      <c r="K67" s="90"/>
+      <c r="L67" s="90"/>
+      <c r="M67" s="90"/>
+      <c r="N67" s="90"/>
+      <c r="O67" s="90"/>
+      <c r="P67" s="90"/>
+      <c r="Q67" s="90"/>
+      <c r="R67" s="90"/>
+      <c r="S67" s="90"/>
+      <c r="T67" s="90"/>
+      <c r="U67" s="90"/>
+      <c r="V67" s="90"/>
+      <c r="W67" s="90"/>
+      <c r="X67" s="90"/>
+      <c r="Y67" s="90"/>
+      <c r="Z67" s="90"/>
+      <c r="AA67" s="90"/>
+      <c r="AB67" s="90"/>
+      <c r="AC67" s="90"/>
+      <c r="AD67" s="90"/>
+      <c r="AE67" s="90"/>
+      <c r="AF67" s="90"/>
+      <c r="AG67" s="90"/>
+      <c r="AH67" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="AI67" s="78"/>
-      <c r="AJ67" s="78"/>
-      <c r="AK67" s="78"/>
-      <c r="AL67" s="78"/>
-      <c r="AM67" s="78"/>
-      <c r="AN67" s="78"/>
+      <c r="AI67" s="90"/>
+      <c r="AJ67" s="90"/>
+      <c r="AK67" s="90"/>
+      <c r="AL67" s="90"/>
+      <c r="AM67" s="90"/>
+      <c r="AN67" s="90"/>
     </row>
     <row r="68" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D68">
         <v>29</v>
       </c>
-      <c r="E68" s="78" t="s">
+      <c r="E68" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="78"/>
-      <c r="G68" s="78" t="s">
+      <c r="F68" s="90"/>
+      <c r="G68" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="H68" s="78"/>
-      <c r="I68" s="78"/>
-      <c r="J68" s="78"/>
-      <c r="K68" s="78"/>
-      <c r="L68" s="78"/>
-      <c r="M68" s="78"/>
-      <c r="N68" s="78"/>
-      <c r="O68" s="78"/>
-      <c r="P68" s="78"/>
-      <c r="Q68" s="78"/>
-      <c r="R68" s="78"/>
-      <c r="S68" s="78"/>
-      <c r="T68" s="78"/>
-      <c r="U68" s="78"/>
-      <c r="V68" s="78"/>
-      <c r="W68" s="78"/>
-      <c r="X68" s="78"/>
-      <c r="Y68" s="78"/>
-      <c r="Z68" s="78"/>
-      <c r="AA68" s="78"/>
-      <c r="AB68" s="78"/>
-      <c r="AC68" s="78"/>
-      <c r="AD68" s="78"/>
-      <c r="AE68" s="78"/>
-      <c r="AF68" s="78"/>
-      <c r="AG68" s="78"/>
-      <c r="AH68" s="78" t="s">
+      <c r="H68" s="90"/>
+      <c r="I68" s="90"/>
+      <c r="J68" s="90"/>
+      <c r="K68" s="90"/>
+      <c r="L68" s="90"/>
+      <c r="M68" s="90"/>
+      <c r="N68" s="90"/>
+      <c r="O68" s="90"/>
+      <c r="P68" s="90"/>
+      <c r="Q68" s="90"/>
+      <c r="R68" s="90"/>
+      <c r="S68" s="90"/>
+      <c r="T68" s="90"/>
+      <c r="U68" s="90"/>
+      <c r="V68" s="90"/>
+      <c r="W68" s="90"/>
+      <c r="X68" s="90"/>
+      <c r="Y68" s="90"/>
+      <c r="Z68" s="90"/>
+      <c r="AA68" s="90"/>
+      <c r="AB68" s="90"/>
+      <c r="AC68" s="90"/>
+      <c r="AD68" s="90"/>
+      <c r="AE68" s="90"/>
+      <c r="AF68" s="90"/>
+      <c r="AG68" s="90"/>
+      <c r="AH68" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="AI68" s="78"/>
-      <c r="AJ68" s="78"/>
-      <c r="AK68" s="78"/>
-      <c r="AL68" s="78"/>
-      <c r="AM68" s="78"/>
-      <c r="AN68" s="78"/>
+      <c r="AI68" s="90"/>
+      <c r="AJ68" s="90"/>
+      <c r="AK68" s="90"/>
+      <c r="AL68" s="90"/>
+      <c r="AM68" s="90"/>
+      <c r="AN68" s="90"/>
     </row>
     <row r="69" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D69">
         <v>30</v>
       </c>
-      <c r="E69" s="78" t="s">
+      <c r="E69" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F69" s="78"/>
-      <c r="G69" s="80" t="s">
+      <c r="F69" s="90"/>
+      <c r="G69" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="H69" s="78"/>
-      <c r="I69" s="78"/>
-      <c r="J69" s="78"/>
-      <c r="K69" s="78"/>
-      <c r="L69" s="78"/>
-      <c r="M69" s="78"/>
-      <c r="N69" s="78"/>
-      <c r="O69" s="78"/>
-      <c r="P69" s="78"/>
-      <c r="Q69" s="78"/>
-      <c r="R69" s="78"/>
-      <c r="S69" s="78"/>
-      <c r="T69" s="78"/>
-      <c r="U69" s="78"/>
-      <c r="V69" s="78"/>
-      <c r="W69" s="78"/>
-      <c r="X69" s="78"/>
-      <c r="Y69" s="78"/>
-      <c r="Z69" s="78"/>
-      <c r="AA69" s="78"/>
-      <c r="AB69" s="78"/>
-      <c r="AC69" s="78"/>
-      <c r="AD69" s="78"/>
-      <c r="AE69" s="78"/>
-      <c r="AF69" s="78"/>
-      <c r="AG69" s="78"/>
-      <c r="AH69" s="78" t="s">
+      <c r="H69" s="90"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="90"/>
+      <c r="M69" s="90"/>
+      <c r="N69" s="90"/>
+      <c r="O69" s="90"/>
+      <c r="P69" s="90"/>
+      <c r="Q69" s="90"/>
+      <c r="R69" s="90"/>
+      <c r="S69" s="90"/>
+      <c r="T69" s="90"/>
+      <c r="U69" s="90"/>
+      <c r="V69" s="90"/>
+      <c r="W69" s="90"/>
+      <c r="X69" s="90"/>
+      <c r="Y69" s="90"/>
+      <c r="Z69" s="90"/>
+      <c r="AA69" s="90"/>
+      <c r="AB69" s="90"/>
+      <c r="AC69" s="90"/>
+      <c r="AD69" s="90"/>
+      <c r="AE69" s="90"/>
+      <c r="AF69" s="90"/>
+      <c r="AG69" s="90"/>
+      <c r="AH69" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="AI69" s="78"/>
-      <c r="AJ69" s="78"/>
-      <c r="AK69" s="78"/>
-      <c r="AL69" s="78"/>
-      <c r="AM69" s="78"/>
-      <c r="AN69" s="78"/>
+      <c r="AI69" s="90"/>
+      <c r="AJ69" s="90"/>
+      <c r="AK69" s="90"/>
+      <c r="AL69" s="90"/>
+      <c r="AM69" s="90"/>
+      <c r="AN69" s="90"/>
     </row>
     <row r="70" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D70">
         <v>31</v>
       </c>
-      <c r="E70" s="78" t="s">
+      <c r="E70" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F70" s="78"/>
-      <c r="G70" s="78" t="s">
+      <c r="F70" s="90"/>
+      <c r="G70" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="H70" s="78"/>
-      <c r="I70" s="78"/>
-      <c r="J70" s="78"/>
-      <c r="K70" s="78"/>
-      <c r="L70" s="78"/>
-      <c r="M70" s="78"/>
-      <c r="N70" s="78"/>
-      <c r="O70" s="78"/>
-      <c r="P70" s="78"/>
-      <c r="Q70" s="78"/>
-      <c r="R70" s="78"/>
-      <c r="S70" s="78"/>
-      <c r="T70" s="78"/>
-      <c r="U70" s="78"/>
-      <c r="V70" s="78"/>
-      <c r="W70" s="78"/>
-      <c r="X70" s="78"/>
-      <c r="Y70" s="78"/>
-      <c r="Z70" s="78"/>
-      <c r="AA70" s="78"/>
-      <c r="AB70" s="78"/>
-      <c r="AC70" s="78"/>
-      <c r="AD70" s="78"/>
-      <c r="AE70" s="78"/>
-      <c r="AF70" s="78"/>
-      <c r="AG70" s="78"/>
-      <c r="AH70" s="78" t="s">
+      <c r="H70" s="90"/>
+      <c r="I70" s="90"/>
+      <c r="J70" s="90"/>
+      <c r="K70" s="90"/>
+      <c r="L70" s="90"/>
+      <c r="M70" s="90"/>
+      <c r="N70" s="90"/>
+      <c r="O70" s="90"/>
+      <c r="P70" s="90"/>
+      <c r="Q70" s="90"/>
+      <c r="R70" s="90"/>
+      <c r="S70" s="90"/>
+      <c r="T70" s="90"/>
+      <c r="U70" s="90"/>
+      <c r="V70" s="90"/>
+      <c r="W70" s="90"/>
+      <c r="X70" s="90"/>
+      <c r="Y70" s="90"/>
+      <c r="Z70" s="90"/>
+      <c r="AA70" s="90"/>
+      <c r="AB70" s="90"/>
+      <c r="AC70" s="90"/>
+      <c r="AD70" s="90"/>
+      <c r="AE70" s="90"/>
+      <c r="AF70" s="90"/>
+      <c r="AG70" s="90"/>
+      <c r="AH70" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="AI70" s="78"/>
-      <c r="AJ70" s="78"/>
-      <c r="AK70" s="78"/>
-      <c r="AL70" s="78"/>
-      <c r="AM70" s="78"/>
-      <c r="AN70" s="78"/>
+      <c r="AI70" s="90"/>
+      <c r="AJ70" s="90"/>
+      <c r="AK70" s="90"/>
+      <c r="AL70" s="90"/>
+      <c r="AM70" s="90"/>
+      <c r="AN70" s="90"/>
     </row>
     <row r="71" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D71">
         <v>32</v>
       </c>
-      <c r="E71" s="78" t="s">
+      <c r="E71" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F71" s="78"/>
-      <c r="G71" s="78" t="s">
+      <c r="F71" s="90"/>
+      <c r="G71" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="H71" s="78"/>
-      <c r="I71" s="78"/>
-      <c r="J71" s="78"/>
-      <c r="K71" s="78"/>
-      <c r="L71" s="78"/>
-      <c r="M71" s="78"/>
-      <c r="N71" s="78"/>
-      <c r="O71" s="78"/>
-      <c r="P71" s="78"/>
-      <c r="Q71" s="78"/>
-      <c r="R71" s="78"/>
-      <c r="S71" s="78"/>
-      <c r="T71" s="78"/>
-      <c r="U71" s="78"/>
-      <c r="V71" s="78"/>
-      <c r="W71" s="78"/>
-      <c r="X71" s="78"/>
-      <c r="Y71" s="78"/>
-      <c r="Z71" s="78"/>
-      <c r="AA71" s="78"/>
-      <c r="AB71" s="78"/>
-      <c r="AC71" s="78"/>
-      <c r="AD71" s="78"/>
-      <c r="AE71" s="78"/>
-      <c r="AF71" s="78"/>
-      <c r="AG71" s="78"/>
-      <c r="AH71" s="78" t="s">
+      <c r="H71" s="90"/>
+      <c r="I71" s="90"/>
+      <c r="J71" s="90"/>
+      <c r="K71" s="90"/>
+      <c r="L71" s="90"/>
+      <c r="M71" s="90"/>
+      <c r="N71" s="90"/>
+      <c r="O71" s="90"/>
+      <c r="P71" s="90"/>
+      <c r="Q71" s="90"/>
+      <c r="R71" s="90"/>
+      <c r="S71" s="90"/>
+      <c r="T71" s="90"/>
+      <c r="U71" s="90"/>
+      <c r="V71" s="90"/>
+      <c r="W71" s="90"/>
+      <c r="X71" s="90"/>
+      <c r="Y71" s="90"/>
+      <c r="Z71" s="90"/>
+      <c r="AA71" s="90"/>
+      <c r="AB71" s="90"/>
+      <c r="AC71" s="90"/>
+      <c r="AD71" s="90"/>
+      <c r="AE71" s="90"/>
+      <c r="AF71" s="90"/>
+      <c r="AG71" s="90"/>
+      <c r="AH71" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="AI71" s="78"/>
-      <c r="AJ71" s="78"/>
-      <c r="AK71" s="78"/>
-      <c r="AL71" s="78"/>
-      <c r="AM71" s="78"/>
-      <c r="AN71" s="78"/>
+      <c r="AI71" s="90"/>
+      <c r="AJ71" s="90"/>
+      <c r="AK71" s="90"/>
+      <c r="AL71" s="90"/>
+      <c r="AM71" s="90"/>
+      <c r="AN71" s="90"/>
     </row>
     <row r="72" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72">
         <v>33</v>
       </c>
-      <c r="E72" s="78" t="s">
+      <c r="E72" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F72" s="78"/>
-      <c r="G72" s="78" t="s">
+      <c r="F72" s="90"/>
+      <c r="G72" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="H72" s="78"/>
-      <c r="I72" s="78"/>
-      <c r="J72" s="78"/>
-      <c r="K72" s="78"/>
-      <c r="L72" s="78"/>
-      <c r="M72" s="78"/>
-      <c r="N72" s="78"/>
-      <c r="O72" s="78"/>
-      <c r="P72" s="78"/>
-      <c r="Q72" s="78"/>
-      <c r="R72" s="78"/>
-      <c r="S72" s="78"/>
-      <c r="T72" s="78"/>
-      <c r="U72" s="78"/>
-      <c r="V72" s="78"/>
-      <c r="W72" s="78"/>
-      <c r="X72" s="78"/>
-      <c r="Y72" s="78"/>
-      <c r="Z72" s="78"/>
-      <c r="AA72" s="78"/>
-      <c r="AB72" s="78"/>
-      <c r="AC72" s="78"/>
-      <c r="AD72" s="78"/>
-      <c r="AE72" s="78"/>
-      <c r="AF72" s="78"/>
-      <c r="AG72" s="78"/>
-      <c r="AH72" s="78" t="s">
+      <c r="H72" s="90"/>
+      <c r="I72" s="90"/>
+      <c r="J72" s="90"/>
+      <c r="K72" s="90"/>
+      <c r="L72" s="90"/>
+      <c r="M72" s="90"/>
+      <c r="N72" s="90"/>
+      <c r="O72" s="90"/>
+      <c r="P72" s="90"/>
+      <c r="Q72" s="90"/>
+      <c r="R72" s="90"/>
+      <c r="S72" s="90"/>
+      <c r="T72" s="90"/>
+      <c r="U72" s="90"/>
+      <c r="V72" s="90"/>
+      <c r="W72" s="90"/>
+      <c r="X72" s="90"/>
+      <c r="Y72" s="90"/>
+      <c r="Z72" s="90"/>
+      <c r="AA72" s="90"/>
+      <c r="AB72" s="90"/>
+      <c r="AC72" s="90"/>
+      <c r="AD72" s="90"/>
+      <c r="AE72" s="90"/>
+      <c r="AF72" s="90"/>
+      <c r="AG72" s="90"/>
+      <c r="AH72" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="AI72" s="78"/>
-      <c r="AJ72" s="78"/>
-      <c r="AK72" s="78"/>
-      <c r="AL72" s="78"/>
-      <c r="AM72" s="78"/>
-      <c r="AN72" s="78"/>
+      <c r="AI72" s="90"/>
+      <c r="AJ72" s="90"/>
+      <c r="AK72" s="90"/>
+      <c r="AL72" s="90"/>
+      <c r="AM72" s="90"/>
+      <c r="AN72" s="90"/>
     </row>
     <row r="73" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73">
         <v>34</v>
       </c>
-      <c r="E73" s="78" t="s">
+      <c r="E73" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F73" s="78"/>
-      <c r="G73" s="78" t="s">
+      <c r="F73" s="90"/>
+      <c r="G73" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="H73" s="78"/>
-      <c r="I73" s="78"/>
-      <c r="J73" s="78"/>
-      <c r="K73" s="78"/>
-      <c r="L73" s="78"/>
-      <c r="M73" s="78"/>
-      <c r="N73" s="78"/>
-      <c r="O73" s="78"/>
-      <c r="P73" s="78"/>
-      <c r="Q73" s="78"/>
-      <c r="R73" s="78"/>
-      <c r="S73" s="78"/>
-      <c r="T73" s="78"/>
-      <c r="U73" s="78"/>
-      <c r="V73" s="78"/>
-      <c r="W73" s="78"/>
-      <c r="X73" s="78"/>
-      <c r="Y73" s="78"/>
-      <c r="Z73" s="78"/>
-      <c r="AA73" s="78"/>
-      <c r="AB73" s="78"/>
-      <c r="AC73" s="78"/>
-      <c r="AD73" s="78"/>
-      <c r="AE73" s="78"/>
-      <c r="AF73" s="78"/>
-      <c r="AG73" s="78"/>
-      <c r="AH73" s="78" t="s">
+      <c r="H73" s="90"/>
+      <c r="I73" s="90"/>
+      <c r="J73" s="90"/>
+      <c r="K73" s="90"/>
+      <c r="L73" s="90"/>
+      <c r="M73" s="90"/>
+      <c r="N73" s="90"/>
+      <c r="O73" s="90"/>
+      <c r="P73" s="90"/>
+      <c r="Q73" s="90"/>
+      <c r="R73" s="90"/>
+      <c r="S73" s="90"/>
+      <c r="T73" s="90"/>
+      <c r="U73" s="90"/>
+      <c r="V73" s="90"/>
+      <c r="W73" s="90"/>
+      <c r="X73" s="90"/>
+      <c r="Y73" s="90"/>
+      <c r="Z73" s="90"/>
+      <c r="AA73" s="90"/>
+      <c r="AB73" s="90"/>
+      <c r="AC73" s="90"/>
+      <c r="AD73" s="90"/>
+      <c r="AE73" s="90"/>
+      <c r="AF73" s="90"/>
+      <c r="AG73" s="90"/>
+      <c r="AH73" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="AI73" s="78"/>
-      <c r="AJ73" s="78"/>
-      <c r="AK73" s="78"/>
-      <c r="AL73" s="78"/>
-      <c r="AM73" s="78"/>
-      <c r="AN73" s="78"/>
+      <c r="AI73" s="90"/>
+      <c r="AJ73" s="90"/>
+      <c r="AK73" s="90"/>
+      <c r="AL73" s="90"/>
+      <c r="AM73" s="90"/>
+      <c r="AN73" s="90"/>
     </row>
     <row r="74" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D74">
         <v>35</v>
       </c>
-      <c r="E74" s="78" t="s">
+      <c r="E74" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F74" s="78"/>
-      <c r="G74" s="80" t="s">
+      <c r="F74" s="90"/>
+      <c r="G74" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="H74" s="78"/>
-      <c r="I74" s="78"/>
-      <c r="J74" s="78"/>
-      <c r="K74" s="78"/>
-      <c r="L74" s="78"/>
-      <c r="M74" s="78"/>
-      <c r="N74" s="78"/>
-      <c r="O74" s="78"/>
-      <c r="P74" s="78"/>
-      <c r="Q74" s="78"/>
-      <c r="R74" s="78"/>
-      <c r="S74" s="78"/>
-      <c r="T74" s="78"/>
-      <c r="U74" s="78"/>
-      <c r="V74" s="78"/>
-      <c r="W74" s="78"/>
-      <c r="X74" s="78"/>
-      <c r="Y74" s="78"/>
-      <c r="Z74" s="78"/>
-      <c r="AA74" s="78"/>
-      <c r="AB74" s="78"/>
-      <c r="AC74" s="78"/>
-      <c r="AD74" s="78"/>
-      <c r="AE74" s="78"/>
-      <c r="AF74" s="78"/>
-      <c r="AG74" s="78"/>
-      <c r="AH74" s="78" t="s">
+      <c r="H74" s="90"/>
+      <c r="I74" s="90"/>
+      <c r="J74" s="90"/>
+      <c r="K74" s="90"/>
+      <c r="L74" s="90"/>
+      <c r="M74" s="90"/>
+      <c r="N74" s="90"/>
+      <c r="O74" s="90"/>
+      <c r="P74" s="90"/>
+      <c r="Q74" s="90"/>
+      <c r="R74" s="90"/>
+      <c r="S74" s="90"/>
+      <c r="T74" s="90"/>
+      <c r="U74" s="90"/>
+      <c r="V74" s="90"/>
+      <c r="W74" s="90"/>
+      <c r="X74" s="90"/>
+      <c r="Y74" s="90"/>
+      <c r="Z74" s="90"/>
+      <c r="AA74" s="90"/>
+      <c r="AB74" s="90"/>
+      <c r="AC74" s="90"/>
+      <c r="AD74" s="90"/>
+      <c r="AE74" s="90"/>
+      <c r="AF74" s="90"/>
+      <c r="AG74" s="90"/>
+      <c r="AH74" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="AI74" s="78"/>
-      <c r="AJ74" s="78"/>
-      <c r="AK74" s="78"/>
-      <c r="AL74" s="78"/>
-      <c r="AM74" s="78"/>
-      <c r="AN74" s="78"/>
+      <c r="AI74" s="90"/>
+      <c r="AJ74" s="90"/>
+      <c r="AK74" s="90"/>
+      <c r="AL74" s="90"/>
+      <c r="AM74" s="90"/>
+      <c r="AN74" s="90"/>
     </row>
     <row r="75" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D75">
         <v>35</v>
       </c>
-      <c r="E75" s="78" t="s">
+      <c r="E75" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F75" s="78"/>
-      <c r="G75" s="78" t="s">
+      <c r="F75" s="90"/>
+      <c r="G75" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="H75" s="78"/>
-      <c r="I75" s="78"/>
-      <c r="J75" s="78"/>
-      <c r="K75" s="78"/>
-      <c r="L75" s="78"/>
-      <c r="M75" s="78"/>
-      <c r="N75" s="78"/>
-      <c r="O75" s="78"/>
-      <c r="P75" s="78"/>
-      <c r="Q75" s="78"/>
-      <c r="R75" s="78"/>
-      <c r="S75" s="78"/>
-      <c r="T75" s="78"/>
-      <c r="U75" s="78"/>
-      <c r="V75" s="78"/>
-      <c r="W75" s="78"/>
-      <c r="X75" s="78"/>
-      <c r="Y75" s="78"/>
-      <c r="Z75" s="78"/>
-      <c r="AA75" s="78"/>
-      <c r="AB75" s="78"/>
-      <c r="AC75" s="78"/>
-      <c r="AD75" s="78"/>
-      <c r="AE75" s="78"/>
-      <c r="AF75" s="78"/>
-      <c r="AG75" s="78"/>
-      <c r="AH75" s="78" t="s">
+      <c r="H75" s="90"/>
+      <c r="I75" s="90"/>
+      <c r="J75" s="90"/>
+      <c r="K75" s="90"/>
+      <c r="L75" s="90"/>
+      <c r="M75" s="90"/>
+      <c r="N75" s="90"/>
+      <c r="O75" s="90"/>
+      <c r="P75" s="90"/>
+      <c r="Q75" s="90"/>
+      <c r="R75" s="90"/>
+      <c r="S75" s="90"/>
+      <c r="T75" s="90"/>
+      <c r="U75" s="90"/>
+      <c r="V75" s="90"/>
+      <c r="W75" s="90"/>
+      <c r="X75" s="90"/>
+      <c r="Y75" s="90"/>
+      <c r="Z75" s="90"/>
+      <c r="AA75" s="90"/>
+      <c r="AB75" s="90"/>
+      <c r="AC75" s="90"/>
+      <c r="AD75" s="90"/>
+      <c r="AE75" s="90"/>
+      <c r="AF75" s="90"/>
+      <c r="AG75" s="90"/>
+      <c r="AH75" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="AI75" s="78"/>
-      <c r="AJ75" s="78"/>
-      <c r="AK75" s="78"/>
-      <c r="AL75" s="78"/>
-      <c r="AM75" s="78"/>
-      <c r="AN75" s="78"/>
+      <c r="AI75" s="90"/>
+      <c r="AJ75" s="90"/>
+      <c r="AK75" s="90"/>
+      <c r="AL75" s="90"/>
+      <c r="AM75" s="90"/>
+      <c r="AN75" s="90"/>
     </row>
     <row r="76" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D76">
         <v>36</v>
       </c>
-      <c r="E76" s="78" t="s">
+      <c r="E76" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F76" s="78"/>
-      <c r="G76" s="78" t="s">
+      <c r="F76" s="90"/>
+      <c r="G76" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="H76" s="78"/>
-      <c r="I76" s="78"/>
-      <c r="J76" s="78"/>
-      <c r="K76" s="78"/>
-      <c r="L76" s="78"/>
-      <c r="M76" s="78"/>
-      <c r="N76" s="78"/>
-      <c r="O76" s="78"/>
-      <c r="P76" s="78"/>
-      <c r="Q76" s="78"/>
-      <c r="R76" s="78"/>
-      <c r="S76" s="78"/>
-      <c r="T76" s="78"/>
-      <c r="U76" s="78"/>
-      <c r="V76" s="78"/>
-      <c r="W76" s="78"/>
-      <c r="X76" s="78"/>
-      <c r="Y76" s="78"/>
-      <c r="Z76" s="78"/>
-      <c r="AA76" s="78"/>
-      <c r="AB76" s="78"/>
-      <c r="AC76" s="78"/>
-      <c r="AD76" s="78"/>
-      <c r="AE76" s="78"/>
-      <c r="AF76" s="78"/>
-      <c r="AG76" s="78"/>
-      <c r="AH76" s="78" t="s">
+      <c r="H76" s="90"/>
+      <c r="I76" s="90"/>
+      <c r="J76" s="90"/>
+      <c r="K76" s="90"/>
+      <c r="L76" s="90"/>
+      <c r="M76" s="90"/>
+      <c r="N76" s="90"/>
+      <c r="O76" s="90"/>
+      <c r="P76" s="90"/>
+      <c r="Q76" s="90"/>
+      <c r="R76" s="90"/>
+      <c r="S76" s="90"/>
+      <c r="T76" s="90"/>
+      <c r="U76" s="90"/>
+      <c r="V76" s="90"/>
+      <c r="W76" s="90"/>
+      <c r="X76" s="90"/>
+      <c r="Y76" s="90"/>
+      <c r="Z76" s="90"/>
+      <c r="AA76" s="90"/>
+      <c r="AB76" s="90"/>
+      <c r="AC76" s="90"/>
+      <c r="AD76" s="90"/>
+      <c r="AE76" s="90"/>
+      <c r="AF76" s="90"/>
+      <c r="AG76" s="90"/>
+      <c r="AH76" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="AI76" s="78"/>
-      <c r="AJ76" s="78"/>
-      <c r="AK76" s="78"/>
-      <c r="AL76" s="78"/>
-      <c r="AM76" s="78"/>
-      <c r="AN76" s="78"/>
+      <c r="AI76" s="90"/>
+      <c r="AJ76" s="90"/>
+      <c r="AK76" s="90"/>
+      <c r="AL76" s="90"/>
+      <c r="AM76" s="90"/>
+      <c r="AN76" s="90"/>
     </row>
     <row r="77" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D77">
         <v>37</v>
       </c>
-      <c r="E77" s="78" t="s">
+      <c r="E77" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="78"/>
-      <c r="G77" s="80" t="s">
+      <c r="F77" s="90"/>
+      <c r="G77" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="H77" s="78"/>
-      <c r="I77" s="78"/>
-      <c r="J77" s="78"/>
-      <c r="K77" s="78"/>
-      <c r="L77" s="78"/>
-      <c r="M77" s="78"/>
-      <c r="N77" s="78"/>
-      <c r="O77" s="78"/>
-      <c r="P77" s="78"/>
-      <c r="Q77" s="78"/>
-      <c r="R77" s="78"/>
-      <c r="S77" s="78"/>
-      <c r="T77" s="78"/>
-      <c r="U77" s="78"/>
-      <c r="V77" s="78"/>
-      <c r="W77" s="78"/>
-      <c r="X77" s="78"/>
-      <c r="Y77" s="78"/>
-      <c r="Z77" s="78"/>
-      <c r="AA77" s="78"/>
-      <c r="AB77" s="78"/>
-      <c r="AC77" s="78"/>
-      <c r="AD77" s="78"/>
-      <c r="AE77" s="78"/>
-      <c r="AF77" s="78"/>
-      <c r="AG77" s="78"/>
-      <c r="AH77" s="78" t="s">
+      <c r="H77" s="90"/>
+      <c r="I77" s="90"/>
+      <c r="J77" s="90"/>
+      <c r="K77" s="90"/>
+      <c r="L77" s="90"/>
+      <c r="M77" s="90"/>
+      <c r="N77" s="90"/>
+      <c r="O77" s="90"/>
+      <c r="P77" s="90"/>
+      <c r="Q77" s="90"/>
+      <c r="R77" s="90"/>
+      <c r="S77" s="90"/>
+      <c r="T77" s="90"/>
+      <c r="U77" s="90"/>
+      <c r="V77" s="90"/>
+      <c r="W77" s="90"/>
+      <c r="X77" s="90"/>
+      <c r="Y77" s="90"/>
+      <c r="Z77" s="90"/>
+      <c r="AA77" s="90"/>
+      <c r="AB77" s="90"/>
+      <c r="AC77" s="90"/>
+      <c r="AD77" s="90"/>
+      <c r="AE77" s="90"/>
+      <c r="AF77" s="90"/>
+      <c r="AG77" s="90"/>
+      <c r="AH77" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="AI77" s="78"/>
-      <c r="AJ77" s="78"/>
-      <c r="AK77" s="78"/>
-      <c r="AL77" s="78"/>
-      <c r="AM77" s="78"/>
-      <c r="AN77" s="78"/>
+      <c r="AI77" s="90"/>
+      <c r="AJ77" s="90"/>
+      <c r="AK77" s="90"/>
+      <c r="AL77" s="90"/>
+      <c r="AM77" s="90"/>
+      <c r="AN77" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:AG77"/>
-    <mergeCell ref="AH77:AN77"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:AG75"/>
-    <mergeCell ref="AH75:AN75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:AG76"/>
-    <mergeCell ref="AH76:AN76"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:AG73"/>
-    <mergeCell ref="AH73:AN73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:AG74"/>
-    <mergeCell ref="AH74:AN74"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:AG71"/>
-    <mergeCell ref="AH71:AN71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:AG72"/>
-    <mergeCell ref="AH72:AN72"/>
+    <mergeCell ref="BY20:CL20"/>
+    <mergeCell ref="BJ12:BW12"/>
+    <mergeCell ref="AU28:BH28"/>
+    <mergeCell ref="BJ28:BW28"/>
+    <mergeCell ref="BM14:BT15"/>
+    <mergeCell ref="G7:M13"/>
+    <mergeCell ref="AH7:AN13"/>
+    <mergeCell ref="AH27:AN33"/>
+    <mergeCell ref="G27:M33"/>
+    <mergeCell ref="S16:AB25"/>
+    <mergeCell ref="AU12:BH12"/>
+    <mergeCell ref="AZ18:BC21"/>
+    <mergeCell ref="AH40:AN40"/>
+    <mergeCell ref="AH41:AN41"/>
+    <mergeCell ref="AH42:AN42"/>
+    <mergeCell ref="AH43:AN43"/>
+    <mergeCell ref="BM24:BT25"/>
+    <mergeCell ref="AX32:BE39"/>
+    <mergeCell ref="BO30:BR30"/>
+    <mergeCell ref="CN22:CW22"/>
+    <mergeCell ref="CI23:CJ24"/>
+    <mergeCell ref="CD23:CG23"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G39:AG39"/>
+    <mergeCell ref="AH39:AN39"/>
+    <mergeCell ref="G40:AG40"/>
+    <mergeCell ref="G41:AG41"/>
+    <mergeCell ref="G42:AG42"/>
+    <mergeCell ref="G43:AG43"/>
+    <mergeCell ref="G44:AG44"/>
+    <mergeCell ref="G45:AG45"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G52:AG52"/>
+    <mergeCell ref="G53:AG53"/>
+    <mergeCell ref="G54:AG54"/>
+    <mergeCell ref="G55:AG55"/>
+    <mergeCell ref="G56:AG56"/>
+    <mergeCell ref="G57:AG57"/>
+    <mergeCell ref="G50:AG50"/>
+    <mergeCell ref="G51:AG51"/>
+    <mergeCell ref="G48:AG48"/>
+    <mergeCell ref="G49:AG49"/>
+    <mergeCell ref="G63:AG63"/>
+    <mergeCell ref="G65:AG65"/>
+    <mergeCell ref="G66:AG66"/>
+    <mergeCell ref="G67:AG67"/>
+    <mergeCell ref="G68:AG68"/>
+    <mergeCell ref="G69:AG69"/>
+    <mergeCell ref="G58:AG58"/>
+    <mergeCell ref="G59:AG59"/>
+    <mergeCell ref="G60:AG60"/>
+    <mergeCell ref="G61:AG61"/>
+    <mergeCell ref="G62:AG62"/>
+    <mergeCell ref="G64:AG64"/>
+    <mergeCell ref="AH60:AN60"/>
+    <mergeCell ref="AH61:AN61"/>
+    <mergeCell ref="AH51:AN51"/>
+    <mergeCell ref="AH52:AN52"/>
+    <mergeCell ref="AH53:AN53"/>
+    <mergeCell ref="AH54:AN54"/>
+    <mergeCell ref="AH55:AN55"/>
+    <mergeCell ref="AH44:AN44"/>
+    <mergeCell ref="AH45:AN45"/>
+    <mergeCell ref="AH50:AN50"/>
+    <mergeCell ref="AH48:AN48"/>
+    <mergeCell ref="AH49:AN49"/>
     <mergeCell ref="D38:AN38"/>
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="AH66:AN66"/>
@@ -10431,97 +10879,27 @@
     <mergeCell ref="AH57:AN57"/>
     <mergeCell ref="AH58:AN58"/>
     <mergeCell ref="AH59:AN59"/>
-    <mergeCell ref="AH60:AN60"/>
-    <mergeCell ref="AH61:AN61"/>
-    <mergeCell ref="AH51:AN51"/>
-    <mergeCell ref="AH52:AN52"/>
-    <mergeCell ref="AH53:AN53"/>
-    <mergeCell ref="AH54:AN54"/>
-    <mergeCell ref="AH55:AN55"/>
-    <mergeCell ref="AH44:AN44"/>
-    <mergeCell ref="AH45:AN45"/>
-    <mergeCell ref="AH50:AN50"/>
-    <mergeCell ref="AH48:AN48"/>
-    <mergeCell ref="AH49:AN49"/>
-    <mergeCell ref="G63:AG63"/>
-    <mergeCell ref="G65:AG65"/>
-    <mergeCell ref="G66:AG66"/>
-    <mergeCell ref="G67:AG67"/>
-    <mergeCell ref="G68:AG68"/>
-    <mergeCell ref="G69:AG69"/>
-    <mergeCell ref="G58:AG58"/>
-    <mergeCell ref="G59:AG59"/>
-    <mergeCell ref="G60:AG60"/>
-    <mergeCell ref="G61:AG61"/>
-    <mergeCell ref="G62:AG62"/>
-    <mergeCell ref="G64:AG64"/>
-    <mergeCell ref="G52:AG52"/>
-    <mergeCell ref="G53:AG53"/>
-    <mergeCell ref="G54:AG54"/>
-    <mergeCell ref="G55:AG55"/>
-    <mergeCell ref="G56:AG56"/>
-    <mergeCell ref="G57:AG57"/>
-    <mergeCell ref="G50:AG50"/>
-    <mergeCell ref="G51:AG51"/>
-    <mergeCell ref="G48:AG48"/>
-    <mergeCell ref="G49:AG49"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G39:AG39"/>
-    <mergeCell ref="AH39:AN39"/>
-    <mergeCell ref="G40:AG40"/>
-    <mergeCell ref="G41:AG41"/>
-    <mergeCell ref="G42:AG42"/>
-    <mergeCell ref="G43:AG43"/>
-    <mergeCell ref="G44:AG44"/>
-    <mergeCell ref="G45:AG45"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="AH40:AN40"/>
-    <mergeCell ref="AH41:AN41"/>
-    <mergeCell ref="AH42:AN42"/>
-    <mergeCell ref="AH43:AN43"/>
-    <mergeCell ref="BM24:BT25"/>
-    <mergeCell ref="AX32:BE39"/>
-    <mergeCell ref="BO30:BR30"/>
-    <mergeCell ref="CN22:CW22"/>
-    <mergeCell ref="CI23:CJ24"/>
-    <mergeCell ref="CD23:CG23"/>
-    <mergeCell ref="BY20:CL20"/>
-    <mergeCell ref="BJ12:BW12"/>
-    <mergeCell ref="AU28:BH28"/>
-    <mergeCell ref="BJ28:BW28"/>
-    <mergeCell ref="BM14:BT15"/>
-    <mergeCell ref="G7:M13"/>
-    <mergeCell ref="AH7:AN13"/>
-    <mergeCell ref="AH27:AN33"/>
-    <mergeCell ref="G27:M33"/>
-    <mergeCell ref="S16:AB25"/>
-    <mergeCell ref="AU12:BH12"/>
-    <mergeCell ref="AZ18:BC21"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:AG73"/>
+    <mergeCell ref="AH73:AN73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:AG74"/>
+    <mergeCell ref="AH74:AN74"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:AG71"/>
+    <mergeCell ref="AH71:AN71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:AG72"/>
+    <mergeCell ref="AH72:AN72"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:AG77"/>
+    <mergeCell ref="AH77:AN77"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:AG75"/>
+    <mergeCell ref="AH75:AN75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:AG76"/>
+    <mergeCell ref="AH76:AN76"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan/스테이지_1_맵_기획.xlsx
+++ b/Plan/스테이지_1_맵_기획.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COCONUT\Documents\BadGuys_2022\Plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6DBB38-08F9-48B1-B007-819A900DEFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E94DDF52-5676-4757-AD64-D7689B00AF4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Stage" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="G_Stage" sheetId="3" r:id="rId3"/>
     <sheet name="B_Stage" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -369,389 +363,389 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>네번째 그림 클리어 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각을 모두 모았을 때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 아마 이 조각들은 보석 보관함을 여는데 쓸 수 있을 거야 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸어다닐 수 있는 공간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 공간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 공간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번 공간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번 공간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번 공간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 공간 ( 시작점 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벤치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통나무 ( 나비가 처음 스폰될 예정 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안내판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번 공간 ( 마지막 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정자 예시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캔버스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 아마 환자의 기억중에서 가장 중요한 부분일 지 몰라. '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 공원에 여자친구와 자주 오고는 했었어. 지금은 혼자지만 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 헤어지고 나서도 가끔 들렸었지 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 베고나선 그루터기는 왜 놔둔걸까. 가끔 궁금했었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 그루터기도 혼자 남겨진거겠지 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무와 상호작용 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무와 상호작용 후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 이 나비 되게 강조된 것 처럼 보여 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 나비를 좀 따라가보면 좋을 것 같은데 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 벤치에 자주 앉아 있고는 했어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 사실 그냥 숲속에서 시간을 보내고 싶었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 필드 진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 영감을 얻겠다고 공원에 들어오고는 했었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 벤치가 특이하게 생겼네? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 벤치의 배치가 기억의 조각일지도 몰라 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘 다 떨어트렸을 때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘 다 붙였을 때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이젠 붙어있을 필요가 없지. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이렇게 붙여서 쓰곤 했었지. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세번째 필드 진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 조각이 뭔가 이상한데? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 마치 깨진거 같아. '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 공원에 만나자고 하면 여기에서 날 기다리곤 했었지 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 드디어 다 맞췄다! '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각을 다 맞췄을 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 지금은 내가 이 자리에 혼자 서있네 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이런 조형물은 왜 만든 걸까 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 공원엔 어린애도 오지 않는데. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 이거 키즈카페 같은데에 있는거 아닌가? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네번째 필드 진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 빛나는 순서대로 밟으면 되는걸까? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안내판과 상호작용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 간단하네. '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발판을 순서대로 밟았을 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 이 순서가 아니었나? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 뭐 그래도 가끔 순서대로 밟아보긴 했어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 순서대로 밟으면 기분이 좋아졌거든 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 내가 밟으면 뒤따라서 밟았었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이젠 뒤따라서 오는 사람은 없네 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패 했을 때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 이번 건 왜 이리 길어진거야 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 필드 진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 어느 날, 파란색 나비가 정자 난간에 앉아있었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 저 파란색 나비를 보곤 그려야겠다고 생각했지 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 혼자가 아니라서 그런지 그릴 시간이 별로 없었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이제는 그릴 시간이 충분하네 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 아마 이 그림만 완성하면 끝일 것 같아 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이젤 확인 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림이 전부 완성 되면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 정말 예쁜 나비였어. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이젠 다른 곳으로 가버렸지만. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 아마 헤어진게 문제이려나? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 그림 접촉시</t>
+  </si>
+  <si>
+    <t>' 이 그림은 중요할거 같아. '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 환자가 살던 집인가? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 옛날에 살던 집이네. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 색깔이 사라지면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 색깔이 사라지면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 색깔이 빠진 것 같은데? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 아까 그림이 좀 바뀌었겠네 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 그림은.. 중요했었던 그림인 것 같은데.. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지를 나가면서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물감 튜브 획득 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.A.M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 특정한 물체는 같은 기억 속의 다른 물체와 상호작용 할 수 있습니다. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물감 튜브 획득 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 어떻게 생긴 그림이었을까? 맞춰봐야겠는데? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>' 우선 모든 전원이 돌아온 것 같아 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네번째 그림 클리어 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조각을 모두 모았을 때</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 아마 이 조각들은 보석 보관함을 여는데 쓸 수 있을 거야 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 이 그림들 되게 비현실적인데, 말이라도 걸거 같아 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>걸어다닐 수 있는 공간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1번 공간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2번 공간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3번 공간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4번 공간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5번 공간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1번 공간 ( 시작점 )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>통나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>통나무 ( 나비가 처음 스폰될 예정 )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조각상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>안내판</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5번 공간 ( 마지막 )</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정자 예시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캔버스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>idx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 아마 환자의 기억중에서 가장 중요한 부분일 지 몰라. '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이 공원에 여자친구와 자주 오고는 했었어. 지금은 혼자지만 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 헤어지고 나서도 가끔 들렸었지 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 베고나선 그루터기는 왜 놔둔걸까. 가끔 궁금했었어 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이 그루터기도 혼자 남겨진거겠지 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무와 상호작용 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무와 상호작용 후</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 이 나비 되게 강조된 것 처럼 보여 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 나비를 좀 따라가보면 좋을 것 같은데 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이 벤치에 자주 앉아 있고는 했어 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 사실 그냥 숲속에서 시간을 보내고 싶었어 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두번째 필드 진입 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 영감을 얻겠다고 공원에 들어오고는 했었어 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 벤치가 특이하게 생겼네? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 벤치의 배치가 기억의 조각일지도 몰라 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>둘 다 떨어트렸을 때</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>둘 다 붙였을 때</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이젠 붙어있을 필요가 없지. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이렇게 붙여서 쓰곤 했었지. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세번째 필드 진입 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 조각이 뭔가 이상한데? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 마치 깨진거 같아. '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이 공원에 만나자고 하면 여기에서 날 기다리곤 했었지 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 드디어 다 맞췄다! '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조각을 다 맞췄을 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 지금은 내가 이 자리에 혼자 서있네 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이런 조형물은 왜 만든 걸까 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이 공원엔 어린애도 오지 않는데. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 이거 키즈카페 같은데에 있는거 아닌가? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네번째 필드 진입 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 빛나는 순서대로 밟으면 되는걸까? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>안내판과 상호작용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 간단하네. '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>발판을 순서대로 밟았을 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 이 순서가 아니었나? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 뭐 그래도 가끔 순서대로 밟아보긴 했어 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 순서대로 밟으면 기분이 좋아졌거든 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 내가 밟으면 뒤따라서 밟았었어 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이젠 뒤따라서 오는 사람은 없네 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실패 했을 때</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 이번 건 왜 이리 길어진거야 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마지막 필드 진입 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 어느 날, 파란색 나비가 정자 난간에 앉아있었어 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 저 파란색 나비를 보곤 그려야겠다고 생각했지 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 혼자가 아니라서 그런지 그릴 시간이 별로 없었어 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이제는 그릴 시간이 충분하네 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 아마 이 그림만 완성하면 끝일 것 같아 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이젤 확인 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그림이 전부 완성 되면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 정말 예쁜 나비였어. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이젠 다른 곳으로 가버렸지만. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 아마 헤어진게 문제이려나? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진입 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 그림 접촉시</t>
-  </si>
-  <si>
-    <t>' 이 그림은 중요할거 같아. '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 환자가 살던 집인가? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기억</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 옛날에 살던 집이네. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫 색깔이 사라지면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 색깔이 사라지면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 색깔이 빠진 것 같은데? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 아까 그림이 좀 바뀌었겠네 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이 그림은.. 중요했었던 그림인 것 같은데.. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지를 나가면서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물감 튜브 획득 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M.A.M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 특정한 물체는 같은 기억 속의 다른 물체와 상호작용 할 수 있습니다. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물감 튜브 획득 시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1428,6 +1422,114 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1437,114 +1539,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1575,6 +1569,63 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1615,63 +1666,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1712,7 +1706,7 @@
         <xdr:cNvPr id="2" name="그림 1" descr="LTP-613C) 전통 육각정자 설계 제작 시공 - 서산 해미면 애향공원 : (주)라은엘앤씨">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61CC6A7A-D9D7-4F9E-9869-4B9B4430929E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61CC6A7A-D9D7-4F9E-9869-4B9B4430929E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,14 +2041,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086DB6AF-1EE8-4860-8BED-5FE1DAD876C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AI42"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -2103,18 +2097,18 @@
     </row>
     <row r="3" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="5"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -2141,16 +2135,16 @@
     </row>
     <row r="4" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
       <c r="M4" s="5"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -2163,12 +2157,12 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="77" t="s">
+      <c r="Y4" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="79"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="76"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="3"/>
@@ -2179,16 +2173,16 @@
     </row>
     <row r="5" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="5"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -2197,16 +2191,16 @@
       <c r="R5" s="1"/>
       <c r="S5" s="5"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="77" t="s">
+      <c r="U5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="86"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="82"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="79"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="3"/>
@@ -2217,16 +2211,16 @@
     </row>
     <row r="6" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="5"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -2235,14 +2229,14 @@
       <c r="R6" s="1"/>
       <c r="S6" s="5"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="88"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="85"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="85"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="82"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="3"/>
@@ -2253,16 +2247,16 @@
     </row>
     <row r="7" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="5"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -2289,16 +2283,16 @@
     </row>
     <row r="8" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
       <c r="M8" s="5"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -2311,12 +2305,12 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="71" t="s">
+      <c r="Y8" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="73"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="70"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="3"/>
@@ -2327,16 +2321,16 @@
     </row>
     <row r="9" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
       <c r="M9" s="5"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2349,10 +2343,10 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="76"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="73"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="3"/>
@@ -2363,16 +2357,16 @@
     </row>
     <row r="10" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
       <c r="M10" s="5"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -2435,19 +2429,19 @@
     </row>
     <row r="12" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2473,17 +2467,17 @@
     </row>
     <row r="13" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2505,17 +2499,17 @@
     </row>
     <row r="14" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2537,17 +2531,17 @@
     </row>
     <row r="15" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2569,17 +2563,17 @@
     </row>
     <row r="16" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2601,17 +2595,17 @@
     </row>
     <row r="17" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2633,17 +2627,17 @@
     </row>
     <row r="18" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2665,7 +2659,7 @@
     </row>
     <row r="19" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="56" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1"/>
@@ -2687,21 +2681,21 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="89" t="s">
+      <c r="W19" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="86"/>
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
-      <c r="C20" s="60"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2721,19 +2715,19 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="89"/>
-      <c r="AD20" s="89"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="86"/>
       <c r="AE20" s="3"/>
     </row>
     <row r="21" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
-      <c r="C21" s="60"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2753,31 +2747,31 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="86"/>
       <c r="AE21" s="3"/>
     </row>
     <row r="22" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
-      <c r="C22" s="60"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="64"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2787,29 +2781,29 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="89"/>
-      <c r="AD22" s="89"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="86"/>
+      <c r="AD22" s="86"/>
       <c r="AE22" s="3"/>
     </row>
     <row r="23" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
-      <c r="C23" s="60"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="67"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="64"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2819,29 +2813,29 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="89"/>
-      <c r="AB23" s="89"/>
-      <c r="AC23" s="89"/>
-      <c r="AD23" s="89"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="86"/>
+      <c r="AD23" s="86"/>
       <c r="AE23" s="3"/>
     </row>
     <row r="24" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
-      <c r="C24" s="60"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="67"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="64"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2851,29 +2845,29 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="89"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="86"/>
+      <c r="AB24" s="86"/>
+      <c r="AC24" s="86"/>
+      <c r="AD24" s="86"/>
       <c r="AE24" s="3"/>
     </row>
     <row r="25" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
-      <c r="C25" s="60"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="67"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="64"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2883,29 +2877,29 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="89"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="86"/>
+      <c r="AB25" s="86"/>
+      <c r="AC25" s="86"/>
+      <c r="AD25" s="86"/>
       <c r="AE25" s="3"/>
     </row>
     <row r="26" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
-      <c r="C26" s="60"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="67"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="64"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2915,29 +2909,29 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="89"/>
-      <c r="AB26" s="89"/>
-      <c r="AC26" s="89"/>
-      <c r="AD26" s="89"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="86"/>
+      <c r="AD26" s="86"/>
       <c r="AE26" s="3"/>
     </row>
     <row r="27" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
-      <c r="C27" s="60"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="67"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="64"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2947,29 +2941,29 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="89"/>
-      <c r="AC27" s="89"/>
-      <c r="AD27" s="89"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="86"/>
+      <c r="AB27" s="86"/>
+      <c r="AC27" s="86"/>
+      <c r="AD27" s="86"/>
       <c r="AE27" s="3"/>
     </row>
     <row r="28" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="60"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="67"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="64"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2979,29 +2973,29 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="89"/>
-      <c r="AD28" s="89"/>
+      <c r="W28" s="86"/>
+      <c r="X28" s="86"/>
+      <c r="Y28" s="86"/>
+      <c r="Z28" s="86"/>
+      <c r="AA28" s="86"/>
+      <c r="AB28" s="86"/>
+      <c r="AC28" s="86"/>
+      <c r="AD28" s="86"/>
       <c r="AE28" s="3"/>
     </row>
     <row r="29" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="60"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="70"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="67"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -3011,19 +3005,19 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="89"/>
-      <c r="AA29" s="89"/>
-      <c r="AB29" s="89"/>
-      <c r="AC29" s="89"/>
-      <c r="AD29" s="89"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="86"/>
+      <c r="AD29" s="86"/>
       <c r="AE29" s="3"/>
     </row>
     <row r="30" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="61"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -3043,14 +3037,14 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="89"/>
-      <c r="AA30" s="89"/>
-      <c r="AB30" s="89"/>
-      <c r="AC30" s="89"/>
-      <c r="AD30" s="89"/>
+      <c r="W30" s="86"/>
+      <c r="X30" s="86"/>
+      <c r="Y30" s="86"/>
+      <c r="Z30" s="86"/>
+      <c r="AA30" s="86"/>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="86"/>
+      <c r="AD30" s="86"/>
       <c r="AE30" s="3"/>
     </row>
     <row r="31" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3059,13 +3053,13 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="58"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="55"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -3089,262 +3083,262 @@
     </row>
     <row r="32" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="90"/>
     </row>
     <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52" t="s">
+      <c r="D34" s="88"/>
+      <c r="E34" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52" t="s">
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="88"/>
+      <c r="T34" s="88"/>
+      <c r="U34" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="88"/>
     </row>
     <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
+      <c r="C35" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="88"/>
+      <c r="E35" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="88"/>
+      <c r="U35" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="V35" s="88"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="88"/>
     </row>
     <row r="36" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
+      <c r="C36" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="88"/>
+      <c r="E36" s="89" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="88"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="88"/>
+      <c r="T36" s="88"/>
+      <c r="U36" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="V36" s="88"/>
+      <c r="W36" s="88"/>
+      <c r="X36" s="88"/>
     </row>
     <row r="37" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="88"/>
+      <c r="E37" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="88"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="88"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="88"/>
+      <c r="U37" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
+      <c r="V37" s="88"/>
+      <c r="W37" s="88"/>
+      <c r="X37" s="88"/>
     </row>
     <row r="38" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>3</v>
       </c>
-      <c r="C38" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52" t="s">
+      <c r="C38" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="88"/>
+      <c r="E38" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="88"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="88"/>
+      <c r="T38" s="88"/>
+      <c r="U38" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="V38" s="88"/>
+      <c r="W38" s="88"/>
+      <c r="X38" s="88"/>
     </row>
     <row r="39" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>4</v>
       </c>
-      <c r="C39" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52" t="s">
+      <c r="C39" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="88"/>
+      <c r="E39" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="V39" s="88"/>
+      <c r="W39" s="88"/>
+      <c r="X39" s="88"/>
     </row>
     <row r="40" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="C40" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
+      <c r="C40" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="88"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="V40" s="88"/>
+      <c r="W40" s="88"/>
+      <c r="X40" s="88"/>
     </row>
     <row r="41" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="31"/>
@@ -3398,25 +3392,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C3:L10"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="C19:C30"/>
-    <mergeCell ref="E22:M29"/>
-    <mergeCell ref="Y8:AB9"/>
-    <mergeCell ref="Y4:AB6"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="W19:AD30"/>
-    <mergeCell ref="C12:M18"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:T36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="B33:X33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:T34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:T35"/>
-    <mergeCell ref="U35:X35"/>
     <mergeCell ref="U37:X37"/>
     <mergeCell ref="E37:T37"/>
     <mergeCell ref="C37:D37"/>
@@ -3429,6 +3404,25 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:T39"/>
     <mergeCell ref="U39:X39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:T36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="B33:X33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:T34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:T35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="C3:L10"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="C19:C30"/>
+    <mergeCell ref="E22:M29"/>
+    <mergeCell ref="Y8:AB9"/>
+    <mergeCell ref="Y4:AB6"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="W19:AD30"/>
+    <mergeCell ref="C12:M18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3437,10 +3431,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1FA2A1-5030-4DF8-9AA0-DBF61064659B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AO116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
@@ -4159,460 +4153,460 @@
     </row>
     <row r="19" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
     </row>
     <row r="21" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52" t="s">
+      <c r="D21" s="88"/>
+      <c r="E21" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52" t="s">
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="88"/>
+      <c r="X21" s="88"/>
     </row>
     <row r="22" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53" t="s">
+      <c r="D22" s="88"/>
+      <c r="E22" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52" t="s">
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="88"/>
     </row>
     <row r="23" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53" t="s">
+      <c r="D23" s="88"/>
+      <c r="E23" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52" t="s">
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="88"/>
     </row>
     <row r="24" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52" t="s">
+      <c r="D24" s="88"/>
+      <c r="E24" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52" t="s">
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="88"/>
+      <c r="U24" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
+      <c r="V24" s="88"/>
+      <c r="W24" s="88"/>
+      <c r="X24" s="88"/>
     </row>
     <row r="25" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52" t="s">
+      <c r="D25" s="88"/>
+      <c r="E25" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52" t="s">
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="88"/>
     </row>
     <row r="26" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53" t="s">
+      <c r="D26" s="88"/>
+      <c r="E26" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="52" t="s">
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="88"/>
     </row>
     <row r="27" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="53" t="s">
+      <c r="D27" s="88"/>
+      <c r="E27" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="V27" s="88"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="88"/>
     </row>
     <row r="28" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>6</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="88"/>
     </row>
     <row r="29" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>7</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52" t="s">
+      <c r="D29" s="88"/>
+      <c r="E29" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52" t="s">
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="88"/>
     </row>
     <row r="30" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>8</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52" t="s">
+      <c r="D30" s="88"/>
+      <c r="E30" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52" t="s">
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="88"/>
     </row>
     <row r="31" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>9</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52" t="s">
+      <c r="D31" s="88"/>
+      <c r="E31" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52" t="s">
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="88"/>
     </row>
     <row r="32" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>10</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="53" t="s">
+      <c r="D32" s="88"/>
+      <c r="E32" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52" t="s">
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="88"/>
     </row>
     <row r="33" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>11</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52" t="s">
+      <c r="D33" s="88"/>
+      <c r="E33" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52" t="s">
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
     </row>
     <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4699,32 +4693,6 @@
     <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:T28"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="F4:H6"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="E21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="E24:T24"/>
-    <mergeCell ref="E23:T23"/>
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="E27:T27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="E29:T29"/>
-    <mergeCell ref="E31:T31"/>
     <mergeCell ref="E33:T33"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="B20:X20"/>
@@ -4741,6 +4709,32 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:T30"/>
     <mergeCell ref="E22:T22"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="E27:T27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="E29:T29"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:T28"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="F4:H6"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="E21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="E24:T24"/>
+    <mergeCell ref="E23:T23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4748,11 +4742,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20244086-B834-4773-9DA4-9ED63CBAE8C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB119"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q69" sqref="Q69"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S68" sqref="S68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4761,9 +4755,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
     </row>
     <row r="2" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T2" s="3"/>
@@ -5031,10 +5025,10 @@
       <c r="AC20" s="23"/>
       <c r="AD20" s="23"/>
       <c r="AE20" s="3"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="52"/>
-      <c r="AM20" s="52"/>
-      <c r="AN20" s="52"/>
+      <c r="AK20" s="88"/>
+      <c r="AL20" s="88"/>
+      <c r="AM20" s="88"/>
+      <c r="AN20" s="88"/>
     </row>
     <row r="21" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
@@ -5526,10 +5520,10 @@
       <c r="AC31" s="23"/>
       <c r="AD31" s="23"/>
       <c r="AE31" s="3"/>
-      <c r="AK31" s="52"/>
-      <c r="AL31" s="52"/>
-      <c r="AM31" s="52"/>
-      <c r="AN31" s="52"/>
+      <c r="AK31" s="88"/>
+      <c r="AL31" s="88"/>
+      <c r="AM31" s="88"/>
+      <c r="AN31" s="88"/>
     </row>
     <row r="32" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R32" s="3"/>
@@ -5739,538 +5733,538 @@
     <row r="51" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54"/>
-      <c r="V53" s="54"/>
-      <c r="W53" s="54"/>
-      <c r="X53" s="54"/>
-      <c r="Y53" s="54"/>
-      <c r="Z53" s="54"/>
-      <c r="AA53" s="54"/>
-      <c r="AB53" s="54"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="90"/>
+      <c r="N53" s="90"/>
+      <c r="O53" s="90"/>
+      <c r="P53" s="90"/>
+      <c r="Q53" s="90"/>
+      <c r="R53" s="90"/>
+      <c r="S53" s="90"/>
+      <c r="T53" s="90"/>
+      <c r="U53" s="90"/>
+      <c r="V53" s="90"/>
+      <c r="W53" s="90"/>
+      <c r="X53" s="90"/>
+      <c r="Y53" s="90"/>
+      <c r="Z53" s="90"/>
+      <c r="AA53" s="90"/>
+      <c r="AB53" s="90"/>
     </row>
     <row r="54" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="D54" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52" t="s">
+      <c r="E54" s="88"/>
+      <c r="F54" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="52"/>
-      <c r="V54" s="52" t="s">
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="88"/>
+      <c r="L54" s="88"/>
+      <c r="M54" s="88"/>
+      <c r="N54" s="88"/>
+      <c r="O54" s="88"/>
+      <c r="P54" s="88"/>
+      <c r="Q54" s="88"/>
+      <c r="R54" s="88"/>
+      <c r="S54" s="88"/>
+      <c r="T54" s="88"/>
+      <c r="U54" s="88"/>
+      <c r="V54" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="W54" s="52"/>
-      <c r="X54" s="52"/>
-      <c r="Y54" s="52"/>
-      <c r="Z54" s="52"/>
-      <c r="AA54" s="52"/>
-      <c r="AB54" s="52"/>
+      <c r="W54" s="88"/>
+      <c r="X54" s="88"/>
+      <c r="Y54" s="88"/>
+      <c r="Z54" s="88"/>
+      <c r="AA54" s="88"/>
+      <c r="AB54" s="88"/>
     </row>
     <row r="55" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="53" t="s">
+      <c r="E55" s="88"/>
+      <c r="F55" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
-      <c r="U55" s="52"/>
-      <c r="V55" s="52" t="s">
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="88"/>
+      <c r="L55" s="88"/>
+      <c r="M55" s="88"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="88"/>
+      <c r="P55" s="88"/>
+      <c r="Q55" s="88"/>
+      <c r="R55" s="88"/>
+      <c r="S55" s="88"/>
+      <c r="T55" s="88"/>
+      <c r="U55" s="88"/>
+      <c r="V55" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="W55" s="52"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="52"/>
-      <c r="Z55" s="52"/>
-      <c r="AA55" s="52"/>
-      <c r="AB55" s="52"/>
+      <c r="W55" s="88"/>
+      <c r="X55" s="88"/>
+      <c r="Y55" s="88"/>
+      <c r="Z55" s="88"/>
+      <c r="AA55" s="88"/>
+      <c r="AB55" s="88"/>
     </row>
     <row r="56" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52" t="s">
+      <c r="E56" s="88"/>
+      <c r="F56" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="52"/>
-      <c r="S56" s="52"/>
-      <c r="T56" s="52"/>
-      <c r="U56" s="52"/>
-      <c r="V56" s="52" t="s">
+      <c r="G56" s="88"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="88"/>
+      <c r="L56" s="88"/>
+      <c r="M56" s="88"/>
+      <c r="N56" s="88"/>
+      <c r="O56" s="88"/>
+      <c r="P56" s="88"/>
+      <c r="Q56" s="88"/>
+      <c r="R56" s="88"/>
+      <c r="S56" s="88"/>
+      <c r="T56" s="88"/>
+      <c r="U56" s="88"/>
+      <c r="V56" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="W56" s="52"/>
-      <c r="X56" s="52"/>
-      <c r="Y56" s="52"/>
-      <c r="Z56" s="52"/>
-      <c r="AA56" s="52"/>
-      <c r="AB56" s="52"/>
+      <c r="W56" s="88"/>
+      <c r="X56" s="88"/>
+      <c r="Y56" s="88"/>
+      <c r="Z56" s="88"/>
+      <c r="AA56" s="88"/>
+      <c r="AB56" s="88"/>
     </row>
     <row r="57" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57" s="52" t="s">
+      <c r="D57" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="52"/>
-      <c r="F57" s="53" t="s">
+      <c r="E57" s="88"/>
+      <c r="F57" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="52"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="52"/>
-      <c r="U57" s="52"/>
-      <c r="V57" s="52" t="s">
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="88"/>
+      <c r="M57" s="88"/>
+      <c r="N57" s="88"/>
+      <c r="O57" s="88"/>
+      <c r="P57" s="88"/>
+      <c r="Q57" s="88"/>
+      <c r="R57" s="88"/>
+      <c r="S57" s="88"/>
+      <c r="T57" s="88"/>
+      <c r="U57" s="88"/>
+      <c r="V57" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="W57" s="52"/>
-      <c r="X57" s="52"/>
-      <c r="Y57" s="52"/>
-      <c r="Z57" s="52"/>
-      <c r="AA57" s="52"/>
-      <c r="AB57" s="52"/>
+      <c r="W57" s="88"/>
+      <c r="X57" s="88"/>
+      <c r="Y57" s="88"/>
+      <c r="Z57" s="88"/>
+      <c r="AA57" s="88"/>
+      <c r="AB57" s="88"/>
     </row>
     <row r="58" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>3</v>
       </c>
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52" t="s">
+      <c r="E58" s="88"/>
+      <c r="F58" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="52"/>
-      <c r="S58" s="52"/>
-      <c r="T58" s="52"/>
-      <c r="U58" s="52"/>
-      <c r="V58" s="52" t="s">
+      <c r="G58" s="88"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="88"/>
+      <c r="K58" s="88"/>
+      <c r="L58" s="88"/>
+      <c r="M58" s="88"/>
+      <c r="N58" s="88"/>
+      <c r="O58" s="88"/>
+      <c r="P58" s="88"/>
+      <c r="Q58" s="88"/>
+      <c r="R58" s="88"/>
+      <c r="S58" s="88"/>
+      <c r="T58" s="88"/>
+      <c r="U58" s="88"/>
+      <c r="V58" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="W58" s="52"/>
-      <c r="X58" s="52"/>
-      <c r="Y58" s="52"/>
-      <c r="Z58" s="52"/>
-      <c r="AA58" s="52"/>
-      <c r="AB58" s="52"/>
+      <c r="W58" s="88"/>
+      <c r="X58" s="88"/>
+      <c r="Y58" s="88"/>
+      <c r="Z58" s="88"/>
+      <c r="AA58" s="88"/>
+      <c r="AB58" s="88"/>
     </row>
     <row r="59" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>4</v>
       </c>
-      <c r="D59" s="52" t="s">
+      <c r="D59" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="52"/>
-      <c r="F59" s="53" t="s">
+      <c r="E59" s="88"/>
+      <c r="F59" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="52"/>
-      <c r="U59" s="52"/>
-      <c r="V59" s="52" t="s">
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
+      <c r="K59" s="88"/>
+      <c r="L59" s="88"/>
+      <c r="M59" s="88"/>
+      <c r="N59" s="88"/>
+      <c r="O59" s="88"/>
+      <c r="P59" s="88"/>
+      <c r="Q59" s="88"/>
+      <c r="R59" s="88"/>
+      <c r="S59" s="88"/>
+      <c r="T59" s="88"/>
+      <c r="U59" s="88"/>
+      <c r="V59" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="W59" s="52"/>
-      <c r="X59" s="52"/>
-      <c r="Y59" s="52"/>
-      <c r="Z59" s="52"/>
-      <c r="AA59" s="52"/>
-      <c r="AB59" s="52"/>
+      <c r="W59" s="88"/>
+      <c r="X59" s="88"/>
+      <c r="Y59" s="88"/>
+      <c r="Z59" s="88"/>
+      <c r="AA59" s="88"/>
+      <c r="AB59" s="88"/>
     </row>
     <row r="60" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>5</v>
       </c>
-      <c r="D60" s="52" t="s">
+      <c r="D60" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52" t="s">
+      <c r="E60" s="88"/>
+      <c r="F60" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="52"/>
-      <c r="S60" s="52"/>
-      <c r="T60" s="52"/>
-      <c r="U60" s="52"/>
-      <c r="V60" s="52" t="s">
+      <c r="G60" s="88"/>
+      <c r="H60" s="88"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="88"/>
+      <c r="L60" s="88"/>
+      <c r="M60" s="88"/>
+      <c r="N60" s="88"/>
+      <c r="O60" s="88"/>
+      <c r="P60" s="88"/>
+      <c r="Q60" s="88"/>
+      <c r="R60" s="88"/>
+      <c r="S60" s="88"/>
+      <c r="T60" s="88"/>
+      <c r="U60" s="88"/>
+      <c r="V60" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="W60" s="52"/>
-      <c r="X60" s="52"/>
-      <c r="Y60" s="52"/>
-      <c r="Z60" s="52"/>
-      <c r="AA60" s="52"/>
-      <c r="AB60" s="52"/>
+      <c r="W60" s="88"/>
+      <c r="X60" s="88"/>
+      <c r="Y60" s="88"/>
+      <c r="Z60" s="88"/>
+      <c r="AA60" s="88"/>
+      <c r="AB60" s="88"/>
     </row>
     <row r="61" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>6</v>
       </c>
-      <c r="D61" s="52" t="s">
+      <c r="D61" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="52"/>
-      <c r="F61" s="53" t="s">
+      <c r="E61" s="88"/>
+      <c r="F61" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="52"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="52"/>
-      <c r="U61" s="52"/>
-      <c r="V61" s="52" t="s">
+      <c r="G61" s="88"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="88"/>
+      <c r="J61" s="88"/>
+      <c r="K61" s="88"/>
+      <c r="L61" s="88"/>
+      <c r="M61" s="88"/>
+      <c r="N61" s="88"/>
+      <c r="O61" s="88"/>
+      <c r="P61" s="88"/>
+      <c r="Q61" s="88"/>
+      <c r="R61" s="88"/>
+      <c r="S61" s="88"/>
+      <c r="T61" s="88"/>
+      <c r="U61" s="88"/>
+      <c r="V61" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="W61" s="52"/>
-      <c r="X61" s="52"/>
-      <c r="Y61" s="52"/>
-      <c r="Z61" s="52"/>
-      <c r="AA61" s="52"/>
-      <c r="AB61" s="52"/>
+      <c r="W61" s="88"/>
+      <c r="X61" s="88"/>
+      <c r="Y61" s="88"/>
+      <c r="Z61" s="88"/>
+      <c r="AA61" s="88"/>
+      <c r="AB61" s="88"/>
     </row>
     <row r="62" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>7</v>
       </c>
-      <c r="D62" s="52" t="s">
+      <c r="D62" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52" t="s">
+      <c r="E62" s="88"/>
+      <c r="F62" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="52"/>
-      <c r="S62" s="52"/>
-      <c r="T62" s="52"/>
-      <c r="U62" s="52"/>
-      <c r="V62" s="52" t="s">
+      <c r="G62" s="88"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="88"/>
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
+      <c r="N62" s="88"/>
+      <c r="O62" s="88"/>
+      <c r="P62" s="88"/>
+      <c r="Q62" s="88"/>
+      <c r="R62" s="88"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="88"/>
+      <c r="U62" s="88"/>
+      <c r="V62" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="W62" s="52"/>
-      <c r="X62" s="52"/>
-      <c r="Y62" s="52"/>
-      <c r="Z62" s="52"/>
-      <c r="AA62" s="52"/>
-      <c r="AB62" s="52"/>
+      <c r="W62" s="88"/>
+      <c r="X62" s="88"/>
+      <c r="Y62" s="88"/>
+      <c r="Z62" s="88"/>
+      <c r="AA62" s="88"/>
+      <c r="AB62" s="88"/>
     </row>
     <row r="63" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>8</v>
       </c>
-      <c r="D63" s="52" t="s">
+      <c r="D63" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52" t="s">
+      <c r="E63" s="88"/>
+      <c r="F63" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="52"/>
-      <c r="S63" s="52"/>
-      <c r="T63" s="52"/>
-      <c r="U63" s="52"/>
-      <c r="V63" s="52" t="s">
+      <c r="G63" s="88"/>
+      <c r="H63" s="88"/>
+      <c r="I63" s="88"/>
+      <c r="J63" s="88"/>
+      <c r="K63" s="88"/>
+      <c r="L63" s="88"/>
+      <c r="M63" s="88"/>
+      <c r="N63" s="88"/>
+      <c r="O63" s="88"/>
+      <c r="P63" s="88"/>
+      <c r="Q63" s="88"/>
+      <c r="R63" s="88"/>
+      <c r="S63" s="88"/>
+      <c r="T63" s="88"/>
+      <c r="U63" s="88"/>
+      <c r="V63" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="W63" s="52"/>
-      <c r="X63" s="52"/>
-      <c r="Y63" s="52"/>
-      <c r="Z63" s="52"/>
-      <c r="AA63" s="52"/>
-      <c r="AB63" s="52"/>
+      <c r="W63" s="88"/>
+      <c r="X63" s="88"/>
+      <c r="Y63" s="88"/>
+      <c r="Z63" s="88"/>
+      <c r="AA63" s="88"/>
+      <c r="AB63" s="88"/>
     </row>
     <row r="64" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>9</v>
       </c>
-      <c r="D64" s="52" t="s">
+      <c r="D64" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="52"/>
-      <c r="F64" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="52"/>
-      <c r="S64" s="52"/>
-      <c r="T64" s="52"/>
-      <c r="U64" s="52"/>
-      <c r="V64" s="52" t="s">
+      <c r="E64" s="88"/>
+      <c r="F64" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="G64" s="88"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="88"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="88"/>
+      <c r="L64" s="88"/>
+      <c r="M64" s="88"/>
+      <c r="N64" s="88"/>
+      <c r="O64" s="88"/>
+      <c r="P64" s="88"/>
+      <c r="Q64" s="88"/>
+      <c r="R64" s="88"/>
+      <c r="S64" s="88"/>
+      <c r="T64" s="88"/>
+      <c r="U64" s="88"/>
+      <c r="V64" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="W64" s="52"/>
-      <c r="X64" s="52"/>
-      <c r="Y64" s="52"/>
-      <c r="Z64" s="52"/>
-      <c r="AA64" s="52"/>
-      <c r="AB64" s="52"/>
+      <c r="W64" s="88"/>
+      <c r="X64" s="88"/>
+      <c r="Y64" s="88"/>
+      <c r="Z64" s="88"/>
+      <c r="AA64" s="88"/>
+      <c r="AB64" s="88"/>
     </row>
     <row r="65" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>10</v>
       </c>
-      <c r="D65" s="52" t="s">
+      <c r="D65" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="52"/>
-      <c r="F65" s="53" t="s">
+      <c r="E65" s="88"/>
+      <c r="F65" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="G65" s="88"/>
+      <c r="H65" s="88"/>
+      <c r="I65" s="88"/>
+      <c r="J65" s="88"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="88"/>
+      <c r="M65" s="88"/>
+      <c r="N65" s="88"/>
+      <c r="O65" s="88"/>
+      <c r="P65" s="88"/>
+      <c r="Q65" s="88"/>
+      <c r="R65" s="88"/>
+      <c r="S65" s="88"/>
+      <c r="T65" s="88"/>
+      <c r="U65" s="88"/>
+      <c r="V65" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="52"/>
-      <c r="S65" s="52"/>
-      <c r="T65" s="52"/>
-      <c r="U65" s="52"/>
-      <c r="V65" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="W65" s="52"/>
-      <c r="X65" s="52"/>
-      <c r="Y65" s="52"/>
-      <c r="Z65" s="52"/>
-      <c r="AA65" s="52"/>
-      <c r="AB65" s="52"/>
+      <c r="W65" s="88"/>
+      <c r="X65" s="88"/>
+      <c r="Y65" s="88"/>
+      <c r="Z65" s="88"/>
+      <c r="AA65" s="88"/>
+      <c r="AB65" s="88"/>
     </row>
     <row r="66" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>11</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="D66" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="52"/>
-      <c r="F66" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
-      <c r="N66" s="52"/>
-      <c r="O66" s="52"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="52"/>
-      <c r="S66" s="52"/>
-      <c r="T66" s="52"/>
-      <c r="U66" s="52"/>
-      <c r="V66" s="52" t="s">
+      <c r="E66" s="88"/>
+      <c r="F66" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="W66" s="52"/>
-      <c r="X66" s="52"/>
-      <c r="Y66" s="52"/>
-      <c r="Z66" s="52"/>
-      <c r="AA66" s="52"/>
-      <c r="AB66" s="52"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="88"/>
+      <c r="K66" s="88"/>
+      <c r="L66" s="88"/>
+      <c r="M66" s="88"/>
+      <c r="N66" s="88"/>
+      <c r="O66" s="88"/>
+      <c r="P66" s="88"/>
+      <c r="Q66" s="88"/>
+      <c r="R66" s="88"/>
+      <c r="S66" s="88"/>
+      <c r="T66" s="88"/>
+      <c r="U66" s="88"/>
+      <c r="V66" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="W66" s="88"/>
+      <c r="X66" s="88"/>
+      <c r="Y66" s="88"/>
+      <c r="Z66" s="88"/>
+      <c r="AA66" s="88"/>
+      <c r="AB66" s="88"/>
     </row>
     <row r="67" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>12</v>
       </c>
-      <c r="D67" s="52" t="s">
+      <c r="D67" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52" t="s">
+      <c r="E67" s="88"/>
+      <c r="F67" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="52"/>
-      <c r="S67" s="52"/>
-      <c r="T67" s="52"/>
-      <c r="U67" s="52"/>
-      <c r="V67" s="52" t="s">
+      <c r="G67" s="88"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="88"/>
+      <c r="K67" s="88"/>
+      <c r="L67" s="88"/>
+      <c r="M67" s="88"/>
+      <c r="N67" s="88"/>
+      <c r="O67" s="88"/>
+      <c r="P67" s="88"/>
+      <c r="Q67" s="88"/>
+      <c r="R67" s="88"/>
+      <c r="S67" s="88"/>
+      <c r="T67" s="88"/>
+      <c r="U67" s="88"/>
+      <c r="V67" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="W67" s="52"/>
-      <c r="X67" s="52"/>
-      <c r="Y67" s="52"/>
-      <c r="Z67" s="52"/>
-      <c r="AA67" s="52"/>
-      <c r="AB67" s="52"/>
+      <c r="W67" s="88"/>
+      <c r="X67" s="88"/>
+      <c r="Y67" s="88"/>
+      <c r="Z67" s="88"/>
+      <c r="AA67" s="88"/>
+      <c r="AB67" s="88"/>
     </row>
     <row r="68" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6326,19 +6320,26 @@
     <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AK20:AN20"/>
-    <mergeCell ref="AK31:AN31"/>
-    <mergeCell ref="AU24:AU27"/>
-    <mergeCell ref="C53:AB53"/>
-    <mergeCell ref="V55:AB55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:U55"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:U54"/>
-    <mergeCell ref="V54:AB54"/>
+    <mergeCell ref="V67:AB67"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:U64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:U65"/>
+    <mergeCell ref="V64:AB64"/>
+    <mergeCell ref="V65:AB65"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:U63"/>
+    <mergeCell ref="V62:AB62"/>
+    <mergeCell ref="V63:AB63"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:U66"/>
+    <mergeCell ref="V66:AB66"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:U61"/>
+    <mergeCell ref="V60:AB60"/>
+    <mergeCell ref="V61:AB61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:U62"/>
     <mergeCell ref="V58:AB58"/>
     <mergeCell ref="V59:AB59"/>
     <mergeCell ref="D56:E56"/>
@@ -6355,26 +6356,19 @@
     <mergeCell ref="F59:U59"/>
     <mergeCell ref="F58:U58"/>
     <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:U61"/>
-    <mergeCell ref="V60:AB60"/>
-    <mergeCell ref="V61:AB61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:U62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:U63"/>
-    <mergeCell ref="V62:AB62"/>
-    <mergeCell ref="V63:AB63"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:U66"/>
-    <mergeCell ref="V66:AB66"/>
-    <mergeCell ref="V67:AB67"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:U64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:U65"/>
-    <mergeCell ref="V64:AB64"/>
-    <mergeCell ref="V65:AB65"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:U54"/>
+    <mergeCell ref="V54:AB54"/>
+    <mergeCell ref="AK20:AN20"/>
+    <mergeCell ref="AK31:AN31"/>
+    <mergeCell ref="AU24:AU27"/>
+    <mergeCell ref="C53:AB53"/>
+    <mergeCell ref="V55:AB55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:U55"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6383,11 +6377,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A92AD0-1BC0-4913-9BC6-398FBCDD6F41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:CW77"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BB45" sqref="BB45"/>
+      <selection activeCell="G73" sqref="G73:AN73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6438,7 +6432,7 @@
       <c r="AQ4" s="26"/>
       <c r="AU4" s="26"/>
       <c r="AV4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6484,7 +6478,7 @@
       <c r="AQ5" s="26"/>
       <c r="AU5" s="23"/>
       <c r="AV5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6537,15 +6531,15 @@
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
-      <c r="G7" s="101" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
+      <c r="G7" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
       <c r="P7" s="26"/>
@@ -6566,34 +6560,34 @@
       <c r="AE7" s="26"/>
       <c r="AF7" s="26"/>
       <c r="AG7" s="26"/>
-      <c r="AH7" s="102" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI7" s="102"/>
-      <c r="AJ7" s="102"/>
-      <c r="AK7" s="102"/>
-      <c r="AL7" s="102"/>
-      <c r="AM7" s="102"/>
-      <c r="AN7" s="102"/>
+      <c r="AH7" s="121" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI7" s="121"/>
+      <c r="AJ7" s="121"/>
+      <c r="AK7" s="121"/>
+      <c r="AL7" s="121"/>
+      <c r="AM7" s="121"/>
+      <c r="AN7" s="121"/>
       <c r="AO7" s="26"/>
       <c r="AP7" s="26"/>
       <c r="AQ7" s="26"/>
       <c r="AU7" s="15"/>
       <c r="AV7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
@@ -6614,32 +6608,32 @@
       <c r="AE8" s="26"/>
       <c r="AF8" s="26"/>
       <c r="AG8" s="26"/>
-      <c r="AH8" s="102"/>
-      <c r="AI8" s="102"/>
-      <c r="AJ8" s="102"/>
-      <c r="AK8" s="102"/>
-      <c r="AL8" s="102"/>
-      <c r="AM8" s="102"/>
-      <c r="AN8" s="102"/>
+      <c r="AH8" s="121"/>
+      <c r="AI8" s="121"/>
+      <c r="AJ8" s="121"/>
+      <c r="AK8" s="121"/>
+      <c r="AL8" s="121"/>
+      <c r="AM8" s="121"/>
+      <c r="AN8" s="121"/>
       <c r="AO8" s="26"/>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26"/>
       <c r="AU8" s="8"/>
       <c r="AV8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" s="23"/>
@@ -6660,32 +6654,32 @@
       <c r="AE9" s="23"/>
       <c r="AF9" s="23"/>
       <c r="AG9" s="23"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="102"/>
-      <c r="AL9" s="102"/>
-      <c r="AM9" s="102"/>
-      <c r="AN9" s="102"/>
+      <c r="AH9" s="121"/>
+      <c r="AI9" s="121"/>
+      <c r="AJ9" s="121"/>
+      <c r="AK9" s="121"/>
+      <c r="AL9" s="121"/>
+      <c r="AM9" s="121"/>
+      <c r="AN9" s="121"/>
       <c r="AO9" s="26"/>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26"/>
       <c r="AU9" s="51"/>
       <c r="AV9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
       <c r="P10" s="23"/>
@@ -6706,13 +6700,13 @@
       <c r="AE10" s="23"/>
       <c r="AF10" s="23"/>
       <c r="AG10" s="23"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="102"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="102"/>
-      <c r="AM10" s="102"/>
-      <c r="AN10" s="102"/>
+      <c r="AH10" s="121"/>
+      <c r="AI10" s="121"/>
+      <c r="AJ10" s="121"/>
+      <c r="AK10" s="121"/>
+      <c r="AL10" s="121"/>
+      <c r="AM10" s="121"/>
+      <c r="AN10" s="121"/>
       <c r="AO10" s="26"/>
       <c r="AP10" s="26"/>
       <c r="AQ10" s="26"/>
@@ -6721,13 +6715,13 @@
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" s="23"/>
@@ -6748,13 +6742,13 @@
       <c r="AE11" s="23"/>
       <c r="AF11" s="23"/>
       <c r="AG11" s="23"/>
-      <c r="AH11" s="102"/>
-      <c r="AI11" s="102"/>
-      <c r="AJ11" s="102"/>
-      <c r="AK11" s="102"/>
-      <c r="AL11" s="102"/>
-      <c r="AM11" s="102"/>
-      <c r="AN11" s="102"/>
+      <c r="AH11" s="121"/>
+      <c r="AI11" s="121"/>
+      <c r="AJ11" s="121"/>
+      <c r="AK11" s="121"/>
+      <c r="AL11" s="121"/>
+      <c r="AM11" s="121"/>
+      <c r="AN11" s="121"/>
       <c r="AO11" s="26"/>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="26"/>
@@ -6763,13 +6757,13 @@
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="26"/>
@@ -6790,60 +6784,60 @@
       <c r="AE12" s="26"/>
       <c r="AF12" s="26"/>
       <c r="AG12" s="26"/>
-      <c r="AH12" s="102"/>
-      <c r="AI12" s="102"/>
-      <c r="AJ12" s="102"/>
-      <c r="AK12" s="102"/>
-      <c r="AL12" s="102"/>
-      <c r="AM12" s="102"/>
-      <c r="AN12" s="102"/>
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="121"/>
+      <c r="AJ12" s="121"/>
+      <c r="AK12" s="121"/>
+      <c r="AL12" s="121"/>
+      <c r="AM12" s="121"/>
+      <c r="AN12" s="121"/>
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AU12" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="AV12" s="52"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="52"/>
-      <c r="BA12" s="52"/>
-      <c r="BB12" s="52"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
-      <c r="BE12" s="52"/>
-      <c r="BF12" s="52"/>
-      <c r="BG12" s="52"/>
-      <c r="BH12" s="52"/>
-      <c r="BJ12" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="BK12" s="52"/>
-      <c r="BL12" s="52"/>
-      <c r="BM12" s="52"/>
-      <c r="BN12" s="52"/>
-      <c r="BO12" s="52"/>
-      <c r="BP12" s="52"/>
-      <c r="BQ12" s="52"/>
-      <c r="BR12" s="52"/>
-      <c r="BS12" s="52"/>
-      <c r="BT12" s="52"/>
-      <c r="BU12" s="52"/>
-      <c r="BV12" s="52"/>
-      <c r="BW12" s="52"/>
+      <c r="AU12" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV12" s="88"/>
+      <c r="AW12" s="88"/>
+      <c r="AX12" s="88"/>
+      <c r="AY12" s="88"/>
+      <c r="AZ12" s="88"/>
+      <c r="BA12" s="88"/>
+      <c r="BB12" s="88"/>
+      <c r="BC12" s="88"/>
+      <c r="BD12" s="88"/>
+      <c r="BE12" s="88"/>
+      <c r="BF12" s="88"/>
+      <c r="BG12" s="88"/>
+      <c r="BH12" s="88"/>
+      <c r="BJ12" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK12" s="88"/>
+      <c r="BL12" s="88"/>
+      <c r="BM12" s="88"/>
+      <c r="BN12" s="88"/>
+      <c r="BO12" s="88"/>
+      <c r="BP12" s="88"/>
+      <c r="BQ12" s="88"/>
+      <c r="BR12" s="88"/>
+      <c r="BS12" s="88"/>
+      <c r="BT12" s="88"/>
+      <c r="BU12" s="88"/>
+      <c r="BV12" s="88"/>
+      <c r="BW12" s="88"/>
     </row>
     <row r="13" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
       <c r="P13" s="26"/>
@@ -6864,13 +6858,13 @@
       <c r="AE13" s="26"/>
       <c r="AF13" s="26"/>
       <c r="AG13" s="26"/>
-      <c r="AH13" s="102"/>
-      <c r="AI13" s="102"/>
-      <c r="AJ13" s="102"/>
-      <c r="AK13" s="102"/>
-      <c r="AL13" s="102"/>
-      <c r="AM13" s="102"/>
-      <c r="AN13" s="102"/>
+      <c r="AH13" s="121"/>
+      <c r="AI13" s="121"/>
+      <c r="AJ13" s="121"/>
+      <c r="AK13" s="121"/>
+      <c r="AL13" s="121"/>
+      <c r="AM13" s="121"/>
+      <c r="AN13" s="121"/>
       <c r="AO13" s="26"/>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="26"/>
@@ -6962,7 +6956,7 @@
       <c r="BK14" s="23"/>
       <c r="BL14" s="23"/>
       <c r="BM14" s="95" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BN14" s="96"/>
       <c r="BO14" s="96"/>
@@ -7061,18 +7055,18 @@
       <c r="P16" s="26"/>
       <c r="Q16" s="26"/>
       <c r="R16" s="26"/>
-      <c r="S16" s="105" t="s">
-        <v>93</v>
-      </c>
-      <c r="T16" s="105"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="105"/>
-      <c r="W16" s="105"/>
-      <c r="X16" s="105"/>
-      <c r="Y16" s="105"/>
-      <c r="Z16" s="105"/>
-      <c r="AA16" s="105"/>
-      <c r="AB16" s="105"/>
+      <c r="S16" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="T16" s="124"/>
+      <c r="U16" s="124"/>
+      <c r="V16" s="124"/>
+      <c r="W16" s="124"/>
+      <c r="X16" s="124"/>
+      <c r="Y16" s="124"/>
+      <c r="Z16" s="124"/>
+      <c r="AA16" s="124"/>
+      <c r="AB16" s="124"/>
       <c r="AC16" s="26"/>
       <c r="AD16" s="26"/>
       <c r="AE16" s="26"/>
@@ -7133,16 +7127,16 @@
       <c r="P17" s="26"/>
       <c r="Q17" s="26"/>
       <c r="R17" s="26"/>
-      <c r="S17" s="105"/>
-      <c r="T17" s="105"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="105"/>
-      <c r="W17" s="105"/>
-      <c r="X17" s="105"/>
-      <c r="Y17" s="105"/>
-      <c r="Z17" s="105"/>
-      <c r="AA17" s="105"/>
-      <c r="AB17" s="105"/>
+      <c r="S17" s="124"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="124"/>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="124"/>
+      <c r="AA17" s="124"/>
+      <c r="AB17" s="124"/>
       <c r="AC17" s="26"/>
       <c r="AD17" s="26"/>
       <c r="AE17" s="26"/>
@@ -7203,16 +7197,16 @@
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
       <c r="R18" s="26"/>
-      <c r="S18" s="105"/>
-      <c r="T18" s="105"/>
-      <c r="U18" s="105"/>
-      <c r="V18" s="105"/>
-      <c r="W18" s="105"/>
-      <c r="X18" s="105"/>
-      <c r="Y18" s="105"/>
-      <c r="Z18" s="105"/>
-      <c r="AA18" s="105"/>
-      <c r="AB18" s="105"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="124"/>
+      <c r="V18" s="124"/>
+      <c r="W18" s="124"/>
+      <c r="X18" s="124"/>
+      <c r="Y18" s="124"/>
+      <c r="Z18" s="124"/>
+      <c r="AA18" s="124"/>
+      <c r="AB18" s="124"/>
       <c r="AC18" s="26"/>
       <c r="AD18" s="26"/>
       <c r="AE18" s="26"/>
@@ -7233,12 +7227,12 @@
       <c r="AW18" s="23"/>
       <c r="AX18" s="23"/>
       <c r="AY18" s="23"/>
-      <c r="AZ18" s="106" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA18" s="107"/>
-      <c r="BB18" s="107"/>
-      <c r="BC18" s="108"/>
+      <c r="AZ18" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA18" s="126"/>
+      <c r="BB18" s="126"/>
+      <c r="BC18" s="127"/>
       <c r="BD18" s="23"/>
       <c r="BE18" s="23"/>
       <c r="BF18" s="23"/>
@@ -7275,16 +7269,16 @@
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="26"/>
-      <c r="S19" s="105"/>
-      <c r="T19" s="105"/>
-      <c r="U19" s="105"/>
-      <c r="V19" s="105"/>
-      <c r="W19" s="105"/>
-      <c r="X19" s="105"/>
-      <c r="Y19" s="105"/>
-      <c r="Z19" s="105"/>
-      <c r="AA19" s="105"/>
-      <c r="AB19" s="105"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="124"/>
+      <c r="U19" s="124"/>
+      <c r="V19" s="124"/>
+      <c r="W19" s="124"/>
+      <c r="X19" s="124"/>
+      <c r="Y19" s="124"/>
+      <c r="Z19" s="124"/>
+      <c r="AA19" s="124"/>
+      <c r="AB19" s="124"/>
       <c r="AC19" s="26"/>
       <c r="AD19" s="26"/>
       <c r="AE19" s="26"/>
@@ -7305,10 +7299,10 @@
       <c r="AW19" s="23"/>
       <c r="AX19" s="23"/>
       <c r="AY19" s="23"/>
-      <c r="AZ19" s="109"/>
-      <c r="BA19" s="110"/>
-      <c r="BB19" s="110"/>
-      <c r="BC19" s="111"/>
+      <c r="AZ19" s="128"/>
+      <c r="BA19" s="129"/>
+      <c r="BB19" s="129"/>
+      <c r="BC19" s="130"/>
       <c r="BD19" s="23"/>
       <c r="BE19" s="23"/>
       <c r="BF19" s="23"/>
@@ -7345,16 +7339,16 @@
       <c r="P20" s="23"/>
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
-      <c r="S20" s="105"/>
-      <c r="T20" s="105"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="105"/>
-      <c r="W20" s="105"/>
-      <c r="X20" s="105"/>
-      <c r="Y20" s="105"/>
-      <c r="Z20" s="105"/>
-      <c r="AA20" s="105"/>
-      <c r="AB20" s="105"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="124"/>
+      <c r="U20" s="124"/>
+      <c r="V20" s="124"/>
+      <c r="W20" s="124"/>
+      <c r="X20" s="124"/>
+      <c r="Y20" s="124"/>
+      <c r="Z20" s="124"/>
+      <c r="AA20" s="124"/>
+      <c r="AB20" s="124"/>
       <c r="AC20" s="26"/>
       <c r="AD20" s="26"/>
       <c r="AE20" s="26"/>
@@ -7375,10 +7369,10 @@
       <c r="AW20" s="23"/>
       <c r="AX20" s="23"/>
       <c r="AY20" s="23"/>
-      <c r="AZ20" s="109"/>
-      <c r="BA20" s="110"/>
-      <c r="BB20" s="110"/>
-      <c r="BC20" s="111"/>
+      <c r="AZ20" s="128"/>
+      <c r="BA20" s="129"/>
+      <c r="BB20" s="129"/>
+      <c r="BC20" s="130"/>
       <c r="BD20" s="23"/>
       <c r="BE20" s="23"/>
       <c r="BF20" s="23"/>
@@ -7398,22 +7392,22 @@
       <c r="BU20" s="23"/>
       <c r="BV20" s="23"/>
       <c r="BW20" s="23"/>
-      <c r="BY20" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="BZ20" s="52"/>
-      <c r="CA20" s="52"/>
-      <c r="CB20" s="52"/>
-      <c r="CC20" s="52"/>
-      <c r="CD20" s="52"/>
-      <c r="CE20" s="52"/>
-      <c r="CF20" s="52"/>
-      <c r="CG20" s="52"/>
-      <c r="CH20" s="52"/>
-      <c r="CI20" s="52"/>
-      <c r="CJ20" s="52"/>
-      <c r="CK20" s="52"/>
-      <c r="CL20" s="52"/>
+      <c r="BY20" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ20" s="88"/>
+      <c r="CA20" s="88"/>
+      <c r="CB20" s="88"/>
+      <c r="CC20" s="88"/>
+      <c r="CD20" s="88"/>
+      <c r="CE20" s="88"/>
+      <c r="CF20" s="88"/>
+      <c r="CG20" s="88"/>
+      <c r="CH20" s="88"/>
+      <c r="CI20" s="88"/>
+      <c r="CJ20" s="88"/>
+      <c r="CK20" s="88"/>
+      <c r="CL20" s="88"/>
     </row>
     <row r="21" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="26"/>
@@ -7431,16 +7425,16 @@
       <c r="P21" s="23"/>
       <c r="Q21" s="23"/>
       <c r="R21" s="23"/>
-      <c r="S21" s="105"/>
-      <c r="T21" s="105"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="105"/>
-      <c r="W21" s="105"/>
-      <c r="X21" s="105"/>
-      <c r="Y21" s="105"/>
-      <c r="Z21" s="105"/>
-      <c r="AA21" s="105"/>
-      <c r="AB21" s="105"/>
+      <c r="S21" s="124"/>
+      <c r="T21" s="124"/>
+      <c r="U21" s="124"/>
+      <c r="V21" s="124"/>
+      <c r="W21" s="124"/>
+      <c r="X21" s="124"/>
+      <c r="Y21" s="124"/>
+      <c r="Z21" s="124"/>
+      <c r="AA21" s="124"/>
+      <c r="AB21" s="124"/>
       <c r="AC21" s="26"/>
       <c r="AD21" s="26"/>
       <c r="AE21" s="26"/>
@@ -7461,10 +7455,10 @@
       <c r="AW21" s="23"/>
       <c r="AX21" s="23"/>
       <c r="AY21" s="23"/>
-      <c r="AZ21" s="112"/>
-      <c r="BA21" s="113"/>
-      <c r="BB21" s="113"/>
-      <c r="BC21" s="114"/>
+      <c r="AZ21" s="131"/>
+      <c r="BA21" s="132"/>
+      <c r="BB21" s="132"/>
+      <c r="BC21" s="133"/>
       <c r="BD21" s="23"/>
       <c r="BE21" s="23"/>
       <c r="BF21" s="23"/>
@@ -7515,16 +7509,16 @@
       <c r="P22" s="23"/>
       <c r="Q22" s="23"/>
       <c r="R22" s="23"/>
-      <c r="S22" s="105"/>
-      <c r="T22" s="105"/>
-      <c r="U22" s="105"/>
-      <c r="V22" s="105"/>
-      <c r="W22" s="105"/>
-      <c r="X22" s="105"/>
-      <c r="Y22" s="105"/>
-      <c r="Z22" s="105"/>
-      <c r="AA22" s="105"/>
-      <c r="AB22" s="105"/>
+      <c r="S22" s="124"/>
+      <c r="T22" s="124"/>
+      <c r="U22" s="124"/>
+      <c r="V22" s="124"/>
+      <c r="W22" s="124"/>
+      <c r="X22" s="124"/>
+      <c r="Y22" s="124"/>
+      <c r="Z22" s="124"/>
+      <c r="AA22" s="124"/>
+      <c r="AB22" s="124"/>
       <c r="AC22" s="26"/>
       <c r="AD22" s="26"/>
       <c r="AE22" s="26"/>
@@ -7582,18 +7576,18 @@
       <c r="CJ22" s="23"/>
       <c r="CK22" s="23"/>
       <c r="CL22" s="26"/>
-      <c r="CN22" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="CO22" s="52"/>
-      <c r="CP22" s="52"/>
-      <c r="CQ22" s="52"/>
-      <c r="CR22" s="52"/>
-      <c r="CS22" s="52"/>
-      <c r="CT22" s="52"/>
-      <c r="CU22" s="52"/>
-      <c r="CV22" s="52"/>
-      <c r="CW22" s="52"/>
+      <c r="CN22" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="CO22" s="88"/>
+      <c r="CP22" s="88"/>
+      <c r="CQ22" s="88"/>
+      <c r="CR22" s="88"/>
+      <c r="CS22" s="88"/>
+      <c r="CT22" s="88"/>
+      <c r="CU22" s="88"/>
+      <c r="CV22" s="88"/>
+      <c r="CW22" s="88"/>
     </row>
     <row r="23" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="26"/>
@@ -7611,16 +7605,16 @@
       <c r="P23" s="23"/>
       <c r="Q23" s="26"/>
       <c r="R23" s="26"/>
-      <c r="S23" s="105"/>
-      <c r="T23" s="105"/>
-      <c r="U23" s="105"/>
-      <c r="V23" s="105"/>
-      <c r="W23" s="105"/>
-      <c r="X23" s="105"/>
-      <c r="Y23" s="105"/>
-      <c r="Z23" s="105"/>
-      <c r="AA23" s="105"/>
-      <c r="AB23" s="105"/>
+      <c r="S23" s="124"/>
+      <c r="T23" s="124"/>
+      <c r="U23" s="124"/>
+      <c r="V23" s="124"/>
+      <c r="W23" s="124"/>
+      <c r="X23" s="124"/>
+      <c r="Y23" s="124"/>
+      <c r="Z23" s="124"/>
+      <c r="AA23" s="124"/>
+      <c r="AB23" s="124"/>
       <c r="AC23" s="26"/>
       <c r="AD23" s="26"/>
       <c r="AE23" s="26"/>
@@ -7669,17 +7663,17 @@
       <c r="CA23" s="43"/>
       <c r="CB23" s="44"/>
       <c r="CC23" s="44"/>
-      <c r="CD23" s="131" t="s">
-        <v>105</v>
-      </c>
-      <c r="CE23" s="132"/>
-      <c r="CF23" s="132"/>
-      <c r="CG23" s="133"/>
+      <c r="CD23" s="117" t="s">
+        <v>103</v>
+      </c>
+      <c r="CE23" s="118"/>
+      <c r="CF23" s="118"/>
+      <c r="CG23" s="119"/>
       <c r="CH23" s="44"/>
-      <c r="CI23" s="127" t="s">
-        <v>104</v>
-      </c>
-      <c r="CJ23" s="128"/>
+      <c r="CI23" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="CJ23" s="114"/>
       <c r="CK23" s="23"/>
       <c r="CL23" s="26"/>
     </row>
@@ -7699,16 +7693,16 @@
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
       <c r="R24" s="26"/>
-      <c r="S24" s="105"/>
-      <c r="T24" s="105"/>
-      <c r="U24" s="105"/>
-      <c r="V24" s="105"/>
-      <c r="W24" s="105"/>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="105"/>
-      <c r="Z24" s="105"/>
-      <c r="AA24" s="105"/>
-      <c r="AB24" s="105"/>
+      <c r="S24" s="124"/>
+      <c r="T24" s="124"/>
+      <c r="U24" s="124"/>
+      <c r="V24" s="124"/>
+      <c r="W24" s="124"/>
+      <c r="X24" s="124"/>
+      <c r="Y24" s="124"/>
+      <c r="Z24" s="124"/>
+      <c r="AA24" s="124"/>
+      <c r="AB24" s="124"/>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
       <c r="AE24" s="26"/>
@@ -7742,7 +7736,7 @@
       <c r="BK24" s="23"/>
       <c r="BL24" s="23"/>
       <c r="BM24" s="95" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BN24" s="96"/>
       <c r="BO24" s="96"/>
@@ -7764,8 +7758,8 @@
       <c r="CF24" s="46"/>
       <c r="CG24" s="46"/>
       <c r="CH24" s="46"/>
-      <c r="CI24" s="129"/>
-      <c r="CJ24" s="130"/>
+      <c r="CI24" s="115"/>
+      <c r="CJ24" s="116"/>
       <c r="CK24" s="23"/>
       <c r="CL24" s="26"/>
     </row>
@@ -7785,16 +7779,16 @@
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
       <c r="R25" s="26"/>
-      <c r="S25" s="105"/>
-      <c r="T25" s="105"/>
-      <c r="U25" s="105"/>
-      <c r="V25" s="105"/>
-      <c r="W25" s="105"/>
-      <c r="X25" s="105"/>
-      <c r="Y25" s="105"/>
-      <c r="Z25" s="105"/>
-      <c r="AA25" s="105"/>
-      <c r="AB25" s="105"/>
+      <c r="S25" s="124"/>
+      <c r="T25" s="124"/>
+      <c r="U25" s="124"/>
+      <c r="V25" s="124"/>
+      <c r="W25" s="124"/>
+      <c r="X25" s="124"/>
+      <c r="Y25" s="124"/>
+      <c r="Z25" s="124"/>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="124"/>
       <c r="AC25" s="26"/>
       <c r="AD25" s="26"/>
       <c r="AE25" s="26"/>
@@ -7941,15 +7935,15 @@
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="104" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="104"/>
+      <c r="G27" s="123" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
       <c r="N27" s="26"/>
       <c r="O27" s="26"/>
       <c r="P27" s="26"/>
@@ -7970,15 +7964,15 @@
       <c r="AE27" s="26"/>
       <c r="AF27" s="26"/>
       <c r="AG27" s="26"/>
-      <c r="AH27" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI27" s="55"/>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="55"/>
-      <c r="AL27" s="55"/>
-      <c r="AM27" s="55"/>
-      <c r="AN27" s="55"/>
+      <c r="AH27" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="52"/>
+      <c r="AL27" s="52"/>
+      <c r="AM27" s="52"/>
+      <c r="AN27" s="52"/>
       <c r="AO27" s="26"/>
       <c r="AP27" s="26"/>
       <c r="AQ27" s="26"/>
@@ -8001,13 +7995,13 @@
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="104"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="123"/>
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
       <c r="P28" s="26"/>
@@ -8028,48 +8022,48 @@
       <c r="AE28" s="26"/>
       <c r="AF28" s="26"/>
       <c r="AG28" s="26"/>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="55"/>
-      <c r="AJ28" s="55"/>
-      <c r="AK28" s="55"/>
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="55"/>
-      <c r="AN28" s="55"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="52"/>
+      <c r="AL28" s="52"/>
+      <c r="AM28" s="52"/>
+      <c r="AN28" s="52"/>
       <c r="AO28" s="26"/>
       <c r="AP28" s="26"/>
       <c r="AQ28" s="26"/>
-      <c r="AU28" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV28" s="52"/>
-      <c r="AW28" s="52"/>
-      <c r="AX28" s="52"/>
-      <c r="AY28" s="52"/>
-      <c r="AZ28" s="52"/>
-      <c r="BA28" s="52"/>
-      <c r="BB28" s="52"/>
-      <c r="BC28" s="52"/>
-      <c r="BD28" s="52"/>
-      <c r="BE28" s="52"/>
-      <c r="BF28" s="52"/>
-      <c r="BG28" s="52"/>
-      <c r="BH28" s="52"/>
-      <c r="BJ28" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="BK28" s="52"/>
-      <c r="BL28" s="52"/>
-      <c r="BM28" s="52"/>
-      <c r="BN28" s="52"/>
-      <c r="BO28" s="52"/>
-      <c r="BP28" s="52"/>
-      <c r="BQ28" s="52"/>
-      <c r="BR28" s="52"/>
-      <c r="BS28" s="52"/>
-      <c r="BT28" s="52"/>
-      <c r="BU28" s="52"/>
-      <c r="BV28" s="52"/>
-      <c r="BW28" s="52"/>
+      <c r="AU28" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV28" s="88"/>
+      <c r="AW28" s="88"/>
+      <c r="AX28" s="88"/>
+      <c r="AY28" s="88"/>
+      <c r="AZ28" s="88"/>
+      <c r="BA28" s="88"/>
+      <c r="BB28" s="88"/>
+      <c r="BC28" s="88"/>
+      <c r="BD28" s="88"/>
+      <c r="BE28" s="88"/>
+      <c r="BF28" s="88"/>
+      <c r="BG28" s="88"/>
+      <c r="BH28" s="88"/>
+      <c r="BJ28" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK28" s="88"/>
+      <c r="BL28" s="88"/>
+      <c r="BM28" s="88"/>
+      <c r="BN28" s="88"/>
+      <c r="BO28" s="88"/>
+      <c r="BP28" s="88"/>
+      <c r="BQ28" s="88"/>
+      <c r="BR28" s="88"/>
+      <c r="BS28" s="88"/>
+      <c r="BT28" s="88"/>
+      <c r="BU28" s="88"/>
+      <c r="BV28" s="88"/>
+      <c r="BW28" s="88"/>
       <c r="BY28" s="23"/>
       <c r="BZ28" s="23"/>
       <c r="CA28" s="45"/>
@@ -8089,13 +8083,13 @@
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="104"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
       <c r="P29" s="23"/>
@@ -8116,13 +8110,13 @@
       <c r="AE29" s="23"/>
       <c r="AF29" s="23"/>
       <c r="AG29" s="23"/>
-      <c r="AH29" s="55"/>
-      <c r="AI29" s="55"/>
-      <c r="AJ29" s="55"/>
-      <c r="AK29" s="55"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="55"/>
-      <c r="AN29" s="55"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="52"/>
+      <c r="AL29" s="52"/>
+      <c r="AM29" s="52"/>
+      <c r="AN29" s="52"/>
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
@@ -8173,13 +8167,13 @@
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="104"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
       <c r="P30" s="23"/>
@@ -8200,13 +8194,13 @@
       <c r="AE30" s="23"/>
       <c r="AF30" s="23"/>
       <c r="AG30" s="23"/>
-      <c r="AH30" s="55"/>
-      <c r="AI30" s="55"/>
-      <c r="AJ30" s="55"/>
-      <c r="AK30" s="55"/>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="55"/>
-      <c r="AN30" s="55"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="52"/>
+      <c r="AL30" s="52"/>
+      <c r="AM30" s="52"/>
+      <c r="AN30" s="52"/>
       <c r="AO30" s="26"/>
       <c r="AP30" s="26"/>
       <c r="AQ30" s="26"/>
@@ -8229,12 +8223,12 @@
       <c r="BL30" s="23"/>
       <c r="BM30" s="23"/>
       <c r="BN30" s="23"/>
-      <c r="BO30" s="124" t="s">
-        <v>99</v>
-      </c>
-      <c r="BP30" s="125"/>
-      <c r="BQ30" s="125"/>
-      <c r="BR30" s="126"/>
+      <c r="BO30" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP30" s="111"/>
+      <c r="BQ30" s="111"/>
+      <c r="BR30" s="112"/>
       <c r="BS30" s="23"/>
       <c r="BT30" s="23"/>
       <c r="BU30" s="23"/>
@@ -8255,20 +8249,20 @@
       <c r="CK30" s="23"/>
       <c r="CL30" s="26"/>
       <c r="CQ30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
       <c r="P31" s="23"/>
@@ -8289,13 +8283,13 @@
       <c r="AE31" s="23"/>
       <c r="AF31" s="23"/>
       <c r="AG31" s="23"/>
-      <c r="AH31" s="55"/>
-      <c r="AI31" s="55"/>
-      <c r="AJ31" s="55"/>
-      <c r="AK31" s="55"/>
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="55"/>
-      <c r="AN31" s="55"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="52"/>
+      <c r="AL31" s="52"/>
+      <c r="AM31" s="52"/>
+      <c r="AN31" s="52"/>
       <c r="AO31" s="26"/>
       <c r="AP31" s="26"/>
       <c r="AQ31" s="26"/>
@@ -8346,13 +8340,13 @@
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
       <c r="P32" s="26"/>
@@ -8373,29 +8367,29 @@
       <c r="AE32" s="26"/>
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="55"/>
-      <c r="AJ32" s="55"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="55"/>
-      <c r="AN32" s="55"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="52"/>
+      <c r="AM32" s="52"/>
+      <c r="AN32" s="52"/>
       <c r="AO32" s="26"/>
       <c r="AP32" s="26"/>
       <c r="AQ32" s="26"/>
       <c r="AU32" s="26"/>
       <c r="AV32" s="23"/>
       <c r="AW32" s="23"/>
-      <c r="AX32" s="115" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY32" s="116"/>
-      <c r="AZ32" s="116"/>
-      <c r="BA32" s="116"/>
-      <c r="BB32" s="116"/>
-      <c r="BC32" s="116"/>
-      <c r="BD32" s="116"/>
-      <c r="BE32" s="117"/>
+      <c r="AX32" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY32" s="102"/>
+      <c r="AZ32" s="102"/>
+      <c r="BA32" s="102"/>
+      <c r="BB32" s="102"/>
+      <c r="BC32" s="102"/>
+      <c r="BD32" s="102"/>
+      <c r="BE32" s="103"/>
       <c r="BF32" s="23"/>
       <c r="BG32" s="23"/>
       <c r="BH32" s="26"/>
@@ -8432,13 +8426,13 @@
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="104"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
       <c r="N33" s="26"/>
       <c r="O33" s="26"/>
       <c r="P33" s="26"/>
@@ -8459,27 +8453,27 @@
       <c r="AE33" s="26"/>
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
-      <c r="AH33" s="55"/>
-      <c r="AI33" s="55"/>
-      <c r="AJ33" s="55"/>
-      <c r="AK33" s="55"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="55"/>
-      <c r="AN33" s="55"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52"/>
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="52"/>
+      <c r="AN33" s="52"/>
       <c r="AO33" s="26"/>
       <c r="AP33" s="26"/>
       <c r="AQ33" s="26"/>
       <c r="AU33" s="26"/>
       <c r="AV33" s="23"/>
       <c r="AW33" s="23"/>
-      <c r="AX33" s="118"/>
-      <c r="AY33" s="119"/>
-      <c r="AZ33" s="119"/>
-      <c r="BA33" s="119"/>
-      <c r="BB33" s="119"/>
-      <c r="BC33" s="119"/>
-      <c r="BD33" s="119"/>
-      <c r="BE33" s="120"/>
+      <c r="AX33" s="104"/>
+      <c r="AY33" s="105"/>
+      <c r="AZ33" s="105"/>
+      <c r="BA33" s="105"/>
+      <c r="BB33" s="105"/>
+      <c r="BC33" s="105"/>
+      <c r="BD33" s="105"/>
+      <c r="BE33" s="106"/>
       <c r="BF33" s="23"/>
       <c r="BG33" s="23"/>
       <c r="BH33" s="26"/>
@@ -8556,14 +8550,14 @@
       <c r="AU34" s="23"/>
       <c r="AV34" s="23"/>
       <c r="AW34" s="23"/>
-      <c r="AX34" s="118"/>
-      <c r="AY34" s="119"/>
-      <c r="AZ34" s="119"/>
-      <c r="BA34" s="119"/>
-      <c r="BB34" s="119"/>
-      <c r="BC34" s="119"/>
-      <c r="BD34" s="119"/>
-      <c r="BE34" s="120"/>
+      <c r="AX34" s="104"/>
+      <c r="AY34" s="105"/>
+      <c r="AZ34" s="105"/>
+      <c r="BA34" s="105"/>
+      <c r="BB34" s="105"/>
+      <c r="BC34" s="105"/>
+      <c r="BD34" s="105"/>
+      <c r="BE34" s="106"/>
       <c r="BF34" s="23"/>
       <c r="BG34" s="23"/>
       <c r="BH34" s="23"/>
@@ -8640,14 +8634,14 @@
       <c r="AU35" s="23"/>
       <c r="AV35" s="23"/>
       <c r="AW35" s="23"/>
-      <c r="AX35" s="118"/>
-      <c r="AY35" s="119"/>
-      <c r="AZ35" s="119"/>
-      <c r="BA35" s="119"/>
-      <c r="BB35" s="119"/>
-      <c r="BC35" s="119"/>
-      <c r="BD35" s="119"/>
-      <c r="BE35" s="120"/>
+      <c r="AX35" s="104"/>
+      <c r="AY35" s="105"/>
+      <c r="AZ35" s="105"/>
+      <c r="BA35" s="105"/>
+      <c r="BB35" s="105"/>
+      <c r="BC35" s="105"/>
+      <c r="BD35" s="105"/>
+      <c r="BE35" s="106"/>
       <c r="BF35" s="23"/>
       <c r="BG35" s="23"/>
       <c r="BH35" s="23"/>
@@ -8710,14 +8704,14 @@
       <c r="AU36" s="23"/>
       <c r="AV36" s="23"/>
       <c r="AW36" s="23"/>
-      <c r="AX36" s="118"/>
-      <c r="AY36" s="119"/>
-      <c r="AZ36" s="119"/>
-      <c r="BA36" s="119"/>
-      <c r="BB36" s="119"/>
-      <c r="BC36" s="119"/>
-      <c r="BD36" s="119"/>
-      <c r="BE36" s="120"/>
+      <c r="AX36" s="104"/>
+      <c r="AY36" s="105"/>
+      <c r="AZ36" s="105"/>
+      <c r="BA36" s="105"/>
+      <c r="BB36" s="105"/>
+      <c r="BC36" s="105"/>
+      <c r="BD36" s="105"/>
+      <c r="BE36" s="106"/>
       <c r="BF36" s="23"/>
       <c r="BG36" s="23"/>
       <c r="BH36" s="23"/>
@@ -8740,14 +8734,14 @@
       <c r="AU37" s="23"/>
       <c r="AV37" s="23"/>
       <c r="AW37" s="23"/>
-      <c r="AX37" s="118"/>
-      <c r="AY37" s="119"/>
-      <c r="AZ37" s="119"/>
-      <c r="BA37" s="119"/>
-      <c r="BB37" s="119"/>
-      <c r="BC37" s="119"/>
-      <c r="BD37" s="119"/>
-      <c r="BE37" s="120"/>
+      <c r="AX37" s="104"/>
+      <c r="AY37" s="105"/>
+      <c r="AZ37" s="105"/>
+      <c r="BA37" s="105"/>
+      <c r="BB37" s="105"/>
+      <c r="BC37" s="105"/>
+      <c r="BD37" s="105"/>
+      <c r="BE37" s="106"/>
       <c r="BF37" s="23"/>
       <c r="BG37" s="23"/>
       <c r="BH37" s="23"/>
@@ -8767,56 +8761,56 @@
       <c r="BW37" s="23"/>
     </row>
     <row r="38" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54"/>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="54"/>
-      <c r="AD38" s="54"/>
-      <c r="AE38" s="54"/>
-      <c r="AF38" s="54"/>
-      <c r="AG38" s="54"/>
-      <c r="AH38" s="54"/>
-      <c r="AI38" s="54"/>
-      <c r="AJ38" s="54"/>
-      <c r="AK38" s="54"/>
-      <c r="AL38" s="54"/>
-      <c r="AM38" s="54"/>
-      <c r="AN38" s="54"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="90"/>
+      <c r="U38" s="90"/>
+      <c r="V38" s="90"/>
+      <c r="W38" s="90"/>
+      <c r="X38" s="90"/>
+      <c r="Y38" s="90"/>
+      <c r="Z38" s="90"/>
+      <c r="AA38" s="90"/>
+      <c r="AB38" s="90"/>
+      <c r="AC38" s="90"/>
+      <c r="AD38" s="90"/>
+      <c r="AE38" s="90"/>
+      <c r="AF38" s="90"/>
+      <c r="AG38" s="90"/>
+      <c r="AH38" s="90"/>
+      <c r="AI38" s="90"/>
+      <c r="AJ38" s="90"/>
+      <c r="AK38" s="90"/>
+      <c r="AL38" s="90"/>
+      <c r="AM38" s="90"/>
+      <c r="AN38" s="90"/>
       <c r="AU38" s="26"/>
       <c r="AV38" s="23"/>
       <c r="AW38" s="23"/>
-      <c r="AX38" s="118"/>
-      <c r="AY38" s="119"/>
-      <c r="AZ38" s="119"/>
-      <c r="BA38" s="119"/>
-      <c r="BB38" s="119"/>
-      <c r="BC38" s="119"/>
-      <c r="BD38" s="119"/>
-      <c r="BE38" s="120"/>
+      <c r="AX38" s="104"/>
+      <c r="AY38" s="105"/>
+      <c r="AZ38" s="105"/>
+      <c r="BA38" s="105"/>
+      <c r="BB38" s="105"/>
+      <c r="BC38" s="105"/>
+      <c r="BD38" s="105"/>
+      <c r="BE38" s="106"/>
       <c r="BF38" s="23"/>
       <c r="BG38" s="23"/>
       <c r="BH38" s="26"/>
@@ -8837,64 +8831,64 @@
     </row>
     <row r="39" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52" t="s">
+      <c r="F39" s="88"/>
+      <c r="G39" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52"/>
-      <c r="AH39" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI39" s="52"/>
-      <c r="AJ39" s="52"/>
-      <c r="AK39" s="52"/>
-      <c r="AL39" s="52"/>
-      <c r="AM39" s="52"/>
-      <c r="AN39" s="52"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88"/>
+      <c r="V39" s="88"/>
+      <c r="W39" s="88"/>
+      <c r="X39" s="88"/>
+      <c r="Y39" s="88"/>
+      <c r="Z39" s="88"/>
+      <c r="AA39" s="88"/>
+      <c r="AB39" s="88"/>
+      <c r="AC39" s="88"/>
+      <c r="AD39" s="88"/>
+      <c r="AE39" s="88"/>
+      <c r="AF39" s="88"/>
+      <c r="AG39" s="88"/>
+      <c r="AH39" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI39" s="88"/>
+      <c r="AJ39" s="88"/>
+      <c r="AK39" s="88"/>
+      <c r="AL39" s="88"/>
+      <c r="AM39" s="88"/>
+      <c r="AN39" s="88"/>
       <c r="AO39" s="31"/>
       <c r="AP39" s="31"/>
       <c r="AQ39" s="31"/>
       <c r="AU39" s="26"/>
       <c r="AV39" s="23"/>
       <c r="AW39" s="23"/>
-      <c r="AX39" s="121"/>
-      <c r="AY39" s="122"/>
-      <c r="AZ39" s="122"/>
-      <c r="BA39" s="122"/>
-      <c r="BB39" s="122"/>
-      <c r="BC39" s="122"/>
-      <c r="BD39" s="122"/>
-      <c r="BE39" s="123"/>
+      <c r="AX39" s="107"/>
+      <c r="AY39" s="108"/>
+      <c r="AZ39" s="108"/>
+      <c r="BA39" s="108"/>
+      <c r="BB39" s="108"/>
+      <c r="BC39" s="108"/>
+      <c r="BD39" s="108"/>
+      <c r="BE39" s="109"/>
       <c r="BF39" s="23"/>
       <c r="BG39" s="23"/>
       <c r="BH39" s="26"/>
@@ -8917,48 +8911,48 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="52"/>
-      <c r="AF40" s="52"/>
-      <c r="AG40" s="52"/>
-      <c r="AH40" s="52" t="s">
+      <c r="F40" s="88"/>
+      <c r="G40" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="88"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88"/>
+      <c r="V40" s="88"/>
+      <c r="W40" s="88"/>
+      <c r="X40" s="88"/>
+      <c r="Y40" s="88"/>
+      <c r="Z40" s="88"/>
+      <c r="AA40" s="88"/>
+      <c r="AB40" s="88"/>
+      <c r="AC40" s="88"/>
+      <c r="AD40" s="88"/>
+      <c r="AE40" s="88"/>
+      <c r="AF40" s="88"/>
+      <c r="AG40" s="88"/>
+      <c r="AH40" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="AI40" s="52"/>
-      <c r="AJ40" s="52"/>
-      <c r="AK40" s="52"/>
-      <c r="AL40" s="52"/>
-      <c r="AM40" s="52"/>
-      <c r="AN40" s="52"/>
+      <c r="AI40" s="88"/>
+      <c r="AJ40" s="88"/>
+      <c r="AK40" s="88"/>
+      <c r="AL40" s="88"/>
+      <c r="AM40" s="88"/>
+      <c r="AN40" s="88"/>
       <c r="AU40" s="26"/>
       <c r="AV40" s="23"/>
       <c r="AW40" s="23"/>
@@ -8992,48 +8986,48 @@
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="E41" s="52" t="s">
+      <c r="E41" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="52"/>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="52"/>
-      <c r="AF41" s="52"/>
-      <c r="AG41" s="52"/>
-      <c r="AH41" s="52" t="s">
+      <c r="F41" s="88"/>
+      <c r="G41" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="88"/>
+      <c r="U41" s="88"/>
+      <c r="V41" s="88"/>
+      <c r="W41" s="88"/>
+      <c r="X41" s="88"/>
+      <c r="Y41" s="88"/>
+      <c r="Z41" s="88"/>
+      <c r="AA41" s="88"/>
+      <c r="AB41" s="88"/>
+      <c r="AC41" s="88"/>
+      <c r="AD41" s="88"/>
+      <c r="AE41" s="88"/>
+      <c r="AF41" s="88"/>
+      <c r="AG41" s="88"/>
+      <c r="AH41" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="AI41" s="52"/>
-      <c r="AJ41" s="52"/>
-      <c r="AK41" s="52"/>
-      <c r="AL41" s="52"/>
-      <c r="AM41" s="52"/>
-      <c r="AN41" s="52"/>
+      <c r="AI41" s="88"/>
+      <c r="AJ41" s="88"/>
+      <c r="AK41" s="88"/>
+      <c r="AL41" s="88"/>
+      <c r="AM41" s="88"/>
+      <c r="AN41" s="88"/>
       <c r="AU41" s="26"/>
       <c r="AV41" s="23"/>
       <c r="AW41" s="23"/>
@@ -9067,48 +9061,48 @@
       <c r="D42">
         <v>3</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52"/>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="52"/>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="52"/>
-      <c r="AB42" s="52"/>
-      <c r="AC42" s="52"/>
-      <c r="AD42" s="52"/>
-      <c r="AE42" s="52"/>
-      <c r="AF42" s="52"/>
-      <c r="AG42" s="52"/>
-      <c r="AH42" s="52" t="s">
+      <c r="F42" s="88"/>
+      <c r="G42" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="88"/>
+      <c r="Q42" s="88"/>
+      <c r="R42" s="88"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="88"/>
+      <c r="U42" s="88"/>
+      <c r="V42" s="88"/>
+      <c r="W42" s="88"/>
+      <c r="X42" s="88"/>
+      <c r="Y42" s="88"/>
+      <c r="Z42" s="88"/>
+      <c r="AA42" s="88"/>
+      <c r="AB42" s="88"/>
+      <c r="AC42" s="88"/>
+      <c r="AD42" s="88"/>
+      <c r="AE42" s="88"/>
+      <c r="AF42" s="88"/>
+      <c r="AG42" s="88"/>
+      <c r="AH42" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="AI42" s="52"/>
-      <c r="AJ42" s="52"/>
-      <c r="AK42" s="52"/>
-      <c r="AL42" s="52"/>
-      <c r="AM42" s="52"/>
-      <c r="AN42" s="52"/>
+      <c r="AI42" s="88"/>
+      <c r="AJ42" s="88"/>
+      <c r="AK42" s="88"/>
+      <c r="AL42" s="88"/>
+      <c r="AM42" s="88"/>
+      <c r="AN42" s="88"/>
       <c r="AU42" s="26"/>
       <c r="AV42" s="26"/>
       <c r="AW42" s="26"/>
@@ -9142,1766 +9136,1649 @@
       <c r="D43">
         <v>4</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="52"/>
-      <c r="T43" s="52"/>
-      <c r="U43" s="52"/>
-      <c r="V43" s="52"/>
-      <c r="W43" s="52"/>
-      <c r="X43" s="52"/>
-      <c r="Y43" s="52"/>
-      <c r="Z43" s="52"/>
-      <c r="AA43" s="52"/>
-      <c r="AB43" s="52"/>
-      <c r="AC43" s="52"/>
-      <c r="AD43" s="52"/>
-      <c r="AE43" s="52"/>
-      <c r="AF43" s="52"/>
-      <c r="AG43" s="52"/>
-      <c r="AH43" s="52" t="s">
+      <c r="F43" s="88"/>
+      <c r="G43" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="88"/>
+      <c r="Q43" s="88"/>
+      <c r="R43" s="88"/>
+      <c r="S43" s="88"/>
+      <c r="T43" s="88"/>
+      <c r="U43" s="88"/>
+      <c r="V43" s="88"/>
+      <c r="W43" s="88"/>
+      <c r="X43" s="88"/>
+      <c r="Y43" s="88"/>
+      <c r="Z43" s="88"/>
+      <c r="AA43" s="88"/>
+      <c r="AB43" s="88"/>
+      <c r="AC43" s="88"/>
+      <c r="AD43" s="88"/>
+      <c r="AE43" s="88"/>
+      <c r="AF43" s="88"/>
+      <c r="AG43" s="88"/>
+      <c r="AH43" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="AI43" s="52"/>
-      <c r="AJ43" s="52"/>
-      <c r="AK43" s="52"/>
-      <c r="AL43" s="52"/>
-      <c r="AM43" s="52"/>
-      <c r="AN43" s="52"/>
+      <c r="AI43" s="88"/>
+      <c r="AJ43" s="88"/>
+      <c r="AK43" s="88"/>
+      <c r="AL43" s="88"/>
+      <c r="AM43" s="88"/>
+      <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D44">
         <v>5</v>
       </c>
-      <c r="E44" s="52" t="s">
+      <c r="E44" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="52"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="52"/>
-      <c r="V44" s="52"/>
-      <c r="W44" s="52"/>
-      <c r="X44" s="52"/>
-      <c r="Y44" s="52"/>
-      <c r="Z44" s="52"/>
-      <c r="AA44" s="52"/>
-      <c r="AB44" s="52"/>
-      <c r="AC44" s="52"/>
-      <c r="AD44" s="52"/>
-      <c r="AE44" s="52"/>
-      <c r="AF44" s="52"/>
-      <c r="AG44" s="52"/>
-      <c r="AH44" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI44" s="52"/>
-      <c r="AJ44" s="52"/>
-      <c r="AK44" s="52"/>
-      <c r="AL44" s="52"/>
-      <c r="AM44" s="52"/>
-      <c r="AN44" s="52"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="88"/>
+      <c r="N44" s="88"/>
+      <c r="O44" s="88"/>
+      <c r="P44" s="88"/>
+      <c r="Q44" s="88"/>
+      <c r="R44" s="88"/>
+      <c r="S44" s="88"/>
+      <c r="T44" s="88"/>
+      <c r="U44" s="88"/>
+      <c r="V44" s="88"/>
+      <c r="W44" s="88"/>
+      <c r="X44" s="88"/>
+      <c r="Y44" s="88"/>
+      <c r="Z44" s="88"/>
+      <c r="AA44" s="88"/>
+      <c r="AB44" s="88"/>
+      <c r="AC44" s="88"/>
+      <c r="AD44" s="88"/>
+      <c r="AE44" s="88"/>
+      <c r="AF44" s="88"/>
+      <c r="AG44" s="88"/>
+      <c r="AH44" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI44" s="88"/>
+      <c r="AJ44" s="88"/>
+      <c r="AK44" s="88"/>
+      <c r="AL44" s="88"/>
+      <c r="AM44" s="88"/>
+      <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45">
         <v>6</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="52"/>
-      <c r="U45" s="52"/>
-      <c r="V45" s="52"/>
-      <c r="W45" s="52"/>
-      <c r="X45" s="52"/>
-      <c r="Y45" s="52"/>
-      <c r="Z45" s="52"/>
-      <c r="AA45" s="52"/>
-      <c r="AB45" s="52"/>
-      <c r="AC45" s="52"/>
-      <c r="AD45" s="52"/>
-      <c r="AE45" s="52"/>
-      <c r="AF45" s="52"/>
-      <c r="AG45" s="52"/>
-      <c r="AH45" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI45" s="52"/>
-      <c r="AJ45" s="52"/>
-      <c r="AK45" s="52"/>
-      <c r="AL45" s="52"/>
-      <c r="AM45" s="52"/>
-      <c r="AN45" s="52"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="88"/>
+      <c r="P45" s="88"/>
+      <c r="Q45" s="88"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="88"/>
+      <c r="U45" s="88"/>
+      <c r="V45" s="88"/>
+      <c r="W45" s="88"/>
+      <c r="X45" s="88"/>
+      <c r="Y45" s="88"/>
+      <c r="Z45" s="88"/>
+      <c r="AA45" s="88"/>
+      <c r="AB45" s="88"/>
+      <c r="AC45" s="88"/>
+      <c r="AD45" s="88"/>
+      <c r="AE45" s="88"/>
+      <c r="AF45" s="88"/>
+      <c r="AG45" s="88"/>
+      <c r="AH45" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI45" s="88"/>
+      <c r="AJ45" s="88"/>
+      <c r="AK45" s="88"/>
+      <c r="AL45" s="88"/>
+      <c r="AM45" s="88"/>
+      <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46">
         <v>7</v>
       </c>
-      <c r="E46" s="52" t="s">
+      <c r="E46" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="52"/>
-      <c r="U46" s="52"/>
-      <c r="V46" s="52"/>
-      <c r="W46" s="52"/>
-      <c r="X46" s="52"/>
-      <c r="Y46" s="52"/>
-      <c r="Z46" s="52"/>
-      <c r="AA46" s="52"/>
-      <c r="AB46" s="52"/>
-      <c r="AC46" s="52"/>
-      <c r="AD46" s="52"/>
-      <c r="AE46" s="52"/>
-      <c r="AF46" s="52"/>
-      <c r="AG46" s="52"/>
-      <c r="AH46" s="52" t="s">
+      <c r="F46" s="88"/>
+      <c r="G46" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="AI46" s="52"/>
-      <c r="AJ46" s="52"/>
-      <c r="AK46" s="52"/>
-      <c r="AL46" s="52"/>
-      <c r="AM46" s="52"/>
-      <c r="AN46" s="52"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="88"/>
+      <c r="N46" s="88"/>
+      <c r="O46" s="88"/>
+      <c r="P46" s="88"/>
+      <c r="Q46" s="88"/>
+      <c r="R46" s="88"/>
+      <c r="S46" s="88"/>
+      <c r="T46" s="88"/>
+      <c r="U46" s="88"/>
+      <c r="V46" s="88"/>
+      <c r="W46" s="88"/>
+      <c r="X46" s="88"/>
+      <c r="Y46" s="88"/>
+      <c r="Z46" s="88"/>
+      <c r="AA46" s="88"/>
+      <c r="AB46" s="88"/>
+      <c r="AC46" s="88"/>
+      <c r="AD46" s="88"/>
+      <c r="AE46" s="88"/>
+      <c r="AF46" s="88"/>
+      <c r="AG46" s="88"/>
+      <c r="AH46" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI46" s="88"/>
+      <c r="AJ46" s="88"/>
+      <c r="AK46" s="88"/>
+      <c r="AL46" s="88"/>
+      <c r="AM46" s="88"/>
+      <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47">
         <v>8</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="E47" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52" t="s">
+      <c r="F47" s="88"/>
+      <c r="G47" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="88"/>
+      <c r="P47" s="88"/>
+      <c r="Q47" s="88"/>
+      <c r="R47" s="88"/>
+      <c r="S47" s="88"/>
+      <c r="T47" s="88"/>
+      <c r="U47" s="88"/>
+      <c r="V47" s="88"/>
+      <c r="W47" s="88"/>
+      <c r="X47" s="88"/>
+      <c r="Y47" s="88"/>
+      <c r="Z47" s="88"/>
+      <c r="AA47" s="88"/>
+      <c r="AB47" s="88"/>
+      <c r="AC47" s="88"/>
+      <c r="AD47" s="88"/>
+      <c r="AE47" s="88"/>
+      <c r="AF47" s="88"/>
+      <c r="AG47" s="88"/>
+      <c r="AH47" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="52"/>
-      <c r="U47" s="52"/>
-      <c r="V47" s="52"/>
-      <c r="W47" s="52"/>
-      <c r="X47" s="52"/>
-      <c r="Y47" s="52"/>
-      <c r="Z47" s="52"/>
-      <c r="AA47" s="52"/>
-      <c r="AB47" s="52"/>
-      <c r="AC47" s="52"/>
-      <c r="AD47" s="52"/>
-      <c r="AE47" s="52"/>
-      <c r="AF47" s="52"/>
-      <c r="AG47" s="52"/>
-      <c r="AH47" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI47" s="52"/>
-      <c r="AJ47" s="52"/>
-      <c r="AK47" s="52"/>
-      <c r="AL47" s="52"/>
-      <c r="AM47" s="52"/>
-      <c r="AN47" s="52"/>
+      <c r="AI47" s="88"/>
+      <c r="AJ47" s="88"/>
+      <c r="AK47" s="88"/>
+      <c r="AL47" s="88"/>
+      <c r="AM47" s="88"/>
+      <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48">
         <v>9</v>
       </c>
-      <c r="E48" s="52" t="s">
+      <c r="E48" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="52"/>
-      <c r="W48" s="52"/>
-      <c r="X48" s="52"/>
-      <c r="Y48" s="52"/>
-      <c r="Z48" s="52"/>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="52"/>
-      <c r="AC48" s="52"/>
-      <c r="AD48" s="52"/>
-      <c r="AE48" s="52"/>
-      <c r="AF48" s="52"/>
-      <c r="AG48" s="52"/>
-      <c r="AH48" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI48" s="52"/>
-      <c r="AJ48" s="52"/>
-      <c r="AK48" s="52"/>
-      <c r="AL48" s="52"/>
-      <c r="AM48" s="52"/>
-      <c r="AN48" s="52"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="88"/>
+      <c r="P48" s="88"/>
+      <c r="Q48" s="88"/>
+      <c r="R48" s="88"/>
+      <c r="S48" s="88"/>
+      <c r="T48" s="88"/>
+      <c r="U48" s="88"/>
+      <c r="V48" s="88"/>
+      <c r="W48" s="88"/>
+      <c r="X48" s="88"/>
+      <c r="Y48" s="88"/>
+      <c r="Z48" s="88"/>
+      <c r="AA48" s="88"/>
+      <c r="AB48" s="88"/>
+      <c r="AC48" s="88"/>
+      <c r="AD48" s="88"/>
+      <c r="AE48" s="88"/>
+      <c r="AF48" s="88"/>
+      <c r="AG48" s="88"/>
+      <c r="AH48" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI48" s="88"/>
+      <c r="AJ48" s="88"/>
+      <c r="AK48" s="88"/>
+      <c r="AL48" s="88"/>
+      <c r="AM48" s="88"/>
+      <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49">
         <v>10</v>
       </c>
-      <c r="E49" s="52" t="s">
+      <c r="E49" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="52"/>
-      <c r="U49" s="52"/>
-      <c r="V49" s="52"/>
-      <c r="W49" s="52"/>
-      <c r="X49" s="52"/>
-      <c r="Y49" s="52"/>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="52"/>
-      <c r="AB49" s="52"/>
-      <c r="AC49" s="52"/>
-      <c r="AD49" s="52"/>
-      <c r="AE49" s="52"/>
-      <c r="AF49" s="52"/>
-      <c r="AG49" s="52"/>
-      <c r="AH49" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI49" s="52"/>
-      <c r="AJ49" s="52"/>
-      <c r="AK49" s="52"/>
-      <c r="AL49" s="52"/>
-      <c r="AM49" s="52"/>
-      <c r="AN49" s="52"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="88"/>
+      <c r="N49" s="88"/>
+      <c r="O49" s="88"/>
+      <c r="P49" s="88"/>
+      <c r="Q49" s="88"/>
+      <c r="R49" s="88"/>
+      <c r="S49" s="88"/>
+      <c r="T49" s="88"/>
+      <c r="U49" s="88"/>
+      <c r="V49" s="88"/>
+      <c r="W49" s="88"/>
+      <c r="X49" s="88"/>
+      <c r="Y49" s="88"/>
+      <c r="Z49" s="88"/>
+      <c r="AA49" s="88"/>
+      <c r="AB49" s="88"/>
+      <c r="AC49" s="88"/>
+      <c r="AD49" s="88"/>
+      <c r="AE49" s="88"/>
+      <c r="AF49" s="88"/>
+      <c r="AG49" s="88"/>
+      <c r="AH49" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI49" s="88"/>
+      <c r="AJ49" s="88"/>
+      <c r="AK49" s="88"/>
+      <c r="AL49" s="88"/>
+      <c r="AM49" s="88"/>
+      <c r="AN49" s="88"/>
     </row>
     <row r="50" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50">
         <v>11</v>
       </c>
-      <c r="E50" s="52" t="s">
+      <c r="E50" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="52"/>
-      <c r="S50" s="52"/>
-      <c r="T50" s="52"/>
-      <c r="U50" s="52"/>
-      <c r="V50" s="52"/>
-      <c r="W50" s="52"/>
-      <c r="X50" s="52"/>
-      <c r="Y50" s="52"/>
-      <c r="Z50" s="52"/>
-      <c r="AA50" s="52"/>
-      <c r="AB50" s="52"/>
-      <c r="AC50" s="52"/>
-      <c r="AD50" s="52"/>
-      <c r="AE50" s="52"/>
-      <c r="AF50" s="52"/>
-      <c r="AG50" s="52"/>
-      <c r="AH50" s="52" t="s">
+      <c r="F50" s="88"/>
+      <c r="G50" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="AI50" s="52"/>
-      <c r="AJ50" s="52"/>
-      <c r="AK50" s="52"/>
-      <c r="AL50" s="52"/>
-      <c r="AM50" s="52"/>
-      <c r="AN50" s="52"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="88"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="88"/>
+      <c r="P50" s="88"/>
+      <c r="Q50" s="88"/>
+      <c r="R50" s="88"/>
+      <c r="S50" s="88"/>
+      <c r="T50" s="88"/>
+      <c r="U50" s="88"/>
+      <c r="V50" s="88"/>
+      <c r="W50" s="88"/>
+      <c r="X50" s="88"/>
+      <c r="Y50" s="88"/>
+      <c r="Z50" s="88"/>
+      <c r="AA50" s="88"/>
+      <c r="AB50" s="88"/>
+      <c r="AC50" s="88"/>
+      <c r="AD50" s="88"/>
+      <c r="AE50" s="88"/>
+      <c r="AF50" s="88"/>
+      <c r="AG50" s="88"/>
+      <c r="AH50" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI50" s="88"/>
+      <c r="AJ50" s="88"/>
+      <c r="AK50" s="88"/>
+      <c r="AL50" s="88"/>
+      <c r="AM50" s="88"/>
+      <c r="AN50" s="88"/>
     </row>
     <row r="51" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51">
         <v>12</v>
       </c>
-      <c r="E51" s="52" t="s">
+      <c r="E51" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
-      <c r="U51" s="52"/>
-      <c r="V51" s="52"/>
-      <c r="W51" s="52"/>
-      <c r="X51" s="52"/>
-      <c r="Y51" s="52"/>
-      <c r="Z51" s="52"/>
-      <c r="AA51" s="52"/>
-      <c r="AB51" s="52"/>
-      <c r="AC51" s="52"/>
-      <c r="AD51" s="52"/>
-      <c r="AE51" s="52"/>
-      <c r="AF51" s="52"/>
-      <c r="AG51" s="52"/>
-      <c r="AH51" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI51" s="52"/>
-      <c r="AJ51" s="52"/>
-      <c r="AK51" s="52"/>
-      <c r="AL51" s="52"/>
-      <c r="AM51" s="52"/>
-      <c r="AN51" s="52"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="88"/>
+      <c r="N51" s="88"/>
+      <c r="O51" s="88"/>
+      <c r="P51" s="88"/>
+      <c r="Q51" s="88"/>
+      <c r="R51" s="88"/>
+      <c r="S51" s="88"/>
+      <c r="T51" s="88"/>
+      <c r="U51" s="88"/>
+      <c r="V51" s="88"/>
+      <c r="W51" s="88"/>
+      <c r="X51" s="88"/>
+      <c r="Y51" s="88"/>
+      <c r="Z51" s="88"/>
+      <c r="AA51" s="88"/>
+      <c r="AB51" s="88"/>
+      <c r="AC51" s="88"/>
+      <c r="AD51" s="88"/>
+      <c r="AE51" s="88"/>
+      <c r="AF51" s="88"/>
+      <c r="AG51" s="88"/>
+      <c r="AH51" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI51" s="88"/>
+      <c r="AJ51" s="88"/>
+      <c r="AK51" s="88"/>
+      <c r="AL51" s="88"/>
+      <c r="AM51" s="88"/>
+      <c r="AN51" s="88"/>
     </row>
     <row r="52" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52">
         <v>13</v>
       </c>
-      <c r="E52" s="52" t="s">
+      <c r="E52" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="52"/>
-      <c r="U52" s="52"/>
-      <c r="V52" s="52"/>
-      <c r="W52" s="52"/>
-      <c r="X52" s="52"/>
-      <c r="Y52" s="52"/>
-      <c r="Z52" s="52"/>
-      <c r="AA52" s="52"/>
-      <c r="AB52" s="52"/>
-      <c r="AC52" s="52"/>
-      <c r="AD52" s="52"/>
-      <c r="AE52" s="52"/>
-      <c r="AF52" s="52"/>
-      <c r="AG52" s="52"/>
-      <c r="AH52" s="52" t="s">
+      <c r="F52" s="88"/>
+      <c r="G52" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="AI52" s="52"/>
-      <c r="AJ52" s="52"/>
-      <c r="AK52" s="52"/>
-      <c r="AL52" s="52"/>
-      <c r="AM52" s="52"/>
-      <c r="AN52" s="52"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="88"/>
+      <c r="K52" s="88"/>
+      <c r="L52" s="88"/>
+      <c r="M52" s="88"/>
+      <c r="N52" s="88"/>
+      <c r="O52" s="88"/>
+      <c r="P52" s="88"/>
+      <c r="Q52" s="88"/>
+      <c r="R52" s="88"/>
+      <c r="S52" s="88"/>
+      <c r="T52" s="88"/>
+      <c r="U52" s="88"/>
+      <c r="V52" s="88"/>
+      <c r="W52" s="88"/>
+      <c r="X52" s="88"/>
+      <c r="Y52" s="88"/>
+      <c r="Z52" s="88"/>
+      <c r="AA52" s="88"/>
+      <c r="AB52" s="88"/>
+      <c r="AC52" s="88"/>
+      <c r="AD52" s="88"/>
+      <c r="AE52" s="88"/>
+      <c r="AF52" s="88"/>
+      <c r="AG52" s="88"/>
+      <c r="AH52" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI52" s="88"/>
+      <c r="AJ52" s="88"/>
+      <c r="AK52" s="88"/>
+      <c r="AL52" s="88"/>
+      <c r="AM52" s="88"/>
+      <c r="AN52" s="88"/>
     </row>
     <row r="53" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53">
         <v>14</v>
       </c>
-      <c r="E53" s="52" t="s">
+      <c r="E53" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
-      <c r="U53" s="52"/>
-      <c r="V53" s="52"/>
-      <c r="W53" s="52"/>
-      <c r="X53" s="52"/>
-      <c r="Y53" s="52"/>
-      <c r="Z53" s="52"/>
-      <c r="AA53" s="52"/>
-      <c r="AB53" s="52"/>
-      <c r="AC53" s="52"/>
-      <c r="AD53" s="52"/>
-      <c r="AE53" s="52"/>
-      <c r="AF53" s="52"/>
-      <c r="AG53" s="52"/>
-      <c r="AH53" s="52" t="s">
+      <c r="F53" s="88"/>
+      <c r="G53" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="AI53" s="52"/>
-      <c r="AJ53" s="52"/>
-      <c r="AK53" s="52"/>
-      <c r="AL53" s="52"/>
-      <c r="AM53" s="52"/>
-      <c r="AN53" s="52"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
+      <c r="K53" s="88"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="88"/>
+      <c r="N53" s="88"/>
+      <c r="O53" s="88"/>
+      <c r="P53" s="88"/>
+      <c r="Q53" s="88"/>
+      <c r="R53" s="88"/>
+      <c r="S53" s="88"/>
+      <c r="T53" s="88"/>
+      <c r="U53" s="88"/>
+      <c r="V53" s="88"/>
+      <c r="W53" s="88"/>
+      <c r="X53" s="88"/>
+      <c r="Y53" s="88"/>
+      <c r="Z53" s="88"/>
+      <c r="AA53" s="88"/>
+      <c r="AB53" s="88"/>
+      <c r="AC53" s="88"/>
+      <c r="AD53" s="88"/>
+      <c r="AE53" s="88"/>
+      <c r="AF53" s="88"/>
+      <c r="AG53" s="88"/>
+      <c r="AH53" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI53" s="88"/>
+      <c r="AJ53" s="88"/>
+      <c r="AK53" s="88"/>
+      <c r="AL53" s="88"/>
+      <c r="AM53" s="88"/>
+      <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54">
         <v>15</v>
       </c>
-      <c r="E54" s="52" t="s">
+      <c r="E54" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="52"/>
-      <c r="V54" s="52"/>
-      <c r="W54" s="52"/>
-      <c r="X54" s="52"/>
-      <c r="Y54" s="52"/>
-      <c r="Z54" s="52"/>
-      <c r="AA54" s="52"/>
-      <c r="AB54" s="52"/>
-      <c r="AC54" s="52"/>
-      <c r="AD54" s="52"/>
-      <c r="AE54" s="52"/>
-      <c r="AF54" s="52"/>
-      <c r="AG54" s="52"/>
-      <c r="AH54" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI54" s="52"/>
-      <c r="AJ54" s="52"/>
-      <c r="AK54" s="52"/>
-      <c r="AL54" s="52"/>
-      <c r="AM54" s="52"/>
-      <c r="AN54" s="52"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="88"/>
+      <c r="L54" s="88"/>
+      <c r="M54" s="88"/>
+      <c r="N54" s="88"/>
+      <c r="O54" s="88"/>
+      <c r="P54" s="88"/>
+      <c r="Q54" s="88"/>
+      <c r="R54" s="88"/>
+      <c r="S54" s="88"/>
+      <c r="T54" s="88"/>
+      <c r="U54" s="88"/>
+      <c r="V54" s="88"/>
+      <c r="W54" s="88"/>
+      <c r="X54" s="88"/>
+      <c r="Y54" s="88"/>
+      <c r="Z54" s="88"/>
+      <c r="AA54" s="88"/>
+      <c r="AB54" s="88"/>
+      <c r="AC54" s="88"/>
+      <c r="AD54" s="88"/>
+      <c r="AE54" s="88"/>
+      <c r="AF54" s="88"/>
+      <c r="AG54" s="88"/>
+      <c r="AH54" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI54" s="88"/>
+      <c r="AJ54" s="88"/>
+      <c r="AK54" s="88"/>
+      <c r="AL54" s="88"/>
+      <c r="AM54" s="88"/>
+      <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55">
         <v>16</v>
       </c>
-      <c r="E55" s="52" t="s">
+      <c r="E55" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
-      <c r="U55" s="52"/>
-      <c r="V55" s="52"/>
-      <c r="W55" s="52"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="52"/>
-      <c r="Z55" s="52"/>
-      <c r="AA55" s="52"/>
-      <c r="AB55" s="52"/>
-      <c r="AC55" s="52"/>
-      <c r="AD55" s="52"/>
-      <c r="AE55" s="52"/>
-      <c r="AF55" s="52"/>
-      <c r="AG55" s="52"/>
-      <c r="AH55" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI55" s="52"/>
-      <c r="AJ55" s="52"/>
-      <c r="AK55" s="52"/>
-      <c r="AL55" s="52"/>
-      <c r="AM55" s="52"/>
-      <c r="AN55" s="52"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="88"/>
+      <c r="L55" s="88"/>
+      <c r="M55" s="88"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="88"/>
+      <c r="P55" s="88"/>
+      <c r="Q55" s="88"/>
+      <c r="R55" s="88"/>
+      <c r="S55" s="88"/>
+      <c r="T55" s="88"/>
+      <c r="U55" s="88"/>
+      <c r="V55" s="88"/>
+      <c r="W55" s="88"/>
+      <c r="X55" s="88"/>
+      <c r="Y55" s="88"/>
+      <c r="Z55" s="88"/>
+      <c r="AA55" s="88"/>
+      <c r="AB55" s="88"/>
+      <c r="AC55" s="88"/>
+      <c r="AD55" s="88"/>
+      <c r="AE55" s="88"/>
+      <c r="AF55" s="88"/>
+      <c r="AG55" s="88"/>
+      <c r="AH55" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI55" s="88"/>
+      <c r="AJ55" s="88"/>
+      <c r="AK55" s="88"/>
+      <c r="AL55" s="88"/>
+      <c r="AM55" s="88"/>
+      <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D56">
         <v>17</v>
       </c>
-      <c r="E56" s="52" t="s">
+      <c r="E56" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="52"/>
-      <c r="S56" s="52"/>
-      <c r="T56" s="52"/>
-      <c r="U56" s="52"/>
-      <c r="V56" s="52"/>
-      <c r="W56" s="52"/>
-      <c r="X56" s="52"/>
-      <c r="Y56" s="52"/>
-      <c r="Z56" s="52"/>
-      <c r="AA56" s="52"/>
-      <c r="AB56" s="52"/>
-      <c r="AC56" s="52"/>
-      <c r="AD56" s="52"/>
-      <c r="AE56" s="52"/>
-      <c r="AF56" s="52"/>
-      <c r="AG56" s="52"/>
-      <c r="AH56" s="52" t="s">
+      <c r="F56" s="88"/>
+      <c r="G56" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="AI56" s="52"/>
-      <c r="AJ56" s="52"/>
-      <c r="AK56" s="52"/>
-      <c r="AL56" s="52"/>
-      <c r="AM56" s="52"/>
-      <c r="AN56" s="52"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="88"/>
+      <c r="L56" s="88"/>
+      <c r="M56" s="88"/>
+      <c r="N56" s="88"/>
+      <c r="O56" s="88"/>
+      <c r="P56" s="88"/>
+      <c r="Q56" s="88"/>
+      <c r="R56" s="88"/>
+      <c r="S56" s="88"/>
+      <c r="T56" s="88"/>
+      <c r="U56" s="88"/>
+      <c r="V56" s="88"/>
+      <c r="W56" s="88"/>
+      <c r="X56" s="88"/>
+      <c r="Y56" s="88"/>
+      <c r="Z56" s="88"/>
+      <c r="AA56" s="88"/>
+      <c r="AB56" s="88"/>
+      <c r="AC56" s="88"/>
+      <c r="AD56" s="88"/>
+      <c r="AE56" s="88"/>
+      <c r="AF56" s="88"/>
+      <c r="AG56" s="88"/>
+      <c r="AH56" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI56" s="88"/>
+      <c r="AJ56" s="88"/>
+      <c r="AK56" s="88"/>
+      <c r="AL56" s="88"/>
+      <c r="AM56" s="88"/>
+      <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57">
         <v>18</v>
       </c>
-      <c r="E57" s="52" t="s">
+      <c r="E57" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="52"/>
-      <c r="G57" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="52"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="52"/>
-      <c r="U57" s="52"/>
-      <c r="V57" s="52"/>
-      <c r="W57" s="52"/>
-      <c r="X57" s="52"/>
-      <c r="Y57" s="52"/>
-      <c r="Z57" s="52"/>
-      <c r="AA57" s="52"/>
-      <c r="AB57" s="52"/>
-      <c r="AC57" s="52"/>
-      <c r="AD57" s="52"/>
-      <c r="AE57" s="52"/>
-      <c r="AF57" s="52"/>
-      <c r="AG57" s="52"/>
-      <c r="AH57" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI57" s="52"/>
-      <c r="AJ57" s="52"/>
-      <c r="AK57" s="52"/>
-      <c r="AL57" s="52"/>
-      <c r="AM57" s="52"/>
-      <c r="AN57" s="52"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="88"/>
+      <c r="M57" s="88"/>
+      <c r="N57" s="88"/>
+      <c r="O57" s="88"/>
+      <c r="P57" s="88"/>
+      <c r="Q57" s="88"/>
+      <c r="R57" s="88"/>
+      <c r="S57" s="88"/>
+      <c r="T57" s="88"/>
+      <c r="U57" s="88"/>
+      <c r="V57" s="88"/>
+      <c r="W57" s="88"/>
+      <c r="X57" s="88"/>
+      <c r="Y57" s="88"/>
+      <c r="Z57" s="88"/>
+      <c r="AA57" s="88"/>
+      <c r="AB57" s="88"/>
+      <c r="AC57" s="88"/>
+      <c r="AD57" s="88"/>
+      <c r="AE57" s="88"/>
+      <c r="AF57" s="88"/>
+      <c r="AG57" s="88"/>
+      <c r="AH57" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI57" s="88"/>
+      <c r="AJ57" s="88"/>
+      <c r="AK57" s="88"/>
+      <c r="AL57" s="88"/>
+      <c r="AM57" s="88"/>
+      <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58">
         <v>19</v>
       </c>
-      <c r="E58" s="52" t="s">
+      <c r="E58" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="52"/>
-      <c r="S58" s="52"/>
-      <c r="T58" s="52"/>
-      <c r="U58" s="52"/>
-      <c r="V58" s="52"/>
-      <c r="W58" s="52"/>
-      <c r="X58" s="52"/>
-      <c r="Y58" s="52"/>
-      <c r="Z58" s="52"/>
-      <c r="AA58" s="52"/>
-      <c r="AB58" s="52"/>
-      <c r="AC58" s="52"/>
-      <c r="AD58" s="52"/>
-      <c r="AE58" s="52"/>
-      <c r="AF58" s="52"/>
-      <c r="AG58" s="52"/>
-      <c r="AH58" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI58" s="52"/>
-      <c r="AJ58" s="52"/>
-      <c r="AK58" s="52"/>
-      <c r="AL58" s="52"/>
-      <c r="AM58" s="52"/>
-      <c r="AN58" s="52"/>
+      <c r="F58" s="88"/>
+      <c r="G58" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="88"/>
+      <c r="K58" s="88"/>
+      <c r="L58" s="88"/>
+      <c r="M58" s="88"/>
+      <c r="N58" s="88"/>
+      <c r="O58" s="88"/>
+      <c r="P58" s="88"/>
+      <c r="Q58" s="88"/>
+      <c r="R58" s="88"/>
+      <c r="S58" s="88"/>
+      <c r="T58" s="88"/>
+      <c r="U58" s="88"/>
+      <c r="V58" s="88"/>
+      <c r="W58" s="88"/>
+      <c r="X58" s="88"/>
+      <c r="Y58" s="88"/>
+      <c r="Z58" s="88"/>
+      <c r="AA58" s="88"/>
+      <c r="AB58" s="88"/>
+      <c r="AC58" s="88"/>
+      <c r="AD58" s="88"/>
+      <c r="AE58" s="88"/>
+      <c r="AF58" s="88"/>
+      <c r="AG58" s="88"/>
+      <c r="AH58" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI58" s="88"/>
+      <c r="AJ58" s="88"/>
+      <c r="AK58" s="88"/>
+      <c r="AL58" s="88"/>
+      <c r="AM58" s="88"/>
+      <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D59">
         <v>20</v>
       </c>
-      <c r="E59" s="52" t="s">
+      <c r="E59" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="52"/>
-      <c r="U59" s="52"/>
-      <c r="V59" s="52"/>
-      <c r="W59" s="52"/>
-      <c r="X59" s="52"/>
-      <c r="Y59" s="52"/>
-      <c r="Z59" s="52"/>
-      <c r="AA59" s="52"/>
-      <c r="AB59" s="52"/>
-      <c r="AC59" s="52"/>
-      <c r="AD59" s="52"/>
-      <c r="AE59" s="52"/>
-      <c r="AF59" s="52"/>
-      <c r="AG59" s="52"/>
-      <c r="AH59" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI59" s="52"/>
-      <c r="AJ59" s="52"/>
-      <c r="AK59" s="52"/>
-      <c r="AL59" s="52"/>
-      <c r="AM59" s="52"/>
-      <c r="AN59" s="52"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
+      <c r="K59" s="88"/>
+      <c r="L59" s="88"/>
+      <c r="M59" s="88"/>
+      <c r="N59" s="88"/>
+      <c r="O59" s="88"/>
+      <c r="P59" s="88"/>
+      <c r="Q59" s="88"/>
+      <c r="R59" s="88"/>
+      <c r="S59" s="88"/>
+      <c r="T59" s="88"/>
+      <c r="U59" s="88"/>
+      <c r="V59" s="88"/>
+      <c r="W59" s="88"/>
+      <c r="X59" s="88"/>
+      <c r="Y59" s="88"/>
+      <c r="Z59" s="88"/>
+      <c r="AA59" s="88"/>
+      <c r="AB59" s="88"/>
+      <c r="AC59" s="88"/>
+      <c r="AD59" s="88"/>
+      <c r="AE59" s="88"/>
+      <c r="AF59" s="88"/>
+      <c r="AG59" s="88"/>
+      <c r="AH59" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI59" s="88"/>
+      <c r="AJ59" s="88"/>
+      <c r="AK59" s="88"/>
+      <c r="AL59" s="88"/>
+      <c r="AM59" s="88"/>
+      <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D60">
         <v>21</v>
       </c>
-      <c r="E60" s="52" t="s">
+      <c r="E60" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52" t="s">
+      <c r="F60" s="88"/>
+      <c r="G60" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="H60" s="88"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="88"/>
+      <c r="L60" s="88"/>
+      <c r="M60" s="88"/>
+      <c r="N60" s="88"/>
+      <c r="O60" s="88"/>
+      <c r="P60" s="88"/>
+      <c r="Q60" s="88"/>
+      <c r="R60" s="88"/>
+      <c r="S60" s="88"/>
+      <c r="T60" s="88"/>
+      <c r="U60" s="88"/>
+      <c r="V60" s="88"/>
+      <c r="W60" s="88"/>
+      <c r="X60" s="88"/>
+      <c r="Y60" s="88"/>
+      <c r="Z60" s="88"/>
+      <c r="AA60" s="88"/>
+      <c r="AB60" s="88"/>
+      <c r="AC60" s="88"/>
+      <c r="AD60" s="88"/>
+      <c r="AE60" s="88"/>
+      <c r="AF60" s="88"/>
+      <c r="AG60" s="88"/>
+      <c r="AH60" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="52"/>
-      <c r="S60" s="52"/>
-      <c r="T60" s="52"/>
-      <c r="U60" s="52"/>
-      <c r="V60" s="52"/>
-      <c r="W60" s="52"/>
-      <c r="X60" s="52"/>
-      <c r="Y60" s="52"/>
-      <c r="Z60" s="52"/>
-      <c r="AA60" s="52"/>
-      <c r="AB60" s="52"/>
-      <c r="AC60" s="52"/>
-      <c r="AD60" s="52"/>
-      <c r="AE60" s="52"/>
-      <c r="AF60" s="52"/>
-      <c r="AG60" s="52"/>
-      <c r="AH60" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI60" s="52"/>
-      <c r="AJ60" s="52"/>
-      <c r="AK60" s="52"/>
-      <c r="AL60" s="52"/>
-      <c r="AM60" s="52"/>
-      <c r="AN60" s="52"/>
+      <c r="AI60" s="88"/>
+      <c r="AJ60" s="88"/>
+      <c r="AK60" s="88"/>
+      <c r="AL60" s="88"/>
+      <c r="AM60" s="88"/>
+      <c r="AN60" s="88"/>
     </row>
     <row r="61" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D61">
         <v>22</v>
       </c>
-      <c r="E61" s="52" t="s">
+      <c r="E61" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="52"/>
-      <c r="G61" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="52"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="52"/>
-      <c r="U61" s="52"/>
-      <c r="V61" s="52"/>
-      <c r="W61" s="52"/>
-      <c r="X61" s="52"/>
-      <c r="Y61" s="52"/>
-      <c r="Z61" s="52"/>
-      <c r="AA61" s="52"/>
-      <c r="AB61" s="52"/>
-      <c r="AC61" s="52"/>
-      <c r="AD61" s="52"/>
-      <c r="AE61" s="52"/>
-      <c r="AF61" s="52"/>
-      <c r="AG61" s="52"/>
-      <c r="AH61" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI61" s="52"/>
-      <c r="AJ61" s="52"/>
-      <c r="AK61" s="52"/>
-      <c r="AL61" s="52"/>
-      <c r="AM61" s="52"/>
-      <c r="AN61" s="52"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="H61" s="88"/>
+      <c r="I61" s="88"/>
+      <c r="J61" s="88"/>
+      <c r="K61" s="88"/>
+      <c r="L61" s="88"/>
+      <c r="M61" s="88"/>
+      <c r="N61" s="88"/>
+      <c r="O61" s="88"/>
+      <c r="P61" s="88"/>
+      <c r="Q61" s="88"/>
+      <c r="R61" s="88"/>
+      <c r="S61" s="88"/>
+      <c r="T61" s="88"/>
+      <c r="U61" s="88"/>
+      <c r="V61" s="88"/>
+      <c r="W61" s="88"/>
+      <c r="X61" s="88"/>
+      <c r="Y61" s="88"/>
+      <c r="Z61" s="88"/>
+      <c r="AA61" s="88"/>
+      <c r="AB61" s="88"/>
+      <c r="AC61" s="88"/>
+      <c r="AD61" s="88"/>
+      <c r="AE61" s="88"/>
+      <c r="AF61" s="88"/>
+      <c r="AG61" s="88"/>
+      <c r="AH61" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI61" s="88"/>
+      <c r="AJ61" s="88"/>
+      <c r="AK61" s="88"/>
+      <c r="AL61" s="88"/>
+      <c r="AM61" s="88"/>
+      <c r="AN61" s="88"/>
     </row>
     <row r="62" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D62">
         <v>23</v>
       </c>
-      <c r="E62" s="52" t="s">
+      <c r="E62" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="52"/>
-      <c r="S62" s="52"/>
-      <c r="T62" s="52"/>
-      <c r="U62" s="52"/>
-      <c r="V62" s="52"/>
-      <c r="W62" s="52"/>
-      <c r="X62" s="52"/>
-      <c r="Y62" s="52"/>
-      <c r="Z62" s="52"/>
-      <c r="AA62" s="52"/>
-      <c r="AB62" s="52"/>
-      <c r="AC62" s="52"/>
-      <c r="AD62" s="52"/>
-      <c r="AE62" s="52"/>
-      <c r="AF62" s="52"/>
-      <c r="AG62" s="52"/>
-      <c r="AH62" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI62" s="52"/>
-      <c r="AJ62" s="52"/>
-      <c r="AK62" s="52"/>
-      <c r="AL62" s="52"/>
-      <c r="AM62" s="52"/>
-      <c r="AN62" s="52"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="88"/>
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
+      <c r="N62" s="88"/>
+      <c r="O62" s="88"/>
+      <c r="P62" s="88"/>
+      <c r="Q62" s="88"/>
+      <c r="R62" s="88"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="88"/>
+      <c r="U62" s="88"/>
+      <c r="V62" s="88"/>
+      <c r="W62" s="88"/>
+      <c r="X62" s="88"/>
+      <c r="Y62" s="88"/>
+      <c r="Z62" s="88"/>
+      <c r="AA62" s="88"/>
+      <c r="AB62" s="88"/>
+      <c r="AC62" s="88"/>
+      <c r="AD62" s="88"/>
+      <c r="AE62" s="88"/>
+      <c r="AF62" s="88"/>
+      <c r="AG62" s="88"/>
+      <c r="AH62" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI62" s="88"/>
+      <c r="AJ62" s="88"/>
+      <c r="AK62" s="88"/>
+      <c r="AL62" s="88"/>
+      <c r="AM62" s="88"/>
+      <c r="AN62" s="88"/>
     </row>
     <row r="63" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63">
         <v>24</v>
       </c>
-      <c r="E63" s="52" t="s">
+      <c r="E63" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="52"/>
-      <c r="G63" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="52"/>
-      <c r="S63" s="52"/>
-      <c r="T63" s="52"/>
-      <c r="U63" s="52"/>
-      <c r="V63" s="52"/>
-      <c r="W63" s="52"/>
-      <c r="X63" s="52"/>
-      <c r="Y63" s="52"/>
-      <c r="Z63" s="52"/>
-      <c r="AA63" s="52"/>
-      <c r="AB63" s="52"/>
-      <c r="AC63" s="52"/>
-      <c r="AD63" s="52"/>
-      <c r="AE63" s="52"/>
-      <c r="AF63" s="52"/>
-      <c r="AG63" s="52"/>
-      <c r="AH63" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI63" s="52"/>
-      <c r="AJ63" s="52"/>
-      <c r="AK63" s="52"/>
-      <c r="AL63" s="52"/>
-      <c r="AM63" s="52"/>
-      <c r="AN63" s="52"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="H63" s="88"/>
+      <c r="I63" s="88"/>
+      <c r="J63" s="88"/>
+      <c r="K63" s="88"/>
+      <c r="L63" s="88"/>
+      <c r="M63" s="88"/>
+      <c r="N63" s="88"/>
+      <c r="O63" s="88"/>
+      <c r="P63" s="88"/>
+      <c r="Q63" s="88"/>
+      <c r="R63" s="88"/>
+      <c r="S63" s="88"/>
+      <c r="T63" s="88"/>
+      <c r="U63" s="88"/>
+      <c r="V63" s="88"/>
+      <c r="W63" s="88"/>
+      <c r="X63" s="88"/>
+      <c r="Y63" s="88"/>
+      <c r="Z63" s="88"/>
+      <c r="AA63" s="88"/>
+      <c r="AB63" s="88"/>
+      <c r="AC63" s="88"/>
+      <c r="AD63" s="88"/>
+      <c r="AE63" s="88"/>
+      <c r="AF63" s="88"/>
+      <c r="AG63" s="88"/>
+      <c r="AH63" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI63" s="88"/>
+      <c r="AJ63" s="88"/>
+      <c r="AK63" s="88"/>
+      <c r="AL63" s="88"/>
+      <c r="AM63" s="88"/>
+      <c r="AN63" s="88"/>
     </row>
     <row r="64" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D64">
         <v>25</v>
       </c>
-      <c r="E64" s="52" t="s">
+      <c r="E64" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="52"/>
-      <c r="S64" s="52"/>
-      <c r="T64" s="52"/>
-      <c r="U64" s="52"/>
-      <c r="V64" s="52"/>
-      <c r="W64" s="52"/>
-      <c r="X64" s="52"/>
-      <c r="Y64" s="52"/>
-      <c r="Z64" s="52"/>
-      <c r="AA64" s="52"/>
-      <c r="AB64" s="52"/>
-      <c r="AC64" s="52"/>
-      <c r="AD64" s="52"/>
-      <c r="AE64" s="52"/>
-      <c r="AF64" s="52"/>
-      <c r="AG64" s="52"/>
-      <c r="AH64" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI64" s="52"/>
-      <c r="AJ64" s="52"/>
-      <c r="AK64" s="52"/>
-      <c r="AL64" s="52"/>
-      <c r="AM64" s="52"/>
-      <c r="AN64" s="52"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="H64" s="88"/>
+      <c r="I64" s="88"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="88"/>
+      <c r="L64" s="88"/>
+      <c r="M64" s="88"/>
+      <c r="N64" s="88"/>
+      <c r="O64" s="88"/>
+      <c r="P64" s="88"/>
+      <c r="Q64" s="88"/>
+      <c r="R64" s="88"/>
+      <c r="S64" s="88"/>
+      <c r="T64" s="88"/>
+      <c r="U64" s="88"/>
+      <c r="V64" s="88"/>
+      <c r="W64" s="88"/>
+      <c r="X64" s="88"/>
+      <c r="Y64" s="88"/>
+      <c r="Z64" s="88"/>
+      <c r="AA64" s="88"/>
+      <c r="AB64" s="88"/>
+      <c r="AC64" s="88"/>
+      <c r="AD64" s="88"/>
+      <c r="AE64" s="88"/>
+      <c r="AF64" s="88"/>
+      <c r="AG64" s="88"/>
+      <c r="AH64" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI64" s="88"/>
+      <c r="AJ64" s="88"/>
+      <c r="AK64" s="88"/>
+      <c r="AL64" s="88"/>
+      <c r="AM64" s="88"/>
+      <c r="AN64" s="88"/>
     </row>
     <row r="65" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D65">
         <v>26</v>
       </c>
-      <c r="E65" s="52" t="s">
+      <c r="E65" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="52"/>
-      <c r="S65" s="52"/>
-      <c r="T65" s="52"/>
-      <c r="U65" s="52"/>
-      <c r="V65" s="52"/>
-      <c r="W65" s="52"/>
-      <c r="X65" s="52"/>
-      <c r="Y65" s="52"/>
-      <c r="Z65" s="52"/>
-      <c r="AA65" s="52"/>
-      <c r="AB65" s="52"/>
-      <c r="AC65" s="52"/>
-      <c r="AD65" s="52"/>
-      <c r="AE65" s="52"/>
-      <c r="AF65" s="52"/>
-      <c r="AG65" s="52"/>
-      <c r="AH65" s="52" t="s">
+      <c r="F65" s="88"/>
+      <c r="G65" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="AI65" s="52"/>
-      <c r="AJ65" s="52"/>
-      <c r="AK65" s="52"/>
-      <c r="AL65" s="52"/>
-      <c r="AM65" s="52"/>
-      <c r="AN65" s="52"/>
+      <c r="H65" s="88"/>
+      <c r="I65" s="88"/>
+      <c r="J65" s="88"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="88"/>
+      <c r="M65" s="88"/>
+      <c r="N65" s="88"/>
+      <c r="O65" s="88"/>
+      <c r="P65" s="88"/>
+      <c r="Q65" s="88"/>
+      <c r="R65" s="88"/>
+      <c r="S65" s="88"/>
+      <c r="T65" s="88"/>
+      <c r="U65" s="88"/>
+      <c r="V65" s="88"/>
+      <c r="W65" s="88"/>
+      <c r="X65" s="88"/>
+      <c r="Y65" s="88"/>
+      <c r="Z65" s="88"/>
+      <c r="AA65" s="88"/>
+      <c r="AB65" s="88"/>
+      <c r="AC65" s="88"/>
+      <c r="AD65" s="88"/>
+      <c r="AE65" s="88"/>
+      <c r="AF65" s="88"/>
+      <c r="AG65" s="88"/>
+      <c r="AH65" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI65" s="88"/>
+      <c r="AJ65" s="88"/>
+      <c r="AK65" s="88"/>
+      <c r="AL65" s="88"/>
+      <c r="AM65" s="88"/>
+      <c r="AN65" s="88"/>
     </row>
     <row r="66" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D66">
         <v>27</v>
       </c>
-      <c r="E66" s="52" t="s">
+      <c r="E66" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
-      <c r="N66" s="52"/>
-      <c r="O66" s="52"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="52"/>
-      <c r="S66" s="52"/>
-      <c r="T66" s="52"/>
-      <c r="U66" s="52"/>
-      <c r="V66" s="52"/>
-      <c r="W66" s="52"/>
-      <c r="X66" s="52"/>
-      <c r="Y66" s="52"/>
-      <c r="Z66" s="52"/>
-      <c r="AA66" s="52"/>
-      <c r="AB66" s="52"/>
-      <c r="AC66" s="52"/>
-      <c r="AD66" s="52"/>
-      <c r="AE66" s="52"/>
-      <c r="AF66" s="52"/>
-      <c r="AG66" s="52"/>
-      <c r="AH66" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI66" s="52"/>
-      <c r="AJ66" s="52"/>
-      <c r="AK66" s="52"/>
-      <c r="AL66" s="52"/>
-      <c r="AM66" s="52"/>
-      <c r="AN66" s="52"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="88"/>
+      <c r="K66" s="88"/>
+      <c r="L66" s="88"/>
+      <c r="M66" s="88"/>
+      <c r="N66" s="88"/>
+      <c r="O66" s="88"/>
+      <c r="P66" s="88"/>
+      <c r="Q66" s="88"/>
+      <c r="R66" s="88"/>
+      <c r="S66" s="88"/>
+      <c r="T66" s="88"/>
+      <c r="U66" s="88"/>
+      <c r="V66" s="88"/>
+      <c r="W66" s="88"/>
+      <c r="X66" s="88"/>
+      <c r="Y66" s="88"/>
+      <c r="Z66" s="88"/>
+      <c r="AA66" s="88"/>
+      <c r="AB66" s="88"/>
+      <c r="AC66" s="88"/>
+      <c r="AD66" s="88"/>
+      <c r="AE66" s="88"/>
+      <c r="AF66" s="88"/>
+      <c r="AG66" s="88"/>
+      <c r="AH66" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI66" s="88"/>
+      <c r="AJ66" s="88"/>
+      <c r="AK66" s="88"/>
+      <c r="AL66" s="88"/>
+      <c r="AM66" s="88"/>
+      <c r="AN66" s="88"/>
     </row>
     <row r="67" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D67">
         <v>28</v>
       </c>
-      <c r="E67" s="52" t="s">
+      <c r="E67" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="52"/>
-      <c r="S67" s="52"/>
-      <c r="T67" s="52"/>
-      <c r="U67" s="52"/>
-      <c r="V67" s="52"/>
-      <c r="W67" s="52"/>
-      <c r="X67" s="52"/>
-      <c r="Y67" s="52"/>
-      <c r="Z67" s="52"/>
-      <c r="AA67" s="52"/>
-      <c r="AB67" s="52"/>
-      <c r="AC67" s="52"/>
-      <c r="AD67" s="52"/>
-      <c r="AE67" s="52"/>
-      <c r="AF67" s="52"/>
-      <c r="AG67" s="52"/>
-      <c r="AH67" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI67" s="52"/>
-      <c r="AJ67" s="52"/>
-      <c r="AK67" s="52"/>
-      <c r="AL67" s="52"/>
-      <c r="AM67" s="52"/>
-      <c r="AN67" s="52"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="88"/>
+      <c r="K67" s="88"/>
+      <c r="L67" s="88"/>
+      <c r="M67" s="88"/>
+      <c r="N67" s="88"/>
+      <c r="O67" s="88"/>
+      <c r="P67" s="88"/>
+      <c r="Q67" s="88"/>
+      <c r="R67" s="88"/>
+      <c r="S67" s="88"/>
+      <c r="T67" s="88"/>
+      <c r="U67" s="88"/>
+      <c r="V67" s="88"/>
+      <c r="W67" s="88"/>
+      <c r="X67" s="88"/>
+      <c r="Y67" s="88"/>
+      <c r="Z67" s="88"/>
+      <c r="AA67" s="88"/>
+      <c r="AB67" s="88"/>
+      <c r="AC67" s="88"/>
+      <c r="AD67" s="88"/>
+      <c r="AE67" s="88"/>
+      <c r="AF67" s="88"/>
+      <c r="AG67" s="88"/>
+      <c r="AH67" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI67" s="88"/>
+      <c r="AJ67" s="88"/>
+      <c r="AK67" s="88"/>
+      <c r="AL67" s="88"/>
+      <c r="AM67" s="88"/>
+      <c r="AN67" s="88"/>
     </row>
     <row r="68" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D68">
         <v>29</v>
       </c>
-      <c r="E68" s="52" t="s">
+      <c r="E68" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="52"/>
-      <c r="O68" s="52"/>
-      <c r="P68" s="52"/>
-      <c r="Q68" s="52"/>
-      <c r="R68" s="52"/>
-      <c r="S68" s="52"/>
-      <c r="T68" s="52"/>
-      <c r="U68" s="52"/>
-      <c r="V68" s="52"/>
-      <c r="W68" s="52"/>
-      <c r="X68" s="52"/>
-      <c r="Y68" s="52"/>
-      <c r="Z68" s="52"/>
-      <c r="AA68" s="52"/>
-      <c r="AB68" s="52"/>
-      <c r="AC68" s="52"/>
-      <c r="AD68" s="52"/>
-      <c r="AE68" s="52"/>
-      <c r="AF68" s="52"/>
-      <c r="AG68" s="52"/>
-      <c r="AH68" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI68" s="52"/>
-      <c r="AJ68" s="52"/>
-      <c r="AK68" s="52"/>
-      <c r="AL68" s="52"/>
-      <c r="AM68" s="52"/>
-      <c r="AN68" s="52"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="H68" s="88"/>
+      <c r="I68" s="88"/>
+      <c r="J68" s="88"/>
+      <c r="K68" s="88"/>
+      <c r="L68" s="88"/>
+      <c r="M68" s="88"/>
+      <c r="N68" s="88"/>
+      <c r="O68" s="88"/>
+      <c r="P68" s="88"/>
+      <c r="Q68" s="88"/>
+      <c r="R68" s="88"/>
+      <c r="S68" s="88"/>
+      <c r="T68" s="88"/>
+      <c r="U68" s="88"/>
+      <c r="V68" s="88"/>
+      <c r="W68" s="88"/>
+      <c r="X68" s="88"/>
+      <c r="Y68" s="88"/>
+      <c r="Z68" s="88"/>
+      <c r="AA68" s="88"/>
+      <c r="AB68" s="88"/>
+      <c r="AC68" s="88"/>
+      <c r="AD68" s="88"/>
+      <c r="AE68" s="88"/>
+      <c r="AF68" s="88"/>
+      <c r="AG68" s="88"/>
+      <c r="AH68" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI68" s="88"/>
+      <c r="AJ68" s="88"/>
+      <c r="AK68" s="88"/>
+      <c r="AL68" s="88"/>
+      <c r="AM68" s="88"/>
+      <c r="AN68" s="88"/>
     </row>
     <row r="69" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D69">
         <v>30</v>
       </c>
-      <c r="E69" s="52" t="s">
+      <c r="E69" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F69" s="52"/>
-      <c r="G69" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="52"/>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="52"/>
-      <c r="R69" s="52"/>
-      <c r="S69" s="52"/>
-      <c r="T69" s="52"/>
-      <c r="U69" s="52"/>
-      <c r="V69" s="52"/>
-      <c r="W69" s="52"/>
-      <c r="X69" s="52"/>
-      <c r="Y69" s="52"/>
-      <c r="Z69" s="52"/>
-      <c r="AA69" s="52"/>
-      <c r="AB69" s="52"/>
-      <c r="AC69" s="52"/>
-      <c r="AD69" s="52"/>
-      <c r="AE69" s="52"/>
-      <c r="AF69" s="52"/>
-      <c r="AG69" s="52"/>
-      <c r="AH69" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI69" s="52"/>
-      <c r="AJ69" s="52"/>
-      <c r="AK69" s="52"/>
-      <c r="AL69" s="52"/>
-      <c r="AM69" s="52"/>
-      <c r="AN69" s="52"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="H69" s="88"/>
+      <c r="I69" s="88"/>
+      <c r="J69" s="88"/>
+      <c r="K69" s="88"/>
+      <c r="L69" s="88"/>
+      <c r="M69" s="88"/>
+      <c r="N69" s="88"/>
+      <c r="O69" s="88"/>
+      <c r="P69" s="88"/>
+      <c r="Q69" s="88"/>
+      <c r="R69" s="88"/>
+      <c r="S69" s="88"/>
+      <c r="T69" s="88"/>
+      <c r="U69" s="88"/>
+      <c r="V69" s="88"/>
+      <c r="W69" s="88"/>
+      <c r="X69" s="88"/>
+      <c r="Y69" s="88"/>
+      <c r="Z69" s="88"/>
+      <c r="AA69" s="88"/>
+      <c r="AB69" s="88"/>
+      <c r="AC69" s="88"/>
+      <c r="AD69" s="88"/>
+      <c r="AE69" s="88"/>
+      <c r="AF69" s="88"/>
+      <c r="AG69" s="88"/>
+      <c r="AH69" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI69" s="88"/>
+      <c r="AJ69" s="88"/>
+      <c r="AK69" s="88"/>
+      <c r="AL69" s="88"/>
+      <c r="AM69" s="88"/>
+      <c r="AN69" s="88"/>
     </row>
     <row r="70" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D70">
         <v>31</v>
       </c>
-      <c r="E70" s="52" t="s">
+      <c r="E70" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="H70" s="52"/>
-      <c r="I70" s="52"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="52"/>
-      <c r="L70" s="52"/>
-      <c r="M70" s="52"/>
-      <c r="N70" s="52"/>
-      <c r="O70" s="52"/>
-      <c r="P70" s="52"/>
-      <c r="Q70" s="52"/>
-      <c r="R70" s="52"/>
-      <c r="S70" s="52"/>
-      <c r="T70" s="52"/>
-      <c r="U70" s="52"/>
-      <c r="V70" s="52"/>
-      <c r="W70" s="52"/>
-      <c r="X70" s="52"/>
-      <c r="Y70" s="52"/>
-      <c r="Z70" s="52"/>
-      <c r="AA70" s="52"/>
-      <c r="AB70" s="52"/>
-      <c r="AC70" s="52"/>
-      <c r="AD70" s="52"/>
-      <c r="AE70" s="52"/>
-      <c r="AF70" s="52"/>
-      <c r="AG70" s="52"/>
-      <c r="AH70" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI70" s="52"/>
-      <c r="AJ70" s="52"/>
-      <c r="AK70" s="52"/>
-      <c r="AL70" s="52"/>
-      <c r="AM70" s="52"/>
-      <c r="AN70" s="52"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="H70" s="88"/>
+      <c r="I70" s="88"/>
+      <c r="J70" s="88"/>
+      <c r="K70" s="88"/>
+      <c r="L70" s="88"/>
+      <c r="M70" s="88"/>
+      <c r="N70" s="88"/>
+      <c r="O70" s="88"/>
+      <c r="P70" s="88"/>
+      <c r="Q70" s="88"/>
+      <c r="R70" s="88"/>
+      <c r="S70" s="88"/>
+      <c r="T70" s="88"/>
+      <c r="U70" s="88"/>
+      <c r="V70" s="88"/>
+      <c r="W70" s="88"/>
+      <c r="X70" s="88"/>
+      <c r="Y70" s="88"/>
+      <c r="Z70" s="88"/>
+      <c r="AA70" s="88"/>
+      <c r="AB70" s="88"/>
+      <c r="AC70" s="88"/>
+      <c r="AD70" s="88"/>
+      <c r="AE70" s="88"/>
+      <c r="AF70" s="88"/>
+      <c r="AG70" s="88"/>
+      <c r="AH70" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI70" s="88"/>
+      <c r="AJ70" s="88"/>
+      <c r="AK70" s="88"/>
+      <c r="AL70" s="88"/>
+      <c r="AM70" s="88"/>
+      <c r="AN70" s="88"/>
     </row>
     <row r="71" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D71">
         <v>32</v>
       </c>
-      <c r="E71" s="52" t="s">
+      <c r="E71" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="52"/>
-      <c r="L71" s="52"/>
-      <c r="M71" s="52"/>
-      <c r="N71" s="52"/>
-      <c r="O71" s="52"/>
-      <c r="P71" s="52"/>
-      <c r="Q71" s="52"/>
-      <c r="R71" s="52"/>
-      <c r="S71" s="52"/>
-      <c r="T71" s="52"/>
-      <c r="U71" s="52"/>
-      <c r="V71" s="52"/>
-      <c r="W71" s="52"/>
-      <c r="X71" s="52"/>
-      <c r="Y71" s="52"/>
-      <c r="Z71" s="52"/>
-      <c r="AA71" s="52"/>
-      <c r="AB71" s="52"/>
-      <c r="AC71" s="52"/>
-      <c r="AD71" s="52"/>
-      <c r="AE71" s="52"/>
-      <c r="AF71" s="52"/>
-      <c r="AG71" s="52"/>
-      <c r="AH71" s="52" t="s">
+      <c r="F71" s="88"/>
+      <c r="G71" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="AI71" s="52"/>
-      <c r="AJ71" s="52"/>
-      <c r="AK71" s="52"/>
-      <c r="AL71" s="52"/>
-      <c r="AM71" s="52"/>
-      <c r="AN71" s="52"/>
+      <c r="H71" s="88"/>
+      <c r="I71" s="88"/>
+      <c r="J71" s="88"/>
+      <c r="K71" s="88"/>
+      <c r="L71" s="88"/>
+      <c r="M71" s="88"/>
+      <c r="N71" s="88"/>
+      <c r="O71" s="88"/>
+      <c r="P71" s="88"/>
+      <c r="Q71" s="88"/>
+      <c r="R71" s="88"/>
+      <c r="S71" s="88"/>
+      <c r="T71" s="88"/>
+      <c r="U71" s="88"/>
+      <c r="V71" s="88"/>
+      <c r="W71" s="88"/>
+      <c r="X71" s="88"/>
+      <c r="Y71" s="88"/>
+      <c r="Z71" s="88"/>
+      <c r="AA71" s="88"/>
+      <c r="AB71" s="88"/>
+      <c r="AC71" s="88"/>
+      <c r="AD71" s="88"/>
+      <c r="AE71" s="88"/>
+      <c r="AF71" s="88"/>
+      <c r="AG71" s="88"/>
+      <c r="AH71" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI71" s="88"/>
+      <c r="AJ71" s="88"/>
+      <c r="AK71" s="88"/>
+      <c r="AL71" s="88"/>
+      <c r="AM71" s="88"/>
+      <c r="AN71" s="88"/>
     </row>
     <row r="72" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72">
         <v>33</v>
       </c>
-      <c r="E72" s="52" t="s">
+      <c r="E72" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="52"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="52"/>
-      <c r="O72" s="52"/>
-      <c r="P72" s="52"/>
-      <c r="Q72" s="52"/>
-      <c r="R72" s="52"/>
-      <c r="S72" s="52"/>
-      <c r="T72" s="52"/>
-      <c r="U72" s="52"/>
-      <c r="V72" s="52"/>
-      <c r="W72" s="52"/>
-      <c r="X72" s="52"/>
-      <c r="Y72" s="52"/>
-      <c r="Z72" s="52"/>
-      <c r="AA72" s="52"/>
-      <c r="AB72" s="52"/>
-      <c r="AC72" s="52"/>
-      <c r="AD72" s="52"/>
-      <c r="AE72" s="52"/>
-      <c r="AF72" s="52"/>
-      <c r="AG72" s="52"/>
-      <c r="AH72" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI72" s="52"/>
-      <c r="AJ72" s="52"/>
-      <c r="AK72" s="52"/>
-      <c r="AL72" s="52"/>
-      <c r="AM72" s="52"/>
-      <c r="AN72" s="52"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="H72" s="88"/>
+      <c r="I72" s="88"/>
+      <c r="J72" s="88"/>
+      <c r="K72" s="88"/>
+      <c r="L72" s="88"/>
+      <c r="M72" s="88"/>
+      <c r="N72" s="88"/>
+      <c r="O72" s="88"/>
+      <c r="P72" s="88"/>
+      <c r="Q72" s="88"/>
+      <c r="R72" s="88"/>
+      <c r="S72" s="88"/>
+      <c r="T72" s="88"/>
+      <c r="U72" s="88"/>
+      <c r="V72" s="88"/>
+      <c r="W72" s="88"/>
+      <c r="X72" s="88"/>
+      <c r="Y72" s="88"/>
+      <c r="Z72" s="88"/>
+      <c r="AA72" s="88"/>
+      <c r="AB72" s="88"/>
+      <c r="AC72" s="88"/>
+      <c r="AD72" s="88"/>
+      <c r="AE72" s="88"/>
+      <c r="AF72" s="88"/>
+      <c r="AG72" s="88"/>
+      <c r="AH72" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI72" s="88"/>
+      <c r="AJ72" s="88"/>
+      <c r="AK72" s="88"/>
+      <c r="AL72" s="88"/>
+      <c r="AM72" s="88"/>
+      <c r="AN72" s="88"/>
     </row>
     <row r="73" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73">
         <v>34</v>
       </c>
-      <c r="E73" s="52" t="s">
+      <c r="E73" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="H73" s="52"/>
-      <c r="I73" s="52"/>
-      <c r="J73" s="52"/>
-      <c r="K73" s="52"/>
-      <c r="L73" s="52"/>
-      <c r="M73" s="52"/>
-      <c r="N73" s="52"/>
-      <c r="O73" s="52"/>
-      <c r="P73" s="52"/>
-      <c r="Q73" s="52"/>
-      <c r="R73" s="52"/>
-      <c r="S73" s="52"/>
-      <c r="T73" s="52"/>
-      <c r="U73" s="52"/>
-      <c r="V73" s="52"/>
-      <c r="W73" s="52"/>
-      <c r="X73" s="52"/>
-      <c r="Y73" s="52"/>
-      <c r="Z73" s="52"/>
-      <c r="AA73" s="52"/>
-      <c r="AB73" s="52"/>
-      <c r="AC73" s="52"/>
-      <c r="AD73" s="52"/>
-      <c r="AE73" s="52"/>
-      <c r="AF73" s="52"/>
-      <c r="AG73" s="52"/>
-      <c r="AH73" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI73" s="52"/>
-      <c r="AJ73" s="52"/>
-      <c r="AK73" s="52"/>
-      <c r="AL73" s="52"/>
-      <c r="AM73" s="52"/>
-      <c r="AN73" s="52"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="H73" s="88"/>
+      <c r="I73" s="88"/>
+      <c r="J73" s="88"/>
+      <c r="K73" s="88"/>
+      <c r="L73" s="88"/>
+      <c r="M73" s="88"/>
+      <c r="N73" s="88"/>
+      <c r="O73" s="88"/>
+      <c r="P73" s="88"/>
+      <c r="Q73" s="88"/>
+      <c r="R73" s="88"/>
+      <c r="S73" s="88"/>
+      <c r="T73" s="88"/>
+      <c r="U73" s="88"/>
+      <c r="V73" s="88"/>
+      <c r="W73" s="88"/>
+      <c r="X73" s="88"/>
+      <c r="Y73" s="88"/>
+      <c r="Z73" s="88"/>
+      <c r="AA73" s="88"/>
+      <c r="AB73" s="88"/>
+      <c r="AC73" s="88"/>
+      <c r="AD73" s="88"/>
+      <c r="AE73" s="88"/>
+      <c r="AF73" s="88"/>
+      <c r="AG73" s="88"/>
+      <c r="AH73" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI73" s="88"/>
+      <c r="AJ73" s="88"/>
+      <c r="AK73" s="88"/>
+      <c r="AL73" s="88"/>
+      <c r="AM73" s="88"/>
+      <c r="AN73" s="88"/>
     </row>
     <row r="74" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D74">
         <v>35</v>
       </c>
-      <c r="E74" s="52" t="s">
+      <c r="E74" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="H74" s="52"/>
-      <c r="I74" s="52"/>
-      <c r="J74" s="52"/>
-      <c r="K74" s="52"/>
-      <c r="L74" s="52"/>
-      <c r="M74" s="52"/>
-      <c r="N74" s="52"/>
-      <c r="O74" s="52"/>
-      <c r="P74" s="52"/>
-      <c r="Q74" s="52"/>
-      <c r="R74" s="52"/>
-      <c r="S74" s="52"/>
-      <c r="T74" s="52"/>
-      <c r="U74" s="52"/>
-      <c r="V74" s="52"/>
-      <c r="W74" s="52"/>
-      <c r="X74" s="52"/>
-      <c r="Y74" s="52"/>
-      <c r="Z74" s="52"/>
-      <c r="AA74" s="52"/>
-      <c r="AB74" s="52"/>
-      <c r="AC74" s="52"/>
-      <c r="AD74" s="52"/>
-      <c r="AE74" s="52"/>
-      <c r="AF74" s="52"/>
-      <c r="AG74" s="52"/>
-      <c r="AH74" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI74" s="52"/>
-      <c r="AJ74" s="52"/>
-      <c r="AK74" s="52"/>
-      <c r="AL74" s="52"/>
-      <c r="AM74" s="52"/>
-      <c r="AN74" s="52"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="H74" s="88"/>
+      <c r="I74" s="88"/>
+      <c r="J74" s="88"/>
+      <c r="K74" s="88"/>
+      <c r="L74" s="88"/>
+      <c r="M74" s="88"/>
+      <c r="N74" s="88"/>
+      <c r="O74" s="88"/>
+      <c r="P74" s="88"/>
+      <c r="Q74" s="88"/>
+      <c r="R74" s="88"/>
+      <c r="S74" s="88"/>
+      <c r="T74" s="88"/>
+      <c r="U74" s="88"/>
+      <c r="V74" s="88"/>
+      <c r="W74" s="88"/>
+      <c r="X74" s="88"/>
+      <c r="Y74" s="88"/>
+      <c r="Z74" s="88"/>
+      <c r="AA74" s="88"/>
+      <c r="AB74" s="88"/>
+      <c r="AC74" s="88"/>
+      <c r="AD74" s="88"/>
+      <c r="AE74" s="88"/>
+      <c r="AF74" s="88"/>
+      <c r="AG74" s="88"/>
+      <c r="AH74" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI74" s="88"/>
+      <c r="AJ74" s="88"/>
+      <c r="AK74" s="88"/>
+      <c r="AL74" s="88"/>
+      <c r="AM74" s="88"/>
+      <c r="AN74" s="88"/>
     </row>
     <row r="75" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D75">
         <v>35</v>
       </c>
-      <c r="E75" s="52" t="s">
+      <c r="E75" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="H75" s="52"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="52"/>
-      <c r="L75" s="52"/>
-      <c r="M75" s="52"/>
-      <c r="N75" s="52"/>
-      <c r="O75" s="52"/>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="52"/>
-      <c r="R75" s="52"/>
-      <c r="S75" s="52"/>
-      <c r="T75" s="52"/>
-      <c r="U75" s="52"/>
-      <c r="V75" s="52"/>
-      <c r="W75" s="52"/>
-      <c r="X75" s="52"/>
-      <c r="Y75" s="52"/>
-      <c r="Z75" s="52"/>
-      <c r="AA75" s="52"/>
-      <c r="AB75" s="52"/>
-      <c r="AC75" s="52"/>
-      <c r="AD75" s="52"/>
-      <c r="AE75" s="52"/>
-      <c r="AF75" s="52"/>
-      <c r="AG75" s="52"/>
-      <c r="AH75" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI75" s="52"/>
-      <c r="AJ75" s="52"/>
-      <c r="AK75" s="52"/>
-      <c r="AL75" s="52"/>
-      <c r="AM75" s="52"/>
-      <c r="AN75" s="52"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="H75" s="88"/>
+      <c r="I75" s="88"/>
+      <c r="J75" s="88"/>
+      <c r="K75" s="88"/>
+      <c r="L75" s="88"/>
+      <c r="M75" s="88"/>
+      <c r="N75" s="88"/>
+      <c r="O75" s="88"/>
+      <c r="P75" s="88"/>
+      <c r="Q75" s="88"/>
+      <c r="R75" s="88"/>
+      <c r="S75" s="88"/>
+      <c r="T75" s="88"/>
+      <c r="U75" s="88"/>
+      <c r="V75" s="88"/>
+      <c r="W75" s="88"/>
+      <c r="X75" s="88"/>
+      <c r="Y75" s="88"/>
+      <c r="Z75" s="88"/>
+      <c r="AA75" s="88"/>
+      <c r="AB75" s="88"/>
+      <c r="AC75" s="88"/>
+      <c r="AD75" s="88"/>
+      <c r="AE75" s="88"/>
+      <c r="AF75" s="88"/>
+      <c r="AG75" s="88"/>
+      <c r="AH75" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI75" s="88"/>
+      <c r="AJ75" s="88"/>
+      <c r="AK75" s="88"/>
+      <c r="AL75" s="88"/>
+      <c r="AM75" s="88"/>
+      <c r="AN75" s="88"/>
     </row>
     <row r="76" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D76">
         <v>36</v>
       </c>
-      <c r="E76" s="52" t="s">
+      <c r="E76" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="H76" s="52"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
-      <c r="K76" s="52"/>
-      <c r="L76" s="52"/>
-      <c r="M76" s="52"/>
-      <c r="N76" s="52"/>
-      <c r="O76" s="52"/>
-      <c r="P76" s="52"/>
-      <c r="Q76" s="52"/>
-      <c r="R76" s="52"/>
-      <c r="S76" s="52"/>
-      <c r="T76" s="52"/>
-      <c r="U76" s="52"/>
-      <c r="V76" s="52"/>
-      <c r="W76" s="52"/>
-      <c r="X76" s="52"/>
-      <c r="Y76" s="52"/>
-      <c r="Z76" s="52"/>
-      <c r="AA76" s="52"/>
-      <c r="AB76" s="52"/>
-      <c r="AC76" s="52"/>
-      <c r="AD76" s="52"/>
-      <c r="AE76" s="52"/>
-      <c r="AF76" s="52"/>
-      <c r="AG76" s="52"/>
-      <c r="AH76" s="52" t="s">
+      <c r="F76" s="88"/>
+      <c r="G76" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="AI76" s="52"/>
-      <c r="AJ76" s="52"/>
-      <c r="AK76" s="52"/>
-      <c r="AL76" s="52"/>
-      <c r="AM76" s="52"/>
-      <c r="AN76" s="52"/>
+      <c r="H76" s="88"/>
+      <c r="I76" s="88"/>
+      <c r="J76" s="88"/>
+      <c r="K76" s="88"/>
+      <c r="L76" s="88"/>
+      <c r="M76" s="88"/>
+      <c r="N76" s="88"/>
+      <c r="O76" s="88"/>
+      <c r="P76" s="88"/>
+      <c r="Q76" s="88"/>
+      <c r="R76" s="88"/>
+      <c r="S76" s="88"/>
+      <c r="T76" s="88"/>
+      <c r="U76" s="88"/>
+      <c r="V76" s="88"/>
+      <c r="W76" s="88"/>
+      <c r="X76" s="88"/>
+      <c r="Y76" s="88"/>
+      <c r="Z76" s="88"/>
+      <c r="AA76" s="88"/>
+      <c r="AB76" s="88"/>
+      <c r="AC76" s="88"/>
+      <c r="AD76" s="88"/>
+      <c r="AE76" s="88"/>
+      <c r="AF76" s="88"/>
+      <c r="AG76" s="88"/>
+      <c r="AH76" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI76" s="88"/>
+      <c r="AJ76" s="88"/>
+      <c r="AK76" s="88"/>
+      <c r="AL76" s="88"/>
+      <c r="AM76" s="88"/>
+      <c r="AN76" s="88"/>
     </row>
     <row r="77" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D77">
         <v>37</v>
       </c>
-      <c r="E77" s="52" t="s">
+      <c r="E77" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="52"/>
-      <c r="G77" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="H77" s="52"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="52"/>
-      <c r="K77" s="52"/>
-      <c r="L77" s="52"/>
-      <c r="M77" s="52"/>
-      <c r="N77" s="52"/>
-      <c r="O77" s="52"/>
-      <c r="P77" s="52"/>
-      <c r="Q77" s="52"/>
-      <c r="R77" s="52"/>
-      <c r="S77" s="52"/>
-      <c r="T77" s="52"/>
-      <c r="U77" s="52"/>
-      <c r="V77" s="52"/>
-      <c r="W77" s="52"/>
-      <c r="X77" s="52"/>
-      <c r="Y77" s="52"/>
-      <c r="Z77" s="52"/>
-      <c r="AA77" s="52"/>
-      <c r="AB77" s="52"/>
-      <c r="AC77" s="52"/>
-      <c r="AD77" s="52"/>
-      <c r="AE77" s="52"/>
-      <c r="AF77" s="52"/>
-      <c r="AG77" s="52"/>
-      <c r="AH77" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI77" s="52"/>
-      <c r="AJ77" s="52"/>
-      <c r="AK77" s="52"/>
-      <c r="AL77" s="52"/>
-      <c r="AM77" s="52"/>
-      <c r="AN77" s="52"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="H77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="88"/>
+      <c r="L77" s="88"/>
+      <c r="M77" s="88"/>
+      <c r="N77" s="88"/>
+      <c r="O77" s="88"/>
+      <c r="P77" s="88"/>
+      <c r="Q77" s="88"/>
+      <c r="R77" s="88"/>
+      <c r="S77" s="88"/>
+      <c r="T77" s="88"/>
+      <c r="U77" s="88"/>
+      <c r="V77" s="88"/>
+      <c r="W77" s="88"/>
+      <c r="X77" s="88"/>
+      <c r="Y77" s="88"/>
+      <c r="Z77" s="88"/>
+      <c r="AA77" s="88"/>
+      <c r="AB77" s="88"/>
+      <c r="AC77" s="88"/>
+      <c r="AD77" s="88"/>
+      <c r="AE77" s="88"/>
+      <c r="AF77" s="88"/>
+      <c r="AG77" s="88"/>
+      <c r="AH77" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI77" s="88"/>
+      <c r="AJ77" s="88"/>
+      <c r="AK77" s="88"/>
+      <c r="AL77" s="88"/>
+      <c r="AM77" s="88"/>
+      <c r="AN77" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:AG77"/>
-    <mergeCell ref="AH77:AN77"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:AG75"/>
-    <mergeCell ref="AH75:AN75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:AG76"/>
-    <mergeCell ref="AH76:AN76"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:AG73"/>
-    <mergeCell ref="AH73:AN73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:AG74"/>
-    <mergeCell ref="AH74:AN74"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:AG71"/>
-    <mergeCell ref="AH71:AN71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:AG72"/>
-    <mergeCell ref="AH72:AN72"/>
-    <mergeCell ref="G46:AG46"/>
-    <mergeCell ref="AH46:AN46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:AG47"/>
-    <mergeCell ref="AH47:AN47"/>
-    <mergeCell ref="AH62:AN62"/>
-    <mergeCell ref="AH64:AN64"/>
-    <mergeCell ref="AH63:AN63"/>
-    <mergeCell ref="AH65:AN65"/>
-    <mergeCell ref="AH56:AN56"/>
-    <mergeCell ref="AH57:AN57"/>
-    <mergeCell ref="AH58:AN58"/>
-    <mergeCell ref="AH59:AN59"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="AH66:AN66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="AH67:AN67"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:AG70"/>
-    <mergeCell ref="AH70:AN70"/>
-    <mergeCell ref="AH68:AN68"/>
-    <mergeCell ref="AH69:AN69"/>
-    <mergeCell ref="AH60:AN60"/>
-    <mergeCell ref="AH61:AN61"/>
-    <mergeCell ref="AH51:AN51"/>
-    <mergeCell ref="AH52:AN52"/>
-    <mergeCell ref="AH53:AN53"/>
-    <mergeCell ref="AH54:AN54"/>
-    <mergeCell ref="AH55:AN55"/>
-    <mergeCell ref="AH44:AN44"/>
-    <mergeCell ref="AH45:AN45"/>
-    <mergeCell ref="AH50:AN50"/>
-    <mergeCell ref="AH48:AN48"/>
-    <mergeCell ref="AH49:AN49"/>
-    <mergeCell ref="G63:AG63"/>
-    <mergeCell ref="G65:AG65"/>
-    <mergeCell ref="G66:AG66"/>
-    <mergeCell ref="G67:AG67"/>
-    <mergeCell ref="G68:AG68"/>
-    <mergeCell ref="G69:AG69"/>
-    <mergeCell ref="G58:AG58"/>
-    <mergeCell ref="G59:AG59"/>
-    <mergeCell ref="G60:AG60"/>
-    <mergeCell ref="G61:AG61"/>
-    <mergeCell ref="G62:AG62"/>
-    <mergeCell ref="G64:AG64"/>
-    <mergeCell ref="G52:AG52"/>
-    <mergeCell ref="G53:AG53"/>
-    <mergeCell ref="G54:AG54"/>
-    <mergeCell ref="G55:AG55"/>
-    <mergeCell ref="G56:AG56"/>
-    <mergeCell ref="G57:AG57"/>
-    <mergeCell ref="G50:AG50"/>
-    <mergeCell ref="G51:AG51"/>
-    <mergeCell ref="G48:AG48"/>
-    <mergeCell ref="G49:AG49"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G39:AG39"/>
-    <mergeCell ref="AH39:AN39"/>
-    <mergeCell ref="G40:AG40"/>
-    <mergeCell ref="G41:AG41"/>
-    <mergeCell ref="G42:AG42"/>
-    <mergeCell ref="G43:AG43"/>
-    <mergeCell ref="G44:AG44"/>
-    <mergeCell ref="G45:AG45"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="AH40:AN40"/>
-    <mergeCell ref="AH41:AN41"/>
-    <mergeCell ref="AH42:AN42"/>
-    <mergeCell ref="AH43:AN43"/>
     <mergeCell ref="BM24:BT25"/>
     <mergeCell ref="AX32:BE39"/>
     <mergeCell ref="BO30:BR30"/>
@@ -10921,6 +10798,123 @@
     <mergeCell ref="S16:AB25"/>
     <mergeCell ref="AU12:BH12"/>
     <mergeCell ref="AZ18:BC21"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="AH40:AN40"/>
+    <mergeCell ref="AH41:AN41"/>
+    <mergeCell ref="AH42:AN42"/>
+    <mergeCell ref="AH43:AN43"/>
+    <mergeCell ref="G39:AG39"/>
+    <mergeCell ref="AH39:AN39"/>
+    <mergeCell ref="G40:AG40"/>
+    <mergeCell ref="G41:AG41"/>
+    <mergeCell ref="G42:AG42"/>
+    <mergeCell ref="G43:AG43"/>
+    <mergeCell ref="G44:AG44"/>
+    <mergeCell ref="G45:AG45"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="AH44:AN44"/>
+    <mergeCell ref="AH45:AN45"/>
+    <mergeCell ref="AH50:AN50"/>
+    <mergeCell ref="AH48:AN48"/>
+    <mergeCell ref="AH49:AN49"/>
+    <mergeCell ref="G63:AG63"/>
+    <mergeCell ref="G65:AG65"/>
+    <mergeCell ref="G66:AG66"/>
+    <mergeCell ref="G67:AG67"/>
+    <mergeCell ref="G58:AG58"/>
+    <mergeCell ref="G59:AG59"/>
+    <mergeCell ref="G60:AG60"/>
+    <mergeCell ref="G61:AG61"/>
+    <mergeCell ref="G62:AG62"/>
+    <mergeCell ref="G64:AG64"/>
+    <mergeCell ref="G52:AG52"/>
+    <mergeCell ref="G53:AG53"/>
+    <mergeCell ref="G54:AG54"/>
+    <mergeCell ref="G55:AG55"/>
+    <mergeCell ref="G56:AG56"/>
+    <mergeCell ref="G57:AG57"/>
+    <mergeCell ref="G50:AG50"/>
+    <mergeCell ref="G51:AG51"/>
+    <mergeCell ref="G48:AG48"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="AH66:AN66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="AH67:AN67"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:AG70"/>
+    <mergeCell ref="AH70:AN70"/>
+    <mergeCell ref="AH68:AN68"/>
+    <mergeCell ref="AH69:AN69"/>
+    <mergeCell ref="G68:AG68"/>
+    <mergeCell ref="G69:AG69"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G46:AG46"/>
+    <mergeCell ref="AH46:AN46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:AG47"/>
+    <mergeCell ref="AH47:AN47"/>
+    <mergeCell ref="AH62:AN62"/>
+    <mergeCell ref="AH64:AN64"/>
+    <mergeCell ref="AH63:AN63"/>
+    <mergeCell ref="AH65:AN65"/>
+    <mergeCell ref="AH56:AN56"/>
+    <mergeCell ref="AH57:AN57"/>
+    <mergeCell ref="AH58:AN58"/>
+    <mergeCell ref="AH59:AN59"/>
+    <mergeCell ref="AH60:AN60"/>
+    <mergeCell ref="AH61:AN61"/>
+    <mergeCell ref="AH51:AN51"/>
+    <mergeCell ref="AH52:AN52"/>
+    <mergeCell ref="AH53:AN53"/>
+    <mergeCell ref="AH54:AN54"/>
+    <mergeCell ref="AH55:AN55"/>
+    <mergeCell ref="G49:AG49"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:AG73"/>
+    <mergeCell ref="AH73:AN73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:AG74"/>
+    <mergeCell ref="AH74:AN74"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:AG71"/>
+    <mergeCell ref="AH71:AN71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:AG72"/>
+    <mergeCell ref="AH72:AN72"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:AG77"/>
+    <mergeCell ref="AH77:AN77"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:AG75"/>
+    <mergeCell ref="AH75:AN75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:AG76"/>
+    <mergeCell ref="AH76:AN76"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan/스테이지_1_맵_기획.xlsx
+++ b/Plan/스테이지_1_맵_기획.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main Stage" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="179">
   <si>
     <t>현관</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -647,98 +647,106 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>그림이 전부 완성 되면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 정말 예쁜 나비였어. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이젠 다른 곳으로 가버렸지만. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 아마 헤어진게 문제이려나? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 그림 접촉시</t>
+  </si>
+  <si>
+    <t>' 이 그림은 중요할거 같아. '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 환자가 살던 집인가? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 옛날에 살던 집이네. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 색깔이 사라지면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 색깔이 사라지면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 색깔이 빠진 것 같은데? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 아까 그림이 좀 바뀌었겠네 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 그림은.. 중요했었던 그림인 것 같은데.. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지를 나가면서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물감 튜브 획득 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.A.M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 특정한 물체는 같은 기억 속의 다른 물체와 상호작용 할 수 있습니다. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물감 튜브 획득 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 어떻게 생긴 그림이었을까? 맞춰봐야겠는데? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 우선 모든 전원이 돌아온 것 같아 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>이젤 확인 시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>그림이 전부 완성 되면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 정말 예쁜 나비였어. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이젠 다른 곳으로 가버렸지만. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 아마 헤어진게 문제이려나? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나</t>
+    <t>첫번째 구역 진입 시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>진입 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 그림 접촉시</t>
-  </si>
-  <si>
-    <t>' 이 그림은 중요할거 같아. '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 환자가 살던 집인가? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기억</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 옛날에 살던 집이네. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫 색깔이 사라지면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 색깔이 사라지면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 색깔이 빠진 것 같은데? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 아까 그림이 좀 바뀌었겠네 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이 그림은.. 중요했었던 그림인 것 같은데.. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지를 나가면서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물감 튜브 획득 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M.A.M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 특정한 물체는 같은 기억 속의 다른 물체와 상호작용 할 수 있습니다. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물감 튜브 획득 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 어떻게 생긴 그림이었을까? 맞춰봐야겠는데? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 우선 모든 전원이 돌아온 것 같아 '</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1422,6 +1430,15 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1528,15 +1545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -1706,7 +1714,7 @@
         <xdr:cNvPr id="2" name="그림 1" descr="LTP-613C) 전통 육각정자 설계 제작 시공 - 서산 해미면 애향공원 : (주)라은엘앤씨">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61CC6A7A-D9D7-4F9E-9869-4B9B4430929E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61CC6A7A-D9D7-4F9E-9869-4B9B4430929E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2049,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2097,18 +2105,18 @@
     </row>
     <row r="3" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
       <c r="M3" s="5"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -2135,16 +2143,16 @@
     </row>
     <row r="4" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
       <c r="M4" s="5"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -2157,12 +2165,12 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="74" t="s">
+      <c r="Y4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="76"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="79"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="3"/>
@@ -2173,16 +2181,16 @@
     </row>
     <row r="5" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
       <c r="M5" s="5"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -2191,16 +2199,16 @@
       <c r="R5" s="1"/>
       <c r="S5" s="5"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="74" t="s">
+      <c r="U5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="83"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="79"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="82"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="3"/>
@@ -2211,16 +2219,16 @@
     </row>
     <row r="6" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
       <c r="M6" s="5"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -2229,14 +2237,14 @@
       <c r="R6" s="1"/>
       <c r="S6" s="5"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="85"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="88"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="82"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="85"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="3"/>
@@ -2247,16 +2255,16 @@
     </row>
     <row r="7" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
       <c r="M7" s="5"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -2283,16 +2291,16 @@
     </row>
     <row r="8" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
       <c r="M8" s="5"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -2305,12 +2313,12 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="68" t="s">
+      <c r="Y8" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="70"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="73"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="3"/>
@@ -2321,16 +2329,16 @@
     </row>
     <row r="9" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
       <c r="M9" s="5"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2343,10 +2351,10 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="73"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="76"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="3"/>
@@ -2357,16 +2365,16 @@
     </row>
     <row r="10" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
       <c r="M10" s="5"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -2429,19 +2437,19 @@
     </row>
     <row r="12" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2467,17 +2475,17 @@
     </row>
     <row r="13" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2499,17 +2507,17 @@
     </row>
     <row r="14" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2531,17 +2539,17 @@
     </row>
     <row r="15" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2563,17 +2571,17 @@
     </row>
     <row r="16" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2595,17 +2603,17 @@
     </row>
     <row r="17" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2627,17 +2635,17 @@
     </row>
     <row r="18" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2659,7 +2667,7 @@
     </row>
     <row r="19" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="59" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1"/>
@@ -2681,21 +2689,21 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="86" t="s">
+      <c r="W19" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="86"/>
-      <c r="AD19" s="86"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
-      <c r="C20" s="57"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2715,19 +2723,19 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="86"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="89"/>
       <c r="AE20" s="3"/>
     </row>
     <row r="21" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
-      <c r="C21" s="57"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2747,31 +2755,31 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="86"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89"/>
       <c r="AE21" s="3"/>
     </row>
     <row r="22" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
-      <c r="C22" s="57"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="61"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="64"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2781,29 +2789,29 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="86"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="86"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="89"/>
+      <c r="AD22" s="89"/>
       <c r="AE22" s="3"/>
     </row>
     <row r="23" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
-      <c r="C23" s="57"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="64"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="67"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2813,29 +2821,29 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="86"/>
-      <c r="AB23" s="86"/>
-      <c r="AC23" s="86"/>
-      <c r="AD23" s="86"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="89"/>
       <c r="AE23" s="3"/>
     </row>
     <row r="24" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
-      <c r="C24" s="57"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="64"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="67"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2845,29 +2853,29 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="86"/>
-      <c r="Y24" s="86"/>
-      <c r="Z24" s="86"/>
-      <c r="AA24" s="86"/>
-      <c r="AB24" s="86"/>
-      <c r="AC24" s="86"/>
-      <c r="AD24" s="86"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="89"/>
+      <c r="AC24" s="89"/>
+      <c r="AD24" s="89"/>
       <c r="AE24" s="3"/>
     </row>
     <row r="25" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
-      <c r="C25" s="57"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="64"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="67"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2877,29 +2885,29 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="86"/>
-      <c r="AB25" s="86"/>
-      <c r="AC25" s="86"/>
-      <c r="AD25" s="86"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="89"/>
       <c r="AE25" s="3"/>
     </row>
     <row r="26" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
-      <c r="C26" s="57"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="64"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="67"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2909,29 +2917,29 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="86"/>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="86"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="89"/>
+      <c r="AC26" s="89"/>
+      <c r="AD26" s="89"/>
       <c r="AE26" s="3"/>
     </row>
     <row r="27" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
-      <c r="C27" s="57"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="67"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2941,29 +2949,29 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="86"/>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="86"/>
-      <c r="AA27" s="86"/>
-      <c r="AB27" s="86"/>
-      <c r="AC27" s="86"/>
-      <c r="AD27" s="86"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="89"/>
+      <c r="AD27" s="89"/>
       <c r="AE27" s="3"/>
     </row>
     <row r="28" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="57"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="64"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="67"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2973,29 +2981,29 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="86"/>
-      <c r="X28" s="86"/>
-      <c r="Y28" s="86"/>
-      <c r="Z28" s="86"/>
-      <c r="AA28" s="86"/>
-      <c r="AB28" s="86"/>
-      <c r="AC28" s="86"/>
-      <c r="AD28" s="86"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="89"/>
+      <c r="AD28" s="89"/>
       <c r="AE28" s="3"/>
     </row>
     <row r="29" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="57"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="67"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="70"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -3005,19 +3013,19 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="86"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="86"/>
-      <c r="AC29" s="86"/>
-      <c r="AD29" s="86"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="89"/>
+      <c r="AC29" s="89"/>
+      <c r="AD29" s="89"/>
       <c r="AE29" s="3"/>
     </row>
     <row r="30" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="58"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -3037,14 +3045,14 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="86"/>
-      <c r="X30" s="86"/>
-      <c r="Y30" s="86"/>
-      <c r="Z30" s="86"/>
-      <c r="AA30" s="86"/>
-      <c r="AB30" s="86"/>
-      <c r="AC30" s="86"/>
-      <c r="AD30" s="86"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
+      <c r="AC30" s="89"/>
+      <c r="AD30" s="89"/>
       <c r="AE30" s="3"/>
     </row>
     <row r="31" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3053,13 +3061,13 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="55"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="58"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -3083,262 +3091,262 @@
     </row>
     <row r="32" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="90"/>
-      <c r="U33" s="90"/>
-      <c r="V33" s="90"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="90"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
     </row>
     <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="88" t="s">
+      <c r="C34" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88" t="s">
+      <c r="D34" s="52"/>
+      <c r="E34" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="88"/>
-      <c r="R34" s="88"/>
-      <c r="S34" s="88"/>
-      <c r="T34" s="88"/>
-      <c r="U34" s="88" t="s">
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="88"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
     </row>
     <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" s="88" t="s">
+      <c r="C35" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="89" t="s">
-        <v>162</v>
-      </c>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="88"/>
-      <c r="U35" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="V35" s="88"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="88"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
     </row>
     <row r="36" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="88" t="s">
+      <c r="C36" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="52"/>
+      <c r="E36" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="89" t="s">
-        <v>164</v>
-      </c>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="88"/>
-      <c r="R36" s="88"/>
-      <c r="S36" s="88"/>
-      <c r="T36" s="88"/>
-      <c r="U36" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="V36" s="88"/>
-      <c r="W36" s="88"/>
-      <c r="X36" s="88"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
     </row>
     <row r="37" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="88"/>
-      <c r="E37" s="89" t="s">
-        <v>161</v>
-      </c>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="88"/>
-      <c r="S37" s="88"/>
-      <c r="T37" s="88"/>
-      <c r="U37" s="88" t="s">
+      <c r="C37" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="E37" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="V37" s="88"/>
-      <c r="W37" s="88"/>
-      <c r="X37" s="88"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
     </row>
     <row r="38" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>3</v>
       </c>
-      <c r="C38" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="88"/>
-      <c r="E38" s="89" t="s">
-        <v>167</v>
-      </c>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="88"/>
-      <c r="S38" s="88"/>
-      <c r="T38" s="88"/>
-      <c r="U38" s="88" t="s">
-        <v>165</v>
-      </c>
-      <c r="V38" s="88"/>
-      <c r="W38" s="88"/>
-      <c r="X38" s="88"/>
+      <c r="C38" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="52"/>
+      <c r="E38" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
     </row>
     <row r="39" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>4</v>
       </c>
-      <c r="C39" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="D39" s="88"/>
-      <c r="E39" s="89" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="88"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="88"/>
-      <c r="T39" s="88"/>
-      <c r="U39" s="88" t="s">
-        <v>166</v>
-      </c>
-      <c r="V39" s="88"/>
-      <c r="W39" s="88"/>
-      <c r="X39" s="88"/>
+      <c r="C39" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="52"/>
+      <c r="E39" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
     </row>
     <row r="40" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="C40" s="88" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88" t="s">
+      <c r="C40" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="88"/>
-      <c r="T40" s="88"/>
-      <c r="U40" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="V40" s="88"/>
-      <c r="W40" s="88"/>
-      <c r="X40" s="88"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
     </row>
     <row r="41" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="31"/>
@@ -3392,6 +3400,25 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C3:L10"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="C19:C30"/>
+    <mergeCell ref="E22:M29"/>
+    <mergeCell ref="Y8:AB9"/>
+    <mergeCell ref="Y4:AB6"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="W19:AD30"/>
+    <mergeCell ref="C12:M18"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:T36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="B33:X33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:T34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:T35"/>
+    <mergeCell ref="U35:X35"/>
     <mergeCell ref="U37:X37"/>
     <mergeCell ref="E37:T37"/>
     <mergeCell ref="C37:D37"/>
@@ -3404,25 +3431,6 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:T39"/>
     <mergeCell ref="U39:X39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:T36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="B33:X33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:T34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:T35"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="C3:L10"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="C19:C30"/>
-    <mergeCell ref="E22:M29"/>
-    <mergeCell ref="Y8:AB9"/>
-    <mergeCell ref="Y4:AB6"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="W19:AD30"/>
-    <mergeCell ref="C12:M18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4153,460 +4161,460 @@
     </row>
     <row r="19" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
     </row>
     <row r="21" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88" t="s">
+      <c r="D21" s="52"/>
+      <c r="E21" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88" t="s">
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="88"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
     </row>
     <row r="22" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89" t="s">
+      <c r="D22" s="52"/>
+      <c r="E22" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88" t="s">
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="88"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
     </row>
     <row r="23" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89" t="s">
+      <c r="D23" s="52"/>
+      <c r="E23" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="88" t="s">
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="88"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
     </row>
     <row r="24" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88" t="s">
+      <c r="D24" s="52"/>
+      <c r="E24" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="88" t="s">
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="V24" s="88"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="88"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
     </row>
     <row r="25" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88" t="s">
+      <c r="D25" s="52"/>
+      <c r="E25" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="88" t="s">
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="88"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="88"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
     </row>
     <row r="26" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26" s="88" t="s">
+      <c r="C26" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89" t="s">
+      <c r="D26" s="52"/>
+      <c r="E26" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="89"/>
-      <c r="R26" s="89"/>
-      <c r="S26" s="89"/>
-      <c r="T26" s="89"/>
-      <c r="U26" s="88" t="s">
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="88"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
     </row>
     <row r="27" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89" t="s">
+      <c r="D27" s="52"/>
+      <c r="E27" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="88" t="s">
-        <v>171</v>
-      </c>
-      <c r="V27" s="88"/>
-      <c r="W27" s="88"/>
-      <c r="X27" s="88"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
     </row>
     <row r="28" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>6</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89" t="s">
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="89"/>
-      <c r="U28" s="88" t="s">
-        <v>174</v>
-      </c>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="88"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
     </row>
     <row r="29" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>7</v>
       </c>
-      <c r="C29" s="88" t="s">
+      <c r="C29" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88" t="s">
+      <c r="D29" s="52"/>
+      <c r="E29" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88" t="s">
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="88"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
     </row>
     <row r="30" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>8</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88" t="s">
+      <c r="D30" s="52"/>
+      <c r="E30" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="88"/>
-      <c r="S30" s="88"/>
-      <c r="T30" s="88"/>
-      <c r="U30" s="88" t="s">
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="V30" s="88"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="88"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
     </row>
     <row r="31" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>9</v>
       </c>
-      <c r="C31" s="88" t="s">
+      <c r="C31" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88" t="s">
+      <c r="D31" s="52"/>
+      <c r="E31" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="88"/>
-      <c r="U31" s="88" t="s">
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="88"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
     </row>
     <row r="32" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>10</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89" t="s">
+      <c r="D32" s="52"/>
+      <c r="E32" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="88"/>
-      <c r="S32" s="88"/>
-      <c r="T32" s="88"/>
-      <c r="U32" s="88" t="s">
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="V32" s="88"/>
-      <c r="W32" s="88"/>
-      <c r="X32" s="88"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
     </row>
     <row r="33" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>11</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88" t="s">
+      <c r="D33" s="52"/>
+      <c r="E33" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="88"/>
-      <c r="S33" s="88"/>
-      <c r="T33" s="88"/>
-      <c r="U33" s="88" t="s">
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="88"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="88"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
     </row>
     <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4693,6 +4701,32 @@
     <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="F4:H6"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="E21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="E24:T24"/>
+    <mergeCell ref="E23:T23"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="E27:T27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="E29:T29"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:T28"/>
+    <mergeCell ref="U28:X28"/>
     <mergeCell ref="E33:T33"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="B20:X20"/>
@@ -4709,32 +4743,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:T30"/>
     <mergeCell ref="E22:T22"/>
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="E27:T27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="E29:T29"/>
-    <mergeCell ref="E31:T31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:T28"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="F4:H6"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="E21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="E24:T24"/>
-    <mergeCell ref="E23:T23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4745,7 +4753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S68" sqref="S68"/>
     </sheetView>
   </sheetViews>
@@ -4755,9 +4763,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
     </row>
     <row r="2" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T2" s="3"/>
@@ -5025,10 +5033,10 @@
       <c r="AC20" s="23"/>
       <c r="AD20" s="23"/>
       <c r="AE20" s="3"/>
-      <c r="AK20" s="88"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="88"/>
-      <c r="AN20" s="88"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="52"/>
+      <c r="AM20" s="52"/>
+      <c r="AN20" s="52"/>
     </row>
     <row r="21" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
@@ -5520,10 +5528,10 @@
       <c r="AC31" s="23"/>
       <c r="AD31" s="23"/>
       <c r="AE31" s="3"/>
-      <c r="AK31" s="88"/>
-      <c r="AL31" s="88"/>
-      <c r="AM31" s="88"/>
-      <c r="AN31" s="88"/>
+      <c r="AK31" s="52"/>
+      <c r="AL31" s="52"/>
+      <c r="AM31" s="52"/>
+      <c r="AN31" s="52"/>
     </row>
     <row r="32" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R32" s="3"/>
@@ -5733,538 +5741,538 @@
     <row r="51" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="90" t="s">
+      <c r="C53" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="90"/>
-      <c r="N53" s="90"/>
-      <c r="O53" s="90"/>
-      <c r="P53" s="90"/>
-      <c r="Q53" s="90"/>
-      <c r="R53" s="90"/>
-      <c r="S53" s="90"/>
-      <c r="T53" s="90"/>
-      <c r="U53" s="90"/>
-      <c r="V53" s="90"/>
-      <c r="W53" s="90"/>
-      <c r="X53" s="90"/>
-      <c r="Y53" s="90"/>
-      <c r="Z53" s="90"/>
-      <c r="AA53" s="90"/>
-      <c r="AB53" s="90"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="54"/>
+      <c r="W53" s="54"/>
+      <c r="X53" s="54"/>
+      <c r="Y53" s="54"/>
+      <c r="Z53" s="54"/>
+      <c r="AA53" s="54"/>
+      <c r="AB53" s="54"/>
     </row>
     <row r="54" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="88" t="s">
+      <c r="D54" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88" t="s">
+      <c r="E54" s="52"/>
+      <c r="F54" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="88"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="88"/>
-      <c r="P54" s="88"/>
-      <c r="Q54" s="88"/>
-      <c r="R54" s="88"/>
-      <c r="S54" s="88"/>
-      <c r="T54" s="88"/>
-      <c r="U54" s="88"/>
-      <c r="V54" s="88" t="s">
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="52"/>
+      <c r="V54" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="W54" s="88"/>
-      <c r="X54" s="88"/>
-      <c r="Y54" s="88"/>
-      <c r="Z54" s="88"/>
-      <c r="AA54" s="88"/>
-      <c r="AB54" s="88"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
+      <c r="Z54" s="52"/>
+      <c r="AA54" s="52"/>
+      <c r="AB54" s="52"/>
     </row>
     <row r="55" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" s="88" t="s">
+      <c r="D55" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="88"/>
-      <c r="F55" s="89" t="s">
+      <c r="E55" s="52"/>
+      <c r="F55" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="88"/>
-      <c r="L55" s="88"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="88"/>
-      <c r="P55" s="88"/>
-      <c r="Q55" s="88"/>
-      <c r="R55" s="88"/>
-      <c r="S55" s="88"/>
-      <c r="T55" s="88"/>
-      <c r="U55" s="88"/>
-      <c r="V55" s="88" t="s">
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="W55" s="88"/>
-      <c r="X55" s="88"/>
-      <c r="Y55" s="88"/>
-      <c r="Z55" s="88"/>
-      <c r="AA55" s="88"/>
-      <c r="AB55" s="88"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="52"/>
     </row>
     <row r="56" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="88" t="s">
+      <c r="D56" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88" t="s">
+      <c r="E56" s="52"/>
+      <c r="F56" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="88"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="K56" s="88"/>
-      <c r="L56" s="88"/>
-      <c r="M56" s="88"/>
-      <c r="N56" s="88"/>
-      <c r="O56" s="88"/>
-      <c r="P56" s="88"/>
-      <c r="Q56" s="88"/>
-      <c r="R56" s="88"/>
-      <c r="S56" s="88"/>
-      <c r="T56" s="88"/>
-      <c r="U56" s="88"/>
-      <c r="V56" s="88" t="s">
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
+      <c r="R56" s="52"/>
+      <c r="S56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="52"/>
+      <c r="V56" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="W56" s="88"/>
-      <c r="X56" s="88"/>
-      <c r="Y56" s="88"/>
-      <c r="Z56" s="88"/>
-      <c r="AA56" s="88"/>
-      <c r="AB56" s="88"/>
+      <c r="W56" s="52"/>
+      <c r="X56" s="52"/>
+      <c r="Y56" s="52"/>
+      <c r="Z56" s="52"/>
+      <c r="AA56" s="52"/>
+      <c r="AB56" s="52"/>
     </row>
     <row r="57" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57" s="88" t="s">
+      <c r="D57" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="88"/>
-      <c r="F57" s="89" t="s">
+      <c r="E57" s="52"/>
+      <c r="F57" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="88"/>
-      <c r="M57" s="88"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="88"/>
-      <c r="P57" s="88"/>
-      <c r="Q57" s="88"/>
-      <c r="R57" s="88"/>
-      <c r="S57" s="88"/>
-      <c r="T57" s="88"/>
-      <c r="U57" s="88"/>
-      <c r="V57" s="88" t="s">
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="W57" s="88"/>
-      <c r="X57" s="88"/>
-      <c r="Y57" s="88"/>
-      <c r="Z57" s="88"/>
-      <c r="AA57" s="88"/>
-      <c r="AB57" s="88"/>
+      <c r="W57" s="52"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="52"/>
+      <c r="Z57" s="52"/>
+      <c r="AA57" s="52"/>
+      <c r="AB57" s="52"/>
     </row>
     <row r="58" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>3</v>
       </c>
-      <c r="D58" s="88" t="s">
+      <c r="D58" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="88"/>
-      <c r="F58" s="88" t="s">
+      <c r="E58" s="52"/>
+      <c r="F58" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="G58" s="88"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
-      <c r="K58" s="88"/>
-      <c r="L58" s="88"/>
-      <c r="M58" s="88"/>
-      <c r="N58" s="88"/>
-      <c r="O58" s="88"/>
-      <c r="P58" s="88"/>
-      <c r="Q58" s="88"/>
-      <c r="R58" s="88"/>
-      <c r="S58" s="88"/>
-      <c r="T58" s="88"/>
-      <c r="U58" s="88"/>
-      <c r="V58" s="88" t="s">
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="W58" s="88"/>
-      <c r="X58" s="88"/>
-      <c r="Y58" s="88"/>
-      <c r="Z58" s="88"/>
-      <c r="AA58" s="88"/>
-      <c r="AB58" s="88"/>
+      <c r="W58" s="52"/>
+      <c r="X58" s="52"/>
+      <c r="Y58" s="52"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="52"/>
+      <c r="AB58" s="52"/>
     </row>
     <row r="59" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>4</v>
       </c>
-      <c r="D59" s="88" t="s">
+      <c r="D59" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="88"/>
-      <c r="F59" s="89" t="s">
+      <c r="E59" s="52"/>
+      <c r="F59" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
-      <c r="M59" s="88"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="88"/>
-      <c r="P59" s="88"/>
-      <c r="Q59" s="88"/>
-      <c r="R59" s="88"/>
-      <c r="S59" s="88"/>
-      <c r="T59" s="88"/>
-      <c r="U59" s="88"/>
-      <c r="V59" s="88" t="s">
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="52"/>
+      <c r="U59" s="52"/>
+      <c r="V59" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="W59" s="88"/>
-      <c r="X59" s="88"/>
-      <c r="Y59" s="88"/>
-      <c r="Z59" s="88"/>
-      <c r="AA59" s="88"/>
-      <c r="AB59" s="88"/>
+      <c r="W59" s="52"/>
+      <c r="X59" s="52"/>
+      <c r="Y59" s="52"/>
+      <c r="Z59" s="52"/>
+      <c r="AA59" s="52"/>
+      <c r="AB59" s="52"/>
     </row>
     <row r="60" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>5</v>
       </c>
-      <c r="D60" s="88" t="s">
+      <c r="D60" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88" t="s">
+      <c r="E60" s="52"/>
+      <c r="F60" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="88"/>
-      <c r="M60" s="88"/>
-      <c r="N60" s="88"/>
-      <c r="O60" s="88"/>
-      <c r="P60" s="88"/>
-      <c r="Q60" s="88"/>
-      <c r="R60" s="88"/>
-      <c r="S60" s="88"/>
-      <c r="T60" s="88"/>
-      <c r="U60" s="88"/>
-      <c r="V60" s="88" t="s">
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="52"/>
+      <c r="Q60" s="52"/>
+      <c r="R60" s="52"/>
+      <c r="S60" s="52"/>
+      <c r="T60" s="52"/>
+      <c r="U60" s="52"/>
+      <c r="V60" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="W60" s="88"/>
-      <c r="X60" s="88"/>
-      <c r="Y60" s="88"/>
-      <c r="Z60" s="88"/>
-      <c r="AA60" s="88"/>
-      <c r="AB60" s="88"/>
+      <c r="W60" s="52"/>
+      <c r="X60" s="52"/>
+      <c r="Y60" s="52"/>
+      <c r="Z60" s="52"/>
+      <c r="AA60" s="52"/>
+      <c r="AB60" s="52"/>
     </row>
     <row r="61" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>6</v>
       </c>
-      <c r="D61" s="88" t="s">
+      <c r="D61" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="88"/>
-      <c r="F61" s="89" t="s">
+      <c r="E61" s="52"/>
+      <c r="F61" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="88"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="88"/>
-      <c r="L61" s="88"/>
-      <c r="M61" s="88"/>
-      <c r="N61" s="88"/>
-      <c r="O61" s="88"/>
-      <c r="P61" s="88"/>
-      <c r="Q61" s="88"/>
-      <c r="R61" s="88"/>
-      <c r="S61" s="88"/>
-      <c r="T61" s="88"/>
-      <c r="U61" s="88"/>
-      <c r="V61" s="88" t="s">
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="52"/>
+      <c r="Q61" s="52"/>
+      <c r="R61" s="52"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="52"/>
+      <c r="U61" s="52"/>
+      <c r="V61" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="W61" s="88"/>
-      <c r="X61" s="88"/>
-      <c r="Y61" s="88"/>
-      <c r="Z61" s="88"/>
-      <c r="AA61" s="88"/>
-      <c r="AB61" s="88"/>
+      <c r="W61" s="52"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="52"/>
+      <c r="Z61" s="52"/>
+      <c r="AA61" s="52"/>
+      <c r="AB61" s="52"/>
     </row>
     <row r="62" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>7</v>
       </c>
-      <c r="D62" s="88" t="s">
+      <c r="D62" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="88"/>
-      <c r="F62" s="88" t="s">
+      <c r="E62" s="52"/>
+      <c r="F62" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="G62" s="88"/>
-      <c r="H62" s="88"/>
-      <c r="I62" s="88"/>
-      <c r="J62" s="88"/>
-      <c r="K62" s="88"/>
-      <c r="L62" s="88"/>
-      <c r="M62" s="88"/>
-      <c r="N62" s="88"/>
-      <c r="O62" s="88"/>
-      <c r="P62" s="88"/>
-      <c r="Q62" s="88"/>
-      <c r="R62" s="88"/>
-      <c r="S62" s="88"/>
-      <c r="T62" s="88"/>
-      <c r="U62" s="88"/>
-      <c r="V62" s="88" t="s">
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
+      <c r="R62" s="52"/>
+      <c r="S62" s="52"/>
+      <c r="T62" s="52"/>
+      <c r="U62" s="52"/>
+      <c r="V62" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="W62" s="88"/>
-      <c r="X62" s="88"/>
-      <c r="Y62" s="88"/>
-      <c r="Z62" s="88"/>
-      <c r="AA62" s="88"/>
-      <c r="AB62" s="88"/>
+      <c r="W62" s="52"/>
+      <c r="X62" s="52"/>
+      <c r="Y62" s="52"/>
+      <c r="Z62" s="52"/>
+      <c r="AA62" s="52"/>
+      <c r="AB62" s="52"/>
     </row>
     <row r="63" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>8</v>
       </c>
-      <c r="D63" s="88" t="s">
+      <c r="D63" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="88"/>
-      <c r="F63" s="88" t="s">
+      <c r="E63" s="52"/>
+      <c r="F63" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="G63" s="88"/>
-      <c r="H63" s="88"/>
-      <c r="I63" s="88"/>
-      <c r="J63" s="88"/>
-      <c r="K63" s="88"/>
-      <c r="L63" s="88"/>
-      <c r="M63" s="88"/>
-      <c r="N63" s="88"/>
-      <c r="O63" s="88"/>
-      <c r="P63" s="88"/>
-      <c r="Q63" s="88"/>
-      <c r="R63" s="88"/>
-      <c r="S63" s="88"/>
-      <c r="T63" s="88"/>
-      <c r="U63" s="88"/>
-      <c r="V63" s="88" t="s">
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="52"/>
+      <c r="R63" s="52"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="52"/>
+      <c r="U63" s="52"/>
+      <c r="V63" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="W63" s="88"/>
-      <c r="X63" s="88"/>
-      <c r="Y63" s="88"/>
-      <c r="Z63" s="88"/>
-      <c r="AA63" s="88"/>
-      <c r="AB63" s="88"/>
+      <c r="W63" s="52"/>
+      <c r="X63" s="52"/>
+      <c r="Y63" s="52"/>
+      <c r="Z63" s="52"/>
+      <c r="AA63" s="52"/>
+      <c r="AB63" s="52"/>
     </row>
     <row r="64" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>9</v>
       </c>
-      <c r="D64" s="88" t="s">
+      <c r="D64" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="88"/>
-      <c r="F64" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="G64" s="88"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="88"/>
-      <c r="K64" s="88"/>
-      <c r="L64" s="88"/>
-      <c r="M64" s="88"/>
-      <c r="N64" s="88"/>
-      <c r="O64" s="88"/>
-      <c r="P64" s="88"/>
-      <c r="Q64" s="88"/>
-      <c r="R64" s="88"/>
-      <c r="S64" s="88"/>
-      <c r="T64" s="88"/>
-      <c r="U64" s="88"/>
-      <c r="V64" s="88" t="s">
+      <c r="E64" s="52"/>
+      <c r="F64" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="52"/>
+      <c r="R64" s="52"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="52"/>
+      <c r="U64" s="52"/>
+      <c r="V64" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="W64" s="88"/>
-      <c r="X64" s="88"/>
-      <c r="Y64" s="88"/>
-      <c r="Z64" s="88"/>
-      <c r="AA64" s="88"/>
-      <c r="AB64" s="88"/>
+      <c r="W64" s="52"/>
+      <c r="X64" s="52"/>
+      <c r="Y64" s="52"/>
+      <c r="Z64" s="52"/>
+      <c r="AA64" s="52"/>
+      <c r="AB64" s="52"/>
     </row>
     <row r="65" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>10</v>
       </c>
-      <c r="D65" s="88" t="s">
+      <c r="D65" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="88"/>
-      <c r="F65" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="G65" s="88"/>
-      <c r="H65" s="88"/>
-      <c r="I65" s="88"/>
-      <c r="J65" s="88"/>
-      <c r="K65" s="88"/>
-      <c r="L65" s="88"/>
-      <c r="M65" s="88"/>
-      <c r="N65" s="88"/>
-      <c r="O65" s="88"/>
-      <c r="P65" s="88"/>
-      <c r="Q65" s="88"/>
-      <c r="R65" s="88"/>
-      <c r="S65" s="88"/>
-      <c r="T65" s="88"/>
-      <c r="U65" s="88"/>
-      <c r="V65" s="88" t="s">
+      <c r="E65" s="52"/>
+      <c r="F65" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="52"/>
+      <c r="P65" s="52"/>
+      <c r="Q65" s="52"/>
+      <c r="R65" s="52"/>
+      <c r="S65" s="52"/>
+      <c r="T65" s="52"/>
+      <c r="U65" s="52"/>
+      <c r="V65" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="W65" s="88"/>
-      <c r="X65" s="88"/>
-      <c r="Y65" s="88"/>
-      <c r="Z65" s="88"/>
-      <c r="AA65" s="88"/>
-      <c r="AB65" s="88"/>
+      <c r="W65" s="52"/>
+      <c r="X65" s="52"/>
+      <c r="Y65" s="52"/>
+      <c r="Z65" s="52"/>
+      <c r="AA65" s="52"/>
+      <c r="AB65" s="52"/>
     </row>
     <row r="66" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>11</v>
       </c>
-      <c r="D66" s="88" t="s">
+      <c r="D66" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="88"/>
-      <c r="F66" s="89" t="s">
+      <c r="E66" s="52"/>
+      <c r="F66" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="G66" s="88"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="88"/>
-      <c r="K66" s="88"/>
-      <c r="L66" s="88"/>
-      <c r="M66" s="88"/>
-      <c r="N66" s="88"/>
-      <c r="O66" s="88"/>
-      <c r="P66" s="88"/>
-      <c r="Q66" s="88"/>
-      <c r="R66" s="88"/>
-      <c r="S66" s="88"/>
-      <c r="T66" s="88"/>
-      <c r="U66" s="88"/>
-      <c r="V66" s="88" t="s">
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
+      <c r="O66" s="52"/>
+      <c r="P66" s="52"/>
+      <c r="Q66" s="52"/>
+      <c r="R66" s="52"/>
+      <c r="S66" s="52"/>
+      <c r="T66" s="52"/>
+      <c r="U66" s="52"/>
+      <c r="V66" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="W66" s="88"/>
-      <c r="X66" s="88"/>
-      <c r="Y66" s="88"/>
-      <c r="Z66" s="88"/>
-      <c r="AA66" s="88"/>
-      <c r="AB66" s="88"/>
+      <c r="W66" s="52"/>
+      <c r="X66" s="52"/>
+      <c r="Y66" s="52"/>
+      <c r="Z66" s="52"/>
+      <c r="AA66" s="52"/>
+      <c r="AB66" s="52"/>
     </row>
     <row r="67" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>12</v>
       </c>
-      <c r="D67" s="88" t="s">
+      <c r="D67" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="88"/>
-      <c r="F67" s="88" t="s">
+      <c r="E67" s="52"/>
+      <c r="F67" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G67" s="88"/>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="88"/>
-      <c r="K67" s="88"/>
-      <c r="L67" s="88"/>
-      <c r="M67" s="88"/>
-      <c r="N67" s="88"/>
-      <c r="O67" s="88"/>
-      <c r="P67" s="88"/>
-      <c r="Q67" s="88"/>
-      <c r="R67" s="88"/>
-      <c r="S67" s="88"/>
-      <c r="T67" s="88"/>
-      <c r="U67" s="88"/>
-      <c r="V67" s="88" t="s">
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="52"/>
+      <c r="O67" s="52"/>
+      <c r="P67" s="52"/>
+      <c r="Q67" s="52"/>
+      <c r="R67" s="52"/>
+      <c r="S67" s="52"/>
+      <c r="T67" s="52"/>
+      <c r="U67" s="52"/>
+      <c r="V67" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="W67" s="88"/>
-      <c r="X67" s="88"/>
-      <c r="Y67" s="88"/>
-      <c r="Z67" s="88"/>
-      <c r="AA67" s="88"/>
-      <c r="AB67" s="88"/>
+      <c r="W67" s="52"/>
+      <c r="X67" s="52"/>
+      <c r="Y67" s="52"/>
+      <c r="Z67" s="52"/>
+      <c r="AA67" s="52"/>
+      <c r="AB67" s="52"/>
     </row>
     <row r="68" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6320,26 +6328,19 @@
     <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="V67:AB67"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:U64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:U65"/>
-    <mergeCell ref="V64:AB64"/>
-    <mergeCell ref="V65:AB65"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:U63"/>
-    <mergeCell ref="V62:AB62"/>
-    <mergeCell ref="V63:AB63"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:U66"/>
-    <mergeCell ref="V66:AB66"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:U61"/>
-    <mergeCell ref="V60:AB60"/>
-    <mergeCell ref="V61:AB61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:U62"/>
+    <mergeCell ref="AK20:AN20"/>
+    <mergeCell ref="AK31:AN31"/>
+    <mergeCell ref="AU24:AU27"/>
+    <mergeCell ref="C53:AB53"/>
+    <mergeCell ref="V55:AB55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:U55"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:U54"/>
+    <mergeCell ref="V54:AB54"/>
     <mergeCell ref="V58:AB58"/>
     <mergeCell ref="V59:AB59"/>
     <mergeCell ref="D56:E56"/>
@@ -6356,19 +6357,26 @@
     <mergeCell ref="F59:U59"/>
     <mergeCell ref="F58:U58"/>
     <mergeCell ref="D60:E60"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:U54"/>
-    <mergeCell ref="V54:AB54"/>
-    <mergeCell ref="AK20:AN20"/>
-    <mergeCell ref="AK31:AN31"/>
-    <mergeCell ref="AU24:AU27"/>
-    <mergeCell ref="C53:AB53"/>
-    <mergeCell ref="V55:AB55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:U55"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:U61"/>
+    <mergeCell ref="V60:AB60"/>
+    <mergeCell ref="V61:AB61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:U62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:U63"/>
+    <mergeCell ref="V62:AB62"/>
+    <mergeCell ref="V63:AB63"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:U66"/>
+    <mergeCell ref="V66:AB66"/>
+    <mergeCell ref="V67:AB67"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:U64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:U65"/>
+    <mergeCell ref="V64:AB64"/>
+    <mergeCell ref="V65:AB65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6380,8 +6388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:CW77"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73:AN73"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43:AG43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6794,38 +6802,38 @@
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AU12" s="88" t="s">
+      <c r="AU12" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="AV12" s="88"/>
-      <c r="AW12" s="88"/>
-      <c r="AX12" s="88"/>
-      <c r="AY12" s="88"/>
-      <c r="AZ12" s="88"/>
-      <c r="BA12" s="88"/>
-      <c r="BB12" s="88"/>
-      <c r="BC12" s="88"/>
-      <c r="BD12" s="88"/>
-      <c r="BE12" s="88"/>
-      <c r="BF12" s="88"/>
-      <c r="BG12" s="88"/>
-      <c r="BH12" s="88"/>
-      <c r="BJ12" s="88" t="s">
+      <c r="AV12" s="52"/>
+      <c r="AW12" s="52"/>
+      <c r="AX12" s="52"/>
+      <c r="AY12" s="52"/>
+      <c r="AZ12" s="52"/>
+      <c r="BA12" s="52"/>
+      <c r="BB12" s="52"/>
+      <c r="BC12" s="52"/>
+      <c r="BD12" s="52"/>
+      <c r="BE12" s="52"/>
+      <c r="BF12" s="52"/>
+      <c r="BG12" s="52"/>
+      <c r="BH12" s="52"/>
+      <c r="BJ12" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="BK12" s="88"/>
-      <c r="BL12" s="88"/>
-      <c r="BM12" s="88"/>
-      <c r="BN12" s="88"/>
-      <c r="BO12" s="88"/>
-      <c r="BP12" s="88"/>
-      <c r="BQ12" s="88"/>
-      <c r="BR12" s="88"/>
-      <c r="BS12" s="88"/>
-      <c r="BT12" s="88"/>
-      <c r="BU12" s="88"/>
-      <c r="BV12" s="88"/>
-      <c r="BW12" s="88"/>
+      <c r="BK12" s="52"/>
+      <c r="BL12" s="52"/>
+      <c r="BM12" s="52"/>
+      <c r="BN12" s="52"/>
+      <c r="BO12" s="52"/>
+      <c r="BP12" s="52"/>
+      <c r="BQ12" s="52"/>
+      <c r="BR12" s="52"/>
+      <c r="BS12" s="52"/>
+      <c r="BT12" s="52"/>
+      <c r="BU12" s="52"/>
+      <c r="BV12" s="52"/>
+      <c r="BW12" s="52"/>
     </row>
     <row r="13" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="26"/>
@@ -7392,22 +7400,22 @@
       <c r="BU20" s="23"/>
       <c r="BV20" s="23"/>
       <c r="BW20" s="23"/>
-      <c r="BY20" s="88" t="s">
+      <c r="BY20" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="BZ20" s="88"/>
-      <c r="CA20" s="88"/>
-      <c r="CB20" s="88"/>
-      <c r="CC20" s="88"/>
-      <c r="CD20" s="88"/>
-      <c r="CE20" s="88"/>
-      <c r="CF20" s="88"/>
-      <c r="CG20" s="88"/>
-      <c r="CH20" s="88"/>
-      <c r="CI20" s="88"/>
-      <c r="CJ20" s="88"/>
-      <c r="CK20" s="88"/>
-      <c r="CL20" s="88"/>
+      <c r="BZ20" s="52"/>
+      <c r="CA20" s="52"/>
+      <c r="CB20" s="52"/>
+      <c r="CC20" s="52"/>
+      <c r="CD20" s="52"/>
+      <c r="CE20" s="52"/>
+      <c r="CF20" s="52"/>
+      <c r="CG20" s="52"/>
+      <c r="CH20" s="52"/>
+      <c r="CI20" s="52"/>
+      <c r="CJ20" s="52"/>
+      <c r="CK20" s="52"/>
+      <c r="CL20" s="52"/>
     </row>
     <row r="21" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="26"/>
@@ -7576,18 +7584,18 @@
       <c r="CJ22" s="23"/>
       <c r="CK22" s="23"/>
       <c r="CL22" s="26"/>
-      <c r="CN22" s="88" t="s">
+      <c r="CN22" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="CO22" s="88"/>
-      <c r="CP22" s="88"/>
-      <c r="CQ22" s="88"/>
-      <c r="CR22" s="88"/>
-      <c r="CS22" s="88"/>
-      <c r="CT22" s="88"/>
-      <c r="CU22" s="88"/>
-      <c r="CV22" s="88"/>
-      <c r="CW22" s="88"/>
+      <c r="CO22" s="52"/>
+      <c r="CP22" s="52"/>
+      <c r="CQ22" s="52"/>
+      <c r="CR22" s="52"/>
+      <c r="CS22" s="52"/>
+      <c r="CT22" s="52"/>
+      <c r="CU22" s="52"/>
+      <c r="CV22" s="52"/>
+      <c r="CW22" s="52"/>
     </row>
     <row r="23" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="26"/>
@@ -7967,12 +7975,12 @@
       <c r="AH27" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="AI27" s="52"/>
-      <c r="AJ27" s="52"/>
-      <c r="AK27" s="52"/>
-      <c r="AL27" s="52"/>
-      <c r="AM27" s="52"/>
-      <c r="AN27" s="52"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="55"/>
+      <c r="AK27" s="55"/>
+      <c r="AL27" s="55"/>
+      <c r="AM27" s="55"/>
+      <c r="AN27" s="55"/>
       <c r="AO27" s="26"/>
       <c r="AP27" s="26"/>
       <c r="AQ27" s="26"/>
@@ -8022,48 +8030,48 @@
       <c r="AE28" s="26"/>
       <c r="AF28" s="26"/>
       <c r="AG28" s="26"/>
-      <c r="AH28" s="52"/>
-      <c r="AI28" s="52"/>
-      <c r="AJ28" s="52"/>
-      <c r="AK28" s="52"/>
-      <c r="AL28" s="52"/>
-      <c r="AM28" s="52"/>
-      <c r="AN28" s="52"/>
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="55"/>
+      <c r="AJ28" s="55"/>
+      <c r="AK28" s="55"/>
+      <c r="AL28" s="55"/>
+      <c r="AM28" s="55"/>
+      <c r="AN28" s="55"/>
       <c r="AO28" s="26"/>
       <c r="AP28" s="26"/>
       <c r="AQ28" s="26"/>
-      <c r="AU28" s="88" t="s">
+      <c r="AU28" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="AV28" s="88"/>
-      <c r="AW28" s="88"/>
-      <c r="AX28" s="88"/>
-      <c r="AY28" s="88"/>
-      <c r="AZ28" s="88"/>
-      <c r="BA28" s="88"/>
-      <c r="BB28" s="88"/>
-      <c r="BC28" s="88"/>
-      <c r="BD28" s="88"/>
-      <c r="BE28" s="88"/>
-      <c r="BF28" s="88"/>
-      <c r="BG28" s="88"/>
-      <c r="BH28" s="88"/>
-      <c r="BJ28" s="88" t="s">
+      <c r="AV28" s="52"/>
+      <c r="AW28" s="52"/>
+      <c r="AX28" s="52"/>
+      <c r="AY28" s="52"/>
+      <c r="AZ28" s="52"/>
+      <c r="BA28" s="52"/>
+      <c r="BB28" s="52"/>
+      <c r="BC28" s="52"/>
+      <c r="BD28" s="52"/>
+      <c r="BE28" s="52"/>
+      <c r="BF28" s="52"/>
+      <c r="BG28" s="52"/>
+      <c r="BH28" s="52"/>
+      <c r="BJ28" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="BK28" s="88"/>
-      <c r="BL28" s="88"/>
-      <c r="BM28" s="88"/>
-      <c r="BN28" s="88"/>
-      <c r="BO28" s="88"/>
-      <c r="BP28" s="88"/>
-      <c r="BQ28" s="88"/>
-      <c r="BR28" s="88"/>
-      <c r="BS28" s="88"/>
-      <c r="BT28" s="88"/>
-      <c r="BU28" s="88"/>
-      <c r="BV28" s="88"/>
-      <c r="BW28" s="88"/>
+      <c r="BK28" s="52"/>
+      <c r="BL28" s="52"/>
+      <c r="BM28" s="52"/>
+      <c r="BN28" s="52"/>
+      <c r="BO28" s="52"/>
+      <c r="BP28" s="52"/>
+      <c r="BQ28" s="52"/>
+      <c r="BR28" s="52"/>
+      <c r="BS28" s="52"/>
+      <c r="BT28" s="52"/>
+      <c r="BU28" s="52"/>
+      <c r="BV28" s="52"/>
+      <c r="BW28" s="52"/>
       <c r="BY28" s="23"/>
       <c r="BZ28" s="23"/>
       <c r="CA28" s="45"/>
@@ -8110,13 +8118,13 @@
       <c r="AE29" s="23"/>
       <c r="AF29" s="23"/>
       <c r="AG29" s="23"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="52"/>
-      <c r="AJ29" s="52"/>
-      <c r="AK29" s="52"/>
-      <c r="AL29" s="52"/>
-      <c r="AM29" s="52"/>
-      <c r="AN29" s="52"/>
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="55"/>
+      <c r="AJ29" s="55"/>
+      <c r="AK29" s="55"/>
+      <c r="AL29" s="55"/>
+      <c r="AM29" s="55"/>
+      <c r="AN29" s="55"/>
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
@@ -8194,13 +8202,13 @@
       <c r="AE30" s="23"/>
       <c r="AF30" s="23"/>
       <c r="AG30" s="23"/>
-      <c r="AH30" s="52"/>
-      <c r="AI30" s="52"/>
-      <c r="AJ30" s="52"/>
-      <c r="AK30" s="52"/>
-      <c r="AL30" s="52"/>
-      <c r="AM30" s="52"/>
-      <c r="AN30" s="52"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="55"/>
+      <c r="AJ30" s="55"/>
+      <c r="AK30" s="55"/>
+      <c r="AL30" s="55"/>
+      <c r="AM30" s="55"/>
+      <c r="AN30" s="55"/>
       <c r="AO30" s="26"/>
       <c r="AP30" s="26"/>
       <c r="AQ30" s="26"/>
@@ -8283,13 +8291,13 @@
       <c r="AE31" s="23"/>
       <c r="AF31" s="23"/>
       <c r="AG31" s="23"/>
-      <c r="AH31" s="52"/>
-      <c r="AI31" s="52"/>
-      <c r="AJ31" s="52"/>
-      <c r="AK31" s="52"/>
-      <c r="AL31" s="52"/>
-      <c r="AM31" s="52"/>
-      <c r="AN31" s="52"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
       <c r="AO31" s="26"/>
       <c r="AP31" s="26"/>
       <c r="AQ31" s="26"/>
@@ -8367,13 +8375,13 @@
       <c r="AE32" s="26"/>
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
-      <c r="AH32" s="52"/>
-      <c r="AI32" s="52"/>
-      <c r="AJ32" s="52"/>
-      <c r="AK32" s="52"/>
-      <c r="AL32" s="52"/>
-      <c r="AM32" s="52"/>
-      <c r="AN32" s="52"/>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="55"/>
+      <c r="AJ32" s="55"/>
+      <c r="AK32" s="55"/>
+      <c r="AL32" s="55"/>
+      <c r="AM32" s="55"/>
+      <c r="AN32" s="55"/>
       <c r="AO32" s="26"/>
       <c r="AP32" s="26"/>
       <c r="AQ32" s="26"/>
@@ -8453,13 +8461,13 @@
       <c r="AE33" s="26"/>
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
-      <c r="AH33" s="52"/>
-      <c r="AI33" s="52"/>
-      <c r="AJ33" s="52"/>
-      <c r="AK33" s="52"/>
-      <c r="AL33" s="52"/>
-      <c r="AM33" s="52"/>
-      <c r="AN33" s="52"/>
+      <c r="AH33" s="55"/>
+      <c r="AI33" s="55"/>
+      <c r="AJ33" s="55"/>
+      <c r="AK33" s="55"/>
+      <c r="AL33" s="55"/>
+      <c r="AM33" s="55"/>
+      <c r="AN33" s="55"/>
       <c r="AO33" s="26"/>
       <c r="AP33" s="26"/>
       <c r="AQ33" s="26"/>
@@ -8761,45 +8769,45 @@
       <c r="BW37" s="23"/>
     </row>
     <row r="38" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="90" t="s">
+      <c r="D38" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="90"/>
-      <c r="U38" s="90"/>
-      <c r="V38" s="90"/>
-      <c r="W38" s="90"/>
-      <c r="X38" s="90"/>
-      <c r="Y38" s="90"/>
-      <c r="Z38" s="90"/>
-      <c r="AA38" s="90"/>
-      <c r="AB38" s="90"/>
-      <c r="AC38" s="90"/>
-      <c r="AD38" s="90"/>
-      <c r="AE38" s="90"/>
-      <c r="AF38" s="90"/>
-      <c r="AG38" s="90"/>
-      <c r="AH38" s="90"/>
-      <c r="AI38" s="90"/>
-      <c r="AJ38" s="90"/>
-      <c r="AK38" s="90"/>
-      <c r="AL38" s="90"/>
-      <c r="AM38" s="90"/>
-      <c r="AN38" s="90"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
+      <c r="AE38" s="54"/>
+      <c r="AF38" s="54"/>
+      <c r="AG38" s="54"/>
+      <c r="AH38" s="54"/>
+      <c r="AI38" s="54"/>
+      <c r="AJ38" s="54"/>
+      <c r="AK38" s="54"/>
+      <c r="AL38" s="54"/>
+      <c r="AM38" s="54"/>
+      <c r="AN38" s="54"/>
       <c r="AU38" s="26"/>
       <c r="AV38" s="23"/>
       <c r="AW38" s="23"/>
@@ -8833,48 +8841,48 @@
       <c r="D39" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="88" t="s">
+      <c r="E39" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88" t="s">
+      <c r="F39" s="52"/>
+      <c r="G39" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="88"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="88"/>
-      <c r="T39" s="88"/>
-      <c r="U39" s="88"/>
-      <c r="V39" s="88"/>
-      <c r="W39" s="88"/>
-      <c r="X39" s="88"/>
-      <c r="Y39" s="88"/>
-      <c r="Z39" s="88"/>
-      <c r="AA39" s="88"/>
-      <c r="AB39" s="88"/>
-      <c r="AC39" s="88"/>
-      <c r="AD39" s="88"/>
-      <c r="AE39" s="88"/>
-      <c r="AF39" s="88"/>
-      <c r="AG39" s="88"/>
-      <c r="AH39" s="88" t="s">
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52"/>
+      <c r="AD39" s="52"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52"/>
+      <c r="AH39" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="AI39" s="88"/>
-      <c r="AJ39" s="88"/>
-      <c r="AK39" s="88"/>
-      <c r="AL39" s="88"/>
-      <c r="AM39" s="88"/>
-      <c r="AN39" s="88"/>
+      <c r="AI39" s="52"/>
+      <c r="AJ39" s="52"/>
+      <c r="AK39" s="52"/>
+      <c r="AL39" s="52"/>
+      <c r="AM39" s="52"/>
+      <c r="AN39" s="52"/>
       <c r="AO39" s="31"/>
       <c r="AP39" s="31"/>
       <c r="AQ39" s="31"/>
@@ -8911,48 +8919,48 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="88" t="s">
+      <c r="E40" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="88"/>
-      <c r="G40" s="89" t="s">
+      <c r="F40" s="52"/>
+      <c r="G40" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="88"/>
-      <c r="T40" s="88"/>
-      <c r="U40" s="88"/>
-      <c r="V40" s="88"/>
-      <c r="W40" s="88"/>
-      <c r="X40" s="88"/>
-      <c r="Y40" s="88"/>
-      <c r="Z40" s="88"/>
-      <c r="AA40" s="88"/>
-      <c r="AB40" s="88"/>
-      <c r="AC40" s="88"/>
-      <c r="AD40" s="88"/>
-      <c r="AE40" s="88"/>
-      <c r="AF40" s="88"/>
-      <c r="AG40" s="88"/>
-      <c r="AH40" s="88" t="s">
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="52"/>
+      <c r="AC40" s="52"/>
+      <c r="AD40" s="52"/>
+      <c r="AE40" s="52"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="52"/>
+      <c r="AH40" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="AI40" s="88"/>
-      <c r="AJ40" s="88"/>
-      <c r="AK40" s="88"/>
-      <c r="AL40" s="88"/>
-      <c r="AM40" s="88"/>
-      <c r="AN40" s="88"/>
+      <c r="AI40" s="52"/>
+      <c r="AJ40" s="52"/>
+      <c r="AK40" s="52"/>
+      <c r="AL40" s="52"/>
+      <c r="AM40" s="52"/>
+      <c r="AN40" s="52"/>
       <c r="AU40" s="26"/>
       <c r="AV40" s="23"/>
       <c r="AW40" s="23"/>
@@ -8986,48 +8994,48 @@
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="E41" s="88" t="s">
+      <c r="E41" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88" t="s">
+      <c r="F41" s="52"/>
+      <c r="G41" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="88"/>
-      <c r="V41" s="88"/>
-      <c r="W41" s="88"/>
-      <c r="X41" s="88"/>
-      <c r="Y41" s="88"/>
-      <c r="Z41" s="88"/>
-      <c r="AA41" s="88"/>
-      <c r="AB41" s="88"/>
-      <c r="AC41" s="88"/>
-      <c r="AD41" s="88"/>
-      <c r="AE41" s="88"/>
-      <c r="AF41" s="88"/>
-      <c r="AG41" s="88"/>
-      <c r="AH41" s="88" t="s">
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="52"/>
+      <c r="AD41" s="52"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52"/>
+      <c r="AH41" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="AI41" s="88"/>
-      <c r="AJ41" s="88"/>
-      <c r="AK41" s="88"/>
-      <c r="AL41" s="88"/>
-      <c r="AM41" s="88"/>
-      <c r="AN41" s="88"/>
+      <c r="AI41" s="52"/>
+      <c r="AJ41" s="52"/>
+      <c r="AK41" s="52"/>
+      <c r="AL41" s="52"/>
+      <c r="AM41" s="52"/>
+      <c r="AN41" s="52"/>
       <c r="AU41" s="26"/>
       <c r="AV41" s="23"/>
       <c r="AW41" s="23"/>
@@ -9061,48 +9069,48 @@
       <c r="D42">
         <v>3</v>
       </c>
-      <c r="E42" s="88" t="s">
+      <c r="E42" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88" t="s">
+      <c r="F42" s="52"/>
+      <c r="G42" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="88"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="88"/>
-      <c r="V42" s="88"/>
-      <c r="W42" s="88"/>
-      <c r="X42" s="88"/>
-      <c r="Y42" s="88"/>
-      <c r="Z42" s="88"/>
-      <c r="AA42" s="88"/>
-      <c r="AB42" s="88"/>
-      <c r="AC42" s="88"/>
-      <c r="AD42" s="88"/>
-      <c r="AE42" s="88"/>
-      <c r="AF42" s="88"/>
-      <c r="AG42" s="88"/>
-      <c r="AH42" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI42" s="88"/>
-      <c r="AJ42" s="88"/>
-      <c r="AK42" s="88"/>
-      <c r="AL42" s="88"/>
-      <c r="AM42" s="88"/>
-      <c r="AN42" s="88"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="52"/>
+      <c r="AD42" s="52"/>
+      <c r="AE42" s="52"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="52"/>
+      <c r="AH42" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI42" s="52"/>
+      <c r="AJ42" s="52"/>
+      <c r="AK42" s="52"/>
+      <c r="AL42" s="52"/>
+      <c r="AM42" s="52"/>
+      <c r="AN42" s="52"/>
       <c r="AU42" s="26"/>
       <c r="AV42" s="26"/>
       <c r="AW42" s="26"/>
@@ -9136,1649 +9144,1766 @@
       <c r="D43">
         <v>4</v>
       </c>
-      <c r="E43" s="88" t="s">
+      <c r="E43" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88" t="s">
+      <c r="F43" s="52"/>
+      <c r="G43" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88"/>
-      <c r="Q43" s="88"/>
-      <c r="R43" s="88"/>
-      <c r="S43" s="88"/>
-      <c r="T43" s="88"/>
-      <c r="U43" s="88"/>
-      <c r="V43" s="88"/>
-      <c r="W43" s="88"/>
-      <c r="X43" s="88"/>
-      <c r="Y43" s="88"/>
-      <c r="Z43" s="88"/>
-      <c r="AA43" s="88"/>
-      <c r="AB43" s="88"/>
-      <c r="AC43" s="88"/>
-      <c r="AD43" s="88"/>
-      <c r="AE43" s="88"/>
-      <c r="AF43" s="88"/>
-      <c r="AG43" s="88"/>
-      <c r="AH43" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI43" s="88"/>
-      <c r="AJ43" s="88"/>
-      <c r="AK43" s="88"/>
-      <c r="AL43" s="88"/>
-      <c r="AM43" s="88"/>
-      <c r="AN43" s="88"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="52"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="52"/>
+      <c r="AB43" s="52"/>
+      <c r="AC43" s="52"/>
+      <c r="AD43" s="52"/>
+      <c r="AE43" s="52"/>
+      <c r="AF43" s="52"/>
+      <c r="AG43" s="52"/>
+      <c r="AH43" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI43" s="52"/>
+      <c r="AJ43" s="52"/>
+      <c r="AK43" s="52"/>
+      <c r="AL43" s="52"/>
+      <c r="AM43" s="52"/>
+      <c r="AN43" s="52"/>
     </row>
     <row r="44" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D44">
         <v>5</v>
       </c>
-      <c r="E44" s="88" t="s">
+      <c r="E44" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88" t="s">
+      <c r="F44" s="52"/>
+      <c r="G44" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="88"/>
-      <c r="U44" s="88"/>
-      <c r="V44" s="88"/>
-      <c r="W44" s="88"/>
-      <c r="X44" s="88"/>
-      <c r="Y44" s="88"/>
-      <c r="Z44" s="88"/>
-      <c r="AA44" s="88"/>
-      <c r="AB44" s="88"/>
-      <c r="AC44" s="88"/>
-      <c r="AD44" s="88"/>
-      <c r="AE44" s="88"/>
-      <c r="AF44" s="88"/>
-      <c r="AG44" s="88"/>
-      <c r="AH44" s="88" t="s">
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="52"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="52"/>
+      <c r="AC44" s="52"/>
+      <c r="AD44" s="52"/>
+      <c r="AE44" s="52"/>
+      <c r="AF44" s="52"/>
+      <c r="AG44" s="52"/>
+      <c r="AH44" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AI44" s="88"/>
-      <c r="AJ44" s="88"/>
-      <c r="AK44" s="88"/>
-      <c r="AL44" s="88"/>
-      <c r="AM44" s="88"/>
-      <c r="AN44" s="88"/>
+      <c r="AI44" s="52"/>
+      <c r="AJ44" s="52"/>
+      <c r="AK44" s="52"/>
+      <c r="AL44" s="52"/>
+      <c r="AM44" s="52"/>
+      <c r="AN44" s="52"/>
     </row>
     <row r="45" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45">
         <v>6</v>
       </c>
-      <c r="E45" s="88" t="s">
+      <c r="E45" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="88"/>
-      <c r="G45" s="89" t="s">
+      <c r="F45" s="52"/>
+      <c r="G45" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="88"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="88"/>
-      <c r="T45" s="88"/>
-      <c r="U45" s="88"/>
-      <c r="V45" s="88"/>
-      <c r="W45" s="88"/>
-      <c r="X45" s="88"/>
-      <c r="Y45" s="88"/>
-      <c r="Z45" s="88"/>
-      <c r="AA45" s="88"/>
-      <c r="AB45" s="88"/>
-      <c r="AC45" s="88"/>
-      <c r="AD45" s="88"/>
-      <c r="AE45" s="88"/>
-      <c r="AF45" s="88"/>
-      <c r="AG45" s="88"/>
-      <c r="AH45" s="88" t="s">
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="52"/>
+      <c r="T45" s="52"/>
+      <c r="U45" s="52"/>
+      <c r="V45" s="52"/>
+      <c r="W45" s="52"/>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="52"/>
+      <c r="AA45" s="52"/>
+      <c r="AB45" s="52"/>
+      <c r="AC45" s="52"/>
+      <c r="AD45" s="52"/>
+      <c r="AE45" s="52"/>
+      <c r="AF45" s="52"/>
+      <c r="AG45" s="52"/>
+      <c r="AH45" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AI45" s="88"/>
-      <c r="AJ45" s="88"/>
-      <c r="AK45" s="88"/>
-      <c r="AL45" s="88"/>
-      <c r="AM45" s="88"/>
-      <c r="AN45" s="88"/>
+      <c r="AI45" s="52"/>
+      <c r="AJ45" s="52"/>
+      <c r="AK45" s="52"/>
+      <c r="AL45" s="52"/>
+      <c r="AM45" s="52"/>
+      <c r="AN45" s="52"/>
     </row>
     <row r="46" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46">
         <v>7</v>
       </c>
-      <c r="E46" s="88" t="s">
+      <c r="E46" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="88"/>
-      <c r="G46" s="89" t="s">
+      <c r="F46" s="52"/>
+      <c r="G46" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="88"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="88"/>
-      <c r="T46" s="88"/>
-      <c r="U46" s="88"/>
-      <c r="V46" s="88"/>
-      <c r="W46" s="88"/>
-      <c r="X46" s="88"/>
-      <c r="Y46" s="88"/>
-      <c r="Z46" s="88"/>
-      <c r="AA46" s="88"/>
-      <c r="AB46" s="88"/>
-      <c r="AC46" s="88"/>
-      <c r="AD46" s="88"/>
-      <c r="AE46" s="88"/>
-      <c r="AF46" s="88"/>
-      <c r="AG46" s="88"/>
-      <c r="AH46" s="88" t="s">
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="52"/>
+      <c r="T46" s="52"/>
+      <c r="U46" s="52"/>
+      <c r="V46" s="52"/>
+      <c r="W46" s="52"/>
+      <c r="X46" s="52"/>
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="52"/>
+      <c r="AB46" s="52"/>
+      <c r="AC46" s="52"/>
+      <c r="AD46" s="52"/>
+      <c r="AE46" s="52"/>
+      <c r="AF46" s="52"/>
+      <c r="AG46" s="52"/>
+      <c r="AH46" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AI46" s="88"/>
-      <c r="AJ46" s="88"/>
-      <c r="AK46" s="88"/>
-      <c r="AL46" s="88"/>
-      <c r="AM46" s="88"/>
-      <c r="AN46" s="88"/>
+      <c r="AI46" s="52"/>
+      <c r="AJ46" s="52"/>
+      <c r="AK46" s="52"/>
+      <c r="AL46" s="52"/>
+      <c r="AM46" s="52"/>
+      <c r="AN46" s="52"/>
     </row>
     <row r="47" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47">
         <v>8</v>
       </c>
-      <c r="E47" s="88" t="s">
+      <c r="E47" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88" t="s">
+      <c r="F47" s="52"/>
+      <c r="G47" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="88"/>
-      <c r="S47" s="88"/>
-      <c r="T47" s="88"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="88"/>
-      <c r="W47" s="88"/>
-      <c r="X47" s="88"/>
-      <c r="Y47" s="88"/>
-      <c r="Z47" s="88"/>
-      <c r="AA47" s="88"/>
-      <c r="AB47" s="88"/>
-      <c r="AC47" s="88"/>
-      <c r="AD47" s="88"/>
-      <c r="AE47" s="88"/>
-      <c r="AF47" s="88"/>
-      <c r="AG47" s="88"/>
-      <c r="AH47" s="88" t="s">
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="52"/>
+      <c r="AC47" s="52"/>
+      <c r="AD47" s="52"/>
+      <c r="AE47" s="52"/>
+      <c r="AF47" s="52"/>
+      <c r="AG47" s="52"/>
+      <c r="AH47" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="AI47" s="88"/>
-      <c r="AJ47" s="88"/>
-      <c r="AK47" s="88"/>
-      <c r="AL47" s="88"/>
-      <c r="AM47" s="88"/>
-      <c r="AN47" s="88"/>
+      <c r="AI47" s="52"/>
+      <c r="AJ47" s="52"/>
+      <c r="AK47" s="52"/>
+      <c r="AL47" s="52"/>
+      <c r="AM47" s="52"/>
+      <c r="AN47" s="52"/>
     </row>
     <row r="48" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48">
         <v>9</v>
       </c>
-      <c r="E48" s="88" t="s">
+      <c r="E48" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88" t="s">
+      <c r="F48" s="52"/>
+      <c r="G48" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
-      <c r="Q48" s="88"/>
-      <c r="R48" s="88"/>
-      <c r="S48" s="88"/>
-      <c r="T48" s="88"/>
-      <c r="U48" s="88"/>
-      <c r="V48" s="88"/>
-      <c r="W48" s="88"/>
-      <c r="X48" s="88"/>
-      <c r="Y48" s="88"/>
-      <c r="Z48" s="88"/>
-      <c r="AA48" s="88"/>
-      <c r="AB48" s="88"/>
-      <c r="AC48" s="88"/>
-      <c r="AD48" s="88"/>
-      <c r="AE48" s="88"/>
-      <c r="AF48" s="88"/>
-      <c r="AG48" s="88"/>
-      <c r="AH48" s="88" t="s">
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="52"/>
+      <c r="V48" s="52"/>
+      <c r="W48" s="52"/>
+      <c r="X48" s="52"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="52"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="52"/>
+      <c r="AD48" s="52"/>
+      <c r="AE48" s="52"/>
+      <c r="AF48" s="52"/>
+      <c r="AG48" s="52"/>
+      <c r="AH48" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="AI48" s="88"/>
-      <c r="AJ48" s="88"/>
-      <c r="AK48" s="88"/>
-      <c r="AL48" s="88"/>
-      <c r="AM48" s="88"/>
-      <c r="AN48" s="88"/>
+      <c r="AI48" s="52"/>
+      <c r="AJ48" s="52"/>
+      <c r="AK48" s="52"/>
+      <c r="AL48" s="52"/>
+      <c r="AM48" s="52"/>
+      <c r="AN48" s="52"/>
     </row>
     <row r="49" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49">
         <v>10</v>
       </c>
-      <c r="E49" s="88" t="s">
+      <c r="E49" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88" t="s">
+      <c r="F49" s="52"/>
+      <c r="G49" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="88"/>
-      <c r="P49" s="88"/>
-      <c r="Q49" s="88"/>
-      <c r="R49" s="88"/>
-      <c r="S49" s="88"/>
-      <c r="T49" s="88"/>
-      <c r="U49" s="88"/>
-      <c r="V49" s="88"/>
-      <c r="W49" s="88"/>
-      <c r="X49" s="88"/>
-      <c r="Y49" s="88"/>
-      <c r="Z49" s="88"/>
-      <c r="AA49" s="88"/>
-      <c r="AB49" s="88"/>
-      <c r="AC49" s="88"/>
-      <c r="AD49" s="88"/>
-      <c r="AE49" s="88"/>
-      <c r="AF49" s="88"/>
-      <c r="AG49" s="88"/>
-      <c r="AH49" s="88" t="s">
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="52"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="52"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="52"/>
+      <c r="AC49" s="52"/>
+      <c r="AD49" s="52"/>
+      <c r="AE49" s="52"/>
+      <c r="AF49" s="52"/>
+      <c r="AG49" s="52"/>
+      <c r="AH49" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="AI49" s="88"/>
-      <c r="AJ49" s="88"/>
-      <c r="AK49" s="88"/>
-      <c r="AL49" s="88"/>
-      <c r="AM49" s="88"/>
-      <c r="AN49" s="88"/>
+      <c r="AI49" s="52"/>
+      <c r="AJ49" s="52"/>
+      <c r="AK49" s="52"/>
+      <c r="AL49" s="52"/>
+      <c r="AM49" s="52"/>
+      <c r="AN49" s="52"/>
     </row>
     <row r="50" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50">
         <v>11</v>
       </c>
-      <c r="E50" s="88" t="s">
+      <c r="E50" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="88"/>
-      <c r="G50" s="89" t="s">
+      <c r="F50" s="52"/>
+      <c r="G50" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="88"/>
-      <c r="P50" s="88"/>
-      <c r="Q50" s="88"/>
-      <c r="R50" s="88"/>
-      <c r="S50" s="88"/>
-      <c r="T50" s="88"/>
-      <c r="U50" s="88"/>
-      <c r="V50" s="88"/>
-      <c r="W50" s="88"/>
-      <c r="X50" s="88"/>
-      <c r="Y50" s="88"/>
-      <c r="Z50" s="88"/>
-      <c r="AA50" s="88"/>
-      <c r="AB50" s="88"/>
-      <c r="AC50" s="88"/>
-      <c r="AD50" s="88"/>
-      <c r="AE50" s="88"/>
-      <c r="AF50" s="88"/>
-      <c r="AG50" s="88"/>
-      <c r="AH50" s="88" t="s">
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
+      <c r="R50" s="52"/>
+      <c r="S50" s="52"/>
+      <c r="T50" s="52"/>
+      <c r="U50" s="52"/>
+      <c r="V50" s="52"/>
+      <c r="W50" s="52"/>
+      <c r="X50" s="52"/>
+      <c r="Y50" s="52"/>
+      <c r="Z50" s="52"/>
+      <c r="AA50" s="52"/>
+      <c r="AB50" s="52"/>
+      <c r="AC50" s="52"/>
+      <c r="AD50" s="52"/>
+      <c r="AE50" s="52"/>
+      <c r="AF50" s="52"/>
+      <c r="AG50" s="52"/>
+      <c r="AH50" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="AI50" s="88"/>
-      <c r="AJ50" s="88"/>
-      <c r="AK50" s="88"/>
-      <c r="AL50" s="88"/>
-      <c r="AM50" s="88"/>
-      <c r="AN50" s="88"/>
+      <c r="AI50" s="52"/>
+      <c r="AJ50" s="52"/>
+      <c r="AK50" s="52"/>
+      <c r="AL50" s="52"/>
+      <c r="AM50" s="52"/>
+      <c r="AN50" s="52"/>
     </row>
     <row r="51" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51">
         <v>12</v>
       </c>
-      <c r="E51" s="88" t="s">
+      <c r="E51" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="88"/>
-      <c r="G51" s="89" t="s">
+      <c r="F51" s="52"/>
+      <c r="G51" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="88"/>
-      <c r="Q51" s="88"/>
-      <c r="R51" s="88"/>
-      <c r="S51" s="88"/>
-      <c r="T51" s="88"/>
-      <c r="U51" s="88"/>
-      <c r="V51" s="88"/>
-      <c r="W51" s="88"/>
-      <c r="X51" s="88"/>
-      <c r="Y51" s="88"/>
-      <c r="Z51" s="88"/>
-      <c r="AA51" s="88"/>
-      <c r="AB51" s="88"/>
-      <c r="AC51" s="88"/>
-      <c r="AD51" s="88"/>
-      <c r="AE51" s="88"/>
-      <c r="AF51" s="88"/>
-      <c r="AG51" s="88"/>
-      <c r="AH51" s="88" t="s">
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="52"/>
+      <c r="V51" s="52"/>
+      <c r="W51" s="52"/>
+      <c r="X51" s="52"/>
+      <c r="Y51" s="52"/>
+      <c r="Z51" s="52"/>
+      <c r="AA51" s="52"/>
+      <c r="AB51" s="52"/>
+      <c r="AC51" s="52"/>
+      <c r="AD51" s="52"/>
+      <c r="AE51" s="52"/>
+      <c r="AF51" s="52"/>
+      <c r="AG51" s="52"/>
+      <c r="AH51" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="AI51" s="88"/>
-      <c r="AJ51" s="88"/>
-      <c r="AK51" s="88"/>
-      <c r="AL51" s="88"/>
-      <c r="AM51" s="88"/>
-      <c r="AN51" s="88"/>
+      <c r="AI51" s="52"/>
+      <c r="AJ51" s="52"/>
+      <c r="AK51" s="52"/>
+      <c r="AL51" s="52"/>
+      <c r="AM51" s="52"/>
+      <c r="AN51" s="52"/>
     </row>
     <row r="52" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52">
         <v>13</v>
       </c>
-      <c r="E52" s="88" t="s">
+      <c r="E52" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88" t="s">
+      <c r="F52" s="52"/>
+      <c r="G52" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="88"/>
-      <c r="L52" s="88"/>
-      <c r="M52" s="88"/>
-      <c r="N52" s="88"/>
-      <c r="O52" s="88"/>
-      <c r="P52" s="88"/>
-      <c r="Q52" s="88"/>
-      <c r="R52" s="88"/>
-      <c r="S52" s="88"/>
-      <c r="T52" s="88"/>
-      <c r="U52" s="88"/>
-      <c r="V52" s="88"/>
-      <c r="W52" s="88"/>
-      <c r="X52" s="88"/>
-      <c r="Y52" s="88"/>
-      <c r="Z52" s="88"/>
-      <c r="AA52" s="88"/>
-      <c r="AB52" s="88"/>
-      <c r="AC52" s="88"/>
-      <c r="AD52" s="88"/>
-      <c r="AE52" s="88"/>
-      <c r="AF52" s="88"/>
-      <c r="AG52" s="88"/>
-      <c r="AH52" s="88" t="s">
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="52"/>
+      <c r="V52" s="52"/>
+      <c r="W52" s="52"/>
+      <c r="X52" s="52"/>
+      <c r="Y52" s="52"/>
+      <c r="Z52" s="52"/>
+      <c r="AA52" s="52"/>
+      <c r="AB52" s="52"/>
+      <c r="AC52" s="52"/>
+      <c r="AD52" s="52"/>
+      <c r="AE52" s="52"/>
+      <c r="AF52" s="52"/>
+      <c r="AG52" s="52"/>
+      <c r="AH52" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="AI52" s="88"/>
-      <c r="AJ52" s="88"/>
-      <c r="AK52" s="88"/>
-      <c r="AL52" s="88"/>
-      <c r="AM52" s="88"/>
-      <c r="AN52" s="88"/>
+      <c r="AI52" s="52"/>
+      <c r="AJ52" s="52"/>
+      <c r="AK52" s="52"/>
+      <c r="AL52" s="52"/>
+      <c r="AM52" s="52"/>
+      <c r="AN52" s="52"/>
     </row>
     <row r="53" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53">
         <v>14</v>
       </c>
-      <c r="E53" s="88" t="s">
+      <c r="E53" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88" t="s">
+      <c r="F53" s="52"/>
+      <c r="G53" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="88"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="88"/>
-      <c r="P53" s="88"/>
-      <c r="Q53" s="88"/>
-      <c r="R53" s="88"/>
-      <c r="S53" s="88"/>
-      <c r="T53" s="88"/>
-      <c r="U53" s="88"/>
-      <c r="V53" s="88"/>
-      <c r="W53" s="88"/>
-      <c r="X53" s="88"/>
-      <c r="Y53" s="88"/>
-      <c r="Z53" s="88"/>
-      <c r="AA53" s="88"/>
-      <c r="AB53" s="88"/>
-      <c r="AC53" s="88"/>
-      <c r="AD53" s="88"/>
-      <c r="AE53" s="88"/>
-      <c r="AF53" s="88"/>
-      <c r="AG53" s="88"/>
-      <c r="AH53" s="88" t="s">
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="52"/>
+      <c r="V53" s="52"/>
+      <c r="W53" s="52"/>
+      <c r="X53" s="52"/>
+      <c r="Y53" s="52"/>
+      <c r="Z53" s="52"/>
+      <c r="AA53" s="52"/>
+      <c r="AB53" s="52"/>
+      <c r="AC53" s="52"/>
+      <c r="AD53" s="52"/>
+      <c r="AE53" s="52"/>
+      <c r="AF53" s="52"/>
+      <c r="AG53" s="52"/>
+      <c r="AH53" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="AI53" s="88"/>
-      <c r="AJ53" s="88"/>
-      <c r="AK53" s="88"/>
-      <c r="AL53" s="88"/>
-      <c r="AM53" s="88"/>
-      <c r="AN53" s="88"/>
+      <c r="AI53" s="52"/>
+      <c r="AJ53" s="52"/>
+      <c r="AK53" s="52"/>
+      <c r="AL53" s="52"/>
+      <c r="AM53" s="52"/>
+      <c r="AN53" s="52"/>
     </row>
     <row r="54" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54">
         <v>15</v>
       </c>
-      <c r="E54" s="88" t="s">
+      <c r="E54" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88" t="s">
+      <c r="F54" s="52"/>
+      <c r="G54" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="88"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="88"/>
-      <c r="P54" s="88"/>
-      <c r="Q54" s="88"/>
-      <c r="R54" s="88"/>
-      <c r="S54" s="88"/>
-      <c r="T54" s="88"/>
-      <c r="U54" s="88"/>
-      <c r="V54" s="88"/>
-      <c r="W54" s="88"/>
-      <c r="X54" s="88"/>
-      <c r="Y54" s="88"/>
-      <c r="Z54" s="88"/>
-      <c r="AA54" s="88"/>
-      <c r="AB54" s="88"/>
-      <c r="AC54" s="88"/>
-      <c r="AD54" s="88"/>
-      <c r="AE54" s="88"/>
-      <c r="AF54" s="88"/>
-      <c r="AG54" s="88"/>
-      <c r="AH54" s="88" t="s">
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="52"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
+      <c r="Z54" s="52"/>
+      <c r="AA54" s="52"/>
+      <c r="AB54" s="52"/>
+      <c r="AC54" s="52"/>
+      <c r="AD54" s="52"/>
+      <c r="AE54" s="52"/>
+      <c r="AF54" s="52"/>
+      <c r="AG54" s="52"/>
+      <c r="AH54" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="AI54" s="88"/>
-      <c r="AJ54" s="88"/>
-      <c r="AK54" s="88"/>
-      <c r="AL54" s="88"/>
-      <c r="AM54" s="88"/>
-      <c r="AN54" s="88"/>
+      <c r="AI54" s="52"/>
+      <c r="AJ54" s="52"/>
+      <c r="AK54" s="52"/>
+      <c r="AL54" s="52"/>
+      <c r="AM54" s="52"/>
+      <c r="AN54" s="52"/>
     </row>
     <row r="55" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55">
         <v>16</v>
       </c>
-      <c r="E55" s="88" t="s">
+      <c r="E55" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="88"/>
-      <c r="G55" s="89" t="s">
+      <c r="F55" s="52"/>
+      <c r="G55" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="88"/>
-      <c r="L55" s="88"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="88"/>
-      <c r="P55" s="88"/>
-      <c r="Q55" s="88"/>
-      <c r="R55" s="88"/>
-      <c r="S55" s="88"/>
-      <c r="T55" s="88"/>
-      <c r="U55" s="88"/>
-      <c r="V55" s="88"/>
-      <c r="W55" s="88"/>
-      <c r="X55" s="88"/>
-      <c r="Y55" s="88"/>
-      <c r="Z55" s="88"/>
-      <c r="AA55" s="88"/>
-      <c r="AB55" s="88"/>
-      <c r="AC55" s="88"/>
-      <c r="AD55" s="88"/>
-      <c r="AE55" s="88"/>
-      <c r="AF55" s="88"/>
-      <c r="AG55" s="88"/>
-      <c r="AH55" s="88" t="s">
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="52"/>
+      <c r="AC55" s="52"/>
+      <c r="AD55" s="52"/>
+      <c r="AE55" s="52"/>
+      <c r="AF55" s="52"/>
+      <c r="AG55" s="52"/>
+      <c r="AH55" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="AI55" s="88"/>
-      <c r="AJ55" s="88"/>
-      <c r="AK55" s="88"/>
-      <c r="AL55" s="88"/>
-      <c r="AM55" s="88"/>
-      <c r="AN55" s="88"/>
+      <c r="AI55" s="52"/>
+      <c r="AJ55" s="52"/>
+      <c r="AK55" s="52"/>
+      <c r="AL55" s="52"/>
+      <c r="AM55" s="52"/>
+      <c r="AN55" s="52"/>
     </row>
     <row r="56" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D56">
         <v>17</v>
       </c>
-      <c r="E56" s="88" t="s">
+      <c r="E56" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="88"/>
-      <c r="G56" s="89" t="s">
+      <c r="F56" s="52"/>
+      <c r="G56" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="H56" s="88"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="K56" s="88"/>
-      <c r="L56" s="88"/>
-      <c r="M56" s="88"/>
-      <c r="N56" s="88"/>
-      <c r="O56" s="88"/>
-      <c r="P56" s="88"/>
-      <c r="Q56" s="88"/>
-      <c r="R56" s="88"/>
-      <c r="S56" s="88"/>
-      <c r="T56" s="88"/>
-      <c r="U56" s="88"/>
-      <c r="V56" s="88"/>
-      <c r="W56" s="88"/>
-      <c r="X56" s="88"/>
-      <c r="Y56" s="88"/>
-      <c r="Z56" s="88"/>
-      <c r="AA56" s="88"/>
-      <c r="AB56" s="88"/>
-      <c r="AC56" s="88"/>
-      <c r="AD56" s="88"/>
-      <c r="AE56" s="88"/>
-      <c r="AF56" s="88"/>
-      <c r="AG56" s="88"/>
-      <c r="AH56" s="88" t="s">
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
+      <c r="R56" s="52"/>
+      <c r="S56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="52"/>
+      <c r="V56" s="52"/>
+      <c r="W56" s="52"/>
+      <c r="X56" s="52"/>
+      <c r="Y56" s="52"/>
+      <c r="Z56" s="52"/>
+      <c r="AA56" s="52"/>
+      <c r="AB56" s="52"/>
+      <c r="AC56" s="52"/>
+      <c r="AD56" s="52"/>
+      <c r="AE56" s="52"/>
+      <c r="AF56" s="52"/>
+      <c r="AG56" s="52"/>
+      <c r="AH56" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="AI56" s="88"/>
-      <c r="AJ56" s="88"/>
-      <c r="AK56" s="88"/>
-      <c r="AL56" s="88"/>
-      <c r="AM56" s="88"/>
-      <c r="AN56" s="88"/>
+      <c r="AI56" s="52"/>
+      <c r="AJ56" s="52"/>
+      <c r="AK56" s="52"/>
+      <c r="AL56" s="52"/>
+      <c r="AM56" s="52"/>
+      <c r="AN56" s="52"/>
     </row>
     <row r="57" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57">
         <v>18</v>
       </c>
-      <c r="E57" s="88" t="s">
+      <c r="E57" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="88"/>
-      <c r="G57" s="89" t="s">
+      <c r="F57" s="52"/>
+      <c r="G57" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="88"/>
-      <c r="M57" s="88"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="88"/>
-      <c r="P57" s="88"/>
-      <c r="Q57" s="88"/>
-      <c r="R57" s="88"/>
-      <c r="S57" s="88"/>
-      <c r="T57" s="88"/>
-      <c r="U57" s="88"/>
-      <c r="V57" s="88"/>
-      <c r="W57" s="88"/>
-      <c r="X57" s="88"/>
-      <c r="Y57" s="88"/>
-      <c r="Z57" s="88"/>
-      <c r="AA57" s="88"/>
-      <c r="AB57" s="88"/>
-      <c r="AC57" s="88"/>
-      <c r="AD57" s="88"/>
-      <c r="AE57" s="88"/>
-      <c r="AF57" s="88"/>
-      <c r="AG57" s="88"/>
-      <c r="AH57" s="88" t="s">
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="52"/>
+      <c r="W57" s="52"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="52"/>
+      <c r="Z57" s="52"/>
+      <c r="AA57" s="52"/>
+      <c r="AB57" s="52"/>
+      <c r="AC57" s="52"/>
+      <c r="AD57" s="52"/>
+      <c r="AE57" s="52"/>
+      <c r="AF57" s="52"/>
+      <c r="AG57" s="52"/>
+      <c r="AH57" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="AI57" s="88"/>
-      <c r="AJ57" s="88"/>
-      <c r="AK57" s="88"/>
-      <c r="AL57" s="88"/>
-      <c r="AM57" s="88"/>
-      <c r="AN57" s="88"/>
+      <c r="AI57" s="52"/>
+      <c r="AJ57" s="52"/>
+      <c r="AK57" s="52"/>
+      <c r="AL57" s="52"/>
+      <c r="AM57" s="52"/>
+      <c r="AN57" s="52"/>
     </row>
     <row r="58" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58">
         <v>19</v>
       </c>
-      <c r="E58" s="88" t="s">
+      <c r="E58" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="88"/>
-      <c r="G58" s="88" t="s">
+      <c r="F58" s="52"/>
+      <c r="G58" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
-      <c r="K58" s="88"/>
-      <c r="L58" s="88"/>
-      <c r="M58" s="88"/>
-      <c r="N58" s="88"/>
-      <c r="O58" s="88"/>
-      <c r="P58" s="88"/>
-      <c r="Q58" s="88"/>
-      <c r="R58" s="88"/>
-      <c r="S58" s="88"/>
-      <c r="T58" s="88"/>
-      <c r="U58" s="88"/>
-      <c r="V58" s="88"/>
-      <c r="W58" s="88"/>
-      <c r="X58" s="88"/>
-      <c r="Y58" s="88"/>
-      <c r="Z58" s="88"/>
-      <c r="AA58" s="88"/>
-      <c r="AB58" s="88"/>
-      <c r="AC58" s="88"/>
-      <c r="AD58" s="88"/>
-      <c r="AE58" s="88"/>
-      <c r="AF58" s="88"/>
-      <c r="AG58" s="88"/>
-      <c r="AH58" s="88" t="s">
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="52"/>
+      <c r="W58" s="52"/>
+      <c r="X58" s="52"/>
+      <c r="Y58" s="52"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="52"/>
+      <c r="AB58" s="52"/>
+      <c r="AC58" s="52"/>
+      <c r="AD58" s="52"/>
+      <c r="AE58" s="52"/>
+      <c r="AF58" s="52"/>
+      <c r="AG58" s="52"/>
+      <c r="AH58" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="AI58" s="88"/>
-      <c r="AJ58" s="88"/>
-      <c r="AK58" s="88"/>
-      <c r="AL58" s="88"/>
-      <c r="AM58" s="88"/>
-      <c r="AN58" s="88"/>
+      <c r="AI58" s="52"/>
+      <c r="AJ58" s="52"/>
+      <c r="AK58" s="52"/>
+      <c r="AL58" s="52"/>
+      <c r="AM58" s="52"/>
+      <c r="AN58" s="52"/>
     </row>
     <row r="59" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D59">
         <v>20</v>
       </c>
-      <c r="E59" s="88" t="s">
+      <c r="E59" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88" t="s">
+      <c r="F59" s="52"/>
+      <c r="G59" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
-      <c r="M59" s="88"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="88"/>
-      <c r="P59" s="88"/>
-      <c r="Q59" s="88"/>
-      <c r="R59" s="88"/>
-      <c r="S59" s="88"/>
-      <c r="T59" s="88"/>
-      <c r="U59" s="88"/>
-      <c r="V59" s="88"/>
-      <c r="W59" s="88"/>
-      <c r="X59" s="88"/>
-      <c r="Y59" s="88"/>
-      <c r="Z59" s="88"/>
-      <c r="AA59" s="88"/>
-      <c r="AB59" s="88"/>
-      <c r="AC59" s="88"/>
-      <c r="AD59" s="88"/>
-      <c r="AE59" s="88"/>
-      <c r="AF59" s="88"/>
-      <c r="AG59" s="88"/>
-      <c r="AH59" s="88" t="s">
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="52"/>
+      <c r="U59" s="52"/>
+      <c r="V59" s="52"/>
+      <c r="W59" s="52"/>
+      <c r="X59" s="52"/>
+      <c r="Y59" s="52"/>
+      <c r="Z59" s="52"/>
+      <c r="AA59" s="52"/>
+      <c r="AB59" s="52"/>
+      <c r="AC59" s="52"/>
+      <c r="AD59" s="52"/>
+      <c r="AE59" s="52"/>
+      <c r="AF59" s="52"/>
+      <c r="AG59" s="52"/>
+      <c r="AH59" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="AI59" s="88"/>
-      <c r="AJ59" s="88"/>
-      <c r="AK59" s="88"/>
-      <c r="AL59" s="88"/>
-      <c r="AM59" s="88"/>
-      <c r="AN59" s="88"/>
+      <c r="AI59" s="52"/>
+      <c r="AJ59" s="52"/>
+      <c r="AK59" s="52"/>
+      <c r="AL59" s="52"/>
+      <c r="AM59" s="52"/>
+      <c r="AN59" s="52"/>
     </row>
     <row r="60" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D60">
         <v>21</v>
       </c>
-      <c r="E60" s="88" t="s">
+      <c r="E60" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88" t="s">
+      <c r="F60" s="52"/>
+      <c r="G60" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="88"/>
-      <c r="M60" s="88"/>
-      <c r="N60" s="88"/>
-      <c r="O60" s="88"/>
-      <c r="P60" s="88"/>
-      <c r="Q60" s="88"/>
-      <c r="R60" s="88"/>
-      <c r="S60" s="88"/>
-      <c r="T60" s="88"/>
-      <c r="U60" s="88"/>
-      <c r="V60" s="88"/>
-      <c r="W60" s="88"/>
-      <c r="X60" s="88"/>
-      <c r="Y60" s="88"/>
-      <c r="Z60" s="88"/>
-      <c r="AA60" s="88"/>
-      <c r="AB60" s="88"/>
-      <c r="AC60" s="88"/>
-      <c r="AD60" s="88"/>
-      <c r="AE60" s="88"/>
-      <c r="AF60" s="88"/>
-      <c r="AG60" s="88"/>
-      <c r="AH60" s="88" t="s">
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="52"/>
+      <c r="Q60" s="52"/>
+      <c r="R60" s="52"/>
+      <c r="S60" s="52"/>
+      <c r="T60" s="52"/>
+      <c r="U60" s="52"/>
+      <c r="V60" s="52"/>
+      <c r="W60" s="52"/>
+      <c r="X60" s="52"/>
+      <c r="Y60" s="52"/>
+      <c r="Z60" s="52"/>
+      <c r="AA60" s="52"/>
+      <c r="AB60" s="52"/>
+      <c r="AC60" s="52"/>
+      <c r="AD60" s="52"/>
+      <c r="AE60" s="52"/>
+      <c r="AF60" s="52"/>
+      <c r="AG60" s="52"/>
+      <c r="AH60" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="AI60" s="88"/>
-      <c r="AJ60" s="88"/>
-      <c r="AK60" s="88"/>
-      <c r="AL60" s="88"/>
-      <c r="AM60" s="88"/>
-      <c r="AN60" s="88"/>
+      <c r="AI60" s="52"/>
+      <c r="AJ60" s="52"/>
+      <c r="AK60" s="52"/>
+      <c r="AL60" s="52"/>
+      <c r="AM60" s="52"/>
+      <c r="AN60" s="52"/>
     </row>
     <row r="61" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D61">
         <v>22</v>
       </c>
-      <c r="E61" s="88" t="s">
+      <c r="E61" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="88"/>
-      <c r="G61" s="89" t="s">
+      <c r="F61" s="52"/>
+      <c r="G61" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="88"/>
-      <c r="L61" s="88"/>
-      <c r="M61" s="88"/>
-      <c r="N61" s="88"/>
-      <c r="O61" s="88"/>
-      <c r="P61" s="88"/>
-      <c r="Q61" s="88"/>
-      <c r="R61" s="88"/>
-      <c r="S61" s="88"/>
-      <c r="T61" s="88"/>
-      <c r="U61" s="88"/>
-      <c r="V61" s="88"/>
-      <c r="W61" s="88"/>
-      <c r="X61" s="88"/>
-      <c r="Y61" s="88"/>
-      <c r="Z61" s="88"/>
-      <c r="AA61" s="88"/>
-      <c r="AB61" s="88"/>
-      <c r="AC61" s="88"/>
-      <c r="AD61" s="88"/>
-      <c r="AE61" s="88"/>
-      <c r="AF61" s="88"/>
-      <c r="AG61" s="88"/>
-      <c r="AH61" s="88" t="s">
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="52"/>
+      <c r="Q61" s="52"/>
+      <c r="R61" s="52"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="52"/>
+      <c r="U61" s="52"/>
+      <c r="V61" s="52"/>
+      <c r="W61" s="52"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="52"/>
+      <c r="Z61" s="52"/>
+      <c r="AA61" s="52"/>
+      <c r="AB61" s="52"/>
+      <c r="AC61" s="52"/>
+      <c r="AD61" s="52"/>
+      <c r="AE61" s="52"/>
+      <c r="AF61" s="52"/>
+      <c r="AG61" s="52"/>
+      <c r="AH61" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="AI61" s="88"/>
-      <c r="AJ61" s="88"/>
-      <c r="AK61" s="88"/>
-      <c r="AL61" s="88"/>
-      <c r="AM61" s="88"/>
-      <c r="AN61" s="88"/>
+      <c r="AI61" s="52"/>
+      <c r="AJ61" s="52"/>
+      <c r="AK61" s="52"/>
+      <c r="AL61" s="52"/>
+      <c r="AM61" s="52"/>
+      <c r="AN61" s="52"/>
     </row>
     <row r="62" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D62">
         <v>23</v>
       </c>
-      <c r="E62" s="88" t="s">
+      <c r="E62" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F62" s="88"/>
-      <c r="G62" s="89" t="s">
+      <c r="F62" s="52"/>
+      <c r="G62" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="H62" s="88"/>
-      <c r="I62" s="88"/>
-      <c r="J62" s="88"/>
-      <c r="K62" s="88"/>
-      <c r="L62" s="88"/>
-      <c r="M62" s="88"/>
-      <c r="N62" s="88"/>
-      <c r="O62" s="88"/>
-      <c r="P62" s="88"/>
-      <c r="Q62" s="88"/>
-      <c r="R62" s="88"/>
-      <c r="S62" s="88"/>
-      <c r="T62" s="88"/>
-      <c r="U62" s="88"/>
-      <c r="V62" s="88"/>
-      <c r="W62" s="88"/>
-      <c r="X62" s="88"/>
-      <c r="Y62" s="88"/>
-      <c r="Z62" s="88"/>
-      <c r="AA62" s="88"/>
-      <c r="AB62" s="88"/>
-      <c r="AC62" s="88"/>
-      <c r="AD62" s="88"/>
-      <c r="AE62" s="88"/>
-      <c r="AF62" s="88"/>
-      <c r="AG62" s="88"/>
-      <c r="AH62" s="88" t="s">
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
+      <c r="R62" s="52"/>
+      <c r="S62" s="52"/>
+      <c r="T62" s="52"/>
+      <c r="U62" s="52"/>
+      <c r="V62" s="52"/>
+      <c r="W62" s="52"/>
+      <c r="X62" s="52"/>
+      <c r="Y62" s="52"/>
+      <c r="Z62" s="52"/>
+      <c r="AA62" s="52"/>
+      <c r="AB62" s="52"/>
+      <c r="AC62" s="52"/>
+      <c r="AD62" s="52"/>
+      <c r="AE62" s="52"/>
+      <c r="AF62" s="52"/>
+      <c r="AG62" s="52"/>
+      <c r="AH62" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="AI62" s="88"/>
-      <c r="AJ62" s="88"/>
-      <c r="AK62" s="88"/>
-      <c r="AL62" s="88"/>
-      <c r="AM62" s="88"/>
-      <c r="AN62" s="88"/>
+      <c r="AI62" s="52"/>
+      <c r="AJ62" s="52"/>
+      <c r="AK62" s="52"/>
+      <c r="AL62" s="52"/>
+      <c r="AM62" s="52"/>
+      <c r="AN62" s="52"/>
     </row>
     <row r="63" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63">
         <v>24</v>
       </c>
-      <c r="E63" s="88" t="s">
+      <c r="E63" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="88"/>
-      <c r="G63" s="89" t="s">
+      <c r="F63" s="52"/>
+      <c r="G63" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="H63" s="88"/>
-      <c r="I63" s="88"/>
-      <c r="J63" s="88"/>
-      <c r="K63" s="88"/>
-      <c r="L63" s="88"/>
-      <c r="M63" s="88"/>
-      <c r="N63" s="88"/>
-      <c r="O63" s="88"/>
-      <c r="P63" s="88"/>
-      <c r="Q63" s="88"/>
-      <c r="R63" s="88"/>
-      <c r="S63" s="88"/>
-      <c r="T63" s="88"/>
-      <c r="U63" s="88"/>
-      <c r="V63" s="88"/>
-      <c r="W63" s="88"/>
-      <c r="X63" s="88"/>
-      <c r="Y63" s="88"/>
-      <c r="Z63" s="88"/>
-      <c r="AA63" s="88"/>
-      <c r="AB63" s="88"/>
-      <c r="AC63" s="88"/>
-      <c r="AD63" s="88"/>
-      <c r="AE63" s="88"/>
-      <c r="AF63" s="88"/>
-      <c r="AG63" s="88"/>
-      <c r="AH63" s="88" t="s">
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="52"/>
+      <c r="R63" s="52"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="52"/>
+      <c r="U63" s="52"/>
+      <c r="V63" s="52"/>
+      <c r="W63" s="52"/>
+      <c r="X63" s="52"/>
+      <c r="Y63" s="52"/>
+      <c r="Z63" s="52"/>
+      <c r="AA63" s="52"/>
+      <c r="AB63" s="52"/>
+      <c r="AC63" s="52"/>
+      <c r="AD63" s="52"/>
+      <c r="AE63" s="52"/>
+      <c r="AF63" s="52"/>
+      <c r="AG63" s="52"/>
+      <c r="AH63" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="AI63" s="88"/>
-      <c r="AJ63" s="88"/>
-      <c r="AK63" s="88"/>
-      <c r="AL63" s="88"/>
-      <c r="AM63" s="88"/>
-      <c r="AN63" s="88"/>
+      <c r="AI63" s="52"/>
+      <c r="AJ63" s="52"/>
+      <c r="AK63" s="52"/>
+      <c r="AL63" s="52"/>
+      <c r="AM63" s="52"/>
+      <c r="AN63" s="52"/>
     </row>
     <row r="64" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D64">
         <v>25</v>
       </c>
-      <c r="E64" s="88" t="s">
+      <c r="E64" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F64" s="88"/>
-      <c r="G64" s="89" t="s">
+      <c r="F64" s="52"/>
+      <c r="G64" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="88"/>
-      <c r="K64" s="88"/>
-      <c r="L64" s="88"/>
-      <c r="M64" s="88"/>
-      <c r="N64" s="88"/>
-      <c r="O64" s="88"/>
-      <c r="P64" s="88"/>
-      <c r="Q64" s="88"/>
-      <c r="R64" s="88"/>
-      <c r="S64" s="88"/>
-      <c r="T64" s="88"/>
-      <c r="U64" s="88"/>
-      <c r="V64" s="88"/>
-      <c r="W64" s="88"/>
-      <c r="X64" s="88"/>
-      <c r="Y64" s="88"/>
-      <c r="Z64" s="88"/>
-      <c r="AA64" s="88"/>
-      <c r="AB64" s="88"/>
-      <c r="AC64" s="88"/>
-      <c r="AD64" s="88"/>
-      <c r="AE64" s="88"/>
-      <c r="AF64" s="88"/>
-      <c r="AG64" s="88"/>
-      <c r="AH64" s="88" t="s">
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="52"/>
+      <c r="R64" s="52"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="52"/>
+      <c r="U64" s="52"/>
+      <c r="V64" s="52"/>
+      <c r="W64" s="52"/>
+      <c r="X64" s="52"/>
+      <c r="Y64" s="52"/>
+      <c r="Z64" s="52"/>
+      <c r="AA64" s="52"/>
+      <c r="AB64" s="52"/>
+      <c r="AC64" s="52"/>
+      <c r="AD64" s="52"/>
+      <c r="AE64" s="52"/>
+      <c r="AF64" s="52"/>
+      <c r="AG64" s="52"/>
+      <c r="AH64" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="AI64" s="88"/>
-      <c r="AJ64" s="88"/>
-      <c r="AK64" s="88"/>
-      <c r="AL64" s="88"/>
-      <c r="AM64" s="88"/>
-      <c r="AN64" s="88"/>
+      <c r="AI64" s="52"/>
+      <c r="AJ64" s="52"/>
+      <c r="AK64" s="52"/>
+      <c r="AL64" s="52"/>
+      <c r="AM64" s="52"/>
+      <c r="AN64" s="52"/>
     </row>
     <row r="65" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D65">
         <v>26</v>
       </c>
-      <c r="E65" s="88" t="s">
+      <c r="E65" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="88"/>
-      <c r="G65" s="88" t="s">
+      <c r="F65" s="52"/>
+      <c r="G65" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="H65" s="88"/>
-      <c r="I65" s="88"/>
-      <c r="J65" s="88"/>
-      <c r="K65" s="88"/>
-      <c r="L65" s="88"/>
-      <c r="M65" s="88"/>
-      <c r="N65" s="88"/>
-      <c r="O65" s="88"/>
-      <c r="P65" s="88"/>
-      <c r="Q65" s="88"/>
-      <c r="R65" s="88"/>
-      <c r="S65" s="88"/>
-      <c r="T65" s="88"/>
-      <c r="U65" s="88"/>
-      <c r="V65" s="88"/>
-      <c r="W65" s="88"/>
-      <c r="X65" s="88"/>
-      <c r="Y65" s="88"/>
-      <c r="Z65" s="88"/>
-      <c r="AA65" s="88"/>
-      <c r="AB65" s="88"/>
-      <c r="AC65" s="88"/>
-      <c r="AD65" s="88"/>
-      <c r="AE65" s="88"/>
-      <c r="AF65" s="88"/>
-      <c r="AG65" s="88"/>
-      <c r="AH65" s="88" t="s">
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="52"/>
+      <c r="P65" s="52"/>
+      <c r="Q65" s="52"/>
+      <c r="R65" s="52"/>
+      <c r="S65" s="52"/>
+      <c r="T65" s="52"/>
+      <c r="U65" s="52"/>
+      <c r="V65" s="52"/>
+      <c r="W65" s="52"/>
+      <c r="X65" s="52"/>
+      <c r="Y65" s="52"/>
+      <c r="Z65" s="52"/>
+      <c r="AA65" s="52"/>
+      <c r="AB65" s="52"/>
+      <c r="AC65" s="52"/>
+      <c r="AD65" s="52"/>
+      <c r="AE65" s="52"/>
+      <c r="AF65" s="52"/>
+      <c r="AG65" s="52"/>
+      <c r="AH65" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="AI65" s="88"/>
-      <c r="AJ65" s="88"/>
-      <c r="AK65" s="88"/>
-      <c r="AL65" s="88"/>
-      <c r="AM65" s="88"/>
-      <c r="AN65" s="88"/>
+      <c r="AI65" s="52"/>
+      <c r="AJ65" s="52"/>
+      <c r="AK65" s="52"/>
+      <c r="AL65" s="52"/>
+      <c r="AM65" s="52"/>
+      <c r="AN65" s="52"/>
     </row>
     <row r="66" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D66">
         <v>27</v>
       </c>
-      <c r="E66" s="88" t="s">
+      <c r="E66" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88" t="s">
+      <c r="F66" s="52"/>
+      <c r="G66" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="88"/>
-      <c r="K66" s="88"/>
-      <c r="L66" s="88"/>
-      <c r="M66" s="88"/>
-      <c r="N66" s="88"/>
-      <c r="O66" s="88"/>
-      <c r="P66" s="88"/>
-      <c r="Q66" s="88"/>
-      <c r="R66" s="88"/>
-      <c r="S66" s="88"/>
-      <c r="T66" s="88"/>
-      <c r="U66" s="88"/>
-      <c r="V66" s="88"/>
-      <c r="W66" s="88"/>
-      <c r="X66" s="88"/>
-      <c r="Y66" s="88"/>
-      <c r="Z66" s="88"/>
-      <c r="AA66" s="88"/>
-      <c r="AB66" s="88"/>
-      <c r="AC66" s="88"/>
-      <c r="AD66" s="88"/>
-      <c r="AE66" s="88"/>
-      <c r="AF66" s="88"/>
-      <c r="AG66" s="88"/>
-      <c r="AH66" s="88" t="s">
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
+      <c r="O66" s="52"/>
+      <c r="P66" s="52"/>
+      <c r="Q66" s="52"/>
+      <c r="R66" s="52"/>
+      <c r="S66" s="52"/>
+      <c r="T66" s="52"/>
+      <c r="U66" s="52"/>
+      <c r="V66" s="52"/>
+      <c r="W66" s="52"/>
+      <c r="X66" s="52"/>
+      <c r="Y66" s="52"/>
+      <c r="Z66" s="52"/>
+      <c r="AA66" s="52"/>
+      <c r="AB66" s="52"/>
+      <c r="AC66" s="52"/>
+      <c r="AD66" s="52"/>
+      <c r="AE66" s="52"/>
+      <c r="AF66" s="52"/>
+      <c r="AG66" s="52"/>
+      <c r="AH66" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="AI66" s="88"/>
-      <c r="AJ66" s="88"/>
-      <c r="AK66" s="88"/>
-      <c r="AL66" s="88"/>
-      <c r="AM66" s="88"/>
-      <c r="AN66" s="88"/>
+      <c r="AI66" s="52"/>
+      <c r="AJ66" s="52"/>
+      <c r="AK66" s="52"/>
+      <c r="AL66" s="52"/>
+      <c r="AM66" s="52"/>
+      <c r="AN66" s="52"/>
     </row>
     <row r="67" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D67">
         <v>28</v>
       </c>
-      <c r="E67" s="88" t="s">
+      <c r="E67" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="88"/>
-      <c r="G67" s="88" t="s">
+      <c r="F67" s="52"/>
+      <c r="G67" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="88"/>
-      <c r="K67" s="88"/>
-      <c r="L67" s="88"/>
-      <c r="M67" s="88"/>
-      <c r="N67" s="88"/>
-      <c r="O67" s="88"/>
-      <c r="P67" s="88"/>
-      <c r="Q67" s="88"/>
-      <c r="R67" s="88"/>
-      <c r="S67" s="88"/>
-      <c r="T67" s="88"/>
-      <c r="U67" s="88"/>
-      <c r="V67" s="88"/>
-      <c r="W67" s="88"/>
-      <c r="X67" s="88"/>
-      <c r="Y67" s="88"/>
-      <c r="Z67" s="88"/>
-      <c r="AA67" s="88"/>
-      <c r="AB67" s="88"/>
-      <c r="AC67" s="88"/>
-      <c r="AD67" s="88"/>
-      <c r="AE67" s="88"/>
-      <c r="AF67" s="88"/>
-      <c r="AG67" s="88"/>
-      <c r="AH67" s="88" t="s">
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="52"/>
+      <c r="O67" s="52"/>
+      <c r="P67" s="52"/>
+      <c r="Q67" s="52"/>
+      <c r="R67" s="52"/>
+      <c r="S67" s="52"/>
+      <c r="T67" s="52"/>
+      <c r="U67" s="52"/>
+      <c r="V67" s="52"/>
+      <c r="W67" s="52"/>
+      <c r="X67" s="52"/>
+      <c r="Y67" s="52"/>
+      <c r="Z67" s="52"/>
+      <c r="AA67" s="52"/>
+      <c r="AB67" s="52"/>
+      <c r="AC67" s="52"/>
+      <c r="AD67" s="52"/>
+      <c r="AE67" s="52"/>
+      <c r="AF67" s="52"/>
+      <c r="AG67" s="52"/>
+      <c r="AH67" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="AI67" s="88"/>
-      <c r="AJ67" s="88"/>
-      <c r="AK67" s="88"/>
-      <c r="AL67" s="88"/>
-      <c r="AM67" s="88"/>
-      <c r="AN67" s="88"/>
+      <c r="AI67" s="52"/>
+      <c r="AJ67" s="52"/>
+      <c r="AK67" s="52"/>
+      <c r="AL67" s="52"/>
+      <c r="AM67" s="52"/>
+      <c r="AN67" s="52"/>
     </row>
     <row r="68" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D68">
         <v>29</v>
       </c>
-      <c r="E68" s="88" t="s">
+      <c r="E68" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="88"/>
-      <c r="G68" s="88" t="s">
+      <c r="F68" s="52"/>
+      <c r="G68" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="88"/>
-      <c r="K68" s="88"/>
-      <c r="L68" s="88"/>
-      <c r="M68" s="88"/>
-      <c r="N68" s="88"/>
-      <c r="O68" s="88"/>
-      <c r="P68" s="88"/>
-      <c r="Q68" s="88"/>
-      <c r="R68" s="88"/>
-      <c r="S68" s="88"/>
-      <c r="T68" s="88"/>
-      <c r="U68" s="88"/>
-      <c r="V68" s="88"/>
-      <c r="W68" s="88"/>
-      <c r="X68" s="88"/>
-      <c r="Y68" s="88"/>
-      <c r="Z68" s="88"/>
-      <c r="AA68" s="88"/>
-      <c r="AB68" s="88"/>
-      <c r="AC68" s="88"/>
-      <c r="AD68" s="88"/>
-      <c r="AE68" s="88"/>
-      <c r="AF68" s="88"/>
-      <c r="AG68" s="88"/>
-      <c r="AH68" s="88" t="s">
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="52"/>
+      <c r="O68" s="52"/>
+      <c r="P68" s="52"/>
+      <c r="Q68" s="52"/>
+      <c r="R68" s="52"/>
+      <c r="S68" s="52"/>
+      <c r="T68" s="52"/>
+      <c r="U68" s="52"/>
+      <c r="V68" s="52"/>
+      <c r="W68" s="52"/>
+      <c r="X68" s="52"/>
+      <c r="Y68" s="52"/>
+      <c r="Z68" s="52"/>
+      <c r="AA68" s="52"/>
+      <c r="AB68" s="52"/>
+      <c r="AC68" s="52"/>
+      <c r="AD68" s="52"/>
+      <c r="AE68" s="52"/>
+      <c r="AF68" s="52"/>
+      <c r="AG68" s="52"/>
+      <c r="AH68" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="AI68" s="88"/>
-      <c r="AJ68" s="88"/>
-      <c r="AK68" s="88"/>
-      <c r="AL68" s="88"/>
-      <c r="AM68" s="88"/>
-      <c r="AN68" s="88"/>
+      <c r="AI68" s="52"/>
+      <c r="AJ68" s="52"/>
+      <c r="AK68" s="52"/>
+      <c r="AL68" s="52"/>
+      <c r="AM68" s="52"/>
+      <c r="AN68" s="52"/>
     </row>
     <row r="69" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D69">
         <v>30</v>
       </c>
-      <c r="E69" s="88" t="s">
+      <c r="E69" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F69" s="88"/>
-      <c r="G69" s="89" t="s">
+      <c r="F69" s="52"/>
+      <c r="G69" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="88"/>
-      <c r="K69" s="88"/>
-      <c r="L69" s="88"/>
-      <c r="M69" s="88"/>
-      <c r="N69" s="88"/>
-      <c r="O69" s="88"/>
-      <c r="P69" s="88"/>
-      <c r="Q69" s="88"/>
-      <c r="R69" s="88"/>
-      <c r="S69" s="88"/>
-      <c r="T69" s="88"/>
-      <c r="U69" s="88"/>
-      <c r="V69" s="88"/>
-      <c r="W69" s="88"/>
-      <c r="X69" s="88"/>
-      <c r="Y69" s="88"/>
-      <c r="Z69" s="88"/>
-      <c r="AA69" s="88"/>
-      <c r="AB69" s="88"/>
-      <c r="AC69" s="88"/>
-      <c r="AD69" s="88"/>
-      <c r="AE69" s="88"/>
-      <c r="AF69" s="88"/>
-      <c r="AG69" s="88"/>
-      <c r="AH69" s="88" t="s">
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
+      <c r="N69" s="52"/>
+      <c r="O69" s="52"/>
+      <c r="P69" s="52"/>
+      <c r="Q69" s="52"/>
+      <c r="R69" s="52"/>
+      <c r="S69" s="52"/>
+      <c r="T69" s="52"/>
+      <c r="U69" s="52"/>
+      <c r="V69" s="52"/>
+      <c r="W69" s="52"/>
+      <c r="X69" s="52"/>
+      <c r="Y69" s="52"/>
+      <c r="Z69" s="52"/>
+      <c r="AA69" s="52"/>
+      <c r="AB69" s="52"/>
+      <c r="AC69" s="52"/>
+      <c r="AD69" s="52"/>
+      <c r="AE69" s="52"/>
+      <c r="AF69" s="52"/>
+      <c r="AG69" s="52"/>
+      <c r="AH69" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="AI69" s="88"/>
-      <c r="AJ69" s="88"/>
-      <c r="AK69" s="88"/>
-      <c r="AL69" s="88"/>
-      <c r="AM69" s="88"/>
-      <c r="AN69" s="88"/>
+      <c r="AI69" s="52"/>
+      <c r="AJ69" s="52"/>
+      <c r="AK69" s="52"/>
+      <c r="AL69" s="52"/>
+      <c r="AM69" s="52"/>
+      <c r="AN69" s="52"/>
     </row>
     <row r="70" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D70">
         <v>31</v>
       </c>
-      <c r="E70" s="88" t="s">
+      <c r="E70" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F70" s="88"/>
-      <c r="G70" s="88" t="s">
+      <c r="F70" s="52"/>
+      <c r="G70" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="H70" s="88"/>
-      <c r="I70" s="88"/>
-      <c r="J70" s="88"/>
-      <c r="K70" s="88"/>
-      <c r="L70" s="88"/>
-      <c r="M70" s="88"/>
-      <c r="N70" s="88"/>
-      <c r="O70" s="88"/>
-      <c r="P70" s="88"/>
-      <c r="Q70" s="88"/>
-      <c r="R70" s="88"/>
-      <c r="S70" s="88"/>
-      <c r="T70" s="88"/>
-      <c r="U70" s="88"/>
-      <c r="V70" s="88"/>
-      <c r="W70" s="88"/>
-      <c r="X70" s="88"/>
-      <c r="Y70" s="88"/>
-      <c r="Z70" s="88"/>
-      <c r="AA70" s="88"/>
-      <c r="AB70" s="88"/>
-      <c r="AC70" s="88"/>
-      <c r="AD70" s="88"/>
-      <c r="AE70" s="88"/>
-      <c r="AF70" s="88"/>
-      <c r="AG70" s="88"/>
-      <c r="AH70" s="88" t="s">
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="52"/>
+      <c r="N70" s="52"/>
+      <c r="O70" s="52"/>
+      <c r="P70" s="52"/>
+      <c r="Q70" s="52"/>
+      <c r="R70" s="52"/>
+      <c r="S70" s="52"/>
+      <c r="T70" s="52"/>
+      <c r="U70" s="52"/>
+      <c r="V70" s="52"/>
+      <c r="W70" s="52"/>
+      <c r="X70" s="52"/>
+      <c r="Y70" s="52"/>
+      <c r="Z70" s="52"/>
+      <c r="AA70" s="52"/>
+      <c r="AB70" s="52"/>
+      <c r="AC70" s="52"/>
+      <c r="AD70" s="52"/>
+      <c r="AE70" s="52"/>
+      <c r="AF70" s="52"/>
+      <c r="AG70" s="52"/>
+      <c r="AH70" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="AI70" s="88"/>
-      <c r="AJ70" s="88"/>
-      <c r="AK70" s="88"/>
-      <c r="AL70" s="88"/>
-      <c r="AM70" s="88"/>
-      <c r="AN70" s="88"/>
+      <c r="AI70" s="52"/>
+      <c r="AJ70" s="52"/>
+      <c r="AK70" s="52"/>
+      <c r="AL70" s="52"/>
+      <c r="AM70" s="52"/>
+      <c r="AN70" s="52"/>
     </row>
     <row r="71" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D71">
         <v>32</v>
       </c>
-      <c r="E71" s="88" t="s">
+      <c r="E71" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F71" s="88"/>
-      <c r="G71" s="88" t="s">
+      <c r="F71" s="52"/>
+      <c r="G71" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="H71" s="88"/>
-      <c r="I71" s="88"/>
-      <c r="J71" s="88"/>
-      <c r="K71" s="88"/>
-      <c r="L71" s="88"/>
-      <c r="M71" s="88"/>
-      <c r="N71" s="88"/>
-      <c r="O71" s="88"/>
-      <c r="P71" s="88"/>
-      <c r="Q71" s="88"/>
-      <c r="R71" s="88"/>
-      <c r="S71" s="88"/>
-      <c r="T71" s="88"/>
-      <c r="U71" s="88"/>
-      <c r="V71" s="88"/>
-      <c r="W71" s="88"/>
-      <c r="X71" s="88"/>
-      <c r="Y71" s="88"/>
-      <c r="Z71" s="88"/>
-      <c r="AA71" s="88"/>
-      <c r="AB71" s="88"/>
-      <c r="AC71" s="88"/>
-      <c r="AD71" s="88"/>
-      <c r="AE71" s="88"/>
-      <c r="AF71" s="88"/>
-      <c r="AG71" s="88"/>
-      <c r="AH71" s="88" t="s">
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="52"/>
+      <c r="N71" s="52"/>
+      <c r="O71" s="52"/>
+      <c r="P71" s="52"/>
+      <c r="Q71" s="52"/>
+      <c r="R71" s="52"/>
+      <c r="S71" s="52"/>
+      <c r="T71" s="52"/>
+      <c r="U71" s="52"/>
+      <c r="V71" s="52"/>
+      <c r="W71" s="52"/>
+      <c r="X71" s="52"/>
+      <c r="Y71" s="52"/>
+      <c r="Z71" s="52"/>
+      <c r="AA71" s="52"/>
+      <c r="AB71" s="52"/>
+      <c r="AC71" s="52"/>
+      <c r="AD71" s="52"/>
+      <c r="AE71" s="52"/>
+      <c r="AF71" s="52"/>
+      <c r="AG71" s="52"/>
+      <c r="AH71" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="AI71" s="88"/>
-      <c r="AJ71" s="88"/>
-      <c r="AK71" s="88"/>
-      <c r="AL71" s="88"/>
-      <c r="AM71" s="88"/>
-      <c r="AN71" s="88"/>
+      <c r="AI71" s="52"/>
+      <c r="AJ71" s="52"/>
+      <c r="AK71" s="52"/>
+      <c r="AL71" s="52"/>
+      <c r="AM71" s="52"/>
+      <c r="AN71" s="52"/>
     </row>
     <row r="72" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72">
         <v>33</v>
       </c>
-      <c r="E72" s="88" t="s">
+      <c r="E72" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F72" s="88"/>
-      <c r="G72" s="88" t="s">
+      <c r="F72" s="52"/>
+      <c r="G72" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="H72" s="88"/>
-      <c r="I72" s="88"/>
-      <c r="J72" s="88"/>
-      <c r="K72" s="88"/>
-      <c r="L72" s="88"/>
-      <c r="M72" s="88"/>
-      <c r="N72" s="88"/>
-      <c r="O72" s="88"/>
-      <c r="P72" s="88"/>
-      <c r="Q72" s="88"/>
-      <c r="R72" s="88"/>
-      <c r="S72" s="88"/>
-      <c r="T72" s="88"/>
-      <c r="U72" s="88"/>
-      <c r="V72" s="88"/>
-      <c r="W72" s="88"/>
-      <c r="X72" s="88"/>
-      <c r="Y72" s="88"/>
-      <c r="Z72" s="88"/>
-      <c r="AA72" s="88"/>
-      <c r="AB72" s="88"/>
-      <c r="AC72" s="88"/>
-      <c r="AD72" s="88"/>
-      <c r="AE72" s="88"/>
-      <c r="AF72" s="88"/>
-      <c r="AG72" s="88"/>
-      <c r="AH72" s="88" t="s">
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="52"/>
+      <c r="Q72" s="52"/>
+      <c r="R72" s="52"/>
+      <c r="S72" s="52"/>
+      <c r="T72" s="52"/>
+      <c r="U72" s="52"/>
+      <c r="V72" s="52"/>
+      <c r="W72" s="52"/>
+      <c r="X72" s="52"/>
+      <c r="Y72" s="52"/>
+      <c r="Z72" s="52"/>
+      <c r="AA72" s="52"/>
+      <c r="AB72" s="52"/>
+      <c r="AC72" s="52"/>
+      <c r="AD72" s="52"/>
+      <c r="AE72" s="52"/>
+      <c r="AF72" s="52"/>
+      <c r="AG72" s="52"/>
+      <c r="AH72" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="AI72" s="88"/>
-      <c r="AJ72" s="88"/>
-      <c r="AK72" s="88"/>
-      <c r="AL72" s="88"/>
-      <c r="AM72" s="88"/>
-      <c r="AN72" s="88"/>
+      <c r="AI72" s="52"/>
+      <c r="AJ72" s="52"/>
+      <c r="AK72" s="52"/>
+      <c r="AL72" s="52"/>
+      <c r="AM72" s="52"/>
+      <c r="AN72" s="52"/>
     </row>
     <row r="73" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73">
         <v>34</v>
       </c>
-      <c r="E73" s="88" t="s">
+      <c r="E73" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F73" s="88"/>
-      <c r="G73" s="88" t="s">
+      <c r="F73" s="52"/>
+      <c r="G73" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="H73" s="88"/>
-      <c r="I73" s="88"/>
-      <c r="J73" s="88"/>
-      <c r="K73" s="88"/>
-      <c r="L73" s="88"/>
-      <c r="M73" s="88"/>
-      <c r="N73" s="88"/>
-      <c r="O73" s="88"/>
-      <c r="P73" s="88"/>
-      <c r="Q73" s="88"/>
-      <c r="R73" s="88"/>
-      <c r="S73" s="88"/>
-      <c r="T73" s="88"/>
-      <c r="U73" s="88"/>
-      <c r="V73" s="88"/>
-      <c r="W73" s="88"/>
-      <c r="X73" s="88"/>
-      <c r="Y73" s="88"/>
-      <c r="Z73" s="88"/>
-      <c r="AA73" s="88"/>
-      <c r="AB73" s="88"/>
-      <c r="AC73" s="88"/>
-      <c r="AD73" s="88"/>
-      <c r="AE73" s="88"/>
-      <c r="AF73" s="88"/>
-      <c r="AG73" s="88"/>
-      <c r="AH73" s="88" t="s">
+      <c r="H73" s="52"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="52"/>
+      <c r="L73" s="52"/>
+      <c r="M73" s="52"/>
+      <c r="N73" s="52"/>
+      <c r="O73" s="52"/>
+      <c r="P73" s="52"/>
+      <c r="Q73" s="52"/>
+      <c r="R73" s="52"/>
+      <c r="S73" s="52"/>
+      <c r="T73" s="52"/>
+      <c r="U73" s="52"/>
+      <c r="V73" s="52"/>
+      <c r="W73" s="52"/>
+      <c r="X73" s="52"/>
+      <c r="Y73" s="52"/>
+      <c r="Z73" s="52"/>
+      <c r="AA73" s="52"/>
+      <c r="AB73" s="52"/>
+      <c r="AC73" s="52"/>
+      <c r="AD73" s="52"/>
+      <c r="AE73" s="52"/>
+      <c r="AF73" s="52"/>
+      <c r="AG73" s="52"/>
+      <c r="AH73" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="AI73" s="88"/>
-      <c r="AJ73" s="88"/>
-      <c r="AK73" s="88"/>
-      <c r="AL73" s="88"/>
-      <c r="AM73" s="88"/>
-      <c r="AN73" s="88"/>
+      <c r="AI73" s="52"/>
+      <c r="AJ73" s="52"/>
+      <c r="AK73" s="52"/>
+      <c r="AL73" s="52"/>
+      <c r="AM73" s="52"/>
+      <c r="AN73" s="52"/>
     </row>
     <row r="74" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D74">
         <v>35</v>
       </c>
-      <c r="E74" s="88" t="s">
+      <c r="E74" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F74" s="88"/>
-      <c r="G74" s="89" t="s">
+      <c r="F74" s="52"/>
+      <c r="G74" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="H74" s="88"/>
-      <c r="I74" s="88"/>
-      <c r="J74" s="88"/>
-      <c r="K74" s="88"/>
-      <c r="L74" s="88"/>
-      <c r="M74" s="88"/>
-      <c r="N74" s="88"/>
-      <c r="O74" s="88"/>
-      <c r="P74" s="88"/>
-      <c r="Q74" s="88"/>
-      <c r="R74" s="88"/>
-      <c r="S74" s="88"/>
-      <c r="T74" s="88"/>
-      <c r="U74" s="88"/>
-      <c r="V74" s="88"/>
-      <c r="W74" s="88"/>
-      <c r="X74" s="88"/>
-      <c r="Y74" s="88"/>
-      <c r="Z74" s="88"/>
-      <c r="AA74" s="88"/>
-      <c r="AB74" s="88"/>
-      <c r="AC74" s="88"/>
-      <c r="AD74" s="88"/>
-      <c r="AE74" s="88"/>
-      <c r="AF74" s="88"/>
-      <c r="AG74" s="88"/>
-      <c r="AH74" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI74" s="88"/>
-      <c r="AJ74" s="88"/>
-      <c r="AK74" s="88"/>
-      <c r="AL74" s="88"/>
-      <c r="AM74" s="88"/>
-      <c r="AN74" s="88"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="52"/>
+      <c r="N74" s="52"/>
+      <c r="O74" s="52"/>
+      <c r="P74" s="52"/>
+      <c r="Q74" s="52"/>
+      <c r="R74" s="52"/>
+      <c r="S74" s="52"/>
+      <c r="T74" s="52"/>
+      <c r="U74" s="52"/>
+      <c r="V74" s="52"/>
+      <c r="W74" s="52"/>
+      <c r="X74" s="52"/>
+      <c r="Y74" s="52"/>
+      <c r="Z74" s="52"/>
+      <c r="AA74" s="52"/>
+      <c r="AB74" s="52"/>
+      <c r="AC74" s="52"/>
+      <c r="AD74" s="52"/>
+      <c r="AE74" s="52"/>
+      <c r="AF74" s="52"/>
+      <c r="AG74" s="52"/>
+      <c r="AH74" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI74" s="52"/>
+      <c r="AJ74" s="52"/>
+      <c r="AK74" s="52"/>
+      <c r="AL74" s="52"/>
+      <c r="AM74" s="52"/>
+      <c r="AN74" s="52"/>
     </row>
     <row r="75" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D75">
         <v>35</v>
       </c>
-      <c r="E75" s="88" t="s">
+      <c r="E75" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F75" s="88"/>
-      <c r="G75" s="88" t="s">
-        <v>155</v>
-      </c>
-      <c r="H75" s="88"/>
-      <c r="I75" s="88"/>
-      <c r="J75" s="88"/>
-      <c r="K75" s="88"/>
-      <c r="L75" s="88"/>
-      <c r="M75" s="88"/>
-      <c r="N75" s="88"/>
-      <c r="O75" s="88"/>
-      <c r="P75" s="88"/>
-      <c r="Q75" s="88"/>
-      <c r="R75" s="88"/>
-      <c r="S75" s="88"/>
-      <c r="T75" s="88"/>
-      <c r="U75" s="88"/>
-      <c r="V75" s="88"/>
-      <c r="W75" s="88"/>
-      <c r="X75" s="88"/>
-      <c r="Y75" s="88"/>
-      <c r="Z75" s="88"/>
-      <c r="AA75" s="88"/>
-      <c r="AB75" s="88"/>
-      <c r="AC75" s="88"/>
-      <c r="AD75" s="88"/>
-      <c r="AE75" s="88"/>
-      <c r="AF75" s="88"/>
-      <c r="AG75" s="88"/>
-      <c r="AH75" s="88" t="s">
+      <c r="F75" s="52"/>
+      <c r="G75" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AI75" s="88"/>
-      <c r="AJ75" s="88"/>
-      <c r="AK75" s="88"/>
-      <c r="AL75" s="88"/>
-      <c r="AM75" s="88"/>
-      <c r="AN75" s="88"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="52"/>
+      <c r="M75" s="52"/>
+      <c r="N75" s="52"/>
+      <c r="O75" s="52"/>
+      <c r="P75" s="52"/>
+      <c r="Q75" s="52"/>
+      <c r="R75" s="52"/>
+      <c r="S75" s="52"/>
+      <c r="T75" s="52"/>
+      <c r="U75" s="52"/>
+      <c r="V75" s="52"/>
+      <c r="W75" s="52"/>
+      <c r="X75" s="52"/>
+      <c r="Y75" s="52"/>
+      <c r="Z75" s="52"/>
+      <c r="AA75" s="52"/>
+      <c r="AB75" s="52"/>
+      <c r="AC75" s="52"/>
+      <c r="AD75" s="52"/>
+      <c r="AE75" s="52"/>
+      <c r="AF75" s="52"/>
+      <c r="AG75" s="52"/>
+      <c r="AH75" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI75" s="52"/>
+      <c r="AJ75" s="52"/>
+      <c r="AK75" s="52"/>
+      <c r="AL75" s="52"/>
+      <c r="AM75" s="52"/>
+      <c r="AN75" s="52"/>
     </row>
     <row r="76" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D76">
         <v>36</v>
       </c>
-      <c r="E76" s="88" t="s">
+      <c r="E76" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F76" s="88"/>
-      <c r="G76" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="H76" s="88"/>
-      <c r="I76" s="88"/>
-      <c r="J76" s="88"/>
-      <c r="K76" s="88"/>
-      <c r="L76" s="88"/>
-      <c r="M76" s="88"/>
-      <c r="N76" s="88"/>
-      <c r="O76" s="88"/>
-      <c r="P76" s="88"/>
-      <c r="Q76" s="88"/>
-      <c r="R76" s="88"/>
-      <c r="S76" s="88"/>
-      <c r="T76" s="88"/>
-      <c r="U76" s="88"/>
-      <c r="V76" s="88"/>
-      <c r="W76" s="88"/>
-      <c r="X76" s="88"/>
-      <c r="Y76" s="88"/>
-      <c r="Z76" s="88"/>
-      <c r="AA76" s="88"/>
-      <c r="AB76" s="88"/>
-      <c r="AC76" s="88"/>
-      <c r="AD76" s="88"/>
-      <c r="AE76" s="88"/>
-      <c r="AF76" s="88"/>
-      <c r="AG76" s="88"/>
-      <c r="AH76" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI76" s="88"/>
-      <c r="AJ76" s="88"/>
-      <c r="AK76" s="88"/>
-      <c r="AL76" s="88"/>
-      <c r="AM76" s="88"/>
-      <c r="AN76" s="88"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="H76" s="52"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="52"/>
+      <c r="N76" s="52"/>
+      <c r="O76" s="52"/>
+      <c r="P76" s="52"/>
+      <c r="Q76" s="52"/>
+      <c r="R76" s="52"/>
+      <c r="S76" s="52"/>
+      <c r="T76" s="52"/>
+      <c r="U76" s="52"/>
+      <c r="V76" s="52"/>
+      <c r="W76" s="52"/>
+      <c r="X76" s="52"/>
+      <c r="Y76" s="52"/>
+      <c r="Z76" s="52"/>
+      <c r="AA76" s="52"/>
+      <c r="AB76" s="52"/>
+      <c r="AC76" s="52"/>
+      <c r="AD76" s="52"/>
+      <c r="AE76" s="52"/>
+      <c r="AF76" s="52"/>
+      <c r="AG76" s="52"/>
+      <c r="AH76" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI76" s="52"/>
+      <c r="AJ76" s="52"/>
+      <c r="AK76" s="52"/>
+      <c r="AL76" s="52"/>
+      <c r="AM76" s="52"/>
+      <c r="AN76" s="52"/>
     </row>
     <row r="77" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D77">
         <v>37</v>
       </c>
-      <c r="E77" s="88" t="s">
+      <c r="E77" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="88"/>
-      <c r="G77" s="89" t="s">
-        <v>157</v>
-      </c>
-      <c r="H77" s="88"/>
-      <c r="I77" s="88"/>
-      <c r="J77" s="88"/>
-      <c r="K77" s="88"/>
-      <c r="L77" s="88"/>
-      <c r="M77" s="88"/>
-      <c r="N77" s="88"/>
-      <c r="O77" s="88"/>
-      <c r="P77" s="88"/>
-      <c r="Q77" s="88"/>
-      <c r="R77" s="88"/>
-      <c r="S77" s="88"/>
-      <c r="T77" s="88"/>
-      <c r="U77" s="88"/>
-      <c r="V77" s="88"/>
-      <c r="W77" s="88"/>
-      <c r="X77" s="88"/>
-      <c r="Y77" s="88"/>
-      <c r="Z77" s="88"/>
-      <c r="AA77" s="88"/>
-      <c r="AB77" s="88"/>
-      <c r="AC77" s="88"/>
-      <c r="AD77" s="88"/>
-      <c r="AE77" s="88"/>
-      <c r="AF77" s="88"/>
-      <c r="AG77" s="88"/>
-      <c r="AH77" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI77" s="88"/>
-      <c r="AJ77" s="88"/>
-      <c r="AK77" s="88"/>
-      <c r="AL77" s="88"/>
-      <c r="AM77" s="88"/>
-      <c r="AN77" s="88"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="H77" s="52"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="52"/>
+      <c r="K77" s="52"/>
+      <c r="L77" s="52"/>
+      <c r="M77" s="52"/>
+      <c r="N77" s="52"/>
+      <c r="O77" s="52"/>
+      <c r="P77" s="52"/>
+      <c r="Q77" s="52"/>
+      <c r="R77" s="52"/>
+      <c r="S77" s="52"/>
+      <c r="T77" s="52"/>
+      <c r="U77" s="52"/>
+      <c r="V77" s="52"/>
+      <c r="W77" s="52"/>
+      <c r="X77" s="52"/>
+      <c r="Y77" s="52"/>
+      <c r="Z77" s="52"/>
+      <c r="AA77" s="52"/>
+      <c r="AB77" s="52"/>
+      <c r="AC77" s="52"/>
+      <c r="AD77" s="52"/>
+      <c r="AE77" s="52"/>
+      <c r="AF77" s="52"/>
+      <c r="AG77" s="52"/>
+      <c r="AH77" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI77" s="52"/>
+      <c r="AJ77" s="52"/>
+      <c r="AK77" s="52"/>
+      <c r="AL77" s="52"/>
+      <c r="AM77" s="52"/>
+      <c r="AN77" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="136">
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:AG77"/>
+    <mergeCell ref="AH77:AN77"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:AG75"/>
+    <mergeCell ref="AH75:AN75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:AG76"/>
+    <mergeCell ref="AH76:AN76"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:AG73"/>
+    <mergeCell ref="AH73:AN73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:AG74"/>
+    <mergeCell ref="AH74:AN74"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:AG71"/>
+    <mergeCell ref="AH71:AN71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:AG72"/>
+    <mergeCell ref="AH72:AN72"/>
+    <mergeCell ref="AH51:AN51"/>
+    <mergeCell ref="AH52:AN52"/>
+    <mergeCell ref="AH53:AN53"/>
+    <mergeCell ref="AH54:AN54"/>
+    <mergeCell ref="AH55:AN55"/>
+    <mergeCell ref="G49:AG49"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="AH64:AN64"/>
+    <mergeCell ref="AH63:AN63"/>
+    <mergeCell ref="AH65:AN65"/>
+    <mergeCell ref="AH56:AN56"/>
+    <mergeCell ref="AH57:AN57"/>
+    <mergeCell ref="AH58:AN58"/>
+    <mergeCell ref="AH59:AN59"/>
+    <mergeCell ref="AH60:AN60"/>
+    <mergeCell ref="AH61:AN61"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="AH66:AN66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="AH67:AN67"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:AG70"/>
+    <mergeCell ref="AH70:AN70"/>
+    <mergeCell ref="AH68:AN68"/>
+    <mergeCell ref="AH69:AN69"/>
+    <mergeCell ref="G68:AG68"/>
+    <mergeCell ref="G69:AG69"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G65:AG65"/>
+    <mergeCell ref="G66:AG66"/>
+    <mergeCell ref="G67:AG67"/>
+    <mergeCell ref="G58:AG58"/>
+    <mergeCell ref="G59:AG59"/>
+    <mergeCell ref="G60:AG60"/>
+    <mergeCell ref="G61:AG61"/>
+    <mergeCell ref="G62:AG62"/>
+    <mergeCell ref="G64:AG64"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="AH44:AN44"/>
+    <mergeCell ref="AH45:AN45"/>
+    <mergeCell ref="AH50:AN50"/>
+    <mergeCell ref="AH48:AN48"/>
+    <mergeCell ref="AH49:AN49"/>
+    <mergeCell ref="G63:AG63"/>
+    <mergeCell ref="G52:AG52"/>
+    <mergeCell ref="G53:AG53"/>
+    <mergeCell ref="G54:AG54"/>
+    <mergeCell ref="G55:AG55"/>
+    <mergeCell ref="G56:AG56"/>
+    <mergeCell ref="G57:AG57"/>
+    <mergeCell ref="G50:AG50"/>
+    <mergeCell ref="G51:AG51"/>
+    <mergeCell ref="G48:AG48"/>
+    <mergeCell ref="G46:AG46"/>
+    <mergeCell ref="AH46:AN46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:AG47"/>
+    <mergeCell ref="AH47:AN47"/>
+    <mergeCell ref="AH62:AN62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="AH40:AN40"/>
+    <mergeCell ref="AH41:AN41"/>
+    <mergeCell ref="AH42:AN42"/>
+    <mergeCell ref="AH43:AN43"/>
+    <mergeCell ref="G39:AG39"/>
+    <mergeCell ref="AH39:AN39"/>
+    <mergeCell ref="G40:AG40"/>
+    <mergeCell ref="G41:AG41"/>
+    <mergeCell ref="G42:AG42"/>
+    <mergeCell ref="G43:AG43"/>
+    <mergeCell ref="G44:AG44"/>
+    <mergeCell ref="G45:AG45"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
     <mergeCell ref="BM24:BT25"/>
     <mergeCell ref="AX32:BE39"/>
     <mergeCell ref="BO30:BR30"/>
@@ -10798,123 +10923,6 @@
     <mergeCell ref="S16:AB25"/>
     <mergeCell ref="AU12:BH12"/>
     <mergeCell ref="AZ18:BC21"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="AH40:AN40"/>
-    <mergeCell ref="AH41:AN41"/>
-    <mergeCell ref="AH42:AN42"/>
-    <mergeCell ref="AH43:AN43"/>
-    <mergeCell ref="G39:AG39"/>
-    <mergeCell ref="AH39:AN39"/>
-    <mergeCell ref="G40:AG40"/>
-    <mergeCell ref="G41:AG41"/>
-    <mergeCell ref="G42:AG42"/>
-    <mergeCell ref="G43:AG43"/>
-    <mergeCell ref="G44:AG44"/>
-    <mergeCell ref="G45:AG45"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="AH44:AN44"/>
-    <mergeCell ref="AH45:AN45"/>
-    <mergeCell ref="AH50:AN50"/>
-    <mergeCell ref="AH48:AN48"/>
-    <mergeCell ref="AH49:AN49"/>
-    <mergeCell ref="G63:AG63"/>
-    <mergeCell ref="G65:AG65"/>
-    <mergeCell ref="G66:AG66"/>
-    <mergeCell ref="G67:AG67"/>
-    <mergeCell ref="G58:AG58"/>
-    <mergeCell ref="G59:AG59"/>
-    <mergeCell ref="G60:AG60"/>
-    <mergeCell ref="G61:AG61"/>
-    <mergeCell ref="G62:AG62"/>
-    <mergeCell ref="G64:AG64"/>
-    <mergeCell ref="G52:AG52"/>
-    <mergeCell ref="G53:AG53"/>
-    <mergeCell ref="G54:AG54"/>
-    <mergeCell ref="G55:AG55"/>
-    <mergeCell ref="G56:AG56"/>
-    <mergeCell ref="G57:AG57"/>
-    <mergeCell ref="G50:AG50"/>
-    <mergeCell ref="G51:AG51"/>
-    <mergeCell ref="G48:AG48"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="AH66:AN66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="AH67:AN67"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:AG70"/>
-    <mergeCell ref="AH70:AN70"/>
-    <mergeCell ref="AH68:AN68"/>
-    <mergeCell ref="AH69:AN69"/>
-    <mergeCell ref="G68:AG68"/>
-    <mergeCell ref="G69:AG69"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G46:AG46"/>
-    <mergeCell ref="AH46:AN46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:AG47"/>
-    <mergeCell ref="AH47:AN47"/>
-    <mergeCell ref="AH62:AN62"/>
-    <mergeCell ref="AH64:AN64"/>
-    <mergeCell ref="AH63:AN63"/>
-    <mergeCell ref="AH65:AN65"/>
-    <mergeCell ref="AH56:AN56"/>
-    <mergeCell ref="AH57:AN57"/>
-    <mergeCell ref="AH58:AN58"/>
-    <mergeCell ref="AH59:AN59"/>
-    <mergeCell ref="AH60:AN60"/>
-    <mergeCell ref="AH61:AN61"/>
-    <mergeCell ref="AH51:AN51"/>
-    <mergeCell ref="AH52:AN52"/>
-    <mergeCell ref="AH53:AN53"/>
-    <mergeCell ref="AH54:AN54"/>
-    <mergeCell ref="AH55:AN55"/>
-    <mergeCell ref="G49:AG49"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:AG73"/>
-    <mergeCell ref="AH73:AN73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:AG74"/>
-    <mergeCell ref="AH74:AN74"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:AG71"/>
-    <mergeCell ref="AH71:AN71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:AG72"/>
-    <mergeCell ref="AH72:AN72"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:AG77"/>
-    <mergeCell ref="AH77:AN77"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:AG75"/>
-    <mergeCell ref="AH75:AN75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:AG76"/>
-    <mergeCell ref="AH76:AN76"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan/스테이지_1_맵_기획.xlsx
+++ b/Plan/스테이지_1_맵_기획.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Stage" sheetId="1" r:id="rId1"/>
@@ -307,10 +307,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>' 아마 이 번호 따라서 색깔이 변하는거 같은데? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>첫 그림 접촉 시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -747,6 +743,10 @@
   </si>
   <si>
     <t>진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 아마 이 버튼 따라서 나눠진 색깔이 변하는거 같은데? '</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1430,6 +1430,114 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1437,114 +1545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -1714,7 +1714,7 @@
         <xdr:cNvPr id="2" name="그림 1" descr="LTP-613C) 전통 육각정자 설계 제작 시공 - 서산 해미면 애향공원 : (주)라은엘앤씨">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61CC6A7A-D9D7-4F9E-9869-4B9B4430929E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61CC6A7A-D9D7-4F9E-9869-4B9B4430929E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2049,7 +2049,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2105,18 +2105,18 @@
     </row>
     <row r="3" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="5"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -2143,16 +2143,16 @@
     </row>
     <row r="4" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
       <c r="M4" s="5"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -2165,12 +2165,12 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="77" t="s">
+      <c r="Y4" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="79"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="76"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="3"/>
@@ -2181,16 +2181,16 @@
     </row>
     <row r="5" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="5"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -2199,16 +2199,16 @@
       <c r="R5" s="1"/>
       <c r="S5" s="5"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="77" t="s">
+      <c r="U5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="86"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="82"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="79"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="3"/>
@@ -2219,16 +2219,16 @@
     </row>
     <row r="6" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="5"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -2237,14 +2237,14 @@
       <c r="R6" s="1"/>
       <c r="S6" s="5"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="88"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="85"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="85"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="82"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="3"/>
@@ -2255,16 +2255,16 @@
     </row>
     <row r="7" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="5"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -2291,16 +2291,16 @@
     </row>
     <row r="8" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
       <c r="M8" s="5"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -2313,12 +2313,12 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="71" t="s">
+      <c r="Y8" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="73"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="70"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="3"/>
@@ -2329,16 +2329,16 @@
     </row>
     <row r="9" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
       <c r="M9" s="5"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2351,10 +2351,10 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="76"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="73"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="3"/>
@@ -2365,16 +2365,16 @@
     </row>
     <row r="10" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
       <c r="M10" s="5"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -2437,19 +2437,19 @@
     </row>
     <row r="12" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2475,17 +2475,17 @@
     </row>
     <row r="13" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2507,17 +2507,17 @@
     </row>
     <row r="14" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2539,17 +2539,17 @@
     </row>
     <row r="15" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2571,17 +2571,17 @@
     </row>
     <row r="16" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2603,17 +2603,17 @@
     </row>
     <row r="17" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2635,17 +2635,17 @@
     </row>
     <row r="18" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="19" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="56" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1"/>
@@ -2689,21 +2689,21 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="89" t="s">
+      <c r="W19" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="86"/>
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
-      <c r="C20" s="60"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2723,19 +2723,19 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="89"/>
-      <c r="AD20" s="89"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="86"/>
       <c r="AE20" s="3"/>
     </row>
     <row r="21" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
-      <c r="C21" s="60"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2755,31 +2755,31 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="86"/>
       <c r="AE21" s="3"/>
     </row>
     <row r="22" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
-      <c r="C22" s="60"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="64"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2789,29 +2789,29 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="89"/>
-      <c r="AD22" s="89"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="86"/>
+      <c r="AD22" s="86"/>
       <c r="AE22" s="3"/>
     </row>
     <row r="23" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
-      <c r="C23" s="60"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="67"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="64"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2821,29 +2821,29 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="89"/>
-      <c r="AB23" s="89"/>
-      <c r="AC23" s="89"/>
-      <c r="AD23" s="89"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="86"/>
+      <c r="AD23" s="86"/>
       <c r="AE23" s="3"/>
     </row>
     <row r="24" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
-      <c r="C24" s="60"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="67"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="64"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2853,29 +2853,29 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="89"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="86"/>
+      <c r="AB24" s="86"/>
+      <c r="AC24" s="86"/>
+      <c r="AD24" s="86"/>
       <c r="AE24" s="3"/>
     </row>
     <row r="25" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
-      <c r="C25" s="60"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="67"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="64"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2885,29 +2885,29 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="89"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="86"/>
+      <c r="AB25" s="86"/>
+      <c r="AC25" s="86"/>
+      <c r="AD25" s="86"/>
       <c r="AE25" s="3"/>
     </row>
     <row r="26" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
-      <c r="C26" s="60"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="67"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="64"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2917,29 +2917,29 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="89"/>
-      <c r="AB26" s="89"/>
-      <c r="AC26" s="89"/>
-      <c r="AD26" s="89"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="86"/>
+      <c r="AD26" s="86"/>
       <c r="AE26" s="3"/>
     </row>
     <row r="27" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
-      <c r="C27" s="60"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="67"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="64"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2949,29 +2949,29 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="89"/>
-      <c r="AC27" s="89"/>
-      <c r="AD27" s="89"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="86"/>
+      <c r="AB27" s="86"/>
+      <c r="AC27" s="86"/>
+      <c r="AD27" s="86"/>
       <c r="AE27" s="3"/>
     </row>
     <row r="28" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="60"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="67"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="64"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2981,29 +2981,29 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="89"/>
-      <c r="AD28" s="89"/>
+      <c r="W28" s="86"/>
+      <c r="X28" s="86"/>
+      <c r="Y28" s="86"/>
+      <c r="Z28" s="86"/>
+      <c r="AA28" s="86"/>
+      <c r="AB28" s="86"/>
+      <c r="AC28" s="86"/>
+      <c r="AD28" s="86"/>
       <c r="AE28" s="3"/>
     </row>
     <row r="29" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="60"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="70"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="67"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -3013,19 +3013,19 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="89"/>
-      <c r="AA29" s="89"/>
-      <c r="AB29" s="89"/>
-      <c r="AC29" s="89"/>
-      <c r="AD29" s="89"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="86"/>
+      <c r="AD29" s="86"/>
       <c r="AE29" s="3"/>
     </row>
     <row r="30" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="61"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -3045,14 +3045,14 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="89"/>
-      <c r="AA30" s="89"/>
-      <c r="AB30" s="89"/>
-      <c r="AC30" s="89"/>
-      <c r="AD30" s="89"/>
+      <c r="W30" s="86"/>
+      <c r="X30" s="86"/>
+      <c r="Y30" s="86"/>
+      <c r="Z30" s="86"/>
+      <c r="AA30" s="86"/>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="86"/>
+      <c r="AD30" s="86"/>
       <c r="AE30" s="3"/>
     </row>
     <row r="31" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3061,13 +3061,13 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="58"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="55"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -3091,262 +3091,262 @@
     </row>
     <row r="32" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="90"/>
     </row>
     <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52" t="s">
+      <c r="D34" s="88"/>
+      <c r="E34" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52" t="s">
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="88"/>
+      <c r="T34" s="88"/>
+      <c r="U34" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="88"/>
     </row>
     <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="88"/>
+      <c r="E35" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="88"/>
+      <c r="U35" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
+      <c r="V35" s="88"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="88"/>
     </row>
     <row r="36" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="88"/>
+      <c r="E36" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="88"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="88"/>
+      <c r="T36" s="88"/>
+      <c r="U36" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="V36" s="88"/>
+      <c r="W36" s="88"/>
+      <c r="X36" s="88"/>
     </row>
     <row r="37" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52" t="s">
+      <c r="C37" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="88"/>
+      <c r="E37" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="88"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="88"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="88"/>
+      <c r="U37" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="V37" s="88"/>
+      <c r="W37" s="88"/>
+      <c r="X37" s="88"/>
     </row>
     <row r="38" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>3</v>
       </c>
-      <c r="C38" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
+      <c r="C38" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="88"/>
+      <c r="E38" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="88"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="88"/>
+      <c r="T38" s="88"/>
+      <c r="U38" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="V38" s="88"/>
+      <c r="W38" s="88"/>
+      <c r="X38" s="88"/>
     </row>
     <row r="39" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>4</v>
       </c>
-      <c r="C39" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
+      <c r="C39" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="88"/>
+      <c r="E39" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88" t="s">
+        <v>164</v>
+      </c>
+      <c r="V39" s="88"/>
+      <c r="W39" s="88"/>
+      <c r="X39" s="88"/>
     </row>
     <row r="40" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="C40" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52" t="s">
+      <c r="C40" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="88"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
+      <c r="V40" s="88"/>
+      <c r="W40" s="88"/>
+      <c r="X40" s="88"/>
     </row>
     <row r="41" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="31"/>
@@ -3400,25 +3400,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C3:L10"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="C19:C30"/>
-    <mergeCell ref="E22:M29"/>
-    <mergeCell ref="Y8:AB9"/>
-    <mergeCell ref="Y4:AB6"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="W19:AD30"/>
-    <mergeCell ref="C12:M18"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:T36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="B33:X33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:T34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:T35"/>
-    <mergeCell ref="U35:X35"/>
     <mergeCell ref="U37:X37"/>
     <mergeCell ref="E37:T37"/>
     <mergeCell ref="C37:D37"/>
@@ -3431,6 +3412,25 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:T39"/>
     <mergeCell ref="U39:X39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:T36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="B33:X33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:T34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:T35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="C3:L10"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="C19:C30"/>
+    <mergeCell ref="E22:M29"/>
+    <mergeCell ref="Y8:AB9"/>
+    <mergeCell ref="Y4:AB6"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="W19:AD30"/>
+    <mergeCell ref="C12:M18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4161,460 +4161,460 @@
     </row>
     <row r="19" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
     </row>
     <row r="21" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52" t="s">
+      <c r="D21" s="88"/>
+      <c r="E21" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52" t="s">
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="88"/>
+      <c r="X21" s="88"/>
     </row>
     <row r="22" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53" t="s">
+      <c r="D22" s="88"/>
+      <c r="E22" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52" t="s">
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="88"/>
     </row>
     <row r="23" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53" t="s">
+      <c r="D23" s="88"/>
+      <c r="E23" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52" t="s">
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="88"/>
     </row>
     <row r="24" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52" t="s">
+      <c r="D24" s="88"/>
+      <c r="E24" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52" t="s">
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="88"/>
+      <c r="U24" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
+      <c r="V24" s="88"/>
+      <c r="W24" s="88"/>
+      <c r="X24" s="88"/>
     </row>
     <row r="25" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52" t="s">
+      <c r="D25" s="88"/>
+      <c r="E25" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52" t="s">
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="88"/>
     </row>
     <row r="26" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53" t="s">
+      <c r="D26" s="88"/>
+      <c r="E26" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="52" t="s">
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="88"/>
     </row>
     <row r="27" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="53" t="s">
+      <c r="D27" s="88"/>
+      <c r="E27" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="V27" s="88"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="88"/>
     </row>
     <row r="28" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>6</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53" t="s">
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="88"/>
     </row>
     <row r="29" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>7</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52" t="s">
+      <c r="D29" s="88"/>
+      <c r="E29" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52" t="s">
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="88"/>
     </row>
     <row r="30" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>8</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52" t="s">
+      <c r="D30" s="88"/>
+      <c r="E30" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52" t="s">
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="88"/>
     </row>
     <row r="31" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>9</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52" t="s">
+      <c r="D31" s="88"/>
+      <c r="E31" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52" t="s">
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="88"/>
     </row>
     <row r="32" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>10</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="53" t="s">
+      <c r="D32" s="88"/>
+      <c r="E32" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52" t="s">
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="88"/>
     </row>
     <row r="33" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>11</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52" t="s">
+      <c r="D33" s="88"/>
+      <c r="E33" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52" t="s">
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
     </row>
     <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4701,32 +4701,6 @@
     <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F4:H6"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="E21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="E24:T24"/>
-    <mergeCell ref="E23:T23"/>
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="E27:T27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="E29:T29"/>
-    <mergeCell ref="E31:T31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:T28"/>
-    <mergeCell ref="U28:X28"/>
     <mergeCell ref="E33:T33"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="B20:X20"/>
@@ -4743,6 +4717,32 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:T30"/>
     <mergeCell ref="E22:T22"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="E27:T27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="E29:T29"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:T28"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="F4:H6"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="E21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="E24:T24"/>
+    <mergeCell ref="E23:T23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4753,8 +4753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB119"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S68" sqref="S68"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V64" sqref="V64:AB64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4763,9 +4763,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
     </row>
     <row r="2" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T2" s="3"/>
@@ -5033,10 +5033,10 @@
       <c r="AC20" s="23"/>
       <c r="AD20" s="23"/>
       <c r="AE20" s="3"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="52"/>
-      <c r="AM20" s="52"/>
-      <c r="AN20" s="52"/>
+      <c r="AK20" s="88"/>
+      <c r="AL20" s="88"/>
+      <c r="AM20" s="88"/>
+      <c r="AN20" s="88"/>
     </row>
     <row r="21" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
@@ -5528,10 +5528,10 @@
       <c r="AC31" s="23"/>
       <c r="AD31" s="23"/>
       <c r="AE31" s="3"/>
-      <c r="AK31" s="52"/>
-      <c r="AL31" s="52"/>
-      <c r="AM31" s="52"/>
-      <c r="AN31" s="52"/>
+      <c r="AK31" s="88"/>
+      <c r="AL31" s="88"/>
+      <c r="AM31" s="88"/>
+      <c r="AN31" s="88"/>
     </row>
     <row r="32" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R32" s="3"/>
@@ -5741,538 +5741,538 @@
     <row r="51" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54"/>
-      <c r="V53" s="54"/>
-      <c r="W53" s="54"/>
-      <c r="X53" s="54"/>
-      <c r="Y53" s="54"/>
-      <c r="Z53" s="54"/>
-      <c r="AA53" s="54"/>
-      <c r="AB53" s="54"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="90"/>
+      <c r="N53" s="90"/>
+      <c r="O53" s="90"/>
+      <c r="P53" s="90"/>
+      <c r="Q53" s="90"/>
+      <c r="R53" s="90"/>
+      <c r="S53" s="90"/>
+      <c r="T53" s="90"/>
+      <c r="U53" s="90"/>
+      <c r="V53" s="90"/>
+      <c r="W53" s="90"/>
+      <c r="X53" s="90"/>
+      <c r="Y53" s="90"/>
+      <c r="Z53" s="90"/>
+      <c r="AA53" s="90"/>
+      <c r="AB53" s="90"/>
     </row>
     <row r="54" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="D54" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52" t="s">
+      <c r="E54" s="88"/>
+      <c r="F54" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="52"/>
-      <c r="V54" s="52" t="s">
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="88"/>
+      <c r="L54" s="88"/>
+      <c r="M54" s="88"/>
+      <c r="N54" s="88"/>
+      <c r="O54" s="88"/>
+      <c r="P54" s="88"/>
+      <c r="Q54" s="88"/>
+      <c r="R54" s="88"/>
+      <c r="S54" s="88"/>
+      <c r="T54" s="88"/>
+      <c r="U54" s="88"/>
+      <c r="V54" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="W54" s="52"/>
-      <c r="X54" s="52"/>
-      <c r="Y54" s="52"/>
-      <c r="Z54" s="52"/>
-      <c r="AA54" s="52"/>
-      <c r="AB54" s="52"/>
+      <c r="W54" s="88"/>
+      <c r="X54" s="88"/>
+      <c r="Y54" s="88"/>
+      <c r="Z54" s="88"/>
+      <c r="AA54" s="88"/>
+      <c r="AB54" s="88"/>
     </row>
     <row r="55" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="53" t="s">
+      <c r="E55" s="88"/>
+      <c r="F55" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
-      <c r="U55" s="52"/>
-      <c r="V55" s="52" t="s">
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="88"/>
+      <c r="L55" s="88"/>
+      <c r="M55" s="88"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="88"/>
+      <c r="P55" s="88"/>
+      <c r="Q55" s="88"/>
+      <c r="R55" s="88"/>
+      <c r="S55" s="88"/>
+      <c r="T55" s="88"/>
+      <c r="U55" s="88"/>
+      <c r="V55" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="W55" s="52"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="52"/>
-      <c r="Z55" s="52"/>
-      <c r="AA55" s="52"/>
-      <c r="AB55" s="52"/>
+      <c r="W55" s="88"/>
+      <c r="X55" s="88"/>
+      <c r="Y55" s="88"/>
+      <c r="Z55" s="88"/>
+      <c r="AA55" s="88"/>
+      <c r="AB55" s="88"/>
     </row>
     <row r="56" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52" t="s">
+      <c r="E56" s="88"/>
+      <c r="F56" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="52"/>
-      <c r="S56" s="52"/>
-      <c r="T56" s="52"/>
-      <c r="U56" s="52"/>
-      <c r="V56" s="52" t="s">
+      <c r="G56" s="88"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="88"/>
+      <c r="L56" s="88"/>
+      <c r="M56" s="88"/>
+      <c r="N56" s="88"/>
+      <c r="O56" s="88"/>
+      <c r="P56" s="88"/>
+      <c r="Q56" s="88"/>
+      <c r="R56" s="88"/>
+      <c r="S56" s="88"/>
+      <c r="T56" s="88"/>
+      <c r="U56" s="88"/>
+      <c r="V56" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="W56" s="52"/>
-      <c r="X56" s="52"/>
-      <c r="Y56" s="52"/>
-      <c r="Z56" s="52"/>
-      <c r="AA56" s="52"/>
-      <c r="AB56" s="52"/>
+      <c r="W56" s="88"/>
+      <c r="X56" s="88"/>
+      <c r="Y56" s="88"/>
+      <c r="Z56" s="88"/>
+      <c r="AA56" s="88"/>
+      <c r="AB56" s="88"/>
     </row>
     <row r="57" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57" s="52" t="s">
+      <c r="D57" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="52"/>
-      <c r="F57" s="53" t="s">
+      <c r="E57" s="88"/>
+      <c r="F57" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="88"/>
+      <c r="M57" s="88"/>
+      <c r="N57" s="88"/>
+      <c r="O57" s="88"/>
+      <c r="P57" s="88"/>
+      <c r="Q57" s="88"/>
+      <c r="R57" s="88"/>
+      <c r="S57" s="88"/>
+      <c r="T57" s="88"/>
+      <c r="U57" s="88"/>
+      <c r="V57" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="52"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="52"/>
-      <c r="U57" s="52"/>
-      <c r="V57" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="W57" s="52"/>
-      <c r="X57" s="52"/>
-      <c r="Y57" s="52"/>
-      <c r="Z57" s="52"/>
-      <c r="AA57" s="52"/>
-      <c r="AB57" s="52"/>
+      <c r="W57" s="88"/>
+      <c r="X57" s="88"/>
+      <c r="Y57" s="88"/>
+      <c r="Z57" s="88"/>
+      <c r="AA57" s="88"/>
+      <c r="AB57" s="88"/>
     </row>
     <row r="58" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>3</v>
       </c>
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="52"/>
-      <c r="S58" s="52"/>
-      <c r="T58" s="52"/>
-      <c r="U58" s="52"/>
-      <c r="V58" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="W58" s="52"/>
-      <c r="X58" s="52"/>
-      <c r="Y58" s="52"/>
-      <c r="Z58" s="52"/>
-      <c r="AA58" s="52"/>
-      <c r="AB58" s="52"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="88"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="88"/>
+      <c r="K58" s="88"/>
+      <c r="L58" s="88"/>
+      <c r="M58" s="88"/>
+      <c r="N58" s="88"/>
+      <c r="O58" s="88"/>
+      <c r="P58" s="88"/>
+      <c r="Q58" s="88"/>
+      <c r="R58" s="88"/>
+      <c r="S58" s="88"/>
+      <c r="T58" s="88"/>
+      <c r="U58" s="88"/>
+      <c r="V58" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="W58" s="88"/>
+      <c r="X58" s="88"/>
+      <c r="Y58" s="88"/>
+      <c r="Z58" s="88"/>
+      <c r="AA58" s="88"/>
+      <c r="AB58" s="88"/>
     </row>
     <row r="59" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>4</v>
       </c>
-      <c r="D59" s="52" t="s">
+      <c r="D59" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="52"/>
-      <c r="F59" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="52"/>
-      <c r="U59" s="52"/>
-      <c r="V59" s="52" t="s">
+      <c r="E59" s="88"/>
+      <c r="F59" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="W59" s="52"/>
-      <c r="X59" s="52"/>
-      <c r="Y59" s="52"/>
-      <c r="Z59" s="52"/>
-      <c r="AA59" s="52"/>
-      <c r="AB59" s="52"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
+      <c r="K59" s="88"/>
+      <c r="L59" s="88"/>
+      <c r="M59" s="88"/>
+      <c r="N59" s="88"/>
+      <c r="O59" s="88"/>
+      <c r="P59" s="88"/>
+      <c r="Q59" s="88"/>
+      <c r="R59" s="88"/>
+      <c r="S59" s="88"/>
+      <c r="T59" s="88"/>
+      <c r="U59" s="88"/>
+      <c r="V59" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="W59" s="88"/>
+      <c r="X59" s="88"/>
+      <c r="Y59" s="88"/>
+      <c r="Z59" s="88"/>
+      <c r="AA59" s="88"/>
+      <c r="AB59" s="88"/>
     </row>
     <row r="60" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>5</v>
       </c>
-      <c r="D60" s="52" t="s">
+      <c r="D60" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52" t="s">
+      <c r="E60" s="88"/>
+      <c r="F60" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" s="88"/>
+      <c r="H60" s="88"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="88"/>
+      <c r="L60" s="88"/>
+      <c r="M60" s="88"/>
+      <c r="N60" s="88"/>
+      <c r="O60" s="88"/>
+      <c r="P60" s="88"/>
+      <c r="Q60" s="88"/>
+      <c r="R60" s="88"/>
+      <c r="S60" s="88"/>
+      <c r="T60" s="88"/>
+      <c r="U60" s="88"/>
+      <c r="V60" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="52"/>
-      <c r="S60" s="52"/>
-      <c r="T60" s="52"/>
-      <c r="U60" s="52"/>
-      <c r="V60" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="W60" s="52"/>
-      <c r="X60" s="52"/>
-      <c r="Y60" s="52"/>
-      <c r="Z60" s="52"/>
-      <c r="AA60" s="52"/>
-      <c r="AB60" s="52"/>
+      <c r="W60" s="88"/>
+      <c r="X60" s="88"/>
+      <c r="Y60" s="88"/>
+      <c r="Z60" s="88"/>
+      <c r="AA60" s="88"/>
+      <c r="AB60" s="88"/>
     </row>
     <row r="61" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>6</v>
       </c>
-      <c r="D61" s="52" t="s">
+      <c r="D61" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="52"/>
-      <c r="F61" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="52"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="52"/>
-      <c r="U61" s="52"/>
-      <c r="V61" s="52" t="s">
+      <c r="E61" s="88"/>
+      <c r="F61" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="W61" s="52"/>
-      <c r="X61" s="52"/>
-      <c r="Y61" s="52"/>
-      <c r="Z61" s="52"/>
-      <c r="AA61" s="52"/>
-      <c r="AB61" s="52"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="88"/>
+      <c r="J61" s="88"/>
+      <c r="K61" s="88"/>
+      <c r="L61" s="88"/>
+      <c r="M61" s="88"/>
+      <c r="N61" s="88"/>
+      <c r="O61" s="88"/>
+      <c r="P61" s="88"/>
+      <c r="Q61" s="88"/>
+      <c r="R61" s="88"/>
+      <c r="S61" s="88"/>
+      <c r="T61" s="88"/>
+      <c r="U61" s="88"/>
+      <c r="V61" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="W61" s="88"/>
+      <c r="X61" s="88"/>
+      <c r="Y61" s="88"/>
+      <c r="Z61" s="88"/>
+      <c r="AA61" s="88"/>
+      <c r="AB61" s="88"/>
     </row>
     <row r="62" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>7</v>
       </c>
-      <c r="D62" s="52" t="s">
+      <c r="D62" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="52"/>
-      <c r="S62" s="52"/>
-      <c r="T62" s="52"/>
-      <c r="U62" s="52"/>
-      <c r="V62" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="W62" s="52"/>
-      <c r="X62" s="52"/>
-      <c r="Y62" s="52"/>
-      <c r="Z62" s="52"/>
-      <c r="AA62" s="52"/>
-      <c r="AB62" s="52"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62" s="88"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="88"/>
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
+      <c r="N62" s="88"/>
+      <c r="O62" s="88"/>
+      <c r="P62" s="88"/>
+      <c r="Q62" s="88"/>
+      <c r="R62" s="88"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="88"/>
+      <c r="U62" s="88"/>
+      <c r="V62" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="W62" s="88"/>
+      <c r="X62" s="88"/>
+      <c r="Y62" s="88"/>
+      <c r="Z62" s="88"/>
+      <c r="AA62" s="88"/>
+      <c r="AB62" s="88"/>
     </row>
     <row r="63" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>8</v>
       </c>
-      <c r="D63" s="52" t="s">
+      <c r="D63" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52" t="s">
+      <c r="E63" s="88"/>
+      <c r="F63" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="G63" s="88"/>
+      <c r="H63" s="88"/>
+      <c r="I63" s="88"/>
+      <c r="J63" s="88"/>
+      <c r="K63" s="88"/>
+      <c r="L63" s="88"/>
+      <c r="M63" s="88"/>
+      <c r="N63" s="88"/>
+      <c r="O63" s="88"/>
+      <c r="P63" s="88"/>
+      <c r="Q63" s="88"/>
+      <c r="R63" s="88"/>
+      <c r="S63" s="88"/>
+      <c r="T63" s="88"/>
+      <c r="U63" s="88"/>
+      <c r="V63" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="52"/>
-      <c r="S63" s="52"/>
-      <c r="T63" s="52"/>
-      <c r="U63" s="52"/>
-      <c r="V63" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="W63" s="52"/>
-      <c r="X63" s="52"/>
-      <c r="Y63" s="52"/>
-      <c r="Z63" s="52"/>
-      <c r="AA63" s="52"/>
-      <c r="AB63" s="52"/>
+      <c r="W63" s="88"/>
+      <c r="X63" s="88"/>
+      <c r="Y63" s="88"/>
+      <c r="Z63" s="88"/>
+      <c r="AA63" s="88"/>
+      <c r="AB63" s="88"/>
     </row>
     <row r="64" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>9</v>
       </c>
-      <c r="D64" s="52" t="s">
+      <c r="D64" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="52"/>
-      <c r="F64" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="52"/>
-      <c r="S64" s="52"/>
-      <c r="T64" s="52"/>
-      <c r="U64" s="52"/>
-      <c r="V64" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="W64" s="52"/>
-      <c r="X64" s="52"/>
-      <c r="Y64" s="52"/>
-      <c r="Z64" s="52"/>
-      <c r="AA64" s="52"/>
-      <c r="AB64" s="52"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="G64" s="88"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="88"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="88"/>
+      <c r="L64" s="88"/>
+      <c r="M64" s="88"/>
+      <c r="N64" s="88"/>
+      <c r="O64" s="88"/>
+      <c r="P64" s="88"/>
+      <c r="Q64" s="88"/>
+      <c r="R64" s="88"/>
+      <c r="S64" s="88"/>
+      <c r="T64" s="88"/>
+      <c r="U64" s="88"/>
+      <c r="V64" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="W64" s="88"/>
+      <c r="X64" s="88"/>
+      <c r="Y64" s="88"/>
+      <c r="Z64" s="88"/>
+      <c r="AA64" s="88"/>
+      <c r="AB64" s="88"/>
     </row>
     <row r="65" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>10</v>
       </c>
-      <c r="D65" s="52" t="s">
+      <c r="D65" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="52"/>
-      <c r="F65" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="52"/>
-      <c r="S65" s="52"/>
-      <c r="T65" s="52"/>
-      <c r="U65" s="52"/>
-      <c r="V65" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="W65" s="52"/>
-      <c r="X65" s="52"/>
-      <c r="Y65" s="52"/>
-      <c r="Z65" s="52"/>
-      <c r="AA65" s="52"/>
-      <c r="AB65" s="52"/>
+      <c r="E65" s="88"/>
+      <c r="F65" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="G65" s="88"/>
+      <c r="H65" s="88"/>
+      <c r="I65" s="88"/>
+      <c r="J65" s="88"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="88"/>
+      <c r="M65" s="88"/>
+      <c r="N65" s="88"/>
+      <c r="O65" s="88"/>
+      <c r="P65" s="88"/>
+      <c r="Q65" s="88"/>
+      <c r="R65" s="88"/>
+      <c r="S65" s="88"/>
+      <c r="T65" s="88"/>
+      <c r="U65" s="88"/>
+      <c r="V65" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="W65" s="88"/>
+      <c r="X65" s="88"/>
+      <c r="Y65" s="88"/>
+      <c r="Z65" s="88"/>
+      <c r="AA65" s="88"/>
+      <c r="AB65" s="88"/>
     </row>
     <row r="66" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>11</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="D66" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="52"/>
-      <c r="F66" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
-      <c r="N66" s="52"/>
-      <c r="O66" s="52"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="52"/>
-      <c r="S66" s="52"/>
-      <c r="T66" s="52"/>
-      <c r="U66" s="52"/>
-      <c r="V66" s="52" t="s">
+      <c r="E66" s="88"/>
+      <c r="F66" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="W66" s="52"/>
-      <c r="X66" s="52"/>
-      <c r="Y66" s="52"/>
-      <c r="Z66" s="52"/>
-      <c r="AA66" s="52"/>
-      <c r="AB66" s="52"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="88"/>
+      <c r="K66" s="88"/>
+      <c r="L66" s="88"/>
+      <c r="M66" s="88"/>
+      <c r="N66" s="88"/>
+      <c r="O66" s="88"/>
+      <c r="P66" s="88"/>
+      <c r="Q66" s="88"/>
+      <c r="R66" s="88"/>
+      <c r="S66" s="88"/>
+      <c r="T66" s="88"/>
+      <c r="U66" s="88"/>
+      <c r="V66" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="W66" s="88"/>
+      <c r="X66" s="88"/>
+      <c r="Y66" s="88"/>
+      <c r="Z66" s="88"/>
+      <c r="AA66" s="88"/>
+      <c r="AB66" s="88"/>
     </row>
     <row r="67" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>12</v>
       </c>
-      <c r="D67" s="52" t="s">
+      <c r="D67" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="52"/>
-      <c r="S67" s="52"/>
-      <c r="T67" s="52"/>
-      <c r="U67" s="52"/>
-      <c r="V67" s="52" t="s">
+      <c r="E67" s="88"/>
+      <c r="F67" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="W67" s="52"/>
-      <c r="X67" s="52"/>
-      <c r="Y67" s="52"/>
-      <c r="Z67" s="52"/>
-      <c r="AA67" s="52"/>
-      <c r="AB67" s="52"/>
+      <c r="G67" s="88"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="88"/>
+      <c r="K67" s="88"/>
+      <c r="L67" s="88"/>
+      <c r="M67" s="88"/>
+      <c r="N67" s="88"/>
+      <c r="O67" s="88"/>
+      <c r="P67" s="88"/>
+      <c r="Q67" s="88"/>
+      <c r="R67" s="88"/>
+      <c r="S67" s="88"/>
+      <c r="T67" s="88"/>
+      <c r="U67" s="88"/>
+      <c r="V67" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="W67" s="88"/>
+      <c r="X67" s="88"/>
+      <c r="Y67" s="88"/>
+      <c r="Z67" s="88"/>
+      <c r="AA67" s="88"/>
+      <c r="AB67" s="88"/>
     </row>
     <row r="68" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6328,19 +6328,26 @@
     <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AK20:AN20"/>
-    <mergeCell ref="AK31:AN31"/>
-    <mergeCell ref="AU24:AU27"/>
-    <mergeCell ref="C53:AB53"/>
-    <mergeCell ref="V55:AB55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:U55"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:U54"/>
-    <mergeCell ref="V54:AB54"/>
+    <mergeCell ref="V67:AB67"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:U64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:U65"/>
+    <mergeCell ref="V64:AB64"/>
+    <mergeCell ref="V65:AB65"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:U63"/>
+    <mergeCell ref="V62:AB62"/>
+    <mergeCell ref="V63:AB63"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:U66"/>
+    <mergeCell ref="V66:AB66"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:U61"/>
+    <mergeCell ref="V60:AB60"/>
+    <mergeCell ref="V61:AB61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:U62"/>
     <mergeCell ref="V58:AB58"/>
     <mergeCell ref="V59:AB59"/>
     <mergeCell ref="D56:E56"/>
@@ -6357,26 +6364,19 @@
     <mergeCell ref="F59:U59"/>
     <mergeCell ref="F58:U58"/>
     <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:U61"/>
-    <mergeCell ref="V60:AB60"/>
-    <mergeCell ref="V61:AB61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:U62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:U63"/>
-    <mergeCell ref="V62:AB62"/>
-    <mergeCell ref="V63:AB63"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:U66"/>
-    <mergeCell ref="V66:AB66"/>
-    <mergeCell ref="V67:AB67"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:U64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:U65"/>
-    <mergeCell ref="V64:AB64"/>
-    <mergeCell ref="V65:AB65"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:U54"/>
+    <mergeCell ref="V54:AB54"/>
+    <mergeCell ref="AK20:AN20"/>
+    <mergeCell ref="AK31:AN31"/>
+    <mergeCell ref="AU24:AU27"/>
+    <mergeCell ref="C53:AB53"/>
+    <mergeCell ref="V55:AB55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:U55"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6388,8 +6388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:CW77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43:AG43"/>
+    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64:AG64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6440,7 +6440,7 @@
       <c r="AQ4" s="26"/>
       <c r="AU4" s="26"/>
       <c r="AV4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6486,7 +6486,7 @@
       <c r="AQ5" s="26"/>
       <c r="AU5" s="23"/>
       <c r="AV5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6540,7 +6540,7 @@
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
       <c r="G7" s="120" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="120"/>
       <c r="I7" s="120"/>
@@ -6569,7 +6569,7 @@
       <c r="AF7" s="26"/>
       <c r="AG7" s="26"/>
       <c r="AH7" s="121" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI7" s="121"/>
       <c r="AJ7" s="121"/>
@@ -6582,7 +6582,7 @@
       <c r="AQ7" s="26"/>
       <c r="AU7" s="15"/>
       <c r="AV7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6628,7 +6628,7 @@
       <c r="AQ8" s="26"/>
       <c r="AU8" s="8"/>
       <c r="AV8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6674,7 +6674,7 @@
       <c r="AQ9" s="26"/>
       <c r="AU9" s="51"/>
       <c r="AV9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6802,38 +6802,38 @@
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AU12" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV12" s="52"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="52"/>
-      <c r="BA12" s="52"/>
-      <c r="BB12" s="52"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
-      <c r="BE12" s="52"/>
-      <c r="BF12" s="52"/>
-      <c r="BG12" s="52"/>
-      <c r="BH12" s="52"/>
-      <c r="BJ12" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="BK12" s="52"/>
-      <c r="BL12" s="52"/>
-      <c r="BM12" s="52"/>
-      <c r="BN12" s="52"/>
-      <c r="BO12" s="52"/>
-      <c r="BP12" s="52"/>
-      <c r="BQ12" s="52"/>
-      <c r="BR12" s="52"/>
-      <c r="BS12" s="52"/>
-      <c r="BT12" s="52"/>
-      <c r="BU12" s="52"/>
-      <c r="BV12" s="52"/>
-      <c r="BW12" s="52"/>
+      <c r="AU12" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV12" s="88"/>
+      <c r="AW12" s="88"/>
+      <c r="AX12" s="88"/>
+      <c r="AY12" s="88"/>
+      <c r="AZ12" s="88"/>
+      <c r="BA12" s="88"/>
+      <c r="BB12" s="88"/>
+      <c r="BC12" s="88"/>
+      <c r="BD12" s="88"/>
+      <c r="BE12" s="88"/>
+      <c r="BF12" s="88"/>
+      <c r="BG12" s="88"/>
+      <c r="BH12" s="88"/>
+      <c r="BJ12" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK12" s="88"/>
+      <c r="BL12" s="88"/>
+      <c r="BM12" s="88"/>
+      <c r="BN12" s="88"/>
+      <c r="BO12" s="88"/>
+      <c r="BP12" s="88"/>
+      <c r="BQ12" s="88"/>
+      <c r="BR12" s="88"/>
+      <c r="BS12" s="88"/>
+      <c r="BT12" s="88"/>
+      <c r="BU12" s="88"/>
+      <c r="BV12" s="88"/>
+      <c r="BW12" s="88"/>
     </row>
     <row r="13" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="26"/>
@@ -6964,7 +6964,7 @@
       <c r="BK14" s="23"/>
       <c r="BL14" s="23"/>
       <c r="BM14" s="95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BN14" s="96"/>
       <c r="BO14" s="96"/>
@@ -7064,7 +7064,7 @@
       <c r="Q16" s="26"/>
       <c r="R16" s="26"/>
       <c r="S16" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T16" s="124"/>
       <c r="U16" s="124"/>
@@ -7236,7 +7236,7 @@
       <c r="AX18" s="23"/>
       <c r="AY18" s="23"/>
       <c r="AZ18" s="125" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BA18" s="126"/>
       <c r="BB18" s="126"/>
@@ -7400,22 +7400,22 @@
       <c r="BU20" s="23"/>
       <c r="BV20" s="23"/>
       <c r="BW20" s="23"/>
-      <c r="BY20" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="BZ20" s="52"/>
-      <c r="CA20" s="52"/>
-      <c r="CB20" s="52"/>
-      <c r="CC20" s="52"/>
-      <c r="CD20" s="52"/>
-      <c r="CE20" s="52"/>
-      <c r="CF20" s="52"/>
-      <c r="CG20" s="52"/>
-      <c r="CH20" s="52"/>
-      <c r="CI20" s="52"/>
-      <c r="CJ20" s="52"/>
-      <c r="CK20" s="52"/>
-      <c r="CL20" s="52"/>
+      <c r="BY20" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ20" s="88"/>
+      <c r="CA20" s="88"/>
+      <c r="CB20" s="88"/>
+      <c r="CC20" s="88"/>
+      <c r="CD20" s="88"/>
+      <c r="CE20" s="88"/>
+      <c r="CF20" s="88"/>
+      <c r="CG20" s="88"/>
+      <c r="CH20" s="88"/>
+      <c r="CI20" s="88"/>
+      <c r="CJ20" s="88"/>
+      <c r="CK20" s="88"/>
+      <c r="CL20" s="88"/>
     </row>
     <row r="21" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="26"/>
@@ -7584,18 +7584,18 @@
       <c r="CJ22" s="23"/>
       <c r="CK22" s="23"/>
       <c r="CL22" s="26"/>
-      <c r="CN22" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="CO22" s="52"/>
-      <c r="CP22" s="52"/>
-      <c r="CQ22" s="52"/>
-      <c r="CR22" s="52"/>
-      <c r="CS22" s="52"/>
-      <c r="CT22" s="52"/>
-      <c r="CU22" s="52"/>
-      <c r="CV22" s="52"/>
-      <c r="CW22" s="52"/>
+      <c r="CN22" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="CO22" s="88"/>
+      <c r="CP22" s="88"/>
+      <c r="CQ22" s="88"/>
+      <c r="CR22" s="88"/>
+      <c r="CS22" s="88"/>
+      <c r="CT22" s="88"/>
+      <c r="CU22" s="88"/>
+      <c r="CV22" s="88"/>
+      <c r="CW22" s="88"/>
     </row>
     <row r="23" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="26"/>
@@ -7672,14 +7672,14 @@
       <c r="CB23" s="44"/>
       <c r="CC23" s="44"/>
       <c r="CD23" s="117" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="CE23" s="118"/>
       <c r="CF23" s="118"/>
       <c r="CG23" s="119"/>
       <c r="CH23" s="44"/>
       <c r="CI23" s="113" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="CJ23" s="114"/>
       <c r="CK23" s="23"/>
@@ -7744,7 +7744,7 @@
       <c r="BK24" s="23"/>
       <c r="BL24" s="23"/>
       <c r="BM24" s="95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BN24" s="96"/>
       <c r="BO24" s="96"/>
@@ -7944,7 +7944,7 @@
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="123" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H27" s="123"/>
       <c r="I27" s="123"/>
@@ -7973,14 +7973,14 @@
       <c r="AF27" s="26"/>
       <c r="AG27" s="26"/>
       <c r="AH27" s="122" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI27" s="55"/>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="55"/>
-      <c r="AL27" s="55"/>
-      <c r="AM27" s="55"/>
-      <c r="AN27" s="55"/>
+        <v>88</v>
+      </c>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="52"/>
+      <c r="AL27" s="52"/>
+      <c r="AM27" s="52"/>
+      <c r="AN27" s="52"/>
       <c r="AO27" s="26"/>
       <c r="AP27" s="26"/>
       <c r="AQ27" s="26"/>
@@ -8030,48 +8030,48 @@
       <c r="AE28" s="26"/>
       <c r="AF28" s="26"/>
       <c r="AG28" s="26"/>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="55"/>
-      <c r="AJ28" s="55"/>
-      <c r="AK28" s="55"/>
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="55"/>
-      <c r="AN28" s="55"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="52"/>
+      <c r="AL28" s="52"/>
+      <c r="AM28" s="52"/>
+      <c r="AN28" s="52"/>
       <c r="AO28" s="26"/>
       <c r="AP28" s="26"/>
       <c r="AQ28" s="26"/>
-      <c r="AU28" s="52" t="s">
+      <c r="AU28" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV28" s="88"/>
+      <c r="AW28" s="88"/>
+      <c r="AX28" s="88"/>
+      <c r="AY28" s="88"/>
+      <c r="AZ28" s="88"/>
+      <c r="BA28" s="88"/>
+      <c r="BB28" s="88"/>
+      <c r="BC28" s="88"/>
+      <c r="BD28" s="88"/>
+      <c r="BE28" s="88"/>
+      <c r="BF28" s="88"/>
+      <c r="BG28" s="88"/>
+      <c r="BH28" s="88"/>
+      <c r="BJ28" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="AV28" s="52"/>
-      <c r="AW28" s="52"/>
-      <c r="AX28" s="52"/>
-      <c r="AY28" s="52"/>
-      <c r="AZ28" s="52"/>
-      <c r="BA28" s="52"/>
-      <c r="BB28" s="52"/>
-      <c r="BC28" s="52"/>
-      <c r="BD28" s="52"/>
-      <c r="BE28" s="52"/>
-      <c r="BF28" s="52"/>
-      <c r="BG28" s="52"/>
-      <c r="BH28" s="52"/>
-      <c r="BJ28" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="BK28" s="52"/>
-      <c r="BL28" s="52"/>
-      <c r="BM28" s="52"/>
-      <c r="BN28" s="52"/>
-      <c r="BO28" s="52"/>
-      <c r="BP28" s="52"/>
-      <c r="BQ28" s="52"/>
-      <c r="BR28" s="52"/>
-      <c r="BS28" s="52"/>
-      <c r="BT28" s="52"/>
-      <c r="BU28" s="52"/>
-      <c r="BV28" s="52"/>
-      <c r="BW28" s="52"/>
+      <c r="BK28" s="88"/>
+      <c r="BL28" s="88"/>
+      <c r="BM28" s="88"/>
+      <c r="BN28" s="88"/>
+      <c r="BO28" s="88"/>
+      <c r="BP28" s="88"/>
+      <c r="BQ28" s="88"/>
+      <c r="BR28" s="88"/>
+      <c r="BS28" s="88"/>
+      <c r="BT28" s="88"/>
+      <c r="BU28" s="88"/>
+      <c r="BV28" s="88"/>
+      <c r="BW28" s="88"/>
       <c r="BY28" s="23"/>
       <c r="BZ28" s="23"/>
       <c r="CA28" s="45"/>
@@ -8118,13 +8118,13 @@
       <c r="AE29" s="23"/>
       <c r="AF29" s="23"/>
       <c r="AG29" s="23"/>
-      <c r="AH29" s="55"/>
-      <c r="AI29" s="55"/>
-      <c r="AJ29" s="55"/>
-      <c r="AK29" s="55"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="55"/>
-      <c r="AN29" s="55"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="52"/>
+      <c r="AL29" s="52"/>
+      <c r="AM29" s="52"/>
+      <c r="AN29" s="52"/>
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
@@ -8202,13 +8202,13 @@
       <c r="AE30" s="23"/>
       <c r="AF30" s="23"/>
       <c r="AG30" s="23"/>
-      <c r="AH30" s="55"/>
-      <c r="AI30" s="55"/>
-      <c r="AJ30" s="55"/>
-      <c r="AK30" s="55"/>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="55"/>
-      <c r="AN30" s="55"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="52"/>
+      <c r="AL30" s="52"/>
+      <c r="AM30" s="52"/>
+      <c r="AN30" s="52"/>
       <c r="AO30" s="26"/>
       <c r="AP30" s="26"/>
       <c r="AQ30" s="26"/>
@@ -8232,7 +8232,7 @@
       <c r="BM30" s="23"/>
       <c r="BN30" s="23"/>
       <c r="BO30" s="110" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BP30" s="111"/>
       <c r="BQ30" s="111"/>
@@ -8257,7 +8257,7 @@
       <c r="CK30" s="23"/>
       <c r="CL30" s="26"/>
       <c r="CQ30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8291,13 +8291,13 @@
       <c r="AE31" s="23"/>
       <c r="AF31" s="23"/>
       <c r="AG31" s="23"/>
-      <c r="AH31" s="55"/>
-      <c r="AI31" s="55"/>
-      <c r="AJ31" s="55"/>
-      <c r="AK31" s="55"/>
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="55"/>
-      <c r="AN31" s="55"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="52"/>
+      <c r="AL31" s="52"/>
+      <c r="AM31" s="52"/>
+      <c r="AN31" s="52"/>
       <c r="AO31" s="26"/>
       <c r="AP31" s="26"/>
       <c r="AQ31" s="26"/>
@@ -8375,13 +8375,13 @@
       <c r="AE32" s="26"/>
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="55"/>
-      <c r="AJ32" s="55"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="55"/>
-      <c r="AN32" s="55"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="52"/>
+      <c r="AM32" s="52"/>
+      <c r="AN32" s="52"/>
       <c r="AO32" s="26"/>
       <c r="AP32" s="26"/>
       <c r="AQ32" s="26"/>
@@ -8389,7 +8389,7 @@
       <c r="AV32" s="23"/>
       <c r="AW32" s="23"/>
       <c r="AX32" s="101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AY32" s="102"/>
       <c r="AZ32" s="102"/>
@@ -8461,13 +8461,13 @@
       <c r="AE33" s="26"/>
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
-      <c r="AH33" s="55"/>
-      <c r="AI33" s="55"/>
-      <c r="AJ33" s="55"/>
-      <c r="AK33" s="55"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="55"/>
-      <c r="AN33" s="55"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52"/>
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="52"/>
+      <c r="AN33" s="52"/>
       <c r="AO33" s="26"/>
       <c r="AP33" s="26"/>
       <c r="AQ33" s="26"/>
@@ -8769,45 +8769,45 @@
       <c r="BW37" s="23"/>
     </row>
     <row r="38" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54"/>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="54"/>
-      <c r="AD38" s="54"/>
-      <c r="AE38" s="54"/>
-      <c r="AF38" s="54"/>
-      <c r="AG38" s="54"/>
-      <c r="AH38" s="54"/>
-      <c r="AI38" s="54"/>
-      <c r="AJ38" s="54"/>
-      <c r="AK38" s="54"/>
-      <c r="AL38" s="54"/>
-      <c r="AM38" s="54"/>
-      <c r="AN38" s="54"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="90"/>
+      <c r="U38" s="90"/>
+      <c r="V38" s="90"/>
+      <c r="W38" s="90"/>
+      <c r="X38" s="90"/>
+      <c r="Y38" s="90"/>
+      <c r="Z38" s="90"/>
+      <c r="AA38" s="90"/>
+      <c r="AB38" s="90"/>
+      <c r="AC38" s="90"/>
+      <c r="AD38" s="90"/>
+      <c r="AE38" s="90"/>
+      <c r="AF38" s="90"/>
+      <c r="AG38" s="90"/>
+      <c r="AH38" s="90"/>
+      <c r="AI38" s="90"/>
+      <c r="AJ38" s="90"/>
+      <c r="AK38" s="90"/>
+      <c r="AL38" s="90"/>
+      <c r="AM38" s="90"/>
+      <c r="AN38" s="90"/>
       <c r="AU38" s="26"/>
       <c r="AV38" s="23"/>
       <c r="AW38" s="23"/>
@@ -8839,50 +8839,50 @@
     </row>
     <row r="39" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88"/>
+      <c r="V39" s="88"/>
+      <c r="W39" s="88"/>
+      <c r="X39" s="88"/>
+      <c r="Y39" s="88"/>
+      <c r="Z39" s="88"/>
+      <c r="AA39" s="88"/>
+      <c r="AB39" s="88"/>
+      <c r="AC39" s="88"/>
+      <c r="AD39" s="88"/>
+      <c r="AE39" s="88"/>
+      <c r="AF39" s="88"/>
+      <c r="AG39" s="88"/>
+      <c r="AH39" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="E39" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52"/>
-      <c r="AH39" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI39" s="52"/>
-      <c r="AJ39" s="52"/>
-      <c r="AK39" s="52"/>
-      <c r="AL39" s="52"/>
-      <c r="AM39" s="52"/>
-      <c r="AN39" s="52"/>
+      <c r="AI39" s="88"/>
+      <c r="AJ39" s="88"/>
+      <c r="AK39" s="88"/>
+      <c r="AL39" s="88"/>
+      <c r="AM39" s="88"/>
+      <c r="AN39" s="88"/>
       <c r="AO39" s="31"/>
       <c r="AP39" s="31"/>
       <c r="AQ39" s="31"/>
@@ -8919,48 +8919,48 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="52"/>
-      <c r="AF40" s="52"/>
-      <c r="AG40" s="52"/>
-      <c r="AH40" s="52" t="s">
+      <c r="F40" s="88"/>
+      <c r="G40" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="88"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88"/>
+      <c r="V40" s="88"/>
+      <c r="W40" s="88"/>
+      <c r="X40" s="88"/>
+      <c r="Y40" s="88"/>
+      <c r="Z40" s="88"/>
+      <c r="AA40" s="88"/>
+      <c r="AB40" s="88"/>
+      <c r="AC40" s="88"/>
+      <c r="AD40" s="88"/>
+      <c r="AE40" s="88"/>
+      <c r="AF40" s="88"/>
+      <c r="AG40" s="88"/>
+      <c r="AH40" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="AI40" s="52"/>
-      <c r="AJ40" s="52"/>
-      <c r="AK40" s="52"/>
-      <c r="AL40" s="52"/>
-      <c r="AM40" s="52"/>
-      <c r="AN40" s="52"/>
+      <c r="AI40" s="88"/>
+      <c r="AJ40" s="88"/>
+      <c r="AK40" s="88"/>
+      <c r="AL40" s="88"/>
+      <c r="AM40" s="88"/>
+      <c r="AN40" s="88"/>
       <c r="AU40" s="26"/>
       <c r="AV40" s="23"/>
       <c r="AW40" s="23"/>
@@ -8994,48 +8994,48 @@
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="E41" s="52" t="s">
+      <c r="E41" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="52"/>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="52"/>
-      <c r="AF41" s="52"/>
-      <c r="AG41" s="52"/>
-      <c r="AH41" s="52" t="s">
+      <c r="F41" s="88"/>
+      <c r="G41" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="88"/>
+      <c r="U41" s="88"/>
+      <c r="V41" s="88"/>
+      <c r="W41" s="88"/>
+      <c r="X41" s="88"/>
+      <c r="Y41" s="88"/>
+      <c r="Z41" s="88"/>
+      <c r="AA41" s="88"/>
+      <c r="AB41" s="88"/>
+      <c r="AC41" s="88"/>
+      <c r="AD41" s="88"/>
+      <c r="AE41" s="88"/>
+      <c r="AF41" s="88"/>
+      <c r="AG41" s="88"/>
+      <c r="AH41" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="AI41" s="52"/>
-      <c r="AJ41" s="52"/>
-      <c r="AK41" s="52"/>
-      <c r="AL41" s="52"/>
-      <c r="AM41" s="52"/>
-      <c r="AN41" s="52"/>
+      <c r="AI41" s="88"/>
+      <c r="AJ41" s="88"/>
+      <c r="AK41" s="88"/>
+      <c r="AL41" s="88"/>
+      <c r="AM41" s="88"/>
+      <c r="AN41" s="88"/>
       <c r="AU41" s="26"/>
       <c r="AV41" s="23"/>
       <c r="AW41" s="23"/>
@@ -9069,48 +9069,48 @@
       <c r="D42">
         <v>3</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52"/>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="52"/>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="52"/>
-      <c r="AB42" s="52"/>
-      <c r="AC42" s="52"/>
-      <c r="AD42" s="52"/>
-      <c r="AE42" s="52"/>
-      <c r="AF42" s="52"/>
-      <c r="AG42" s="52"/>
-      <c r="AH42" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI42" s="52"/>
-      <c r="AJ42" s="52"/>
-      <c r="AK42" s="52"/>
-      <c r="AL42" s="52"/>
-      <c r="AM42" s="52"/>
-      <c r="AN42" s="52"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="88"/>
+      <c r="Q42" s="88"/>
+      <c r="R42" s="88"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="88"/>
+      <c r="U42" s="88"/>
+      <c r="V42" s="88"/>
+      <c r="W42" s="88"/>
+      <c r="X42" s="88"/>
+      <c r="Y42" s="88"/>
+      <c r="Z42" s="88"/>
+      <c r="AA42" s="88"/>
+      <c r="AB42" s="88"/>
+      <c r="AC42" s="88"/>
+      <c r="AD42" s="88"/>
+      <c r="AE42" s="88"/>
+      <c r="AF42" s="88"/>
+      <c r="AG42" s="88"/>
+      <c r="AH42" s="88" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI42" s="88"/>
+      <c r="AJ42" s="88"/>
+      <c r="AK42" s="88"/>
+      <c r="AL42" s="88"/>
+      <c r="AM42" s="88"/>
+      <c r="AN42" s="88"/>
       <c r="AU42" s="26"/>
       <c r="AV42" s="26"/>
       <c r="AW42" s="26"/>
@@ -9144,1709 +9144,1701 @@
       <c r="D43">
         <v>4</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="52"/>
-      <c r="T43" s="52"/>
-      <c r="U43" s="52"/>
-      <c r="V43" s="52"/>
-      <c r="W43" s="52"/>
-      <c r="X43" s="52"/>
-      <c r="Y43" s="52"/>
-      <c r="Z43" s="52"/>
-      <c r="AA43" s="52"/>
-      <c r="AB43" s="52"/>
-      <c r="AC43" s="52"/>
-      <c r="AD43" s="52"/>
-      <c r="AE43" s="52"/>
-      <c r="AF43" s="52"/>
-      <c r="AG43" s="52"/>
-      <c r="AH43" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI43" s="52"/>
-      <c r="AJ43" s="52"/>
-      <c r="AK43" s="52"/>
-      <c r="AL43" s="52"/>
-      <c r="AM43" s="52"/>
-      <c r="AN43" s="52"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="88"/>
+      <c r="Q43" s="88"/>
+      <c r="R43" s="88"/>
+      <c r="S43" s="88"/>
+      <c r="T43" s="88"/>
+      <c r="U43" s="88"/>
+      <c r="V43" s="88"/>
+      <c r="W43" s="88"/>
+      <c r="X43" s="88"/>
+      <c r="Y43" s="88"/>
+      <c r="Z43" s="88"/>
+      <c r="AA43" s="88"/>
+      <c r="AB43" s="88"/>
+      <c r="AC43" s="88"/>
+      <c r="AD43" s="88"/>
+      <c r="AE43" s="88"/>
+      <c r="AF43" s="88"/>
+      <c r="AG43" s="88"/>
+      <c r="AH43" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI43" s="88"/>
+      <c r="AJ43" s="88"/>
+      <c r="AK43" s="88"/>
+      <c r="AL43" s="88"/>
+      <c r="AM43" s="88"/>
+      <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D44">
         <v>5</v>
       </c>
-      <c r="E44" s="52" t="s">
+      <c r="E44" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52" t="s">
+      <c r="F44" s="88"/>
+      <c r="G44" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="88"/>
+      <c r="N44" s="88"/>
+      <c r="O44" s="88"/>
+      <c r="P44" s="88"/>
+      <c r="Q44" s="88"/>
+      <c r="R44" s="88"/>
+      <c r="S44" s="88"/>
+      <c r="T44" s="88"/>
+      <c r="U44" s="88"/>
+      <c r="V44" s="88"/>
+      <c r="W44" s="88"/>
+      <c r="X44" s="88"/>
+      <c r="Y44" s="88"/>
+      <c r="Z44" s="88"/>
+      <c r="AA44" s="88"/>
+      <c r="AB44" s="88"/>
+      <c r="AC44" s="88"/>
+      <c r="AD44" s="88"/>
+      <c r="AE44" s="88"/>
+      <c r="AF44" s="88"/>
+      <c r="AG44" s="88"/>
+      <c r="AH44" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="52"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="52"/>
-      <c r="V44" s="52"/>
-      <c r="W44" s="52"/>
-      <c r="X44" s="52"/>
-      <c r="Y44" s="52"/>
-      <c r="Z44" s="52"/>
-      <c r="AA44" s="52"/>
-      <c r="AB44" s="52"/>
-      <c r="AC44" s="52"/>
-      <c r="AD44" s="52"/>
-      <c r="AE44" s="52"/>
-      <c r="AF44" s="52"/>
-      <c r="AG44" s="52"/>
-      <c r="AH44" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI44" s="52"/>
-      <c r="AJ44" s="52"/>
-      <c r="AK44" s="52"/>
-      <c r="AL44" s="52"/>
-      <c r="AM44" s="52"/>
-      <c r="AN44" s="52"/>
+      <c r="AI44" s="88"/>
+      <c r="AJ44" s="88"/>
+      <c r="AK44" s="88"/>
+      <c r="AL44" s="88"/>
+      <c r="AM44" s="88"/>
+      <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45">
         <v>6</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="52"/>
-      <c r="U45" s="52"/>
-      <c r="V45" s="52"/>
-      <c r="W45" s="52"/>
-      <c r="X45" s="52"/>
-      <c r="Y45" s="52"/>
-      <c r="Z45" s="52"/>
-      <c r="AA45" s="52"/>
-      <c r="AB45" s="52"/>
-      <c r="AC45" s="52"/>
-      <c r="AD45" s="52"/>
-      <c r="AE45" s="52"/>
-      <c r="AF45" s="52"/>
-      <c r="AG45" s="52"/>
-      <c r="AH45" s="52" t="s">
+      <c r="F45" s="88"/>
+      <c r="G45" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="AI45" s="52"/>
-      <c r="AJ45" s="52"/>
-      <c r="AK45" s="52"/>
-      <c r="AL45" s="52"/>
-      <c r="AM45" s="52"/>
-      <c r="AN45" s="52"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="88"/>
+      <c r="P45" s="88"/>
+      <c r="Q45" s="88"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="88"/>
+      <c r="U45" s="88"/>
+      <c r="V45" s="88"/>
+      <c r="W45" s="88"/>
+      <c r="X45" s="88"/>
+      <c r="Y45" s="88"/>
+      <c r="Z45" s="88"/>
+      <c r="AA45" s="88"/>
+      <c r="AB45" s="88"/>
+      <c r="AC45" s="88"/>
+      <c r="AD45" s="88"/>
+      <c r="AE45" s="88"/>
+      <c r="AF45" s="88"/>
+      <c r="AG45" s="88"/>
+      <c r="AH45" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI45" s="88"/>
+      <c r="AJ45" s="88"/>
+      <c r="AK45" s="88"/>
+      <c r="AL45" s="88"/>
+      <c r="AM45" s="88"/>
+      <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46">
         <v>7</v>
       </c>
-      <c r="E46" s="52" t="s">
+      <c r="E46" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="52"/>
-      <c r="U46" s="52"/>
-      <c r="V46" s="52"/>
-      <c r="W46" s="52"/>
-      <c r="X46" s="52"/>
-      <c r="Y46" s="52"/>
-      <c r="Z46" s="52"/>
-      <c r="AA46" s="52"/>
-      <c r="AB46" s="52"/>
-      <c r="AC46" s="52"/>
-      <c r="AD46" s="52"/>
-      <c r="AE46" s="52"/>
-      <c r="AF46" s="52"/>
-      <c r="AG46" s="52"/>
-      <c r="AH46" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI46" s="52"/>
-      <c r="AJ46" s="52"/>
-      <c r="AK46" s="52"/>
-      <c r="AL46" s="52"/>
-      <c r="AM46" s="52"/>
-      <c r="AN46" s="52"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="88"/>
+      <c r="N46" s="88"/>
+      <c r="O46" s="88"/>
+      <c r="P46" s="88"/>
+      <c r="Q46" s="88"/>
+      <c r="R46" s="88"/>
+      <c r="S46" s="88"/>
+      <c r="T46" s="88"/>
+      <c r="U46" s="88"/>
+      <c r="V46" s="88"/>
+      <c r="W46" s="88"/>
+      <c r="X46" s="88"/>
+      <c r="Y46" s="88"/>
+      <c r="Z46" s="88"/>
+      <c r="AA46" s="88"/>
+      <c r="AB46" s="88"/>
+      <c r="AC46" s="88"/>
+      <c r="AD46" s="88"/>
+      <c r="AE46" s="88"/>
+      <c r="AF46" s="88"/>
+      <c r="AG46" s="88"/>
+      <c r="AH46" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI46" s="88"/>
+      <c r="AJ46" s="88"/>
+      <c r="AK46" s="88"/>
+      <c r="AL46" s="88"/>
+      <c r="AM46" s="88"/>
+      <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47">
         <v>8</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="E47" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="52"/>
-      <c r="U47" s="52"/>
-      <c r="V47" s="52"/>
-      <c r="W47" s="52"/>
-      <c r="X47" s="52"/>
-      <c r="Y47" s="52"/>
-      <c r="Z47" s="52"/>
-      <c r="AA47" s="52"/>
-      <c r="AB47" s="52"/>
-      <c r="AC47" s="52"/>
-      <c r="AD47" s="52"/>
-      <c r="AE47" s="52"/>
-      <c r="AF47" s="52"/>
-      <c r="AG47" s="52"/>
-      <c r="AH47" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI47" s="52"/>
-      <c r="AJ47" s="52"/>
-      <c r="AK47" s="52"/>
-      <c r="AL47" s="52"/>
-      <c r="AM47" s="52"/>
-      <c r="AN47" s="52"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="88"/>
+      <c r="P47" s="88"/>
+      <c r="Q47" s="88"/>
+      <c r="R47" s="88"/>
+      <c r="S47" s="88"/>
+      <c r="T47" s="88"/>
+      <c r="U47" s="88"/>
+      <c r="V47" s="88"/>
+      <c r="W47" s="88"/>
+      <c r="X47" s="88"/>
+      <c r="Y47" s="88"/>
+      <c r="Z47" s="88"/>
+      <c r="AA47" s="88"/>
+      <c r="AB47" s="88"/>
+      <c r="AC47" s="88"/>
+      <c r="AD47" s="88"/>
+      <c r="AE47" s="88"/>
+      <c r="AF47" s="88"/>
+      <c r="AG47" s="88"/>
+      <c r="AH47" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI47" s="88"/>
+      <c r="AJ47" s="88"/>
+      <c r="AK47" s="88"/>
+      <c r="AL47" s="88"/>
+      <c r="AM47" s="88"/>
+      <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48">
         <v>9</v>
       </c>
-      <c r="E48" s="52" t="s">
+      <c r="E48" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="52"/>
-      <c r="W48" s="52"/>
-      <c r="X48" s="52"/>
-      <c r="Y48" s="52"/>
-      <c r="Z48" s="52"/>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="52"/>
-      <c r="AC48" s="52"/>
-      <c r="AD48" s="52"/>
-      <c r="AE48" s="52"/>
-      <c r="AF48" s="52"/>
-      <c r="AG48" s="52"/>
-      <c r="AH48" s="52" t="s">
+      <c r="F48" s="88"/>
+      <c r="G48" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="AI48" s="52"/>
-      <c r="AJ48" s="52"/>
-      <c r="AK48" s="52"/>
-      <c r="AL48" s="52"/>
-      <c r="AM48" s="52"/>
-      <c r="AN48" s="52"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="88"/>
+      <c r="P48" s="88"/>
+      <c r="Q48" s="88"/>
+      <c r="R48" s="88"/>
+      <c r="S48" s="88"/>
+      <c r="T48" s="88"/>
+      <c r="U48" s="88"/>
+      <c r="V48" s="88"/>
+      <c r="W48" s="88"/>
+      <c r="X48" s="88"/>
+      <c r="Y48" s="88"/>
+      <c r="Z48" s="88"/>
+      <c r="AA48" s="88"/>
+      <c r="AB48" s="88"/>
+      <c r="AC48" s="88"/>
+      <c r="AD48" s="88"/>
+      <c r="AE48" s="88"/>
+      <c r="AF48" s="88"/>
+      <c r="AG48" s="88"/>
+      <c r="AH48" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI48" s="88"/>
+      <c r="AJ48" s="88"/>
+      <c r="AK48" s="88"/>
+      <c r="AL48" s="88"/>
+      <c r="AM48" s="88"/>
+      <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49">
         <v>10</v>
       </c>
-      <c r="E49" s="52" t="s">
+      <c r="E49" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52" t="s">
+      <c r="F49" s="88"/>
+      <c r="G49" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="88"/>
+      <c r="N49" s="88"/>
+      <c r="O49" s="88"/>
+      <c r="P49" s="88"/>
+      <c r="Q49" s="88"/>
+      <c r="R49" s="88"/>
+      <c r="S49" s="88"/>
+      <c r="T49" s="88"/>
+      <c r="U49" s="88"/>
+      <c r="V49" s="88"/>
+      <c r="W49" s="88"/>
+      <c r="X49" s="88"/>
+      <c r="Y49" s="88"/>
+      <c r="Z49" s="88"/>
+      <c r="AA49" s="88"/>
+      <c r="AB49" s="88"/>
+      <c r="AC49" s="88"/>
+      <c r="AD49" s="88"/>
+      <c r="AE49" s="88"/>
+      <c r="AF49" s="88"/>
+      <c r="AG49" s="88"/>
+      <c r="AH49" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="52"/>
-      <c r="U49" s="52"/>
-      <c r="V49" s="52"/>
-      <c r="W49" s="52"/>
-      <c r="X49" s="52"/>
-      <c r="Y49" s="52"/>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="52"/>
-      <c r="AB49" s="52"/>
-      <c r="AC49" s="52"/>
-      <c r="AD49" s="52"/>
-      <c r="AE49" s="52"/>
-      <c r="AF49" s="52"/>
-      <c r="AG49" s="52"/>
-      <c r="AH49" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI49" s="52"/>
-      <c r="AJ49" s="52"/>
-      <c r="AK49" s="52"/>
-      <c r="AL49" s="52"/>
-      <c r="AM49" s="52"/>
-      <c r="AN49" s="52"/>
+      <c r="AI49" s="88"/>
+      <c r="AJ49" s="88"/>
+      <c r="AK49" s="88"/>
+      <c r="AL49" s="88"/>
+      <c r="AM49" s="88"/>
+      <c r="AN49" s="88"/>
     </row>
     <row r="50" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50">
         <v>11</v>
       </c>
-      <c r="E50" s="52" t="s">
+      <c r="E50" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="52"/>
-      <c r="S50" s="52"/>
-      <c r="T50" s="52"/>
-      <c r="U50" s="52"/>
-      <c r="V50" s="52"/>
-      <c r="W50" s="52"/>
-      <c r="X50" s="52"/>
-      <c r="Y50" s="52"/>
-      <c r="Z50" s="52"/>
-      <c r="AA50" s="52"/>
-      <c r="AB50" s="52"/>
-      <c r="AC50" s="52"/>
-      <c r="AD50" s="52"/>
-      <c r="AE50" s="52"/>
-      <c r="AF50" s="52"/>
-      <c r="AG50" s="52"/>
-      <c r="AH50" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI50" s="52"/>
-      <c r="AJ50" s="52"/>
-      <c r="AK50" s="52"/>
-      <c r="AL50" s="52"/>
-      <c r="AM50" s="52"/>
-      <c r="AN50" s="52"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="88"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="88"/>
+      <c r="P50" s="88"/>
+      <c r="Q50" s="88"/>
+      <c r="R50" s="88"/>
+      <c r="S50" s="88"/>
+      <c r="T50" s="88"/>
+      <c r="U50" s="88"/>
+      <c r="V50" s="88"/>
+      <c r="W50" s="88"/>
+      <c r="X50" s="88"/>
+      <c r="Y50" s="88"/>
+      <c r="Z50" s="88"/>
+      <c r="AA50" s="88"/>
+      <c r="AB50" s="88"/>
+      <c r="AC50" s="88"/>
+      <c r="AD50" s="88"/>
+      <c r="AE50" s="88"/>
+      <c r="AF50" s="88"/>
+      <c r="AG50" s="88"/>
+      <c r="AH50" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI50" s="88"/>
+      <c r="AJ50" s="88"/>
+      <c r="AK50" s="88"/>
+      <c r="AL50" s="88"/>
+      <c r="AM50" s="88"/>
+      <c r="AN50" s="88"/>
     </row>
     <row r="51" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51">
         <v>12</v>
       </c>
-      <c r="E51" s="52" t="s">
+      <c r="E51" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
-      <c r="U51" s="52"/>
-      <c r="V51" s="52"/>
-      <c r="W51" s="52"/>
-      <c r="X51" s="52"/>
-      <c r="Y51" s="52"/>
-      <c r="Z51" s="52"/>
-      <c r="AA51" s="52"/>
-      <c r="AB51" s="52"/>
-      <c r="AC51" s="52"/>
-      <c r="AD51" s="52"/>
-      <c r="AE51" s="52"/>
-      <c r="AF51" s="52"/>
-      <c r="AG51" s="52"/>
-      <c r="AH51" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI51" s="52"/>
-      <c r="AJ51" s="52"/>
-      <c r="AK51" s="52"/>
-      <c r="AL51" s="52"/>
-      <c r="AM51" s="52"/>
-      <c r="AN51" s="52"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="88"/>
+      <c r="N51" s="88"/>
+      <c r="O51" s="88"/>
+      <c r="P51" s="88"/>
+      <c r="Q51" s="88"/>
+      <c r="R51" s="88"/>
+      <c r="S51" s="88"/>
+      <c r="T51" s="88"/>
+      <c r="U51" s="88"/>
+      <c r="V51" s="88"/>
+      <c r="W51" s="88"/>
+      <c r="X51" s="88"/>
+      <c r="Y51" s="88"/>
+      <c r="Z51" s="88"/>
+      <c r="AA51" s="88"/>
+      <c r="AB51" s="88"/>
+      <c r="AC51" s="88"/>
+      <c r="AD51" s="88"/>
+      <c r="AE51" s="88"/>
+      <c r="AF51" s="88"/>
+      <c r="AG51" s="88"/>
+      <c r="AH51" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI51" s="88"/>
+      <c r="AJ51" s="88"/>
+      <c r="AK51" s="88"/>
+      <c r="AL51" s="88"/>
+      <c r="AM51" s="88"/>
+      <c r="AN51" s="88"/>
     </row>
     <row r="52" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52">
         <v>13</v>
       </c>
-      <c r="E52" s="52" t="s">
+      <c r="E52" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="52"/>
-      <c r="U52" s="52"/>
-      <c r="V52" s="52"/>
-      <c r="W52" s="52"/>
-      <c r="X52" s="52"/>
-      <c r="Y52" s="52"/>
-      <c r="Z52" s="52"/>
-      <c r="AA52" s="52"/>
-      <c r="AB52" s="52"/>
-      <c r="AC52" s="52"/>
-      <c r="AD52" s="52"/>
-      <c r="AE52" s="52"/>
-      <c r="AF52" s="52"/>
-      <c r="AG52" s="52"/>
-      <c r="AH52" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI52" s="52"/>
-      <c r="AJ52" s="52"/>
-      <c r="AK52" s="52"/>
-      <c r="AL52" s="52"/>
-      <c r="AM52" s="52"/>
-      <c r="AN52" s="52"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="88"/>
+      <c r="K52" s="88"/>
+      <c r="L52" s="88"/>
+      <c r="M52" s="88"/>
+      <c r="N52" s="88"/>
+      <c r="O52" s="88"/>
+      <c r="P52" s="88"/>
+      <c r="Q52" s="88"/>
+      <c r="R52" s="88"/>
+      <c r="S52" s="88"/>
+      <c r="T52" s="88"/>
+      <c r="U52" s="88"/>
+      <c r="V52" s="88"/>
+      <c r="W52" s="88"/>
+      <c r="X52" s="88"/>
+      <c r="Y52" s="88"/>
+      <c r="Z52" s="88"/>
+      <c r="AA52" s="88"/>
+      <c r="AB52" s="88"/>
+      <c r="AC52" s="88"/>
+      <c r="AD52" s="88"/>
+      <c r="AE52" s="88"/>
+      <c r="AF52" s="88"/>
+      <c r="AG52" s="88"/>
+      <c r="AH52" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI52" s="88"/>
+      <c r="AJ52" s="88"/>
+      <c r="AK52" s="88"/>
+      <c r="AL52" s="88"/>
+      <c r="AM52" s="88"/>
+      <c r="AN52" s="88"/>
     </row>
     <row r="53" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53">
         <v>14</v>
       </c>
-      <c r="E53" s="52" t="s">
+      <c r="E53" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
-      <c r="U53" s="52"/>
-      <c r="V53" s="52"/>
-      <c r="W53" s="52"/>
-      <c r="X53" s="52"/>
-      <c r="Y53" s="52"/>
-      <c r="Z53" s="52"/>
-      <c r="AA53" s="52"/>
-      <c r="AB53" s="52"/>
-      <c r="AC53" s="52"/>
-      <c r="AD53" s="52"/>
-      <c r="AE53" s="52"/>
-      <c r="AF53" s="52"/>
-      <c r="AG53" s="52"/>
-      <c r="AH53" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI53" s="52"/>
-      <c r="AJ53" s="52"/>
-      <c r="AK53" s="52"/>
-      <c r="AL53" s="52"/>
-      <c r="AM53" s="52"/>
-      <c r="AN53" s="52"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
+      <c r="K53" s="88"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="88"/>
+      <c r="N53" s="88"/>
+      <c r="O53" s="88"/>
+      <c r="P53" s="88"/>
+      <c r="Q53" s="88"/>
+      <c r="R53" s="88"/>
+      <c r="S53" s="88"/>
+      <c r="T53" s="88"/>
+      <c r="U53" s="88"/>
+      <c r="V53" s="88"/>
+      <c r="W53" s="88"/>
+      <c r="X53" s="88"/>
+      <c r="Y53" s="88"/>
+      <c r="Z53" s="88"/>
+      <c r="AA53" s="88"/>
+      <c r="AB53" s="88"/>
+      <c r="AC53" s="88"/>
+      <c r="AD53" s="88"/>
+      <c r="AE53" s="88"/>
+      <c r="AF53" s="88"/>
+      <c r="AG53" s="88"/>
+      <c r="AH53" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI53" s="88"/>
+      <c r="AJ53" s="88"/>
+      <c r="AK53" s="88"/>
+      <c r="AL53" s="88"/>
+      <c r="AM53" s="88"/>
+      <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54">
         <v>15</v>
       </c>
-      <c r="E54" s="52" t="s">
+      <c r="E54" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="52"/>
-      <c r="V54" s="52"/>
-      <c r="W54" s="52"/>
-      <c r="X54" s="52"/>
-      <c r="Y54" s="52"/>
-      <c r="Z54" s="52"/>
-      <c r="AA54" s="52"/>
-      <c r="AB54" s="52"/>
-      <c r="AC54" s="52"/>
-      <c r="AD54" s="52"/>
-      <c r="AE54" s="52"/>
-      <c r="AF54" s="52"/>
-      <c r="AG54" s="52"/>
-      <c r="AH54" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI54" s="52"/>
-      <c r="AJ54" s="52"/>
-      <c r="AK54" s="52"/>
-      <c r="AL54" s="52"/>
-      <c r="AM54" s="52"/>
-      <c r="AN54" s="52"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="88"/>
+      <c r="L54" s="88"/>
+      <c r="M54" s="88"/>
+      <c r="N54" s="88"/>
+      <c r="O54" s="88"/>
+      <c r="P54" s="88"/>
+      <c r="Q54" s="88"/>
+      <c r="R54" s="88"/>
+      <c r="S54" s="88"/>
+      <c r="T54" s="88"/>
+      <c r="U54" s="88"/>
+      <c r="V54" s="88"/>
+      <c r="W54" s="88"/>
+      <c r="X54" s="88"/>
+      <c r="Y54" s="88"/>
+      <c r="Z54" s="88"/>
+      <c r="AA54" s="88"/>
+      <c r="AB54" s="88"/>
+      <c r="AC54" s="88"/>
+      <c r="AD54" s="88"/>
+      <c r="AE54" s="88"/>
+      <c r="AF54" s="88"/>
+      <c r="AG54" s="88"/>
+      <c r="AH54" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI54" s="88"/>
+      <c r="AJ54" s="88"/>
+      <c r="AK54" s="88"/>
+      <c r="AL54" s="88"/>
+      <c r="AM54" s="88"/>
+      <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55">
         <v>16</v>
       </c>
-      <c r="E55" s="52" t="s">
+      <c r="E55" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
-      <c r="U55" s="52"/>
-      <c r="V55" s="52"/>
-      <c r="W55" s="52"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="52"/>
-      <c r="Z55" s="52"/>
-      <c r="AA55" s="52"/>
-      <c r="AB55" s="52"/>
-      <c r="AC55" s="52"/>
-      <c r="AD55" s="52"/>
-      <c r="AE55" s="52"/>
-      <c r="AF55" s="52"/>
-      <c r="AG55" s="52"/>
-      <c r="AH55" s="52" t="s">
+      <c r="F55" s="88"/>
+      <c r="G55" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="AI55" s="52"/>
-      <c r="AJ55" s="52"/>
-      <c r="AK55" s="52"/>
-      <c r="AL55" s="52"/>
-      <c r="AM55" s="52"/>
-      <c r="AN55" s="52"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="88"/>
+      <c r="L55" s="88"/>
+      <c r="M55" s="88"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="88"/>
+      <c r="P55" s="88"/>
+      <c r="Q55" s="88"/>
+      <c r="R55" s="88"/>
+      <c r="S55" s="88"/>
+      <c r="T55" s="88"/>
+      <c r="U55" s="88"/>
+      <c r="V55" s="88"/>
+      <c r="W55" s="88"/>
+      <c r="X55" s="88"/>
+      <c r="Y55" s="88"/>
+      <c r="Z55" s="88"/>
+      <c r="AA55" s="88"/>
+      <c r="AB55" s="88"/>
+      <c r="AC55" s="88"/>
+      <c r="AD55" s="88"/>
+      <c r="AE55" s="88"/>
+      <c r="AF55" s="88"/>
+      <c r="AG55" s="88"/>
+      <c r="AH55" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI55" s="88"/>
+      <c r="AJ55" s="88"/>
+      <c r="AK55" s="88"/>
+      <c r="AL55" s="88"/>
+      <c r="AM55" s="88"/>
+      <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D56">
         <v>17</v>
       </c>
-      <c r="E56" s="52" t="s">
+      <c r="E56" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="52"/>
-      <c r="S56" s="52"/>
-      <c r="T56" s="52"/>
-      <c r="U56" s="52"/>
-      <c r="V56" s="52"/>
-      <c r="W56" s="52"/>
-      <c r="X56" s="52"/>
-      <c r="Y56" s="52"/>
-      <c r="Z56" s="52"/>
-      <c r="AA56" s="52"/>
-      <c r="AB56" s="52"/>
-      <c r="AC56" s="52"/>
-      <c r="AD56" s="52"/>
-      <c r="AE56" s="52"/>
-      <c r="AF56" s="52"/>
-      <c r="AG56" s="52"/>
-      <c r="AH56" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI56" s="52"/>
-      <c r="AJ56" s="52"/>
-      <c r="AK56" s="52"/>
-      <c r="AL56" s="52"/>
-      <c r="AM56" s="52"/>
-      <c r="AN56" s="52"/>
+      <c r="F56" s="88"/>
+      <c r="G56" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="88"/>
+      <c r="L56" s="88"/>
+      <c r="M56" s="88"/>
+      <c r="N56" s="88"/>
+      <c r="O56" s="88"/>
+      <c r="P56" s="88"/>
+      <c r="Q56" s="88"/>
+      <c r="R56" s="88"/>
+      <c r="S56" s="88"/>
+      <c r="T56" s="88"/>
+      <c r="U56" s="88"/>
+      <c r="V56" s="88"/>
+      <c r="W56" s="88"/>
+      <c r="X56" s="88"/>
+      <c r="Y56" s="88"/>
+      <c r="Z56" s="88"/>
+      <c r="AA56" s="88"/>
+      <c r="AB56" s="88"/>
+      <c r="AC56" s="88"/>
+      <c r="AD56" s="88"/>
+      <c r="AE56" s="88"/>
+      <c r="AF56" s="88"/>
+      <c r="AG56" s="88"/>
+      <c r="AH56" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI56" s="88"/>
+      <c r="AJ56" s="88"/>
+      <c r="AK56" s="88"/>
+      <c r="AL56" s="88"/>
+      <c r="AM56" s="88"/>
+      <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57">
         <v>18</v>
       </c>
-      <c r="E57" s="52" t="s">
+      <c r="E57" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="52"/>
-      <c r="G57" s="53" t="s">
+      <c r="F57" s="88"/>
+      <c r="G57" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="88"/>
+      <c r="M57" s="88"/>
+      <c r="N57" s="88"/>
+      <c r="O57" s="88"/>
+      <c r="P57" s="88"/>
+      <c r="Q57" s="88"/>
+      <c r="R57" s="88"/>
+      <c r="S57" s="88"/>
+      <c r="T57" s="88"/>
+      <c r="U57" s="88"/>
+      <c r="V57" s="88"/>
+      <c r="W57" s="88"/>
+      <c r="X57" s="88"/>
+      <c r="Y57" s="88"/>
+      <c r="Z57" s="88"/>
+      <c r="AA57" s="88"/>
+      <c r="AB57" s="88"/>
+      <c r="AC57" s="88"/>
+      <c r="AD57" s="88"/>
+      <c r="AE57" s="88"/>
+      <c r="AF57" s="88"/>
+      <c r="AG57" s="88"/>
+      <c r="AH57" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="52"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="52"/>
-      <c r="U57" s="52"/>
-      <c r="V57" s="52"/>
-      <c r="W57" s="52"/>
-      <c r="X57" s="52"/>
-      <c r="Y57" s="52"/>
-      <c r="Z57" s="52"/>
-      <c r="AA57" s="52"/>
-      <c r="AB57" s="52"/>
-      <c r="AC57" s="52"/>
-      <c r="AD57" s="52"/>
-      <c r="AE57" s="52"/>
-      <c r="AF57" s="52"/>
-      <c r="AG57" s="52"/>
-      <c r="AH57" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI57" s="52"/>
-      <c r="AJ57" s="52"/>
-      <c r="AK57" s="52"/>
-      <c r="AL57" s="52"/>
-      <c r="AM57" s="52"/>
-      <c r="AN57" s="52"/>
+      <c r="AI57" s="88"/>
+      <c r="AJ57" s="88"/>
+      <c r="AK57" s="88"/>
+      <c r="AL57" s="88"/>
+      <c r="AM57" s="88"/>
+      <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58">
         <v>19</v>
       </c>
-      <c r="E58" s="52" t="s">
+      <c r="E58" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="52"/>
-      <c r="S58" s="52"/>
-      <c r="T58" s="52"/>
-      <c r="U58" s="52"/>
-      <c r="V58" s="52"/>
-      <c r="W58" s="52"/>
-      <c r="X58" s="52"/>
-      <c r="Y58" s="52"/>
-      <c r="Z58" s="52"/>
-      <c r="AA58" s="52"/>
-      <c r="AB58" s="52"/>
-      <c r="AC58" s="52"/>
-      <c r="AD58" s="52"/>
-      <c r="AE58" s="52"/>
-      <c r="AF58" s="52"/>
-      <c r="AG58" s="52"/>
-      <c r="AH58" s="52" t="s">
+      <c r="F58" s="88"/>
+      <c r="G58" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="AI58" s="52"/>
-      <c r="AJ58" s="52"/>
-      <c r="AK58" s="52"/>
-      <c r="AL58" s="52"/>
-      <c r="AM58" s="52"/>
-      <c r="AN58" s="52"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="88"/>
+      <c r="K58" s="88"/>
+      <c r="L58" s="88"/>
+      <c r="M58" s="88"/>
+      <c r="N58" s="88"/>
+      <c r="O58" s="88"/>
+      <c r="P58" s="88"/>
+      <c r="Q58" s="88"/>
+      <c r="R58" s="88"/>
+      <c r="S58" s="88"/>
+      <c r="T58" s="88"/>
+      <c r="U58" s="88"/>
+      <c r="V58" s="88"/>
+      <c r="W58" s="88"/>
+      <c r="X58" s="88"/>
+      <c r="Y58" s="88"/>
+      <c r="Z58" s="88"/>
+      <c r="AA58" s="88"/>
+      <c r="AB58" s="88"/>
+      <c r="AC58" s="88"/>
+      <c r="AD58" s="88"/>
+      <c r="AE58" s="88"/>
+      <c r="AF58" s="88"/>
+      <c r="AG58" s="88"/>
+      <c r="AH58" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI58" s="88"/>
+      <c r="AJ58" s="88"/>
+      <c r="AK58" s="88"/>
+      <c r="AL58" s="88"/>
+      <c r="AM58" s="88"/>
+      <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D59">
         <v>20</v>
       </c>
-      <c r="E59" s="52" t="s">
+      <c r="E59" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="52"/>
-      <c r="U59" s="52"/>
-      <c r="V59" s="52"/>
-      <c r="W59" s="52"/>
-      <c r="X59" s="52"/>
-      <c r="Y59" s="52"/>
-      <c r="Z59" s="52"/>
-      <c r="AA59" s="52"/>
-      <c r="AB59" s="52"/>
-      <c r="AC59" s="52"/>
-      <c r="AD59" s="52"/>
-      <c r="AE59" s="52"/>
-      <c r="AF59" s="52"/>
-      <c r="AG59" s="52"/>
-      <c r="AH59" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI59" s="52"/>
-      <c r="AJ59" s="52"/>
-      <c r="AK59" s="52"/>
-      <c r="AL59" s="52"/>
-      <c r="AM59" s="52"/>
-      <c r="AN59" s="52"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
+      <c r="K59" s="88"/>
+      <c r="L59" s="88"/>
+      <c r="M59" s="88"/>
+      <c r="N59" s="88"/>
+      <c r="O59" s="88"/>
+      <c r="P59" s="88"/>
+      <c r="Q59" s="88"/>
+      <c r="R59" s="88"/>
+      <c r="S59" s="88"/>
+      <c r="T59" s="88"/>
+      <c r="U59" s="88"/>
+      <c r="V59" s="88"/>
+      <c r="W59" s="88"/>
+      <c r="X59" s="88"/>
+      <c r="Y59" s="88"/>
+      <c r="Z59" s="88"/>
+      <c r="AA59" s="88"/>
+      <c r="AB59" s="88"/>
+      <c r="AC59" s="88"/>
+      <c r="AD59" s="88"/>
+      <c r="AE59" s="88"/>
+      <c r="AF59" s="88"/>
+      <c r="AG59" s="88"/>
+      <c r="AH59" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI59" s="88"/>
+      <c r="AJ59" s="88"/>
+      <c r="AK59" s="88"/>
+      <c r="AL59" s="88"/>
+      <c r="AM59" s="88"/>
+      <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D60">
         <v>21</v>
       </c>
-      <c r="E60" s="52" t="s">
+      <c r="E60" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="52"/>
-      <c r="S60" s="52"/>
-      <c r="T60" s="52"/>
-      <c r="U60" s="52"/>
-      <c r="V60" s="52"/>
-      <c r="W60" s="52"/>
-      <c r="X60" s="52"/>
-      <c r="Y60" s="52"/>
-      <c r="Z60" s="52"/>
-      <c r="AA60" s="52"/>
-      <c r="AB60" s="52"/>
-      <c r="AC60" s="52"/>
-      <c r="AD60" s="52"/>
-      <c r="AE60" s="52"/>
-      <c r="AF60" s="52"/>
-      <c r="AG60" s="52"/>
-      <c r="AH60" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI60" s="52"/>
-      <c r="AJ60" s="52"/>
-      <c r="AK60" s="52"/>
-      <c r="AL60" s="52"/>
-      <c r="AM60" s="52"/>
-      <c r="AN60" s="52"/>
+      <c r="F60" s="88"/>
+      <c r="G60" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="H60" s="88"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="88"/>
+      <c r="L60" s="88"/>
+      <c r="M60" s="88"/>
+      <c r="N60" s="88"/>
+      <c r="O60" s="88"/>
+      <c r="P60" s="88"/>
+      <c r="Q60" s="88"/>
+      <c r="R60" s="88"/>
+      <c r="S60" s="88"/>
+      <c r="T60" s="88"/>
+      <c r="U60" s="88"/>
+      <c r="V60" s="88"/>
+      <c r="W60" s="88"/>
+      <c r="X60" s="88"/>
+      <c r="Y60" s="88"/>
+      <c r="Z60" s="88"/>
+      <c r="AA60" s="88"/>
+      <c r="AB60" s="88"/>
+      <c r="AC60" s="88"/>
+      <c r="AD60" s="88"/>
+      <c r="AE60" s="88"/>
+      <c r="AF60" s="88"/>
+      <c r="AG60" s="88"/>
+      <c r="AH60" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI60" s="88"/>
+      <c r="AJ60" s="88"/>
+      <c r="AK60" s="88"/>
+      <c r="AL60" s="88"/>
+      <c r="AM60" s="88"/>
+      <c r="AN60" s="88"/>
     </row>
     <row r="61" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D61">
         <v>22</v>
       </c>
-      <c r="E61" s="52" t="s">
+      <c r="E61" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="52"/>
-      <c r="G61" s="53" t="s">
+      <c r="F61" s="88"/>
+      <c r="G61" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="H61" s="88"/>
+      <c r="I61" s="88"/>
+      <c r="J61" s="88"/>
+      <c r="K61" s="88"/>
+      <c r="L61" s="88"/>
+      <c r="M61" s="88"/>
+      <c r="N61" s="88"/>
+      <c r="O61" s="88"/>
+      <c r="P61" s="88"/>
+      <c r="Q61" s="88"/>
+      <c r="R61" s="88"/>
+      <c r="S61" s="88"/>
+      <c r="T61" s="88"/>
+      <c r="U61" s="88"/>
+      <c r="V61" s="88"/>
+      <c r="W61" s="88"/>
+      <c r="X61" s="88"/>
+      <c r="Y61" s="88"/>
+      <c r="Z61" s="88"/>
+      <c r="AA61" s="88"/>
+      <c r="AB61" s="88"/>
+      <c r="AC61" s="88"/>
+      <c r="AD61" s="88"/>
+      <c r="AE61" s="88"/>
+      <c r="AF61" s="88"/>
+      <c r="AG61" s="88"/>
+      <c r="AH61" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="52"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="52"/>
-      <c r="U61" s="52"/>
-      <c r="V61" s="52"/>
-      <c r="W61" s="52"/>
-      <c r="X61" s="52"/>
-      <c r="Y61" s="52"/>
-      <c r="Z61" s="52"/>
-      <c r="AA61" s="52"/>
-      <c r="AB61" s="52"/>
-      <c r="AC61" s="52"/>
-      <c r="AD61" s="52"/>
-      <c r="AE61" s="52"/>
-      <c r="AF61" s="52"/>
-      <c r="AG61" s="52"/>
-      <c r="AH61" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI61" s="52"/>
-      <c r="AJ61" s="52"/>
-      <c r="AK61" s="52"/>
-      <c r="AL61" s="52"/>
-      <c r="AM61" s="52"/>
-      <c r="AN61" s="52"/>
+      <c r="AI61" s="88"/>
+      <c r="AJ61" s="88"/>
+      <c r="AK61" s="88"/>
+      <c r="AL61" s="88"/>
+      <c r="AM61" s="88"/>
+      <c r="AN61" s="88"/>
     </row>
     <row r="62" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D62">
         <v>23</v>
       </c>
-      <c r="E62" s="52" t="s">
+      <c r="E62" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53" t="s">
+      <c r="F62" s="88"/>
+      <c r="G62" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="88"/>
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
+      <c r="N62" s="88"/>
+      <c r="O62" s="88"/>
+      <c r="P62" s="88"/>
+      <c r="Q62" s="88"/>
+      <c r="R62" s="88"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="88"/>
+      <c r="U62" s="88"/>
+      <c r="V62" s="88"/>
+      <c r="W62" s="88"/>
+      <c r="X62" s="88"/>
+      <c r="Y62" s="88"/>
+      <c r="Z62" s="88"/>
+      <c r="AA62" s="88"/>
+      <c r="AB62" s="88"/>
+      <c r="AC62" s="88"/>
+      <c r="AD62" s="88"/>
+      <c r="AE62" s="88"/>
+      <c r="AF62" s="88"/>
+      <c r="AG62" s="88"/>
+      <c r="AH62" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="52"/>
-      <c r="S62" s="52"/>
-      <c r="T62" s="52"/>
-      <c r="U62" s="52"/>
-      <c r="V62" s="52"/>
-      <c r="W62" s="52"/>
-      <c r="X62" s="52"/>
-      <c r="Y62" s="52"/>
-      <c r="Z62" s="52"/>
-      <c r="AA62" s="52"/>
-      <c r="AB62" s="52"/>
-      <c r="AC62" s="52"/>
-      <c r="AD62" s="52"/>
-      <c r="AE62" s="52"/>
-      <c r="AF62" s="52"/>
-      <c r="AG62" s="52"/>
-      <c r="AH62" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI62" s="52"/>
-      <c r="AJ62" s="52"/>
-      <c r="AK62" s="52"/>
-      <c r="AL62" s="52"/>
-      <c r="AM62" s="52"/>
-      <c r="AN62" s="52"/>
+      <c r="AI62" s="88"/>
+      <c r="AJ62" s="88"/>
+      <c r="AK62" s="88"/>
+      <c r="AL62" s="88"/>
+      <c r="AM62" s="88"/>
+      <c r="AN62" s="88"/>
     </row>
     <row r="63" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63">
         <v>24</v>
       </c>
-      <c r="E63" s="52" t="s">
+      <c r="E63" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="52"/>
-      <c r="G63" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="52"/>
-      <c r="S63" s="52"/>
-      <c r="T63" s="52"/>
-      <c r="U63" s="52"/>
-      <c r="V63" s="52"/>
-      <c r="W63" s="52"/>
-      <c r="X63" s="52"/>
-      <c r="Y63" s="52"/>
-      <c r="Z63" s="52"/>
-      <c r="AA63" s="52"/>
-      <c r="AB63" s="52"/>
-      <c r="AC63" s="52"/>
-      <c r="AD63" s="52"/>
-      <c r="AE63" s="52"/>
-      <c r="AF63" s="52"/>
-      <c r="AG63" s="52"/>
-      <c r="AH63" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI63" s="52"/>
-      <c r="AJ63" s="52"/>
-      <c r="AK63" s="52"/>
-      <c r="AL63" s="52"/>
-      <c r="AM63" s="52"/>
-      <c r="AN63" s="52"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="H63" s="88"/>
+      <c r="I63" s="88"/>
+      <c r="J63" s="88"/>
+      <c r="K63" s="88"/>
+      <c r="L63" s="88"/>
+      <c r="M63" s="88"/>
+      <c r="N63" s="88"/>
+      <c r="O63" s="88"/>
+      <c r="P63" s="88"/>
+      <c r="Q63" s="88"/>
+      <c r="R63" s="88"/>
+      <c r="S63" s="88"/>
+      <c r="T63" s="88"/>
+      <c r="U63" s="88"/>
+      <c r="V63" s="88"/>
+      <c r="W63" s="88"/>
+      <c r="X63" s="88"/>
+      <c r="Y63" s="88"/>
+      <c r="Z63" s="88"/>
+      <c r="AA63" s="88"/>
+      <c r="AB63" s="88"/>
+      <c r="AC63" s="88"/>
+      <c r="AD63" s="88"/>
+      <c r="AE63" s="88"/>
+      <c r="AF63" s="88"/>
+      <c r="AG63" s="88"/>
+      <c r="AH63" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI63" s="88"/>
+      <c r="AJ63" s="88"/>
+      <c r="AK63" s="88"/>
+      <c r="AL63" s="88"/>
+      <c r="AM63" s="88"/>
+      <c r="AN63" s="88"/>
     </row>
     <row r="64" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D64">
         <v>25</v>
       </c>
-      <c r="E64" s="52" t="s">
+      <c r="E64" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53" t="s">
+      <c r="F64" s="88"/>
+      <c r="G64" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="H64" s="88"/>
+      <c r="I64" s="88"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="88"/>
+      <c r="L64" s="88"/>
+      <c r="M64" s="88"/>
+      <c r="N64" s="88"/>
+      <c r="O64" s="88"/>
+      <c r="P64" s="88"/>
+      <c r="Q64" s="88"/>
+      <c r="R64" s="88"/>
+      <c r="S64" s="88"/>
+      <c r="T64" s="88"/>
+      <c r="U64" s="88"/>
+      <c r="V64" s="88"/>
+      <c r="W64" s="88"/>
+      <c r="X64" s="88"/>
+      <c r="Y64" s="88"/>
+      <c r="Z64" s="88"/>
+      <c r="AA64" s="88"/>
+      <c r="AB64" s="88"/>
+      <c r="AC64" s="88"/>
+      <c r="AD64" s="88"/>
+      <c r="AE64" s="88"/>
+      <c r="AF64" s="88"/>
+      <c r="AG64" s="88"/>
+      <c r="AH64" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="52"/>
-      <c r="S64" s="52"/>
-      <c r="T64" s="52"/>
-      <c r="U64" s="52"/>
-      <c r="V64" s="52"/>
-      <c r="W64" s="52"/>
-      <c r="X64" s="52"/>
-      <c r="Y64" s="52"/>
-      <c r="Z64" s="52"/>
-      <c r="AA64" s="52"/>
-      <c r="AB64" s="52"/>
-      <c r="AC64" s="52"/>
-      <c r="AD64" s="52"/>
-      <c r="AE64" s="52"/>
-      <c r="AF64" s="52"/>
-      <c r="AG64" s="52"/>
-      <c r="AH64" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI64" s="52"/>
-      <c r="AJ64" s="52"/>
-      <c r="AK64" s="52"/>
-      <c r="AL64" s="52"/>
-      <c r="AM64" s="52"/>
-      <c r="AN64" s="52"/>
+      <c r="AI64" s="88"/>
+      <c r="AJ64" s="88"/>
+      <c r="AK64" s="88"/>
+      <c r="AL64" s="88"/>
+      <c r="AM64" s="88"/>
+      <c r="AN64" s="88"/>
     </row>
     <row r="65" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D65">
         <v>26</v>
       </c>
-      <c r="E65" s="52" t="s">
+      <c r="E65" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="52"/>
-      <c r="S65" s="52"/>
-      <c r="T65" s="52"/>
-      <c r="U65" s="52"/>
-      <c r="V65" s="52"/>
-      <c r="W65" s="52"/>
-      <c r="X65" s="52"/>
-      <c r="Y65" s="52"/>
-      <c r="Z65" s="52"/>
-      <c r="AA65" s="52"/>
-      <c r="AB65" s="52"/>
-      <c r="AC65" s="52"/>
-      <c r="AD65" s="52"/>
-      <c r="AE65" s="52"/>
-      <c r="AF65" s="52"/>
-      <c r="AG65" s="52"/>
-      <c r="AH65" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI65" s="52"/>
-      <c r="AJ65" s="52"/>
-      <c r="AK65" s="52"/>
-      <c r="AL65" s="52"/>
-      <c r="AM65" s="52"/>
-      <c r="AN65" s="52"/>
+      <c r="F65" s="88"/>
+      <c r="G65" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="H65" s="88"/>
+      <c r="I65" s="88"/>
+      <c r="J65" s="88"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="88"/>
+      <c r="M65" s="88"/>
+      <c r="N65" s="88"/>
+      <c r="O65" s="88"/>
+      <c r="P65" s="88"/>
+      <c r="Q65" s="88"/>
+      <c r="R65" s="88"/>
+      <c r="S65" s="88"/>
+      <c r="T65" s="88"/>
+      <c r="U65" s="88"/>
+      <c r="V65" s="88"/>
+      <c r="W65" s="88"/>
+      <c r="X65" s="88"/>
+      <c r="Y65" s="88"/>
+      <c r="Z65" s="88"/>
+      <c r="AA65" s="88"/>
+      <c r="AB65" s="88"/>
+      <c r="AC65" s="88"/>
+      <c r="AD65" s="88"/>
+      <c r="AE65" s="88"/>
+      <c r="AF65" s="88"/>
+      <c r="AG65" s="88"/>
+      <c r="AH65" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI65" s="88"/>
+      <c r="AJ65" s="88"/>
+      <c r="AK65" s="88"/>
+      <c r="AL65" s="88"/>
+      <c r="AM65" s="88"/>
+      <c r="AN65" s="88"/>
     </row>
     <row r="66" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D66">
         <v>27</v>
       </c>
-      <c r="E66" s="52" t="s">
+      <c r="E66" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
-      <c r="N66" s="52"/>
-      <c r="O66" s="52"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="52"/>
-      <c r="S66" s="52"/>
-      <c r="T66" s="52"/>
-      <c r="U66" s="52"/>
-      <c r="V66" s="52"/>
-      <c r="W66" s="52"/>
-      <c r="X66" s="52"/>
-      <c r="Y66" s="52"/>
-      <c r="Z66" s="52"/>
-      <c r="AA66" s="52"/>
-      <c r="AB66" s="52"/>
-      <c r="AC66" s="52"/>
-      <c r="AD66" s="52"/>
-      <c r="AE66" s="52"/>
-      <c r="AF66" s="52"/>
-      <c r="AG66" s="52"/>
-      <c r="AH66" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI66" s="52"/>
-      <c r="AJ66" s="52"/>
-      <c r="AK66" s="52"/>
-      <c r="AL66" s="52"/>
-      <c r="AM66" s="52"/>
-      <c r="AN66" s="52"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="88"/>
+      <c r="K66" s="88"/>
+      <c r="L66" s="88"/>
+      <c r="M66" s="88"/>
+      <c r="N66" s="88"/>
+      <c r="O66" s="88"/>
+      <c r="P66" s="88"/>
+      <c r="Q66" s="88"/>
+      <c r="R66" s="88"/>
+      <c r="S66" s="88"/>
+      <c r="T66" s="88"/>
+      <c r="U66" s="88"/>
+      <c r="V66" s="88"/>
+      <c r="W66" s="88"/>
+      <c r="X66" s="88"/>
+      <c r="Y66" s="88"/>
+      <c r="Z66" s="88"/>
+      <c r="AA66" s="88"/>
+      <c r="AB66" s="88"/>
+      <c r="AC66" s="88"/>
+      <c r="AD66" s="88"/>
+      <c r="AE66" s="88"/>
+      <c r="AF66" s="88"/>
+      <c r="AG66" s="88"/>
+      <c r="AH66" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI66" s="88"/>
+      <c r="AJ66" s="88"/>
+      <c r="AK66" s="88"/>
+      <c r="AL66" s="88"/>
+      <c r="AM66" s="88"/>
+      <c r="AN66" s="88"/>
     </row>
     <row r="67" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D67">
         <v>28</v>
       </c>
-      <c r="E67" s="52" t="s">
+      <c r="E67" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="52"/>
-      <c r="S67" s="52"/>
-      <c r="T67" s="52"/>
-      <c r="U67" s="52"/>
-      <c r="V67" s="52"/>
-      <c r="W67" s="52"/>
-      <c r="X67" s="52"/>
-      <c r="Y67" s="52"/>
-      <c r="Z67" s="52"/>
-      <c r="AA67" s="52"/>
-      <c r="AB67" s="52"/>
-      <c r="AC67" s="52"/>
-      <c r="AD67" s="52"/>
-      <c r="AE67" s="52"/>
-      <c r="AF67" s="52"/>
-      <c r="AG67" s="52"/>
-      <c r="AH67" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI67" s="52"/>
-      <c r="AJ67" s="52"/>
-      <c r="AK67" s="52"/>
-      <c r="AL67" s="52"/>
-      <c r="AM67" s="52"/>
-      <c r="AN67" s="52"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="88"/>
+      <c r="K67" s="88"/>
+      <c r="L67" s="88"/>
+      <c r="M67" s="88"/>
+      <c r="N67" s="88"/>
+      <c r="O67" s="88"/>
+      <c r="P67" s="88"/>
+      <c r="Q67" s="88"/>
+      <c r="R67" s="88"/>
+      <c r="S67" s="88"/>
+      <c r="T67" s="88"/>
+      <c r="U67" s="88"/>
+      <c r="V67" s="88"/>
+      <c r="W67" s="88"/>
+      <c r="X67" s="88"/>
+      <c r="Y67" s="88"/>
+      <c r="Z67" s="88"/>
+      <c r="AA67" s="88"/>
+      <c r="AB67" s="88"/>
+      <c r="AC67" s="88"/>
+      <c r="AD67" s="88"/>
+      <c r="AE67" s="88"/>
+      <c r="AF67" s="88"/>
+      <c r="AG67" s="88"/>
+      <c r="AH67" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI67" s="88"/>
+      <c r="AJ67" s="88"/>
+      <c r="AK67" s="88"/>
+      <c r="AL67" s="88"/>
+      <c r="AM67" s="88"/>
+      <c r="AN67" s="88"/>
     </row>
     <row r="68" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D68">
         <v>29</v>
       </c>
-      <c r="E68" s="52" t="s">
+      <c r="E68" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="52"/>
-      <c r="O68" s="52"/>
-      <c r="P68" s="52"/>
-      <c r="Q68" s="52"/>
-      <c r="R68" s="52"/>
-      <c r="S68" s="52"/>
-      <c r="T68" s="52"/>
-      <c r="U68" s="52"/>
-      <c r="V68" s="52"/>
-      <c r="W68" s="52"/>
-      <c r="X68" s="52"/>
-      <c r="Y68" s="52"/>
-      <c r="Z68" s="52"/>
-      <c r="AA68" s="52"/>
-      <c r="AB68" s="52"/>
-      <c r="AC68" s="52"/>
-      <c r="AD68" s="52"/>
-      <c r="AE68" s="52"/>
-      <c r="AF68" s="52"/>
-      <c r="AG68" s="52"/>
-      <c r="AH68" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI68" s="52"/>
-      <c r="AJ68" s="52"/>
-      <c r="AK68" s="52"/>
-      <c r="AL68" s="52"/>
-      <c r="AM68" s="52"/>
-      <c r="AN68" s="52"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="H68" s="88"/>
+      <c r="I68" s="88"/>
+      <c r="J68" s="88"/>
+      <c r="K68" s="88"/>
+      <c r="L68" s="88"/>
+      <c r="M68" s="88"/>
+      <c r="N68" s="88"/>
+      <c r="O68" s="88"/>
+      <c r="P68" s="88"/>
+      <c r="Q68" s="88"/>
+      <c r="R68" s="88"/>
+      <c r="S68" s="88"/>
+      <c r="T68" s="88"/>
+      <c r="U68" s="88"/>
+      <c r="V68" s="88"/>
+      <c r="W68" s="88"/>
+      <c r="X68" s="88"/>
+      <c r="Y68" s="88"/>
+      <c r="Z68" s="88"/>
+      <c r="AA68" s="88"/>
+      <c r="AB68" s="88"/>
+      <c r="AC68" s="88"/>
+      <c r="AD68" s="88"/>
+      <c r="AE68" s="88"/>
+      <c r="AF68" s="88"/>
+      <c r="AG68" s="88"/>
+      <c r="AH68" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI68" s="88"/>
+      <c r="AJ68" s="88"/>
+      <c r="AK68" s="88"/>
+      <c r="AL68" s="88"/>
+      <c r="AM68" s="88"/>
+      <c r="AN68" s="88"/>
     </row>
     <row r="69" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D69">
         <v>30</v>
       </c>
-      <c r="E69" s="52" t="s">
+      <c r="E69" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F69" s="52"/>
-      <c r="G69" s="53" t="s">
+      <c r="F69" s="88"/>
+      <c r="G69" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="H69" s="88"/>
+      <c r="I69" s="88"/>
+      <c r="J69" s="88"/>
+      <c r="K69" s="88"/>
+      <c r="L69" s="88"/>
+      <c r="M69" s="88"/>
+      <c r="N69" s="88"/>
+      <c r="O69" s="88"/>
+      <c r="P69" s="88"/>
+      <c r="Q69" s="88"/>
+      <c r="R69" s="88"/>
+      <c r="S69" s="88"/>
+      <c r="T69" s="88"/>
+      <c r="U69" s="88"/>
+      <c r="V69" s="88"/>
+      <c r="W69" s="88"/>
+      <c r="X69" s="88"/>
+      <c r="Y69" s="88"/>
+      <c r="Z69" s="88"/>
+      <c r="AA69" s="88"/>
+      <c r="AB69" s="88"/>
+      <c r="AC69" s="88"/>
+      <c r="AD69" s="88"/>
+      <c r="AE69" s="88"/>
+      <c r="AF69" s="88"/>
+      <c r="AG69" s="88"/>
+      <c r="AH69" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="52"/>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="52"/>
-      <c r="R69" s="52"/>
-      <c r="S69" s="52"/>
-      <c r="T69" s="52"/>
-      <c r="U69" s="52"/>
-      <c r="V69" s="52"/>
-      <c r="W69" s="52"/>
-      <c r="X69" s="52"/>
-      <c r="Y69" s="52"/>
-      <c r="Z69" s="52"/>
-      <c r="AA69" s="52"/>
-      <c r="AB69" s="52"/>
-      <c r="AC69" s="52"/>
-      <c r="AD69" s="52"/>
-      <c r="AE69" s="52"/>
-      <c r="AF69" s="52"/>
-      <c r="AG69" s="52"/>
-      <c r="AH69" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI69" s="52"/>
-      <c r="AJ69" s="52"/>
-      <c r="AK69" s="52"/>
-      <c r="AL69" s="52"/>
-      <c r="AM69" s="52"/>
-      <c r="AN69" s="52"/>
+      <c r="AI69" s="88"/>
+      <c r="AJ69" s="88"/>
+      <c r="AK69" s="88"/>
+      <c r="AL69" s="88"/>
+      <c r="AM69" s="88"/>
+      <c r="AN69" s="88"/>
     </row>
     <row r="70" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D70">
         <v>31</v>
       </c>
-      <c r="E70" s="52" t="s">
+      <c r="E70" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="H70" s="52"/>
-      <c r="I70" s="52"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="52"/>
-      <c r="L70" s="52"/>
-      <c r="M70" s="52"/>
-      <c r="N70" s="52"/>
-      <c r="O70" s="52"/>
-      <c r="P70" s="52"/>
-      <c r="Q70" s="52"/>
-      <c r="R70" s="52"/>
-      <c r="S70" s="52"/>
-      <c r="T70" s="52"/>
-      <c r="U70" s="52"/>
-      <c r="V70" s="52"/>
-      <c r="W70" s="52"/>
-      <c r="X70" s="52"/>
-      <c r="Y70" s="52"/>
-      <c r="Z70" s="52"/>
-      <c r="AA70" s="52"/>
-      <c r="AB70" s="52"/>
-      <c r="AC70" s="52"/>
-      <c r="AD70" s="52"/>
-      <c r="AE70" s="52"/>
-      <c r="AF70" s="52"/>
-      <c r="AG70" s="52"/>
-      <c r="AH70" s="52" t="s">
+      <c r="F70" s="88"/>
+      <c r="G70" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="AI70" s="52"/>
-      <c r="AJ70" s="52"/>
-      <c r="AK70" s="52"/>
-      <c r="AL70" s="52"/>
-      <c r="AM70" s="52"/>
-      <c r="AN70" s="52"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="88"/>
+      <c r="J70" s="88"/>
+      <c r="K70" s="88"/>
+      <c r="L70" s="88"/>
+      <c r="M70" s="88"/>
+      <c r="N70" s="88"/>
+      <c r="O70" s="88"/>
+      <c r="P70" s="88"/>
+      <c r="Q70" s="88"/>
+      <c r="R70" s="88"/>
+      <c r="S70" s="88"/>
+      <c r="T70" s="88"/>
+      <c r="U70" s="88"/>
+      <c r="V70" s="88"/>
+      <c r="W70" s="88"/>
+      <c r="X70" s="88"/>
+      <c r="Y70" s="88"/>
+      <c r="Z70" s="88"/>
+      <c r="AA70" s="88"/>
+      <c r="AB70" s="88"/>
+      <c r="AC70" s="88"/>
+      <c r="AD70" s="88"/>
+      <c r="AE70" s="88"/>
+      <c r="AF70" s="88"/>
+      <c r="AG70" s="88"/>
+      <c r="AH70" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI70" s="88"/>
+      <c r="AJ70" s="88"/>
+      <c r="AK70" s="88"/>
+      <c r="AL70" s="88"/>
+      <c r="AM70" s="88"/>
+      <c r="AN70" s="88"/>
     </row>
     <row r="71" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D71">
         <v>32</v>
       </c>
-      <c r="E71" s="52" t="s">
+      <c r="E71" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="52"/>
-      <c r="L71" s="52"/>
-      <c r="M71" s="52"/>
-      <c r="N71" s="52"/>
-      <c r="O71" s="52"/>
-      <c r="P71" s="52"/>
-      <c r="Q71" s="52"/>
-      <c r="R71" s="52"/>
-      <c r="S71" s="52"/>
-      <c r="T71" s="52"/>
-      <c r="U71" s="52"/>
-      <c r="V71" s="52"/>
-      <c r="W71" s="52"/>
-      <c r="X71" s="52"/>
-      <c r="Y71" s="52"/>
-      <c r="Z71" s="52"/>
-      <c r="AA71" s="52"/>
-      <c r="AB71" s="52"/>
-      <c r="AC71" s="52"/>
-      <c r="AD71" s="52"/>
-      <c r="AE71" s="52"/>
-      <c r="AF71" s="52"/>
-      <c r="AG71" s="52"/>
-      <c r="AH71" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI71" s="52"/>
-      <c r="AJ71" s="52"/>
-      <c r="AK71" s="52"/>
-      <c r="AL71" s="52"/>
-      <c r="AM71" s="52"/>
-      <c r="AN71" s="52"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="H71" s="88"/>
+      <c r="I71" s="88"/>
+      <c r="J71" s="88"/>
+      <c r="K71" s="88"/>
+      <c r="L71" s="88"/>
+      <c r="M71" s="88"/>
+      <c r="N71" s="88"/>
+      <c r="O71" s="88"/>
+      <c r="P71" s="88"/>
+      <c r="Q71" s="88"/>
+      <c r="R71" s="88"/>
+      <c r="S71" s="88"/>
+      <c r="T71" s="88"/>
+      <c r="U71" s="88"/>
+      <c r="V71" s="88"/>
+      <c r="W71" s="88"/>
+      <c r="X71" s="88"/>
+      <c r="Y71" s="88"/>
+      <c r="Z71" s="88"/>
+      <c r="AA71" s="88"/>
+      <c r="AB71" s="88"/>
+      <c r="AC71" s="88"/>
+      <c r="AD71" s="88"/>
+      <c r="AE71" s="88"/>
+      <c r="AF71" s="88"/>
+      <c r="AG71" s="88"/>
+      <c r="AH71" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI71" s="88"/>
+      <c r="AJ71" s="88"/>
+      <c r="AK71" s="88"/>
+      <c r="AL71" s="88"/>
+      <c r="AM71" s="88"/>
+      <c r="AN71" s="88"/>
     </row>
     <row r="72" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72">
         <v>33</v>
       </c>
-      <c r="E72" s="52" t="s">
+      <c r="E72" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="52"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="52"/>
-      <c r="O72" s="52"/>
-      <c r="P72" s="52"/>
-      <c r="Q72" s="52"/>
-      <c r="R72" s="52"/>
-      <c r="S72" s="52"/>
-      <c r="T72" s="52"/>
-      <c r="U72" s="52"/>
-      <c r="V72" s="52"/>
-      <c r="W72" s="52"/>
-      <c r="X72" s="52"/>
-      <c r="Y72" s="52"/>
-      <c r="Z72" s="52"/>
-      <c r="AA72" s="52"/>
-      <c r="AB72" s="52"/>
-      <c r="AC72" s="52"/>
-      <c r="AD72" s="52"/>
-      <c r="AE72" s="52"/>
-      <c r="AF72" s="52"/>
-      <c r="AG72" s="52"/>
-      <c r="AH72" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI72" s="52"/>
-      <c r="AJ72" s="52"/>
-      <c r="AK72" s="52"/>
-      <c r="AL72" s="52"/>
-      <c r="AM72" s="52"/>
-      <c r="AN72" s="52"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="H72" s="88"/>
+      <c r="I72" s="88"/>
+      <c r="J72" s="88"/>
+      <c r="K72" s="88"/>
+      <c r="L72" s="88"/>
+      <c r="M72" s="88"/>
+      <c r="N72" s="88"/>
+      <c r="O72" s="88"/>
+      <c r="P72" s="88"/>
+      <c r="Q72" s="88"/>
+      <c r="R72" s="88"/>
+      <c r="S72" s="88"/>
+      <c r="T72" s="88"/>
+      <c r="U72" s="88"/>
+      <c r="V72" s="88"/>
+      <c r="W72" s="88"/>
+      <c r="X72" s="88"/>
+      <c r="Y72" s="88"/>
+      <c r="Z72" s="88"/>
+      <c r="AA72" s="88"/>
+      <c r="AB72" s="88"/>
+      <c r="AC72" s="88"/>
+      <c r="AD72" s="88"/>
+      <c r="AE72" s="88"/>
+      <c r="AF72" s="88"/>
+      <c r="AG72" s="88"/>
+      <c r="AH72" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI72" s="88"/>
+      <c r="AJ72" s="88"/>
+      <c r="AK72" s="88"/>
+      <c r="AL72" s="88"/>
+      <c r="AM72" s="88"/>
+      <c r="AN72" s="88"/>
     </row>
     <row r="73" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73">
         <v>34</v>
       </c>
-      <c r="E73" s="52" t="s">
+      <c r="E73" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="H73" s="52"/>
-      <c r="I73" s="52"/>
-      <c r="J73" s="52"/>
-      <c r="K73" s="52"/>
-      <c r="L73" s="52"/>
-      <c r="M73" s="52"/>
-      <c r="N73" s="52"/>
-      <c r="O73" s="52"/>
-      <c r="P73" s="52"/>
-      <c r="Q73" s="52"/>
-      <c r="R73" s="52"/>
-      <c r="S73" s="52"/>
-      <c r="T73" s="52"/>
-      <c r="U73" s="52"/>
-      <c r="V73" s="52"/>
-      <c r="W73" s="52"/>
-      <c r="X73" s="52"/>
-      <c r="Y73" s="52"/>
-      <c r="Z73" s="52"/>
-      <c r="AA73" s="52"/>
-      <c r="AB73" s="52"/>
-      <c r="AC73" s="52"/>
-      <c r="AD73" s="52"/>
-      <c r="AE73" s="52"/>
-      <c r="AF73" s="52"/>
-      <c r="AG73" s="52"/>
-      <c r="AH73" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI73" s="52"/>
-      <c r="AJ73" s="52"/>
-      <c r="AK73" s="52"/>
-      <c r="AL73" s="52"/>
-      <c r="AM73" s="52"/>
-      <c r="AN73" s="52"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="H73" s="88"/>
+      <c r="I73" s="88"/>
+      <c r="J73" s="88"/>
+      <c r="K73" s="88"/>
+      <c r="L73" s="88"/>
+      <c r="M73" s="88"/>
+      <c r="N73" s="88"/>
+      <c r="O73" s="88"/>
+      <c r="P73" s="88"/>
+      <c r="Q73" s="88"/>
+      <c r="R73" s="88"/>
+      <c r="S73" s="88"/>
+      <c r="T73" s="88"/>
+      <c r="U73" s="88"/>
+      <c r="V73" s="88"/>
+      <c r="W73" s="88"/>
+      <c r="X73" s="88"/>
+      <c r="Y73" s="88"/>
+      <c r="Z73" s="88"/>
+      <c r="AA73" s="88"/>
+      <c r="AB73" s="88"/>
+      <c r="AC73" s="88"/>
+      <c r="AD73" s="88"/>
+      <c r="AE73" s="88"/>
+      <c r="AF73" s="88"/>
+      <c r="AG73" s="88"/>
+      <c r="AH73" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI73" s="88"/>
+      <c r="AJ73" s="88"/>
+      <c r="AK73" s="88"/>
+      <c r="AL73" s="88"/>
+      <c r="AM73" s="88"/>
+      <c r="AN73" s="88"/>
     </row>
     <row r="74" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D74">
         <v>35</v>
       </c>
-      <c r="E74" s="52" t="s">
+      <c r="E74" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="H74" s="52"/>
-      <c r="I74" s="52"/>
-      <c r="J74" s="52"/>
-      <c r="K74" s="52"/>
-      <c r="L74" s="52"/>
-      <c r="M74" s="52"/>
-      <c r="N74" s="52"/>
-      <c r="O74" s="52"/>
-      <c r="P74" s="52"/>
-      <c r="Q74" s="52"/>
-      <c r="R74" s="52"/>
-      <c r="S74" s="52"/>
-      <c r="T74" s="52"/>
-      <c r="U74" s="52"/>
-      <c r="V74" s="52"/>
-      <c r="W74" s="52"/>
-      <c r="X74" s="52"/>
-      <c r="Y74" s="52"/>
-      <c r="Z74" s="52"/>
-      <c r="AA74" s="52"/>
-      <c r="AB74" s="52"/>
-      <c r="AC74" s="52"/>
-      <c r="AD74" s="52"/>
-      <c r="AE74" s="52"/>
-      <c r="AF74" s="52"/>
-      <c r="AG74" s="52"/>
-      <c r="AH74" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI74" s="52"/>
-      <c r="AJ74" s="52"/>
-      <c r="AK74" s="52"/>
-      <c r="AL74" s="52"/>
-      <c r="AM74" s="52"/>
-      <c r="AN74" s="52"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="H74" s="88"/>
+      <c r="I74" s="88"/>
+      <c r="J74" s="88"/>
+      <c r="K74" s="88"/>
+      <c r="L74" s="88"/>
+      <c r="M74" s="88"/>
+      <c r="N74" s="88"/>
+      <c r="O74" s="88"/>
+      <c r="P74" s="88"/>
+      <c r="Q74" s="88"/>
+      <c r="R74" s="88"/>
+      <c r="S74" s="88"/>
+      <c r="T74" s="88"/>
+      <c r="U74" s="88"/>
+      <c r="V74" s="88"/>
+      <c r="W74" s="88"/>
+      <c r="X74" s="88"/>
+      <c r="Y74" s="88"/>
+      <c r="Z74" s="88"/>
+      <c r="AA74" s="88"/>
+      <c r="AB74" s="88"/>
+      <c r="AC74" s="88"/>
+      <c r="AD74" s="88"/>
+      <c r="AE74" s="88"/>
+      <c r="AF74" s="88"/>
+      <c r="AG74" s="88"/>
+      <c r="AH74" s="88" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI74" s="88"/>
+      <c r="AJ74" s="88"/>
+      <c r="AK74" s="88"/>
+      <c r="AL74" s="88"/>
+      <c r="AM74" s="88"/>
+      <c r="AN74" s="88"/>
     </row>
     <row r="75" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D75">
         <v>35</v>
       </c>
-      <c r="E75" s="52" t="s">
+      <c r="E75" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="H75" s="52"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="52"/>
-      <c r="L75" s="52"/>
-      <c r="M75" s="52"/>
-      <c r="N75" s="52"/>
-      <c r="O75" s="52"/>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="52"/>
-      <c r="R75" s="52"/>
-      <c r="S75" s="52"/>
-      <c r="T75" s="52"/>
-      <c r="U75" s="52"/>
-      <c r="V75" s="52"/>
-      <c r="W75" s="52"/>
-      <c r="X75" s="52"/>
-      <c r="Y75" s="52"/>
-      <c r="Z75" s="52"/>
-      <c r="AA75" s="52"/>
-      <c r="AB75" s="52"/>
-      <c r="AC75" s="52"/>
-      <c r="AD75" s="52"/>
-      <c r="AE75" s="52"/>
-      <c r="AF75" s="52"/>
-      <c r="AG75" s="52"/>
-      <c r="AH75" s="52" t="s">
+      <c r="F75" s="88"/>
+      <c r="G75" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="AI75" s="52"/>
-      <c r="AJ75" s="52"/>
-      <c r="AK75" s="52"/>
-      <c r="AL75" s="52"/>
-      <c r="AM75" s="52"/>
-      <c r="AN75" s="52"/>
+      <c r="H75" s="88"/>
+      <c r="I75" s="88"/>
+      <c r="J75" s="88"/>
+      <c r="K75" s="88"/>
+      <c r="L75" s="88"/>
+      <c r="M75" s="88"/>
+      <c r="N75" s="88"/>
+      <c r="O75" s="88"/>
+      <c r="P75" s="88"/>
+      <c r="Q75" s="88"/>
+      <c r="R75" s="88"/>
+      <c r="S75" s="88"/>
+      <c r="T75" s="88"/>
+      <c r="U75" s="88"/>
+      <c r="V75" s="88"/>
+      <c r="W75" s="88"/>
+      <c r="X75" s="88"/>
+      <c r="Y75" s="88"/>
+      <c r="Z75" s="88"/>
+      <c r="AA75" s="88"/>
+      <c r="AB75" s="88"/>
+      <c r="AC75" s="88"/>
+      <c r="AD75" s="88"/>
+      <c r="AE75" s="88"/>
+      <c r="AF75" s="88"/>
+      <c r="AG75" s="88"/>
+      <c r="AH75" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI75" s="88"/>
+      <c r="AJ75" s="88"/>
+      <c r="AK75" s="88"/>
+      <c r="AL75" s="88"/>
+      <c r="AM75" s="88"/>
+      <c r="AN75" s="88"/>
     </row>
     <row r="76" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D76">
         <v>36</v>
       </c>
-      <c r="E76" s="52" t="s">
+      <c r="E76" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="H76" s="52"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
-      <c r="K76" s="52"/>
-      <c r="L76" s="52"/>
-      <c r="M76" s="52"/>
-      <c r="N76" s="52"/>
-      <c r="O76" s="52"/>
-      <c r="P76" s="52"/>
-      <c r="Q76" s="52"/>
-      <c r="R76" s="52"/>
-      <c r="S76" s="52"/>
-      <c r="T76" s="52"/>
-      <c r="U76" s="52"/>
-      <c r="V76" s="52"/>
-      <c r="W76" s="52"/>
-      <c r="X76" s="52"/>
-      <c r="Y76" s="52"/>
-      <c r="Z76" s="52"/>
-      <c r="AA76" s="52"/>
-      <c r="AB76" s="52"/>
-      <c r="AC76" s="52"/>
-      <c r="AD76" s="52"/>
-      <c r="AE76" s="52"/>
-      <c r="AF76" s="52"/>
-      <c r="AG76" s="52"/>
-      <c r="AH76" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI76" s="52"/>
-      <c r="AJ76" s="52"/>
-      <c r="AK76" s="52"/>
-      <c r="AL76" s="52"/>
-      <c r="AM76" s="52"/>
-      <c r="AN76" s="52"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="H76" s="88"/>
+      <c r="I76" s="88"/>
+      <c r="J76" s="88"/>
+      <c r="K76" s="88"/>
+      <c r="L76" s="88"/>
+      <c r="M76" s="88"/>
+      <c r="N76" s="88"/>
+      <c r="O76" s="88"/>
+      <c r="P76" s="88"/>
+      <c r="Q76" s="88"/>
+      <c r="R76" s="88"/>
+      <c r="S76" s="88"/>
+      <c r="T76" s="88"/>
+      <c r="U76" s="88"/>
+      <c r="V76" s="88"/>
+      <c r="W76" s="88"/>
+      <c r="X76" s="88"/>
+      <c r="Y76" s="88"/>
+      <c r="Z76" s="88"/>
+      <c r="AA76" s="88"/>
+      <c r="AB76" s="88"/>
+      <c r="AC76" s="88"/>
+      <c r="AD76" s="88"/>
+      <c r="AE76" s="88"/>
+      <c r="AF76" s="88"/>
+      <c r="AG76" s="88"/>
+      <c r="AH76" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI76" s="88"/>
+      <c r="AJ76" s="88"/>
+      <c r="AK76" s="88"/>
+      <c r="AL76" s="88"/>
+      <c r="AM76" s="88"/>
+      <c r="AN76" s="88"/>
     </row>
     <row r="77" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D77">
         <v>37</v>
       </c>
-      <c r="E77" s="52" t="s">
+      <c r="E77" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="52"/>
-      <c r="G77" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="H77" s="52"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="52"/>
-      <c r="K77" s="52"/>
-      <c r="L77" s="52"/>
-      <c r="M77" s="52"/>
-      <c r="N77" s="52"/>
-      <c r="O77" s="52"/>
-      <c r="P77" s="52"/>
-      <c r="Q77" s="52"/>
-      <c r="R77" s="52"/>
-      <c r="S77" s="52"/>
-      <c r="T77" s="52"/>
-      <c r="U77" s="52"/>
-      <c r="V77" s="52"/>
-      <c r="W77" s="52"/>
-      <c r="X77" s="52"/>
-      <c r="Y77" s="52"/>
-      <c r="Z77" s="52"/>
-      <c r="AA77" s="52"/>
-      <c r="AB77" s="52"/>
-      <c r="AC77" s="52"/>
-      <c r="AD77" s="52"/>
-      <c r="AE77" s="52"/>
-      <c r="AF77" s="52"/>
-      <c r="AG77" s="52"/>
-      <c r="AH77" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI77" s="52"/>
-      <c r="AJ77" s="52"/>
-      <c r="AK77" s="52"/>
-      <c r="AL77" s="52"/>
-      <c r="AM77" s="52"/>
-      <c r="AN77" s="52"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="H77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="88"/>
+      <c r="L77" s="88"/>
+      <c r="M77" s="88"/>
+      <c r="N77" s="88"/>
+      <c r="O77" s="88"/>
+      <c r="P77" s="88"/>
+      <c r="Q77" s="88"/>
+      <c r="R77" s="88"/>
+      <c r="S77" s="88"/>
+      <c r="T77" s="88"/>
+      <c r="U77" s="88"/>
+      <c r="V77" s="88"/>
+      <c r="W77" s="88"/>
+      <c r="X77" s="88"/>
+      <c r="Y77" s="88"/>
+      <c r="Z77" s="88"/>
+      <c r="AA77" s="88"/>
+      <c r="AB77" s="88"/>
+      <c r="AC77" s="88"/>
+      <c r="AD77" s="88"/>
+      <c r="AE77" s="88"/>
+      <c r="AF77" s="88"/>
+      <c r="AG77" s="88"/>
+      <c r="AH77" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI77" s="88"/>
+      <c r="AJ77" s="88"/>
+      <c r="AK77" s="88"/>
+      <c r="AL77" s="88"/>
+      <c r="AM77" s="88"/>
+      <c r="AN77" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:AG77"/>
-    <mergeCell ref="AH77:AN77"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:AG75"/>
-    <mergeCell ref="AH75:AN75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:AG76"/>
-    <mergeCell ref="AH76:AN76"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:AG73"/>
-    <mergeCell ref="AH73:AN73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:AG74"/>
-    <mergeCell ref="AH74:AN74"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:AG71"/>
-    <mergeCell ref="AH71:AN71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:AG72"/>
-    <mergeCell ref="AH72:AN72"/>
-    <mergeCell ref="AH51:AN51"/>
-    <mergeCell ref="AH52:AN52"/>
-    <mergeCell ref="AH53:AN53"/>
-    <mergeCell ref="AH54:AN54"/>
-    <mergeCell ref="AH55:AN55"/>
-    <mergeCell ref="G49:AG49"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="AH64:AN64"/>
-    <mergeCell ref="AH63:AN63"/>
-    <mergeCell ref="AH65:AN65"/>
-    <mergeCell ref="AH56:AN56"/>
-    <mergeCell ref="AH57:AN57"/>
-    <mergeCell ref="AH58:AN58"/>
-    <mergeCell ref="AH59:AN59"/>
-    <mergeCell ref="AH60:AN60"/>
-    <mergeCell ref="AH61:AN61"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="AH66:AN66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="AH67:AN67"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:AG70"/>
-    <mergeCell ref="AH70:AN70"/>
-    <mergeCell ref="AH68:AN68"/>
-    <mergeCell ref="AH69:AN69"/>
-    <mergeCell ref="G68:AG68"/>
-    <mergeCell ref="G69:AG69"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G65:AG65"/>
-    <mergeCell ref="G66:AG66"/>
-    <mergeCell ref="G67:AG67"/>
-    <mergeCell ref="G58:AG58"/>
-    <mergeCell ref="G59:AG59"/>
-    <mergeCell ref="G60:AG60"/>
-    <mergeCell ref="G61:AG61"/>
-    <mergeCell ref="G62:AG62"/>
+    <mergeCell ref="BM24:BT25"/>
+    <mergeCell ref="AX32:BE39"/>
+    <mergeCell ref="BO30:BR30"/>
+    <mergeCell ref="CN22:CW22"/>
+    <mergeCell ref="CI23:CJ24"/>
+    <mergeCell ref="CD23:CG23"/>
+    <mergeCell ref="D38:AN38"/>
+    <mergeCell ref="BY20:CL20"/>
+    <mergeCell ref="BJ12:BW12"/>
+    <mergeCell ref="AU28:BH28"/>
+    <mergeCell ref="BJ28:BW28"/>
+    <mergeCell ref="BM14:BT15"/>
+    <mergeCell ref="G7:M13"/>
+    <mergeCell ref="AH7:AN13"/>
+    <mergeCell ref="AH27:AN33"/>
+    <mergeCell ref="G27:M33"/>
+    <mergeCell ref="S16:AB25"/>
+    <mergeCell ref="AU12:BH12"/>
+    <mergeCell ref="AZ18:BC21"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="AH40:AN40"/>
+    <mergeCell ref="AH41:AN41"/>
+    <mergeCell ref="AH42:AN42"/>
+    <mergeCell ref="AH43:AN43"/>
+    <mergeCell ref="G39:AG39"/>
+    <mergeCell ref="AH39:AN39"/>
+    <mergeCell ref="G40:AG40"/>
+    <mergeCell ref="G41:AG41"/>
+    <mergeCell ref="G42:AG42"/>
+    <mergeCell ref="G43:AG43"/>
+    <mergeCell ref="G44:AG44"/>
+    <mergeCell ref="G45:AG45"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="AH62:AN62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
     <mergeCell ref="G64:AG64"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E51:F51"/>
@@ -10871,58 +10863,66 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="G47:AG47"/>
     <mergeCell ref="AH47:AN47"/>
-    <mergeCell ref="AH62:AN62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="AH40:AN40"/>
-    <mergeCell ref="AH41:AN41"/>
-    <mergeCell ref="AH42:AN42"/>
-    <mergeCell ref="AH43:AN43"/>
-    <mergeCell ref="G39:AG39"/>
-    <mergeCell ref="AH39:AN39"/>
-    <mergeCell ref="G40:AG40"/>
-    <mergeCell ref="G41:AG41"/>
-    <mergeCell ref="G42:AG42"/>
-    <mergeCell ref="G43:AG43"/>
-    <mergeCell ref="G44:AG44"/>
-    <mergeCell ref="G45:AG45"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="BM24:BT25"/>
-    <mergeCell ref="AX32:BE39"/>
-    <mergeCell ref="BO30:BR30"/>
-    <mergeCell ref="CN22:CW22"/>
-    <mergeCell ref="CI23:CJ24"/>
-    <mergeCell ref="CD23:CG23"/>
-    <mergeCell ref="D38:AN38"/>
-    <mergeCell ref="BY20:CL20"/>
-    <mergeCell ref="BJ12:BW12"/>
-    <mergeCell ref="AU28:BH28"/>
-    <mergeCell ref="BJ28:BW28"/>
-    <mergeCell ref="BM14:BT15"/>
-    <mergeCell ref="G7:M13"/>
-    <mergeCell ref="AH7:AN13"/>
-    <mergeCell ref="AH27:AN33"/>
-    <mergeCell ref="G27:M33"/>
-    <mergeCell ref="S16:AB25"/>
-    <mergeCell ref="AU12:BH12"/>
-    <mergeCell ref="AZ18:BC21"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="AH66:AN66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="AH67:AN67"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:AG70"/>
+    <mergeCell ref="AH70:AN70"/>
+    <mergeCell ref="AH68:AN68"/>
+    <mergeCell ref="AH69:AN69"/>
+    <mergeCell ref="G68:AG68"/>
+    <mergeCell ref="G69:AG69"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G66:AG66"/>
+    <mergeCell ref="G67:AG67"/>
+    <mergeCell ref="AH51:AN51"/>
+    <mergeCell ref="AH52:AN52"/>
+    <mergeCell ref="AH53:AN53"/>
+    <mergeCell ref="AH54:AN54"/>
+    <mergeCell ref="AH55:AN55"/>
+    <mergeCell ref="G49:AG49"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="AH64:AN64"/>
+    <mergeCell ref="AH63:AN63"/>
+    <mergeCell ref="AH65:AN65"/>
+    <mergeCell ref="AH56:AN56"/>
+    <mergeCell ref="AH57:AN57"/>
+    <mergeCell ref="AH58:AN58"/>
+    <mergeCell ref="AH59:AN59"/>
+    <mergeCell ref="AH60:AN60"/>
+    <mergeCell ref="AH61:AN61"/>
+    <mergeCell ref="G65:AG65"/>
+    <mergeCell ref="G58:AG58"/>
+    <mergeCell ref="G59:AG59"/>
+    <mergeCell ref="G60:AG60"/>
+    <mergeCell ref="G61:AG61"/>
+    <mergeCell ref="G62:AG62"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:AG73"/>
+    <mergeCell ref="AH73:AN73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:AG74"/>
+    <mergeCell ref="AH74:AN74"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:AG71"/>
+    <mergeCell ref="AH71:AN71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:AG72"/>
+    <mergeCell ref="AH72:AN72"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:AG77"/>
+    <mergeCell ref="AH77:AN77"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:AG75"/>
+    <mergeCell ref="AH75:AN75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:AG76"/>
+    <mergeCell ref="AH76:AN76"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan/스테이지_1_맵_기획.xlsx
+++ b/Plan/스테이지_1_맵_기획.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="12795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Stage" sheetId="1" r:id="rId1"/>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 이 안에 색깔을 채워 넣을 수 있을 것 같아 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>나룻터 나무 ( 팔레트와 상호작용 가능 )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -459,294 +455,308 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>" 헤어지고 나서도 가끔 들렸었지 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 베고나선 그루터기는 왜 놔둔걸까. 가끔 궁금했었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 그루터기도 혼자 남겨진거겠지 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무와 상호작용 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무와 상호작용 후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 이 나비 되게 강조된 것 처럼 보여 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 나비를 좀 따라가보면 좋을 것 같은데 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 벤치에 자주 앉아 있고는 했어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 사실 그냥 숲속에서 시간을 보내고 싶었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째 필드 진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 영감을 얻겠다고 공원에 들어오고는 했었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 벤치가 특이하게 생겼네? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 벤치의 배치가 기억의 조각일지도 몰라 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘 다 떨어트렸을 때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘 다 붙였을 때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이젠 붙어있을 필요가 없지. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이렇게 붙여서 쓰곤 했었지. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세번째 필드 진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 조각이 뭔가 이상한데? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 마치 깨진거 같아. '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 공원에 만나자고 하면 여기에서 날 기다리곤 했었지 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 드디어 다 맞췄다! '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각을 다 맞췄을 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 지금은 내가 이 자리에 혼자 서있네 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이런 조형물은 왜 만든 걸까 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 공원엔 어린애도 오지 않는데. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 이거 키즈카페 같은데에 있는거 아닌가? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네번째 필드 진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 빛나는 순서대로 밟으면 되는걸까? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안내판과 상호작용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 간단하네. '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발판을 순서대로 밟았을 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 이 순서가 아니었나? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 뭐 그래도 가끔 순서대로 밟아보긴 했어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 순서대로 밟으면 기분이 좋아졌거든 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 내가 밟으면 뒤따라서 밟았었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이젠 뒤따라서 오는 사람은 없네 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패 했을 때</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 이번 건 왜 이리 길어진거야 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 필드 진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 어느 날, 파란색 나비가 정자 난간에 앉아있었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 저 파란색 나비를 보곤 그려야겠다고 생각했지 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 혼자가 아니라서 그런지 그릴 시간이 별로 없었어 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이제는 그릴 시간이 충분하네 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 아마 이 그림만 완성하면 끝일 것 같아 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림이 전부 완성 되면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 정말 예쁜 나비였어. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이젠 다른 곳으로 가버렸지만. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 아마 헤어진게 문제이려나? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 그림 접촉시</t>
+  </si>
+  <si>
+    <t>' 이 그림은 중요할거 같아. '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 환자가 살던 집인가? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 옛날에 살던 집이네. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 색깔이 사라지면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 색깔이 사라지면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 색깔이 빠진 것 같은데? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 아까 그림이 좀 바뀌었겠네 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 이 그림은.. 중요했었던 그림인 것 같은데.. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지를 나가면서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물감 튜브 획득 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M.A.M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>" 특정한 물체는 같은 기억 속의 다른 물체와 상호작용 할 수 있습니다. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물감 튜브 획득 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 어떻게 생긴 그림이었을까? 맞춰봐야겠는데? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 우선 모든 전원이 돌아온 것 같아 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이젤 확인 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 구역 진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진입 시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>' 아마 이 버튼 따라서 나눠진 색깔이 변하는거 같은데? '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>" 이 공원에 여자친구와 자주 오고는 했었어. 지금은 혼자지만 "</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>" 헤어지고 나서도 가끔 들렸었지 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 베고나선 그루터기는 왜 놔둔걸까. 가끔 궁금했었어 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이 그루터기도 혼자 남겨진거겠지 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무와 상호작용 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나무와 상호작용 후</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 이 나비 되게 강조된 것 처럼 보여 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 나비를 좀 따라가보면 좋을 것 같은데 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이 벤치에 자주 앉아 있고는 했어 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 사실 그냥 숲속에서 시간을 보내고 싶었어 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>두번째 필드 진입 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 영감을 얻겠다고 공원에 들어오고는 했었어 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 벤치가 특이하게 생겼네? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 벤치의 배치가 기억의 조각일지도 몰라 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>둘 다 떨어트렸을 때</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>둘 다 붙였을 때</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이젠 붙어있을 필요가 없지. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이렇게 붙여서 쓰곤 했었지. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세번째 필드 진입 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 조각이 뭔가 이상한데? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 마치 깨진거 같아. '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이 공원에 만나자고 하면 여기에서 날 기다리곤 했었지 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 드디어 다 맞췄다! '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조각을 다 맞췄을 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 지금은 내가 이 자리에 혼자 서있네 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이런 조형물은 왜 만든 걸까 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이 공원엔 어린애도 오지 않는데. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 이거 키즈카페 같은데에 있는거 아닌가? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>네번째 필드 진입 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 빛나는 순서대로 밟으면 되는걸까? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>안내판과 상호작용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 간단하네. '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>발판을 순서대로 밟았을 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 이 순서가 아니었나? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 뭐 그래도 가끔 순서대로 밟아보긴 했어 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 순서대로 밟으면 기분이 좋아졌거든 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 내가 밟으면 뒤따라서 밟았었어 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이젠 뒤따라서 오는 사람은 없네 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실패 했을 때</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 이번 건 왜 이리 길어진거야 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마지막 필드 진입 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 어느 날, 파란색 나비가 정자 난간에 앉아있었어 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 저 파란색 나비를 보곤 그려야겠다고 생각했지 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 혼자가 아니라서 그런지 그릴 시간이 별로 없었어 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이제는 그릴 시간이 충분하네 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 아마 이 그림만 완성하면 끝일 것 같아 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그림이 전부 완성 되면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 정말 예쁜 나비였어. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이젠 다른 곳으로 가버렸지만. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 아마 헤어진게 문제이려나? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진입 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 그림 접촉시</t>
-  </si>
-  <si>
-    <t>' 이 그림은 중요할거 같아. '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 환자가 살던 집인가? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기억</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 옛날에 살던 집이네. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫 색깔이 사라지면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 색깔이 사라지면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 색깔이 빠진 것 같은데? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 아까 그림이 좀 바뀌었겠네 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이 그림은.. 중요했었던 그림인 것 같은데.. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지를 나가면서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물감 튜브 획득 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M.A.M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 특정한 물체는 같은 기억 속의 다른 물체와 상호작용 할 수 있습니다. "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>물감 튜브 획득 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 어떻게 생긴 그림이었을까? 맞춰봐야겠는데? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 우선 모든 전원이 돌아온 것 같아 '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이젤 확인 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫번째 구역 진입 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진입 시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>' 아마 이 버튼 따라서 나눠진 색깔이 변하는거 같은데? '</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 이 안에 색깔을 채워 넣을 수 있을 것 같아 '</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1273,7 +1283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1430,6 +1440,15 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1538,15 +1557,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1674,6 +1684,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1714,7 +1727,7 @@
         <xdr:cNvPr id="2" name="그림 1" descr="LTP-613C) 전통 육각정자 설계 제작 시공 - 서산 해미면 애향공원 : (주)라은엘앤씨">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61CC6A7A-D9D7-4F9E-9869-4B9B4430929E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61CC6A7A-D9D7-4F9E-9869-4B9B4430929E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2049,7 +2062,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2059,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AI42"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AI27" sqref="AI27"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2105,18 +2118,18 @@
     </row>
     <row r="3" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
       <c r="M3" s="5"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -2143,16 +2156,16 @@
     </row>
     <row r="4" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
       <c r="M4" s="5"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -2165,12 +2178,12 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="74" t="s">
+      <c r="Y4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="76"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="79"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="3"/>
@@ -2181,16 +2194,16 @@
     </row>
     <row r="5" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
       <c r="M5" s="5"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -2199,16 +2212,16 @@
       <c r="R5" s="1"/>
       <c r="S5" s="5"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="74" t="s">
+      <c r="U5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="83"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="79"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="82"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="3"/>
@@ -2219,16 +2232,16 @@
     </row>
     <row r="6" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
       <c r="M6" s="5"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -2237,14 +2250,14 @@
       <c r="R6" s="1"/>
       <c r="S6" s="5"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="85"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="88"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="82"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="85"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="3"/>
@@ -2255,16 +2268,16 @@
     </row>
     <row r="7" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
       <c r="M7" s="5"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -2291,16 +2304,16 @@
     </row>
     <row r="8" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
       <c r="M8" s="5"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -2313,12 +2326,12 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="68" t="s">
+      <c r="Y8" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="70"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="73"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="3"/>
@@ -2329,16 +2342,16 @@
     </row>
     <row r="9" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
       <c r="M9" s="5"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2351,10 +2364,10 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="73"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="76"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="3"/>
@@ -2365,16 +2378,16 @@
     </row>
     <row r="10" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
       <c r="M10" s="5"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -2437,19 +2450,19 @@
     </row>
     <row r="12" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2475,17 +2488,17 @@
     </row>
     <row r="13" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2507,17 +2520,17 @@
     </row>
     <row r="14" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2539,17 +2552,17 @@
     </row>
     <row r="15" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2571,17 +2584,17 @@
     </row>
     <row r="16" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2603,17 +2616,17 @@
     </row>
     <row r="17" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2635,17 +2648,17 @@
     </row>
     <row r="18" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2667,7 +2680,7 @@
     </row>
     <row r="19" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="59" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1"/>
@@ -2689,21 +2702,21 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="86" t="s">
+      <c r="W19" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="86"/>
-      <c r="AD19" s="86"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
-      <c r="C20" s="57"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2723,19 +2736,19 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="86"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="89"/>
       <c r="AE20" s="3"/>
     </row>
     <row r="21" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
-      <c r="C21" s="57"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2755,31 +2768,31 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="86"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89"/>
       <c r="AE21" s="3"/>
     </row>
     <row r="22" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
-      <c r="C22" s="57"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="61"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="64"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2789,29 +2802,29 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="86"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="86"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="89"/>
+      <c r="AD22" s="89"/>
       <c r="AE22" s="3"/>
     </row>
     <row r="23" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
-      <c r="C23" s="57"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="64"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="67"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2821,29 +2834,29 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="86"/>
-      <c r="AB23" s="86"/>
-      <c r="AC23" s="86"/>
-      <c r="AD23" s="86"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="89"/>
       <c r="AE23" s="3"/>
     </row>
     <row r="24" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
-      <c r="C24" s="57"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="64"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="67"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2853,29 +2866,29 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="86"/>
-      <c r="Y24" s="86"/>
-      <c r="Z24" s="86"/>
-      <c r="AA24" s="86"/>
-      <c r="AB24" s="86"/>
-      <c r="AC24" s="86"/>
-      <c r="AD24" s="86"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="89"/>
+      <c r="AC24" s="89"/>
+      <c r="AD24" s="89"/>
       <c r="AE24" s="3"/>
     </row>
     <row r="25" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
-      <c r="C25" s="57"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="64"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="67"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2885,29 +2898,29 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="86"/>
-      <c r="AB25" s="86"/>
-      <c r="AC25" s="86"/>
-      <c r="AD25" s="86"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="89"/>
       <c r="AE25" s="3"/>
     </row>
     <row r="26" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
-      <c r="C26" s="57"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="64"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="67"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2917,29 +2930,29 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="86"/>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="86"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="89"/>
+      <c r="AC26" s="89"/>
+      <c r="AD26" s="89"/>
       <c r="AE26" s="3"/>
     </row>
     <row r="27" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
-      <c r="C27" s="57"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="67"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2949,29 +2962,29 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="86"/>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="86"/>
-      <c r="AA27" s="86"/>
-      <c r="AB27" s="86"/>
-      <c r="AC27" s="86"/>
-      <c r="AD27" s="86"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="89"/>
+      <c r="AD27" s="89"/>
       <c r="AE27" s="3"/>
     </row>
     <row r="28" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="57"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="64"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="67"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2981,29 +2994,29 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="86"/>
-      <c r="X28" s="86"/>
-      <c r="Y28" s="86"/>
-      <c r="Z28" s="86"/>
-      <c r="AA28" s="86"/>
-      <c r="AB28" s="86"/>
-      <c r="AC28" s="86"/>
-      <c r="AD28" s="86"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="89"/>
+      <c r="AD28" s="89"/>
       <c r="AE28" s="3"/>
     </row>
     <row r="29" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="57"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="67"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="70"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -3013,19 +3026,19 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="86"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="86"/>
-      <c r="AC29" s="86"/>
-      <c r="AD29" s="86"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="89"/>
+      <c r="AC29" s="89"/>
+      <c r="AD29" s="89"/>
       <c r="AE29" s="3"/>
     </row>
     <row r="30" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="58"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -3045,14 +3058,14 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="86"/>
-      <c r="X30" s="86"/>
-      <c r="Y30" s="86"/>
-      <c r="Z30" s="86"/>
-      <c r="AA30" s="86"/>
-      <c r="AB30" s="86"/>
-      <c r="AC30" s="86"/>
-      <c r="AD30" s="86"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
+      <c r="AC30" s="89"/>
+      <c r="AD30" s="89"/>
       <c r="AE30" s="3"/>
     </row>
     <row r="31" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3061,13 +3074,13 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="55"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="58"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -3091,262 +3104,262 @@
     </row>
     <row r="32" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="90"/>
-      <c r="T33" s="90"/>
-      <c r="U33" s="90"/>
-      <c r="V33" s="90"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="90"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
     </row>
     <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="88" t="s">
+      <c r="C34" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88" t="s">
+      <c r="D34" s="52"/>
+      <c r="E34" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="88"/>
-      <c r="R34" s="88"/>
-      <c r="S34" s="88"/>
-      <c r="T34" s="88"/>
-      <c r="U34" s="88" t="s">
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="88"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
     </row>
     <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="89" t="s">
-        <v>160</v>
-      </c>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="88"/>
-      <c r="U35" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="V35" s="88"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="88"/>
+      <c r="C35" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
     </row>
     <row r="36" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="88" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="89" t="s">
-        <v>162</v>
-      </c>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="88"/>
-      <c r="R36" s="88"/>
-      <c r="S36" s="88"/>
-      <c r="T36" s="88"/>
-      <c r="U36" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="V36" s="88"/>
-      <c r="W36" s="88"/>
-      <c r="X36" s="88"/>
+      <c r="C36" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="52"/>
+      <c r="E36" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
     </row>
     <row r="37" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" s="88" t="s">
+      <c r="C37" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="E37" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="88"/>
-      <c r="E37" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="88"/>
-      <c r="S37" s="88"/>
-      <c r="T37" s="88"/>
-      <c r="U37" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="V37" s="88"/>
-      <c r="W37" s="88"/>
-      <c r="X37" s="88"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
     </row>
     <row r="38" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>3</v>
       </c>
-      <c r="C38" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="88"/>
-      <c r="E38" s="89" t="s">
-        <v>165</v>
-      </c>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="88"/>
-      <c r="S38" s="88"/>
-      <c r="T38" s="88"/>
-      <c r="U38" s="88" t="s">
+      <c r="C38" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="52"/>
+      <c r="E38" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="V38" s="88"/>
-      <c r="W38" s="88"/>
-      <c r="X38" s="88"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
     </row>
     <row r="39" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>4</v>
       </c>
-      <c r="C39" s="88" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="88"/>
-      <c r="E39" s="89" t="s">
-        <v>166</v>
-      </c>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="88"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="88"/>
-      <c r="T39" s="88"/>
-      <c r="U39" s="88" t="s">
+      <c r="C39" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="52"/>
+      <c r="E39" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="V39" s="88"/>
-      <c r="W39" s="88"/>
-      <c r="X39" s="88"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
     </row>
     <row r="40" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="C40" s="88" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="88"/>
-      <c r="T40" s="88"/>
-      <c r="U40" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="V40" s="88"/>
-      <c r="W40" s="88"/>
-      <c r="X40" s="88"/>
+      <c r="C40" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
     </row>
     <row r="41" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="31"/>
@@ -3400,6 +3413,25 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C3:L10"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="C19:C30"/>
+    <mergeCell ref="E22:M29"/>
+    <mergeCell ref="Y8:AB9"/>
+    <mergeCell ref="Y4:AB6"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="W19:AD30"/>
+    <mergeCell ref="C12:M18"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:T36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="B33:X33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:T34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:T35"/>
+    <mergeCell ref="U35:X35"/>
     <mergeCell ref="U37:X37"/>
     <mergeCell ref="E37:T37"/>
     <mergeCell ref="C37:D37"/>
@@ -3412,25 +3444,6 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:T39"/>
     <mergeCell ref="U39:X39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:T36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="B33:X33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:T34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:T35"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="C3:L10"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="C19:C30"/>
-    <mergeCell ref="E22:M29"/>
-    <mergeCell ref="Y8:AB9"/>
-    <mergeCell ref="Y4:AB6"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="W19:AD30"/>
-    <mergeCell ref="C12:M18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3442,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AO116"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3540,7 +3553,7 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="91"/>
       <c r="H4" s="91"/>
@@ -3576,7 +3589,7 @@
       <c r="AL4" s="12"/>
       <c r="AN4" s="15"/>
       <c r="AO4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3619,7 +3632,7 @@
       <c r="AL5" s="12"/>
       <c r="AN5" s="23"/>
       <c r="AO5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3705,7 +3718,7 @@
       <c r="AL7" s="12"/>
       <c r="AN7" s="35"/>
       <c r="AO7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3748,7 +3761,7 @@
       <c r="AL8" s="12"/>
       <c r="AN8" s="26"/>
       <c r="AO8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3920,7 +3933,7 @@
       <c r="AL12" s="12"/>
       <c r="AN12" s="34"/>
       <c r="AO12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4161,460 +4174,460 @@
     </row>
     <row r="19" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
     </row>
     <row r="21" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88" t="s">
+      <c r="D21" s="52"/>
+      <c r="E21" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88" t="s">
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="88"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
     </row>
     <row r="22" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89" t="s">
+      <c r="D22" s="52"/>
+      <c r="E22" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88" t="s">
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="88"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
     </row>
     <row r="23" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89" t="s">
+      <c r="D23" s="52"/>
+      <c r="E23" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="88" t="s">
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="88"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
     </row>
     <row r="24" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88" t="s">
+      <c r="D24" s="52"/>
+      <c r="E24" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="88" t="s">
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="V24" s="88"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="88"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
     </row>
     <row r="25" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88" t="s">
+      <c r="D25" s="52"/>
+      <c r="E25" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="88" t="s">
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="88"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="88"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
     </row>
     <row r="26" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26" s="88" t="s">
+      <c r="C26" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89" t="s">
+      <c r="D26" s="52"/>
+      <c r="E26" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="89"/>
-      <c r="R26" s="89"/>
-      <c r="S26" s="89"/>
-      <c r="T26" s="89"/>
-      <c r="U26" s="88" t="s">
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="88"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
     </row>
     <row r="27" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="V27" s="88"/>
-      <c r="W27" s="88"/>
-      <c r="X27" s="88"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="134" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
     </row>
     <row r="28" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>6</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="89"/>
-      <c r="U28" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="88"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
     </row>
     <row r="29" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>7</v>
       </c>
-      <c r="C29" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88" t="s">
+      <c r="C29" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88" t="s">
+      <c r="D29" s="52"/>
+      <c r="E29" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="88"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
     </row>
     <row r="30" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>8</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="88"/>
-      <c r="S30" s="88"/>
-      <c r="T30" s="88"/>
-      <c r="U30" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="V30" s="88"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="88"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
     </row>
     <row r="31" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>9</v>
       </c>
-      <c r="C31" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="88"/>
-      <c r="U31" s="88" t="s">
+      <c r="C31" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="88"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
     </row>
     <row r="32" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>10</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="88"/>
-      <c r="S32" s="88"/>
-      <c r="T32" s="88"/>
-      <c r="U32" s="88" t="s">
+      <c r="D32" s="52"/>
+      <c r="E32" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="V32" s="88"/>
-      <c r="W32" s="88"/>
-      <c r="X32" s="88"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
     </row>
     <row r="33" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>11</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88" t="s">
+      <c r="D33" s="52"/>
+      <c r="E33" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="88"/>
-      <c r="S33" s="88"/>
-      <c r="T33" s="88"/>
-      <c r="U33" s="88" t="s">
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="88"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="88"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
     </row>
     <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4701,6 +4714,32 @@
     <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="F4:H6"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="E21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="E24:T24"/>
+    <mergeCell ref="E23:T23"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="E27:T27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="E29:T29"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:T28"/>
+    <mergeCell ref="U28:X28"/>
     <mergeCell ref="E33:T33"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="B20:X20"/>
@@ -4717,35 +4756,10 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:T30"/>
     <mergeCell ref="E22:T22"/>
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="E27:T27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="E29:T29"/>
-    <mergeCell ref="E31:T31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:T28"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="F4:H6"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="E21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="E24:T24"/>
-    <mergeCell ref="E23:T23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4753,8 +4767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V64" sqref="V64:AB64"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67:U67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4763,9 +4777,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
     </row>
     <row r="2" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T2" s="3"/>
@@ -4873,7 +4887,7 @@
       <c r="AB10" s="3"/>
       <c r="AX10" s="37"/>
       <c r="AY10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4888,7 +4902,7 @@
       <c r="AB11" s="3"/>
       <c r="AX11" s="26"/>
       <c r="AY11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4903,7 +4917,7 @@
       <c r="AB12" s="3"/>
       <c r="AX12" s="36"/>
       <c r="AY12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4918,10 +4932,10 @@
       <c r="AB13" s="3"/>
       <c r="AX13" s="38"/>
       <c r="AY13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB13" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4936,10 +4950,10 @@
       <c r="AB14" s="3"/>
       <c r="AX14" s="26"/>
       <c r="AY14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BB14" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4954,10 +4968,10 @@
       <c r="AB15" s="3"/>
       <c r="AX15" s="39"/>
       <c r="AY15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BB15" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4972,10 +4986,10 @@
       <c r="AB16" s="3"/>
       <c r="AX16" s="34"/>
       <c r="AY16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BB16" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5033,10 +5047,10 @@
       <c r="AC20" s="23"/>
       <c r="AD20" s="23"/>
       <c r="AE20" s="3"/>
-      <c r="AK20" s="88"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="88"/>
-      <c r="AN20" s="88"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="52"/>
+      <c r="AM20" s="52"/>
+      <c r="AN20" s="52"/>
     </row>
     <row r="21" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
@@ -5528,10 +5542,10 @@
       <c r="AC31" s="23"/>
       <c r="AD31" s="23"/>
       <c r="AE31" s="3"/>
-      <c r="AK31" s="88"/>
-      <c r="AL31" s="88"/>
-      <c r="AM31" s="88"/>
-      <c r="AN31" s="88"/>
+      <c r="AK31" s="52"/>
+      <c r="AL31" s="52"/>
+      <c r="AM31" s="52"/>
+      <c r="AN31" s="52"/>
     </row>
     <row r="32" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R32" s="3"/>
@@ -5741,538 +5755,538 @@
     <row r="51" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="90" t="s">
+      <c r="C53" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="90"/>
-      <c r="N53" s="90"/>
-      <c r="O53" s="90"/>
-      <c r="P53" s="90"/>
-      <c r="Q53" s="90"/>
-      <c r="R53" s="90"/>
-      <c r="S53" s="90"/>
-      <c r="T53" s="90"/>
-      <c r="U53" s="90"/>
-      <c r="V53" s="90"/>
-      <c r="W53" s="90"/>
-      <c r="X53" s="90"/>
-      <c r="Y53" s="90"/>
-      <c r="Z53" s="90"/>
-      <c r="AA53" s="90"/>
-      <c r="AB53" s="90"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="54"/>
+      <c r="W53" s="54"/>
+      <c r="X53" s="54"/>
+      <c r="Y53" s="54"/>
+      <c r="Z53" s="54"/>
+      <c r="AA53" s="54"/>
+      <c r="AB53" s="54"/>
     </row>
     <row r="54" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="88" t="s">
+      <c r="D54" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88" t="s">
+      <c r="E54" s="52"/>
+      <c r="F54" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="88"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="88"/>
-      <c r="P54" s="88"/>
-      <c r="Q54" s="88"/>
-      <c r="R54" s="88"/>
-      <c r="S54" s="88"/>
-      <c r="T54" s="88"/>
-      <c r="U54" s="88"/>
-      <c r="V54" s="88" t="s">
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="52"/>
+      <c r="V54" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="W54" s="88"/>
-      <c r="X54" s="88"/>
-      <c r="Y54" s="88"/>
-      <c r="Z54" s="88"/>
-      <c r="AA54" s="88"/>
-      <c r="AB54" s="88"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
+      <c r="Z54" s="52"/>
+      <c r="AA54" s="52"/>
+      <c r="AB54" s="52"/>
     </row>
     <row r="55" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" s="88" t="s">
+      <c r="D55" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="88"/>
-      <c r="F55" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="88"/>
-      <c r="L55" s="88"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="88"/>
-      <c r="P55" s="88"/>
-      <c r="Q55" s="88"/>
-      <c r="R55" s="88"/>
-      <c r="S55" s="88"/>
-      <c r="T55" s="88"/>
-      <c r="U55" s="88"/>
-      <c r="V55" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="W55" s="88"/>
-      <c r="X55" s="88"/>
-      <c r="Y55" s="88"/>
-      <c r="Z55" s="88"/>
-      <c r="AA55" s="88"/>
-      <c r="AB55" s="88"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="52"/>
     </row>
     <row r="56" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="88" t="s">
+      <c r="D56" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="G56" s="88"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="K56" s="88"/>
-      <c r="L56" s="88"/>
-      <c r="M56" s="88"/>
-      <c r="N56" s="88"/>
-      <c r="O56" s="88"/>
-      <c r="P56" s="88"/>
-      <c r="Q56" s="88"/>
-      <c r="R56" s="88"/>
-      <c r="S56" s="88"/>
-      <c r="T56" s="88"/>
-      <c r="U56" s="88"/>
-      <c r="V56" s="88" t="s">
+      <c r="E56" s="52"/>
+      <c r="F56" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="W56" s="88"/>
-      <c r="X56" s="88"/>
-      <c r="Y56" s="88"/>
-      <c r="Z56" s="88"/>
-      <c r="AA56" s="88"/>
-      <c r="AB56" s="88"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
+      <c r="R56" s="52"/>
+      <c r="S56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="52"/>
+      <c r="V56" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="W56" s="52"/>
+      <c r="X56" s="52"/>
+      <c r="Y56" s="52"/>
+      <c r="Z56" s="52"/>
+      <c r="AA56" s="52"/>
+      <c r="AB56" s="52"/>
     </row>
     <row r="57" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57" s="88" t="s">
+      <c r="D57" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="88"/>
-      <c r="F57" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="88"/>
-      <c r="M57" s="88"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="88"/>
-      <c r="P57" s="88"/>
-      <c r="Q57" s="88"/>
-      <c r="R57" s="88"/>
-      <c r="S57" s="88"/>
-      <c r="T57" s="88"/>
-      <c r="U57" s="88"/>
-      <c r="V57" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="W57" s="88"/>
-      <c r="X57" s="88"/>
-      <c r="Y57" s="88"/>
-      <c r="Z57" s="88"/>
-      <c r="AA57" s="88"/>
-      <c r="AB57" s="88"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="W57" s="52"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="52"/>
+      <c r="Z57" s="52"/>
+      <c r="AA57" s="52"/>
+      <c r="AB57" s="52"/>
     </row>
     <row r="58" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>3</v>
       </c>
-      <c r="D58" s="88" t="s">
+      <c r="D58" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="88"/>
-      <c r="F58" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" s="88"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
-      <c r="K58" s="88"/>
-      <c r="L58" s="88"/>
-      <c r="M58" s="88"/>
-      <c r="N58" s="88"/>
-      <c r="O58" s="88"/>
-      <c r="P58" s="88"/>
-      <c r="Q58" s="88"/>
-      <c r="R58" s="88"/>
-      <c r="S58" s="88"/>
-      <c r="T58" s="88"/>
-      <c r="U58" s="88"/>
-      <c r="V58" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="W58" s="88"/>
-      <c r="X58" s="88"/>
-      <c r="Y58" s="88"/>
-      <c r="Z58" s="88"/>
-      <c r="AA58" s="88"/>
-      <c r="AB58" s="88"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="W58" s="52"/>
+      <c r="X58" s="52"/>
+      <c r="Y58" s="52"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="52"/>
+      <c r="AB58" s="52"/>
     </row>
     <row r="59" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>4</v>
       </c>
-      <c r="D59" s="88" t="s">
+      <c r="D59" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="88"/>
-      <c r="F59" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
-      <c r="M59" s="88"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="88"/>
-      <c r="P59" s="88"/>
-      <c r="Q59" s="88"/>
-      <c r="R59" s="88"/>
-      <c r="S59" s="88"/>
-      <c r="T59" s="88"/>
-      <c r="U59" s="88"/>
-      <c r="V59" s="88" t="s">
+      <c r="E59" s="52"/>
+      <c r="F59" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="W59" s="88"/>
-      <c r="X59" s="88"/>
-      <c r="Y59" s="88"/>
-      <c r="Z59" s="88"/>
-      <c r="AA59" s="88"/>
-      <c r="AB59" s="88"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="52"/>
+      <c r="U59" s="52"/>
+      <c r="V59" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="W59" s="52"/>
+      <c r="X59" s="52"/>
+      <c r="Y59" s="52"/>
+      <c r="Z59" s="52"/>
+      <c r="AA59" s="52"/>
+      <c r="AB59" s="52"/>
     </row>
     <row r="60" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>5</v>
       </c>
-      <c r="D60" s="88" t="s">
+      <c r="D60" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88" t="s">
+      <c r="E60" s="52"/>
+      <c r="F60" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="52"/>
+      <c r="Q60" s="52"/>
+      <c r="R60" s="52"/>
+      <c r="S60" s="52"/>
+      <c r="T60" s="52"/>
+      <c r="U60" s="52"/>
+      <c r="V60" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="88"/>
-      <c r="M60" s="88"/>
-      <c r="N60" s="88"/>
-      <c r="O60" s="88"/>
-      <c r="P60" s="88"/>
-      <c r="Q60" s="88"/>
-      <c r="R60" s="88"/>
-      <c r="S60" s="88"/>
-      <c r="T60" s="88"/>
-      <c r="U60" s="88"/>
-      <c r="V60" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="W60" s="88"/>
-      <c r="X60" s="88"/>
-      <c r="Y60" s="88"/>
-      <c r="Z60" s="88"/>
-      <c r="AA60" s="88"/>
-      <c r="AB60" s="88"/>
+      <c r="W60" s="52"/>
+      <c r="X60" s="52"/>
+      <c r="Y60" s="52"/>
+      <c r="Z60" s="52"/>
+      <c r="AA60" s="52"/>
+      <c r="AB60" s="52"/>
     </row>
     <row r="61" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>6</v>
       </c>
-      <c r="D61" s="88" t="s">
+      <c r="D61" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="88"/>
-      <c r="F61" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="G61" s="88"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="88"/>
-      <c r="L61" s="88"/>
-      <c r="M61" s="88"/>
-      <c r="N61" s="88"/>
-      <c r="O61" s="88"/>
-      <c r="P61" s="88"/>
-      <c r="Q61" s="88"/>
-      <c r="R61" s="88"/>
-      <c r="S61" s="88"/>
-      <c r="T61" s="88"/>
-      <c r="U61" s="88"/>
-      <c r="V61" s="88" t="s">
+      <c r="E61" s="52"/>
+      <c r="F61" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="W61" s="88"/>
-      <c r="X61" s="88"/>
-      <c r="Y61" s="88"/>
-      <c r="Z61" s="88"/>
-      <c r="AA61" s="88"/>
-      <c r="AB61" s="88"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="52"/>
+      <c r="Q61" s="52"/>
+      <c r="R61" s="52"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="52"/>
+      <c r="U61" s="52"/>
+      <c r="V61" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="W61" s="52"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="52"/>
+      <c r="Z61" s="52"/>
+      <c r="AA61" s="52"/>
+      <c r="AB61" s="52"/>
     </row>
     <row r="62" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>7</v>
       </c>
-      <c r="D62" s="88" t="s">
+      <c r="D62" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="88"/>
-      <c r="F62" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="G62" s="88"/>
-      <c r="H62" s="88"/>
-      <c r="I62" s="88"/>
-      <c r="J62" s="88"/>
-      <c r="K62" s="88"/>
-      <c r="L62" s="88"/>
-      <c r="M62" s="88"/>
-      <c r="N62" s="88"/>
-      <c r="O62" s="88"/>
-      <c r="P62" s="88"/>
-      <c r="Q62" s="88"/>
-      <c r="R62" s="88"/>
-      <c r="S62" s="88"/>
-      <c r="T62" s="88"/>
-      <c r="U62" s="88"/>
-      <c r="V62" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="W62" s="88"/>
-      <c r="X62" s="88"/>
-      <c r="Y62" s="88"/>
-      <c r="Z62" s="88"/>
-      <c r="AA62" s="88"/>
-      <c r="AB62" s="88"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
+      <c r="R62" s="52"/>
+      <c r="S62" s="52"/>
+      <c r="T62" s="52"/>
+      <c r="U62" s="52"/>
+      <c r="V62" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="W62" s="52"/>
+      <c r="X62" s="52"/>
+      <c r="Y62" s="52"/>
+      <c r="Z62" s="52"/>
+      <c r="AA62" s="52"/>
+      <c r="AB62" s="52"/>
     </row>
     <row r="63" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>8</v>
       </c>
-      <c r="D63" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="E63" s="88"/>
-      <c r="F63" s="88" t="s">
+      <c r="D63" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="52"/>
+      <c r="R63" s="52"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="52"/>
+      <c r="U63" s="52"/>
+      <c r="V63" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="G63" s="88"/>
-      <c r="H63" s="88"/>
-      <c r="I63" s="88"/>
-      <c r="J63" s="88"/>
-      <c r="K63" s="88"/>
-      <c r="L63" s="88"/>
-      <c r="M63" s="88"/>
-      <c r="N63" s="88"/>
-      <c r="O63" s="88"/>
-      <c r="P63" s="88"/>
-      <c r="Q63" s="88"/>
-      <c r="R63" s="88"/>
-      <c r="S63" s="88"/>
-      <c r="T63" s="88"/>
-      <c r="U63" s="88"/>
-      <c r="V63" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="W63" s="88"/>
-      <c r="X63" s="88"/>
-      <c r="Y63" s="88"/>
-      <c r="Z63" s="88"/>
-      <c r="AA63" s="88"/>
-      <c r="AB63" s="88"/>
+      <c r="W63" s="52"/>
+      <c r="X63" s="52"/>
+      <c r="Y63" s="52"/>
+      <c r="Z63" s="52"/>
+      <c r="AA63" s="52"/>
+      <c r="AB63" s="52"/>
     </row>
     <row r="64" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>9</v>
       </c>
-      <c r="D64" s="88" t="s">
+      <c r="D64" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="88"/>
-      <c r="F64" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="G64" s="88"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="88"/>
-      <c r="K64" s="88"/>
-      <c r="L64" s="88"/>
-      <c r="M64" s="88"/>
-      <c r="N64" s="88"/>
-      <c r="O64" s="88"/>
-      <c r="P64" s="88"/>
-      <c r="Q64" s="88"/>
-      <c r="R64" s="88"/>
-      <c r="S64" s="88"/>
-      <c r="T64" s="88"/>
-      <c r="U64" s="88"/>
-      <c r="V64" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="W64" s="88"/>
-      <c r="X64" s="88"/>
-      <c r="Y64" s="88"/>
-      <c r="Z64" s="88"/>
-      <c r="AA64" s="88"/>
-      <c r="AB64" s="88"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="52"/>
+      <c r="R64" s="52"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="52"/>
+      <c r="U64" s="52"/>
+      <c r="V64" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="W64" s="52"/>
+      <c r="X64" s="52"/>
+      <c r="Y64" s="52"/>
+      <c r="Z64" s="52"/>
+      <c r="AA64" s="52"/>
+      <c r="AB64" s="52"/>
     </row>
     <row r="65" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>10</v>
       </c>
-      <c r="D65" s="88" t="s">
+      <c r="D65" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="88"/>
-      <c r="F65" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="G65" s="88"/>
-      <c r="H65" s="88"/>
-      <c r="I65" s="88"/>
-      <c r="J65" s="88"/>
-      <c r="K65" s="88"/>
-      <c r="L65" s="88"/>
-      <c r="M65" s="88"/>
-      <c r="N65" s="88"/>
-      <c r="O65" s="88"/>
-      <c r="P65" s="88"/>
-      <c r="Q65" s="88"/>
-      <c r="R65" s="88"/>
-      <c r="S65" s="88"/>
-      <c r="T65" s="88"/>
-      <c r="U65" s="88"/>
-      <c r="V65" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="W65" s="88"/>
-      <c r="X65" s="88"/>
-      <c r="Y65" s="88"/>
-      <c r="Z65" s="88"/>
-      <c r="AA65" s="88"/>
-      <c r="AB65" s="88"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="52"/>
+      <c r="P65" s="52"/>
+      <c r="Q65" s="52"/>
+      <c r="R65" s="52"/>
+      <c r="S65" s="52"/>
+      <c r="T65" s="52"/>
+      <c r="U65" s="52"/>
+      <c r="V65" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="W65" s="52"/>
+      <c r="X65" s="52"/>
+      <c r="Y65" s="52"/>
+      <c r="Z65" s="52"/>
+      <c r="AA65" s="52"/>
+      <c r="AB65" s="52"/>
     </row>
     <row r="66" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>11</v>
       </c>
-      <c r="D66" s="88" t="s">
+      <c r="D66" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="88"/>
-      <c r="F66" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" s="88"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="88"/>
-      <c r="K66" s="88"/>
-      <c r="L66" s="88"/>
-      <c r="M66" s="88"/>
-      <c r="N66" s="88"/>
-      <c r="O66" s="88"/>
-      <c r="P66" s="88"/>
-      <c r="Q66" s="88"/>
-      <c r="R66" s="88"/>
-      <c r="S66" s="88"/>
-      <c r="T66" s="88"/>
-      <c r="U66" s="88"/>
-      <c r="V66" s="88" t="s">
+      <c r="E66" s="52"/>
+      <c r="F66" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="W66" s="88"/>
-      <c r="X66" s="88"/>
-      <c r="Y66" s="88"/>
-      <c r="Z66" s="88"/>
-      <c r="AA66" s="88"/>
-      <c r="AB66" s="88"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
+      <c r="O66" s="52"/>
+      <c r="P66" s="52"/>
+      <c r="Q66" s="52"/>
+      <c r="R66" s="52"/>
+      <c r="S66" s="52"/>
+      <c r="T66" s="52"/>
+      <c r="U66" s="52"/>
+      <c r="V66" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="W66" s="52"/>
+      <c r="X66" s="52"/>
+      <c r="Y66" s="52"/>
+      <c r="Z66" s="52"/>
+      <c r="AA66" s="52"/>
+      <c r="AB66" s="52"/>
     </row>
     <row r="67" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>12</v>
       </c>
-      <c r="D67" s="88" t="s">
+      <c r="D67" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="88"/>
-      <c r="F67" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="G67" s="88"/>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="88"/>
-      <c r="K67" s="88"/>
-      <c r="L67" s="88"/>
-      <c r="M67" s="88"/>
-      <c r="N67" s="88"/>
-      <c r="O67" s="88"/>
-      <c r="P67" s="88"/>
-      <c r="Q67" s="88"/>
-      <c r="R67" s="88"/>
-      <c r="S67" s="88"/>
-      <c r="T67" s="88"/>
-      <c r="U67" s="88"/>
-      <c r="V67" s="88" t="s">
+      <c r="E67" s="52"/>
+      <c r="F67" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="W67" s="88"/>
-      <c r="X67" s="88"/>
-      <c r="Y67" s="88"/>
-      <c r="Z67" s="88"/>
-      <c r="AA67" s="88"/>
-      <c r="AB67" s="88"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="52"/>
+      <c r="O67" s="52"/>
+      <c r="P67" s="52"/>
+      <c r="Q67" s="52"/>
+      <c r="R67" s="52"/>
+      <c r="S67" s="52"/>
+      <c r="T67" s="52"/>
+      <c r="U67" s="52"/>
+      <c r="V67" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="W67" s="52"/>
+      <c r="X67" s="52"/>
+      <c r="Y67" s="52"/>
+      <c r="Z67" s="52"/>
+      <c r="AA67" s="52"/>
+      <c r="AB67" s="52"/>
     </row>
     <row r="68" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6328,26 +6342,19 @@
     <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="V67:AB67"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:U64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:U65"/>
-    <mergeCell ref="V64:AB64"/>
-    <mergeCell ref="V65:AB65"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:U63"/>
-    <mergeCell ref="V62:AB62"/>
-    <mergeCell ref="V63:AB63"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:U66"/>
-    <mergeCell ref="V66:AB66"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:U61"/>
-    <mergeCell ref="V60:AB60"/>
-    <mergeCell ref="V61:AB61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:U62"/>
+    <mergeCell ref="AK20:AN20"/>
+    <mergeCell ref="AK31:AN31"/>
+    <mergeCell ref="AU24:AU27"/>
+    <mergeCell ref="C53:AB53"/>
+    <mergeCell ref="V55:AB55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:U55"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:U54"/>
+    <mergeCell ref="V54:AB54"/>
     <mergeCell ref="V58:AB58"/>
     <mergeCell ref="V59:AB59"/>
     <mergeCell ref="D56:E56"/>
@@ -6364,19 +6371,26 @@
     <mergeCell ref="F59:U59"/>
     <mergeCell ref="F58:U58"/>
     <mergeCell ref="D60:E60"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:U54"/>
-    <mergeCell ref="V54:AB54"/>
-    <mergeCell ref="AK20:AN20"/>
-    <mergeCell ref="AK31:AN31"/>
-    <mergeCell ref="AU24:AU27"/>
-    <mergeCell ref="C53:AB53"/>
-    <mergeCell ref="V55:AB55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:U55"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:U61"/>
+    <mergeCell ref="V60:AB60"/>
+    <mergeCell ref="V61:AB61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:U62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:U63"/>
+    <mergeCell ref="V62:AB62"/>
+    <mergeCell ref="V63:AB63"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:U66"/>
+    <mergeCell ref="V66:AB66"/>
+    <mergeCell ref="V67:AB67"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:U64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:U65"/>
+    <mergeCell ref="V64:AB64"/>
+    <mergeCell ref="V65:AB65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6388,8 +6402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:CW77"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64:AG64"/>
+    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52:AG52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6440,7 +6454,7 @@
       <c r="AQ4" s="26"/>
       <c r="AU4" s="26"/>
       <c r="AV4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6486,7 +6500,7 @@
       <c r="AQ5" s="26"/>
       <c r="AU5" s="23"/>
       <c r="AV5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6532,7 +6546,7 @@
       <c r="AQ6" s="26"/>
       <c r="AU6" s="41"/>
       <c r="AV6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6540,7 +6554,7 @@
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
       <c r="G7" s="120" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" s="120"/>
       <c r="I7" s="120"/>
@@ -6569,7 +6583,7 @@
       <c r="AF7" s="26"/>
       <c r="AG7" s="26"/>
       <c r="AH7" s="121" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI7" s="121"/>
       <c r="AJ7" s="121"/>
@@ -6582,7 +6596,7 @@
       <c r="AQ7" s="26"/>
       <c r="AU7" s="15"/>
       <c r="AV7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6628,7 +6642,7 @@
       <c r="AQ8" s="26"/>
       <c r="AU8" s="8"/>
       <c r="AV8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6674,7 +6688,7 @@
       <c r="AQ9" s="26"/>
       <c r="AU9" s="51"/>
       <c r="AV9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6802,38 +6816,38 @@
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AU12" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV12" s="88"/>
-      <c r="AW12" s="88"/>
-      <c r="AX12" s="88"/>
-      <c r="AY12" s="88"/>
-      <c r="AZ12" s="88"/>
-      <c r="BA12" s="88"/>
-      <c r="BB12" s="88"/>
-      <c r="BC12" s="88"/>
-      <c r="BD12" s="88"/>
-      <c r="BE12" s="88"/>
-      <c r="BF12" s="88"/>
-      <c r="BG12" s="88"/>
-      <c r="BH12" s="88"/>
-      <c r="BJ12" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="BK12" s="88"/>
-      <c r="BL12" s="88"/>
-      <c r="BM12" s="88"/>
-      <c r="BN12" s="88"/>
-      <c r="BO12" s="88"/>
-      <c r="BP12" s="88"/>
-      <c r="BQ12" s="88"/>
-      <c r="BR12" s="88"/>
-      <c r="BS12" s="88"/>
-      <c r="BT12" s="88"/>
-      <c r="BU12" s="88"/>
-      <c r="BV12" s="88"/>
-      <c r="BW12" s="88"/>
+      <c r="AU12" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV12" s="52"/>
+      <c r="AW12" s="52"/>
+      <c r="AX12" s="52"/>
+      <c r="AY12" s="52"/>
+      <c r="AZ12" s="52"/>
+      <c r="BA12" s="52"/>
+      <c r="BB12" s="52"/>
+      <c r="BC12" s="52"/>
+      <c r="BD12" s="52"/>
+      <c r="BE12" s="52"/>
+      <c r="BF12" s="52"/>
+      <c r="BG12" s="52"/>
+      <c r="BH12" s="52"/>
+      <c r="BJ12" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK12" s="52"/>
+      <c r="BL12" s="52"/>
+      <c r="BM12" s="52"/>
+      <c r="BN12" s="52"/>
+      <c r="BO12" s="52"/>
+      <c r="BP12" s="52"/>
+      <c r="BQ12" s="52"/>
+      <c r="BR12" s="52"/>
+      <c r="BS12" s="52"/>
+      <c r="BT12" s="52"/>
+      <c r="BU12" s="52"/>
+      <c r="BV12" s="52"/>
+      <c r="BW12" s="52"/>
     </row>
     <row r="13" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="26"/>
@@ -6964,7 +6978,7 @@
       <c r="BK14" s="23"/>
       <c r="BL14" s="23"/>
       <c r="BM14" s="95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BN14" s="96"/>
       <c r="BO14" s="96"/>
@@ -7064,7 +7078,7 @@
       <c r="Q16" s="26"/>
       <c r="R16" s="26"/>
       <c r="S16" s="124" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T16" s="124"/>
       <c r="U16" s="124"/>
@@ -7236,7 +7250,7 @@
       <c r="AX18" s="23"/>
       <c r="AY18" s="23"/>
       <c r="AZ18" s="125" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BA18" s="126"/>
       <c r="BB18" s="126"/>
@@ -7400,22 +7414,22 @@
       <c r="BU20" s="23"/>
       <c r="BV20" s="23"/>
       <c r="BW20" s="23"/>
-      <c r="BY20" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="BZ20" s="88"/>
-      <c r="CA20" s="88"/>
-      <c r="CB20" s="88"/>
-      <c r="CC20" s="88"/>
-      <c r="CD20" s="88"/>
-      <c r="CE20" s="88"/>
-      <c r="CF20" s="88"/>
-      <c r="CG20" s="88"/>
-      <c r="CH20" s="88"/>
-      <c r="CI20" s="88"/>
-      <c r="CJ20" s="88"/>
-      <c r="CK20" s="88"/>
-      <c r="CL20" s="88"/>
+      <c r="BY20" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="BZ20" s="52"/>
+      <c r="CA20" s="52"/>
+      <c r="CB20" s="52"/>
+      <c r="CC20" s="52"/>
+      <c r="CD20" s="52"/>
+      <c r="CE20" s="52"/>
+      <c r="CF20" s="52"/>
+      <c r="CG20" s="52"/>
+      <c r="CH20" s="52"/>
+      <c r="CI20" s="52"/>
+      <c r="CJ20" s="52"/>
+      <c r="CK20" s="52"/>
+      <c r="CL20" s="52"/>
     </row>
     <row r="21" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="26"/>
@@ -7584,18 +7598,18 @@
       <c r="CJ22" s="23"/>
       <c r="CK22" s="23"/>
       <c r="CL22" s="26"/>
-      <c r="CN22" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="CO22" s="88"/>
-      <c r="CP22" s="88"/>
-      <c r="CQ22" s="88"/>
-      <c r="CR22" s="88"/>
-      <c r="CS22" s="88"/>
-      <c r="CT22" s="88"/>
-      <c r="CU22" s="88"/>
-      <c r="CV22" s="88"/>
-      <c r="CW22" s="88"/>
+      <c r="CN22" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO22" s="52"/>
+      <c r="CP22" s="52"/>
+      <c r="CQ22" s="52"/>
+      <c r="CR22" s="52"/>
+      <c r="CS22" s="52"/>
+      <c r="CT22" s="52"/>
+      <c r="CU22" s="52"/>
+      <c r="CV22" s="52"/>
+      <c r="CW22" s="52"/>
     </row>
     <row r="23" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="26"/>
@@ -7672,14 +7686,14 @@
       <c r="CB23" s="44"/>
       <c r="CC23" s="44"/>
       <c r="CD23" s="117" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="CE23" s="118"/>
       <c r="CF23" s="118"/>
       <c r="CG23" s="119"/>
       <c r="CH23" s="44"/>
       <c r="CI23" s="113" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="CJ23" s="114"/>
       <c r="CK23" s="23"/>
@@ -7744,7 +7758,7 @@
       <c r="BK24" s="23"/>
       <c r="BL24" s="23"/>
       <c r="BM24" s="95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BN24" s="96"/>
       <c r="BO24" s="96"/>
@@ -7944,7 +7958,7 @@
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="123" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" s="123"/>
       <c r="I27" s="123"/>
@@ -7973,14 +7987,14 @@
       <c r="AF27" s="26"/>
       <c r="AG27" s="26"/>
       <c r="AH27" s="122" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI27" s="52"/>
-      <c r="AJ27" s="52"/>
-      <c r="AK27" s="52"/>
-      <c r="AL27" s="52"/>
-      <c r="AM27" s="52"/>
-      <c r="AN27" s="52"/>
+        <v>87</v>
+      </c>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="55"/>
+      <c r="AK27" s="55"/>
+      <c r="AL27" s="55"/>
+      <c r="AM27" s="55"/>
+      <c r="AN27" s="55"/>
       <c r="AO27" s="26"/>
       <c r="AP27" s="26"/>
       <c r="AQ27" s="26"/>
@@ -8030,48 +8044,48 @@
       <c r="AE28" s="26"/>
       <c r="AF28" s="26"/>
       <c r="AG28" s="26"/>
-      <c r="AH28" s="52"/>
-      <c r="AI28" s="52"/>
-      <c r="AJ28" s="52"/>
-      <c r="AK28" s="52"/>
-      <c r="AL28" s="52"/>
-      <c r="AM28" s="52"/>
-      <c r="AN28" s="52"/>
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="55"/>
+      <c r="AJ28" s="55"/>
+      <c r="AK28" s="55"/>
+      <c r="AL28" s="55"/>
+      <c r="AM28" s="55"/>
+      <c r="AN28" s="55"/>
       <c r="AO28" s="26"/>
       <c r="AP28" s="26"/>
       <c r="AQ28" s="26"/>
-      <c r="AU28" s="88" t="s">
+      <c r="AU28" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV28" s="52"/>
+      <c r="AW28" s="52"/>
+      <c r="AX28" s="52"/>
+      <c r="AY28" s="52"/>
+      <c r="AZ28" s="52"/>
+      <c r="BA28" s="52"/>
+      <c r="BB28" s="52"/>
+      <c r="BC28" s="52"/>
+      <c r="BD28" s="52"/>
+      <c r="BE28" s="52"/>
+      <c r="BF28" s="52"/>
+      <c r="BG28" s="52"/>
+      <c r="BH28" s="52"/>
+      <c r="BJ28" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="AV28" s="88"/>
-      <c r="AW28" s="88"/>
-      <c r="AX28" s="88"/>
-      <c r="AY28" s="88"/>
-      <c r="AZ28" s="88"/>
-      <c r="BA28" s="88"/>
-      <c r="BB28" s="88"/>
-      <c r="BC28" s="88"/>
-      <c r="BD28" s="88"/>
-      <c r="BE28" s="88"/>
-      <c r="BF28" s="88"/>
-      <c r="BG28" s="88"/>
-      <c r="BH28" s="88"/>
-      <c r="BJ28" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK28" s="88"/>
-      <c r="BL28" s="88"/>
-      <c r="BM28" s="88"/>
-      <c r="BN28" s="88"/>
-      <c r="BO28" s="88"/>
-      <c r="BP28" s="88"/>
-      <c r="BQ28" s="88"/>
-      <c r="BR28" s="88"/>
-      <c r="BS28" s="88"/>
-      <c r="BT28" s="88"/>
-      <c r="BU28" s="88"/>
-      <c r="BV28" s="88"/>
-      <c r="BW28" s="88"/>
+      <c r="BK28" s="52"/>
+      <c r="BL28" s="52"/>
+      <c r="BM28" s="52"/>
+      <c r="BN28" s="52"/>
+      <c r="BO28" s="52"/>
+      <c r="BP28" s="52"/>
+      <c r="BQ28" s="52"/>
+      <c r="BR28" s="52"/>
+      <c r="BS28" s="52"/>
+      <c r="BT28" s="52"/>
+      <c r="BU28" s="52"/>
+      <c r="BV28" s="52"/>
+      <c r="BW28" s="52"/>
       <c r="BY28" s="23"/>
       <c r="BZ28" s="23"/>
       <c r="CA28" s="45"/>
@@ -8118,13 +8132,13 @@
       <c r="AE29" s="23"/>
       <c r="AF29" s="23"/>
       <c r="AG29" s="23"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="52"/>
-      <c r="AJ29" s="52"/>
-      <c r="AK29" s="52"/>
-      <c r="AL29" s="52"/>
-      <c r="AM29" s="52"/>
-      <c r="AN29" s="52"/>
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="55"/>
+      <c r="AJ29" s="55"/>
+      <c r="AK29" s="55"/>
+      <c r="AL29" s="55"/>
+      <c r="AM29" s="55"/>
+      <c r="AN29" s="55"/>
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
@@ -8202,13 +8216,13 @@
       <c r="AE30" s="23"/>
       <c r="AF30" s="23"/>
       <c r="AG30" s="23"/>
-      <c r="AH30" s="52"/>
-      <c r="AI30" s="52"/>
-      <c r="AJ30" s="52"/>
-      <c r="AK30" s="52"/>
-      <c r="AL30" s="52"/>
-      <c r="AM30" s="52"/>
-      <c r="AN30" s="52"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="55"/>
+      <c r="AJ30" s="55"/>
+      <c r="AK30" s="55"/>
+      <c r="AL30" s="55"/>
+      <c r="AM30" s="55"/>
+      <c r="AN30" s="55"/>
       <c r="AO30" s="26"/>
       <c r="AP30" s="26"/>
       <c r="AQ30" s="26"/>
@@ -8232,7 +8246,7 @@
       <c r="BM30" s="23"/>
       <c r="BN30" s="23"/>
       <c r="BO30" s="110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BP30" s="111"/>
       <c r="BQ30" s="111"/>
@@ -8257,7 +8271,7 @@
       <c r="CK30" s="23"/>
       <c r="CL30" s="26"/>
       <c r="CQ30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8291,13 +8305,13 @@
       <c r="AE31" s="23"/>
       <c r="AF31" s="23"/>
       <c r="AG31" s="23"/>
-      <c r="AH31" s="52"/>
-      <c r="AI31" s="52"/>
-      <c r="AJ31" s="52"/>
-      <c r="AK31" s="52"/>
-      <c r="AL31" s="52"/>
-      <c r="AM31" s="52"/>
-      <c r="AN31" s="52"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
       <c r="AO31" s="26"/>
       <c r="AP31" s="26"/>
       <c r="AQ31" s="26"/>
@@ -8375,13 +8389,13 @@
       <c r="AE32" s="26"/>
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
-      <c r="AH32" s="52"/>
-      <c r="AI32" s="52"/>
-      <c r="AJ32" s="52"/>
-      <c r="AK32" s="52"/>
-      <c r="AL32" s="52"/>
-      <c r="AM32" s="52"/>
-      <c r="AN32" s="52"/>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="55"/>
+      <c r="AJ32" s="55"/>
+      <c r="AK32" s="55"/>
+      <c r="AL32" s="55"/>
+      <c r="AM32" s="55"/>
+      <c r="AN32" s="55"/>
       <c r="AO32" s="26"/>
       <c r="AP32" s="26"/>
       <c r="AQ32" s="26"/>
@@ -8389,7 +8403,7 @@
       <c r="AV32" s="23"/>
       <c r="AW32" s="23"/>
       <c r="AX32" s="101" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AY32" s="102"/>
       <c r="AZ32" s="102"/>
@@ -8461,13 +8475,13 @@
       <c r="AE33" s="26"/>
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
-      <c r="AH33" s="52"/>
-      <c r="AI33" s="52"/>
-      <c r="AJ33" s="52"/>
-      <c r="AK33" s="52"/>
-      <c r="AL33" s="52"/>
-      <c r="AM33" s="52"/>
-      <c r="AN33" s="52"/>
+      <c r="AH33" s="55"/>
+      <c r="AI33" s="55"/>
+      <c r="AJ33" s="55"/>
+      <c r="AK33" s="55"/>
+      <c r="AL33" s="55"/>
+      <c r="AM33" s="55"/>
+      <c r="AN33" s="55"/>
       <c r="AO33" s="26"/>
       <c r="AP33" s="26"/>
       <c r="AQ33" s="26"/>
@@ -8769,45 +8783,45 @@
       <c r="BW37" s="23"/>
     </row>
     <row r="38" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="90" t="s">
+      <c r="D38" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="90"/>
-      <c r="O38" s="90"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="90"/>
-      <c r="T38" s="90"/>
-      <c r="U38" s="90"/>
-      <c r="V38" s="90"/>
-      <c r="W38" s="90"/>
-      <c r="X38" s="90"/>
-      <c r="Y38" s="90"/>
-      <c r="Z38" s="90"/>
-      <c r="AA38" s="90"/>
-      <c r="AB38" s="90"/>
-      <c r="AC38" s="90"/>
-      <c r="AD38" s="90"/>
-      <c r="AE38" s="90"/>
-      <c r="AF38" s="90"/>
-      <c r="AG38" s="90"/>
-      <c r="AH38" s="90"/>
-      <c r="AI38" s="90"/>
-      <c r="AJ38" s="90"/>
-      <c r="AK38" s="90"/>
-      <c r="AL38" s="90"/>
-      <c r="AM38" s="90"/>
-      <c r="AN38" s="90"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
+      <c r="AE38" s="54"/>
+      <c r="AF38" s="54"/>
+      <c r="AG38" s="54"/>
+      <c r="AH38" s="54"/>
+      <c r="AI38" s="54"/>
+      <c r="AJ38" s="54"/>
+      <c r="AK38" s="54"/>
+      <c r="AL38" s="54"/>
+      <c r="AM38" s="54"/>
+      <c r="AN38" s="54"/>
       <c r="AU38" s="26"/>
       <c r="AV38" s="23"/>
       <c r="AW38" s="23"/>
@@ -8839,50 +8853,50 @@
     </row>
     <row r="39" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52"/>
+      <c r="AD39" s="52"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52"/>
+      <c r="AH39" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="88"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="88"/>
-      <c r="T39" s="88"/>
-      <c r="U39" s="88"/>
-      <c r="V39" s="88"/>
-      <c r="W39" s="88"/>
-      <c r="X39" s="88"/>
-      <c r="Y39" s="88"/>
-      <c r="Z39" s="88"/>
-      <c r="AA39" s="88"/>
-      <c r="AB39" s="88"/>
-      <c r="AC39" s="88"/>
-      <c r="AD39" s="88"/>
-      <c r="AE39" s="88"/>
-      <c r="AF39" s="88"/>
-      <c r="AG39" s="88"/>
-      <c r="AH39" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI39" s="88"/>
-      <c r="AJ39" s="88"/>
-      <c r="AK39" s="88"/>
-      <c r="AL39" s="88"/>
-      <c r="AM39" s="88"/>
-      <c r="AN39" s="88"/>
+      <c r="AI39" s="52"/>
+      <c r="AJ39" s="52"/>
+      <c r="AK39" s="52"/>
+      <c r="AL39" s="52"/>
+      <c r="AM39" s="52"/>
+      <c r="AN39" s="52"/>
       <c r="AO39" s="31"/>
       <c r="AP39" s="31"/>
       <c r="AQ39" s="31"/>
@@ -8919,48 +8933,48 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="88" t="s">
+      <c r="E40" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="88"/>
-      <c r="G40" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="88"/>
-      <c r="T40" s="88"/>
-      <c r="U40" s="88"/>
-      <c r="V40" s="88"/>
-      <c r="W40" s="88"/>
-      <c r="X40" s="88"/>
-      <c r="Y40" s="88"/>
-      <c r="Z40" s="88"/>
-      <c r="AA40" s="88"/>
-      <c r="AB40" s="88"/>
-      <c r="AC40" s="88"/>
-      <c r="AD40" s="88"/>
-      <c r="AE40" s="88"/>
-      <c r="AF40" s="88"/>
-      <c r="AG40" s="88"/>
-      <c r="AH40" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI40" s="88"/>
-      <c r="AJ40" s="88"/>
-      <c r="AK40" s="88"/>
-      <c r="AL40" s="88"/>
-      <c r="AM40" s="88"/>
-      <c r="AN40" s="88"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="52"/>
+      <c r="W40" s="52"/>
+      <c r="X40" s="52"/>
+      <c r="Y40" s="52"/>
+      <c r="Z40" s="52"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="52"/>
+      <c r="AC40" s="52"/>
+      <c r="AD40" s="52"/>
+      <c r="AE40" s="52"/>
+      <c r="AF40" s="52"/>
+      <c r="AG40" s="52"/>
+      <c r="AH40" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI40" s="52"/>
+      <c r="AJ40" s="52"/>
+      <c r="AK40" s="52"/>
+      <c r="AL40" s="52"/>
+      <c r="AM40" s="52"/>
+      <c r="AN40" s="52"/>
       <c r="AU40" s="26"/>
       <c r="AV40" s="23"/>
       <c r="AW40" s="23"/>
@@ -8994,48 +9008,48 @@
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="E41" s="88" t="s">
+      <c r="E41" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="88"/>
-      <c r="V41" s="88"/>
-      <c r="W41" s="88"/>
-      <c r="X41" s="88"/>
-      <c r="Y41" s="88"/>
-      <c r="Z41" s="88"/>
-      <c r="AA41" s="88"/>
-      <c r="AB41" s="88"/>
-      <c r="AC41" s="88"/>
-      <c r="AD41" s="88"/>
-      <c r="AE41" s="88"/>
-      <c r="AF41" s="88"/>
-      <c r="AG41" s="88"/>
-      <c r="AH41" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI41" s="88"/>
-      <c r="AJ41" s="88"/>
-      <c r="AK41" s="88"/>
-      <c r="AL41" s="88"/>
-      <c r="AM41" s="88"/>
-      <c r="AN41" s="88"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="52"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="52"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="52"/>
+      <c r="AD41" s="52"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52"/>
+      <c r="AH41" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI41" s="52"/>
+      <c r="AJ41" s="52"/>
+      <c r="AK41" s="52"/>
+      <c r="AL41" s="52"/>
+      <c r="AM41" s="52"/>
+      <c r="AN41" s="52"/>
       <c r="AU41" s="26"/>
       <c r="AV41" s="23"/>
       <c r="AW41" s="23"/>
@@ -9069,48 +9083,48 @@
       <c r="D42">
         <v>3</v>
       </c>
-      <c r="E42" s="88" t="s">
+      <c r="E42" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="88"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="88"/>
-      <c r="V42" s="88"/>
-      <c r="W42" s="88"/>
-      <c r="X42" s="88"/>
-      <c r="Y42" s="88"/>
-      <c r="Z42" s="88"/>
-      <c r="AA42" s="88"/>
-      <c r="AB42" s="88"/>
-      <c r="AC42" s="88"/>
-      <c r="AD42" s="88"/>
-      <c r="AE42" s="88"/>
-      <c r="AF42" s="88"/>
-      <c r="AG42" s="88"/>
-      <c r="AH42" s="88" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI42" s="88"/>
-      <c r="AJ42" s="88"/>
-      <c r="AK42" s="88"/>
-      <c r="AL42" s="88"/>
-      <c r="AM42" s="88"/>
-      <c r="AN42" s="88"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="52"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="52"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="52"/>
+      <c r="AC42" s="52"/>
+      <c r="AD42" s="52"/>
+      <c r="AE42" s="52"/>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="52"/>
+      <c r="AH42" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI42" s="52"/>
+      <c r="AJ42" s="52"/>
+      <c r="AK42" s="52"/>
+      <c r="AL42" s="52"/>
+      <c r="AM42" s="52"/>
+      <c r="AN42" s="52"/>
       <c r="AU42" s="26"/>
       <c r="AV42" s="26"/>
       <c r="AW42" s="26"/>
@@ -9144,1701 +9158,1709 @@
       <c r="D43">
         <v>4</v>
       </c>
-      <c r="E43" s="88" t="s">
+      <c r="E43" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88"/>
-      <c r="Q43" s="88"/>
-      <c r="R43" s="88"/>
-      <c r="S43" s="88"/>
-      <c r="T43" s="88"/>
-      <c r="U43" s="88"/>
-      <c r="V43" s="88"/>
-      <c r="W43" s="88"/>
-      <c r="X43" s="88"/>
-      <c r="Y43" s="88"/>
-      <c r="Z43" s="88"/>
-      <c r="AA43" s="88"/>
-      <c r="AB43" s="88"/>
-      <c r="AC43" s="88"/>
-      <c r="AD43" s="88"/>
-      <c r="AE43" s="88"/>
-      <c r="AF43" s="88"/>
-      <c r="AG43" s="88"/>
-      <c r="AH43" s="88" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI43" s="88"/>
-      <c r="AJ43" s="88"/>
-      <c r="AK43" s="88"/>
-      <c r="AL43" s="88"/>
-      <c r="AM43" s="88"/>
-      <c r="AN43" s="88"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="52"/>
+      <c r="S43" s="52"/>
+      <c r="T43" s="52"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="52"/>
+      <c r="AB43" s="52"/>
+      <c r="AC43" s="52"/>
+      <c r="AD43" s="52"/>
+      <c r="AE43" s="52"/>
+      <c r="AF43" s="52"/>
+      <c r="AG43" s="52"/>
+      <c r="AH43" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI43" s="52"/>
+      <c r="AJ43" s="52"/>
+      <c r="AK43" s="52"/>
+      <c r="AL43" s="52"/>
+      <c r="AM43" s="52"/>
+      <c r="AN43" s="52"/>
     </row>
     <row r="44" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D44">
         <v>5</v>
       </c>
-      <c r="E44" s="88" t="s">
+      <c r="E44" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="88"/>
-      <c r="U44" s="88"/>
-      <c r="V44" s="88"/>
-      <c r="W44" s="88"/>
-      <c r="X44" s="88"/>
-      <c r="Y44" s="88"/>
-      <c r="Z44" s="88"/>
-      <c r="AA44" s="88"/>
-      <c r="AB44" s="88"/>
-      <c r="AC44" s="88"/>
-      <c r="AD44" s="88"/>
-      <c r="AE44" s="88"/>
-      <c r="AF44" s="88"/>
-      <c r="AG44" s="88"/>
-      <c r="AH44" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI44" s="88"/>
-      <c r="AJ44" s="88"/>
-      <c r="AK44" s="88"/>
-      <c r="AL44" s="88"/>
-      <c r="AM44" s="88"/>
-      <c r="AN44" s="88"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="52"/>
+      <c r="T44" s="52"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="52"/>
+      <c r="W44" s="52"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="Z44" s="52"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="52"/>
+      <c r="AC44" s="52"/>
+      <c r="AD44" s="52"/>
+      <c r="AE44" s="52"/>
+      <c r="AF44" s="52"/>
+      <c r="AG44" s="52"/>
+      <c r="AH44" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI44" s="52"/>
+      <c r="AJ44" s="52"/>
+      <c r="AK44" s="52"/>
+      <c r="AL44" s="52"/>
+      <c r="AM44" s="52"/>
+      <c r="AN44" s="52"/>
     </row>
     <row r="45" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45">
         <v>6</v>
       </c>
-      <c r="E45" s="88" t="s">
+      <c r="E45" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="88"/>
-      <c r="G45" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="88"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="88"/>
-      <c r="T45" s="88"/>
-      <c r="U45" s="88"/>
-      <c r="V45" s="88"/>
-      <c r="W45" s="88"/>
-      <c r="X45" s="88"/>
-      <c r="Y45" s="88"/>
-      <c r="Z45" s="88"/>
-      <c r="AA45" s="88"/>
-      <c r="AB45" s="88"/>
-      <c r="AC45" s="88"/>
-      <c r="AD45" s="88"/>
-      <c r="AE45" s="88"/>
-      <c r="AF45" s="88"/>
-      <c r="AG45" s="88"/>
-      <c r="AH45" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI45" s="88"/>
-      <c r="AJ45" s="88"/>
-      <c r="AK45" s="88"/>
-      <c r="AL45" s="88"/>
-      <c r="AM45" s="88"/>
-      <c r="AN45" s="88"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="52"/>
+      <c r="T45" s="52"/>
+      <c r="U45" s="52"/>
+      <c r="V45" s="52"/>
+      <c r="W45" s="52"/>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="52"/>
+      <c r="AA45" s="52"/>
+      <c r="AB45" s="52"/>
+      <c r="AC45" s="52"/>
+      <c r="AD45" s="52"/>
+      <c r="AE45" s="52"/>
+      <c r="AF45" s="52"/>
+      <c r="AG45" s="52"/>
+      <c r="AH45" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI45" s="52"/>
+      <c r="AJ45" s="52"/>
+      <c r="AK45" s="52"/>
+      <c r="AL45" s="52"/>
+      <c r="AM45" s="52"/>
+      <c r="AN45" s="52"/>
     </row>
     <row r="46" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46">
         <v>7</v>
       </c>
-      <c r="E46" s="88" t="s">
+      <c r="E46" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="88"/>
-      <c r="G46" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="88"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="88"/>
-      <c r="T46" s="88"/>
-      <c r="U46" s="88"/>
-      <c r="V46" s="88"/>
-      <c r="W46" s="88"/>
-      <c r="X46" s="88"/>
-      <c r="Y46" s="88"/>
-      <c r="Z46" s="88"/>
-      <c r="AA46" s="88"/>
-      <c r="AB46" s="88"/>
-      <c r="AC46" s="88"/>
-      <c r="AD46" s="88"/>
-      <c r="AE46" s="88"/>
-      <c r="AF46" s="88"/>
-      <c r="AG46" s="88"/>
-      <c r="AH46" s="88" t="s">
+      <c r="F46" s="52"/>
+      <c r="G46" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="AI46" s="88"/>
-      <c r="AJ46" s="88"/>
-      <c r="AK46" s="88"/>
-      <c r="AL46" s="88"/>
-      <c r="AM46" s="88"/>
-      <c r="AN46" s="88"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="52"/>
+      <c r="T46" s="52"/>
+      <c r="U46" s="52"/>
+      <c r="V46" s="52"/>
+      <c r="W46" s="52"/>
+      <c r="X46" s="52"/>
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="52"/>
+      <c r="AA46" s="52"/>
+      <c r="AB46" s="52"/>
+      <c r="AC46" s="52"/>
+      <c r="AD46" s="52"/>
+      <c r="AE46" s="52"/>
+      <c r="AF46" s="52"/>
+      <c r="AG46" s="52"/>
+      <c r="AH46" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI46" s="52"/>
+      <c r="AJ46" s="52"/>
+      <c r="AK46" s="52"/>
+      <c r="AL46" s="52"/>
+      <c r="AM46" s="52"/>
+      <c r="AN46" s="52"/>
     </row>
     <row r="47" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47">
         <v>8</v>
       </c>
-      <c r="E47" s="88" t="s">
+      <c r="E47" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88" t="s">
+      <c r="F47" s="52"/>
+      <c r="G47" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="52"/>
+      <c r="U47" s="52"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
+      <c r="X47" s="52"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="52"/>
+      <c r="AC47" s="52"/>
+      <c r="AD47" s="52"/>
+      <c r="AE47" s="52"/>
+      <c r="AF47" s="52"/>
+      <c r="AG47" s="52"/>
+      <c r="AH47" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="88"/>
-      <c r="S47" s="88"/>
-      <c r="T47" s="88"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="88"/>
-      <c r="W47" s="88"/>
-      <c r="X47" s="88"/>
-      <c r="Y47" s="88"/>
-      <c r="Z47" s="88"/>
-      <c r="AA47" s="88"/>
-      <c r="AB47" s="88"/>
-      <c r="AC47" s="88"/>
-      <c r="AD47" s="88"/>
-      <c r="AE47" s="88"/>
-      <c r="AF47" s="88"/>
-      <c r="AG47" s="88"/>
-      <c r="AH47" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI47" s="88"/>
-      <c r="AJ47" s="88"/>
-      <c r="AK47" s="88"/>
-      <c r="AL47" s="88"/>
-      <c r="AM47" s="88"/>
-      <c r="AN47" s="88"/>
+      <c r="AI47" s="52"/>
+      <c r="AJ47" s="52"/>
+      <c r="AK47" s="52"/>
+      <c r="AL47" s="52"/>
+      <c r="AM47" s="52"/>
+      <c r="AN47" s="52"/>
     </row>
     <row r="48" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48">
         <v>9</v>
       </c>
-      <c r="E48" s="88" t="s">
+      <c r="E48" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
-      <c r="Q48" s="88"/>
-      <c r="R48" s="88"/>
-      <c r="S48" s="88"/>
-      <c r="T48" s="88"/>
-      <c r="U48" s="88"/>
-      <c r="V48" s="88"/>
-      <c r="W48" s="88"/>
-      <c r="X48" s="88"/>
-      <c r="Y48" s="88"/>
-      <c r="Z48" s="88"/>
-      <c r="AA48" s="88"/>
-      <c r="AB48" s="88"/>
-      <c r="AC48" s="88"/>
-      <c r="AD48" s="88"/>
-      <c r="AE48" s="88"/>
-      <c r="AF48" s="88"/>
-      <c r="AG48" s="88"/>
-      <c r="AH48" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI48" s="88"/>
-      <c r="AJ48" s="88"/>
-      <c r="AK48" s="88"/>
-      <c r="AL48" s="88"/>
-      <c r="AM48" s="88"/>
-      <c r="AN48" s="88"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="52"/>
+      <c r="V48" s="52"/>
+      <c r="W48" s="52"/>
+      <c r="X48" s="52"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="52"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="52"/>
+      <c r="AD48" s="52"/>
+      <c r="AE48" s="52"/>
+      <c r="AF48" s="52"/>
+      <c r="AG48" s="52"/>
+      <c r="AH48" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI48" s="52"/>
+      <c r="AJ48" s="52"/>
+      <c r="AK48" s="52"/>
+      <c r="AL48" s="52"/>
+      <c r="AM48" s="52"/>
+      <c r="AN48" s="52"/>
     </row>
     <row r="49" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49">
         <v>10</v>
       </c>
-      <c r="E49" s="88" t="s">
+      <c r="E49" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="88"/>
-      <c r="P49" s="88"/>
-      <c r="Q49" s="88"/>
-      <c r="R49" s="88"/>
-      <c r="S49" s="88"/>
-      <c r="T49" s="88"/>
-      <c r="U49" s="88"/>
-      <c r="V49" s="88"/>
-      <c r="W49" s="88"/>
-      <c r="X49" s="88"/>
-      <c r="Y49" s="88"/>
-      <c r="Z49" s="88"/>
-      <c r="AA49" s="88"/>
-      <c r="AB49" s="88"/>
-      <c r="AC49" s="88"/>
-      <c r="AD49" s="88"/>
-      <c r="AE49" s="88"/>
-      <c r="AF49" s="88"/>
-      <c r="AG49" s="88"/>
-      <c r="AH49" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI49" s="88"/>
-      <c r="AJ49" s="88"/>
-      <c r="AK49" s="88"/>
-      <c r="AL49" s="88"/>
-      <c r="AM49" s="88"/>
-      <c r="AN49" s="88"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="52"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="52"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="52"/>
+      <c r="AC49" s="52"/>
+      <c r="AD49" s="52"/>
+      <c r="AE49" s="52"/>
+      <c r="AF49" s="52"/>
+      <c r="AG49" s="52"/>
+      <c r="AH49" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI49" s="52"/>
+      <c r="AJ49" s="52"/>
+      <c r="AK49" s="52"/>
+      <c r="AL49" s="52"/>
+      <c r="AM49" s="52"/>
+      <c r="AN49" s="52"/>
     </row>
     <row r="50" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50">
         <v>11</v>
       </c>
-      <c r="E50" s="88" t="s">
+      <c r="E50" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="88"/>
-      <c r="G50" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="88"/>
-      <c r="P50" s="88"/>
-      <c r="Q50" s="88"/>
-      <c r="R50" s="88"/>
-      <c r="S50" s="88"/>
-      <c r="T50" s="88"/>
-      <c r="U50" s="88"/>
-      <c r="V50" s="88"/>
-      <c r="W50" s="88"/>
-      <c r="X50" s="88"/>
-      <c r="Y50" s="88"/>
-      <c r="Z50" s="88"/>
-      <c r="AA50" s="88"/>
-      <c r="AB50" s="88"/>
-      <c r="AC50" s="88"/>
-      <c r="AD50" s="88"/>
-      <c r="AE50" s="88"/>
-      <c r="AF50" s="88"/>
-      <c r="AG50" s="88"/>
-      <c r="AH50" s="88" t="s">
+      <c r="F50" s="52"/>
+      <c r="G50" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="AI50" s="88"/>
-      <c r="AJ50" s="88"/>
-      <c r="AK50" s="88"/>
-      <c r="AL50" s="88"/>
-      <c r="AM50" s="88"/>
-      <c r="AN50" s="88"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
+      <c r="R50" s="52"/>
+      <c r="S50" s="52"/>
+      <c r="T50" s="52"/>
+      <c r="U50" s="52"/>
+      <c r="V50" s="52"/>
+      <c r="W50" s="52"/>
+      <c r="X50" s="52"/>
+      <c r="Y50" s="52"/>
+      <c r="Z50" s="52"/>
+      <c r="AA50" s="52"/>
+      <c r="AB50" s="52"/>
+      <c r="AC50" s="52"/>
+      <c r="AD50" s="52"/>
+      <c r="AE50" s="52"/>
+      <c r="AF50" s="52"/>
+      <c r="AG50" s="52"/>
+      <c r="AH50" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI50" s="52"/>
+      <c r="AJ50" s="52"/>
+      <c r="AK50" s="52"/>
+      <c r="AL50" s="52"/>
+      <c r="AM50" s="52"/>
+      <c r="AN50" s="52"/>
     </row>
     <row r="51" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51">
         <v>12</v>
       </c>
-      <c r="E51" s="88" t="s">
+      <c r="E51" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="88"/>
-      <c r="G51" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="88"/>
-      <c r="Q51" s="88"/>
-      <c r="R51" s="88"/>
-      <c r="S51" s="88"/>
-      <c r="T51" s="88"/>
-      <c r="U51" s="88"/>
-      <c r="V51" s="88"/>
-      <c r="W51" s="88"/>
-      <c r="X51" s="88"/>
-      <c r="Y51" s="88"/>
-      <c r="Z51" s="88"/>
-      <c r="AA51" s="88"/>
-      <c r="AB51" s="88"/>
-      <c r="AC51" s="88"/>
-      <c r="AD51" s="88"/>
-      <c r="AE51" s="88"/>
-      <c r="AF51" s="88"/>
-      <c r="AG51" s="88"/>
-      <c r="AH51" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI51" s="88"/>
-      <c r="AJ51" s="88"/>
-      <c r="AK51" s="88"/>
-      <c r="AL51" s="88"/>
-      <c r="AM51" s="88"/>
-      <c r="AN51" s="88"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="52"/>
+      <c r="V51" s="52"/>
+      <c r="W51" s="52"/>
+      <c r="X51" s="52"/>
+      <c r="Y51" s="52"/>
+      <c r="Z51" s="52"/>
+      <c r="AA51" s="52"/>
+      <c r="AB51" s="52"/>
+      <c r="AC51" s="52"/>
+      <c r="AD51" s="52"/>
+      <c r="AE51" s="52"/>
+      <c r="AF51" s="52"/>
+      <c r="AG51" s="52"/>
+      <c r="AH51" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI51" s="52"/>
+      <c r="AJ51" s="52"/>
+      <c r="AK51" s="52"/>
+      <c r="AL51" s="52"/>
+      <c r="AM51" s="52"/>
+      <c r="AN51" s="52"/>
     </row>
     <row r="52" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52">
         <v>13</v>
       </c>
-      <c r="E52" s="88" t="s">
+      <c r="E52" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="88"/>
-      <c r="L52" s="88"/>
-      <c r="M52" s="88"/>
-      <c r="N52" s="88"/>
-      <c r="O52" s="88"/>
-      <c r="P52" s="88"/>
-      <c r="Q52" s="88"/>
-      <c r="R52" s="88"/>
-      <c r="S52" s="88"/>
-      <c r="T52" s="88"/>
-      <c r="U52" s="88"/>
-      <c r="V52" s="88"/>
-      <c r="W52" s="88"/>
-      <c r="X52" s="88"/>
-      <c r="Y52" s="88"/>
-      <c r="Z52" s="88"/>
-      <c r="AA52" s="88"/>
-      <c r="AB52" s="88"/>
-      <c r="AC52" s="88"/>
-      <c r="AD52" s="88"/>
-      <c r="AE52" s="88"/>
-      <c r="AF52" s="88"/>
-      <c r="AG52" s="88"/>
-      <c r="AH52" s="88" t="s">
+      <c r="F52" s="52"/>
+      <c r="G52" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="AI52" s="88"/>
-      <c r="AJ52" s="88"/>
-      <c r="AK52" s="88"/>
-      <c r="AL52" s="88"/>
-      <c r="AM52" s="88"/>
-      <c r="AN52" s="88"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="52"/>
+      <c r="V52" s="52"/>
+      <c r="W52" s="52"/>
+      <c r="X52" s="52"/>
+      <c r="Y52" s="52"/>
+      <c r="Z52" s="52"/>
+      <c r="AA52" s="52"/>
+      <c r="AB52" s="52"/>
+      <c r="AC52" s="52"/>
+      <c r="AD52" s="52"/>
+      <c r="AE52" s="52"/>
+      <c r="AF52" s="52"/>
+      <c r="AG52" s="52"/>
+      <c r="AH52" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI52" s="52"/>
+      <c r="AJ52" s="52"/>
+      <c r="AK52" s="52"/>
+      <c r="AL52" s="52"/>
+      <c r="AM52" s="52"/>
+      <c r="AN52" s="52"/>
     </row>
     <row r="53" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53">
         <v>14</v>
       </c>
-      <c r="E53" s="88" t="s">
+      <c r="E53" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88" t="s">
-        <v>123</v>
-      </c>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="88"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="88"/>
-      <c r="P53" s="88"/>
-      <c r="Q53" s="88"/>
-      <c r="R53" s="88"/>
-      <c r="S53" s="88"/>
-      <c r="T53" s="88"/>
-      <c r="U53" s="88"/>
-      <c r="V53" s="88"/>
-      <c r="W53" s="88"/>
-      <c r="X53" s="88"/>
-      <c r="Y53" s="88"/>
-      <c r="Z53" s="88"/>
-      <c r="AA53" s="88"/>
-      <c r="AB53" s="88"/>
-      <c r="AC53" s="88"/>
-      <c r="AD53" s="88"/>
-      <c r="AE53" s="88"/>
-      <c r="AF53" s="88"/>
-      <c r="AG53" s="88"/>
-      <c r="AH53" s="88" t="s">
+      <c r="F53" s="52"/>
+      <c r="G53" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="AI53" s="88"/>
-      <c r="AJ53" s="88"/>
-      <c r="AK53" s="88"/>
-      <c r="AL53" s="88"/>
-      <c r="AM53" s="88"/>
-      <c r="AN53" s="88"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="52"/>
+      <c r="V53" s="52"/>
+      <c r="W53" s="52"/>
+      <c r="X53" s="52"/>
+      <c r="Y53" s="52"/>
+      <c r="Z53" s="52"/>
+      <c r="AA53" s="52"/>
+      <c r="AB53" s="52"/>
+      <c r="AC53" s="52"/>
+      <c r="AD53" s="52"/>
+      <c r="AE53" s="52"/>
+      <c r="AF53" s="52"/>
+      <c r="AG53" s="52"/>
+      <c r="AH53" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI53" s="52"/>
+      <c r="AJ53" s="52"/>
+      <c r="AK53" s="52"/>
+      <c r="AL53" s="52"/>
+      <c r="AM53" s="52"/>
+      <c r="AN53" s="52"/>
     </row>
     <row r="54" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54">
         <v>15</v>
       </c>
-      <c r="E54" s="88" t="s">
+      <c r="E54" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="88"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="88"/>
-      <c r="P54" s="88"/>
-      <c r="Q54" s="88"/>
-      <c r="R54" s="88"/>
-      <c r="S54" s="88"/>
-      <c r="T54" s="88"/>
-      <c r="U54" s="88"/>
-      <c r="V54" s="88"/>
-      <c r="W54" s="88"/>
-      <c r="X54" s="88"/>
-      <c r="Y54" s="88"/>
-      <c r="Z54" s="88"/>
-      <c r="AA54" s="88"/>
-      <c r="AB54" s="88"/>
-      <c r="AC54" s="88"/>
-      <c r="AD54" s="88"/>
-      <c r="AE54" s="88"/>
-      <c r="AF54" s="88"/>
-      <c r="AG54" s="88"/>
-      <c r="AH54" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI54" s="88"/>
-      <c r="AJ54" s="88"/>
-      <c r="AK54" s="88"/>
-      <c r="AL54" s="88"/>
-      <c r="AM54" s="88"/>
-      <c r="AN54" s="88"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="52"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
+      <c r="Z54" s="52"/>
+      <c r="AA54" s="52"/>
+      <c r="AB54" s="52"/>
+      <c r="AC54" s="52"/>
+      <c r="AD54" s="52"/>
+      <c r="AE54" s="52"/>
+      <c r="AF54" s="52"/>
+      <c r="AG54" s="52"/>
+      <c r="AH54" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI54" s="52"/>
+      <c r="AJ54" s="52"/>
+      <c r="AK54" s="52"/>
+      <c r="AL54" s="52"/>
+      <c r="AM54" s="52"/>
+      <c r="AN54" s="52"/>
     </row>
     <row r="55" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55">
         <v>16</v>
       </c>
-      <c r="E55" s="88" t="s">
+      <c r="E55" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="88"/>
-      <c r="G55" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="88"/>
-      <c r="L55" s="88"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="88"/>
-      <c r="P55" s="88"/>
-      <c r="Q55" s="88"/>
-      <c r="R55" s="88"/>
-      <c r="S55" s="88"/>
-      <c r="T55" s="88"/>
-      <c r="U55" s="88"/>
-      <c r="V55" s="88"/>
-      <c r="W55" s="88"/>
-      <c r="X55" s="88"/>
-      <c r="Y55" s="88"/>
-      <c r="Z55" s="88"/>
-      <c r="AA55" s="88"/>
-      <c r="AB55" s="88"/>
-      <c r="AC55" s="88"/>
-      <c r="AD55" s="88"/>
-      <c r="AE55" s="88"/>
-      <c r="AF55" s="88"/>
-      <c r="AG55" s="88"/>
-      <c r="AH55" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI55" s="88"/>
-      <c r="AJ55" s="88"/>
-      <c r="AK55" s="88"/>
-      <c r="AL55" s="88"/>
-      <c r="AM55" s="88"/>
-      <c r="AN55" s="88"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="52"/>
+      <c r="AC55" s="52"/>
+      <c r="AD55" s="52"/>
+      <c r="AE55" s="52"/>
+      <c r="AF55" s="52"/>
+      <c r="AG55" s="52"/>
+      <c r="AH55" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI55" s="52"/>
+      <c r="AJ55" s="52"/>
+      <c r="AK55" s="52"/>
+      <c r="AL55" s="52"/>
+      <c r="AM55" s="52"/>
+      <c r="AN55" s="52"/>
     </row>
     <row r="56" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D56">
         <v>17</v>
       </c>
-      <c r="E56" s="88" t="s">
+      <c r="E56" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="88"/>
-      <c r="G56" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="H56" s="88"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="K56" s="88"/>
-      <c r="L56" s="88"/>
-      <c r="M56" s="88"/>
-      <c r="N56" s="88"/>
-      <c r="O56" s="88"/>
-      <c r="P56" s="88"/>
-      <c r="Q56" s="88"/>
-      <c r="R56" s="88"/>
-      <c r="S56" s="88"/>
-      <c r="T56" s="88"/>
-      <c r="U56" s="88"/>
-      <c r="V56" s="88"/>
-      <c r="W56" s="88"/>
-      <c r="X56" s="88"/>
-      <c r="Y56" s="88"/>
-      <c r="Z56" s="88"/>
-      <c r="AA56" s="88"/>
-      <c r="AB56" s="88"/>
-      <c r="AC56" s="88"/>
-      <c r="AD56" s="88"/>
-      <c r="AE56" s="88"/>
-      <c r="AF56" s="88"/>
-      <c r="AG56" s="88"/>
-      <c r="AH56" s="88" t="s">
+      <c r="F56" s="52"/>
+      <c r="G56" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="AI56" s="88"/>
-      <c r="AJ56" s="88"/>
-      <c r="AK56" s="88"/>
-      <c r="AL56" s="88"/>
-      <c r="AM56" s="88"/>
-      <c r="AN56" s="88"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
+      <c r="R56" s="52"/>
+      <c r="S56" s="52"/>
+      <c r="T56" s="52"/>
+      <c r="U56" s="52"/>
+      <c r="V56" s="52"/>
+      <c r="W56" s="52"/>
+      <c r="X56" s="52"/>
+      <c r="Y56" s="52"/>
+      <c r="Z56" s="52"/>
+      <c r="AA56" s="52"/>
+      <c r="AB56" s="52"/>
+      <c r="AC56" s="52"/>
+      <c r="AD56" s="52"/>
+      <c r="AE56" s="52"/>
+      <c r="AF56" s="52"/>
+      <c r="AG56" s="52"/>
+      <c r="AH56" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI56" s="52"/>
+      <c r="AJ56" s="52"/>
+      <c r="AK56" s="52"/>
+      <c r="AL56" s="52"/>
+      <c r="AM56" s="52"/>
+      <c r="AN56" s="52"/>
     </row>
     <row r="57" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57">
         <v>18</v>
       </c>
-      <c r="E57" s="88" t="s">
+      <c r="E57" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="88"/>
-      <c r="G57" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="88"/>
-      <c r="M57" s="88"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="88"/>
-      <c r="P57" s="88"/>
-      <c r="Q57" s="88"/>
-      <c r="R57" s="88"/>
-      <c r="S57" s="88"/>
-      <c r="T57" s="88"/>
-      <c r="U57" s="88"/>
-      <c r="V57" s="88"/>
-      <c r="W57" s="88"/>
-      <c r="X57" s="88"/>
-      <c r="Y57" s="88"/>
-      <c r="Z57" s="88"/>
-      <c r="AA57" s="88"/>
-      <c r="AB57" s="88"/>
-      <c r="AC57" s="88"/>
-      <c r="AD57" s="88"/>
-      <c r="AE57" s="88"/>
-      <c r="AF57" s="88"/>
-      <c r="AG57" s="88"/>
-      <c r="AH57" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI57" s="88"/>
-      <c r="AJ57" s="88"/>
-      <c r="AK57" s="88"/>
-      <c r="AL57" s="88"/>
-      <c r="AM57" s="88"/>
-      <c r="AN57" s="88"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="52"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
+      <c r="R57" s="52"/>
+      <c r="S57" s="52"/>
+      <c r="T57" s="52"/>
+      <c r="U57" s="52"/>
+      <c r="V57" s="52"/>
+      <c r="W57" s="52"/>
+      <c r="X57" s="52"/>
+      <c r="Y57" s="52"/>
+      <c r="Z57" s="52"/>
+      <c r="AA57" s="52"/>
+      <c r="AB57" s="52"/>
+      <c r="AC57" s="52"/>
+      <c r="AD57" s="52"/>
+      <c r="AE57" s="52"/>
+      <c r="AF57" s="52"/>
+      <c r="AG57" s="52"/>
+      <c r="AH57" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI57" s="52"/>
+      <c r="AJ57" s="52"/>
+      <c r="AK57" s="52"/>
+      <c r="AL57" s="52"/>
+      <c r="AM57" s="52"/>
+      <c r="AN57" s="52"/>
     </row>
     <row r="58" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58">
         <v>19</v>
       </c>
-      <c r="E58" s="88" t="s">
+      <c r="E58" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="88"/>
-      <c r="G58" s="88" t="s">
-        <v>130</v>
-      </c>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
-      <c r="K58" s="88"/>
-      <c r="L58" s="88"/>
-      <c r="M58" s="88"/>
-      <c r="N58" s="88"/>
-      <c r="O58" s="88"/>
-      <c r="P58" s="88"/>
-      <c r="Q58" s="88"/>
-      <c r="R58" s="88"/>
-      <c r="S58" s="88"/>
-      <c r="T58" s="88"/>
-      <c r="U58" s="88"/>
-      <c r="V58" s="88"/>
-      <c r="W58" s="88"/>
-      <c r="X58" s="88"/>
-      <c r="Y58" s="88"/>
-      <c r="Z58" s="88"/>
-      <c r="AA58" s="88"/>
-      <c r="AB58" s="88"/>
-      <c r="AC58" s="88"/>
-      <c r="AD58" s="88"/>
-      <c r="AE58" s="88"/>
-      <c r="AF58" s="88"/>
-      <c r="AG58" s="88"/>
-      <c r="AH58" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI58" s="88"/>
-      <c r="AJ58" s="88"/>
-      <c r="AK58" s="88"/>
-      <c r="AL58" s="88"/>
-      <c r="AM58" s="88"/>
-      <c r="AN58" s="88"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="52"/>
+      <c r="W58" s="52"/>
+      <c r="X58" s="52"/>
+      <c r="Y58" s="52"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="52"/>
+      <c r="AB58" s="52"/>
+      <c r="AC58" s="52"/>
+      <c r="AD58" s="52"/>
+      <c r="AE58" s="52"/>
+      <c r="AF58" s="52"/>
+      <c r="AG58" s="52"/>
+      <c r="AH58" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI58" s="52"/>
+      <c r="AJ58" s="52"/>
+      <c r="AK58" s="52"/>
+      <c r="AL58" s="52"/>
+      <c r="AM58" s="52"/>
+      <c r="AN58" s="52"/>
     </row>
     <row r="59" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D59">
         <v>20</v>
       </c>
-      <c r="E59" s="88" t="s">
+      <c r="E59" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
-      <c r="M59" s="88"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="88"/>
-      <c r="P59" s="88"/>
-      <c r="Q59" s="88"/>
-      <c r="R59" s="88"/>
-      <c r="S59" s="88"/>
-      <c r="T59" s="88"/>
-      <c r="U59" s="88"/>
-      <c r="V59" s="88"/>
-      <c r="W59" s="88"/>
-      <c r="X59" s="88"/>
-      <c r="Y59" s="88"/>
-      <c r="Z59" s="88"/>
-      <c r="AA59" s="88"/>
-      <c r="AB59" s="88"/>
-      <c r="AC59" s="88"/>
-      <c r="AD59" s="88"/>
-      <c r="AE59" s="88"/>
-      <c r="AF59" s="88"/>
-      <c r="AG59" s="88"/>
-      <c r="AH59" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI59" s="88"/>
-      <c r="AJ59" s="88"/>
-      <c r="AK59" s="88"/>
-      <c r="AL59" s="88"/>
-      <c r="AM59" s="88"/>
-      <c r="AN59" s="88"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="52"/>
+      <c r="U59" s="52"/>
+      <c r="V59" s="52"/>
+      <c r="W59" s="52"/>
+      <c r="X59" s="52"/>
+      <c r="Y59" s="52"/>
+      <c r="Z59" s="52"/>
+      <c r="AA59" s="52"/>
+      <c r="AB59" s="52"/>
+      <c r="AC59" s="52"/>
+      <c r="AD59" s="52"/>
+      <c r="AE59" s="52"/>
+      <c r="AF59" s="52"/>
+      <c r="AG59" s="52"/>
+      <c r="AH59" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI59" s="52"/>
+      <c r="AJ59" s="52"/>
+      <c r="AK59" s="52"/>
+      <c r="AL59" s="52"/>
+      <c r="AM59" s="52"/>
+      <c r="AN59" s="52"/>
     </row>
     <row r="60" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D60">
         <v>21</v>
       </c>
-      <c r="E60" s="88" t="s">
+      <c r="E60" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88" t="s">
+      <c r="F60" s="52"/>
+      <c r="G60" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="52"/>
+      <c r="Q60" s="52"/>
+      <c r="R60" s="52"/>
+      <c r="S60" s="52"/>
+      <c r="T60" s="52"/>
+      <c r="U60" s="52"/>
+      <c r="V60" s="52"/>
+      <c r="W60" s="52"/>
+      <c r="X60" s="52"/>
+      <c r="Y60" s="52"/>
+      <c r="Z60" s="52"/>
+      <c r="AA60" s="52"/>
+      <c r="AB60" s="52"/>
+      <c r="AC60" s="52"/>
+      <c r="AD60" s="52"/>
+      <c r="AE60" s="52"/>
+      <c r="AF60" s="52"/>
+      <c r="AG60" s="52"/>
+      <c r="AH60" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="88"/>
-      <c r="M60" s="88"/>
-      <c r="N60" s="88"/>
-      <c r="O60" s="88"/>
-      <c r="P60" s="88"/>
-      <c r="Q60" s="88"/>
-      <c r="R60" s="88"/>
-      <c r="S60" s="88"/>
-      <c r="T60" s="88"/>
-      <c r="U60" s="88"/>
-      <c r="V60" s="88"/>
-      <c r="W60" s="88"/>
-      <c r="X60" s="88"/>
-      <c r="Y60" s="88"/>
-      <c r="Z60" s="88"/>
-      <c r="AA60" s="88"/>
-      <c r="AB60" s="88"/>
-      <c r="AC60" s="88"/>
-      <c r="AD60" s="88"/>
-      <c r="AE60" s="88"/>
-      <c r="AF60" s="88"/>
-      <c r="AG60" s="88"/>
-      <c r="AH60" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI60" s="88"/>
-      <c r="AJ60" s="88"/>
-      <c r="AK60" s="88"/>
-      <c r="AL60" s="88"/>
-      <c r="AM60" s="88"/>
-      <c r="AN60" s="88"/>
+      <c r="AI60" s="52"/>
+      <c r="AJ60" s="52"/>
+      <c r="AK60" s="52"/>
+      <c r="AL60" s="52"/>
+      <c r="AM60" s="52"/>
+      <c r="AN60" s="52"/>
     </row>
     <row r="61" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D61">
         <v>22</v>
       </c>
-      <c r="E61" s="88" t="s">
+      <c r="E61" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="88"/>
-      <c r="G61" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="88"/>
-      <c r="L61" s="88"/>
-      <c r="M61" s="88"/>
-      <c r="N61" s="88"/>
-      <c r="O61" s="88"/>
-      <c r="P61" s="88"/>
-      <c r="Q61" s="88"/>
-      <c r="R61" s="88"/>
-      <c r="S61" s="88"/>
-      <c r="T61" s="88"/>
-      <c r="U61" s="88"/>
-      <c r="V61" s="88"/>
-      <c r="W61" s="88"/>
-      <c r="X61" s="88"/>
-      <c r="Y61" s="88"/>
-      <c r="Z61" s="88"/>
-      <c r="AA61" s="88"/>
-      <c r="AB61" s="88"/>
-      <c r="AC61" s="88"/>
-      <c r="AD61" s="88"/>
-      <c r="AE61" s="88"/>
-      <c r="AF61" s="88"/>
-      <c r="AG61" s="88"/>
-      <c r="AH61" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI61" s="88"/>
-      <c r="AJ61" s="88"/>
-      <c r="AK61" s="88"/>
-      <c r="AL61" s="88"/>
-      <c r="AM61" s="88"/>
-      <c r="AN61" s="88"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="52"/>
+      <c r="Q61" s="52"/>
+      <c r="R61" s="52"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="52"/>
+      <c r="U61" s="52"/>
+      <c r="V61" s="52"/>
+      <c r="W61" s="52"/>
+      <c r="X61" s="52"/>
+      <c r="Y61" s="52"/>
+      <c r="Z61" s="52"/>
+      <c r="AA61" s="52"/>
+      <c r="AB61" s="52"/>
+      <c r="AC61" s="52"/>
+      <c r="AD61" s="52"/>
+      <c r="AE61" s="52"/>
+      <c r="AF61" s="52"/>
+      <c r="AG61" s="52"/>
+      <c r="AH61" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI61" s="52"/>
+      <c r="AJ61" s="52"/>
+      <c r="AK61" s="52"/>
+      <c r="AL61" s="52"/>
+      <c r="AM61" s="52"/>
+      <c r="AN61" s="52"/>
     </row>
     <row r="62" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D62">
         <v>23</v>
       </c>
-      <c r="E62" s="88" t="s">
+      <c r="E62" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F62" s="88"/>
-      <c r="G62" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="H62" s="88"/>
-      <c r="I62" s="88"/>
-      <c r="J62" s="88"/>
-      <c r="K62" s="88"/>
-      <c r="L62" s="88"/>
-      <c r="M62" s="88"/>
-      <c r="N62" s="88"/>
-      <c r="O62" s="88"/>
-      <c r="P62" s="88"/>
-      <c r="Q62" s="88"/>
-      <c r="R62" s="88"/>
-      <c r="S62" s="88"/>
-      <c r="T62" s="88"/>
-      <c r="U62" s="88"/>
-      <c r="V62" s="88"/>
-      <c r="W62" s="88"/>
-      <c r="X62" s="88"/>
-      <c r="Y62" s="88"/>
-      <c r="Z62" s="88"/>
-      <c r="AA62" s="88"/>
-      <c r="AB62" s="88"/>
-      <c r="AC62" s="88"/>
-      <c r="AD62" s="88"/>
-      <c r="AE62" s="88"/>
-      <c r="AF62" s="88"/>
-      <c r="AG62" s="88"/>
-      <c r="AH62" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI62" s="88"/>
-      <c r="AJ62" s="88"/>
-      <c r="AK62" s="88"/>
-      <c r="AL62" s="88"/>
-      <c r="AM62" s="88"/>
-      <c r="AN62" s="88"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
+      <c r="R62" s="52"/>
+      <c r="S62" s="52"/>
+      <c r="T62" s="52"/>
+      <c r="U62" s="52"/>
+      <c r="V62" s="52"/>
+      <c r="W62" s="52"/>
+      <c r="X62" s="52"/>
+      <c r="Y62" s="52"/>
+      <c r="Z62" s="52"/>
+      <c r="AA62" s="52"/>
+      <c r="AB62" s="52"/>
+      <c r="AC62" s="52"/>
+      <c r="AD62" s="52"/>
+      <c r="AE62" s="52"/>
+      <c r="AF62" s="52"/>
+      <c r="AG62" s="52"/>
+      <c r="AH62" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI62" s="52"/>
+      <c r="AJ62" s="52"/>
+      <c r="AK62" s="52"/>
+      <c r="AL62" s="52"/>
+      <c r="AM62" s="52"/>
+      <c r="AN62" s="52"/>
     </row>
     <row r="63" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63">
         <v>24</v>
       </c>
-      <c r="E63" s="88" t="s">
+      <c r="E63" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="88"/>
-      <c r="G63" s="89" t="s">
-        <v>139</v>
-      </c>
-      <c r="H63" s="88"/>
-      <c r="I63" s="88"/>
-      <c r="J63" s="88"/>
-      <c r="K63" s="88"/>
-      <c r="L63" s="88"/>
-      <c r="M63" s="88"/>
-      <c r="N63" s="88"/>
-      <c r="O63" s="88"/>
-      <c r="P63" s="88"/>
-      <c r="Q63" s="88"/>
-      <c r="R63" s="88"/>
-      <c r="S63" s="88"/>
-      <c r="T63" s="88"/>
-      <c r="U63" s="88"/>
-      <c r="V63" s="88"/>
-      <c r="W63" s="88"/>
-      <c r="X63" s="88"/>
-      <c r="Y63" s="88"/>
-      <c r="Z63" s="88"/>
-      <c r="AA63" s="88"/>
-      <c r="AB63" s="88"/>
-      <c r="AC63" s="88"/>
-      <c r="AD63" s="88"/>
-      <c r="AE63" s="88"/>
-      <c r="AF63" s="88"/>
-      <c r="AG63" s="88"/>
-      <c r="AH63" s="88" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI63" s="88"/>
-      <c r="AJ63" s="88"/>
-      <c r="AK63" s="88"/>
-      <c r="AL63" s="88"/>
-      <c r="AM63" s="88"/>
-      <c r="AN63" s="88"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+      <c r="O63" s="52"/>
+      <c r="P63" s="52"/>
+      <c r="Q63" s="52"/>
+      <c r="R63" s="52"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="52"/>
+      <c r="U63" s="52"/>
+      <c r="V63" s="52"/>
+      <c r="W63" s="52"/>
+      <c r="X63" s="52"/>
+      <c r="Y63" s="52"/>
+      <c r="Z63" s="52"/>
+      <c r="AA63" s="52"/>
+      <c r="AB63" s="52"/>
+      <c r="AC63" s="52"/>
+      <c r="AD63" s="52"/>
+      <c r="AE63" s="52"/>
+      <c r="AF63" s="52"/>
+      <c r="AG63" s="52"/>
+      <c r="AH63" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI63" s="52"/>
+      <c r="AJ63" s="52"/>
+      <c r="AK63" s="52"/>
+      <c r="AL63" s="52"/>
+      <c r="AM63" s="52"/>
+      <c r="AN63" s="52"/>
     </row>
     <row r="64" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D64">
         <v>25</v>
       </c>
-      <c r="E64" s="88" t="s">
+      <c r="E64" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F64" s="88"/>
-      <c r="G64" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="88"/>
-      <c r="K64" s="88"/>
-      <c r="L64" s="88"/>
-      <c r="M64" s="88"/>
-      <c r="N64" s="88"/>
-      <c r="O64" s="88"/>
-      <c r="P64" s="88"/>
-      <c r="Q64" s="88"/>
-      <c r="R64" s="88"/>
-      <c r="S64" s="88"/>
-      <c r="T64" s="88"/>
-      <c r="U64" s="88"/>
-      <c r="V64" s="88"/>
-      <c r="W64" s="88"/>
-      <c r="X64" s="88"/>
-      <c r="Y64" s="88"/>
-      <c r="Z64" s="88"/>
-      <c r="AA64" s="88"/>
-      <c r="AB64" s="88"/>
-      <c r="AC64" s="88"/>
-      <c r="AD64" s="88"/>
-      <c r="AE64" s="88"/>
-      <c r="AF64" s="88"/>
-      <c r="AG64" s="88"/>
-      <c r="AH64" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI64" s="88"/>
-      <c r="AJ64" s="88"/>
-      <c r="AK64" s="88"/>
-      <c r="AL64" s="88"/>
-      <c r="AM64" s="88"/>
-      <c r="AN64" s="88"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="52"/>
+      <c r="R64" s="52"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="52"/>
+      <c r="U64" s="52"/>
+      <c r="V64" s="52"/>
+      <c r="W64" s="52"/>
+      <c r="X64" s="52"/>
+      <c r="Y64" s="52"/>
+      <c r="Z64" s="52"/>
+      <c r="AA64" s="52"/>
+      <c r="AB64" s="52"/>
+      <c r="AC64" s="52"/>
+      <c r="AD64" s="52"/>
+      <c r="AE64" s="52"/>
+      <c r="AF64" s="52"/>
+      <c r="AG64" s="52"/>
+      <c r="AH64" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI64" s="52"/>
+      <c r="AJ64" s="52"/>
+      <c r="AK64" s="52"/>
+      <c r="AL64" s="52"/>
+      <c r="AM64" s="52"/>
+      <c r="AN64" s="52"/>
     </row>
     <row r="65" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D65">
         <v>26</v>
       </c>
-      <c r="E65" s="88" t="s">
+      <c r="E65" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="88"/>
-      <c r="G65" s="88" t="s">
-        <v>140</v>
-      </c>
-      <c r="H65" s="88"/>
-      <c r="I65" s="88"/>
-      <c r="J65" s="88"/>
-      <c r="K65" s="88"/>
-      <c r="L65" s="88"/>
-      <c r="M65" s="88"/>
-      <c r="N65" s="88"/>
-      <c r="O65" s="88"/>
-      <c r="P65" s="88"/>
-      <c r="Q65" s="88"/>
-      <c r="R65" s="88"/>
-      <c r="S65" s="88"/>
-      <c r="T65" s="88"/>
-      <c r="U65" s="88"/>
-      <c r="V65" s="88"/>
-      <c r="W65" s="88"/>
-      <c r="X65" s="88"/>
-      <c r="Y65" s="88"/>
-      <c r="Z65" s="88"/>
-      <c r="AA65" s="88"/>
-      <c r="AB65" s="88"/>
-      <c r="AC65" s="88"/>
-      <c r="AD65" s="88"/>
-      <c r="AE65" s="88"/>
-      <c r="AF65" s="88"/>
-      <c r="AG65" s="88"/>
-      <c r="AH65" s="88" t="s">
+      <c r="F65" s="52"/>
+      <c r="G65" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="AI65" s="88"/>
-      <c r="AJ65" s="88"/>
-      <c r="AK65" s="88"/>
-      <c r="AL65" s="88"/>
-      <c r="AM65" s="88"/>
-      <c r="AN65" s="88"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
+      <c r="O65" s="52"/>
+      <c r="P65" s="52"/>
+      <c r="Q65" s="52"/>
+      <c r="R65" s="52"/>
+      <c r="S65" s="52"/>
+      <c r="T65" s="52"/>
+      <c r="U65" s="52"/>
+      <c r="V65" s="52"/>
+      <c r="W65" s="52"/>
+      <c r="X65" s="52"/>
+      <c r="Y65" s="52"/>
+      <c r="Z65" s="52"/>
+      <c r="AA65" s="52"/>
+      <c r="AB65" s="52"/>
+      <c r="AC65" s="52"/>
+      <c r="AD65" s="52"/>
+      <c r="AE65" s="52"/>
+      <c r="AF65" s="52"/>
+      <c r="AG65" s="52"/>
+      <c r="AH65" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI65" s="52"/>
+      <c r="AJ65" s="52"/>
+      <c r="AK65" s="52"/>
+      <c r="AL65" s="52"/>
+      <c r="AM65" s="52"/>
+      <c r="AN65" s="52"/>
     </row>
     <row r="66" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D66">
         <v>27</v>
       </c>
-      <c r="E66" s="88" t="s">
+      <c r="E66" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="88"/>
-      <c r="K66" s="88"/>
-      <c r="L66" s="88"/>
-      <c r="M66" s="88"/>
-      <c r="N66" s="88"/>
-      <c r="O66" s="88"/>
-      <c r="P66" s="88"/>
-      <c r="Q66" s="88"/>
-      <c r="R66" s="88"/>
-      <c r="S66" s="88"/>
-      <c r="T66" s="88"/>
-      <c r="U66" s="88"/>
-      <c r="V66" s="88"/>
-      <c r="W66" s="88"/>
-      <c r="X66" s="88"/>
-      <c r="Y66" s="88"/>
-      <c r="Z66" s="88"/>
-      <c r="AA66" s="88"/>
-      <c r="AB66" s="88"/>
-      <c r="AC66" s="88"/>
-      <c r="AD66" s="88"/>
-      <c r="AE66" s="88"/>
-      <c r="AF66" s="88"/>
-      <c r="AG66" s="88"/>
-      <c r="AH66" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI66" s="88"/>
-      <c r="AJ66" s="88"/>
-      <c r="AK66" s="88"/>
-      <c r="AL66" s="88"/>
-      <c r="AM66" s="88"/>
-      <c r="AN66" s="88"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
+      <c r="O66" s="52"/>
+      <c r="P66" s="52"/>
+      <c r="Q66" s="52"/>
+      <c r="R66" s="52"/>
+      <c r="S66" s="52"/>
+      <c r="T66" s="52"/>
+      <c r="U66" s="52"/>
+      <c r="V66" s="52"/>
+      <c r="W66" s="52"/>
+      <c r="X66" s="52"/>
+      <c r="Y66" s="52"/>
+      <c r="Z66" s="52"/>
+      <c r="AA66" s="52"/>
+      <c r="AB66" s="52"/>
+      <c r="AC66" s="52"/>
+      <c r="AD66" s="52"/>
+      <c r="AE66" s="52"/>
+      <c r="AF66" s="52"/>
+      <c r="AG66" s="52"/>
+      <c r="AH66" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI66" s="52"/>
+      <c r="AJ66" s="52"/>
+      <c r="AK66" s="52"/>
+      <c r="AL66" s="52"/>
+      <c r="AM66" s="52"/>
+      <c r="AN66" s="52"/>
     </row>
     <row r="67" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D67">
         <v>28</v>
       </c>
-      <c r="E67" s="88" t="s">
+      <c r="E67" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="88"/>
-      <c r="G67" s="88" t="s">
-        <v>142</v>
-      </c>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="88"/>
-      <c r="K67" s="88"/>
-      <c r="L67" s="88"/>
-      <c r="M67" s="88"/>
-      <c r="N67" s="88"/>
-      <c r="O67" s="88"/>
-      <c r="P67" s="88"/>
-      <c r="Q67" s="88"/>
-      <c r="R67" s="88"/>
-      <c r="S67" s="88"/>
-      <c r="T67" s="88"/>
-      <c r="U67" s="88"/>
-      <c r="V67" s="88"/>
-      <c r="W67" s="88"/>
-      <c r="X67" s="88"/>
-      <c r="Y67" s="88"/>
-      <c r="Z67" s="88"/>
-      <c r="AA67" s="88"/>
-      <c r="AB67" s="88"/>
-      <c r="AC67" s="88"/>
-      <c r="AD67" s="88"/>
-      <c r="AE67" s="88"/>
-      <c r="AF67" s="88"/>
-      <c r="AG67" s="88"/>
-      <c r="AH67" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI67" s="88"/>
-      <c r="AJ67" s="88"/>
-      <c r="AK67" s="88"/>
-      <c r="AL67" s="88"/>
-      <c r="AM67" s="88"/>
-      <c r="AN67" s="88"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="52"/>
+      <c r="O67" s="52"/>
+      <c r="P67" s="52"/>
+      <c r="Q67" s="52"/>
+      <c r="R67" s="52"/>
+      <c r="S67" s="52"/>
+      <c r="T67" s="52"/>
+      <c r="U67" s="52"/>
+      <c r="V67" s="52"/>
+      <c r="W67" s="52"/>
+      <c r="X67" s="52"/>
+      <c r="Y67" s="52"/>
+      <c r="Z67" s="52"/>
+      <c r="AA67" s="52"/>
+      <c r="AB67" s="52"/>
+      <c r="AC67" s="52"/>
+      <c r="AD67" s="52"/>
+      <c r="AE67" s="52"/>
+      <c r="AF67" s="52"/>
+      <c r="AG67" s="52"/>
+      <c r="AH67" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI67" s="52"/>
+      <c r="AJ67" s="52"/>
+      <c r="AK67" s="52"/>
+      <c r="AL67" s="52"/>
+      <c r="AM67" s="52"/>
+      <c r="AN67" s="52"/>
     </row>
     <row r="68" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D68">
         <v>29</v>
       </c>
-      <c r="E68" s="88" t="s">
+      <c r="E68" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="88"/>
-      <c r="G68" s="88" t="s">
-        <v>143</v>
-      </c>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="88"/>
-      <c r="K68" s="88"/>
-      <c r="L68" s="88"/>
-      <c r="M68" s="88"/>
-      <c r="N68" s="88"/>
-      <c r="O68" s="88"/>
-      <c r="P68" s="88"/>
-      <c r="Q68" s="88"/>
-      <c r="R68" s="88"/>
-      <c r="S68" s="88"/>
-      <c r="T68" s="88"/>
-      <c r="U68" s="88"/>
-      <c r="V68" s="88"/>
-      <c r="W68" s="88"/>
-      <c r="X68" s="88"/>
-      <c r="Y68" s="88"/>
-      <c r="Z68" s="88"/>
-      <c r="AA68" s="88"/>
-      <c r="AB68" s="88"/>
-      <c r="AC68" s="88"/>
-      <c r="AD68" s="88"/>
-      <c r="AE68" s="88"/>
-      <c r="AF68" s="88"/>
-      <c r="AG68" s="88"/>
-      <c r="AH68" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI68" s="88"/>
-      <c r="AJ68" s="88"/>
-      <c r="AK68" s="88"/>
-      <c r="AL68" s="88"/>
-      <c r="AM68" s="88"/>
-      <c r="AN68" s="88"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="52"/>
+      <c r="O68" s="52"/>
+      <c r="P68" s="52"/>
+      <c r="Q68" s="52"/>
+      <c r="R68" s="52"/>
+      <c r="S68" s="52"/>
+      <c r="T68" s="52"/>
+      <c r="U68" s="52"/>
+      <c r="V68" s="52"/>
+      <c r="W68" s="52"/>
+      <c r="X68" s="52"/>
+      <c r="Y68" s="52"/>
+      <c r="Z68" s="52"/>
+      <c r="AA68" s="52"/>
+      <c r="AB68" s="52"/>
+      <c r="AC68" s="52"/>
+      <c r="AD68" s="52"/>
+      <c r="AE68" s="52"/>
+      <c r="AF68" s="52"/>
+      <c r="AG68" s="52"/>
+      <c r="AH68" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI68" s="52"/>
+      <c r="AJ68" s="52"/>
+      <c r="AK68" s="52"/>
+      <c r="AL68" s="52"/>
+      <c r="AM68" s="52"/>
+      <c r="AN68" s="52"/>
     </row>
     <row r="69" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D69">
         <v>30</v>
       </c>
-      <c r="E69" s="88" t="s">
+      <c r="E69" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F69" s="88"/>
-      <c r="G69" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="88"/>
-      <c r="K69" s="88"/>
-      <c r="L69" s="88"/>
-      <c r="M69" s="88"/>
-      <c r="N69" s="88"/>
-      <c r="O69" s="88"/>
-      <c r="P69" s="88"/>
-      <c r="Q69" s="88"/>
-      <c r="R69" s="88"/>
-      <c r="S69" s="88"/>
-      <c r="T69" s="88"/>
-      <c r="U69" s="88"/>
-      <c r="V69" s="88"/>
-      <c r="W69" s="88"/>
-      <c r="X69" s="88"/>
-      <c r="Y69" s="88"/>
-      <c r="Z69" s="88"/>
-      <c r="AA69" s="88"/>
-      <c r="AB69" s="88"/>
-      <c r="AC69" s="88"/>
-      <c r="AD69" s="88"/>
-      <c r="AE69" s="88"/>
-      <c r="AF69" s="88"/>
-      <c r="AG69" s="88"/>
-      <c r="AH69" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI69" s="88"/>
-      <c r="AJ69" s="88"/>
-      <c r="AK69" s="88"/>
-      <c r="AL69" s="88"/>
-      <c r="AM69" s="88"/>
-      <c r="AN69" s="88"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
+      <c r="N69" s="52"/>
+      <c r="O69" s="52"/>
+      <c r="P69" s="52"/>
+      <c r="Q69" s="52"/>
+      <c r="R69" s="52"/>
+      <c r="S69" s="52"/>
+      <c r="T69" s="52"/>
+      <c r="U69" s="52"/>
+      <c r="V69" s="52"/>
+      <c r="W69" s="52"/>
+      <c r="X69" s="52"/>
+      <c r="Y69" s="52"/>
+      <c r="Z69" s="52"/>
+      <c r="AA69" s="52"/>
+      <c r="AB69" s="52"/>
+      <c r="AC69" s="52"/>
+      <c r="AD69" s="52"/>
+      <c r="AE69" s="52"/>
+      <c r="AF69" s="52"/>
+      <c r="AG69" s="52"/>
+      <c r="AH69" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI69" s="52"/>
+      <c r="AJ69" s="52"/>
+      <c r="AK69" s="52"/>
+      <c r="AL69" s="52"/>
+      <c r="AM69" s="52"/>
+      <c r="AN69" s="52"/>
     </row>
     <row r="70" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D70">
         <v>31</v>
       </c>
-      <c r="E70" s="88" t="s">
+      <c r="E70" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F70" s="88"/>
-      <c r="G70" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="H70" s="88"/>
-      <c r="I70" s="88"/>
-      <c r="J70" s="88"/>
-      <c r="K70" s="88"/>
-      <c r="L70" s="88"/>
-      <c r="M70" s="88"/>
-      <c r="N70" s="88"/>
-      <c r="O70" s="88"/>
-      <c r="P70" s="88"/>
-      <c r="Q70" s="88"/>
-      <c r="R70" s="88"/>
-      <c r="S70" s="88"/>
-      <c r="T70" s="88"/>
-      <c r="U70" s="88"/>
-      <c r="V70" s="88"/>
-      <c r="W70" s="88"/>
-      <c r="X70" s="88"/>
-      <c r="Y70" s="88"/>
-      <c r="Z70" s="88"/>
-      <c r="AA70" s="88"/>
-      <c r="AB70" s="88"/>
-      <c r="AC70" s="88"/>
-      <c r="AD70" s="88"/>
-      <c r="AE70" s="88"/>
-      <c r="AF70" s="88"/>
-      <c r="AG70" s="88"/>
-      <c r="AH70" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI70" s="88"/>
-      <c r="AJ70" s="88"/>
-      <c r="AK70" s="88"/>
-      <c r="AL70" s="88"/>
-      <c r="AM70" s="88"/>
-      <c r="AN70" s="88"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="52"/>
+      <c r="N70" s="52"/>
+      <c r="O70" s="52"/>
+      <c r="P70" s="52"/>
+      <c r="Q70" s="52"/>
+      <c r="R70" s="52"/>
+      <c r="S70" s="52"/>
+      <c r="T70" s="52"/>
+      <c r="U70" s="52"/>
+      <c r="V70" s="52"/>
+      <c r="W70" s="52"/>
+      <c r="X70" s="52"/>
+      <c r="Y70" s="52"/>
+      <c r="Z70" s="52"/>
+      <c r="AA70" s="52"/>
+      <c r="AB70" s="52"/>
+      <c r="AC70" s="52"/>
+      <c r="AD70" s="52"/>
+      <c r="AE70" s="52"/>
+      <c r="AF70" s="52"/>
+      <c r="AG70" s="52"/>
+      <c r="AH70" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI70" s="52"/>
+      <c r="AJ70" s="52"/>
+      <c r="AK70" s="52"/>
+      <c r="AL70" s="52"/>
+      <c r="AM70" s="52"/>
+      <c r="AN70" s="52"/>
     </row>
     <row r="71" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D71">
         <v>32</v>
       </c>
-      <c r="E71" s="88" t="s">
+      <c r="E71" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F71" s="88"/>
-      <c r="G71" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="H71" s="88"/>
-      <c r="I71" s="88"/>
-      <c r="J71" s="88"/>
-      <c r="K71" s="88"/>
-      <c r="L71" s="88"/>
-      <c r="M71" s="88"/>
-      <c r="N71" s="88"/>
-      <c r="O71" s="88"/>
-      <c r="P71" s="88"/>
-      <c r="Q71" s="88"/>
-      <c r="R71" s="88"/>
-      <c r="S71" s="88"/>
-      <c r="T71" s="88"/>
-      <c r="U71" s="88"/>
-      <c r="V71" s="88"/>
-      <c r="W71" s="88"/>
-      <c r="X71" s="88"/>
-      <c r="Y71" s="88"/>
-      <c r="Z71" s="88"/>
-      <c r="AA71" s="88"/>
-      <c r="AB71" s="88"/>
-      <c r="AC71" s="88"/>
-      <c r="AD71" s="88"/>
-      <c r="AE71" s="88"/>
-      <c r="AF71" s="88"/>
-      <c r="AG71" s="88"/>
-      <c r="AH71" s="88" t="s">
+      <c r="F71" s="52"/>
+      <c r="G71" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="AI71" s="88"/>
-      <c r="AJ71" s="88"/>
-      <c r="AK71" s="88"/>
-      <c r="AL71" s="88"/>
-      <c r="AM71" s="88"/>
-      <c r="AN71" s="88"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="52"/>
+      <c r="N71" s="52"/>
+      <c r="O71" s="52"/>
+      <c r="P71" s="52"/>
+      <c r="Q71" s="52"/>
+      <c r="R71" s="52"/>
+      <c r="S71" s="52"/>
+      <c r="T71" s="52"/>
+      <c r="U71" s="52"/>
+      <c r="V71" s="52"/>
+      <c r="W71" s="52"/>
+      <c r="X71" s="52"/>
+      <c r="Y71" s="52"/>
+      <c r="Z71" s="52"/>
+      <c r="AA71" s="52"/>
+      <c r="AB71" s="52"/>
+      <c r="AC71" s="52"/>
+      <c r="AD71" s="52"/>
+      <c r="AE71" s="52"/>
+      <c r="AF71" s="52"/>
+      <c r="AG71" s="52"/>
+      <c r="AH71" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI71" s="52"/>
+      <c r="AJ71" s="52"/>
+      <c r="AK71" s="52"/>
+      <c r="AL71" s="52"/>
+      <c r="AM71" s="52"/>
+      <c r="AN71" s="52"/>
     </row>
     <row r="72" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72">
         <v>33</v>
       </c>
-      <c r="E72" s="88" t="s">
+      <c r="E72" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F72" s="88"/>
-      <c r="G72" s="88" t="s">
-        <v>149</v>
-      </c>
-      <c r="H72" s="88"/>
-      <c r="I72" s="88"/>
-      <c r="J72" s="88"/>
-      <c r="K72" s="88"/>
-      <c r="L72" s="88"/>
-      <c r="M72" s="88"/>
-      <c r="N72" s="88"/>
-      <c r="O72" s="88"/>
-      <c r="P72" s="88"/>
-      <c r="Q72" s="88"/>
-      <c r="R72" s="88"/>
-      <c r="S72" s="88"/>
-      <c r="T72" s="88"/>
-      <c r="U72" s="88"/>
-      <c r="V72" s="88"/>
-      <c r="W72" s="88"/>
-      <c r="X72" s="88"/>
-      <c r="Y72" s="88"/>
-      <c r="Z72" s="88"/>
-      <c r="AA72" s="88"/>
-      <c r="AB72" s="88"/>
-      <c r="AC72" s="88"/>
-      <c r="AD72" s="88"/>
-      <c r="AE72" s="88"/>
-      <c r="AF72" s="88"/>
-      <c r="AG72" s="88"/>
-      <c r="AH72" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI72" s="88"/>
-      <c r="AJ72" s="88"/>
-      <c r="AK72" s="88"/>
-      <c r="AL72" s="88"/>
-      <c r="AM72" s="88"/>
-      <c r="AN72" s="88"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="52"/>
+      <c r="Q72" s="52"/>
+      <c r="R72" s="52"/>
+      <c r="S72" s="52"/>
+      <c r="T72" s="52"/>
+      <c r="U72" s="52"/>
+      <c r="V72" s="52"/>
+      <c r="W72" s="52"/>
+      <c r="X72" s="52"/>
+      <c r="Y72" s="52"/>
+      <c r="Z72" s="52"/>
+      <c r="AA72" s="52"/>
+      <c r="AB72" s="52"/>
+      <c r="AC72" s="52"/>
+      <c r="AD72" s="52"/>
+      <c r="AE72" s="52"/>
+      <c r="AF72" s="52"/>
+      <c r="AG72" s="52"/>
+      <c r="AH72" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI72" s="52"/>
+      <c r="AJ72" s="52"/>
+      <c r="AK72" s="52"/>
+      <c r="AL72" s="52"/>
+      <c r="AM72" s="52"/>
+      <c r="AN72" s="52"/>
     </row>
     <row r="73" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73">
         <v>34</v>
       </c>
-      <c r="E73" s="88" t="s">
+      <c r="E73" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F73" s="88"/>
-      <c r="G73" s="88" t="s">
-        <v>150</v>
-      </c>
-      <c r="H73" s="88"/>
-      <c r="I73" s="88"/>
-      <c r="J73" s="88"/>
-      <c r="K73" s="88"/>
-      <c r="L73" s="88"/>
-      <c r="M73" s="88"/>
-      <c r="N73" s="88"/>
-      <c r="O73" s="88"/>
-      <c r="P73" s="88"/>
-      <c r="Q73" s="88"/>
-      <c r="R73" s="88"/>
-      <c r="S73" s="88"/>
-      <c r="T73" s="88"/>
-      <c r="U73" s="88"/>
-      <c r="V73" s="88"/>
-      <c r="W73" s="88"/>
-      <c r="X73" s="88"/>
-      <c r="Y73" s="88"/>
-      <c r="Z73" s="88"/>
-      <c r="AA73" s="88"/>
-      <c r="AB73" s="88"/>
-      <c r="AC73" s="88"/>
-      <c r="AD73" s="88"/>
-      <c r="AE73" s="88"/>
-      <c r="AF73" s="88"/>
-      <c r="AG73" s="88"/>
-      <c r="AH73" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI73" s="88"/>
-      <c r="AJ73" s="88"/>
-      <c r="AK73" s="88"/>
-      <c r="AL73" s="88"/>
-      <c r="AM73" s="88"/>
-      <c r="AN73" s="88"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="52"/>
+      <c r="L73" s="52"/>
+      <c r="M73" s="52"/>
+      <c r="N73" s="52"/>
+      <c r="O73" s="52"/>
+      <c r="P73" s="52"/>
+      <c r="Q73" s="52"/>
+      <c r="R73" s="52"/>
+      <c r="S73" s="52"/>
+      <c r="T73" s="52"/>
+      <c r="U73" s="52"/>
+      <c r="V73" s="52"/>
+      <c r="W73" s="52"/>
+      <c r="X73" s="52"/>
+      <c r="Y73" s="52"/>
+      <c r="Z73" s="52"/>
+      <c r="AA73" s="52"/>
+      <c r="AB73" s="52"/>
+      <c r="AC73" s="52"/>
+      <c r="AD73" s="52"/>
+      <c r="AE73" s="52"/>
+      <c r="AF73" s="52"/>
+      <c r="AG73" s="52"/>
+      <c r="AH73" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI73" s="52"/>
+      <c r="AJ73" s="52"/>
+      <c r="AK73" s="52"/>
+      <c r="AL73" s="52"/>
+      <c r="AM73" s="52"/>
+      <c r="AN73" s="52"/>
     </row>
     <row r="74" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D74">
         <v>35</v>
       </c>
-      <c r="E74" s="88" t="s">
+      <c r="E74" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F74" s="88"/>
-      <c r="G74" s="89" t="s">
-        <v>151</v>
-      </c>
-      <c r="H74" s="88"/>
-      <c r="I74" s="88"/>
-      <c r="J74" s="88"/>
-      <c r="K74" s="88"/>
-      <c r="L74" s="88"/>
-      <c r="M74" s="88"/>
-      <c r="N74" s="88"/>
-      <c r="O74" s="88"/>
-      <c r="P74" s="88"/>
-      <c r="Q74" s="88"/>
-      <c r="R74" s="88"/>
-      <c r="S74" s="88"/>
-      <c r="T74" s="88"/>
-      <c r="U74" s="88"/>
-      <c r="V74" s="88"/>
-      <c r="W74" s="88"/>
-      <c r="X74" s="88"/>
-      <c r="Y74" s="88"/>
-      <c r="Z74" s="88"/>
-      <c r="AA74" s="88"/>
-      <c r="AB74" s="88"/>
-      <c r="AC74" s="88"/>
-      <c r="AD74" s="88"/>
-      <c r="AE74" s="88"/>
-      <c r="AF74" s="88"/>
-      <c r="AG74" s="88"/>
-      <c r="AH74" s="88" t="s">
-        <v>175</v>
-      </c>
-      <c r="AI74" s="88"/>
-      <c r="AJ74" s="88"/>
-      <c r="AK74" s="88"/>
-      <c r="AL74" s="88"/>
-      <c r="AM74" s="88"/>
-      <c r="AN74" s="88"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="H74" s="52"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="52"/>
+      <c r="N74" s="52"/>
+      <c r="O74" s="52"/>
+      <c r="P74" s="52"/>
+      <c r="Q74" s="52"/>
+      <c r="R74" s="52"/>
+      <c r="S74" s="52"/>
+      <c r="T74" s="52"/>
+      <c r="U74" s="52"/>
+      <c r="V74" s="52"/>
+      <c r="W74" s="52"/>
+      <c r="X74" s="52"/>
+      <c r="Y74" s="52"/>
+      <c r="Z74" s="52"/>
+      <c r="AA74" s="52"/>
+      <c r="AB74" s="52"/>
+      <c r="AC74" s="52"/>
+      <c r="AD74" s="52"/>
+      <c r="AE74" s="52"/>
+      <c r="AF74" s="52"/>
+      <c r="AG74" s="52"/>
+      <c r="AH74" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI74" s="52"/>
+      <c r="AJ74" s="52"/>
+      <c r="AK74" s="52"/>
+      <c r="AL74" s="52"/>
+      <c r="AM74" s="52"/>
+      <c r="AN74" s="52"/>
     </row>
     <row r="75" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D75">
         <v>35</v>
       </c>
-      <c r="E75" s="88" t="s">
+      <c r="E75" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F75" s="88"/>
-      <c r="G75" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="H75" s="88"/>
-      <c r="I75" s="88"/>
-      <c r="J75" s="88"/>
-      <c r="K75" s="88"/>
-      <c r="L75" s="88"/>
-      <c r="M75" s="88"/>
-      <c r="N75" s="88"/>
-      <c r="O75" s="88"/>
-      <c r="P75" s="88"/>
-      <c r="Q75" s="88"/>
-      <c r="R75" s="88"/>
-      <c r="S75" s="88"/>
-      <c r="T75" s="88"/>
-      <c r="U75" s="88"/>
-      <c r="V75" s="88"/>
-      <c r="W75" s="88"/>
-      <c r="X75" s="88"/>
-      <c r="Y75" s="88"/>
-      <c r="Z75" s="88"/>
-      <c r="AA75" s="88"/>
-      <c r="AB75" s="88"/>
-      <c r="AC75" s="88"/>
-      <c r="AD75" s="88"/>
-      <c r="AE75" s="88"/>
-      <c r="AF75" s="88"/>
-      <c r="AG75" s="88"/>
-      <c r="AH75" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI75" s="88"/>
-      <c r="AJ75" s="88"/>
-      <c r="AK75" s="88"/>
-      <c r="AL75" s="88"/>
-      <c r="AM75" s="88"/>
-      <c r="AN75" s="88"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="H75" s="52"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="52"/>
+      <c r="M75" s="52"/>
+      <c r="N75" s="52"/>
+      <c r="O75" s="52"/>
+      <c r="P75" s="52"/>
+      <c r="Q75" s="52"/>
+      <c r="R75" s="52"/>
+      <c r="S75" s="52"/>
+      <c r="T75" s="52"/>
+      <c r="U75" s="52"/>
+      <c r="V75" s="52"/>
+      <c r="W75" s="52"/>
+      <c r="X75" s="52"/>
+      <c r="Y75" s="52"/>
+      <c r="Z75" s="52"/>
+      <c r="AA75" s="52"/>
+      <c r="AB75" s="52"/>
+      <c r="AC75" s="52"/>
+      <c r="AD75" s="52"/>
+      <c r="AE75" s="52"/>
+      <c r="AF75" s="52"/>
+      <c r="AG75" s="52"/>
+      <c r="AH75" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI75" s="52"/>
+      <c r="AJ75" s="52"/>
+      <c r="AK75" s="52"/>
+      <c r="AL75" s="52"/>
+      <c r="AM75" s="52"/>
+      <c r="AN75" s="52"/>
     </row>
     <row r="76" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D76">
         <v>36</v>
       </c>
-      <c r="E76" s="88" t="s">
+      <c r="E76" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F76" s="88"/>
-      <c r="G76" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="H76" s="88"/>
-      <c r="I76" s="88"/>
-      <c r="J76" s="88"/>
-      <c r="K76" s="88"/>
-      <c r="L76" s="88"/>
-      <c r="M76" s="88"/>
-      <c r="N76" s="88"/>
-      <c r="O76" s="88"/>
-      <c r="P76" s="88"/>
-      <c r="Q76" s="88"/>
-      <c r="R76" s="88"/>
-      <c r="S76" s="88"/>
-      <c r="T76" s="88"/>
-      <c r="U76" s="88"/>
-      <c r="V76" s="88"/>
-      <c r="W76" s="88"/>
-      <c r="X76" s="88"/>
-      <c r="Y76" s="88"/>
-      <c r="Z76" s="88"/>
-      <c r="AA76" s="88"/>
-      <c r="AB76" s="88"/>
-      <c r="AC76" s="88"/>
-      <c r="AD76" s="88"/>
-      <c r="AE76" s="88"/>
-      <c r="AF76" s="88"/>
-      <c r="AG76" s="88"/>
-      <c r="AH76" s="88" t="s">
+      <c r="F76" s="52"/>
+      <c r="G76" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="AI76" s="88"/>
-      <c r="AJ76" s="88"/>
-      <c r="AK76" s="88"/>
-      <c r="AL76" s="88"/>
-      <c r="AM76" s="88"/>
-      <c r="AN76" s="88"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="52"/>
+      <c r="N76" s="52"/>
+      <c r="O76" s="52"/>
+      <c r="P76" s="52"/>
+      <c r="Q76" s="52"/>
+      <c r="R76" s="52"/>
+      <c r="S76" s="52"/>
+      <c r="T76" s="52"/>
+      <c r="U76" s="52"/>
+      <c r="V76" s="52"/>
+      <c r="W76" s="52"/>
+      <c r="X76" s="52"/>
+      <c r="Y76" s="52"/>
+      <c r="Z76" s="52"/>
+      <c r="AA76" s="52"/>
+      <c r="AB76" s="52"/>
+      <c r="AC76" s="52"/>
+      <c r="AD76" s="52"/>
+      <c r="AE76" s="52"/>
+      <c r="AF76" s="52"/>
+      <c r="AG76" s="52"/>
+      <c r="AH76" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI76" s="52"/>
+      <c r="AJ76" s="52"/>
+      <c r="AK76" s="52"/>
+      <c r="AL76" s="52"/>
+      <c r="AM76" s="52"/>
+      <c r="AN76" s="52"/>
     </row>
     <row r="77" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D77">
         <v>37</v>
       </c>
-      <c r="E77" s="88" t="s">
+      <c r="E77" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="88"/>
-      <c r="G77" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="H77" s="88"/>
-      <c r="I77" s="88"/>
-      <c r="J77" s="88"/>
-      <c r="K77" s="88"/>
-      <c r="L77" s="88"/>
-      <c r="M77" s="88"/>
-      <c r="N77" s="88"/>
-      <c r="O77" s="88"/>
-      <c r="P77" s="88"/>
-      <c r="Q77" s="88"/>
-      <c r="R77" s="88"/>
-      <c r="S77" s="88"/>
-      <c r="T77" s="88"/>
-      <c r="U77" s="88"/>
-      <c r="V77" s="88"/>
-      <c r="W77" s="88"/>
-      <c r="X77" s="88"/>
-      <c r="Y77" s="88"/>
-      <c r="Z77" s="88"/>
-      <c r="AA77" s="88"/>
-      <c r="AB77" s="88"/>
-      <c r="AC77" s="88"/>
-      <c r="AD77" s="88"/>
-      <c r="AE77" s="88"/>
-      <c r="AF77" s="88"/>
-      <c r="AG77" s="88"/>
-      <c r="AH77" s="88" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI77" s="88"/>
-      <c r="AJ77" s="88"/>
-      <c r="AK77" s="88"/>
-      <c r="AL77" s="88"/>
-      <c r="AM77" s="88"/>
-      <c r="AN77" s="88"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="H77" s="52"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="52"/>
+      <c r="K77" s="52"/>
+      <c r="L77" s="52"/>
+      <c r="M77" s="52"/>
+      <c r="N77" s="52"/>
+      <c r="O77" s="52"/>
+      <c r="P77" s="52"/>
+      <c r="Q77" s="52"/>
+      <c r="R77" s="52"/>
+      <c r="S77" s="52"/>
+      <c r="T77" s="52"/>
+      <c r="U77" s="52"/>
+      <c r="V77" s="52"/>
+      <c r="W77" s="52"/>
+      <c r="X77" s="52"/>
+      <c r="Y77" s="52"/>
+      <c r="Z77" s="52"/>
+      <c r="AA77" s="52"/>
+      <c r="AB77" s="52"/>
+      <c r="AC77" s="52"/>
+      <c r="AD77" s="52"/>
+      <c r="AE77" s="52"/>
+      <c r="AF77" s="52"/>
+      <c r="AG77" s="52"/>
+      <c r="AH77" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI77" s="52"/>
+      <c r="AJ77" s="52"/>
+      <c r="AK77" s="52"/>
+      <c r="AL77" s="52"/>
+      <c r="AM77" s="52"/>
+      <c r="AN77" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="BM24:BT25"/>
-    <mergeCell ref="AX32:BE39"/>
-    <mergeCell ref="BO30:BR30"/>
-    <mergeCell ref="CN22:CW22"/>
-    <mergeCell ref="CI23:CJ24"/>
-    <mergeCell ref="CD23:CG23"/>
-    <mergeCell ref="D38:AN38"/>
-    <mergeCell ref="BY20:CL20"/>
-    <mergeCell ref="BJ12:BW12"/>
-    <mergeCell ref="AU28:BH28"/>
-    <mergeCell ref="BJ28:BW28"/>
-    <mergeCell ref="BM14:BT15"/>
-    <mergeCell ref="G7:M13"/>
-    <mergeCell ref="AH7:AN13"/>
-    <mergeCell ref="AH27:AN33"/>
-    <mergeCell ref="G27:M33"/>
-    <mergeCell ref="S16:AB25"/>
-    <mergeCell ref="AU12:BH12"/>
-    <mergeCell ref="AZ18:BC21"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="AH40:AN40"/>
-    <mergeCell ref="AH41:AN41"/>
-    <mergeCell ref="AH42:AN42"/>
-    <mergeCell ref="AH43:AN43"/>
-    <mergeCell ref="G39:AG39"/>
-    <mergeCell ref="AH39:AN39"/>
-    <mergeCell ref="G40:AG40"/>
-    <mergeCell ref="G41:AG41"/>
-    <mergeCell ref="G42:AG42"/>
-    <mergeCell ref="G43:AG43"/>
-    <mergeCell ref="G44:AG44"/>
-    <mergeCell ref="G45:AG45"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="AH62:AN62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:AG77"/>
+    <mergeCell ref="AH77:AN77"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:AG75"/>
+    <mergeCell ref="AH75:AN75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:AG76"/>
+    <mergeCell ref="AH76:AN76"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:AG73"/>
+    <mergeCell ref="AH73:AN73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:AG74"/>
+    <mergeCell ref="AH74:AN74"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:AG71"/>
+    <mergeCell ref="AH71:AN71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:AG72"/>
+    <mergeCell ref="AH72:AN72"/>
+    <mergeCell ref="AH51:AN51"/>
+    <mergeCell ref="AH52:AN52"/>
+    <mergeCell ref="AH53:AN53"/>
+    <mergeCell ref="AH54:AN54"/>
+    <mergeCell ref="AH55:AN55"/>
+    <mergeCell ref="G49:AG49"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="AH64:AN64"/>
+    <mergeCell ref="AH63:AN63"/>
+    <mergeCell ref="AH65:AN65"/>
+    <mergeCell ref="AH56:AN56"/>
+    <mergeCell ref="AH57:AN57"/>
+    <mergeCell ref="AH58:AN58"/>
+    <mergeCell ref="AH59:AN59"/>
+    <mergeCell ref="AH60:AN60"/>
+    <mergeCell ref="AH61:AN61"/>
+    <mergeCell ref="G65:AG65"/>
+    <mergeCell ref="G58:AG58"/>
+    <mergeCell ref="G59:AG59"/>
+    <mergeCell ref="G60:AG60"/>
+    <mergeCell ref="G61:AG61"/>
+    <mergeCell ref="G62:AG62"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="AH66:AN66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="AH67:AN67"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:AG70"/>
+    <mergeCell ref="AH70:AN70"/>
+    <mergeCell ref="AH68:AN68"/>
+    <mergeCell ref="AH69:AN69"/>
+    <mergeCell ref="G68:AG68"/>
+    <mergeCell ref="G69:AG69"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G66:AG66"/>
+    <mergeCell ref="G67:AG67"/>
     <mergeCell ref="G64:AG64"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E51:F51"/>
@@ -10863,66 +10885,58 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="G47:AG47"/>
     <mergeCell ref="AH47:AN47"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="AH66:AN66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="AH67:AN67"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:AG70"/>
-    <mergeCell ref="AH70:AN70"/>
-    <mergeCell ref="AH68:AN68"/>
-    <mergeCell ref="AH69:AN69"/>
-    <mergeCell ref="G68:AG68"/>
-    <mergeCell ref="G69:AG69"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G66:AG66"/>
-    <mergeCell ref="G67:AG67"/>
-    <mergeCell ref="AH51:AN51"/>
-    <mergeCell ref="AH52:AN52"/>
-    <mergeCell ref="AH53:AN53"/>
-    <mergeCell ref="AH54:AN54"/>
-    <mergeCell ref="AH55:AN55"/>
-    <mergeCell ref="G49:AG49"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="AH64:AN64"/>
-    <mergeCell ref="AH63:AN63"/>
-    <mergeCell ref="AH65:AN65"/>
-    <mergeCell ref="AH56:AN56"/>
-    <mergeCell ref="AH57:AN57"/>
-    <mergeCell ref="AH58:AN58"/>
-    <mergeCell ref="AH59:AN59"/>
-    <mergeCell ref="AH60:AN60"/>
-    <mergeCell ref="AH61:AN61"/>
-    <mergeCell ref="G65:AG65"/>
-    <mergeCell ref="G58:AG58"/>
-    <mergeCell ref="G59:AG59"/>
-    <mergeCell ref="G60:AG60"/>
-    <mergeCell ref="G61:AG61"/>
-    <mergeCell ref="G62:AG62"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:AG73"/>
-    <mergeCell ref="AH73:AN73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:AG74"/>
-    <mergeCell ref="AH74:AN74"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:AG71"/>
-    <mergeCell ref="AH71:AN71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:AG72"/>
-    <mergeCell ref="AH72:AN72"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:AG77"/>
-    <mergeCell ref="AH77:AN77"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:AG75"/>
-    <mergeCell ref="AH75:AN75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:AG76"/>
-    <mergeCell ref="AH76:AN76"/>
+    <mergeCell ref="AH62:AN62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="AH40:AN40"/>
+    <mergeCell ref="AH41:AN41"/>
+    <mergeCell ref="AH42:AN42"/>
+    <mergeCell ref="AH43:AN43"/>
+    <mergeCell ref="G39:AG39"/>
+    <mergeCell ref="AH39:AN39"/>
+    <mergeCell ref="G40:AG40"/>
+    <mergeCell ref="G41:AG41"/>
+    <mergeCell ref="G42:AG42"/>
+    <mergeCell ref="G43:AG43"/>
+    <mergeCell ref="G44:AG44"/>
+    <mergeCell ref="G45:AG45"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="BM24:BT25"/>
+    <mergeCell ref="AX32:BE39"/>
+    <mergeCell ref="BO30:BR30"/>
+    <mergeCell ref="CN22:CW22"/>
+    <mergeCell ref="CI23:CJ24"/>
+    <mergeCell ref="CD23:CG23"/>
+    <mergeCell ref="D38:AN38"/>
+    <mergeCell ref="BY20:CL20"/>
+    <mergeCell ref="BJ12:BW12"/>
+    <mergeCell ref="AU28:BH28"/>
+    <mergeCell ref="BJ28:BW28"/>
+    <mergeCell ref="BM14:BT15"/>
+    <mergeCell ref="G7:M13"/>
+    <mergeCell ref="AH7:AN13"/>
+    <mergeCell ref="AH27:AN33"/>
+    <mergeCell ref="G27:M33"/>
+    <mergeCell ref="S16:AB25"/>
+    <mergeCell ref="AU12:BH12"/>
+    <mergeCell ref="AZ18:BC21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plan/스테이지_1_맵_기획.xlsx
+++ b/Plan/스테이지_1_맵_기획.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="12795" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Stage" sheetId="1" r:id="rId1"/>
@@ -187,6 +187,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> 이 안에 색깔을 채워 넣을 수 있을 것 같아 '</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>나룻터 나무 ( 팔레트와 상호작용 가능 )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -455,6 +459,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>" 이 공원에 여자친구와 자주 오고는 했었어. 지금은 혼자지만 "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>" 헤어지고 나서도 가끔 들렸었지 "</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -739,24 +747,6 @@
   </si>
   <si>
     <t>' 아마 이 버튼 따라서 나눠진 색깔이 변하는거 같은데? '</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>" 이 공원에 여자친구와 자주 오고는 했었어. 지금은 혼자지만 "</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 이 안에 색깔을 채워 넣을 수 있을 것 같아 '</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1283,7 +1273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1440,6 +1430,114 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1449,114 +1547,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1684,9 +1674,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1727,7 +1714,7 @@
         <xdr:cNvPr id="2" name="그림 1" descr="LTP-613C) 전통 육각정자 설계 제작 시공 - 서산 해미면 애향공원 : (주)라은엘앤씨">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61CC6A7A-D9D7-4F9E-9869-4B9B4430929E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61CC6A7A-D9D7-4F9E-9869-4B9B4430929E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2049,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2072,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AI42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AI27" sqref="AI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2118,18 +2105,18 @@
     </row>
     <row r="3" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="5"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -2156,16 +2143,16 @@
     </row>
     <row r="4" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
       <c r="M4" s="5"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -2178,12 +2165,12 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="77" t="s">
+      <c r="Y4" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="79"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="76"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="3"/>
@@ -2194,16 +2181,16 @@
     </row>
     <row r="5" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="5"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -2212,16 +2199,16 @@
       <c r="R5" s="1"/>
       <c r="S5" s="5"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="77" t="s">
+      <c r="U5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="86"/>
+      <c r="V5" s="83"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="82"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="79"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="3"/>
@@ -2232,16 +2219,16 @@
     </row>
     <row r="6" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="5"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -2250,14 +2237,14 @@
       <c r="R6" s="1"/>
       <c r="S6" s="5"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="88"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="85"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="85"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="82"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="3"/>
@@ -2268,16 +2255,16 @@
     </row>
     <row r="7" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="5"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -2304,16 +2291,16 @@
     </row>
     <row r="8" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
       <c r="M8" s="5"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -2326,12 +2313,12 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-      <c r="Y8" s="71" t="s">
+      <c r="Y8" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="73"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="70"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="3"/>
@@ -2342,16 +2329,16 @@
     </row>
     <row r="9" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
       <c r="M9" s="5"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2364,10 +2351,10 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="76"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="73"/>
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="3"/>
@@ -2378,16 +2365,16 @@
     </row>
     <row r="10" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
       <c r="M10" s="5"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -2450,19 +2437,19 @@
     </row>
     <row r="12" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2488,17 +2475,17 @@
     </row>
     <row r="13" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2520,17 +2507,17 @@
     </row>
     <row r="14" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2552,17 +2539,17 @@
     </row>
     <row r="15" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2584,17 +2571,17 @@
     </row>
     <row r="16" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2616,17 +2603,17 @@
     </row>
     <row r="17" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2648,17 +2635,17 @@
     </row>
     <row r="18" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2680,7 +2667,7 @@
     </row>
     <row r="19" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="56" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1"/>
@@ -2702,21 +2689,21 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="89" t="s">
+      <c r="W19" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="86"/>
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
-      <c r="C20" s="60"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2736,19 +2723,19 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="89"/>
-      <c r="AD20" s="89"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="86"/>
       <c r="AE20" s="3"/>
     </row>
     <row r="21" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
-      <c r="C21" s="60"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2768,31 +2755,31 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="86"/>
       <c r="AE21" s="3"/>
     </row>
     <row r="22" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
-      <c r="C22" s="60"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="64"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2802,29 +2789,29 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="89"/>
-      <c r="AD22" s="89"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="86"/>
+      <c r="AD22" s="86"/>
       <c r="AE22" s="3"/>
     </row>
     <row r="23" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
-      <c r="C23" s="60"/>
+      <c r="C23" s="57"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="67"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="64"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2834,29 +2821,29 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="89"/>
-      <c r="AB23" s="89"/>
-      <c r="AC23" s="89"/>
-      <c r="AD23" s="89"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="86"/>
+      <c r="AD23" s="86"/>
       <c r="AE23" s="3"/>
     </row>
     <row r="24" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
-      <c r="C24" s="60"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="67"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="64"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2866,29 +2853,29 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="89"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="86"/>
+      <c r="AB24" s="86"/>
+      <c r="AC24" s="86"/>
+      <c r="AD24" s="86"/>
       <c r="AE24" s="3"/>
     </row>
     <row r="25" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
-      <c r="C25" s="60"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="67"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="64"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2898,29 +2885,29 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="89"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="86"/>
+      <c r="AB25" s="86"/>
+      <c r="AC25" s="86"/>
+      <c r="AD25" s="86"/>
       <c r="AE25" s="3"/>
     </row>
     <row r="26" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
-      <c r="C26" s="60"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="67"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="64"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2930,29 +2917,29 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="89"/>
-      <c r="AB26" s="89"/>
-      <c r="AC26" s="89"/>
-      <c r="AD26" s="89"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="86"/>
+      <c r="AD26" s="86"/>
       <c r="AE26" s="3"/>
     </row>
     <row r="27" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
-      <c r="C27" s="60"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="67"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="64"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2962,29 +2949,29 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="89"/>
-      <c r="AC27" s="89"/>
-      <c r="AD27" s="89"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="86"/>
+      <c r="AB27" s="86"/>
+      <c r="AC27" s="86"/>
+      <c r="AD27" s="86"/>
       <c r="AE27" s="3"/>
     </row>
     <row r="28" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="60"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="67"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="64"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2994,29 +2981,29 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="89"/>
-      <c r="AD28" s="89"/>
+      <c r="W28" s="86"/>
+      <c r="X28" s="86"/>
+      <c r="Y28" s="86"/>
+      <c r="Z28" s="86"/>
+      <c r="AA28" s="86"/>
+      <c r="AB28" s="86"/>
+      <c r="AC28" s="86"/>
+      <c r="AD28" s="86"/>
       <c r="AE28" s="3"/>
     </row>
     <row r="29" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="60"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="70"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="67"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -3026,19 +3013,19 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="89"/>
-      <c r="AA29" s="89"/>
-      <c r="AB29" s="89"/>
-      <c r="AC29" s="89"/>
-      <c r="AD29" s="89"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="86"/>
+      <c r="AD29" s="86"/>
       <c r="AE29" s="3"/>
     </row>
     <row r="30" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="61"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -3058,14 +3045,14 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="89"/>
-      <c r="AA30" s="89"/>
-      <c r="AB30" s="89"/>
-      <c r="AC30" s="89"/>
-      <c r="AD30" s="89"/>
+      <c r="W30" s="86"/>
+      <c r="X30" s="86"/>
+      <c r="Y30" s="86"/>
+      <c r="Z30" s="86"/>
+      <c r="AA30" s="86"/>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="86"/>
+      <c r="AD30" s="86"/>
       <c r="AE30" s="3"/>
     </row>
     <row r="31" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3074,13 +3061,13 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="58"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="55"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -3104,262 +3091,262 @@
     </row>
     <row r="32" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="54"/>
-      <c r="W33" s="54"/>
-      <c r="X33" s="54"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="90"/>
     </row>
     <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52" t="s">
+      <c r="D34" s="88"/>
+      <c r="E34" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52" t="s">
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="88"/>
+      <c r="T34" s="88"/>
+      <c r="U34" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="88"/>
     </row>
     <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
+      <c r="C35" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="88"/>
+      <c r="E35" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="88"/>
+      <c r="U35" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="V35" s="88"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="88"/>
     </row>
     <row r="36" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
+      <c r="C36" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="88"/>
+      <c r="E36" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="88"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="88"/>
+      <c r="T36" s="88"/>
+      <c r="U36" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="V36" s="88"/>
+      <c r="W36" s="88"/>
+      <c r="X36" s="88"/>
     </row>
     <row r="37" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52" t="s">
+      <c r="C37" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="88"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="88"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="88"/>
+      <c r="U37" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="V37" s="88"/>
+      <c r="W37" s="88"/>
+      <c r="X37" s="88"/>
     </row>
     <row r="38" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>3</v>
       </c>
-      <c r="C38" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="53" t="s">
+      <c r="C38" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="88"/>
+      <c r="E38" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="88"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="88"/>
+      <c r="T38" s="88"/>
+      <c r="U38" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
+      <c r="V38" s="88"/>
+      <c r="W38" s="88"/>
+      <c r="X38" s="88"/>
     </row>
     <row r="39" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>4</v>
       </c>
-      <c r="C39" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="53" t="s">
+      <c r="C39" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="88"/>
+      <c r="E39" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
+      <c r="V39" s="88"/>
+      <c r="W39" s="88"/>
+      <c r="X39" s="88"/>
     </row>
     <row r="40" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="C40" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
+      <c r="C40" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="88"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="V40" s="88"/>
+      <c r="W40" s="88"/>
+      <c r="X40" s="88"/>
     </row>
     <row r="41" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="31"/>
@@ -3413,25 +3400,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C3:L10"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="C19:C30"/>
-    <mergeCell ref="E22:M29"/>
-    <mergeCell ref="Y8:AB9"/>
-    <mergeCell ref="Y4:AB6"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="W19:AD30"/>
-    <mergeCell ref="C12:M18"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:T36"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="B33:X33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:T34"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:T35"/>
-    <mergeCell ref="U35:X35"/>
     <mergeCell ref="U37:X37"/>
     <mergeCell ref="E37:T37"/>
     <mergeCell ref="C37:D37"/>
@@ -3444,6 +3412,25 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:T39"/>
     <mergeCell ref="U39:X39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:T36"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="B33:X33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:T34"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:T35"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="C3:L10"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="C19:C30"/>
+    <mergeCell ref="E22:M29"/>
+    <mergeCell ref="Y8:AB9"/>
+    <mergeCell ref="Y4:AB6"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="W19:AD30"/>
+    <mergeCell ref="C12:M18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3455,8 +3442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AO116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3553,7 +3540,7 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" s="91"/>
       <c r="H4" s="91"/>
@@ -3589,7 +3576,7 @@
       <c r="AL4" s="12"/>
       <c r="AN4" s="15"/>
       <c r="AO4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3632,7 +3619,7 @@
       <c r="AL5" s="12"/>
       <c r="AN5" s="23"/>
       <c r="AO5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3718,7 +3705,7 @@
       <c r="AL7" s="12"/>
       <c r="AN7" s="35"/>
       <c r="AO7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3761,7 +3748,7 @@
       <c r="AL8" s="12"/>
       <c r="AN8" s="26"/>
       <c r="AO8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3933,7 +3920,7 @@
       <c r="AL12" s="12"/>
       <c r="AN12" s="34"/>
       <c r="AO12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4174,460 +4161,460 @@
     </row>
     <row r="19" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
     </row>
     <row r="21" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52" t="s">
+      <c r="D21" s="88"/>
+      <c r="E21" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52" t="s">
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="88"/>
+      <c r="X21" s="88"/>
     </row>
     <row r="22" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53" t="s">
+      <c r="D22" s="88"/>
+      <c r="E22" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52" t="s">
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="88"/>
     </row>
     <row r="23" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53" t="s">
+      <c r="D23" s="88"/>
+      <c r="E23" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52" t="s">
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="88"/>
     </row>
     <row r="24" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52" t="s">
+      <c r="D24" s="88"/>
+      <c r="E24" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52" t="s">
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="88"/>
+      <c r="U24" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
+      <c r="V24" s="88"/>
+      <c r="W24" s="88"/>
+      <c r="X24" s="88"/>
     </row>
     <row r="25" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52" t="s">
+      <c r="D25" s="88"/>
+      <c r="E25" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52" t="s">
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="88"/>
     </row>
     <row r="26" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53" t="s">
+      <c r="D26" s="88"/>
+      <c r="E26" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="52" t="s">
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="88"/>
     </row>
     <row r="27" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="134" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="V27" s="88"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="88"/>
     </row>
     <row r="28" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>6</v>
       </c>
-      <c r="C28" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="52" t="s">
+      <c r="C28" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="88"/>
     </row>
     <row r="29" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>7</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52" t="s">
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="88"/>
     </row>
     <row r="30" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>8</v>
       </c>
-      <c r="C30" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52" t="s">
+      <c r="C30" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="88"/>
     </row>
     <row r="31" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>9</v>
       </c>
-      <c r="C31" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52" t="s">
+      <c r="C31" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="88"/>
     </row>
     <row r="32" spans="2:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>10</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="53" t="s">
+      <c r="D32" s="88"/>
+      <c r="E32" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="88"/>
     </row>
     <row r="33" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>11</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52" t="s">
+      <c r="D33" s="88"/>
+      <c r="E33" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52" t="s">
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
     </row>
     <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4714,32 +4701,6 @@
     <row r="116" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F4:H6"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="E21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="E24:T24"/>
-    <mergeCell ref="E23:T23"/>
-    <mergeCell ref="E32:T32"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="E27:T27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="E29:T29"/>
-    <mergeCell ref="E31:T31"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:T28"/>
-    <mergeCell ref="U28:X28"/>
     <mergeCell ref="E33:T33"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="B20:X20"/>
@@ -4756,10 +4717,35 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:T30"/>
     <mergeCell ref="E22:T22"/>
+    <mergeCell ref="E32:T32"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="E27:T27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="E29:T29"/>
+    <mergeCell ref="E31:T31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:T28"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="F4:H6"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="E21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="E24:T24"/>
+    <mergeCell ref="E23:T23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4767,8 +4753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB119"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67:U67"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V64" sqref="V64:AB64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4777,9 +4763,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
     </row>
     <row r="2" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="T2" s="3"/>
@@ -4887,7 +4873,7 @@
       <c r="AB10" s="3"/>
       <c r="AX10" s="37"/>
       <c r="AY10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4902,7 +4888,7 @@
       <c r="AB11" s="3"/>
       <c r="AX11" s="26"/>
       <c r="AY11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4917,7 +4903,7 @@
       <c r="AB12" s="3"/>
       <c r="AX12" s="36"/>
       <c r="AY12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4932,10 +4918,10 @@
       <c r="AB13" s="3"/>
       <c r="AX13" s="38"/>
       <c r="AY13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BB13" s="40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4950,10 +4936,10 @@
       <c r="AB14" s="3"/>
       <c r="AX14" s="26"/>
       <c r="AY14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BB14" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4968,10 +4954,10 @@
       <c r="AB15" s="3"/>
       <c r="AX15" s="39"/>
       <c r="AY15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BB15" s="40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="19:54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4986,10 +4972,10 @@
       <c r="AB16" s="3"/>
       <c r="AX16" s="34"/>
       <c r="AY16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BB16" s="40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5047,10 +5033,10 @@
       <c r="AC20" s="23"/>
       <c r="AD20" s="23"/>
       <c r="AE20" s="3"/>
-      <c r="AK20" s="52"/>
-      <c r="AL20" s="52"/>
-      <c r="AM20" s="52"/>
-      <c r="AN20" s="52"/>
+      <c r="AK20" s="88"/>
+      <c r="AL20" s="88"/>
+      <c r="AM20" s="88"/>
+      <c r="AN20" s="88"/>
     </row>
     <row r="21" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
@@ -5542,10 +5528,10 @@
       <c r="AC31" s="23"/>
       <c r="AD31" s="23"/>
       <c r="AE31" s="3"/>
-      <c r="AK31" s="52"/>
-      <c r="AL31" s="52"/>
-      <c r="AM31" s="52"/>
-      <c r="AN31" s="52"/>
+      <c r="AK31" s="88"/>
+      <c r="AL31" s="88"/>
+      <c r="AM31" s="88"/>
+      <c r="AN31" s="88"/>
     </row>
     <row r="32" spans="2:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R32" s="3"/>
@@ -5755,538 +5741,538 @@
     <row r="51" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54"/>
-      <c r="V53" s="54"/>
-      <c r="W53" s="54"/>
-      <c r="X53" s="54"/>
-      <c r="Y53" s="54"/>
-      <c r="Z53" s="54"/>
-      <c r="AA53" s="54"/>
-      <c r="AB53" s="54"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="90"/>
+      <c r="N53" s="90"/>
+      <c r="O53" s="90"/>
+      <c r="P53" s="90"/>
+      <c r="Q53" s="90"/>
+      <c r="R53" s="90"/>
+      <c r="S53" s="90"/>
+      <c r="T53" s="90"/>
+      <c r="U53" s="90"/>
+      <c r="V53" s="90"/>
+      <c r="W53" s="90"/>
+      <c r="X53" s="90"/>
+      <c r="Y53" s="90"/>
+      <c r="Z53" s="90"/>
+      <c r="AA53" s="90"/>
+      <c r="AB53" s="90"/>
     </row>
     <row r="54" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="52" t="s">
+      <c r="D54" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52" t="s">
+      <c r="E54" s="88"/>
+      <c r="F54" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="52"/>
-      <c r="V54" s="52" t="s">
+      <c r="G54" s="88"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="88"/>
+      <c r="L54" s="88"/>
+      <c r="M54" s="88"/>
+      <c r="N54" s="88"/>
+      <c r="O54" s="88"/>
+      <c r="P54" s="88"/>
+      <c r="Q54" s="88"/>
+      <c r="R54" s="88"/>
+      <c r="S54" s="88"/>
+      <c r="T54" s="88"/>
+      <c r="U54" s="88"/>
+      <c r="V54" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="W54" s="52"/>
-      <c r="X54" s="52"/>
-      <c r="Y54" s="52"/>
-      <c r="Z54" s="52"/>
-      <c r="AA54" s="52"/>
-      <c r="AB54" s="52"/>
+      <c r="W54" s="88"/>
+      <c r="X54" s="88"/>
+      <c r="Y54" s="88"/>
+      <c r="Z54" s="88"/>
+      <c r="AA54" s="88"/>
+      <c r="AB54" s="88"/>
     </row>
     <row r="55" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="D55" s="52" t="s">
+      <c r="D55" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
-      <c r="U55" s="52"/>
-      <c r="V55" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="W55" s="52"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="52"/>
-      <c r="Z55" s="52"/>
-      <c r="AA55" s="52"/>
-      <c r="AB55" s="52"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="88"/>
+      <c r="L55" s="88"/>
+      <c r="M55" s="88"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="88"/>
+      <c r="P55" s="88"/>
+      <c r="Q55" s="88"/>
+      <c r="R55" s="88"/>
+      <c r="S55" s="88"/>
+      <c r="T55" s="88"/>
+      <c r="U55" s="88"/>
+      <c r="V55" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="W55" s="88"/>
+      <c r="X55" s="88"/>
+      <c r="Y55" s="88"/>
+      <c r="Z55" s="88"/>
+      <c r="AA55" s="88"/>
+      <c r="AB55" s="88"/>
     </row>
     <row r="56" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52" t="s">
+      <c r="E56" s="88"/>
+      <c r="F56" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56" s="88"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="88"/>
+      <c r="L56" s="88"/>
+      <c r="M56" s="88"/>
+      <c r="N56" s="88"/>
+      <c r="O56" s="88"/>
+      <c r="P56" s="88"/>
+      <c r="Q56" s="88"/>
+      <c r="R56" s="88"/>
+      <c r="S56" s="88"/>
+      <c r="T56" s="88"/>
+      <c r="U56" s="88"/>
+      <c r="V56" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="52"/>
-      <c r="S56" s="52"/>
-      <c r="T56" s="52"/>
-      <c r="U56" s="52"/>
-      <c r="V56" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="W56" s="52"/>
-      <c r="X56" s="52"/>
-      <c r="Y56" s="52"/>
-      <c r="Z56" s="52"/>
-      <c r="AA56" s="52"/>
-      <c r="AB56" s="52"/>
+      <c r="W56" s="88"/>
+      <c r="X56" s="88"/>
+      <c r="Y56" s="88"/>
+      <c r="Z56" s="88"/>
+      <c r="AA56" s="88"/>
+      <c r="AB56" s="88"/>
     </row>
     <row r="57" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57" s="52" t="s">
+      <c r="D57" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="52"/>
-      <c r="F57" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="52"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="52"/>
-      <c r="U57" s="52"/>
-      <c r="V57" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="W57" s="52"/>
-      <c r="X57" s="52"/>
-      <c r="Y57" s="52"/>
-      <c r="Z57" s="52"/>
-      <c r="AA57" s="52"/>
-      <c r="AB57" s="52"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" s="88"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="88"/>
+      <c r="M57" s="88"/>
+      <c r="N57" s="88"/>
+      <c r="O57" s="88"/>
+      <c r="P57" s="88"/>
+      <c r="Q57" s="88"/>
+      <c r="R57" s="88"/>
+      <c r="S57" s="88"/>
+      <c r="T57" s="88"/>
+      <c r="U57" s="88"/>
+      <c r="V57" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="W57" s="88"/>
+      <c r="X57" s="88"/>
+      <c r="Y57" s="88"/>
+      <c r="Z57" s="88"/>
+      <c r="AA57" s="88"/>
+      <c r="AB57" s="88"/>
     </row>
     <row r="58" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>3</v>
       </c>
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="52"/>
-      <c r="S58" s="52"/>
-      <c r="T58" s="52"/>
-      <c r="U58" s="52"/>
-      <c r="V58" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="W58" s="52"/>
-      <c r="X58" s="52"/>
-      <c r="Y58" s="52"/>
-      <c r="Z58" s="52"/>
-      <c r="AA58" s="52"/>
-      <c r="AB58" s="52"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="88"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="88"/>
+      <c r="K58" s="88"/>
+      <c r="L58" s="88"/>
+      <c r="M58" s="88"/>
+      <c r="N58" s="88"/>
+      <c r="O58" s="88"/>
+      <c r="P58" s="88"/>
+      <c r="Q58" s="88"/>
+      <c r="R58" s="88"/>
+      <c r="S58" s="88"/>
+      <c r="T58" s="88"/>
+      <c r="U58" s="88"/>
+      <c r="V58" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="W58" s="88"/>
+      <c r="X58" s="88"/>
+      <c r="Y58" s="88"/>
+      <c r="Z58" s="88"/>
+      <c r="AA58" s="88"/>
+      <c r="AB58" s="88"/>
     </row>
     <row r="59" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>4</v>
       </c>
-      <c r="D59" s="52" t="s">
+      <c r="D59" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="52"/>
-      <c r="F59" s="53" t="s">
+      <c r="E59" s="88"/>
+      <c r="F59" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="88"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
+      <c r="K59" s="88"/>
+      <c r="L59" s="88"/>
+      <c r="M59" s="88"/>
+      <c r="N59" s="88"/>
+      <c r="O59" s="88"/>
+      <c r="P59" s="88"/>
+      <c r="Q59" s="88"/>
+      <c r="R59" s="88"/>
+      <c r="S59" s="88"/>
+      <c r="T59" s="88"/>
+      <c r="U59" s="88"/>
+      <c r="V59" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="52"/>
-      <c r="U59" s="52"/>
-      <c r="V59" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="W59" s="52"/>
-      <c r="X59" s="52"/>
-      <c r="Y59" s="52"/>
-      <c r="Z59" s="52"/>
-      <c r="AA59" s="52"/>
-      <c r="AB59" s="52"/>
+      <c r="W59" s="88"/>
+      <c r="X59" s="88"/>
+      <c r="Y59" s="88"/>
+      <c r="Z59" s="88"/>
+      <c r="AA59" s="88"/>
+      <c r="AB59" s="88"/>
     </row>
     <row r="60" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>5</v>
       </c>
-      <c r="D60" s="52" t="s">
+      <c r="D60" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="52"/>
-      <c r="S60" s="52"/>
-      <c r="T60" s="52"/>
-      <c r="U60" s="52"/>
-      <c r="V60" s="52" t="s">
+      <c r="E60" s="88"/>
+      <c r="F60" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="W60" s="52"/>
-      <c r="X60" s="52"/>
-      <c r="Y60" s="52"/>
-      <c r="Z60" s="52"/>
-      <c r="AA60" s="52"/>
-      <c r="AB60" s="52"/>
+      <c r="G60" s="88"/>
+      <c r="H60" s="88"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="88"/>
+      <c r="L60" s="88"/>
+      <c r="M60" s="88"/>
+      <c r="N60" s="88"/>
+      <c r="O60" s="88"/>
+      <c r="P60" s="88"/>
+      <c r="Q60" s="88"/>
+      <c r="R60" s="88"/>
+      <c r="S60" s="88"/>
+      <c r="T60" s="88"/>
+      <c r="U60" s="88"/>
+      <c r="V60" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="W60" s="88"/>
+      <c r="X60" s="88"/>
+      <c r="Y60" s="88"/>
+      <c r="Z60" s="88"/>
+      <c r="AA60" s="88"/>
+      <c r="AB60" s="88"/>
     </row>
     <row r="61" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>6</v>
       </c>
-      <c r="D61" s="52" t="s">
+      <c r="D61" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="52"/>
-      <c r="F61" s="53" t="s">
+      <c r="E61" s="88"/>
+      <c r="F61" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="G61" s="88"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="88"/>
+      <c r="J61" s="88"/>
+      <c r="K61" s="88"/>
+      <c r="L61" s="88"/>
+      <c r="M61" s="88"/>
+      <c r="N61" s="88"/>
+      <c r="O61" s="88"/>
+      <c r="P61" s="88"/>
+      <c r="Q61" s="88"/>
+      <c r="R61" s="88"/>
+      <c r="S61" s="88"/>
+      <c r="T61" s="88"/>
+      <c r="U61" s="88"/>
+      <c r="V61" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="52"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="52"/>
-      <c r="U61" s="52"/>
-      <c r="V61" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="W61" s="52"/>
-      <c r="X61" s="52"/>
-      <c r="Y61" s="52"/>
-      <c r="Z61" s="52"/>
-      <c r="AA61" s="52"/>
-      <c r="AB61" s="52"/>
+      <c r="W61" s="88"/>
+      <c r="X61" s="88"/>
+      <c r="Y61" s="88"/>
+      <c r="Z61" s="88"/>
+      <c r="AA61" s="88"/>
+      <c r="AB61" s="88"/>
     </row>
     <row r="62" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>7</v>
       </c>
-      <c r="D62" s="52" t="s">
+      <c r="D62" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="52"/>
-      <c r="S62" s="52"/>
-      <c r="T62" s="52"/>
-      <c r="U62" s="52"/>
-      <c r="V62" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="W62" s="52"/>
-      <c r="X62" s="52"/>
-      <c r="Y62" s="52"/>
-      <c r="Z62" s="52"/>
-      <c r="AA62" s="52"/>
-      <c r="AB62" s="52"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62" s="88"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="88"/>
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
+      <c r="N62" s="88"/>
+      <c r="O62" s="88"/>
+      <c r="P62" s="88"/>
+      <c r="Q62" s="88"/>
+      <c r="R62" s="88"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="88"/>
+      <c r="U62" s="88"/>
+      <c r="V62" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="W62" s="88"/>
+      <c r="X62" s="88"/>
+      <c r="Y62" s="88"/>
+      <c r="Z62" s="88"/>
+      <c r="AA62" s="88"/>
+      <c r="AB62" s="88"/>
     </row>
     <row r="63" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>8</v>
       </c>
-      <c r="D63" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="52"/>
-      <c r="S63" s="52"/>
-      <c r="T63" s="52"/>
-      <c r="U63" s="52"/>
-      <c r="V63" s="52" t="s">
+      <c r="D63" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="88"/>
+      <c r="F63" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="W63" s="52"/>
-      <c r="X63" s="52"/>
-      <c r="Y63" s="52"/>
-      <c r="Z63" s="52"/>
-      <c r="AA63" s="52"/>
-      <c r="AB63" s="52"/>
+      <c r="G63" s="88"/>
+      <c r="H63" s="88"/>
+      <c r="I63" s="88"/>
+      <c r="J63" s="88"/>
+      <c r="K63" s="88"/>
+      <c r="L63" s="88"/>
+      <c r="M63" s="88"/>
+      <c r="N63" s="88"/>
+      <c r="O63" s="88"/>
+      <c r="P63" s="88"/>
+      <c r="Q63" s="88"/>
+      <c r="R63" s="88"/>
+      <c r="S63" s="88"/>
+      <c r="T63" s="88"/>
+      <c r="U63" s="88"/>
+      <c r="V63" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="W63" s="88"/>
+      <c r="X63" s="88"/>
+      <c r="Y63" s="88"/>
+      <c r="Z63" s="88"/>
+      <c r="AA63" s="88"/>
+      <c r="AB63" s="88"/>
     </row>
     <row r="64" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>9</v>
       </c>
-      <c r="D64" s="52" t="s">
+      <c r="D64" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="52"/>
-      <c r="F64" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="52"/>
-      <c r="S64" s="52"/>
-      <c r="T64" s="52"/>
-      <c r="U64" s="52"/>
-      <c r="V64" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="W64" s="52"/>
-      <c r="X64" s="52"/>
-      <c r="Y64" s="52"/>
-      <c r="Z64" s="52"/>
-      <c r="AA64" s="52"/>
-      <c r="AB64" s="52"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="G64" s="88"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="88"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="88"/>
+      <c r="L64" s="88"/>
+      <c r="M64" s="88"/>
+      <c r="N64" s="88"/>
+      <c r="O64" s="88"/>
+      <c r="P64" s="88"/>
+      <c r="Q64" s="88"/>
+      <c r="R64" s="88"/>
+      <c r="S64" s="88"/>
+      <c r="T64" s="88"/>
+      <c r="U64" s="88"/>
+      <c r="V64" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="W64" s="88"/>
+      <c r="X64" s="88"/>
+      <c r="Y64" s="88"/>
+      <c r="Z64" s="88"/>
+      <c r="AA64" s="88"/>
+      <c r="AB64" s="88"/>
     </row>
     <row r="65" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65">
         <v>10</v>
       </c>
-      <c r="D65" s="52" t="s">
+      <c r="D65" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="52"/>
-      <c r="F65" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="52"/>
-      <c r="S65" s="52"/>
-      <c r="T65" s="52"/>
-      <c r="U65" s="52"/>
-      <c r="V65" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="W65" s="52"/>
-      <c r="X65" s="52"/>
-      <c r="Y65" s="52"/>
-      <c r="Z65" s="52"/>
-      <c r="AA65" s="52"/>
-      <c r="AB65" s="52"/>
+      <c r="E65" s="88"/>
+      <c r="F65" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="G65" s="88"/>
+      <c r="H65" s="88"/>
+      <c r="I65" s="88"/>
+      <c r="J65" s="88"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="88"/>
+      <c r="M65" s="88"/>
+      <c r="N65" s="88"/>
+      <c r="O65" s="88"/>
+      <c r="P65" s="88"/>
+      <c r="Q65" s="88"/>
+      <c r="R65" s="88"/>
+      <c r="S65" s="88"/>
+      <c r="T65" s="88"/>
+      <c r="U65" s="88"/>
+      <c r="V65" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="W65" s="88"/>
+      <c r="X65" s="88"/>
+      <c r="Y65" s="88"/>
+      <c r="Z65" s="88"/>
+      <c r="AA65" s="88"/>
+      <c r="AB65" s="88"/>
     </row>
     <row r="66" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>11</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="D66" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="52"/>
-      <c r="F66" s="53" t="s">
+      <c r="E66" s="88"/>
+      <c r="F66" s="89" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" s="88"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="88"/>
+      <c r="K66" s="88"/>
+      <c r="L66" s="88"/>
+      <c r="M66" s="88"/>
+      <c r="N66" s="88"/>
+      <c r="O66" s="88"/>
+      <c r="P66" s="88"/>
+      <c r="Q66" s="88"/>
+      <c r="R66" s="88"/>
+      <c r="S66" s="88"/>
+      <c r="T66" s="88"/>
+      <c r="U66" s="88"/>
+      <c r="V66" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
-      <c r="N66" s="52"/>
-      <c r="O66" s="52"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="52"/>
-      <c r="S66" s="52"/>
-      <c r="T66" s="52"/>
-      <c r="U66" s="52"/>
-      <c r="V66" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="W66" s="52"/>
-      <c r="X66" s="52"/>
-      <c r="Y66" s="52"/>
-      <c r="Z66" s="52"/>
-      <c r="AA66" s="52"/>
-      <c r="AB66" s="52"/>
+      <c r="W66" s="88"/>
+      <c r="X66" s="88"/>
+      <c r="Y66" s="88"/>
+      <c r="Z66" s="88"/>
+      <c r="AA66" s="88"/>
+      <c r="AB66" s="88"/>
     </row>
     <row r="67" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>12</v>
       </c>
-      <c r="D67" s="52" t="s">
+      <c r="D67" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52" t="s">
+      <c r="E67" s="88"/>
+      <c r="F67" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" s="88"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="88"/>
+      <c r="K67" s="88"/>
+      <c r="L67" s="88"/>
+      <c r="M67" s="88"/>
+      <c r="N67" s="88"/>
+      <c r="O67" s="88"/>
+      <c r="P67" s="88"/>
+      <c r="Q67" s="88"/>
+      <c r="R67" s="88"/>
+      <c r="S67" s="88"/>
+      <c r="T67" s="88"/>
+      <c r="U67" s="88"/>
+      <c r="V67" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="52"/>
-      <c r="S67" s="52"/>
-      <c r="T67" s="52"/>
-      <c r="U67" s="52"/>
-      <c r="V67" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="W67" s="52"/>
-      <c r="X67" s="52"/>
-      <c r="Y67" s="52"/>
-      <c r="Z67" s="52"/>
-      <c r="AA67" s="52"/>
-      <c r="AB67" s="52"/>
+      <c r="W67" s="88"/>
+      <c r="X67" s="88"/>
+      <c r="Y67" s="88"/>
+      <c r="Z67" s="88"/>
+      <c r="AA67" s="88"/>
+      <c r="AB67" s="88"/>
     </row>
     <row r="68" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6342,19 +6328,26 @@
     <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AK20:AN20"/>
-    <mergeCell ref="AK31:AN31"/>
-    <mergeCell ref="AU24:AU27"/>
-    <mergeCell ref="C53:AB53"/>
-    <mergeCell ref="V55:AB55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:U55"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:U54"/>
-    <mergeCell ref="V54:AB54"/>
+    <mergeCell ref="V67:AB67"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:U64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:U65"/>
+    <mergeCell ref="V64:AB64"/>
+    <mergeCell ref="V65:AB65"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:U63"/>
+    <mergeCell ref="V62:AB62"/>
+    <mergeCell ref="V63:AB63"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:U66"/>
+    <mergeCell ref="V66:AB66"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:U61"/>
+    <mergeCell ref="V60:AB60"/>
+    <mergeCell ref="V61:AB61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:U62"/>
     <mergeCell ref="V58:AB58"/>
     <mergeCell ref="V59:AB59"/>
     <mergeCell ref="D56:E56"/>
@@ -6371,26 +6364,19 @@
     <mergeCell ref="F59:U59"/>
     <mergeCell ref="F58:U58"/>
     <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:U61"/>
-    <mergeCell ref="V60:AB60"/>
-    <mergeCell ref="V61:AB61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:U62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:U63"/>
-    <mergeCell ref="V62:AB62"/>
-    <mergeCell ref="V63:AB63"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:U66"/>
-    <mergeCell ref="V66:AB66"/>
-    <mergeCell ref="V67:AB67"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:U64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:U65"/>
-    <mergeCell ref="V64:AB64"/>
-    <mergeCell ref="V65:AB65"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:U54"/>
+    <mergeCell ref="V54:AB54"/>
+    <mergeCell ref="AK20:AN20"/>
+    <mergeCell ref="AK31:AN31"/>
+    <mergeCell ref="AU24:AU27"/>
+    <mergeCell ref="C53:AB53"/>
+    <mergeCell ref="V55:AB55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:U55"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6402,8 +6388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:CW77"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52:AG52"/>
+    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64:AG64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6454,7 +6440,7 @@
       <c r="AQ4" s="26"/>
       <c r="AU4" s="26"/>
       <c r="AV4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6500,7 +6486,7 @@
       <c r="AQ5" s="26"/>
       <c r="AU5" s="23"/>
       <c r="AV5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6546,7 +6532,7 @@
       <c r="AQ6" s="26"/>
       <c r="AU6" s="41"/>
       <c r="AV6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6554,7 +6540,7 @@
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
       <c r="G7" s="120" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" s="120"/>
       <c r="I7" s="120"/>
@@ -6583,7 +6569,7 @@
       <c r="AF7" s="26"/>
       <c r="AG7" s="26"/>
       <c r="AH7" s="121" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI7" s="121"/>
       <c r="AJ7" s="121"/>
@@ -6596,7 +6582,7 @@
       <c r="AQ7" s="26"/>
       <c r="AU7" s="15"/>
       <c r="AV7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6642,7 +6628,7 @@
       <c r="AQ8" s="26"/>
       <c r="AU8" s="8"/>
       <c r="AV8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6688,7 +6674,7 @@
       <c r="AQ9" s="26"/>
       <c r="AU9" s="51"/>
       <c r="AV9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6816,38 +6802,38 @@
       <c r="AO12" s="26"/>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26"/>
-      <c r="AU12" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV12" s="52"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="52"/>
-      <c r="BA12" s="52"/>
-      <c r="BB12" s="52"/>
-      <c r="BC12" s="52"/>
-      <c r="BD12" s="52"/>
-      <c r="BE12" s="52"/>
-      <c r="BF12" s="52"/>
-      <c r="BG12" s="52"/>
-      <c r="BH12" s="52"/>
-      <c r="BJ12" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="BK12" s="52"/>
-      <c r="BL12" s="52"/>
-      <c r="BM12" s="52"/>
-      <c r="BN12" s="52"/>
-      <c r="BO12" s="52"/>
-      <c r="BP12" s="52"/>
-      <c r="BQ12" s="52"/>
-      <c r="BR12" s="52"/>
-      <c r="BS12" s="52"/>
-      <c r="BT12" s="52"/>
-      <c r="BU12" s="52"/>
-      <c r="BV12" s="52"/>
-      <c r="BW12" s="52"/>
+      <c r="AU12" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV12" s="88"/>
+      <c r="AW12" s="88"/>
+      <c r="AX12" s="88"/>
+      <c r="AY12" s="88"/>
+      <c r="AZ12" s="88"/>
+      <c r="BA12" s="88"/>
+      <c r="BB12" s="88"/>
+      <c r="BC12" s="88"/>
+      <c r="BD12" s="88"/>
+      <c r="BE12" s="88"/>
+      <c r="BF12" s="88"/>
+      <c r="BG12" s="88"/>
+      <c r="BH12" s="88"/>
+      <c r="BJ12" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK12" s="88"/>
+      <c r="BL12" s="88"/>
+      <c r="BM12" s="88"/>
+      <c r="BN12" s="88"/>
+      <c r="BO12" s="88"/>
+      <c r="BP12" s="88"/>
+      <c r="BQ12" s="88"/>
+      <c r="BR12" s="88"/>
+      <c r="BS12" s="88"/>
+      <c r="BT12" s="88"/>
+      <c r="BU12" s="88"/>
+      <c r="BV12" s="88"/>
+      <c r="BW12" s="88"/>
     </row>
     <row r="13" spans="4:75" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="26"/>
@@ -6978,7 +6964,7 @@
       <c r="BK14" s="23"/>
       <c r="BL14" s="23"/>
       <c r="BM14" s="95" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BN14" s="96"/>
       <c r="BO14" s="96"/>
@@ -7078,7 +7064,7 @@
       <c r="Q16" s="26"/>
       <c r="R16" s="26"/>
       <c r="S16" s="124" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T16" s="124"/>
       <c r="U16" s="124"/>
@@ -7250,7 +7236,7 @@
       <c r="AX18" s="23"/>
       <c r="AY18" s="23"/>
       <c r="AZ18" s="125" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BA18" s="126"/>
       <c r="BB18" s="126"/>
@@ -7414,22 +7400,22 @@
       <c r="BU20" s="23"/>
       <c r="BV20" s="23"/>
       <c r="BW20" s="23"/>
-      <c r="BY20" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="BZ20" s="52"/>
-      <c r="CA20" s="52"/>
-      <c r="CB20" s="52"/>
-      <c r="CC20" s="52"/>
-      <c r="CD20" s="52"/>
-      <c r="CE20" s="52"/>
-      <c r="CF20" s="52"/>
-      <c r="CG20" s="52"/>
-      <c r="CH20" s="52"/>
-      <c r="CI20" s="52"/>
-      <c r="CJ20" s="52"/>
-      <c r="CK20" s="52"/>
-      <c r="CL20" s="52"/>
+      <c r="BY20" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ20" s="88"/>
+      <c r="CA20" s="88"/>
+      <c r="CB20" s="88"/>
+      <c r="CC20" s="88"/>
+      <c r="CD20" s="88"/>
+      <c r="CE20" s="88"/>
+      <c r="CF20" s="88"/>
+      <c r="CG20" s="88"/>
+      <c r="CH20" s="88"/>
+      <c r="CI20" s="88"/>
+      <c r="CJ20" s="88"/>
+      <c r="CK20" s="88"/>
+      <c r="CL20" s="88"/>
     </row>
     <row r="21" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="26"/>
@@ -7598,18 +7584,18 @@
       <c r="CJ22" s="23"/>
       <c r="CK22" s="23"/>
       <c r="CL22" s="26"/>
-      <c r="CN22" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="CO22" s="52"/>
-      <c r="CP22" s="52"/>
-      <c r="CQ22" s="52"/>
-      <c r="CR22" s="52"/>
-      <c r="CS22" s="52"/>
-      <c r="CT22" s="52"/>
-      <c r="CU22" s="52"/>
-      <c r="CV22" s="52"/>
-      <c r="CW22" s="52"/>
+      <c r="CN22" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="CO22" s="88"/>
+      <c r="CP22" s="88"/>
+      <c r="CQ22" s="88"/>
+      <c r="CR22" s="88"/>
+      <c r="CS22" s="88"/>
+      <c r="CT22" s="88"/>
+      <c r="CU22" s="88"/>
+      <c r="CV22" s="88"/>
+      <c r="CW22" s="88"/>
     </row>
     <row r="23" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="26"/>
@@ -7686,14 +7672,14 @@
       <c r="CB23" s="44"/>
       <c r="CC23" s="44"/>
       <c r="CD23" s="117" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="CE23" s="118"/>
       <c r="CF23" s="118"/>
       <c r="CG23" s="119"/>
       <c r="CH23" s="44"/>
       <c r="CI23" s="113" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="CJ23" s="114"/>
       <c r="CK23" s="23"/>
@@ -7758,7 +7744,7 @@
       <c r="BK24" s="23"/>
       <c r="BL24" s="23"/>
       <c r="BM24" s="95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BN24" s="96"/>
       <c r="BO24" s="96"/>
@@ -7958,7 +7944,7 @@
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="123" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H27" s="123"/>
       <c r="I27" s="123"/>
@@ -7987,14 +7973,14 @@
       <c r="AF27" s="26"/>
       <c r="AG27" s="26"/>
       <c r="AH27" s="122" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI27" s="55"/>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="55"/>
-      <c r="AL27" s="55"/>
-      <c r="AM27" s="55"/>
-      <c r="AN27" s="55"/>
+        <v>88</v>
+      </c>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="52"/>
+      <c r="AL27" s="52"/>
+      <c r="AM27" s="52"/>
+      <c r="AN27" s="52"/>
       <c r="AO27" s="26"/>
       <c r="AP27" s="26"/>
       <c r="AQ27" s="26"/>
@@ -8044,48 +8030,48 @@
       <c r="AE28" s="26"/>
       <c r="AF28" s="26"/>
       <c r="AG28" s="26"/>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="55"/>
-      <c r="AJ28" s="55"/>
-      <c r="AK28" s="55"/>
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="55"/>
-      <c r="AN28" s="55"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="52"/>
+      <c r="AL28" s="52"/>
+      <c r="AM28" s="52"/>
+      <c r="AN28" s="52"/>
       <c r="AO28" s="26"/>
       <c r="AP28" s="26"/>
       <c r="AQ28" s="26"/>
-      <c r="AU28" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV28" s="52"/>
-      <c r="AW28" s="52"/>
-      <c r="AX28" s="52"/>
-      <c r="AY28" s="52"/>
-      <c r="AZ28" s="52"/>
-      <c r="BA28" s="52"/>
-      <c r="BB28" s="52"/>
-      <c r="BC28" s="52"/>
-      <c r="BD28" s="52"/>
-      <c r="BE28" s="52"/>
-      <c r="BF28" s="52"/>
-      <c r="BG28" s="52"/>
-      <c r="BH28" s="52"/>
-      <c r="BJ28" s="52" t="s">
+      <c r="AU28" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="BK28" s="52"/>
-      <c r="BL28" s="52"/>
-      <c r="BM28" s="52"/>
-      <c r="BN28" s="52"/>
-      <c r="BO28" s="52"/>
-      <c r="BP28" s="52"/>
-      <c r="BQ28" s="52"/>
-      <c r="BR28" s="52"/>
-      <c r="BS28" s="52"/>
-      <c r="BT28" s="52"/>
-      <c r="BU28" s="52"/>
-      <c r="BV28" s="52"/>
-      <c r="BW28" s="52"/>
+      <c r="AV28" s="88"/>
+      <c r="AW28" s="88"/>
+      <c r="AX28" s="88"/>
+      <c r="AY28" s="88"/>
+      <c r="AZ28" s="88"/>
+      <c r="BA28" s="88"/>
+      <c r="BB28" s="88"/>
+      <c r="BC28" s="88"/>
+      <c r="BD28" s="88"/>
+      <c r="BE28" s="88"/>
+      <c r="BF28" s="88"/>
+      <c r="BG28" s="88"/>
+      <c r="BH28" s="88"/>
+      <c r="BJ28" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK28" s="88"/>
+      <c r="BL28" s="88"/>
+      <c r="BM28" s="88"/>
+      <c r="BN28" s="88"/>
+      <c r="BO28" s="88"/>
+      <c r="BP28" s="88"/>
+      <c r="BQ28" s="88"/>
+      <c r="BR28" s="88"/>
+      <c r="BS28" s="88"/>
+      <c r="BT28" s="88"/>
+      <c r="BU28" s="88"/>
+      <c r="BV28" s="88"/>
+      <c r="BW28" s="88"/>
       <c r="BY28" s="23"/>
       <c r="BZ28" s="23"/>
       <c r="CA28" s="45"/>
@@ -8132,13 +8118,13 @@
       <c r="AE29" s="23"/>
       <c r="AF29" s="23"/>
       <c r="AG29" s="23"/>
-      <c r="AH29" s="55"/>
-      <c r="AI29" s="55"/>
-      <c r="AJ29" s="55"/>
-      <c r="AK29" s="55"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="55"/>
-      <c r="AN29" s="55"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="52"/>
+      <c r="AL29" s="52"/>
+      <c r="AM29" s="52"/>
+      <c r="AN29" s="52"/>
       <c r="AO29" s="26"/>
       <c r="AP29" s="26"/>
       <c r="AQ29" s="26"/>
@@ -8216,13 +8202,13 @@
       <c r="AE30" s="23"/>
       <c r="AF30" s="23"/>
       <c r="AG30" s="23"/>
-      <c r="AH30" s="55"/>
-      <c r="AI30" s="55"/>
-      <c r="AJ30" s="55"/>
-      <c r="AK30" s="55"/>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="55"/>
-      <c r="AN30" s="55"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="52"/>
+      <c r="AL30" s="52"/>
+      <c r="AM30" s="52"/>
+      <c r="AN30" s="52"/>
       <c r="AO30" s="26"/>
       <c r="AP30" s="26"/>
       <c r="AQ30" s="26"/>
@@ -8246,7 +8232,7 @@
       <c r="BM30" s="23"/>
       <c r="BN30" s="23"/>
       <c r="BO30" s="110" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BP30" s="111"/>
       <c r="BQ30" s="111"/>
@@ -8271,7 +8257,7 @@
       <c r="CK30" s="23"/>
       <c r="CL30" s="26"/>
       <c r="CQ30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="4:101" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -8305,13 +8291,13 @@
       <c r="AE31" s="23"/>
       <c r="AF31" s="23"/>
       <c r="AG31" s="23"/>
-      <c r="AH31" s="55"/>
-      <c r="AI31" s="55"/>
-      <c r="AJ31" s="55"/>
-      <c r="AK31" s="55"/>
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="55"/>
-      <c r="AN31" s="55"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="52"/>
+      <c r="AL31" s="52"/>
+      <c r="AM31" s="52"/>
+      <c r="AN31" s="52"/>
       <c r="AO31" s="26"/>
       <c r="AP31" s="26"/>
       <c r="AQ31" s="26"/>
@@ -8389,13 +8375,13 @@
       <c r="AE32" s="26"/>
       <c r="AF32" s="26"/>
       <c r="AG32" s="26"/>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="55"/>
-      <c r="AJ32" s="55"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="55"/>
-      <c r="AN32" s="55"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="52"/>
+      <c r="AM32" s="52"/>
+      <c r="AN32" s="52"/>
       <c r="AO32" s="26"/>
       <c r="AP32" s="26"/>
       <c r="AQ32" s="26"/>
@@ -8403,7 +8389,7 @@
       <c r="AV32" s="23"/>
       <c r="AW32" s="23"/>
       <c r="AX32" s="101" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AY32" s="102"/>
       <c r="AZ32" s="102"/>
@@ -8475,13 +8461,13 @@
       <c r="AE33" s="26"/>
       <c r="AF33" s="26"/>
       <c r="AG33" s="26"/>
-      <c r="AH33" s="55"/>
-      <c r="AI33" s="55"/>
-      <c r="AJ33" s="55"/>
-      <c r="AK33" s="55"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="55"/>
-      <c r="AN33" s="55"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52"/>
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="52"/>
+      <c r="AN33" s="52"/>
       <c r="AO33" s="26"/>
       <c r="AP33" s="26"/>
       <c r="AQ33" s="26"/>
@@ -8783,45 +8769,45 @@
       <c r="BW37" s="23"/>
     </row>
     <row r="38" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54"/>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="54"/>
-      <c r="AD38" s="54"/>
-      <c r="AE38" s="54"/>
-      <c r="AF38" s="54"/>
-      <c r="AG38" s="54"/>
-      <c r="AH38" s="54"/>
-      <c r="AI38" s="54"/>
-      <c r="AJ38" s="54"/>
-      <c r="AK38" s="54"/>
-      <c r="AL38" s="54"/>
-      <c r="AM38" s="54"/>
-      <c r="AN38" s="54"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="90"/>
+      <c r="U38" s="90"/>
+      <c r="V38" s="90"/>
+      <c r="W38" s="90"/>
+      <c r="X38" s="90"/>
+      <c r="Y38" s="90"/>
+      <c r="Z38" s="90"/>
+      <c r="AA38" s="90"/>
+      <c r="AB38" s="90"/>
+      <c r="AC38" s="90"/>
+      <c r="AD38" s="90"/>
+      <c r="AE38" s="90"/>
+      <c r="AF38" s="90"/>
+      <c r="AG38" s="90"/>
+      <c r="AH38" s="90"/>
+      <c r="AI38" s="90"/>
+      <c r="AJ38" s="90"/>
+      <c r="AK38" s="90"/>
+      <c r="AL38" s="90"/>
+      <c r="AM38" s="90"/>
+      <c r="AN38" s="90"/>
       <c r="AU38" s="26"/>
       <c r="AV38" s="23"/>
       <c r="AW38" s="23"/>
@@ -8853,50 +8839,50 @@
     </row>
     <row r="39" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52" t="s">
+      <c r="F39" s="88"/>
+      <c r="G39" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52"/>
-      <c r="AH39" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI39" s="52"/>
-      <c r="AJ39" s="52"/>
-      <c r="AK39" s="52"/>
-      <c r="AL39" s="52"/>
-      <c r="AM39" s="52"/>
-      <c r="AN39" s="52"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88"/>
+      <c r="V39" s="88"/>
+      <c r="W39" s="88"/>
+      <c r="X39" s="88"/>
+      <c r="Y39" s="88"/>
+      <c r="Z39" s="88"/>
+      <c r="AA39" s="88"/>
+      <c r="AB39" s="88"/>
+      <c r="AC39" s="88"/>
+      <c r="AD39" s="88"/>
+      <c r="AE39" s="88"/>
+      <c r="AF39" s="88"/>
+      <c r="AG39" s="88"/>
+      <c r="AH39" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI39" s="88"/>
+      <c r="AJ39" s="88"/>
+      <c r="AK39" s="88"/>
+      <c r="AL39" s="88"/>
+      <c r="AM39" s="88"/>
+      <c r="AN39" s="88"/>
       <c r="AO39" s="31"/>
       <c r="AP39" s="31"/>
       <c r="AQ39" s="31"/>
@@ -8933,48 +8919,48 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="52"/>
-      <c r="AA40" s="52"/>
-      <c r="AB40" s="52"/>
-      <c r="AC40" s="52"/>
-      <c r="AD40" s="52"/>
-      <c r="AE40" s="52"/>
-      <c r="AF40" s="52"/>
-      <c r="AG40" s="52"/>
-      <c r="AH40" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI40" s="52"/>
-      <c r="AJ40" s="52"/>
-      <c r="AK40" s="52"/>
-      <c r="AL40" s="52"/>
-      <c r="AM40" s="52"/>
-      <c r="AN40" s="52"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="88"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88"/>
+      <c r="V40" s="88"/>
+      <c r="W40" s="88"/>
+      <c r="X40" s="88"/>
+      <c r="Y40" s="88"/>
+      <c r="Z40" s="88"/>
+      <c r="AA40" s="88"/>
+      <c r="AB40" s="88"/>
+      <c r="AC40" s="88"/>
+      <c r="AD40" s="88"/>
+      <c r="AE40" s="88"/>
+      <c r="AF40" s="88"/>
+      <c r="AG40" s="88"/>
+      <c r="AH40" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI40" s="88"/>
+      <c r="AJ40" s="88"/>
+      <c r="AK40" s="88"/>
+      <c r="AL40" s="88"/>
+      <c r="AM40" s="88"/>
+      <c r="AN40" s="88"/>
       <c r="AU40" s="26"/>
       <c r="AV40" s="23"/>
       <c r="AW40" s="23"/>
@@ -9008,48 +8994,48 @@
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="E41" s="52" t="s">
+      <c r="E41" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="52"/>
-      <c r="AC41" s="52"/>
-      <c r="AD41" s="52"/>
-      <c r="AE41" s="52"/>
-      <c r="AF41" s="52"/>
-      <c r="AG41" s="52"/>
-      <c r="AH41" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI41" s="52"/>
-      <c r="AJ41" s="52"/>
-      <c r="AK41" s="52"/>
-      <c r="AL41" s="52"/>
-      <c r="AM41" s="52"/>
-      <c r="AN41" s="52"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="88"/>
+      <c r="U41" s="88"/>
+      <c r="V41" s="88"/>
+      <c r="W41" s="88"/>
+      <c r="X41" s="88"/>
+      <c r="Y41" s="88"/>
+      <c r="Z41" s="88"/>
+      <c r="AA41" s="88"/>
+      <c r="AB41" s="88"/>
+      <c r="AC41" s="88"/>
+      <c r="AD41" s="88"/>
+      <c r="AE41" s="88"/>
+      <c r="AF41" s="88"/>
+      <c r="AG41" s="88"/>
+      <c r="AH41" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI41" s="88"/>
+      <c r="AJ41" s="88"/>
+      <c r="AK41" s="88"/>
+      <c r="AL41" s="88"/>
+      <c r="AM41" s="88"/>
+      <c r="AN41" s="88"/>
       <c r="AU41" s="26"/>
       <c r="AV41" s="23"/>
       <c r="AW41" s="23"/>
@@ -9083,48 +9069,48 @@
       <c r="D42">
         <v>3</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52"/>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="52"/>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="52"/>
-      <c r="AB42" s="52"/>
-      <c r="AC42" s="52"/>
-      <c r="AD42" s="52"/>
-      <c r="AE42" s="52"/>
-      <c r="AF42" s="52"/>
-      <c r="AG42" s="52"/>
-      <c r="AH42" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="AI42" s="52"/>
-      <c r="AJ42" s="52"/>
-      <c r="AK42" s="52"/>
-      <c r="AL42" s="52"/>
-      <c r="AM42" s="52"/>
-      <c r="AN42" s="52"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="88"/>
+      <c r="Q42" s="88"/>
+      <c r="R42" s="88"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="88"/>
+      <c r="U42" s="88"/>
+      <c r="V42" s="88"/>
+      <c r="W42" s="88"/>
+      <c r="X42" s="88"/>
+      <c r="Y42" s="88"/>
+      <c r="Z42" s="88"/>
+      <c r="AA42" s="88"/>
+      <c r="AB42" s="88"/>
+      <c r="AC42" s="88"/>
+      <c r="AD42" s="88"/>
+      <c r="AE42" s="88"/>
+      <c r="AF42" s="88"/>
+      <c r="AG42" s="88"/>
+      <c r="AH42" s="88" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI42" s="88"/>
+      <c r="AJ42" s="88"/>
+      <c r="AK42" s="88"/>
+      <c r="AL42" s="88"/>
+      <c r="AM42" s="88"/>
+      <c r="AN42" s="88"/>
       <c r="AU42" s="26"/>
       <c r="AV42" s="26"/>
       <c r="AW42" s="26"/>
@@ -9158,1670 +9144,1740 @@
       <c r="D43">
         <v>4</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="52"/>
-      <c r="T43" s="52"/>
-      <c r="U43" s="52"/>
-      <c r="V43" s="52"/>
-      <c r="W43" s="52"/>
-      <c r="X43" s="52"/>
-      <c r="Y43" s="52"/>
-      <c r="Z43" s="52"/>
-      <c r="AA43" s="52"/>
-      <c r="AB43" s="52"/>
-      <c r="AC43" s="52"/>
-      <c r="AD43" s="52"/>
-      <c r="AE43" s="52"/>
-      <c r="AF43" s="52"/>
-      <c r="AG43" s="52"/>
-      <c r="AH43" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI43" s="52"/>
-      <c r="AJ43" s="52"/>
-      <c r="AK43" s="52"/>
-      <c r="AL43" s="52"/>
-      <c r="AM43" s="52"/>
-      <c r="AN43" s="52"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="88"/>
+      <c r="Q43" s="88"/>
+      <c r="R43" s="88"/>
+      <c r="S43" s="88"/>
+      <c r="T43" s="88"/>
+      <c r="U43" s="88"/>
+      <c r="V43" s="88"/>
+      <c r="W43" s="88"/>
+      <c r="X43" s="88"/>
+      <c r="Y43" s="88"/>
+      <c r="Z43" s="88"/>
+      <c r="AA43" s="88"/>
+      <c r="AB43" s="88"/>
+      <c r="AC43" s="88"/>
+      <c r="AD43" s="88"/>
+      <c r="AE43" s="88"/>
+      <c r="AF43" s="88"/>
+      <c r="AG43" s="88"/>
+      <c r="AH43" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI43" s="88"/>
+      <c r="AJ43" s="88"/>
+      <c r="AK43" s="88"/>
+      <c r="AL43" s="88"/>
+      <c r="AM43" s="88"/>
+      <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D44">
         <v>5</v>
       </c>
-      <c r="E44" s="52" t="s">
+      <c r="E44" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="52"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="52"/>
-      <c r="V44" s="52"/>
-      <c r="W44" s="52"/>
-      <c r="X44" s="52"/>
-      <c r="Y44" s="52"/>
-      <c r="Z44" s="52"/>
-      <c r="AA44" s="52"/>
-      <c r="AB44" s="52"/>
-      <c r="AC44" s="52"/>
-      <c r="AD44" s="52"/>
-      <c r="AE44" s="52"/>
-      <c r="AF44" s="52"/>
-      <c r="AG44" s="52"/>
-      <c r="AH44" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI44" s="52"/>
-      <c r="AJ44" s="52"/>
-      <c r="AK44" s="52"/>
-      <c r="AL44" s="52"/>
-      <c r="AM44" s="52"/>
-      <c r="AN44" s="52"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="88"/>
+      <c r="N44" s="88"/>
+      <c r="O44" s="88"/>
+      <c r="P44" s="88"/>
+      <c r="Q44" s="88"/>
+      <c r="R44" s="88"/>
+      <c r="S44" s="88"/>
+      <c r="T44" s="88"/>
+      <c r="U44" s="88"/>
+      <c r="V44" s="88"/>
+      <c r="W44" s="88"/>
+      <c r="X44" s="88"/>
+      <c r="Y44" s="88"/>
+      <c r="Z44" s="88"/>
+      <c r="AA44" s="88"/>
+      <c r="AB44" s="88"/>
+      <c r="AC44" s="88"/>
+      <c r="AD44" s="88"/>
+      <c r="AE44" s="88"/>
+      <c r="AF44" s="88"/>
+      <c r="AG44" s="88"/>
+      <c r="AH44" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI44" s="88"/>
+      <c r="AJ44" s="88"/>
+      <c r="AK44" s="88"/>
+      <c r="AL44" s="88"/>
+      <c r="AM44" s="88"/>
+      <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45">
         <v>6</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="52"/>
-      <c r="T45" s="52"/>
-      <c r="U45" s="52"/>
-      <c r="V45" s="52"/>
-      <c r="W45" s="52"/>
-      <c r="X45" s="52"/>
-      <c r="Y45" s="52"/>
-      <c r="Z45" s="52"/>
-      <c r="AA45" s="52"/>
-      <c r="AB45" s="52"/>
-      <c r="AC45" s="52"/>
-      <c r="AD45" s="52"/>
-      <c r="AE45" s="52"/>
-      <c r="AF45" s="52"/>
-      <c r="AG45" s="52"/>
-      <c r="AH45" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI45" s="52"/>
-      <c r="AJ45" s="52"/>
-      <c r="AK45" s="52"/>
-      <c r="AL45" s="52"/>
-      <c r="AM45" s="52"/>
-      <c r="AN45" s="52"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="88"/>
+      <c r="P45" s="88"/>
+      <c r="Q45" s="88"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="88"/>
+      <c r="U45" s="88"/>
+      <c r="V45" s="88"/>
+      <c r="W45" s="88"/>
+      <c r="X45" s="88"/>
+      <c r="Y45" s="88"/>
+      <c r="Z45" s="88"/>
+      <c r="AA45" s="88"/>
+      <c r="AB45" s="88"/>
+      <c r="AC45" s="88"/>
+      <c r="AD45" s="88"/>
+      <c r="AE45" s="88"/>
+      <c r="AF45" s="88"/>
+      <c r="AG45" s="88"/>
+      <c r="AH45" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI45" s="88"/>
+      <c r="AJ45" s="88"/>
+      <c r="AK45" s="88"/>
+      <c r="AL45" s="88"/>
+      <c r="AM45" s="88"/>
+      <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46">
         <v>7</v>
       </c>
-      <c r="E46" s="52" t="s">
+      <c r="E46" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53" t="s">
+      <c r="F46" s="88"/>
+      <c r="G46" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="88"/>
+      <c r="N46" s="88"/>
+      <c r="O46" s="88"/>
+      <c r="P46" s="88"/>
+      <c r="Q46" s="88"/>
+      <c r="R46" s="88"/>
+      <c r="S46" s="88"/>
+      <c r="T46" s="88"/>
+      <c r="U46" s="88"/>
+      <c r="V46" s="88"/>
+      <c r="W46" s="88"/>
+      <c r="X46" s="88"/>
+      <c r="Y46" s="88"/>
+      <c r="Z46" s="88"/>
+      <c r="AA46" s="88"/>
+      <c r="AB46" s="88"/>
+      <c r="AC46" s="88"/>
+      <c r="AD46" s="88"/>
+      <c r="AE46" s="88"/>
+      <c r="AF46" s="88"/>
+      <c r="AG46" s="88"/>
+      <c r="AH46" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="52"/>
-      <c r="U46" s="52"/>
-      <c r="V46" s="52"/>
-      <c r="W46" s="52"/>
-      <c r="X46" s="52"/>
-      <c r="Y46" s="52"/>
-      <c r="Z46" s="52"/>
-      <c r="AA46" s="52"/>
-      <c r="AB46" s="52"/>
-      <c r="AC46" s="52"/>
-      <c r="AD46" s="52"/>
-      <c r="AE46" s="52"/>
-      <c r="AF46" s="52"/>
-      <c r="AG46" s="52"/>
-      <c r="AH46" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI46" s="52"/>
-      <c r="AJ46" s="52"/>
-      <c r="AK46" s="52"/>
-      <c r="AL46" s="52"/>
-      <c r="AM46" s="52"/>
-      <c r="AN46" s="52"/>
+      <c r="AI46" s="88"/>
+      <c r="AJ46" s="88"/>
+      <c r="AK46" s="88"/>
+      <c r="AL46" s="88"/>
+      <c r="AM46" s="88"/>
+      <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47">
         <v>8</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="E47" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="52"/>
-      <c r="U47" s="52"/>
-      <c r="V47" s="52"/>
-      <c r="W47" s="52"/>
-      <c r="X47" s="52"/>
-      <c r="Y47" s="52"/>
-      <c r="Z47" s="52"/>
-      <c r="AA47" s="52"/>
-      <c r="AB47" s="52"/>
-      <c r="AC47" s="52"/>
-      <c r="AD47" s="52"/>
-      <c r="AE47" s="52"/>
-      <c r="AF47" s="52"/>
-      <c r="AG47" s="52"/>
-      <c r="AH47" s="52" t="s">
+      <c r="F47" s="88"/>
+      <c r="G47" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="AI47" s="52"/>
-      <c r="AJ47" s="52"/>
-      <c r="AK47" s="52"/>
-      <c r="AL47" s="52"/>
-      <c r="AM47" s="52"/>
-      <c r="AN47" s="52"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="88"/>
+      <c r="P47" s="88"/>
+      <c r="Q47" s="88"/>
+      <c r="R47" s="88"/>
+      <c r="S47" s="88"/>
+      <c r="T47" s="88"/>
+      <c r="U47" s="88"/>
+      <c r="V47" s="88"/>
+      <c r="W47" s="88"/>
+      <c r="X47" s="88"/>
+      <c r="Y47" s="88"/>
+      <c r="Z47" s="88"/>
+      <c r="AA47" s="88"/>
+      <c r="AB47" s="88"/>
+      <c r="AC47" s="88"/>
+      <c r="AD47" s="88"/>
+      <c r="AE47" s="88"/>
+      <c r="AF47" s="88"/>
+      <c r="AG47" s="88"/>
+      <c r="AH47" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI47" s="88"/>
+      <c r="AJ47" s="88"/>
+      <c r="AK47" s="88"/>
+      <c r="AL47" s="88"/>
+      <c r="AM47" s="88"/>
+      <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="4:90" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48">
         <v>9</v>
       </c>
-      <c r="E48" s="52" t="s">
+      <c r="E48" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="52"/>
-      <c r="W48" s="52"/>
-      <c r="X48" s="52"/>
-      <c r="Y48" s="52"/>
-      <c r="Z48" s="52"/>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="52"/>
-      <c r="AC48" s="52"/>
-      <c r="AD48" s="52"/>
-      <c r="AE48" s="52"/>
-      <c r="AF48" s="52"/>
-      <c r="AG48" s="52"/>
-      <c r="AH48" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI48" s="52"/>
-      <c r="AJ48" s="52"/>
-      <c r="AK48" s="52"/>
-      <c r="AL48" s="52"/>
-      <c r="AM48" s="52"/>
-      <c r="AN48" s="52"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="88"/>
+      <c r="P48" s="88"/>
+      <c r="Q48" s="88"/>
+      <c r="R48" s="88"/>
+      <c r="S48" s="88"/>
+      <c r="T48" s="88"/>
+      <c r="U48" s="88"/>
+      <c r="V48" s="88"/>
+      <c r="W48" s="88"/>
+      <c r="X48" s="88"/>
+      <c r="Y48" s="88"/>
+      <c r="Z48" s="88"/>
+      <c r="AA48" s="88"/>
+      <c r="AB48" s="88"/>
+      <c r="AC48" s="88"/>
+      <c r="AD48" s="88"/>
+      <c r="AE48" s="88"/>
+      <c r="AF48" s="88"/>
+      <c r="AG48" s="88"/>
+      <c r="AH48" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI48" s="88"/>
+      <c r="AJ48" s="88"/>
+      <c r="AK48" s="88"/>
+      <c r="AL48" s="88"/>
+      <c r="AM48" s="88"/>
+      <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49">
         <v>10</v>
       </c>
-      <c r="E49" s="52" t="s">
+      <c r="E49" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="52"/>
-      <c r="O49" s="52"/>
-      <c r="P49" s="52"/>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="52"/>
-      <c r="U49" s="52"/>
-      <c r="V49" s="52"/>
-      <c r="W49" s="52"/>
-      <c r="X49" s="52"/>
-      <c r="Y49" s="52"/>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="52"/>
-      <c r="AB49" s="52"/>
-      <c r="AC49" s="52"/>
-      <c r="AD49" s="52"/>
-      <c r="AE49" s="52"/>
-      <c r="AF49" s="52"/>
-      <c r="AG49" s="52"/>
-      <c r="AH49" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI49" s="52"/>
-      <c r="AJ49" s="52"/>
-      <c r="AK49" s="52"/>
-      <c r="AL49" s="52"/>
-      <c r="AM49" s="52"/>
-      <c r="AN49" s="52"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="88"/>
+      <c r="N49" s="88"/>
+      <c r="O49" s="88"/>
+      <c r="P49" s="88"/>
+      <c r="Q49" s="88"/>
+      <c r="R49" s="88"/>
+      <c r="S49" s="88"/>
+      <c r="T49" s="88"/>
+      <c r="U49" s="88"/>
+      <c r="V49" s="88"/>
+      <c r="W49" s="88"/>
+      <c r="X49" s="88"/>
+      <c r="Y49" s="88"/>
+      <c r="Z49" s="88"/>
+      <c r="AA49" s="88"/>
+      <c r="AB49" s="88"/>
+      <c r="AC49" s="88"/>
+      <c r="AD49" s="88"/>
+      <c r="AE49" s="88"/>
+      <c r="AF49" s="88"/>
+      <c r="AG49" s="88"/>
+      <c r="AH49" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI49" s="88"/>
+      <c r="AJ49" s="88"/>
+      <c r="AK49" s="88"/>
+      <c r="AL49" s="88"/>
+      <c r="AM49" s="88"/>
+      <c r="AN49" s="88"/>
     </row>
     <row r="50" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50">
         <v>11</v>
       </c>
-      <c r="E50" s="52" t="s">
+      <c r="E50" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53" t="s">
+      <c r="F50" s="88"/>
+      <c r="G50" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="88"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="88"/>
+      <c r="P50" s="88"/>
+      <c r="Q50" s="88"/>
+      <c r="R50" s="88"/>
+      <c r="S50" s="88"/>
+      <c r="T50" s="88"/>
+      <c r="U50" s="88"/>
+      <c r="V50" s="88"/>
+      <c r="W50" s="88"/>
+      <c r="X50" s="88"/>
+      <c r="Y50" s="88"/>
+      <c r="Z50" s="88"/>
+      <c r="AA50" s="88"/>
+      <c r="AB50" s="88"/>
+      <c r="AC50" s="88"/>
+      <c r="AD50" s="88"/>
+      <c r="AE50" s="88"/>
+      <c r="AF50" s="88"/>
+      <c r="AG50" s="88"/>
+      <c r="AH50" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="52"/>
-      <c r="S50" s="52"/>
-      <c r="T50" s="52"/>
-      <c r="U50" s="52"/>
-      <c r="V50" s="52"/>
-      <c r="W50" s="52"/>
-      <c r="X50" s="52"/>
-      <c r="Y50" s="52"/>
-      <c r="Z50" s="52"/>
-      <c r="AA50" s="52"/>
-      <c r="AB50" s="52"/>
-      <c r="AC50" s="52"/>
-      <c r="AD50" s="52"/>
-      <c r="AE50" s="52"/>
-      <c r="AF50" s="52"/>
-      <c r="AG50" s="52"/>
-      <c r="AH50" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI50" s="52"/>
-      <c r="AJ50" s="52"/>
-      <c r="AK50" s="52"/>
-      <c r="AL50" s="52"/>
-      <c r="AM50" s="52"/>
-      <c r="AN50" s="52"/>
+      <c r="AI50" s="88"/>
+      <c r="AJ50" s="88"/>
+      <c r="AK50" s="88"/>
+      <c r="AL50" s="88"/>
+      <c r="AM50" s="88"/>
+      <c r="AN50" s="88"/>
     </row>
     <row r="51" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51">
         <v>12</v>
       </c>
-      <c r="E51" s="52" t="s">
+      <c r="E51" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="52"/>
-      <c r="U51" s="52"/>
-      <c r="V51" s="52"/>
-      <c r="W51" s="52"/>
-      <c r="X51" s="52"/>
-      <c r="Y51" s="52"/>
-      <c r="Z51" s="52"/>
-      <c r="AA51" s="52"/>
-      <c r="AB51" s="52"/>
-      <c r="AC51" s="52"/>
-      <c r="AD51" s="52"/>
-      <c r="AE51" s="52"/>
-      <c r="AF51" s="52"/>
-      <c r="AG51" s="52"/>
-      <c r="AH51" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI51" s="52"/>
-      <c r="AJ51" s="52"/>
-      <c r="AK51" s="52"/>
-      <c r="AL51" s="52"/>
-      <c r="AM51" s="52"/>
-      <c r="AN51" s="52"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="88"/>
+      <c r="N51" s="88"/>
+      <c r="O51" s="88"/>
+      <c r="P51" s="88"/>
+      <c r="Q51" s="88"/>
+      <c r="R51" s="88"/>
+      <c r="S51" s="88"/>
+      <c r="T51" s="88"/>
+      <c r="U51" s="88"/>
+      <c r="V51" s="88"/>
+      <c r="W51" s="88"/>
+      <c r="X51" s="88"/>
+      <c r="Y51" s="88"/>
+      <c r="Z51" s="88"/>
+      <c r="AA51" s="88"/>
+      <c r="AB51" s="88"/>
+      <c r="AC51" s="88"/>
+      <c r="AD51" s="88"/>
+      <c r="AE51" s="88"/>
+      <c r="AF51" s="88"/>
+      <c r="AG51" s="88"/>
+      <c r="AH51" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI51" s="88"/>
+      <c r="AJ51" s="88"/>
+      <c r="AK51" s="88"/>
+      <c r="AL51" s="88"/>
+      <c r="AM51" s="88"/>
+      <c r="AN51" s="88"/>
     </row>
     <row r="52" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52">
         <v>13</v>
       </c>
-      <c r="E52" s="52" t="s">
+      <c r="E52" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52" t="s">
+      <c r="F52" s="88"/>
+      <c r="G52" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="88"/>
+      <c r="K52" s="88"/>
+      <c r="L52" s="88"/>
+      <c r="M52" s="88"/>
+      <c r="N52" s="88"/>
+      <c r="O52" s="88"/>
+      <c r="P52" s="88"/>
+      <c r="Q52" s="88"/>
+      <c r="R52" s="88"/>
+      <c r="S52" s="88"/>
+      <c r="T52" s="88"/>
+      <c r="U52" s="88"/>
+      <c r="V52" s="88"/>
+      <c r="W52" s="88"/>
+      <c r="X52" s="88"/>
+      <c r="Y52" s="88"/>
+      <c r="Z52" s="88"/>
+      <c r="AA52" s="88"/>
+      <c r="AB52" s="88"/>
+      <c r="AC52" s="88"/>
+      <c r="AD52" s="88"/>
+      <c r="AE52" s="88"/>
+      <c r="AF52" s="88"/>
+      <c r="AG52" s="88"/>
+      <c r="AH52" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="52"/>
-      <c r="U52" s="52"/>
-      <c r="V52" s="52"/>
-      <c r="W52" s="52"/>
-      <c r="X52" s="52"/>
-      <c r="Y52" s="52"/>
-      <c r="Z52" s="52"/>
-      <c r="AA52" s="52"/>
-      <c r="AB52" s="52"/>
-      <c r="AC52" s="52"/>
-      <c r="AD52" s="52"/>
-      <c r="AE52" s="52"/>
-      <c r="AF52" s="52"/>
-      <c r="AG52" s="52"/>
-      <c r="AH52" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="AI52" s="52"/>
-      <c r="AJ52" s="52"/>
-      <c r="AK52" s="52"/>
-      <c r="AL52" s="52"/>
-      <c r="AM52" s="52"/>
-      <c r="AN52" s="52"/>
+      <c r="AI52" s="88"/>
+      <c r="AJ52" s="88"/>
+      <c r="AK52" s="88"/>
+      <c r="AL52" s="88"/>
+      <c r="AM52" s="88"/>
+      <c r="AN52" s="88"/>
     </row>
     <row r="53" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53">
         <v>14</v>
       </c>
-      <c r="E53" s="52" t="s">
+      <c r="E53" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52" t="s">
+      <c r="F53" s="88"/>
+      <c r="G53" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
+      <c r="K53" s="88"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="88"/>
+      <c r="N53" s="88"/>
+      <c r="O53" s="88"/>
+      <c r="P53" s="88"/>
+      <c r="Q53" s="88"/>
+      <c r="R53" s="88"/>
+      <c r="S53" s="88"/>
+      <c r="T53" s="88"/>
+      <c r="U53" s="88"/>
+      <c r="V53" s="88"/>
+      <c r="W53" s="88"/>
+      <c r="X53" s="88"/>
+      <c r="Y53" s="88"/>
+      <c r="Z53" s="88"/>
+      <c r="AA53" s="88"/>
+      <c r="AB53" s="88"/>
+      <c r="AC53" s="88"/>
+      <c r="AD53" s="88"/>
+      <c r="AE53" s="88"/>
+      <c r="AF53" s="88"/>
+      <c r="AG53" s="88"/>
+      <c r="AH53" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
-      <c r="U53" s="52"/>
-      <c r="V53" s="52"/>
-      <c r="W53" s="52"/>
-      <c r="X53" s="52"/>
-      <c r="Y53" s="52"/>
-      <c r="Z53" s="52"/>
-      <c r="AA53" s="52"/>
-      <c r="AB53" s="52"/>
-      <c r="AC53" s="52"/>
-      <c r="AD53" s="52"/>
-      <c r="AE53" s="52"/>
-      <c r="AF53" s="52"/>
-      <c r="AG53" s="52"/>
-      <c r="AH53" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI53" s="52"/>
-      <c r="AJ53" s="52"/>
-      <c r="AK53" s="52"/>
-      <c r="AL53" s="52"/>
-      <c r="AM53" s="52"/>
-      <c r="AN53" s="52"/>
+      <c r="AI53" s="88"/>
+      <c r="AJ53" s="88"/>
+      <c r="AK53" s="88"/>
+      <c r="AL53" s="88"/>
+      <c r="AM53" s="88"/>
+      <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54">
         <v>15</v>
       </c>
-      <c r="E54" s="52" t="s">
+      <c r="E54" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="52"/>
-      <c r="V54" s="52"/>
-      <c r="W54" s="52"/>
-      <c r="X54" s="52"/>
-      <c r="Y54" s="52"/>
-      <c r="Z54" s="52"/>
-      <c r="AA54" s="52"/>
-      <c r="AB54" s="52"/>
-      <c r="AC54" s="52"/>
-      <c r="AD54" s="52"/>
-      <c r="AE54" s="52"/>
-      <c r="AF54" s="52"/>
-      <c r="AG54" s="52"/>
-      <c r="AH54" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI54" s="52"/>
-      <c r="AJ54" s="52"/>
-      <c r="AK54" s="52"/>
-      <c r="AL54" s="52"/>
-      <c r="AM54" s="52"/>
-      <c r="AN54" s="52"/>
+      <c r="F54" s="88"/>
+      <c r="G54" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
+      <c r="K54" s="88"/>
+      <c r="L54" s="88"/>
+      <c r="M54" s="88"/>
+      <c r="N54" s="88"/>
+      <c r="O54" s="88"/>
+      <c r="P54" s="88"/>
+      <c r="Q54" s="88"/>
+      <c r="R54" s="88"/>
+      <c r="S54" s="88"/>
+      <c r="T54" s="88"/>
+      <c r="U54" s="88"/>
+      <c r="V54" s="88"/>
+      <c r="W54" s="88"/>
+      <c r="X54" s="88"/>
+      <c r="Y54" s="88"/>
+      <c r="Z54" s="88"/>
+      <c r="AA54" s="88"/>
+      <c r="AB54" s="88"/>
+      <c r="AC54" s="88"/>
+      <c r="AD54" s="88"/>
+      <c r="AE54" s="88"/>
+      <c r="AF54" s="88"/>
+      <c r="AG54" s="88"/>
+      <c r="AH54" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI54" s="88"/>
+      <c r="AJ54" s="88"/>
+      <c r="AK54" s="88"/>
+      <c r="AL54" s="88"/>
+      <c r="AM54" s="88"/>
+      <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55">
         <v>16</v>
       </c>
-      <c r="E55" s="52" t="s">
+      <c r="E55" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
-      <c r="U55" s="52"/>
-      <c r="V55" s="52"/>
-      <c r="W55" s="52"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="52"/>
-      <c r="Z55" s="52"/>
-      <c r="AA55" s="52"/>
-      <c r="AB55" s="52"/>
-      <c r="AC55" s="52"/>
-      <c r="AD55" s="52"/>
-      <c r="AE55" s="52"/>
-      <c r="AF55" s="52"/>
-      <c r="AG55" s="52"/>
-      <c r="AH55" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI55" s="52"/>
-      <c r="AJ55" s="52"/>
-      <c r="AK55" s="52"/>
-      <c r="AL55" s="52"/>
-      <c r="AM55" s="52"/>
-      <c r="AN55" s="52"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="88"/>
+      <c r="L55" s="88"/>
+      <c r="M55" s="88"/>
+      <c r="N55" s="88"/>
+      <c r="O55" s="88"/>
+      <c r="P55" s="88"/>
+      <c r="Q55" s="88"/>
+      <c r="R55" s="88"/>
+      <c r="S55" s="88"/>
+      <c r="T55" s="88"/>
+      <c r="U55" s="88"/>
+      <c r="V55" s="88"/>
+      <c r="W55" s="88"/>
+      <c r="X55" s="88"/>
+      <c r="Y55" s="88"/>
+      <c r="Z55" s="88"/>
+      <c r="AA55" s="88"/>
+      <c r="AB55" s="88"/>
+      <c r="AC55" s="88"/>
+      <c r="AD55" s="88"/>
+      <c r="AE55" s="88"/>
+      <c r="AF55" s="88"/>
+      <c r="AG55" s="88"/>
+      <c r="AH55" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI55" s="88"/>
+      <c r="AJ55" s="88"/>
+      <c r="AK55" s="88"/>
+      <c r="AL55" s="88"/>
+      <c r="AM55" s="88"/>
+      <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D56">
         <v>17</v>
       </c>
-      <c r="E56" s="52" t="s">
+      <c r="E56" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53" t="s">
+      <c r="F56" s="88"/>
+      <c r="G56" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="88"/>
+      <c r="L56" s="88"/>
+      <c r="M56" s="88"/>
+      <c r="N56" s="88"/>
+      <c r="O56" s="88"/>
+      <c r="P56" s="88"/>
+      <c r="Q56" s="88"/>
+      <c r="R56" s="88"/>
+      <c r="S56" s="88"/>
+      <c r="T56" s="88"/>
+      <c r="U56" s="88"/>
+      <c r="V56" s="88"/>
+      <c r="W56" s="88"/>
+      <c r="X56" s="88"/>
+      <c r="Y56" s="88"/>
+      <c r="Z56" s="88"/>
+      <c r="AA56" s="88"/>
+      <c r="AB56" s="88"/>
+      <c r="AC56" s="88"/>
+      <c r="AD56" s="88"/>
+      <c r="AE56" s="88"/>
+      <c r="AF56" s="88"/>
+      <c r="AG56" s="88"/>
+      <c r="AH56" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="52"/>
-      <c r="O56" s="52"/>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="52"/>
-      <c r="S56" s="52"/>
-      <c r="T56" s="52"/>
-      <c r="U56" s="52"/>
-      <c r="V56" s="52"/>
-      <c r="W56" s="52"/>
-      <c r="X56" s="52"/>
-      <c r="Y56" s="52"/>
-      <c r="Z56" s="52"/>
-      <c r="AA56" s="52"/>
-      <c r="AB56" s="52"/>
-      <c r="AC56" s="52"/>
-      <c r="AD56" s="52"/>
-      <c r="AE56" s="52"/>
-      <c r="AF56" s="52"/>
-      <c r="AG56" s="52"/>
-      <c r="AH56" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI56" s="52"/>
-      <c r="AJ56" s="52"/>
-      <c r="AK56" s="52"/>
-      <c r="AL56" s="52"/>
-      <c r="AM56" s="52"/>
-      <c r="AN56" s="52"/>
+      <c r="AI56" s="88"/>
+      <c r="AJ56" s="88"/>
+      <c r="AK56" s="88"/>
+      <c r="AL56" s="88"/>
+      <c r="AM56" s="88"/>
+      <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57">
         <v>18</v>
       </c>
-      <c r="E57" s="52" t="s">
+      <c r="E57" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="52"/>
-      <c r="G57" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="52"/>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="52"/>
-      <c r="S57" s="52"/>
-      <c r="T57" s="52"/>
-      <c r="U57" s="52"/>
-      <c r="V57" s="52"/>
-      <c r="W57" s="52"/>
-      <c r="X57" s="52"/>
-      <c r="Y57" s="52"/>
-      <c r="Z57" s="52"/>
-      <c r="AA57" s="52"/>
-      <c r="AB57" s="52"/>
-      <c r="AC57" s="52"/>
-      <c r="AD57" s="52"/>
-      <c r="AE57" s="52"/>
-      <c r="AF57" s="52"/>
-      <c r="AG57" s="52"/>
-      <c r="AH57" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI57" s="52"/>
-      <c r="AJ57" s="52"/>
-      <c r="AK57" s="52"/>
-      <c r="AL57" s="52"/>
-      <c r="AM57" s="52"/>
-      <c r="AN57" s="52"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="88"/>
+      <c r="M57" s="88"/>
+      <c r="N57" s="88"/>
+      <c r="O57" s="88"/>
+      <c r="P57" s="88"/>
+      <c r="Q57" s="88"/>
+      <c r="R57" s="88"/>
+      <c r="S57" s="88"/>
+      <c r="T57" s="88"/>
+      <c r="U57" s="88"/>
+      <c r="V57" s="88"/>
+      <c r="W57" s="88"/>
+      <c r="X57" s="88"/>
+      <c r="Y57" s="88"/>
+      <c r="Z57" s="88"/>
+      <c r="AA57" s="88"/>
+      <c r="AB57" s="88"/>
+      <c r="AC57" s="88"/>
+      <c r="AD57" s="88"/>
+      <c r="AE57" s="88"/>
+      <c r="AF57" s="88"/>
+      <c r="AG57" s="88"/>
+      <c r="AH57" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI57" s="88"/>
+      <c r="AJ57" s="88"/>
+      <c r="AK57" s="88"/>
+      <c r="AL57" s="88"/>
+      <c r="AM57" s="88"/>
+      <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58">
         <v>19</v>
       </c>
-      <c r="E58" s="52" t="s">
+      <c r="E58" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="52"/>
-      <c r="S58" s="52"/>
-      <c r="T58" s="52"/>
-      <c r="U58" s="52"/>
-      <c r="V58" s="52"/>
-      <c r="W58" s="52"/>
-      <c r="X58" s="52"/>
-      <c r="Y58" s="52"/>
-      <c r="Z58" s="52"/>
-      <c r="AA58" s="52"/>
-      <c r="AB58" s="52"/>
-      <c r="AC58" s="52"/>
-      <c r="AD58" s="52"/>
-      <c r="AE58" s="52"/>
-      <c r="AF58" s="52"/>
-      <c r="AG58" s="52"/>
-      <c r="AH58" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI58" s="52"/>
-      <c r="AJ58" s="52"/>
-      <c r="AK58" s="52"/>
-      <c r="AL58" s="52"/>
-      <c r="AM58" s="52"/>
-      <c r="AN58" s="52"/>
+      <c r="F58" s="88"/>
+      <c r="G58" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="H58" s="88"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="88"/>
+      <c r="K58" s="88"/>
+      <c r="L58" s="88"/>
+      <c r="M58" s="88"/>
+      <c r="N58" s="88"/>
+      <c r="O58" s="88"/>
+      <c r="P58" s="88"/>
+      <c r="Q58" s="88"/>
+      <c r="R58" s="88"/>
+      <c r="S58" s="88"/>
+      <c r="T58" s="88"/>
+      <c r="U58" s="88"/>
+      <c r="V58" s="88"/>
+      <c r="W58" s="88"/>
+      <c r="X58" s="88"/>
+      <c r="Y58" s="88"/>
+      <c r="Z58" s="88"/>
+      <c r="AA58" s="88"/>
+      <c r="AB58" s="88"/>
+      <c r="AC58" s="88"/>
+      <c r="AD58" s="88"/>
+      <c r="AE58" s="88"/>
+      <c r="AF58" s="88"/>
+      <c r="AG58" s="88"/>
+      <c r="AH58" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI58" s="88"/>
+      <c r="AJ58" s="88"/>
+      <c r="AK58" s="88"/>
+      <c r="AL58" s="88"/>
+      <c r="AM58" s="88"/>
+      <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D59">
         <v>20</v>
       </c>
-      <c r="E59" s="52" t="s">
+      <c r="E59" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="52"/>
-      <c r="U59" s="52"/>
-      <c r="V59" s="52"/>
-      <c r="W59" s="52"/>
-      <c r="X59" s="52"/>
-      <c r="Y59" s="52"/>
-      <c r="Z59" s="52"/>
-      <c r="AA59" s="52"/>
-      <c r="AB59" s="52"/>
-      <c r="AC59" s="52"/>
-      <c r="AD59" s="52"/>
-      <c r="AE59" s="52"/>
-      <c r="AF59" s="52"/>
-      <c r="AG59" s="52"/>
-      <c r="AH59" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI59" s="52"/>
-      <c r="AJ59" s="52"/>
-      <c r="AK59" s="52"/>
-      <c r="AL59" s="52"/>
-      <c r="AM59" s="52"/>
-      <c r="AN59" s="52"/>
+      <c r="F59" s="88"/>
+      <c r="G59" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="H59" s="88"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
+      <c r="K59" s="88"/>
+      <c r="L59" s="88"/>
+      <c r="M59" s="88"/>
+      <c r="N59" s="88"/>
+      <c r="O59" s="88"/>
+      <c r="P59" s="88"/>
+      <c r="Q59" s="88"/>
+      <c r="R59" s="88"/>
+      <c r="S59" s="88"/>
+      <c r="T59" s="88"/>
+      <c r="U59" s="88"/>
+      <c r="V59" s="88"/>
+      <c r="W59" s="88"/>
+      <c r="X59" s="88"/>
+      <c r="Y59" s="88"/>
+      <c r="Z59" s="88"/>
+      <c r="AA59" s="88"/>
+      <c r="AB59" s="88"/>
+      <c r="AC59" s="88"/>
+      <c r="AD59" s="88"/>
+      <c r="AE59" s="88"/>
+      <c r="AF59" s="88"/>
+      <c r="AG59" s="88"/>
+      <c r="AH59" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI59" s="88"/>
+      <c r="AJ59" s="88"/>
+      <c r="AK59" s="88"/>
+      <c r="AL59" s="88"/>
+      <c r="AM59" s="88"/>
+      <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D60">
         <v>21</v>
       </c>
-      <c r="E60" s="52" t="s">
+      <c r="E60" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="52"/>
-      <c r="S60" s="52"/>
-      <c r="T60" s="52"/>
-      <c r="U60" s="52"/>
-      <c r="V60" s="52"/>
-      <c r="W60" s="52"/>
-      <c r="X60" s="52"/>
-      <c r="Y60" s="52"/>
-      <c r="Z60" s="52"/>
-      <c r="AA60" s="52"/>
-      <c r="AB60" s="52"/>
-      <c r="AC60" s="52"/>
-      <c r="AD60" s="52"/>
-      <c r="AE60" s="52"/>
-      <c r="AF60" s="52"/>
-      <c r="AG60" s="52"/>
-      <c r="AH60" s="52" t="s">
+      <c r="F60" s="88"/>
+      <c r="G60" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="AI60" s="52"/>
-      <c r="AJ60" s="52"/>
-      <c r="AK60" s="52"/>
-      <c r="AL60" s="52"/>
-      <c r="AM60" s="52"/>
-      <c r="AN60" s="52"/>
+      <c r="H60" s="88"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="88"/>
+      <c r="L60" s="88"/>
+      <c r="M60" s="88"/>
+      <c r="N60" s="88"/>
+      <c r="O60" s="88"/>
+      <c r="P60" s="88"/>
+      <c r="Q60" s="88"/>
+      <c r="R60" s="88"/>
+      <c r="S60" s="88"/>
+      <c r="T60" s="88"/>
+      <c r="U60" s="88"/>
+      <c r="V60" s="88"/>
+      <c r="W60" s="88"/>
+      <c r="X60" s="88"/>
+      <c r="Y60" s="88"/>
+      <c r="Z60" s="88"/>
+      <c r="AA60" s="88"/>
+      <c r="AB60" s="88"/>
+      <c r="AC60" s="88"/>
+      <c r="AD60" s="88"/>
+      <c r="AE60" s="88"/>
+      <c r="AF60" s="88"/>
+      <c r="AG60" s="88"/>
+      <c r="AH60" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI60" s="88"/>
+      <c r="AJ60" s="88"/>
+      <c r="AK60" s="88"/>
+      <c r="AL60" s="88"/>
+      <c r="AM60" s="88"/>
+      <c r="AN60" s="88"/>
     </row>
     <row r="61" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D61">
         <v>22</v>
       </c>
-      <c r="E61" s="52" t="s">
+      <c r="E61" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F61" s="52"/>
-      <c r="G61" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="52"/>
-      <c r="S61" s="52"/>
-      <c r="T61" s="52"/>
-      <c r="U61" s="52"/>
-      <c r="V61" s="52"/>
-      <c r="W61" s="52"/>
-      <c r="X61" s="52"/>
-      <c r="Y61" s="52"/>
-      <c r="Z61" s="52"/>
-      <c r="AA61" s="52"/>
-      <c r="AB61" s="52"/>
-      <c r="AC61" s="52"/>
-      <c r="AD61" s="52"/>
-      <c r="AE61" s="52"/>
-      <c r="AF61" s="52"/>
-      <c r="AG61" s="52"/>
-      <c r="AH61" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI61" s="52"/>
-      <c r="AJ61" s="52"/>
-      <c r="AK61" s="52"/>
-      <c r="AL61" s="52"/>
-      <c r="AM61" s="52"/>
-      <c r="AN61" s="52"/>
+      <c r="F61" s="88"/>
+      <c r="G61" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="H61" s="88"/>
+      <c r="I61" s="88"/>
+      <c r="J61" s="88"/>
+      <c r="K61" s="88"/>
+      <c r="L61" s="88"/>
+      <c r="M61" s="88"/>
+      <c r="N61" s="88"/>
+      <c r="O61" s="88"/>
+      <c r="P61" s="88"/>
+      <c r="Q61" s="88"/>
+      <c r="R61" s="88"/>
+      <c r="S61" s="88"/>
+      <c r="T61" s="88"/>
+      <c r="U61" s="88"/>
+      <c r="V61" s="88"/>
+      <c r="W61" s="88"/>
+      <c r="X61" s="88"/>
+      <c r="Y61" s="88"/>
+      <c r="Z61" s="88"/>
+      <c r="AA61" s="88"/>
+      <c r="AB61" s="88"/>
+      <c r="AC61" s="88"/>
+      <c r="AD61" s="88"/>
+      <c r="AE61" s="88"/>
+      <c r="AF61" s="88"/>
+      <c r="AG61" s="88"/>
+      <c r="AH61" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI61" s="88"/>
+      <c r="AJ61" s="88"/>
+      <c r="AK61" s="88"/>
+      <c r="AL61" s="88"/>
+      <c r="AM61" s="88"/>
+      <c r="AN61" s="88"/>
     </row>
     <row r="62" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D62">
         <v>23</v>
       </c>
-      <c r="E62" s="52" t="s">
+      <c r="E62" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="52"/>
-      <c r="S62" s="52"/>
-      <c r="T62" s="52"/>
-      <c r="U62" s="52"/>
-      <c r="V62" s="52"/>
-      <c r="W62" s="52"/>
-      <c r="X62" s="52"/>
-      <c r="Y62" s="52"/>
-      <c r="Z62" s="52"/>
-      <c r="AA62" s="52"/>
-      <c r="AB62" s="52"/>
-      <c r="AC62" s="52"/>
-      <c r="AD62" s="52"/>
-      <c r="AE62" s="52"/>
-      <c r="AF62" s="52"/>
-      <c r="AG62" s="52"/>
-      <c r="AH62" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI62" s="52"/>
-      <c r="AJ62" s="52"/>
-      <c r="AK62" s="52"/>
-      <c r="AL62" s="52"/>
-      <c r="AM62" s="52"/>
-      <c r="AN62" s="52"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="88"/>
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
+      <c r="N62" s="88"/>
+      <c r="O62" s="88"/>
+      <c r="P62" s="88"/>
+      <c r="Q62" s="88"/>
+      <c r="R62" s="88"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="88"/>
+      <c r="U62" s="88"/>
+      <c r="V62" s="88"/>
+      <c r="W62" s="88"/>
+      <c r="X62" s="88"/>
+      <c r="Y62" s="88"/>
+      <c r="Z62" s="88"/>
+      <c r="AA62" s="88"/>
+      <c r="AB62" s="88"/>
+      <c r="AC62" s="88"/>
+      <c r="AD62" s="88"/>
+      <c r="AE62" s="88"/>
+      <c r="AF62" s="88"/>
+      <c r="AG62" s="88"/>
+      <c r="AH62" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI62" s="88"/>
+      <c r="AJ62" s="88"/>
+      <c r="AK62" s="88"/>
+      <c r="AL62" s="88"/>
+      <c r="AM62" s="88"/>
+      <c r="AN62" s="88"/>
     </row>
     <row r="63" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D63">
         <v>24</v>
       </c>
-      <c r="E63" s="52" t="s">
+      <c r="E63" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="52"/>
-      <c r="G63" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="52"/>
-      <c r="S63" s="52"/>
-      <c r="T63" s="52"/>
-      <c r="U63" s="52"/>
-      <c r="V63" s="52"/>
-      <c r="W63" s="52"/>
-      <c r="X63" s="52"/>
-      <c r="Y63" s="52"/>
-      <c r="Z63" s="52"/>
-      <c r="AA63" s="52"/>
-      <c r="AB63" s="52"/>
-      <c r="AC63" s="52"/>
-      <c r="AD63" s="52"/>
-      <c r="AE63" s="52"/>
-      <c r="AF63" s="52"/>
-      <c r="AG63" s="52"/>
-      <c r="AH63" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI63" s="52"/>
-      <c r="AJ63" s="52"/>
-      <c r="AK63" s="52"/>
-      <c r="AL63" s="52"/>
-      <c r="AM63" s="52"/>
-      <c r="AN63" s="52"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="H63" s="88"/>
+      <c r="I63" s="88"/>
+      <c r="J63" s="88"/>
+      <c r="K63" s="88"/>
+      <c r="L63" s="88"/>
+      <c r="M63" s="88"/>
+      <c r="N63" s="88"/>
+      <c r="O63" s="88"/>
+      <c r="P63" s="88"/>
+      <c r="Q63" s="88"/>
+      <c r="R63" s="88"/>
+      <c r="S63" s="88"/>
+      <c r="T63" s="88"/>
+      <c r="U63" s="88"/>
+      <c r="V63" s="88"/>
+      <c r="W63" s="88"/>
+      <c r="X63" s="88"/>
+      <c r="Y63" s="88"/>
+      <c r="Z63" s="88"/>
+      <c r="AA63" s="88"/>
+      <c r="AB63" s="88"/>
+      <c r="AC63" s="88"/>
+      <c r="AD63" s="88"/>
+      <c r="AE63" s="88"/>
+      <c r="AF63" s="88"/>
+      <c r="AG63" s="88"/>
+      <c r="AH63" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI63" s="88"/>
+      <c r="AJ63" s="88"/>
+      <c r="AK63" s="88"/>
+      <c r="AL63" s="88"/>
+      <c r="AM63" s="88"/>
+      <c r="AN63" s="88"/>
     </row>
     <row r="64" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D64">
         <v>25</v>
       </c>
-      <c r="E64" s="52" t="s">
+      <c r="E64" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="52"/>
-      <c r="S64" s="52"/>
-      <c r="T64" s="52"/>
-      <c r="U64" s="52"/>
-      <c r="V64" s="52"/>
-      <c r="W64" s="52"/>
-      <c r="X64" s="52"/>
-      <c r="Y64" s="52"/>
-      <c r="Z64" s="52"/>
-      <c r="AA64" s="52"/>
-      <c r="AB64" s="52"/>
-      <c r="AC64" s="52"/>
-      <c r="AD64" s="52"/>
-      <c r="AE64" s="52"/>
-      <c r="AF64" s="52"/>
-      <c r="AG64" s="52"/>
-      <c r="AH64" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI64" s="52"/>
-      <c r="AJ64" s="52"/>
-      <c r="AK64" s="52"/>
-      <c r="AL64" s="52"/>
-      <c r="AM64" s="52"/>
-      <c r="AN64" s="52"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="H64" s="88"/>
+      <c r="I64" s="88"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="88"/>
+      <c r="L64" s="88"/>
+      <c r="M64" s="88"/>
+      <c r="N64" s="88"/>
+      <c r="O64" s="88"/>
+      <c r="P64" s="88"/>
+      <c r="Q64" s="88"/>
+      <c r="R64" s="88"/>
+      <c r="S64" s="88"/>
+      <c r="T64" s="88"/>
+      <c r="U64" s="88"/>
+      <c r="V64" s="88"/>
+      <c r="W64" s="88"/>
+      <c r="X64" s="88"/>
+      <c r="Y64" s="88"/>
+      <c r="Z64" s="88"/>
+      <c r="AA64" s="88"/>
+      <c r="AB64" s="88"/>
+      <c r="AC64" s="88"/>
+      <c r="AD64" s="88"/>
+      <c r="AE64" s="88"/>
+      <c r="AF64" s="88"/>
+      <c r="AG64" s="88"/>
+      <c r="AH64" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI64" s="88"/>
+      <c r="AJ64" s="88"/>
+      <c r="AK64" s="88"/>
+      <c r="AL64" s="88"/>
+      <c r="AM64" s="88"/>
+      <c r="AN64" s="88"/>
     </row>
     <row r="65" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D65">
         <v>26</v>
       </c>
-      <c r="E65" s="52" t="s">
+      <c r="E65" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52" t="s">
+      <c r="F65" s="88"/>
+      <c r="G65" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="H65" s="88"/>
+      <c r="I65" s="88"/>
+      <c r="J65" s="88"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="88"/>
+      <c r="M65" s="88"/>
+      <c r="N65" s="88"/>
+      <c r="O65" s="88"/>
+      <c r="P65" s="88"/>
+      <c r="Q65" s="88"/>
+      <c r="R65" s="88"/>
+      <c r="S65" s="88"/>
+      <c r="T65" s="88"/>
+      <c r="U65" s="88"/>
+      <c r="V65" s="88"/>
+      <c r="W65" s="88"/>
+      <c r="X65" s="88"/>
+      <c r="Y65" s="88"/>
+      <c r="Z65" s="88"/>
+      <c r="AA65" s="88"/>
+      <c r="AB65" s="88"/>
+      <c r="AC65" s="88"/>
+      <c r="AD65" s="88"/>
+      <c r="AE65" s="88"/>
+      <c r="AF65" s="88"/>
+      <c r="AG65" s="88"/>
+      <c r="AH65" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="52"/>
-      <c r="S65" s="52"/>
-      <c r="T65" s="52"/>
-      <c r="U65" s="52"/>
-      <c r="V65" s="52"/>
-      <c r="W65" s="52"/>
-      <c r="X65" s="52"/>
-      <c r="Y65" s="52"/>
-      <c r="Z65" s="52"/>
-      <c r="AA65" s="52"/>
-      <c r="AB65" s="52"/>
-      <c r="AC65" s="52"/>
-      <c r="AD65" s="52"/>
-      <c r="AE65" s="52"/>
-      <c r="AF65" s="52"/>
-      <c r="AG65" s="52"/>
-      <c r="AH65" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI65" s="52"/>
-      <c r="AJ65" s="52"/>
-      <c r="AK65" s="52"/>
-      <c r="AL65" s="52"/>
-      <c r="AM65" s="52"/>
-      <c r="AN65" s="52"/>
+      <c r="AI65" s="88"/>
+      <c r="AJ65" s="88"/>
+      <c r="AK65" s="88"/>
+      <c r="AL65" s="88"/>
+      <c r="AM65" s="88"/>
+      <c r="AN65" s="88"/>
     </row>
     <row r="66" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D66">
         <v>27</v>
       </c>
-      <c r="E66" s="52" t="s">
+      <c r="E66" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
-      <c r="N66" s="52"/>
-      <c r="O66" s="52"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="52"/>
-      <c r="S66" s="52"/>
-      <c r="T66" s="52"/>
-      <c r="U66" s="52"/>
-      <c r="V66" s="52"/>
-      <c r="W66" s="52"/>
-      <c r="X66" s="52"/>
-      <c r="Y66" s="52"/>
-      <c r="Z66" s="52"/>
-      <c r="AA66" s="52"/>
-      <c r="AB66" s="52"/>
-      <c r="AC66" s="52"/>
-      <c r="AD66" s="52"/>
-      <c r="AE66" s="52"/>
-      <c r="AF66" s="52"/>
-      <c r="AG66" s="52"/>
-      <c r="AH66" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI66" s="52"/>
-      <c r="AJ66" s="52"/>
-      <c r="AK66" s="52"/>
-      <c r="AL66" s="52"/>
-      <c r="AM66" s="52"/>
-      <c r="AN66" s="52"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="88"/>
+      <c r="K66" s="88"/>
+      <c r="L66" s="88"/>
+      <c r="M66" s="88"/>
+      <c r="N66" s="88"/>
+      <c r="O66" s="88"/>
+      <c r="P66" s="88"/>
+      <c r="Q66" s="88"/>
+      <c r="R66" s="88"/>
+      <c r="S66" s="88"/>
+      <c r="T66" s="88"/>
+      <c r="U66" s="88"/>
+      <c r="V66" s="88"/>
+      <c r="W66" s="88"/>
+      <c r="X66" s="88"/>
+      <c r="Y66" s="88"/>
+      <c r="Z66" s="88"/>
+      <c r="AA66" s="88"/>
+      <c r="AB66" s="88"/>
+      <c r="AC66" s="88"/>
+      <c r="AD66" s="88"/>
+      <c r="AE66" s="88"/>
+      <c r="AF66" s="88"/>
+      <c r="AG66" s="88"/>
+      <c r="AH66" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI66" s="88"/>
+      <c r="AJ66" s="88"/>
+      <c r="AK66" s="88"/>
+      <c r="AL66" s="88"/>
+      <c r="AM66" s="88"/>
+      <c r="AN66" s="88"/>
     </row>
     <row r="67" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D67">
         <v>28</v>
       </c>
-      <c r="E67" s="52" t="s">
+      <c r="E67" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="52"/>
-      <c r="S67" s="52"/>
-      <c r="T67" s="52"/>
-      <c r="U67" s="52"/>
-      <c r="V67" s="52"/>
-      <c r="W67" s="52"/>
-      <c r="X67" s="52"/>
-      <c r="Y67" s="52"/>
-      <c r="Z67" s="52"/>
-      <c r="AA67" s="52"/>
-      <c r="AB67" s="52"/>
-      <c r="AC67" s="52"/>
-      <c r="AD67" s="52"/>
-      <c r="AE67" s="52"/>
-      <c r="AF67" s="52"/>
-      <c r="AG67" s="52"/>
-      <c r="AH67" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI67" s="52"/>
-      <c r="AJ67" s="52"/>
-      <c r="AK67" s="52"/>
-      <c r="AL67" s="52"/>
-      <c r="AM67" s="52"/>
-      <c r="AN67" s="52"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="88"/>
+      <c r="K67" s="88"/>
+      <c r="L67" s="88"/>
+      <c r="M67" s="88"/>
+      <c r="N67" s="88"/>
+      <c r="O67" s="88"/>
+      <c r="P67" s="88"/>
+      <c r="Q67" s="88"/>
+      <c r="R67" s="88"/>
+      <c r="S67" s="88"/>
+      <c r="T67" s="88"/>
+      <c r="U67" s="88"/>
+      <c r="V67" s="88"/>
+      <c r="W67" s="88"/>
+      <c r="X67" s="88"/>
+      <c r="Y67" s="88"/>
+      <c r="Z67" s="88"/>
+      <c r="AA67" s="88"/>
+      <c r="AB67" s="88"/>
+      <c r="AC67" s="88"/>
+      <c r="AD67" s="88"/>
+      <c r="AE67" s="88"/>
+      <c r="AF67" s="88"/>
+      <c r="AG67" s="88"/>
+      <c r="AH67" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI67" s="88"/>
+      <c r="AJ67" s="88"/>
+      <c r="AK67" s="88"/>
+      <c r="AL67" s="88"/>
+      <c r="AM67" s="88"/>
+      <c r="AN67" s="88"/>
     </row>
     <row r="68" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D68">
         <v>29</v>
       </c>
-      <c r="E68" s="52" t="s">
+      <c r="E68" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="52"/>
-      <c r="O68" s="52"/>
-      <c r="P68" s="52"/>
-      <c r="Q68" s="52"/>
-      <c r="R68" s="52"/>
-      <c r="S68" s="52"/>
-      <c r="T68" s="52"/>
-      <c r="U68" s="52"/>
-      <c r="V68" s="52"/>
-      <c r="W68" s="52"/>
-      <c r="X68" s="52"/>
-      <c r="Y68" s="52"/>
-      <c r="Z68" s="52"/>
-      <c r="AA68" s="52"/>
-      <c r="AB68" s="52"/>
-      <c r="AC68" s="52"/>
-      <c r="AD68" s="52"/>
-      <c r="AE68" s="52"/>
-      <c r="AF68" s="52"/>
-      <c r="AG68" s="52"/>
-      <c r="AH68" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI68" s="52"/>
-      <c r="AJ68" s="52"/>
-      <c r="AK68" s="52"/>
-      <c r="AL68" s="52"/>
-      <c r="AM68" s="52"/>
-      <c r="AN68" s="52"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="H68" s="88"/>
+      <c r="I68" s="88"/>
+      <c r="J68" s="88"/>
+      <c r="K68" s="88"/>
+      <c r="L68" s="88"/>
+      <c r="M68" s="88"/>
+      <c r="N68" s="88"/>
+      <c r="O68" s="88"/>
+      <c r="P68" s="88"/>
+      <c r="Q68" s="88"/>
+      <c r="R68" s="88"/>
+      <c r="S68" s="88"/>
+      <c r="T68" s="88"/>
+      <c r="U68" s="88"/>
+      <c r="V68" s="88"/>
+      <c r="W68" s="88"/>
+      <c r="X68" s="88"/>
+      <c r="Y68" s="88"/>
+      <c r="Z68" s="88"/>
+      <c r="AA68" s="88"/>
+      <c r="AB68" s="88"/>
+      <c r="AC68" s="88"/>
+      <c r="AD68" s="88"/>
+      <c r="AE68" s="88"/>
+      <c r="AF68" s="88"/>
+      <c r="AG68" s="88"/>
+      <c r="AH68" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI68" s="88"/>
+      <c r="AJ68" s="88"/>
+      <c r="AK68" s="88"/>
+      <c r="AL68" s="88"/>
+      <c r="AM68" s="88"/>
+      <c r="AN68" s="88"/>
     </row>
     <row r="69" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D69">
         <v>30</v>
       </c>
-      <c r="E69" s="52" t="s">
+      <c r="E69" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F69" s="52"/>
-      <c r="G69" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="52"/>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="52"/>
-      <c r="R69" s="52"/>
-      <c r="S69" s="52"/>
-      <c r="T69" s="52"/>
-      <c r="U69" s="52"/>
-      <c r="V69" s="52"/>
-      <c r="W69" s="52"/>
-      <c r="X69" s="52"/>
-      <c r="Y69" s="52"/>
-      <c r="Z69" s="52"/>
-      <c r="AA69" s="52"/>
-      <c r="AB69" s="52"/>
-      <c r="AC69" s="52"/>
-      <c r="AD69" s="52"/>
-      <c r="AE69" s="52"/>
-      <c r="AF69" s="52"/>
-      <c r="AG69" s="52"/>
-      <c r="AH69" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI69" s="52"/>
-      <c r="AJ69" s="52"/>
-      <c r="AK69" s="52"/>
-      <c r="AL69" s="52"/>
-      <c r="AM69" s="52"/>
-      <c r="AN69" s="52"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="H69" s="88"/>
+      <c r="I69" s="88"/>
+      <c r="J69" s="88"/>
+      <c r="K69" s="88"/>
+      <c r="L69" s="88"/>
+      <c r="M69" s="88"/>
+      <c r="N69" s="88"/>
+      <c r="O69" s="88"/>
+      <c r="P69" s="88"/>
+      <c r="Q69" s="88"/>
+      <c r="R69" s="88"/>
+      <c r="S69" s="88"/>
+      <c r="T69" s="88"/>
+      <c r="U69" s="88"/>
+      <c r="V69" s="88"/>
+      <c r="W69" s="88"/>
+      <c r="X69" s="88"/>
+      <c r="Y69" s="88"/>
+      <c r="Z69" s="88"/>
+      <c r="AA69" s="88"/>
+      <c r="AB69" s="88"/>
+      <c r="AC69" s="88"/>
+      <c r="AD69" s="88"/>
+      <c r="AE69" s="88"/>
+      <c r="AF69" s="88"/>
+      <c r="AG69" s="88"/>
+      <c r="AH69" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI69" s="88"/>
+      <c r="AJ69" s="88"/>
+      <c r="AK69" s="88"/>
+      <c r="AL69" s="88"/>
+      <c r="AM69" s="88"/>
+      <c r="AN69" s="88"/>
     </row>
     <row r="70" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D70">
         <v>31</v>
       </c>
-      <c r="E70" s="52" t="s">
+      <c r="E70" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="H70" s="52"/>
-      <c r="I70" s="52"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="52"/>
-      <c r="L70" s="52"/>
-      <c r="M70" s="52"/>
-      <c r="N70" s="52"/>
-      <c r="O70" s="52"/>
-      <c r="P70" s="52"/>
-      <c r="Q70" s="52"/>
-      <c r="R70" s="52"/>
-      <c r="S70" s="52"/>
-      <c r="T70" s="52"/>
-      <c r="U70" s="52"/>
-      <c r="V70" s="52"/>
-      <c r="W70" s="52"/>
-      <c r="X70" s="52"/>
-      <c r="Y70" s="52"/>
-      <c r="Z70" s="52"/>
-      <c r="AA70" s="52"/>
-      <c r="AB70" s="52"/>
-      <c r="AC70" s="52"/>
-      <c r="AD70" s="52"/>
-      <c r="AE70" s="52"/>
-      <c r="AF70" s="52"/>
-      <c r="AG70" s="52"/>
-      <c r="AH70" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI70" s="52"/>
-      <c r="AJ70" s="52"/>
-      <c r="AK70" s="52"/>
-      <c r="AL70" s="52"/>
-      <c r="AM70" s="52"/>
-      <c r="AN70" s="52"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="H70" s="88"/>
+      <c r="I70" s="88"/>
+      <c r="J70" s="88"/>
+      <c r="K70" s="88"/>
+      <c r="L70" s="88"/>
+      <c r="M70" s="88"/>
+      <c r="N70" s="88"/>
+      <c r="O70" s="88"/>
+      <c r="P70" s="88"/>
+      <c r="Q70" s="88"/>
+      <c r="R70" s="88"/>
+      <c r="S70" s="88"/>
+      <c r="T70" s="88"/>
+      <c r="U70" s="88"/>
+      <c r="V70" s="88"/>
+      <c r="W70" s="88"/>
+      <c r="X70" s="88"/>
+      <c r="Y70" s="88"/>
+      <c r="Z70" s="88"/>
+      <c r="AA70" s="88"/>
+      <c r="AB70" s="88"/>
+      <c r="AC70" s="88"/>
+      <c r="AD70" s="88"/>
+      <c r="AE70" s="88"/>
+      <c r="AF70" s="88"/>
+      <c r="AG70" s="88"/>
+      <c r="AH70" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI70" s="88"/>
+      <c r="AJ70" s="88"/>
+      <c r="AK70" s="88"/>
+      <c r="AL70" s="88"/>
+      <c r="AM70" s="88"/>
+      <c r="AN70" s="88"/>
     </row>
     <row r="71" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D71">
         <v>32</v>
       </c>
-      <c r="E71" s="52" t="s">
+      <c r="E71" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52" t="s">
+      <c r="F71" s="88"/>
+      <c r="G71" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="H71" s="88"/>
+      <c r="I71" s="88"/>
+      <c r="J71" s="88"/>
+      <c r="K71" s="88"/>
+      <c r="L71" s="88"/>
+      <c r="M71" s="88"/>
+      <c r="N71" s="88"/>
+      <c r="O71" s="88"/>
+      <c r="P71" s="88"/>
+      <c r="Q71" s="88"/>
+      <c r="R71" s="88"/>
+      <c r="S71" s="88"/>
+      <c r="T71" s="88"/>
+      <c r="U71" s="88"/>
+      <c r="V71" s="88"/>
+      <c r="W71" s="88"/>
+      <c r="X71" s="88"/>
+      <c r="Y71" s="88"/>
+      <c r="Z71" s="88"/>
+      <c r="AA71" s="88"/>
+      <c r="AB71" s="88"/>
+      <c r="AC71" s="88"/>
+      <c r="AD71" s="88"/>
+      <c r="AE71" s="88"/>
+      <c r="AF71" s="88"/>
+      <c r="AG71" s="88"/>
+      <c r="AH71" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="52"/>
-      <c r="L71" s="52"/>
-      <c r="M71" s="52"/>
-      <c r="N71" s="52"/>
-      <c r="O71" s="52"/>
-      <c r="P71" s="52"/>
-      <c r="Q71" s="52"/>
-      <c r="R71" s="52"/>
-      <c r="S71" s="52"/>
-      <c r="T71" s="52"/>
-      <c r="U71" s="52"/>
-      <c r="V71" s="52"/>
-      <c r="W71" s="52"/>
-      <c r="X71" s="52"/>
-      <c r="Y71" s="52"/>
-      <c r="Z71" s="52"/>
-      <c r="AA71" s="52"/>
-      <c r="AB71" s="52"/>
-      <c r="AC71" s="52"/>
-      <c r="AD71" s="52"/>
-      <c r="AE71" s="52"/>
-      <c r="AF71" s="52"/>
-      <c r="AG71" s="52"/>
-      <c r="AH71" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI71" s="52"/>
-      <c r="AJ71" s="52"/>
-      <c r="AK71" s="52"/>
-      <c r="AL71" s="52"/>
-      <c r="AM71" s="52"/>
-      <c r="AN71" s="52"/>
+      <c r="AI71" s="88"/>
+      <c r="AJ71" s="88"/>
+      <c r="AK71" s="88"/>
+      <c r="AL71" s="88"/>
+      <c r="AM71" s="88"/>
+      <c r="AN71" s="88"/>
     </row>
     <row r="72" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72">
         <v>33</v>
       </c>
-      <c r="E72" s="52" t="s">
+      <c r="E72" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="52"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="52"/>
-      <c r="O72" s="52"/>
-      <c r="P72" s="52"/>
-      <c r="Q72" s="52"/>
-      <c r="R72" s="52"/>
-      <c r="S72" s="52"/>
-      <c r="T72" s="52"/>
-      <c r="U72" s="52"/>
-      <c r="V72" s="52"/>
-      <c r="W72" s="52"/>
-      <c r="X72" s="52"/>
-      <c r="Y72" s="52"/>
-      <c r="Z72" s="52"/>
-      <c r="AA72" s="52"/>
-      <c r="AB72" s="52"/>
-      <c r="AC72" s="52"/>
-      <c r="AD72" s="52"/>
-      <c r="AE72" s="52"/>
-      <c r="AF72" s="52"/>
-      <c r="AG72" s="52"/>
-      <c r="AH72" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI72" s="52"/>
-      <c r="AJ72" s="52"/>
-      <c r="AK72" s="52"/>
-      <c r="AL72" s="52"/>
-      <c r="AM72" s="52"/>
-      <c r="AN72" s="52"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="H72" s="88"/>
+      <c r="I72" s="88"/>
+      <c r="J72" s="88"/>
+      <c r="K72" s="88"/>
+      <c r="L72" s="88"/>
+      <c r="M72" s="88"/>
+      <c r="N72" s="88"/>
+      <c r="O72" s="88"/>
+      <c r="P72" s="88"/>
+      <c r="Q72" s="88"/>
+      <c r="R72" s="88"/>
+      <c r="S72" s="88"/>
+      <c r="T72" s="88"/>
+      <c r="U72" s="88"/>
+      <c r="V72" s="88"/>
+      <c r="W72" s="88"/>
+      <c r="X72" s="88"/>
+      <c r="Y72" s="88"/>
+      <c r="Z72" s="88"/>
+      <c r="AA72" s="88"/>
+      <c r="AB72" s="88"/>
+      <c r="AC72" s="88"/>
+      <c r="AD72" s="88"/>
+      <c r="AE72" s="88"/>
+      <c r="AF72" s="88"/>
+      <c r="AG72" s="88"/>
+      <c r="AH72" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI72" s="88"/>
+      <c r="AJ72" s="88"/>
+      <c r="AK72" s="88"/>
+      <c r="AL72" s="88"/>
+      <c r="AM72" s="88"/>
+      <c r="AN72" s="88"/>
     </row>
     <row r="73" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73">
         <v>34</v>
       </c>
-      <c r="E73" s="52" t="s">
+      <c r="E73" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="H73" s="52"/>
-      <c r="I73" s="52"/>
-      <c r="J73" s="52"/>
-      <c r="K73" s="52"/>
-      <c r="L73" s="52"/>
-      <c r="M73" s="52"/>
-      <c r="N73" s="52"/>
-      <c r="O73" s="52"/>
-      <c r="P73" s="52"/>
-      <c r="Q73" s="52"/>
-      <c r="R73" s="52"/>
-      <c r="S73" s="52"/>
-      <c r="T73" s="52"/>
-      <c r="U73" s="52"/>
-      <c r="V73" s="52"/>
-      <c r="W73" s="52"/>
-      <c r="X73" s="52"/>
-      <c r="Y73" s="52"/>
-      <c r="Z73" s="52"/>
-      <c r="AA73" s="52"/>
-      <c r="AB73" s="52"/>
-      <c r="AC73" s="52"/>
-      <c r="AD73" s="52"/>
-      <c r="AE73" s="52"/>
-      <c r="AF73" s="52"/>
-      <c r="AG73" s="52"/>
-      <c r="AH73" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI73" s="52"/>
-      <c r="AJ73" s="52"/>
-      <c r="AK73" s="52"/>
-      <c r="AL73" s="52"/>
-      <c r="AM73" s="52"/>
-      <c r="AN73" s="52"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="H73" s="88"/>
+      <c r="I73" s="88"/>
+      <c r="J73" s="88"/>
+      <c r="K73" s="88"/>
+      <c r="L73" s="88"/>
+      <c r="M73" s="88"/>
+      <c r="N73" s="88"/>
+      <c r="O73" s="88"/>
+      <c r="P73" s="88"/>
+      <c r="Q73" s="88"/>
+      <c r="R73" s="88"/>
+      <c r="S73" s="88"/>
+      <c r="T73" s="88"/>
+      <c r="U73" s="88"/>
+      <c r="V73" s="88"/>
+      <c r="W73" s="88"/>
+      <c r="X73" s="88"/>
+      <c r="Y73" s="88"/>
+      <c r="Z73" s="88"/>
+      <c r="AA73" s="88"/>
+      <c r="AB73" s="88"/>
+      <c r="AC73" s="88"/>
+      <c r="AD73" s="88"/>
+      <c r="AE73" s="88"/>
+      <c r="AF73" s="88"/>
+      <c r="AG73" s="88"/>
+      <c r="AH73" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI73" s="88"/>
+      <c r="AJ73" s="88"/>
+      <c r="AK73" s="88"/>
+      <c r="AL73" s="88"/>
+      <c r="AM73" s="88"/>
+      <c r="AN73" s="88"/>
     </row>
     <row r="74" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D74">
         <v>35</v>
       </c>
-      <c r="E74" s="52" t="s">
+      <c r="E74" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="H74" s="52"/>
-      <c r="I74" s="52"/>
-      <c r="J74" s="52"/>
-      <c r="K74" s="52"/>
-      <c r="L74" s="52"/>
-      <c r="M74" s="52"/>
-      <c r="N74" s="52"/>
-      <c r="O74" s="52"/>
-      <c r="P74" s="52"/>
-      <c r="Q74" s="52"/>
-      <c r="R74" s="52"/>
-      <c r="S74" s="52"/>
-      <c r="T74" s="52"/>
-      <c r="U74" s="52"/>
-      <c r="V74" s="52"/>
-      <c r="W74" s="52"/>
-      <c r="X74" s="52"/>
-      <c r="Y74" s="52"/>
-      <c r="Z74" s="52"/>
-      <c r="AA74" s="52"/>
-      <c r="AB74" s="52"/>
-      <c r="AC74" s="52"/>
-      <c r="AD74" s="52"/>
-      <c r="AE74" s="52"/>
-      <c r="AF74" s="52"/>
-      <c r="AG74" s="52"/>
-      <c r="AH74" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI74" s="52"/>
-      <c r="AJ74" s="52"/>
-      <c r="AK74" s="52"/>
-      <c r="AL74" s="52"/>
-      <c r="AM74" s="52"/>
-      <c r="AN74" s="52"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="H74" s="88"/>
+      <c r="I74" s="88"/>
+      <c r="J74" s="88"/>
+      <c r="K74" s="88"/>
+      <c r="L74" s="88"/>
+      <c r="M74" s="88"/>
+      <c r="N74" s="88"/>
+      <c r="O74" s="88"/>
+      <c r="P74" s="88"/>
+      <c r="Q74" s="88"/>
+      <c r="R74" s="88"/>
+      <c r="S74" s="88"/>
+      <c r="T74" s="88"/>
+      <c r="U74" s="88"/>
+      <c r="V74" s="88"/>
+      <c r="W74" s="88"/>
+      <c r="X74" s="88"/>
+      <c r="Y74" s="88"/>
+      <c r="Z74" s="88"/>
+      <c r="AA74" s="88"/>
+      <c r="AB74" s="88"/>
+      <c r="AC74" s="88"/>
+      <c r="AD74" s="88"/>
+      <c r="AE74" s="88"/>
+      <c r="AF74" s="88"/>
+      <c r="AG74" s="88"/>
+      <c r="AH74" s="88" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI74" s="88"/>
+      <c r="AJ74" s="88"/>
+      <c r="AK74" s="88"/>
+      <c r="AL74" s="88"/>
+      <c r="AM74" s="88"/>
+      <c r="AN74" s="88"/>
     </row>
     <row r="75" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D75">
         <v>35</v>
       </c>
-      <c r="E75" s="52" t="s">
+      <c r="E75" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="H75" s="52"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="52"/>
-      <c r="L75" s="52"/>
-      <c r="M75" s="52"/>
-      <c r="N75" s="52"/>
-      <c r="O75" s="52"/>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="52"/>
-      <c r="R75" s="52"/>
-      <c r="S75" s="52"/>
-      <c r="T75" s="52"/>
-      <c r="U75" s="52"/>
-      <c r="V75" s="52"/>
-      <c r="W75" s="52"/>
-      <c r="X75" s="52"/>
-      <c r="Y75" s="52"/>
-      <c r="Z75" s="52"/>
-      <c r="AA75" s="52"/>
-      <c r="AB75" s="52"/>
-      <c r="AC75" s="52"/>
-      <c r="AD75" s="52"/>
-      <c r="AE75" s="52"/>
-      <c r="AF75" s="52"/>
-      <c r="AG75" s="52"/>
-      <c r="AH75" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI75" s="52"/>
-      <c r="AJ75" s="52"/>
-      <c r="AK75" s="52"/>
-      <c r="AL75" s="52"/>
-      <c r="AM75" s="52"/>
-      <c r="AN75" s="52"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="H75" s="88"/>
+      <c r="I75" s="88"/>
+      <c r="J75" s="88"/>
+      <c r="K75" s="88"/>
+      <c r="L75" s="88"/>
+      <c r="M75" s="88"/>
+      <c r="N75" s="88"/>
+      <c r="O75" s="88"/>
+      <c r="P75" s="88"/>
+      <c r="Q75" s="88"/>
+      <c r="R75" s="88"/>
+      <c r="S75" s="88"/>
+      <c r="T75" s="88"/>
+      <c r="U75" s="88"/>
+      <c r="V75" s="88"/>
+      <c r="W75" s="88"/>
+      <c r="X75" s="88"/>
+      <c r="Y75" s="88"/>
+      <c r="Z75" s="88"/>
+      <c r="AA75" s="88"/>
+      <c r="AB75" s="88"/>
+      <c r="AC75" s="88"/>
+      <c r="AD75" s="88"/>
+      <c r="AE75" s="88"/>
+      <c r="AF75" s="88"/>
+      <c r="AG75" s="88"/>
+      <c r="AH75" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI75" s="88"/>
+      <c r="AJ75" s="88"/>
+      <c r="AK75" s="88"/>
+      <c r="AL75" s="88"/>
+      <c r="AM75" s="88"/>
+      <c r="AN75" s="88"/>
     </row>
     <row r="76" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D76">
         <v>36</v>
       </c>
-      <c r="E76" s="52" t="s">
+      <c r="E76" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52" t="s">
+      <c r="F76" s="88"/>
+      <c r="G76" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="H76" s="88"/>
+      <c r="I76" s="88"/>
+      <c r="J76" s="88"/>
+      <c r="K76" s="88"/>
+      <c r="L76" s="88"/>
+      <c r="M76" s="88"/>
+      <c r="N76" s="88"/>
+      <c r="O76" s="88"/>
+      <c r="P76" s="88"/>
+      <c r="Q76" s="88"/>
+      <c r="R76" s="88"/>
+      <c r="S76" s="88"/>
+      <c r="T76" s="88"/>
+      <c r="U76" s="88"/>
+      <c r="V76" s="88"/>
+      <c r="W76" s="88"/>
+      <c r="X76" s="88"/>
+      <c r="Y76" s="88"/>
+      <c r="Z76" s="88"/>
+      <c r="AA76" s="88"/>
+      <c r="AB76" s="88"/>
+      <c r="AC76" s="88"/>
+      <c r="AD76" s="88"/>
+      <c r="AE76" s="88"/>
+      <c r="AF76" s="88"/>
+      <c r="AG76" s="88"/>
+      <c r="AH76" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="H76" s="52"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
-      <c r="K76" s="52"/>
-      <c r="L76" s="52"/>
-      <c r="M76" s="52"/>
-      <c r="N76" s="52"/>
-      <c r="O76" s="52"/>
-      <c r="P76" s="52"/>
-      <c r="Q76" s="52"/>
-      <c r="R76" s="52"/>
-      <c r="S76" s="52"/>
-      <c r="T76" s="52"/>
-      <c r="U76" s="52"/>
-      <c r="V76" s="52"/>
-      <c r="W76" s="52"/>
-      <c r="X76" s="52"/>
-      <c r="Y76" s="52"/>
-      <c r="Z76" s="52"/>
-      <c r="AA76" s="52"/>
-      <c r="AB76" s="52"/>
-      <c r="AC76" s="52"/>
-      <c r="AD76" s="52"/>
-      <c r="AE76" s="52"/>
-      <c r="AF76" s="52"/>
-      <c r="AG76" s="52"/>
-      <c r="AH76" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI76" s="52"/>
-      <c r="AJ76" s="52"/>
-      <c r="AK76" s="52"/>
-      <c r="AL76" s="52"/>
-      <c r="AM76" s="52"/>
-      <c r="AN76" s="52"/>
+      <c r="AI76" s="88"/>
+      <c r="AJ76" s="88"/>
+      <c r="AK76" s="88"/>
+      <c r="AL76" s="88"/>
+      <c r="AM76" s="88"/>
+      <c r="AN76" s="88"/>
     </row>
     <row r="77" spans="4:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D77">
         <v>37</v>
       </c>
-      <c r="E77" s="52" t="s">
+      <c r="E77" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="52"/>
-      <c r="G77" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="H77" s="52"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="52"/>
-      <c r="K77" s="52"/>
-      <c r="L77" s="52"/>
-      <c r="M77" s="52"/>
-      <c r="N77" s="52"/>
-      <c r="O77" s="52"/>
-      <c r="P77" s="52"/>
-      <c r="Q77" s="52"/>
-      <c r="R77" s="52"/>
-      <c r="S77" s="52"/>
-      <c r="T77" s="52"/>
-      <c r="U77" s="52"/>
-      <c r="V77" s="52"/>
-      <c r="W77" s="52"/>
-      <c r="X77" s="52"/>
-      <c r="Y77" s="52"/>
-      <c r="Z77" s="52"/>
-      <c r="AA77" s="52"/>
-      <c r="AB77" s="52"/>
-      <c r="AC77" s="52"/>
-      <c r="AD77" s="52"/>
-      <c r="AE77" s="52"/>
-      <c r="AF77" s="52"/>
-      <c r="AG77" s="52"/>
-      <c r="AH77" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI77" s="52"/>
-      <c r="AJ77" s="52"/>
-      <c r="AK77" s="52"/>
-      <c r="AL77" s="52"/>
-      <c r="AM77" s="52"/>
-      <c r="AN77" s="52"/>
+      <c r="F77" s="88"/>
+      <c r="G77" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="H77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
+      <c r="K77" s="88"/>
+      <c r="L77" s="88"/>
+      <c r="M77" s="88"/>
+      <c r="N77" s="88"/>
+      <c r="O77" s="88"/>
+      <c r="P77" s="88"/>
+      <c r="Q77" s="88"/>
+      <c r="R77" s="88"/>
+      <c r="S77" s="88"/>
+      <c r="T77" s="88"/>
+      <c r="U77" s="88"/>
+      <c r="V77" s="88"/>
+      <c r="W77" s="88"/>
+      <c r="X77" s="88"/>
+      <c r="Y77" s="88"/>
+      <c r="Z77" s="88"/>
+      <c r="AA77" s="88"/>
+      <c r="AB77" s="88"/>
+      <c r="AC77" s="88"/>
+      <c r="AD77" s="88"/>
+      <c r="AE77" s="88"/>
+      <c r="AF77" s="88"/>
+      <c r="AG77" s="88"/>
+      <c r="AH77" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI77" s="88"/>
+      <c r="AJ77" s="88"/>
+      <c r="AK77" s="88"/>
+      <c r="AL77" s="88"/>
+      <c r="AM77" s="88"/>
+      <c r="AN77" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:AG77"/>
-    <mergeCell ref="AH77:AN77"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:AG75"/>
-    <mergeCell ref="AH75:AN75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:AG76"/>
-    <mergeCell ref="AH76:AN76"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:AG73"/>
-    <mergeCell ref="AH73:AN73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:AG74"/>
-    <mergeCell ref="AH74:AN74"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:AG71"/>
-    <mergeCell ref="AH71:AN71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:AG72"/>
-    <mergeCell ref="AH72:AN72"/>
+    <mergeCell ref="BM24:BT25"/>
+    <mergeCell ref="AX32:BE39"/>
+    <mergeCell ref="BO30:BR30"/>
+    <mergeCell ref="CN22:CW22"/>
+    <mergeCell ref="CI23:CJ24"/>
+    <mergeCell ref="CD23:CG23"/>
+    <mergeCell ref="D38:AN38"/>
+    <mergeCell ref="BY20:CL20"/>
+    <mergeCell ref="BJ12:BW12"/>
+    <mergeCell ref="AU28:BH28"/>
+    <mergeCell ref="BJ28:BW28"/>
+    <mergeCell ref="BM14:BT15"/>
+    <mergeCell ref="G7:M13"/>
+    <mergeCell ref="AH7:AN13"/>
+    <mergeCell ref="AH27:AN33"/>
+    <mergeCell ref="G27:M33"/>
+    <mergeCell ref="S16:AB25"/>
+    <mergeCell ref="AU12:BH12"/>
+    <mergeCell ref="AZ18:BC21"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="AH40:AN40"/>
+    <mergeCell ref="AH41:AN41"/>
+    <mergeCell ref="AH42:AN42"/>
+    <mergeCell ref="AH43:AN43"/>
+    <mergeCell ref="G39:AG39"/>
+    <mergeCell ref="AH39:AN39"/>
+    <mergeCell ref="G40:AG40"/>
+    <mergeCell ref="G41:AG41"/>
+    <mergeCell ref="G42:AG42"/>
+    <mergeCell ref="G43:AG43"/>
+    <mergeCell ref="G44:AG44"/>
+    <mergeCell ref="G45:AG45"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="AH62:AN62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G64:AG64"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="AH44:AN44"/>
+    <mergeCell ref="AH45:AN45"/>
+    <mergeCell ref="AH50:AN50"/>
+    <mergeCell ref="AH48:AN48"/>
+    <mergeCell ref="AH49:AN49"/>
+    <mergeCell ref="G63:AG63"/>
+    <mergeCell ref="G52:AG52"/>
+    <mergeCell ref="G53:AG53"/>
+    <mergeCell ref="G54:AG54"/>
+    <mergeCell ref="G55:AG55"/>
+    <mergeCell ref="G56:AG56"/>
+    <mergeCell ref="G57:AG57"/>
+    <mergeCell ref="G50:AG50"/>
+    <mergeCell ref="G51:AG51"/>
+    <mergeCell ref="G48:AG48"/>
+    <mergeCell ref="G46:AG46"/>
+    <mergeCell ref="AH46:AN46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:AG47"/>
+    <mergeCell ref="AH47:AN47"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="AH66:AN66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="AH67:AN67"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:AG70"/>
+    <mergeCell ref="AH70:AN70"/>
+    <mergeCell ref="AH68:AN68"/>
+    <mergeCell ref="AH69:AN69"/>
+    <mergeCell ref="G68:AG68"/>
+    <mergeCell ref="G69:AG69"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G66:AG66"/>
+    <mergeCell ref="G67:AG67"/>
     <mergeCell ref="AH51:AN51"/>
     <mergeCell ref="AH52:AN52"/>
     <mergeCell ref="AH53:AN53"/>
@@ -10846,97 +10902,27 @@
     <mergeCell ref="G60:AG60"/>
     <mergeCell ref="G61:AG61"/>
     <mergeCell ref="G62:AG62"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="AH66:AN66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="AH67:AN67"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:AG70"/>
-    <mergeCell ref="AH70:AN70"/>
-    <mergeCell ref="AH68:AN68"/>
-    <mergeCell ref="AH69:AN69"/>
-    <mergeCell ref="G68:AG68"/>
-    <mergeCell ref="G69:AG69"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G66:AG66"/>
-    <mergeCell ref="G67:AG67"/>
-    <mergeCell ref="G64:AG64"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="AH44:AN44"/>
-    <mergeCell ref="AH45:AN45"/>
-    <mergeCell ref="AH50:AN50"/>
-    <mergeCell ref="AH48:AN48"/>
-    <mergeCell ref="AH49:AN49"/>
-    <mergeCell ref="G63:AG63"/>
-    <mergeCell ref="G52:AG52"/>
-    <mergeCell ref="G53:AG53"/>
-    <mergeCell ref="G54:AG54"/>
-    <mergeCell ref="G55:AG55"/>
-    <mergeCell ref="G56:AG56"/>
-    <mergeCell ref="G57:AG57"/>
-    <mergeCell ref="G50:AG50"/>
-    <mergeCell ref="G51:AG51"/>
-    <mergeCell ref="G48:AG48"/>
-    <mergeCell ref="G46:AG46"/>
-    <mergeCell ref="AH46:AN46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:AG47"/>
-    <mergeCell ref="AH47:AN47"/>
-    <mergeCell ref="AH62:AN62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="AH40:AN40"/>
-    <mergeCell ref="AH41:AN41"/>
-    <mergeCell ref="AH42:AN42"/>
-    <mergeCell ref="AH43:AN43"/>
-    <mergeCell ref="G39:AG39"/>
-    <mergeCell ref="AH39:AN39"/>
-    <mergeCell ref="G40:AG40"/>
-    <mergeCell ref="G41:AG41"/>
-    <mergeCell ref="G42:AG42"/>
-    <mergeCell ref="G43:AG43"/>
-    <mergeCell ref="G44:AG44"/>
-    <mergeCell ref="G45:AG45"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="BM24:BT25"/>
-    <mergeCell ref="AX32:BE39"/>
-    <mergeCell ref="BO30:BR30"/>
-    <mergeCell ref="CN22:CW22"/>
-    <mergeCell ref="CI23:CJ24"/>
-    <mergeCell ref="CD23:CG23"/>
-    <mergeCell ref="D38:AN38"/>
-    <mergeCell ref="BY20:CL20"/>
-    <mergeCell ref="BJ12:BW12"/>
-    <mergeCell ref="AU28:BH28"/>
-    <mergeCell ref="BJ28:BW28"/>
-    <mergeCell ref="BM14:BT15"/>
-    <mergeCell ref="G7:M13"/>
-    <mergeCell ref="AH7:AN13"/>
-    <mergeCell ref="AH27:AN33"/>
-    <mergeCell ref="G27:M33"/>
-    <mergeCell ref="S16:AB25"/>
-    <mergeCell ref="AU12:BH12"/>
-    <mergeCell ref="AZ18:BC21"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:AG73"/>
+    <mergeCell ref="AH73:AN73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:AG74"/>
+    <mergeCell ref="AH74:AN74"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:AG71"/>
+    <mergeCell ref="AH71:AN71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:AG72"/>
+    <mergeCell ref="AH72:AN72"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:AG77"/>
+    <mergeCell ref="AH77:AN77"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:AG75"/>
+    <mergeCell ref="AH75:AN75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:AG76"/>
+    <mergeCell ref="AH76:AN76"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
